--- a/TongHopDuThau.xlsx
+++ b/TongHopDuThau.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B19888-AA38-43F4-A0B5-CFADB3C09834}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="768" firstSheet="5" activeTab="15"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="768" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TBMT" sheetId="2" r:id="rId1"/>
@@ -23,17 +24,19 @@
     <sheet name="BieuTienDo" sheetId="8" r:id="rId14"/>
     <sheet name="BoTriCatDien" sheetId="9" r:id="rId15"/>
     <sheet name="Sheet2" sheetId="19" r:id="rId16"/>
+    <sheet name="Sheet4" sheetId="20" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">DanhMucBCap!$C$1:$I$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">HopDongTuongTu!$A$1:$J$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">NhanSu!$A$1:$O$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Sheet1!$A$1:$M$47</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Sheet2!$B$1:$G$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Sheet2!$A$1:$G$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$A$1:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Sheet4!$B$1:$I$15</definedName>
     <definedName name="tbmt">TBMT!$A:$J</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="718">
   <si>
     <t>CongTrinh</t>
   </si>
@@ -2153,9 +2156,6 @@
     <t>Tên dự án</t>
   </si>
   <si>
-    <t>Công trình: Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</t>
-  </si>
-  <si>
     <t>Vốn vay thương mại và vốn khấu hao cơ bản</t>
   </si>
   <si>
@@ -2204,9 +2204,6 @@
     <t>Xây dựng mới trạm biến áp 3P-160kVA</t>
   </si>
   <si>
-    <t>Nhánh rẽ Nông Doanh 2 từ 2AC50 lên 3ACX50-AC50, chiều dài 532,9m cấp điện cho TBA Nông Doanh 2.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nhánh rẽ Bảo Định từ 2AC50 lên 3ACX50-AC50, chiều dài 133,8m cấp điện cho TBA Bảo Định. </t>
   </si>
   <si>
@@ -2234,9 +2231,6 @@
     <t>01 TBA từ 1P 2´100kVA lên 3P 3´50kVA (Xuân Hòa 3A) – một phần lưới hạ thế của TBA Xuân Hòa 3A chuyển sang nhận nguồn từ TBA Xuân Hòa 3C.</t>
   </si>
   <si>
-    <t>01 TBA  từ 2´50kVA  lên 3P 3´50kVA (Nông Doanh 2).</t>
-  </si>
-  <si>
     <t>01 TBA từ 1P-75kVA  lên 3P 3´37,5kVA (Chợ Xuân Định B).</t>
   </si>
   <si>
@@ -2328,12 +2322,84 @@
   </si>
   <si>
     <t>11 TBA từ 1P 2´100kVA lên 3P-250kVA (Xuân Hòa 1; Xuân Hòa 1A; Xuân Hòa 2; Xuân Hòa 3; Xuân Hòa 3B; Xuân Hòa 4 và Xuân Hòa 7).</t>
+  </si>
+  <si>
+    <t>Lần cắt điện</t>
+  </si>
+  <si>
+    <t>Công tác</t>
+  </si>
+  <si>
+    <t>Nâng cấp trạm biến áp từ 1 pha lên 3 pha01 TBA từ 1P 2´75kVA lên 3P-250kVA (Chợ Xuân Định A).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nâng cấp đường dây trung áp từ 1 pha lên 3 phaNhánh rẽ Bảo Định từ 2AC50 lên 3ACX50-AC50, chiều dài 133,8m cấp điện cho TBA Bảo Định. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nâng cấp đường dây trung áp từ 1 pha lên 3 phaNhánh rẽ Chợ Xuân Định B từ ACX50-AC50 lên 3ACX50-AC50, chiều dài 24m cấp điện cho TBA Chợ Xuân Định B. </t>
+  </si>
+  <si>
+    <t>Nâng cấp đường dây trung áp từ 1 pha lên 3 phaNhánh rẽ Xuân Hòa 3A từ 2AC50 lên 3ACX50-AC50, chiều dài 103,1m cấp điện cho TBA Chợ Xuân Định B.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nâng cấp đường dây trung áp 2AC50 lên ACX70-AC50Nhánh rẽ Xuân Hòa 8, 9 từ 2AC50 lên ACX70-AC50, từ trụ số 412 tuyến 478 Xuân Hưng đến trụ số 412/040, chiều dài 2.363m để giảm HLATLĐCA. </t>
+  </si>
+  <si>
+    <t>Xây dựng mới đường dây trung áp 3P-4DNhánh rẽ Xuân Phú 3C, chiều dài 283,5m (từ trụ số 143 tuyến 477 Xuân Phú đến trụ số 143/010), dây dẫn điện: 3ACX50mm-AC50, cấp điện cho TBA Xuân Phú 3C:</t>
+  </si>
+  <si>
+    <t>Xây dựng mới đường dây trung áp 3P-4DNhánh rẽ Xuân Hòa 3C, chiều dài 334,4m (từ trụ số 385/003 nhánh rẽ Xuân Hòa 3A, tuyến 478 Xuân Hưng đến trụ số 185/011), dây dẫn điện: 3ACX50mm-AC50, cấp điện cho TBA Xuân Hòa 3C</t>
+  </si>
+  <si>
+    <t>Nâng cấp trạm biến áp từ 1 pha lên 3 pha11 TBA từ 1P 2´100kVA lên 3P-250kVA (Bảo Định; Xuân Phú 2, Xuân Phú 3; Xuân Phú 3A).</t>
+  </si>
+  <si>
+    <t>Nâng cấp trạm biến áp từ 1 pha lên 3 pha01 TBA từ 1P 2´100kVA lên 3P 3´50kVA (Xuân Hòa 3A) – một phần lưới hạ thế của TBA Xuân Hòa 3A chuyển sang nhận nguồn từ TBA Xuân Hòa 3C.</t>
+  </si>
+  <si>
+    <t>Nâng cấp trạm biến áp từ 1 pha lên 3 pha01 TBA từ 1P-75kVA  lên 3P 3´37,5kVA (Chợ Xuân Định B).</t>
+  </si>
+  <si>
+    <t>Xây dựng mới trạm biến áp 3P-160kVA01 TBA 3P-160kVA (Xuân Hòa 3C).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nâng cấp trạm biến áp từ 1 pha lên 3 pha03 TBA từ 1P-100kVA lên 3P-160kVA (Chợ Xuân Định)</t>
+  </si>
+  <si>
+    <t>Nâng cấp trạm biến áp từ 1 pha lên 3 pha03 TBA từ 1P-100kVA lên 3P-160kVA (Xuân Phú 3B và Xuân Phú 3C). TBA Xuân Phú 3C được dời từ trụ 146 tuyến 477 Xuân Phú về vị trí mới là trụ 143/010 tuyến 477 Xuân Phú.</t>
+  </si>
+  <si>
+    <t>Nâng cấp nhánh rẽ Nông Doanh 2 từ 2AC50 lên 3ACX50-AC50, chiều dài 532,9m cấp điện cho TBA Nông Doanh 2.</t>
+  </si>
+  <si>
+    <t>Nâng cấp trạm biến áp từ 1 pha lên 3 pha 01 TBA  từ 2´50kVA  lên 3P 3´50kVA (Nông Doanh 2).</t>
+  </si>
+  <si>
+    <t>Nâng cấp trạm biến áp từ 1 pha lên 3 pha11 TBA từ 1P 2´100kVA lên 3P-250kVA  Xuân Hòa 7.</t>
+  </si>
+  <si>
+    <t>Nâng cấp trạm biến áp từ 1 pha lên 3 pha11 TBA từ 1P 2´100kVA lên 3P-250kVA Xuân Hòa 1; Xuân Hòa 1A.</t>
+  </si>
+  <si>
+    <t>Nâng cấp trạm biến áp từ 1 pha lên 3 pha11 TBA từ 1P 2´100kVA lên 3P-250kVA (Xuân Hòa 2).</t>
+  </si>
+  <si>
+    <t>Nâng cấp trạm biến áp từ 1 pha lên 3 pha11 TBA từ 1P 2´100kVA lên 3P-250kVA (Xuân Hòa 3; Xuân Hòa 3B; Xuân Hòa 4).</t>
+  </si>
+  <si>
+    <t>Nâng cấp trạm biến áp từ 1 pha lên 3 pha11 TBA từ 1P 2´100kVA lên 3P-250kVA  Xuân Hòa 4).</t>
+  </si>
+  <si>
+    <t>Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm"/>
@@ -2708,7 +2774,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3054,6 +3120,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3125,9 +3200,19 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3316,7 +3401,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD6E85A7-B40A-4887-B87C-EAEE490EF58D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6E85A7-B40A-4887-B87C-EAEE490EF58D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3372,7 +3457,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F78336F6-B8EE-492C-BE90-B91532F08161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78336F6-B8EE-492C-BE90-B91532F08161}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3428,7 +3513,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17EE33B0-9F33-4BD9-BAC8-E82B191C6EE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EE33B0-9F33-4BD9-BAC8-E82B191C6EE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3484,7 +3569,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD2BFFC3-2B5E-451D-9351-8DEC5173377D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2BFFC3-2B5E-451D-9351-8DEC5173377D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3540,7 +3625,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C873A17-B2AA-4D01-A597-03FFBAFD241E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C873A17-B2AA-4D01-A597-03FFBAFD241E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3596,7 +3681,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A664728-7B38-4FF3-85B9-E928518432AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A664728-7B38-4FF3-85B9-E928518432AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3892,30 +3977,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="1" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>LEFT(D1,11)</f>
         <v/>
@@ -3935,7 +4020,7 @@
       <c r="L1" s="55"/>
       <c r="M1" s="55"/>
     </row>
-    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="34" t="str">
         <f>TRIM(B2)</f>
         <v/>
@@ -3953,7 +4038,7 @@
       <c r="L2" s="55"/>
       <c r="M2" s="55"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="str">
         <f t="shared" ref="A3:A39" si="0">TRIM(B3)</f>
         <v>Thông tin chung</v>
@@ -3973,7 +4058,7 @@
       <c r="L3" s="55"/>
       <c r="M3" s="55"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Số TBMT</v>
@@ -3999,7 +4084,7 @@
       <c r="L4" s="55"/>
       <c r="M4" s="55"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="str">
         <f>TRIM(B5)</f>
         <v>Hình thức thông báo</v>
@@ -4021,7 +4106,7 @@
       <c r="L5" s="55"/>
       <c r="M5" s="55"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Loại thông báo</v>
@@ -4047,7 +4132,7 @@
       <c r="L6" s="55"/>
       <c r="M6" s="55"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Bên mời thầu</v>
@@ -4057,7 +4142,7 @@
       </c>
       <c r="C7" s="55"/>
       <c r="D7" s="55" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E7" s="55"/>
       <c r="F7" s="55"/>
@@ -4069,7 +4154,7 @@
       <c r="L7" s="55"/>
       <c r="M7" s="55"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Chủ đầu tư</v>
@@ -4079,7 +4164,7 @@
       </c>
       <c r="C8" s="55"/>
       <c r="D8" s="55" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="55"/>
@@ -4091,7 +4176,7 @@
       <c r="L8" s="55"/>
       <c r="M8" s="55"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Phân loại</v>
@@ -4113,7 +4198,7 @@
       <c r="L9" s="55"/>
       <c r="M9" s="55"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Tên gói thầu</v>
@@ -4135,7 +4220,7 @@
       <c r="L10" s="55"/>
       <c r="M10" s="55"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Tên dự án</v>
@@ -4145,7 +4230,7 @@
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="55" t="s">
-        <v>638</v>
+        <v>717</v>
       </c>
       <c r="E11" s="55"/>
       <c r="F11" s="55"/>
@@ -4157,7 +4242,7 @@
       <c r="L11" s="55"/>
       <c r="M11" s="55"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Nguồn vốn</v>
@@ -4167,7 +4252,7 @@
       </c>
       <c r="C12" s="55"/>
       <c r="D12" s="55" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E12" s="55"/>
       <c r="F12" s="55"/>
@@ -4179,7 +4264,7 @@
       <c r="L12" s="55"/>
       <c r="M12" s="55"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Phương thức</v>
@@ -4201,7 +4286,7 @@
       <c r="L13" s="55"/>
       <c r="M13" s="55"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Thời gian thực hiện hợp đồng</v>
@@ -4223,7 +4308,7 @@
       <c r="L14" s="55"/>
       <c r="M14" s="55"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Nội dung chính gói thầu</v>
@@ -4243,7 +4328,7 @@
       <c r="L15" s="55"/>
       <c r="M15" s="55"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Loại hợp đồng</v>
@@ -4265,7 +4350,7 @@
       <c r="L16" s="55"/>
       <c r="M16" s="55"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Hình thức đấu thầu</v>
@@ -4275,7 +4360,7 @@
       </c>
       <c r="C17" s="55"/>
       <c r="D17" s="55" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
@@ -4289,7 +4374,7 @@
       <c r="L17" s="55"/>
       <c r="M17" s="55"/>
     </row>
-    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4307,7 +4392,7 @@
       <c r="L18" s="55"/>
       <c r="M18" s="55"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Tham dự thầu</v>
@@ -4327,7 +4412,7 @@
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Hình thức nhận HSDT</v>
@@ -4349,7 +4434,7 @@
       <c r="L20" s="55"/>
       <c r="M20" s="55"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Thời gian nhận HSDT từ ngày</v>
@@ -4375,7 +4460,7 @@
       <c r="L21" s="55"/>
       <c r="M21" s="55"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Mua HSMT</v>
@@ -4397,7 +4482,7 @@
       <c r="L22" s="55"/>
       <c r="M22" s="55"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Địa điểm nhận HSDT</v>
@@ -4419,7 +4504,7 @@
       <c r="L23" s="55"/>
       <c r="M23" s="55"/>
     </row>
-    <row r="24" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4437,7 +4522,7 @@
       <c r="L24" s="55"/>
       <c r="M24" s="55"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Mở thầu</v>
@@ -4457,7 +4542,7 @@
       <c r="L25" s="55"/>
       <c r="M25" s="55"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Thời điểm mở thầu</v>
@@ -4479,7 +4564,7 @@
       <c r="L26" s="55"/>
       <c r="M26" s="55"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Địa điểm mở thầu</v>
@@ -4501,7 +4586,7 @@
       <c r="L27" s="55"/>
       <c r="M27" s="55"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Giá gói thầu</v>
@@ -4511,7 +4596,7 @@
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="55" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E28" s="55"/>
       <c r="F28" s="55"/>
@@ -4523,7 +4608,7 @@
       <c r="L28" s="55"/>
       <c r="M28" s="55"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền bằng chữ</v>
@@ -4533,7 +4618,7 @@
       </c>
       <c r="C29" s="55"/>
       <c r="D29" s="55" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E29" s="55"/>
       <c r="F29" s="55"/>
@@ -4545,7 +4630,7 @@
       <c r="L29" s="55"/>
       <c r="M29" s="55"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4563,13 +4648,13 @@
       <c r="L30" s="55"/>
       <c r="M30" s="55"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Bảo đảm dự thầu</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
@@ -4583,13 +4668,13 @@
       <c r="L31" s="55"/>
       <c r="M31" s="55"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Hình thức đảm bảo</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="55" t="s">
@@ -4605,7 +4690,7 @@
       <c r="L32" s="55"/>
       <c r="M32" s="55"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền đảm bảo</v>
@@ -4615,11 +4700,11 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền bằng chữ</v>
@@ -4629,11 +4714,11 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="str">
         <f t="shared" si="0"/>
         <v>Loại tiền chuyển đổi</v>
@@ -4653,7 +4738,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4663,7 +4748,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4673,7 +4758,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4683,7 +4768,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="34" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -4700,21 +4785,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M47"/>
   <sheetViews>
@@ -4723,20 +4808,20 @@
       <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="109"/>
+    <col min="2" max="2" width="8.88671875" style="109"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="42" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="42" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="105" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="105" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="105" t="s">
         <v>127</v>
       </c>
@@ -4777,7 +4862,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>108</v>
       </c>
@@ -4795,7 +4880,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>452</v>
       </c>
@@ -4813,7 +4898,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -4840,7 +4925,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>385</v>
       </c>
@@ -4858,7 +4943,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -4885,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -4912,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>382</v>
       </c>
@@ -4930,7 +5015,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>574</v>
       </c>
@@ -4943,7 +5028,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>391</v>
       </c>
@@ -4956,7 +5041,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>116</v>
       </c>
@@ -4974,7 +5059,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>115</v>
       </c>
@@ -4992,7 +5077,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>114</v>
       </c>
@@ -5010,7 +5095,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>113</v>
       </c>
@@ -5028,7 +5113,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>112</v>
       </c>
@@ -5046,7 +5131,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>111</v>
       </c>
@@ -5064,7 +5149,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>110</v>
       </c>
@@ -5082,7 +5167,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>108</v>
       </c>
@@ -5100,7 +5185,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>564</v>
       </c>
@@ -5115,7 +5200,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>566</v>
       </c>
@@ -5130,7 +5215,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>567</v>
       </c>
@@ -5145,7 +5230,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>136</v>
       </c>
@@ -5163,7 +5248,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>575</v>
       </c>
@@ -5178,7 +5263,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>129</v>
       </c>
@@ -5196,7 +5281,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>576</v>
       </c>
@@ -5209,7 +5294,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>562</v>
       </c>
@@ -5224,7 +5309,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>152</v>
       </c>
@@ -5239,7 +5324,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>563</v>
       </c>
@@ -5254,7 +5339,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>148</v>
       </c>
@@ -5269,7 +5354,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>146</v>
       </c>
@@ -5287,7 +5372,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -5320,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -5353,7 +5438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>127</v>
       </c>
@@ -5386,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -5419,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -5452,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -5485,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -5518,7 +5603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -5551,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -5584,7 +5669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>127</v>
       </c>
@@ -5617,7 +5702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -5650,7 +5735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -5683,7 +5768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -5716,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -5749,7 +5834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>127</v>
       </c>
@@ -5782,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -5815,7 +5900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>127</v>
       </c>
@@ -5849,7 +5934,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M47">
+  <autoFilter ref="A1:M47" xr:uid="{00000000-0009-0000-0000-00000A000000}">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5862,21 +5947,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="C1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>572</v>
       </c>
@@ -5884,12 +5969,12 @@
         <v>585</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>587</v>
       </c>
@@ -5897,7 +5982,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>588</v>
       </c>
@@ -5908,7 +5993,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>591</v>
       </c>
@@ -5916,7 +6001,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>593</v>
       </c>
@@ -5924,7 +6009,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>595</v>
       </c>
@@ -5935,28 +6020,28 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="C1:Q8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="34"/>
-    <col min="4" max="4" width="39.28515625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="34" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="34"/>
-    <col min="7" max="10" width="8.140625" style="34" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="34" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="34" customWidth="1"/>
-    <col min="13" max="16" width="10.85546875" style="34" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="34" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="34"/>
+    <col min="1" max="3" width="8.88671875" style="34"/>
+    <col min="4" max="4" width="39.33203125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="34"/>
+    <col min="7" max="10" width="8.109375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="34" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" style="34" customWidth="1"/>
+    <col min="13" max="16" width="10.88671875" style="34" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="34" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" s="48" customFormat="1" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:17" s="48" customFormat="1" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="49" t="s">
         <v>153</v>
       </c>
@@ -6007,7 +6092,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="128">
         <v>1</v>
       </c>
@@ -6057,7 +6142,7 @@
 76 - 90</v>
       </c>
     </row>
-    <row r="3" spans="3:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="128">
         <v>2</v>
       </c>
@@ -6084,7 +6169,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="3:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="128">
         <v>3</v>
       </c>
@@ -6126,7 +6211,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="128">
         <v>4</v>
       </c>
@@ -6171,7 +6256,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="128">
         <v>5</v>
       </c>
@@ -6216,7 +6301,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:17" ht="118.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="128">
         <v>6</v>
       </c>
@@ -6240,7 +6325,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="128">
         <v>7</v>
       </c>
@@ -6271,37 +6356,37 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="D1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F18" sqref="F18:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="44.28515625" customWidth="1"/>
-    <col min="6" max="10" width="8.85546875" style="42"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="6" max="10" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="134" t="s">
+    <row r="1" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="140" t="s">
+      <c r="F1" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="142"/>
-    </row>
-    <row r="2" spans="4:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D2" s="135"/>
-      <c r="E2" s="138"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="145"/>
+    </row>
+    <row r="2" spans="4:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D2" s="138"/>
+      <c r="E2" s="141"/>
       <c r="F2" s="36" t="s">
         <v>163</v>
       </c>
@@ -6318,9 +6403,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="136"/>
-      <c r="E3" s="139"/>
+    <row r="3" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="139"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="38" t="s">
         <v>168</v>
       </c>
@@ -6337,7 +6422,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="35">
         <v>1</v>
       </c>
@@ -6350,7 +6435,7 @@
       <c r="I4" s="41"/>
       <c r="J4" s="41"/>
     </row>
-    <row r="5" spans="4:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:10" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="35">
         <v>2</v>
       </c>
@@ -6363,7 +6448,7 @@
       <c r="I5" s="41"/>
       <c r="J5" s="41"/>
     </row>
-    <row r="6" spans="4:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:10" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="35">
         <v>3</v>
       </c>
@@ -6376,7 +6461,7 @@
       <c r="I6" s="41"/>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="35">
         <v>4</v>
       </c>
@@ -6389,7 +6474,7 @@
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
     </row>
-    <row r="8" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="35">
         <v>5</v>
       </c>
@@ -6402,7 +6487,7 @@
       <c r="I8" s="41"/>
       <c r="J8" s="41"/>
     </row>
-    <row r="9" spans="4:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="35">
         <v>6</v>
       </c>
@@ -6415,7 +6500,7 @@
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
     </row>
-    <row r="10" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="35">
         <v>7</v>
       </c>
@@ -6428,28 +6513,28 @@
       <c r="I10" s="41"/>
       <c r="J10" s="41"/>
     </row>
-    <row r="17" spans="4:11" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="143" t="s">
+    <row r="17" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="146" t="s">
+      <c r="F18" s="149" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="148"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
       <c r="K18">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="4:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
+    <row r="19" spans="4:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
       <c r="F19" s="119" t="s">
         <v>163</v>
       </c>
@@ -6466,9 +6551,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
+    <row r="20" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
       <c r="F20" s="127" t="s">
         <v>629</v>
       </c>
@@ -6485,7 +6570,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="121" t="s">
         <v>622</v>
       </c>
@@ -6498,7 +6583,7 @@
       <c r="I21" s="124"/>
       <c r="J21" s="124"/>
     </row>
-    <row r="22" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="121" t="s">
         <v>623</v>
       </c>
@@ -6511,7 +6596,7 @@
       <c r="I22" s="124"/>
       <c r="J22" s="124"/>
     </row>
-    <row r="23" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D23" s="121" t="s">
         <v>624</v>
       </c>
@@ -6524,7 +6609,7 @@
       <c r="I23" s="124"/>
       <c r="J23" s="124"/>
     </row>
-    <row r="24" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="121" t="s">
         <v>625</v>
       </c>
@@ -6537,7 +6622,7 @@
       <c r="I24" s="124"/>
       <c r="J24" s="124"/>
     </row>
-    <row r="25" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D25" s="121" t="s">
         <v>626</v>
       </c>
@@ -6550,7 +6635,7 @@
       <c r="I25" s="124"/>
       <c r="J25" s="124"/>
     </row>
-    <row r="26" spans="4:11" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:11" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="121" t="s">
         <v>627</v>
       </c>
@@ -6563,7 +6648,7 @@
       <c r="I26" s="124"/>
       <c r="J26" s="124"/>
     </row>
-    <row r="27" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D27" s="121" t="s">
         <v>628</v>
       </c>
@@ -6592,23 +6677,23 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="D1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="5.7109375" style="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.5703125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="42" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="77.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.5546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="77.5546875" style="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:8" s="1" customFormat="1" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:8" s="1" customFormat="1" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D1" s="47" t="s">
         <v>169</v>
       </c>
@@ -6625,7 +6710,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D2" s="45">
         <v>1</v>
       </c>
@@ -6640,7 +6725,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="45">
         <v>2</v>
       </c>
@@ -6655,7 +6740,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="45">
         <v>3</v>
       </c>
@@ -6670,7 +6755,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="45">
         <v>4</v>
       </c>
@@ -6685,7 +6770,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="45">
         <v>5</v>
       </c>
@@ -6700,7 +6785,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="45">
         <v>6</v>
       </c>
@@ -6717,7 +6802,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="45">
         <v>7</v>
       </c>
@@ -6732,7 +6817,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="45">
         <v>8</v>
       </c>
@@ -6747,7 +6832,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="45">
         <v>9</v>
       </c>
@@ -6762,7 +6847,7 @@
       </c>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="45">
         <v>10</v>
       </c>
@@ -6777,7 +6862,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="45">
         <v>11</v>
       </c>
@@ -6792,7 +6877,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="45">
         <v>12</v>
       </c>
@@ -6809,7 +6894,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D14" s="45">
         <v>13</v>
       </c>
@@ -6824,7 +6909,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="45">
         <v>14</v>
       </c>
@@ -6839,7 +6924,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D16" s="45">
         <v>15</v>
       </c>
@@ -6854,7 +6939,7 @@
       </c>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="45">
         <v>16</v>
       </c>
@@ -6869,7 +6954,7 @@
       </c>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="45">
         <v>17</v>
       </c>
@@ -6884,7 +6969,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D19" s="45">
         <v>18</v>
       </c>
@@ -6901,7 +6986,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="45">
         <v>19</v>
       </c>
@@ -6918,7 +7003,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="21" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="45">
         <v>20</v>
       </c>
@@ -6935,7 +7020,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="45">
         <v>21</v>
       </c>
@@ -6950,7 +7035,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D23" s="45">
         <v>22</v>
       </c>
@@ -6965,7 +7050,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="45">
         <v>23</v>
       </c>
@@ -6978,7 +7063,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D25" s="45">
         <v>24</v>
       </c>
@@ -6993,7 +7078,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="45">
         <v>25</v>
       </c>
@@ -7008,7 +7093,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D27" s="45">
         <v>26</v>
       </c>
@@ -7023,7 +7108,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D28" s="45">
         <v>27</v>
       </c>
@@ -7038,7 +7123,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D29" s="45">
         <v>28</v>
       </c>
@@ -7051,7 +7136,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="30" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D30" s="45">
         <v>29</v>
       </c>
@@ -7064,7 +7149,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="31" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D31" s="45">
         <v>30</v>
       </c>
@@ -7077,7 +7162,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D32" s="45">
         <v>31</v>
       </c>
@@ -7090,7 +7175,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D33" s="45">
         <v>32</v>
       </c>
@@ -7105,7 +7190,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D34" s="45">
         <v>33</v>
       </c>
@@ -7118,7 +7203,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D35" s="45">
         <v>34</v>
       </c>
@@ -7131,7 +7216,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="36" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D36" s="45">
         <v>35</v>
       </c>
@@ -7144,7 +7229,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D37" s="45">
         <v>36</v>
       </c>
@@ -7157,7 +7242,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="38" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D38" s="45">
         <v>37</v>
       </c>
@@ -7172,7 +7257,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D39" s="45">
         <v>38</v>
       </c>
@@ -7185,7 +7270,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D40" s="45">
         <v>39</v>
       </c>
@@ -7200,7 +7285,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D41" s="45">
         <v>40</v>
       </c>
@@ -7213,125 +7298,125 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="4:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D42" s="149">
+    <row r="42" spans="4:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D42" s="152">
         <v>41</v>
       </c>
       <c r="E42" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151">
+      <c r="F42" s="154"/>
+      <c r="G42" s="154">
         <v>1</v>
       </c>
-      <c r="H42" s="149" t="s">
+      <c r="H42" s="152" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="43" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="150"/>
+    <row r="43" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D43" s="153"/>
       <c r="E43" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="F43" s="152"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="150"/>
-    </row>
-    <row r="44" spans="4:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D44" s="149">
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="153"/>
+    </row>
+    <row r="44" spans="4:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D44" s="152">
         <v>42</v>
       </c>
       <c r="E44" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F44" s="151"/>
-      <c r="G44" s="151">
+      <c r="F44" s="154"/>
+      <c r="G44" s="154">
         <v>1</v>
       </c>
-      <c r="H44" s="149" t="s">
+      <c r="H44" s="152" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="150"/>
+    <row r="45" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="153"/>
       <c r="E45" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="F45" s="152"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="150"/>
-    </row>
-    <row r="46" spans="4:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D46" s="149">
+      <c r="F45" s="155"/>
+      <c r="G45" s="155"/>
+      <c r="H45" s="153"/>
+    </row>
+    <row r="46" spans="4:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D46" s="152">
         <v>43</v>
       </c>
       <c r="E46" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F46" s="151"/>
-      <c r="G46" s="151">
+      <c r="F46" s="154"/>
+      <c r="G46" s="154">
         <v>1</v>
       </c>
-      <c r="H46" s="149" t="s">
+      <c r="H46" s="152" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="150"/>
+    <row r="47" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D47" s="153"/>
       <c r="E47" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="F47" s="152"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="150"/>
-    </row>
-    <row r="48" spans="4:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D48" s="149">
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="153"/>
+    </row>
+    <row r="48" spans="4:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D48" s="152">
         <v>44</v>
       </c>
       <c r="E48" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F48" s="151"/>
-      <c r="G48" s="151">
+      <c r="F48" s="154"/>
+      <c r="G48" s="154">
         <v>1</v>
       </c>
-      <c r="H48" s="149" t="s">
+      <c r="H48" s="152" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="150"/>
+    <row r="49" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D49" s="153"/>
       <c r="E49" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="F49" s="152"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="150"/>
-    </row>
-    <row r="50" spans="4:8" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D50" s="149">
+      <c r="F49" s="155"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="153"/>
+    </row>
+    <row r="50" spans="4:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D50" s="152">
         <v>45</v>
       </c>
       <c r="E50" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="F50" s="151"/>
-      <c r="G50" s="151">
+      <c r="F50" s="154"/>
+      <c r="G50" s="154">
         <v>1</v>
       </c>
-      <c r="H50" s="149" t="s">
+      <c r="H50" s="152" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="4:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D51" s="150"/>
+    <row r="51" spans="4:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D51" s="153"/>
       <c r="E51" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="150"/>
+      <c r="F51" s="155"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -7361,45 +7446,43 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="120.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E1" s="31" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F1" s="31" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G1" s="31" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="F2">
         <v>477</v>
@@ -7408,18 +7491,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F3">
         <v>477</v>
@@ -7428,18 +7511,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F4">
         <v>477</v>
@@ -7448,18 +7531,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F5">
         <v>478</v>
@@ -7468,18 +7551,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F6">
         <v>476</v>
@@ -7488,12 +7571,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -7505,12 +7588,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>702</v>
+      </c>
       <c r="B8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -7519,285 +7605,705 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>715</v>
+      </c>
       <c r="B10" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="G12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>704</v>
+      </c>
       <c r="B14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>653</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="B17" t="s">
+        <v>653</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G17">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="G17">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="G20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G28">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>678</v>
+      </c>
       <c r="C31" s="1" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>679</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>680</v>
+      </c>
       <c r="C33" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>681</v>
+      </c>
       <c r="C34" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G34">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>682</v>
+      </c>
       <c r="C35" s="1" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G35">
         <v>7</v>
       </c>
     </row>
+    <row r="36" spans="1:7" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:G35"/>
+  <autoFilter ref="A1:G36" xr:uid="{6FF6E6B7-B9B4-492E-A78C-B8F700206856}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Hạ thế sau TBA Xuân Hòa 3: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 3.692,9m."/>
+        <filter val="Hạ thế sau TBA Xuân Hòa 3A: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 699,9m."/>
+        <filter val="Hạ thế sau TBA Xuân Hòa 3B: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 919,1m."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46FB71B-3DE2-4E75-A763-5A6E3186635F}">
+  <dimension ref="B1:J15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="71.77734375" style="55" customWidth="1"/>
+    <col min="5" max="9" width="32.44140625" style="133" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" s="60" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="60" t="s">
+        <v>694</v>
+      </c>
+      <c r="D1" s="105" t="s">
+        <v>695</v>
+      </c>
+      <c r="E1" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="131" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="131" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="B2" s="20">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="str">
+        <f>$C$1&amp;" thứ "&amp;B2</f>
+        <v>Lần cắt điện thứ 1</v>
+      </c>
+      <c r="D2" s="16" t="str">
+        <f t="array" ref="D2">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E2:I2&lt;&gt;0,E2:I2,""))</f>
+        <v xml:space="preserve"> - Nâng cấp nhánh rẽ Nông Doanh 2 từ 2AC50 lên 3ACX50-AC50, chiều dài 532,9m cấp điện cho TBA Nông Doanh 2.
+ - Nâng cấp trạm biến áp từ 1 pha lên 3 pha 01 TBA  từ 2´50kVA  lên 3P 3´50kVA (Nông Doanh 2).
+ - Hạ thế sau TBA Nông Doanh 2: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 1.840,1m.
+ - Nâng cấp đường dây trung áp từ 1 pha lên 3 phaNhánh rẽ Bảo Định từ 2AC50 lên 3ACX50-AC50, chiều dài 133,8m cấp điện cho TBA Bảo Định. 
+ - Hạ thế sau TBA Bảo Định: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 1.370,9m.</v>
+      </c>
+      <c r="E2" s="132" t="s">
+        <v>710</v>
+      </c>
+      <c r="F2" s="132" t="s">
+        <v>711</v>
+      </c>
+      <c r="G2" s="132" t="s">
+        <v>665</v>
+      </c>
+      <c r="H2" s="132" t="s">
+        <v>697</v>
+      </c>
+      <c r="I2" s="132" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="B3" s="20">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="str">
+        <f t="shared" ref="C3:C13" si="0">$C$1&amp;" thứ "&amp;B3</f>
+        <v>Lần cắt điện thứ 2</v>
+      </c>
+      <c r="D3" s="16" t="str">
+        <f t="array" ref="D3">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E3:I3&lt;&gt;0,E3:I3,""))</f>
+        <v xml:space="preserve"> - Nâng cấp trạm biến áp từ 1 pha lên 3 pha01 TBA từ 1P 2´75kVA lên 3P-250kVA (Chợ Xuân Định A).
+ - Hạ thế sau TBA Chợ Xuân Định A: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 521,4m. Xây dựng mới 80m đường dây hạ thế 3 pha.</v>
+      </c>
+      <c r="E3" s="132" t="s">
+        <v>696</v>
+      </c>
+      <c r="F3" s="132" t="s">
+        <v>668</v>
+      </c>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+    </row>
+    <row r="4" spans="2:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="20">
+        <v>3</v>
+      </c>
+      <c r="C4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Lần cắt điện thứ 3</v>
+      </c>
+      <c r="D4" s="16" t="str">
+        <f t="array" ref="D4">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E4:I4&lt;&gt;0,E4:I4,""))</f>
+        <v xml:space="preserve"> - Nâng cấp đường dây trung áp từ 1 pha lên 3 phaNhánh rẽ Chợ Xuân Định B từ ACX50-AC50 lên 3ACX50-AC50, chiều dài 24m cấp điện cho TBA Chợ Xuân Định B. 
+ - Nâng cấp đường dây trung áp từ 1 pha lên 3 phaNhánh rẽ Xuân Hòa 3A từ 2AC50 lên 3ACX50-AC50, chiều dài 103,1m cấp điện cho TBA Chợ Xuân Định B.
+ - Nâng cấp trạm biến áp từ 1 pha lên 3 pha01 TBA từ 1P-75kVA  lên 3P 3´37,5kVA (Chợ Xuân Định B).
+ - Hạ thế sau TBA Chợ Xuân Định B: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 642m.</v>
+      </c>
+      <c r="E4" s="132" t="s">
+        <v>698</v>
+      </c>
+      <c r="F4" s="132" t="s">
+        <v>699</v>
+      </c>
+      <c r="G4" s="132" t="s">
+        <v>705</v>
+      </c>
+      <c r="H4" s="132" t="s">
+        <v>669</v>
+      </c>
+      <c r="I4" s="132"/>
+    </row>
+    <row r="5" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="20">
+        <v>4</v>
+      </c>
+      <c r="C5" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Lần cắt điện thứ 4</v>
+      </c>
+      <c r="D5" s="16" t="str">
+        <f t="array" ref="D5">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E5:I5&lt;&gt;0,E5:I5,""))</f>
+        <v xml:space="preserve"> - Nâng cấp trạm biến áp từ 1 pha lên 3 pha03 TBA từ 1P-100kVA lên 3P-160kVA (Chợ Xuân Định)
+ - Hạ thế sau TBA Chợ Xuân Định: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 575,8m.</v>
+      </c>
+      <c r="E5" s="132" t="s">
+        <v>708</v>
+      </c>
+      <c r="F5" s="132" t="s">
+        <v>667</v>
+      </c>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+    </row>
+    <row r="6" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="20">
+        <v>5</v>
+      </c>
+      <c r="C6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Lần cắt điện thứ 5</v>
+      </c>
+      <c r="D6" s="16" t="str">
+        <f t="array" ref="D6">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E6:I6&lt;&gt;0,E6:I6,""))</f>
+        <v xml:space="preserve"> - Nâng cấp trạm biến áp từ 1 pha lên 3 pha11 TBA từ 1P 2´100kVA lên 3P-250kVA (Bảo Định; Xuân Phú 2, Xuân Phú 3; Xuân Phú 3A).
+ - Hạ thế sau TBA Xuân Phú 3A: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 1.822,5m.</v>
+      </c>
+      <c r="E6" s="132" t="s">
+        <v>703</v>
+      </c>
+      <c r="F6" s="132" t="s">
+        <v>672</v>
+      </c>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
+      <c r="I6" s="132"/>
+    </row>
+    <row r="7" spans="2:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="20">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Lần cắt điện thứ 6</v>
+      </c>
+      <c r="D7" s="16" t="str">
+        <f t="array" ref="D7">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E7:I7&lt;&gt;0,E7:I7,""))</f>
+        <v xml:space="preserve"> - Xây dựng mới đường dây trung áp 3P-4DNhánh rẽ Xuân Phú 3C, chiều dài 283,5m (từ trụ số 143 tuyến 477 Xuân Phú đến trụ số 143/010), dây dẫn điện: 3ACX50mm-AC50, cấp điện cho TBA Xuân Phú 3C:
+ - Nâng cấp trạm biến áp từ 1 pha lên 3 pha03 TBA từ 1P-100kVA lên 3P-160kVA (Xuân Phú 3B và Xuân Phú 3C). TBA Xuân Phú 3C được dời từ trụ 146 tuyến 477 Xuân Phú về vị trí mới là trụ 143/010 tuyến 477 Xuân Phú.
+ - Hạ thế sau TBA Xuân Phú 3C: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 1.344,2m. Xây dựng mới 103,5m đường dây hạ thế 3 pha.</v>
+      </c>
+      <c r="E7" s="132" t="s">
+        <v>701</v>
+      </c>
+      <c r="F7" s="132" t="s">
+        <v>709</v>
+      </c>
+      <c r="G7" s="132" t="s">
+        <v>673</v>
+      </c>
+      <c r="H7" s="132"/>
+      <c r="I7" s="132"/>
+    </row>
+    <row r="8" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B8" s="20">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Lần cắt điện thứ 7</v>
+      </c>
+      <c r="D8" s="16" t="str">
+        <f t="array" ref="D8">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E8:I8&lt;&gt;0,E8:I8,""))</f>
+        <v xml:space="preserve"> - Hạ thế sau TBA Xuân Phú 3B: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 620,8m. Xây dựng mới 267m đường dây hạ thế 3 pha.
+ - Hạ thế sau TBA Xuân Phú 3: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 1.125,8m. 
+ - Hạ thế sau TBA Xuân Phú 2: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 1.793,4m.</v>
+      </c>
+      <c r="E8" s="132" t="s">
+        <v>670</v>
+      </c>
+      <c r="F8" s="132" t="s">
+        <v>671</v>
+      </c>
+      <c r="G8" s="132" t="s">
+        <v>674</v>
+      </c>
+      <c r="H8" s="132"/>
+      <c r="I8" s="132"/>
+    </row>
+    <row r="9" spans="2:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="20">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Lần cắt điện thứ 8</v>
+      </c>
+      <c r="D9" s="16" t="str">
+        <f t="array" ref="D9">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E9:I9&lt;&gt;0,E9:I9,""))</f>
+        <v xml:space="preserve"> - Nâng cấp đường dây trung áp 2AC50 lên ACX70-AC50Nhánh rẽ Xuân Hòa 8, 9 từ 2AC50 lên ACX70-AC50, từ trụ số 412 tuyến 478 Xuân Hưng đến trụ số 412/040, chiều dài 2.363m để giảm HLATLĐCA. 
+ - Nâng cấp trạm biến áp từ 1 pha lên 3 pha11 TBA từ 1P 2´100kVA lên 3P-250kVA  Xuân Hòa 7.
+ - Hạ thế sau TBA Xuân Hòa 7: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 1.744,5m.</v>
+      </c>
+      <c r="E9" s="133" t="s">
+        <v>700</v>
+      </c>
+      <c r="F9" s="133" t="s">
+        <v>712</v>
+      </c>
+      <c r="G9" s="133" t="s">
+        <v>683</v>
+      </c>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+    </row>
+    <row r="10" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="20">
+        <v>9</v>
+      </c>
+      <c r="C10" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Lần cắt điện thứ 9</v>
+      </c>
+      <c r="D10" s="16" t="str">
+        <f t="array" ref="D10">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E10:I10&lt;&gt;0,E10:I10,""))</f>
+        <v xml:space="preserve"> - Nâng cấp trạm biến áp từ 1 pha lên 3 pha11 TBA từ 1P 2´100kVA lên 3P-250kVA Xuân Hòa 1; Xuân Hòa 1A.
+ - Hạ thế sau TBA Xuân Hòa 1: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 1.393,4m.
+ - Hạ thế sau TBA Xuân Hòa 1A: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 1.542,1m.</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+    </row>
+    <row r="11" spans="2:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="20">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Lần cắt điện thứ 10</v>
+      </c>
+      <c r="D11" s="16" t="str">
+        <f t="array" ref="D11">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E11:I11&lt;&gt;0,E11:I11,""))</f>
+        <v xml:space="preserve"> - Nâng cấp trạm biến áp từ 1 pha lên 3 pha11 TBA từ 1P 2´100kVA lên 3P-250kVA (Xuân Hòa 2).
+ - Hạ thế sau TBA Xuân Hòa 2: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 1.490,2m.
+ - Xây dựng mới trạm biến áp 3P-160kVA01 TBA 3P-160kVA (Xuân Hòa 3C).
+ - Hạ thế sau TBA Xuân Hòa 3C: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 1.090,6m. Xây dựng mới 710m đường dây hạ thế 3 pha.</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="I11" s="132"/>
+    </row>
+    <row r="12" spans="2:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="B12" s="20">
+        <v>11</v>
+      </c>
+      <c r="C12" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Lần cắt điện thứ 11</v>
+      </c>
+      <c r="D12" s="16" t="str">
+        <f t="array" ref="D12">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E12:I12&lt;&gt;0,E12:I12,""))</f>
+        <v xml:space="preserve"> - Xây dựng mới đường dây trung áp 3P-4DNhánh rẽ Xuân Hòa 3C, chiều dài 334,4m (từ trụ số 385/003 nhánh rẽ Xuân Hòa 3A, tuyến 478 Xuân Hưng đến trụ số 185/011), dây dẫn điện: 3ACX50mm-AC50, cấp điện cho TBA Xuân Hòa 3C
+ - Nâng cấp trạm biến áp từ 1 pha lên 3 pha11 TBA từ 1P 2´100kVA lên 3P-250kVA  Xuân Hòa 4).
+ - Nâng cấp trạm biến áp từ 1 pha lên 3 pha01 TBA từ 1P 2´100kVA lên 3P 3´50kVA (Xuân Hòa 3A) – một phần lưới hạ thế của TBA Xuân Hòa 3A chuyển sang nhận nguồn từ TBA Xuân Hòa 3C.
+ - Hạ thế sau TBA Xuân Hòa 4: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 2.780,7m.</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="20">
+        <v>12</v>
+      </c>
+      <c r="C13" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Lần cắt điện thứ 12</v>
+      </c>
+      <c r="D13" s="16" t="str">
+        <f t="array" ref="D13">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E13:I13&lt;&gt;0,E13:I13,""))</f>
+        <v xml:space="preserve"> - Hạ thế sau TBA Xuân Hòa 3: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 3.692,9m.
+ - Hạ thế sau TBA Xuân Hòa 3A: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 699,9m.
+ - Hạ thế sau TBA Xuân Hòa 3B: Nâng cấp đường dây hạ thế từ 1 pha lên 3 pha với chiều dài 919,1m.</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="16"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:I15" xr:uid="{B2AFF2EA-2527-4B54-9555-4DA9A987AB42}"/>
+  <conditionalFormatting sqref="E1:I11 E13:I1048576 E12:G12 I12">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="45" style="15" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="52.5546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="15" customWidth="1"/>
     <col min="8" max="8" width="19" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="15"/>
-    <col min="10" max="10" width="15.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="15"/>
+    <col min="10" max="10" width="15.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" style="15" customWidth="1"/>
     <col min="14" max="14" width="14" style="88" customWidth="1"/>
-    <col min="15" max="16" width="18.5703125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="15"/>
+    <col min="15" max="16" width="18.5546875" style="15" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
@@ -7855,7 +8361,7 @@
       </c>
       <c r="T1" s="88"/>
     </row>
-    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <v>20191257175</v>
       </c>
@@ -7902,7 +8408,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>97</v>
       </c>
@@ -7948,7 +8454,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>102</v>
       </c>
@@ -7992,7 +8498,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>289</v>
       </c>
@@ -8042,7 +8548,7 @@
         <v>16/04/1981</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>309</v>
       </c>
@@ -8084,7 +8590,7 @@
       </c>
       <c r="N6" s="89"/>
     </row>
-    <row r="7" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>319</v>
       </c>
@@ -8136,7 +8642,7 @@
         <v>16/04/1981</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>330</v>
       </c>
@@ -8174,7 +8680,7 @@
         <v>44273.345138888886</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>341</v>
       </c>
@@ -8212,7 +8718,7 @@
         <v>44279.342361111114</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>377</v>
       </c>
@@ -8251,7 +8757,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>521</v>
       </c>
@@ -8289,7 +8795,7 @@
         <v>44274.34375</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>551</v>
       </c>
@@ -8327,7 +8833,7 @@
         <v>44279.334027777775</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>556</v>
       </c>
@@ -8365,7 +8871,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>559</v>
       </c>
@@ -8403,7 +8909,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>569</v>
       </c>
@@ -8443,15 +8949,15 @@
         <v>27/04/2021</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>632</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>638</v>
+        <v>717</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>634</v>
@@ -8460,7 +8966,7 @@
         <v>236</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>14</v>
@@ -8475,20 +8981,20 @@
         <v>43948</v>
       </c>
       <c r="M16" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="N16" s="64" t="s">
         <v>648</v>
       </c>
-      <c r="N16" s="64" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="str">
         <f t="shared" ref="A17:A27" si="5">VLOOKUP("Số TBMT",tbmt,4,0)</f>
         <v>20200440586-01</v>
       </c>
       <c r="B17" s="19" t="str">
         <f t="shared" ref="B17:B27" si="6">IFERROR(VLOOKUP("Tên dự án",tbmt,4,0),VLOOKUP("Tên gói thầu",tbmt,4,0))</f>
-        <v>Công trình: Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
+        <v>Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
       </c>
       <c r="C17" s="19" t="str">
         <f t="shared" ref="C17:C27" si="7">VLOOKUP("Chủ đầu tư",tbmt,4,0)</f>
@@ -8527,14 +9033,14 @@
         <v>27/04/2021</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="str">
         <f t="shared" si="5"/>
         <v>20200440586-01</v>
       </c>
       <c r="B18" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>Công trình: Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
+        <v>Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
       </c>
       <c r="C18" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8573,14 +9079,14 @@
         <v>27/04/2021</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="str">
         <f t="shared" si="5"/>
         <v>20200440586-01</v>
       </c>
       <c r="B19" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>Công trình: Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
+        <v>Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
       </c>
       <c r="C19" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8619,14 +9125,14 @@
         <v>27/04/2021</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="str">
         <f t="shared" si="5"/>
         <v>20200440586-01</v>
       </c>
       <c r="B20" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>Công trình: Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
+        <v>Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
       </c>
       <c r="C20" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8665,14 +9171,14 @@
         <v>27/04/2021</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="str">
         <f t="shared" si="5"/>
         <v>20200440586-01</v>
       </c>
       <c r="B21" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>Công trình: Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
+        <v>Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
       </c>
       <c r="C21" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8711,14 +9217,14 @@
         <v>27/04/2021</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="21" t="str">
         <f t="shared" si="5"/>
         <v>20200440586-01</v>
       </c>
       <c r="B22" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>Công trình: Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
+        <v>Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
       </c>
       <c r="C22" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8757,14 +9263,14 @@
         <v>27/04/2021</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="str">
         <f t="shared" si="5"/>
         <v>20200440586-01</v>
       </c>
       <c r="B23" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>Công trình: Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
+        <v>Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
       </c>
       <c r="C23" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8803,14 +9309,14 @@
         <v>27/04/2021</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="str">
         <f t="shared" si="5"/>
         <v>20200440586-01</v>
       </c>
       <c r="B24" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>Công trình: Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
+        <v>Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
       </c>
       <c r="C24" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8849,14 +9355,14 @@
         <v>27/04/2021</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="str">
         <f t="shared" si="5"/>
         <v>20200440586-01</v>
       </c>
       <c r="B25" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>Công trình: Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
+        <v>Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
       </c>
       <c r="C25" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8895,14 +9401,14 @@
         <v>27/04/2021</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="str">
         <f t="shared" si="5"/>
         <v>20200440586-01</v>
       </c>
       <c r="B26" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>Công trình: Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
+        <v>Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
       </c>
       <c r="C26" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8941,14 +9447,14 @@
         <v>27/04/2021</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="str">
         <f t="shared" si="5"/>
         <v>20200440586-01</v>
       </c>
       <c r="B27" s="19" t="str">
         <f t="shared" si="6"/>
-        <v>Công trình: Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
+        <v>Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</v>
       </c>
       <c r="C27" s="19" t="str">
         <f t="shared" si="7"/>
@@ -8989,40 +9495,40 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A8 A28:A1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:A27">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="10" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D1:M24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
     <col min="13" max="13" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D1">
         <f>COLUMN()-COLUMN($C$1)</f>
         <v>1</v>
@@ -9059,7 +9565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>466</v>
       </c>
@@ -9089,7 +9595,7 @@
         <v>Tiết diện dây [mm2]: 50/8</v>
       </c>
     </row>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>467</v>
       </c>
@@ -9119,7 +9625,7 @@
         <v>Đường kính ngoài của ruột dẫn đối với dây trần hay bọc [mm] : 9,5-10</v>
       </c>
     </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>474</v>
       </c>
@@ -9149,7 +9655,7 @@
         <v>Độ dày lớp bọc cách điện XLPE 22kV : 5,5 mm</v>
       </c>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>476</v>
       </c>
@@ -9179,7 +9685,7 @@
         <v>Đường kính ngoài của dây bọc 22kV [mm]: 23,1-23,4</v>
       </c>
     </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>482</v>
       </c>
@@ -9209,7 +9715,7 @@
         <v>Lực kéo đứt [kN]: 17,1</v>
       </c>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>466</v>
       </c>
@@ -9224,7 +9730,7 @@
         <v xml:space="preserve">Tiết diện dây [mm2]: </v>
       </c>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>496</v>
       </c>
@@ -9239,7 +9745,7 @@
         <v xml:space="preserve">Số tao/đường kính mỗi tao [mm]: </v>
       </c>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>499</v>
       </c>
@@ -9254,7 +9760,7 @@
         <v xml:space="preserve">Đường kính ngoài tối đa của cáp [mm]: </v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>482</v>
       </c>
@@ -9269,31 +9775,31 @@
         <v xml:space="preserve">Lực kéo đứt [kN]: </v>
       </c>
     </row>
-    <row r="14" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.3">
       <c r="M14" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="15" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.3">
       <c r="M15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="16" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.3">
       <c r="M16" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="17" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
       <c r="M17" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>466</v>
       </c>
@@ -9320,7 +9826,7 @@
         <v>Tiết diện dây [mm2]: 50/8</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>467</v>
       </c>
@@ -9347,7 +9853,7 @@
         <v>Đường kính ngoài của ruột dẫn đối với dây trần hay bọc [mm] : 9,5-10</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>541</v>
       </c>
@@ -9356,7 +9862,7 @@
         <v xml:space="preserve">Độ dày lớp bọc 22kV : </v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>542</v>
       </c>
@@ -9386,7 +9892,7 @@
         <v>+ Cách điện XLPE: 5,5 mm</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>543</v>
       </c>
@@ -9416,7 +9922,7 @@
         <v>+ Vỏ ngoài HDPE: 1,2 mm</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>476</v>
       </c>
@@ -9443,7 +9949,7 @@
         <v>Đường kính ngoài của dây bọc 22kV [mm]: 23,1-23,4</v>
       </c>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>482</v>
       </c>
@@ -9478,25 +9984,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="70"/>
+    <col min="1" max="3" width="8.88671875" style="70"/>
     <col min="4" max="4" width="26" style="79" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="70"/>
+    <col min="5" max="5" width="8.88671875" style="70"/>
     <col min="6" max="6" width="27" style="70" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="70" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="70" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="70"/>
+    <col min="7" max="7" width="7.109375" style="70" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" style="70" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="77" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="77" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>127</v>
       </c>
@@ -9522,7 +10028,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D2" s="79" t="s">
         <v>527</v>
       </c>
@@ -9533,7 +10039,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="79" t="s">
         <v>527</v>
       </c>
@@ -9544,7 +10050,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="79" t="s">
         <v>527</v>
       </c>
@@ -9556,7 +10062,7 @@
       </c>
       <c r="J4" s="91"/>
     </row>
-    <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="79" t="s">
         <v>526</v>
       </c>
@@ -9568,7 +10074,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="79" t="s">
         <v>526</v>
       </c>
@@ -9580,7 +10086,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="79" t="s">
         <v>526</v>
       </c>
@@ -9592,7 +10098,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" s="79" t="s">
         <v>406</v>
       </c>
@@ -9603,7 +10109,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="79" t="s">
         <v>406</v>
       </c>
@@ -9614,7 +10120,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="79" t="s">
         <v>406</v>
       </c>
@@ -9625,7 +10131,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="95" t="s">
         <v>530</v>
       </c>
@@ -9636,7 +10142,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="95" t="s">
         <v>530</v>
       </c>
@@ -9647,7 +10153,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="95" t="s">
         <v>530</v>
       </c>
@@ -9658,7 +10164,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="79" t="s">
         <v>531</v>
       </c>
@@ -9669,7 +10175,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D15" s="79" t="s">
         <v>531</v>
       </c>
@@ -9680,7 +10186,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="79" t="s">
         <v>531</v>
       </c>
@@ -9691,7 +10197,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" s="79" t="s">
         <v>533</v>
       </c>
@@ -9702,7 +10208,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" s="79" t="s">
         <v>533</v>
       </c>
@@ -9713,7 +10219,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" s="79" t="s">
         <v>533</v>
       </c>
@@ -9724,7 +10230,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" s="79" t="s">
         <v>534</v>
       </c>
@@ -9735,7 +10241,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" s="79" t="s">
         <v>534</v>
       </c>
@@ -9746,7 +10252,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D22" s="79" t="s">
         <v>534</v>
       </c>
@@ -9757,7 +10263,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D23" s="79" t="s">
         <v>535</v>
       </c>
@@ -9768,7 +10274,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D24" s="79" t="s">
         <v>538</v>
       </c>
@@ -9779,7 +10285,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D25" s="79" t="s">
         <v>538</v>
       </c>
@@ -9790,7 +10296,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D26" s="79" t="s">
         <v>538</v>
       </c>
@@ -9801,7 +10307,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D27" s="79" t="s">
         <v>546</v>
       </c>
@@ -9812,7 +10318,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D28" s="79" t="s">
         <v>546</v>
       </c>
@@ -9823,7 +10329,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D29" s="79" t="s">
         <v>546</v>
       </c>
@@ -9834,7 +10340,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D30" s="26" t="s">
         <v>547</v>
       </c>
@@ -9845,7 +10351,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D31" s="26" t="s">
         <v>547</v>
       </c>
@@ -9856,7 +10362,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D32" s="26" t="s">
         <v>547</v>
       </c>
@@ -9867,7 +10373,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D33" s="79" t="s">
         <v>333</v>
       </c>
@@ -9878,7 +10384,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D34" s="79" t="s">
         <v>333</v>
       </c>
@@ -9889,7 +10395,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D35" s="79" t="s">
         <v>333</v>
       </c>
@@ -9901,14 +10407,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J4"/>
+  <autoFilter ref="A1:J4" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1"/>
-    <hyperlink ref="H16" r:id="rId2"/>
-    <hyperlink ref="H19" r:id="rId3"/>
-    <hyperlink ref="H22" r:id="rId4"/>
-    <hyperlink ref="H29" r:id="rId5"/>
-    <hyperlink ref="H32" r:id="rId6"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H16" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="H19" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="H22" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="H29" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="H32" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -9916,7 +10422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J21"/>
   <sheetViews>
@@ -9924,21 +10430,21 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="113" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="113" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="73" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="111">
         <f>SUMIF(A2:A21,"x",F2:F21)</f>
         <v>6197513796</v>
@@ -9971,7 +10477,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>420</v>
       </c>
@@ -10000,7 +10506,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>431</v>
       </c>
@@ -10029,7 +10535,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>436</v>
       </c>
@@ -10058,7 +10564,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -10090,7 +10596,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -10122,7 +10628,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -10151,52 +10657,52 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="I12">
         <v>1640251089</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="I13">
         <v>1374255938</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="I14">
         <v>3043578216</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="I15">
         <v>1133019615</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="I16">
         <v>1276052117</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="D17" s="115"/>
     </row>
-    <row r="18" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" s="115"/>
     </row>
-    <row r="19" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" s="115"/>
     </row>
-    <row r="20" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" s="115"/>
     </row>
-    <row r="21" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" s="115"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J21">
+  <autoFilter ref="A1:J21" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10208,25 +10714,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:O10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="75" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="75" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="66" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="64.8" x14ac:dyDescent="0.3">
       <c r="B1" s="80" t="s">
         <v>169</v>
       </c>
@@ -10236,10 +10742,10 @@
       <c r="D1" s="80" t="s">
         <v>275</v>
       </c>
-      <c r="E1" s="131" t="s">
+      <c r="E1" s="134" t="s">
         <v>276</v>
       </c>
-      <c r="F1" s="131"/>
+      <c r="F1" s="134"/>
       <c r="G1" s="80" t="s">
         <v>277</v>
       </c>
@@ -10250,11 +10756,11 @@
         <v>3500000000</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="132" t="s">
+    <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="135" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="136" t="s">
         <v>279</v>
       </c>
       <c r="D2" s="81" t="s">
@@ -10266,9 +10772,9 @@
       <c r="F2" s="83"/>
       <c r="G2" s="83"/>
     </row>
-    <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="132"/>
-      <c r="C3" s="133"/>
+    <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="135"/>
+      <c r="C3" s="136"/>
       <c r="D3" s="81" t="s">
         <v>272</v>
       </c>
@@ -10278,9 +10784,9 @@
       <c r="F3" s="83"/>
       <c r="G3" s="83"/>
     </row>
-    <row r="4" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="132"/>
-      <c r="C4" s="133"/>
+    <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="135"/>
+      <c r="C4" s="136"/>
       <c r="D4" s="81" t="s">
         <v>273</v>
       </c>
@@ -10304,10 +10810,10 @@
         <v>16509763630.333334</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E6" s="75"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>275</v>
       </c>
@@ -10321,7 +10827,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2017</v>
       </c>
@@ -10356,7 +10862,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="72" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2018</v>
       </c>
@@ -10391,7 +10897,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2019</v>
       </c>
@@ -10417,23 +10923,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C1:K38"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="9" width="8.7109375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.6640625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" s="60" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:11" s="60" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="61" t="s">
         <v>169</v>
       </c>
@@ -10456,7 +10962,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="2" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="52">
         <f>SUM($G$1:G2)</f>
         <v>0</v>
@@ -10477,7 +10983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="52">
         <f>SUM($G$1:G3)</f>
         <v>0</v>
@@ -10498,7 +11004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="52">
         <f>SUM($G$1:G4)</f>
         <v>0</v>
@@ -10522,7 +11028,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="52">
         <f>SUM($G$1:G5)</f>
         <v>1</v>
@@ -10546,7 +11052,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="52">
         <f>SUM($G$1:G6)</f>
         <v>1</v>
@@ -10570,7 +11076,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="52">
         <f>SUM($G$1:G7)</f>
         <v>1</v>
@@ -10591,7 +11097,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="52">
         <f>SUM($G$1:G8)</f>
         <v>1</v>
@@ -10612,7 +11118,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="52">
         <f>SUM($G$1:G9)</f>
         <v>1</v>
@@ -10636,7 +11142,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="52">
         <f>SUM($G$1:G10)</f>
         <v>1</v>
@@ -10660,7 +11166,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="52">
         <f>SUM($G$1:G11)</f>
         <v>1</v>
@@ -10684,7 +11190,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="12" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="52">
         <f>SUM($G$1:G12)</f>
         <v>1</v>
@@ -10705,7 +11211,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="52">
         <f>SUM($G$1:G13)</f>
         <v>1</v>
@@ -10726,7 +11232,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="14" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="52">
         <f>SUM($G$1:G14)</f>
         <v>2</v>
@@ -10750,7 +11256,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="15" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="52">
         <f>SUM($G$1:G15)</f>
         <v>2</v>
@@ -10771,7 +11277,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="52">
         <f>SUM($G$1:G16)</f>
         <v>2</v>
@@ -10792,7 +11298,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="17" spans="3:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="52">
         <f>SUM($G$1:G17)</f>
         <v>3</v>
@@ -10816,7 +11322,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="52">
         <f>SUM($G$1:G18)</f>
         <v>3</v>
@@ -10837,7 +11343,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="19" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="52">
         <f>SUM($G$1:G19)</f>
         <v>3</v>
@@ -10858,7 +11364,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="20" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="52">
         <f>SUM($G$1:G20)</f>
         <v>3</v>
@@ -10879,7 +11385,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="21" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="52">
         <f>SUM($G$1:G21)</f>
         <v>3</v>
@@ -10900,7 +11406,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="52">
         <f>SUM($G$1:G22)</f>
         <v>3</v>
@@ -10924,7 +11430,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="23" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="52">
         <f>SUM($G$1:G23)</f>
         <v>3</v>
@@ -10945,7 +11451,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="52">
         <f>SUM($G$1:G24)</f>
         <v>3</v>
@@ -10966,7 +11472,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="52">
         <f>SUM($G$1:G25)</f>
         <v>3</v>
@@ -10987,7 +11493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="52">
         <f>SUM($G$1:G26)</f>
         <v>3</v>
@@ -11008,7 +11514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="52">
         <f>SUM($G$1:G27)</f>
         <v>3</v>
@@ -11029,7 +11535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="52">
         <f>SUM($G$1:G28)</f>
         <v>3</v>
@@ -11050,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="52">
         <f>SUM($G$1:G29)</f>
         <v>3</v>
@@ -11068,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="52">
         <f>SUM($G$1:G30)</f>
         <v>3</v>
@@ -11089,7 +11595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="52">
         <f>SUM($G$1:G31)</f>
         <v>3</v>
@@ -11110,7 +11616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="52">
         <f>SUM($G$1:G32)</f>
         <v>3</v>
@@ -11131,7 +11637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="52">
         <f>SUM($G$1:G33)</f>
         <v>3</v>
@@ -11149,7 +11655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="52">
         <f>SUM($G$1:G34)</f>
         <v>3</v>
@@ -11167,7 +11673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="52">
         <f>SUM($G$1:G35)</f>
         <v>3</v>
@@ -11185,7 +11691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="52">
         <f>SUM($G$1:G36)</f>
         <v>3</v>
@@ -11206,7 +11712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="52">
         <f>SUM($G$1:G37)</f>
         <v>3</v>
@@ -11224,7 +11730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="52">
         <f>SUM($G$1:G38)</f>
         <v>3</v>
@@ -11243,27 +11749,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:I38"/>
+  <autoFilter ref="C1:I38" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <conditionalFormatting sqref="D11:D1048576 D1:D2 D7 D9">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11271,30 +11777,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D1:H34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="7"/>
-    <col min="4" max="4" width="56.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="7"/>
-    <col min="6" max="6" width="40.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="56.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="7"/>
+    <col min="6" max="6" width="40.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="7"/>
+    <col min="9" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D2" s="8" t="s">
         <v>58</v>
       </c>
@@ -11305,7 +11811,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D3" s="9" t="s">
         <v>59</v>
       </c>
@@ -11316,7 +11822,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D4" s="9" t="s">
         <v>60</v>
       </c>
@@ -11327,12 +11833,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D5" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D6" s="9" t="s">
         <v>62</v>
       </c>
@@ -11343,7 +11849,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D7" s="9" t="s">
         <v>63</v>
       </c>
@@ -11357,7 +11863,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
@@ -11368,7 +11874,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
         <v>65</v>
       </c>
@@ -11382,7 +11888,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D10" s="9" t="s">
         <v>66</v>
       </c>
@@ -11396,7 +11902,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D11" s="9" t="s">
         <v>67</v>
       </c>
@@ -11410,7 +11916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D12" s="9" t="s">
         <v>68</v>
       </c>
@@ -11424,7 +11930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D13" s="9" t="s">
         <v>69</v>
       </c>
@@ -11438,7 +11944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D14" s="9" t="s">
         <v>70</v>
       </c>
@@ -11452,7 +11958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D15" s="9" t="s">
         <v>71</v>
       </c>
@@ -11466,7 +11972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D16" s="9" t="s">
         <v>72</v>
       </c>
@@ -11480,7 +11986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" s="9" t="s">
         <v>73</v>
       </c>
@@ -11494,7 +12000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" s="11" t="s">
         <v>58</v>
       </c>
@@ -11508,7 +12014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" s="11" t="s">
         <v>75</v>
       </c>
@@ -11522,7 +12028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" s="11"/>
       <c r="F20" s="3" t="s">
         <v>35</v>
@@ -11534,7 +12040,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" s="11" t="s">
         <v>77</v>
       </c>
@@ -11548,7 +12054,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D22" s="11" t="s">
         <v>78</v>
       </c>
@@ -11562,7 +12068,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D23" s="11" t="s">
         <v>79</v>
       </c>
@@ -11576,7 +12082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D24" s="11" t="s">
         <v>80</v>
       </c>
@@ -11590,7 +12096,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D25" s="11" t="s">
         <v>81</v>
       </c>
@@ -11604,7 +12110,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D26" s="11" t="s">
         <v>76</v>
       </c>
@@ -11618,7 +12124,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D27" s="11" t="s">
         <v>82</v>
       </c>
@@ -11632,7 +12138,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D28" s="11" t="s">
         <v>83</v>
       </c>
@@ -11646,7 +12152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F29" s="4" t="s">
         <v>48</v>
       </c>
@@ -11657,7 +12163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F30" s="4" t="s">
         <v>49</v>
       </c>
@@ -11668,7 +12174,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F31" s="3" t="s">
         <v>50</v>
       </c>
@@ -11679,7 +12185,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F32" s="3" t="s">
         <v>52</v>
       </c>
@@ -11690,7 +12196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F33" s="3" t="s">
         <v>55</v>
       </c>
@@ -11701,7 +12207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F34" s="3" t="s">
         <v>56</v>
       </c>
@@ -11718,7 +12224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11726,25 +12232,25 @@
       <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="26"/>
-    <col min="4" max="4" width="8.85546875" style="29"/>
-    <col min="5" max="5" width="8.85546875" style="26"/>
-    <col min="6" max="6" width="26.28515625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="26" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="27" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="26"/>
+    <col min="1" max="3" width="8.88671875" style="26"/>
+    <col min="4" max="4" width="8.88671875" style="29"/>
+    <col min="5" max="5" width="8.88671875" style="26"/>
+    <col min="6" max="6" width="26.33203125" style="26" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="26" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="27" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="26"/>
     <col min="12" max="12" width="13" style="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="29" customWidth="1"/>
-    <col min="14" max="14" width="50.5703125" style="29" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="26" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="26"/>
+    <col min="13" max="13" width="15.44140625" style="29" customWidth="1"/>
+    <col min="14" max="14" width="50.5546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="26" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>127</v>
       </c>
@@ -11793,7 +12299,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="70" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="70" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -11852,7 +12358,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B3" s="70" t="e">
         <f>VLOOKUP(F3,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -11889,7 +12395,7 @@
         <v>34970</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B4" s="70" t="e">
         <f>VLOOKUP(F4,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -11924,7 +12430,7 @@
         <v>30027</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" s="70" t="e">
         <f>VLOOKUP(F5,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -11965,7 +12471,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D6" s="29">
         <v>5</v>
       </c>
@@ -11980,7 +12486,7 @@
       <c r="H6" s="102"/>
       <c r="I6" s="102"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D7" s="29">
         <v>6</v>
       </c>
@@ -12005,7 +12511,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D8" s="29">
         <v>7</v>
       </c>
@@ -12027,7 +12533,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D9" s="29">
         <v>8</v>
       </c>
@@ -12045,7 +12551,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D10" s="29">
         <v>9</v>
       </c>
@@ -12060,7 +12566,7 @@
       <c r="H10" s="102"/>
       <c r="I10" s="102"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D11" s="29">
         <v>10</v>
       </c>
@@ -12082,7 +12588,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B12" s="70" t="e">
         <f>VLOOKUP(F12,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -12116,7 +12622,7 @@
         <v>29587</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B13" s="70" t="e">
         <f>VLOOKUP(F13,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -12153,7 +12659,7 @@
         <v>29221</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D14" s="29">
         <v>13</v>
       </c>
@@ -12175,7 +12681,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B15" s="70" t="e">
         <f>VLOOKUP(F15,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -12209,7 +12715,7 @@
         <v>30730</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D16" s="29">
         <v>15</v>
       </c>
@@ -12227,7 +12733,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D17" s="29">
         <v>16</v>
       </c>
@@ -12245,7 +12751,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B18" s="70" t="e">
         <f>VLOOKUP(F18,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -12279,7 +12785,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B19" s="70" t="e">
         <f>VLOOKUP(F19,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -12311,7 +12817,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="s">
         <v>555</v>
       </c>
@@ -12347,7 +12853,7 @@
         <v>41396</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E21" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12363,7 +12869,7 @@
       </c>
       <c r="I21" s="102"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E22" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12379,7 +12885,7 @@
       </c>
       <c r="I22" s="102"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E23" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12395,7 +12901,7 @@
       </c>
       <c r="I23" s="102"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E24" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12411,7 +12917,7 @@
       </c>
       <c r="I24" s="102"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E25" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12427,7 +12933,7 @@
       </c>
       <c r="I25" s="102"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="70" t="e">
         <f>VLOOKUP(F26,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -12459,7 +12965,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="70" t="e">
         <f>VLOOKUP(F27,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -12493,7 +12999,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="70" t="e">
         <f>VLOOKUP(F28,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -12527,7 +13033,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B29" s="70" t="e">
         <f>VLOOKUP(F29,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -12561,7 +13067,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30" s="70" t="e">
         <f>VLOOKUP(F30,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -12593,7 +13099,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E31" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12609,7 +13115,7 @@
       </c>
       <c r="I31" s="102"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B32" s="70" t="e">
         <f>VLOOKUP(F32,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -12641,7 +13147,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B33" s="70" t="e">
         <f>VLOOKUP(F33,Sheet1!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -12675,7 +13181,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E34" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12691,7 +13197,7 @@
       </c>
       <c r="I34" s="102"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E35" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12707,7 +13213,7 @@
       </c>
       <c r="I35" s="102"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="70"/>
       <c r="B36" s="70" t="e">
         <f>VLOOKUP(F36,Sheet1!#REF!,1,0)</f>
@@ -12745,7 +13251,7 @@
         <v>40360</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E37" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12755,7 +13261,7 @@
       <c r="H37" s="102"/>
       <c r="I37" s="102"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E38" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12765,7 +13271,7 @@
       <c r="H38" s="102"/>
       <c r="I38" s="102"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E39" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12775,7 +13281,7 @@
       <c r="H39" s="102"/>
       <c r="I39" s="102"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E40" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12785,7 +13291,7 @@
       <c r="H40" s="102"/>
       <c r="I40" s="102"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E41" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12795,7 +13301,7 @@
       <c r="H41" s="102"/>
       <c r="I41" s="102"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E42" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12805,7 +13311,7 @@
       <c r="H42" s="102"/>
       <c r="I42" s="102"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E43" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12815,7 +13321,7 @@
       <c r="H43" s="102"/>
       <c r="I43" s="102"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E44" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12825,7 +13331,7 @@
       <c r="H44" s="102"/>
       <c r="I44" s="102"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E45" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12835,7 +13341,7 @@
       <c r="H45" s="102"/>
       <c r="I45" s="102"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E46" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12845,7 +13351,7 @@
       <c r="H46" s="102"/>
       <c r="I46" s="102"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E47" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12855,7 +13361,7 @@
       <c r="H47" s="102"/>
       <c r="I47" s="102"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E48" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12865,7 +13371,7 @@
       <c r="H48" s="102"/>
       <c r="I48" s="102"/>
     </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E49" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12875,7 +13381,7 @@
       <c r="H49" s="102"/>
       <c r="I49" s="102"/>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E50" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12885,7 +13391,7 @@
       <c r="H50" s="102"/>
       <c r="I50" s="102"/>
     </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E51" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12895,7 +13401,7 @@
       <c r="H51" s="102"/>
       <c r="I51" s="102"/>
     </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E52" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12905,7 +13411,7 @@
       <c r="H52" s="102"/>
       <c r="I52" s="102"/>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E53" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12915,7 +13421,7 @@
       <c r="H53" s="102"/>
       <c r="I53" s="102"/>
     </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E54" s="102">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12926,16 +13432,16 @@
       <c r="I54" s="102"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O54">
-    <sortState ref="A2:O54">
+  <autoFilter ref="A1:O54" xr:uid="{00000000-0009-0000-0000-000008000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O54">
       <sortCondition ref="D1:D54"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F1:F7 F9:F1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TongHopDuThau.xlsx
+++ b/TongHopDuThau.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6D4EF5-197B-4BF6-90AC-ED682A6F9F86}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF454945-3BE4-4E96-BDA0-CE1EE0EA2F1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" tabRatio="768" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" tabRatio="768" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TBMT" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="645">
   <si>
     <t>CongTrinh</t>
   </si>
@@ -2180,6 +2180,9 @@
   <si>
     <t>ThoiGianBaoHanh</t>
   </si>
+  <si>
+    <t>Trình độ</t>
+  </si>
 </sst>
 </file>
 
@@ -2913,14 +2916,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2967,11 +2967,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -64850,12 +64853,12 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22:A26"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.109375" style="152" customWidth="1"/>
+    <col min="1" max="1" width="78.109375" style="134" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="79.21875" bestFit="1" customWidth="1"/>
@@ -64881,14 +64884,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="134" t="s">
         <v>585</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <f>COUNTIF(B:B,B2)</f>
+        <f t="shared" ref="C2:C26" si="0">COUNTIF(B:B,B2)</f>
         <v>2</v>
       </c>
       <c r="F2">
@@ -64899,14 +64902,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="134" t="s">
         <v>586</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <f>COUNTIF(B:B,B3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F3">
@@ -64917,14 +64920,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="134" t="s">
         <v>587</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <f>COUNTIF(B:B,B4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F4">
@@ -64935,14 +64938,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="134" t="s">
         <v>588</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <f>COUNTIF(B:B,B5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5">
@@ -64953,18 +64956,18 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="134" t="s">
         <v>600</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <f>COUNTIF(B:B,B6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E6" t="str">
-        <f>"Xây dựng mới "&amp;A6</f>
+        <f t="shared" ref="E6:E11" si="1">"Xây dựng mới "&amp;A6</f>
         <v>Xây dựng mới Xây dựng mới TBA 1 pha 2x37,5kVA: 1 trạm (Thọ Hòa 1C).</v>
       </c>
       <c r="G6">
@@ -64972,18 +64975,18 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="135" t="s">
         <v>603</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" s="1">
-        <f>COUNTIF(B:B,B7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E7" t="str">
-        <f>"Xây dựng mới "&amp;A7</f>
+        <f t="shared" si="1"/>
         <v>Xây dựng mới Xây dựng mới TBA 3 pha 3x37,5kVA ( Bảo Chánh 4D, Bảo Chánh 4E).</v>
       </c>
       <c r="G7">
@@ -64991,18 +64994,18 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="153" t="s">
+      <c r="A8" s="135" t="s">
         <v>604</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" s="1">
-        <f>COUNTIF(B:B,B8)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E8" t="str">
-        <f>"Xây dựng mới "&amp;A8</f>
+        <f t="shared" si="1"/>
         <v>Xây dựng mới Xây dựng mới TBA 3 pha 250kVA Bảo Chánh 4C</v>
       </c>
       <c r="G8">
@@ -65010,18 +65013,18 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="134" t="s">
         <v>601</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" s="1">
-        <f>COUNTIF(B:B,B9)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E9" t="str">
-        <f>"Xây dựng mới "&amp;A9</f>
+        <f t="shared" si="1"/>
         <v>Xây dựng mới Xây dựng mới TBA 1 pha 1x100kVA: 1 trạm (Đông Minh 7A).</v>
       </c>
       <c r="G9">
@@ -65029,18 +65032,18 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="135" t="s">
         <v>602</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" s="1">
-        <f>COUNTIF(B:B,B10)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E10" t="str">
-        <f>"Xây dựng mới "&amp;A10</f>
+        <f t="shared" si="1"/>
         <v>Xây dựng mới Xây dựng mới TBA 3 pha 3x37,5kVA trạm Đông Minh 5C</v>
       </c>
       <c r="G10">
@@ -65048,18 +65051,18 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="135" t="s">
         <v>605</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11" s="1">
-        <f>COUNTIF(B:B,B11)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="E11" t="str">
-        <f>"Xây dựng mới "&amp;A11</f>
+        <f t="shared" si="1"/>
         <v>Xây dựng mới Xây dựng mới TBA 3 pha 3x50kVA: trạm Đông Minh 5B</v>
       </c>
       <c r="G11">
@@ -65067,14 +65070,14 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="134" t="s">
         <v>590</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" s="1">
-        <f>COUNTIF(B:B,B12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G12">
@@ -65082,14 +65085,14 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="152" t="s">
+      <c r="A13" s="134" t="s">
         <v>591</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
       <c r="C13" s="1">
-        <f>COUNTIF(B:B,B13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G13">
@@ -65097,14 +65100,14 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="152" t="s">
+      <c r="A14" s="134" t="s">
         <v>594</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14" s="1">
-        <f>COUNTIF(B:B,B14)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G14">
@@ -65112,14 +65115,14 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="152" t="s">
+      <c r="A15" s="134" t="s">
         <v>589</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" s="1">
-        <f>COUNTIF(B:B,B15)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G15">
@@ -65127,14 +65130,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="152" t="s">
+      <c r="A16" s="134" t="s">
         <v>592</v>
       </c>
       <c r="B16">
         <v>7</v>
       </c>
       <c r="C16" s="1">
-        <f>COUNTIF(B:B,B16)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G16">
@@ -65142,14 +65145,14 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="134" t="s">
         <v>593</v>
       </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" s="1">
-        <f>COUNTIF(B:B,B17)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G17">
@@ -65157,14 +65160,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="152" t="s">
+      <c r="A18" s="134" t="s">
         <v>595</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18" s="1">
-        <f>COUNTIF(B:B,B18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G18">
@@ -65172,14 +65175,14 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="152" t="s">
+      <c r="A19" s="134" t="s">
         <v>596</v>
       </c>
       <c r="B19">
         <v>8</v>
       </c>
       <c r="C19" s="1">
-        <f>COUNTIF(B:B,B19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G19">
@@ -65187,14 +65190,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="152" t="s">
+      <c r="A20" s="134" t="s">
         <v>597</v>
       </c>
       <c r="B20">
         <v>9</v>
       </c>
       <c r="C20" s="1">
-        <f>COUNTIF(B:B,B20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G20">
@@ -65202,14 +65205,14 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="152" t="s">
+      <c r="A21" s="134" t="s">
         <v>598</v>
       </c>
       <c r="B21">
         <v>10</v>
       </c>
       <c r="C21" s="1">
-        <f>COUNTIF(B:B,B21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G21">
@@ -65217,14 +65220,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="134" t="s">
         <v>608</v>
       </c>
       <c r="B22">
         <v>11</v>
       </c>
       <c r="C22" s="1">
-        <f>COUNTIF(B:B,B22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E22" t="str">
@@ -65236,14 +65239,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="152" t="s">
+      <c r="A23" s="134" t="s">
         <v>599</v>
       </c>
       <c r="B23" s="1">
         <v>12</v>
       </c>
       <c r="C23" s="1">
-        <f>COUNTIF(B:B,B23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E23" t="str">
@@ -65255,14 +65258,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="153" t="s">
+      <c r="A24" s="135" t="s">
         <v>606</v>
       </c>
       <c r="B24">
         <v>13</v>
       </c>
       <c r="C24" s="1">
-        <f>COUNTIF(B:B,B24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E24" t="str">
@@ -65274,14 +65277,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="135" t="s">
         <v>607</v>
       </c>
       <c r="B25">
         <v>14</v>
       </c>
       <c r="C25" s="1">
-        <f>COUNTIF(B:B,B25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E25" t="str">
@@ -65293,14 +65296,14 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="152" t="s">
+      <c r="A26" s="134" t="s">
         <v>584</v>
       </c>
       <c r="B26" s="1">
         <v>15</v>
       </c>
       <c r="C26" s="1">
-        <f>COUNTIF(B:B,B26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F26">
@@ -65311,7 +65314,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="152" t="s">
+      <c r="A27" s="134" t="s">
         <v>579</v>
       </c>
       <c r="B27" s="1"/>
@@ -65323,11 +65326,11 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="152" t="s">
+      <c r="A28" s="134" t="s">
         <v>580</v>
       </c>
       <c r="C28" s="1">
-        <f>COUNTIF(B:B,B28)</f>
+        <f t="shared" ref="C28:C39" si="2">COUNTIF(B:B,B28)</f>
         <v>0</v>
       </c>
       <c r="G28">
@@ -65335,11 +65338,11 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="152" t="s">
+      <c r="A29" s="134" t="s">
         <v>581</v>
       </c>
       <c r="C29" s="1">
-        <f>COUNTIF(B:B,B29)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29">
@@ -65348,7 +65351,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
-        <f>COUNTIF(B:B,B30)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30">
@@ -65357,7 +65360,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
-        <f>COUNTIF(B:B,B31)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G31">
@@ -65366,7 +65369,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
-        <f>COUNTIF(B:B,B32)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G32">
@@ -65375,7 +65378,7 @@
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
-        <f>COUNTIF(B:B,B33)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G33">
@@ -65384,7 +65387,7 @@
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
-        <f>COUNTIF(B:B,B34)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G34">
@@ -65393,7 +65396,7 @@
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
-        <f>COUNTIF(B:B,B35)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G35">
@@ -65402,7 +65405,7 @@
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
-        <f>COUNTIF(B:B,B36)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36">
@@ -65411,7 +65414,7 @@
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
-        <f>COUNTIF(B:B,B37)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37">
@@ -65420,7 +65423,7 @@
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
-        <f>COUNTIF(B:B,B38)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G38">
@@ -65429,7 +65432,7 @@
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
-        <f>COUNTIF(B:B,B39)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G39">
@@ -65451,8 +65454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46FB71B-3DE2-4E75-A763-5A6E3186635F}">
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="B1:D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -65502,10 +65505,10 @@
         <v xml:space="preserve"> - Xây dựng mới đường dây trung thế 3 pha cáp 3ACX95mm2+AC70mm2 dài  526,2 mét.
  - Xây dựng mới đường dây trung thế 3 pha ngầm cáp CXV/SE/ DSTA-3x70mm2 + CV35mm2 dài 40 mét.</v>
       </c>
-      <c r="E2" s="152" t="s">
+      <c r="E2" s="134" t="s">
         <v>585</v>
       </c>
-      <c r="F2" s="152" t="s">
+      <c r="F2" s="134" t="s">
         <v>586</v>
       </c>
       <c r="G2" s="115"/>
@@ -65552,7 +65555,7 @@
       <c r="H4" s="115"/>
       <c r="I4" s="115"/>
     </row>
-    <row r="5" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B5" s="118">
         <v>4</v>
       </c>
@@ -65566,13 +65569,13 @@
  - Xây dựng mới TBA 3 pha 3x37,5kVA ( Bảo Chánh 4D, Bảo Chánh 4E).
  - Xây dựng mới TBA 3 pha 250kVA Bảo Chánh 4C</v>
       </c>
-      <c r="E5" s="152" t="s">
+      <c r="E5" s="134" t="s">
         <v>600</v>
       </c>
-      <c r="F5" s="153" t="s">
+      <c r="F5" s="135" t="s">
         <v>603</v>
       </c>
-      <c r="G5" s="153" t="s">
+      <c r="G5" s="135" t="s">
         <v>604</v>
       </c>
       <c r="H5" s="115"/>
@@ -65592,19 +65595,19 @@
  - Xây dựng mới TBA 3 pha 3x37,5kVA trạm Đông Minh 5C
  - Xây dựng mới TBA 3 pha 3x50kVA: trạm Đông Minh 5B</v>
       </c>
-      <c r="E6" s="152" t="s">
+      <c r="E6" s="134" t="s">
         <v>601</v>
       </c>
-      <c r="F6" s="153" t="s">
+      <c r="F6" s="135" t="s">
         <v>602</v>
       </c>
-      <c r="G6" s="153" t="s">
+      <c r="G6" s="135" t="s">
         <v>605</v>
       </c>
       <c r="H6" s="115"/>
       <c r="I6" s="115"/>
     </row>
-    <row r="7" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B7" s="118">
         <v>6</v>
       </c>
@@ -65618,19 +65621,19 @@
  - Nâng cấp trạm 1 pha 1x100kVA thành 250kVA: 1 trạm (Đông Minh 8A).
  - Di dời trạm: Đông Minh 7 2x37,5kVA  về tâm phụ tải.</v>
       </c>
-      <c r="E7" s="152" t="s">
+      <c r="E7" s="134" t="s">
         <v>590</v>
       </c>
-      <c r="F7" s="152" t="s">
+      <c r="F7" s="134" t="s">
         <v>591</v>
       </c>
-      <c r="G7" s="152" t="s">
+      <c r="G7" s="134" t="s">
         <v>594</v>
       </c>
       <c r="H7" s="115"/>
       <c r="I7" s="115"/>
     </row>
-    <row r="8" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="78" x14ac:dyDescent="0.3">
       <c r="B8" s="118">
         <v>7</v>
       </c>
@@ -65644,13 +65647,13 @@
  - Nâng cấp trạm 1 pha 2x75kVA thành 250kVA: 1 trạm (Bình Tiến 1). Phần máy biến áp: tận dụng máy thu hồi tại kho Điện lực Xuân Lộc.
  - Di dời trạm: Hòa Bình – 2x50kVA; Việt Kiều 141 – 2x75kVA về tâm phụ tải.</v>
       </c>
-      <c r="E8" s="152" t="s">
+      <c r="E8" s="134" t="s">
         <v>589</v>
       </c>
-      <c r="F8" s="152" t="s">
+      <c r="F8" s="134" t="s">
         <v>592</v>
       </c>
-      <c r="G8" s="152" t="s">
+      <c r="G8" s="134" t="s">
         <v>593</v>
       </c>
       <c r="H8" s="115"/>
@@ -65669,10 +65672,10 @@
         <v xml:space="preserve"> - Xây dựng mới đường dây hạ thế 1 pha cáp ABC 3x95mm2 dài  515,7 mét.
  - Xây dựng mới đường dây hạ thế 3 pha cáp ABC 4x95mm2 dài  1.490,2 mét.</v>
       </c>
-      <c r="E9" s="152" t="s">
+      <c r="E9" s="134" t="s">
         <v>595</v>
       </c>
-      <c r="F9" s="152" t="s">
+      <c r="F9" s="134" t="s">
         <v>596</v>
       </c>
       <c r="H9" s="115"/>
@@ -65710,7 +65713,7 @@
         <f t="array" ref="D11">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E11:I11&lt;&gt;0,E11:I11,""))</f>
         <v xml:space="preserve"> - Nâng cấp đường dây hạ thế cáp ABC 3x70mm2 thành ABC 3x70mm2 + AV70 mm2 dài  2.588,1 mét (kéo thêm dây AV70mm2).</v>
       </c>
-      <c r="E11" s="152" t="s">
+      <c r="E11" s="134" t="s">
         <v>598</v>
       </c>
       <c r="F11" s="1"/>
@@ -65810,7 +65813,7 @@
   </sheetData>
   <autoFilter ref="B1:I15" xr:uid="{B2AFF2EA-2527-4B54-9555-4DA9A987AB42}"/>
   <conditionalFormatting sqref="E1:I11 E13:I1048576 E12:G12 I12">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65823,15 +65826,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I33" sqref="I33"/>
-      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="24"/>
+    <col min="1" max="1" width="11.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="24"/>
     <col min="3" max="3" width="23.21875" style="24" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="27"/>
     <col min="5" max="5" width="8.88671875" style="24"/>
@@ -65850,7 +65854,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>127</v>
+        <v>644</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>127</v>
@@ -65898,6 +65902,9 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="63" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="63" t="s">
+        <v>486</v>
+      </c>
       <c r="B2" s="63" t="e">
         <f>VLOOKUP(F2,NhanSuMoi!#REF!,1,0)</f>
         <v>#REF!</v>
@@ -65986,6 +65993,9 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C4" s="24">
         <v>2016</v>
       </c>
@@ -66018,6 +66028,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C5" s="24">
         <v>2019</v>
       </c>
@@ -66051,6 +66064,9 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C6" s="24">
         <v>2019</v>
       </c>
@@ -66084,6 +66100,9 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C7" s="24">
         <v>2019</v>
       </c>
@@ -66117,6 +66136,9 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C8" s="24">
         <v>2019</v>
       </c>
@@ -66150,6 +66172,9 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C9" s="24">
         <v>2019</v>
       </c>
@@ -66183,6 +66208,9 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C10" s="24">
         <v>2019</v>
       </c>
@@ -66216,6 +66244,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C11" s="24">
         <v>2019</v>
       </c>
@@ -66249,6 +66280,9 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C12" s="24">
         <v>2019</v>
       </c>
@@ -66282,6 +66316,9 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C13" s="24">
         <v>2019</v>
       </c>
@@ -66315,6 +66352,9 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C14" s="24">
         <v>2019</v>
       </c>
@@ -66348,6 +66388,9 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C15" s="24">
         <v>2019</v>
       </c>
@@ -66381,6 +66424,9 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C16" s="24">
         <v>2019</v>
       </c>
@@ -66413,7 +66459,10 @@
         <v>34041</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C17" s="24">
         <v>2019</v>
       </c>
@@ -66446,7 +66495,10 @@
         <v>34974</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C18" s="24">
         <v>2019</v>
       </c>
@@ -66479,7 +66531,10 @@
         <v>35580</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C19" s="24">
         <v>2019</v>
       </c>
@@ -66512,7 +66567,10 @@
         <v>27567</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C20" s="24">
         <v>2019</v>
       </c>
@@ -66545,7 +66603,10 @@
         <v>29696</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C21" s="24">
         <v>2019</v>
       </c>
@@ -66578,7 +66639,10 @@
         <v>31416</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C22" s="24">
         <v>2019</v>
       </c>
@@ -66611,7 +66675,10 @@
         <v>37008</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="C23" s="24">
         <v>2019</v>
       </c>
@@ -66644,7 +66711,7 @@
         <v>33816</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E24" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66697,7 +66764,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25" s="63"/>
       <c r="E25" s="85">
         <f t="shared" si="0"/>
@@ -66733,7 +66800,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E26" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66749,7 +66816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E27" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66772,7 +66839,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E28" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66792,7 +66859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E29" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66808,7 +66875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E30" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66824,7 +66891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E31" s="85">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66844,7 +66911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B32" s="63"/>
       <c r="E32" s="85">
         <f t="shared" si="0"/>
@@ -67597,13 +67664,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F53:F1048576 F7:F50 F1:F5">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:F52">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -67639,10 +67706,10 @@
       <c r="D1" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="151" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="134"/>
+      <c r="F1" s="151"/>
       <c r="G1" s="70" t="s">
         <v>213</v>
       </c>
@@ -67654,10 +67721,10 @@
       </c>
     </row>
     <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="153" t="s">
         <v>215</v>
       </c>
       <c r="D2" s="71" t="s">
@@ -67676,8 +67743,8 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="135"/>
-      <c r="C3" s="136"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="153"/>
       <c r="D3" s="71" t="s">
         <v>208</v>
       </c>
@@ -67694,8 +67761,8 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="135"/>
-      <c r="C4" s="136"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="153"/>
       <c r="D4" s="71" t="s">
         <v>209</v>
       </c>
@@ -69183,7 +69250,7 @@
     <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -69663,7 +69730,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -71060,25 +71127,25 @@
   </sheetData>
   <autoFilter ref="C1:I38" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <conditionalFormatting sqref="D11:D1048576 D1:D2 D7 D9">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -73031,23 +73098,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="136" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="140" t="s">
+      <c r="E1" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="143" t="s">
+      <c r="F1" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="145"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="144"/>
     </row>
     <row r="2" spans="4:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D2" s="138"/>
-      <c r="E2" s="141"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="140"/>
       <c r="F2" s="34" t="s">
         <v>163</v>
       </c>
@@ -73065,8 +73132,8 @@
       </c>
     </row>
     <row r="3" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="139"/>
-      <c r="E3" s="142"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="141"/>
       <c r="F3" s="36" t="s">
         <v>168</v>
       </c>
@@ -73176,26 +73243,26 @@
     </row>
     <row r="17" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="146" t="s">
+      <c r="D18" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="146" t="s">
+      <c r="E18" s="145" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="149" t="s">
+      <c r="F18" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
       <c r="K18">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="4:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
       <c r="F19" s="102" t="s">
         <v>163</v>
       </c>
@@ -73213,8 +73280,8 @@
       </c>
     </row>
     <row r="20" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
       <c r="F20" s="110" t="s">
         <v>548</v>
       </c>

--- a/TongHopDuThau.xlsx
+++ b/TongHopDuThau.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF454945-3BE4-4E96-BDA0-CE1EE0EA2F1C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12504" tabRatio="768" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="768" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="TBMT" sheetId="2" r:id="rId1"/>
@@ -23,11 +22,12 @@
     <sheet name="CongTy" sheetId="12" r:id="rId13"/>
     <sheet name="HopDongTuongTu" sheetId="11" r:id="rId14"/>
     <sheet name="MayThiCong" sheetId="22" r:id="rId15"/>
+    <sheet name="CongNhan" sheetId="23" r:id="rId16"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId16"/>
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
+    <externalReference r:id="rId19"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DanhMucBCap!$C$1:$I$38</definedName>
@@ -43,7 +43,7 @@
     <definedName name="tbmt">TBMT!$A:$J</definedName>
     <definedName name="TT">[3]DG!$A$5:$I$1419</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="661">
   <si>
     <t>CongTrinh</t>
   </si>
@@ -1908,19 +1908,7 @@
     <t>Điện lực Xuân Lộc</t>
   </si>
   <si>
-    <t>Dự án đầu tư</t>
-  </si>
-  <si>
-    <t>Tên dự án</t>
-  </si>
-  <si>
     <t>Công trình: Nâng cấp đường dây trung hạ thế và TBA từ 1 pha lên 3 pha khu vực xã Xuân Hòa, Xuân Phú, Xuân Định huyện Xuân Lộc năm 2019</t>
-  </si>
-  <si>
-    <t>Vốn vay thương mại và vốn khấu hao cơ bản</t>
-  </si>
-  <si>
-    <t>Đấu thầu rộng rãi</t>
   </si>
   <si>
     <t>Bảo đảm dự thầu</t>
@@ -2082,13 +2070,7 @@
     <t>Đăng lần đầu</t>
   </si>
   <si>
-    <t>Gói thầu số 2: Thi công xây lắp Công trình: Nâng cấp đường dây trung hạ thế, cấy trạm biến áp khu vực xã Xuân Hiệp, Xuân Thọ, Lang Minh, Suối Cát, Bảo Hòa huyện Xuân Lộc năm 2019</t>
-  </si>
-  <si>
     <t>Nâng cấp đường dây trung hạ thế, cấy trạm biến áp khu vực xã Xuân Hiệp, Xuân Thọ, Lang Minh, Suối Cát, Bảo Hòa huyện Xuân Lộc năm 2019.</t>
-  </si>
-  <si>
-    <t>2,614,520,178 VND</t>
   </si>
   <si>
     <t>Hai tỷ sáu trăm mười bốn triệu năm trăm hai mươi nghìn một trăm bảy mươi tám đồng chẵn</t>
@@ -2183,11 +2165,77 @@
   <si>
     <t>Trình độ</t>
   </si>
+  <si>
+    <t>Hạn mức tín dụng tại ngân hàng Sacombank</t>
+  </si>
+  <si>
+    <t>Vị trí/ chức danh</t>
+  </si>
+  <si>
+    <t>Số định danh/ CMTND</t>
+  </si>
+  <si>
+    <t>Ngày,tháng,năm sinh</t>
+  </si>
+  <si>
+    <t>Trình độ chuyên môn</t>
+  </si>
+  <si>
+    <t>Công nhân kỹ thuật</t>
+  </si>
+  <si>
+    <t>công nhân</t>
+  </si>
+  <si>
+    <t>Quản lý &amp; sửa chữa lưới điện</t>
+  </si>
+  <si>
+    <t>18/18/1983</t>
+  </si>
+  <si>
+    <t>20200469878-00</t>
+  </si>
+  <si>
+    <t>Hoạt động chi thường xuyên</t>
+  </si>
+  <si>
+    <t>Gói thầu: “Vận chuyển vật tư MDĐĐ và thi công công tơ khách hàng phát triển mới năm 2020”</t>
+  </si>
+  <si>
+    <t>Tên dự toán mua sắm</t>
+  </si>
+  <si>
+    <t>Dự án: Khách hàng dự kiến vận chuyển, gắn mới công tơ năm 2020 của Điện lực Xuân Lộc</t>
+  </si>
+  <si>
+    <t>Vốn sản xuất linh doanh năm 2020 của Công ty TNHH MTV Điện lực Đồng Nai</t>
+  </si>
+  <si>
+    <t>Chào hàng cạnh tranh rút gọn</t>
+  </si>
+  <si>
+    <t>525,769,158 VND</t>
+  </si>
+  <si>
+    <t>Năm trăm hai mươi năm triệu bảy trăm sáu mươi chín nghìn một trăm năm mươi tám đồng chẵn</t>
+  </si>
+  <si>
+    <t>Huyện Xuân Lộc - Tỉnh Đồng Nai</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ngày 03 tháng 05 năm 2020</t>
+  </si>
+  <si>
+    <t>03/05/2021</t>
+  </si>
+  <si>
+    <t>03/05/2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm"/>
@@ -2569,7 +2617,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2711,7 +2759,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2922,6 +2969,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2979,13 +3030,23 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="5" xr:uid="{634C2924-3F56-4010-9577-A93595A747F8}"/>
+    <cellStyle name="Comma 2" xfId="5"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{58E39C18-5244-42A6-B46D-39969BFC58D5}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3204,7 +3265,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6E85A7-B40A-4887-B87C-EAEE490EF58D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD6E85A7-B40A-4887-B87C-EAEE490EF58D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3260,7 +3321,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78336F6-B8EE-492C-BE90-B91532F08161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F78336F6-B8EE-492C-BE90-B91532F08161}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3316,7 +3377,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EE33B0-9F33-4BD9-BAC8-E82B191C6EE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17EE33B0-9F33-4BD9-BAC8-E82B191C6EE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3372,7 +3433,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2BFFC3-2B5E-451D-9351-8DEC5173377D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD2BFFC3-2B5E-451D-9351-8DEC5173377D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3428,7 +3489,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C873A17-B2AA-4D01-A597-03FFBAFD241E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C873A17-B2AA-4D01-A597-03FFBAFD241E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3484,7 +3545,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A664728-7B38-4FF3-85B9-E928518432AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A664728-7B38-4FF3-85B9-E928518432AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -64050,50 +64111,50 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="1" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>LEFT(D1,11)</f>
         <v/>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>450</v>
       </c>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
-      <c r="E1" s="60"/>
+      <c r="E1" s="59"/>
       <c r="F1" s="48"/>
       <c r="G1" s="48"/>
       <c r="H1" s="48"/>
       <c r="I1" s="48"/>
-      <c r="J1" s="60"/>
+      <c r="J1" s="59"/>
       <c r="K1" s="48"/>
       <c r="L1" s="48"/>
       <c r="M1" s="48"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="str">
         <f>TRIM(B2)</f>
         <v/>
@@ -64111,12 +64172,14 @@
       <c r="L2" s="48"/>
       <c r="M2" s="48"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="str">
         <f t="shared" ref="A3:A39" si="0">TRIM(B3)</f>
-        <v/>
-      </c>
-      <c r="B3" s="48"/>
+        <v>Thông tin chung</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>451</v>
+      </c>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
@@ -64129,32 +64192,44 @@
       <c r="L3" s="48"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B4" s="48"/>
+        <v>Số TBMT</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>277</v>
+      </c>
       <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="D4" s="48" t="s">
+        <v>648</v>
+      </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
       <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="H4" s="48" t="s">
+        <v>278</v>
+      </c>
       <c r="I4" s="48"/>
-      <c r="J4" s="60"/>
+      <c r="J4" s="59">
+        <v>43949.581944444442</v>
+      </c>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="str">
         <f>TRIM(B5)</f>
-        <v/>
-      </c>
-      <c r="B5" s="48"/>
+        <v>Hình thức thông báo</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>279</v>
+      </c>
       <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="D5" s="48" t="s">
+        <v>606</v>
+      </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
       <c r="G5" s="48"/>
@@ -64165,34 +64240,44 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B6" s="48"/>
+        <v>Loại thông báo</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>280</v>
+      </c>
       <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="D6" s="48" t="s">
+        <v>281</v>
+      </c>
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="H6" s="48" t="s">
+        <v>282</v>
+      </c>
       <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="J6" s="48" t="s">
+        <v>283</v>
+      </c>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
       <c r="M6" s="48"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Thông tin chung</v>
+        <v>Bên mời thầu</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>451</v>
+        <v>284</v>
       </c>
       <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
+      <c r="D7" s="48" t="s">
+        <v>258</v>
+      </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
@@ -64203,43 +64288,39 @@
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Số TBMT</v>
+        <v>Chủ đầu tư</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>609</v>
+        <v>657</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
       <c r="G8" s="48"/>
-      <c r="H8" s="48" t="s">
-        <v>278</v>
-      </c>
+      <c r="H8" s="48"/>
       <c r="I8" s="48"/>
-      <c r="J8" s="60">
-        <v>43938.606249999997</v>
-      </c>
+      <c r="J8" s="59"/>
       <c r="K8" s="48"/>
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Hình thức thông báo</v>
+        <v>Phân loại</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
@@ -64251,43 +64332,39 @@
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Loại thông báo</v>
+        <v>Tên gói thầu</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>281</v>
+        <v>650</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
-      <c r="H10" s="48" t="s">
-        <v>282</v>
-      </c>
+      <c r="H10" s="48"/>
       <c r="I10" s="48"/>
-      <c r="J10" s="48" t="s">
-        <v>283</v>
-      </c>
+      <c r="J10" s="48"/>
       <c r="K10" s="48"/>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Bên mời thầu</v>
+        <v>Tên dự toán mua sắm</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>284</v>
+        <v>651</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>258</v>
+        <v>652</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
@@ -64299,17 +64376,17 @@
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Chủ đầu tư</v>
+        <v>Nguồn vốn</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>258</v>
+        <v>653</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -64321,17 +64398,17 @@
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Phân loại</v>
+        <v>Phương thức</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
-        <v>553</v>
+        <v>218</v>
       </c>
       <c r="E13" s="48"/>
       <c r="F13" s="48"/>
@@ -64343,17 +64420,17 @@
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Tên gói thầu</v>
+        <v>Thời gian thực hiện hợp đồng</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C14" s="48"/>
-      <c r="D14" s="48" t="s">
-        <v>611</v>
+      <c r="D14" s="48">
+        <v>12</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
@@ -64365,18 +64442,16 @@
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Tên dự án</v>
+        <v>Nội dung chính gói thầu</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>554</v>
+        <v>292</v>
       </c>
       <c r="C15" s="48"/>
-      <c r="D15" s="48" t="s">
-        <v>612</v>
-      </c>
+      <c r="D15" s="48"/>
       <c r="E15" s="48"/>
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
@@ -64387,17 +64462,17 @@
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Nguồn vốn</v>
+        <v>Loại hợp đồng</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
-        <v>556</v>
+        <v>217</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
@@ -64409,57 +64484,55 @@
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Phương thức</v>
+        <v>Hình thức đấu thầu</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
-        <v>218</v>
+        <v>654</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
+      <c r="H17" s="48" t="s">
+        <v>295</v>
+      </c>
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
       <c r="K17" s="48"/>
       <c r="L17" s="48"/>
       <c r="M17" s="48"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Thời gian thực hiện hợp đồng</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>291</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B18" s="48"/>
       <c r="C18" s="48"/>
-      <c r="D18" s="60">
-        <v>236</v>
-      </c>
+      <c r="D18" s="59"/>
       <c r="E18" s="48"/>
       <c r="F18" s="48"/>
       <c r="G18" s="48"/>
       <c r="H18" s="48"/>
       <c r="I18" s="48"/>
-      <c r="J18" s="60"/>
+      <c r="J18" s="59"/>
       <c r="K18" s="48"/>
       <c r="L18" s="48"/>
       <c r="M18" s="48"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Nội dung chính gói thầu</v>
+        <v>Tham dự thầu</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
@@ -64473,17 +64546,17 @@
       <c r="L19" s="48"/>
       <c r="M19" s="48"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Loại hợp đồng</v>
+        <v>Hình thức nhận HSDT</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E20" s="48"/>
       <c r="F20" s="48"/>
@@ -64495,38 +64568,44 @@
       <c r="L20" s="48"/>
       <c r="M20" s="48"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Hình thức đấu thầu</v>
+        <v>Thời gian nhận HSDT từ ngày</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C21" s="48"/>
-      <c r="D21" s="60" t="s">
-        <v>557</v>
+      <c r="D21" s="59">
+        <v>43949.581944444442</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
       <c r="H21" s="48" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="I21" s="48"/>
-      <c r="J21" s="60"/>
+      <c r="J21" s="59">
+        <v>43963.604166666664</v>
+      </c>
       <c r="K21" s="48"/>
       <c r="L21" s="48"/>
       <c r="M21" s="48"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B22" s="48"/>
+        <v>Mua HSMT</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>300</v>
+      </c>
       <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
+      <c r="D22" s="48" t="s">
+        <v>221</v>
+      </c>
       <c r="E22" s="48"/>
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
@@ -64537,16 +64616,18 @@
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Tham dự thầu</v>
+        <v>Địa điểm nhận HSDT</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C23" s="48"/>
-      <c r="D23" s="60"/>
+      <c r="D23" s="59" t="s">
+        <v>302</v>
+      </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
       <c r="G23" s="48"/>
@@ -64557,18 +64638,14 @@
       <c r="L23" s="48"/>
       <c r="M23" s="48"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Hình thức nhận HSDT</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>297</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B24" s="48"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="48" t="s">
-        <v>219</v>
-      </c>
+      <c r="D24" s="48"/>
       <c r="E24" s="48"/>
       <c r="F24" s="48"/>
       <c r="G24" s="48"/>
@@ -64579,43 +64656,37 @@
       <c r="L24" s="48"/>
       <c r="M24" s="48"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Thời gian nhận HSDT từ ngày</v>
+        <v>Mở thầu</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C25" s="48"/>
-      <c r="D25" s="60">
-        <v>43938.606249999997</v>
-      </c>
+      <c r="D25" s="59"/>
       <c r="E25" s="48"/>
       <c r="F25" s="48"/>
       <c r="G25" s="48"/>
-      <c r="H25" s="48" t="s">
-        <v>299</v>
-      </c>
+      <c r="H25" s="48"/>
       <c r="I25" s="48"/>
-      <c r="J25" s="60">
-        <v>43957.631944444445</v>
-      </c>
+      <c r="J25" s="59"/>
       <c r="K25" s="48"/>
       <c r="L25" s="48"/>
       <c r="M25" s="48"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Mua HSMT</v>
+        <v>Thời điểm mở thầu</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C26" s="48"/>
-      <c r="D26" s="60" t="s">
-        <v>221</v>
+      <c r="D26" s="59">
+        <v>43963.604166666664</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
@@ -64627,17 +64698,17 @@
       <c r="L26" s="48"/>
       <c r="M26" s="48"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Địa điểm nhận HSDT</v>
+        <v>Địa điểm mở thầu</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="E27" s="48"/>
       <c r="F27" s="48"/>
@@ -64649,14 +64720,18 @@
       <c r="L27" s="48"/>
       <c r="M27" s="48"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B28" s="48"/>
+        <v>Giá gói thầu</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>306</v>
+      </c>
       <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
+      <c r="D28" s="48" t="s">
+        <v>655</v>
+      </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
       <c r="G28" s="48"/>
@@ -64667,16 +64742,18 @@
       <c r="L28" s="48"/>
       <c r="M28" s="48"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Mở thầu</v>
+        <v>Số tiền bằng chữ</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
+      <c r="D29" s="48" t="s">
+        <v>656</v>
+      </c>
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
       <c r="G29" s="48"/>
@@ -64687,18 +64764,14 @@
       <c r="L29" s="48"/>
       <c r="M29" s="48"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Thời điểm mở thầu</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>304</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B30" s="48"/>
       <c r="C30" s="48"/>
-      <c r="D30" s="60">
-        <v>43957.631944444445</v>
-      </c>
+      <c r="D30" s="59"/>
       <c r="E30" s="48"/>
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
@@ -64709,18 +64782,14 @@
       <c r="L30" s="48"/>
       <c r="M30" s="48"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Địa điểm mở thầu</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>305</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B31" s="48"/>
       <c r="C31" s="48"/>
-      <c r="D31" s="48" t="s">
-        <v>222</v>
-      </c>
+      <c r="D31" s="48"/>
       <c r="E31" s="48"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
@@ -64731,18 +64800,14 @@
       <c r="L31" s="48"/>
       <c r="M31" s="48"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Giá gói thầu</v>
-      </c>
-      <c r="B32" s="48" t="s">
-        <v>306</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B32" s="48"/>
       <c r="C32" s="48"/>
-      <c r="D32" s="48" t="s">
-        <v>613</v>
-      </c>
+      <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
@@ -64753,7 +64818,7 @@
       <c r="L32" s="48"/>
       <c r="M32" s="48"/>
     </row>
-    <row r="33" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền bằng chữ</v>
@@ -64763,11 +64828,11 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -64777,25 +64842,25 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Bảo đảm dự thầu</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Hình thức đảm bảo</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1" t="s">
@@ -64803,7 +64868,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền đảm bảo</v>
@@ -64813,11 +64878,11 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền bằng chữ</v>
@@ -64827,11 +64892,11 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -64848,7 +64913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -64856,36 +64921,36 @@
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.109375" style="134" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="79.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.140625" style="133" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="79.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="str">
         <f>"Nội dung công tác "&amp;MAX(B:B)</f>
         <v>Nội dung công tác 15</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="134" t="s">
-        <v>585</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="133" t="s">
+        <v>581</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -64901,9 +64966,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="134" t="s">
-        <v>586</v>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="133" t="s">
+        <v>582</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -64919,9 +64984,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="134" t="s">
-        <v>587</v>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="133" t="s">
+        <v>583</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -64937,9 +65002,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="134" t="s">
-        <v>588</v>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="133" t="s">
+        <v>584</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
@@ -64955,9 +65020,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="134" t="s">
-        <v>600</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="133" t="s">
+        <v>596</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -64974,9 +65039,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="135" t="s">
-        <v>603</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="134" t="s">
+        <v>599</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -64993,9 +65058,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="135" t="s">
-        <v>604</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="134" t="s">
+        <v>600</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -65012,9 +65077,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="134" t="s">
-        <v>601</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="133" t="s">
+        <v>597</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -65031,9 +65096,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="135" t="s">
-        <v>602</v>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="134" t="s">
+        <v>598</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -65050,9 +65115,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="135" t="s">
-        <v>605</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="134" t="s">
+        <v>601</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -65069,9 +65134,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="134" t="s">
-        <v>590</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="133" t="s">
+        <v>586</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -65084,9 +65149,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="134" t="s">
-        <v>591</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="133" t="s">
+        <v>587</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -65099,9 +65164,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="134" t="s">
-        <v>594</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="133" t="s">
+        <v>590</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -65114,9 +65179,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="134" t="s">
-        <v>589</v>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="133" t="s">
+        <v>585</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -65129,9 +65194,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="134" t="s">
-        <v>592</v>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="133" t="s">
+        <v>588</v>
       </c>
       <c r="B16">
         <v>7</v>
@@ -65144,9 +65209,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="134" t="s">
-        <v>593</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="133" t="s">
+        <v>589</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -65159,9 +65224,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="134" t="s">
-        <v>595</v>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="133" t="s">
+        <v>591</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -65174,9 +65239,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="134" t="s">
-        <v>596</v>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="133" t="s">
+        <v>592</v>
       </c>
       <c r="B19">
         <v>8</v>
@@ -65189,9 +65254,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="134" t="s">
-        <v>597</v>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="133" t="s">
+        <v>593</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -65204,9 +65269,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="134" t="s">
-        <v>598</v>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="133" t="s">
+        <v>594</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -65219,9 +65284,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="134" t="s">
-        <v>608</v>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="133" t="s">
+        <v>604</v>
       </c>
       <c r="B22">
         <v>11</v>
@@ -65238,9 +65303,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="134" t="s">
-        <v>599</v>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="133" t="s">
+        <v>595</v>
       </c>
       <c r="B23" s="1">
         <v>12</v>
@@ -65257,9 +65322,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="135" t="s">
-        <v>606</v>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="134" t="s">
+        <v>602</v>
       </c>
       <c r="B24">
         <v>13</v>
@@ -65276,9 +65341,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="135" t="s">
-        <v>607</v>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="134" t="s">
+        <v>603</v>
       </c>
       <c r="B25">
         <v>14</v>
@@ -65295,9 +65360,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="134" t="s">
-        <v>584</v>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="133" t="s">
+        <v>580</v>
       </c>
       <c r="B26" s="1">
         <v>15</v>
@@ -65313,9 +65378,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="134" t="s">
-        <v>579</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="133" t="s">
+        <v>575</v>
       </c>
       <c r="B27" s="1"/>
       <c r="F27">
@@ -65325,9 +65390,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="134" t="s">
-        <v>580</v>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="133" t="s">
+        <v>576</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ref="C28:C39" si="2">COUNTIF(B:B,B28)</f>
@@ -65337,9 +65402,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="134" t="s">
-        <v>581</v>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="133" t="s">
+        <v>577</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="2"/>
@@ -65349,7 +65414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -65358,7 +65423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -65367,7 +65432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -65376,7 +65441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C33" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -65385,7 +65450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C34" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -65394,7 +65459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C35" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -65403,7 +65468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C36" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -65412,7 +65477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C37" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -65421,7 +65486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C38" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -65430,7 +65495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C39" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -65440,8 +65505,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G39" xr:uid="{6FF6E6B7-B9B4-492E-A78C-B8F700206856}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G39">
+  <autoFilter ref="A1:G39">
+    <sortState ref="A2:G39">
       <sortCondition ref="B1:B39"/>
     </sortState>
   </autoFilter>
@@ -65451,290 +65516,290 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46FB71B-3DE2-4E75-A763-5A6E3186635F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="71.77734375" style="48" customWidth="1"/>
-    <col min="5" max="9" width="32.44140625" style="116" customWidth="1"/>
-    <col min="10" max="10" width="21.77734375" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" style="48" customWidth="1"/>
+    <col min="5" max="9" width="32.42578125" style="115" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="53" customFormat="1" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="117" t="s">
+    <row r="1" spans="2:10" s="52" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="117" t="s">
-        <v>566</v>
-      </c>
-      <c r="D1" s="117" t="s">
-        <v>567</v>
-      </c>
-      <c r="E1" s="114" t="s">
+      <c r="C1" s="116" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>563</v>
+      </c>
+      <c r="E1" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="114" t="s">
+      <c r="G1" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="114" t="s">
+      <c r="I1" s="113" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B2" s="118">
+    <row r="2" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B2" s="117">
         <v>1</v>
       </c>
-      <c r="C2" s="118" t="str">
+      <c r="C2" s="117" t="str">
         <f>$C$1&amp;" thứ "&amp;B2</f>
         <v>Lần cắt điện thứ 1</v>
       </c>
-      <c r="D2" s="119" t="str">
+      <c r="D2" s="118" t="str">
         <f t="array" ref="D2">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E2:I2&lt;&gt;0,E2:I2,""))</f>
         <v xml:space="preserve"> - Xây dựng mới đường dây trung thế 3 pha cáp 3ACX95mm2+AC70mm2 dài  526,2 mét.
  - Xây dựng mới đường dây trung thế 3 pha ngầm cáp CXV/SE/ DSTA-3x70mm2 + CV35mm2 dài 40 mét.</v>
       </c>
-      <c r="E2" s="134" t="s">
-        <v>585</v>
-      </c>
-      <c r="F2" s="134" t="s">
-        <v>586</v>
-      </c>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
+      <c r="E2" s="133" t="s">
+        <v>581</v>
+      </c>
+      <c r="F2" s="133" t="s">
+        <v>582</v>
+      </c>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
     </row>
-    <row r="3" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="118">
+    <row r="3" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="117">
         <v>2</v>
       </c>
-      <c r="C3" s="118" t="str">
+      <c r="C3" s="117" t="str">
         <f t="shared" ref="C3:C13" si="0">$C$1&amp;" thứ "&amp;B3</f>
         <v>Lần cắt điện thứ 2</v>
       </c>
-      <c r="D3" s="119" t="str">
+      <c r="D3" s="118" t="str">
         <f t="array" ref="D3">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E3:I3&lt;&gt;0,E3:I3,""))</f>
         <v xml:space="preserve"> - Nâng cấp đường dây trung thế từ 1 pha lên 3 pha cáp từ 2AC50mm2 thành 3ACX50mm2+AC50mm2 dài 2.580,2 mét.</v>
       </c>
-      <c r="E3" s="115" t="s">
-        <v>587</v>
-      </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
+      <c r="E3" s="114" t="s">
+        <v>583</v>
+      </c>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
     </row>
-    <row r="4" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="118">
+    <row r="4" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B4" s="117">
         <v>3</v>
       </c>
-      <c r="C4" s="118" t="str">
+      <c r="C4" s="117" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 3</v>
       </c>
-      <c r="D4" s="119" t="str">
+      <c r="D4" s="118" t="str">
         <f t="array" ref="D4">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E4:I4&lt;&gt;0,E4:I4,""))</f>
         <v xml:space="preserve"> - Nâng cấp đường dây trung thế từ 1 pha lên 3 pha cáp từ 2AC50mm2 thành 3ACX50mm2+AC50mm2 dài 1.935,9 mét. </v>
       </c>
-      <c r="E4" s="115" t="s">
-        <v>588</v>
-      </c>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
+      <c r="E4" s="114" t="s">
+        <v>584</v>
+      </c>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
     </row>
-    <row r="5" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="118">
+    <row r="5" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="117">
         <v>4</v>
       </c>
-      <c r="C5" s="118" t="str">
+      <c r="C5" s="117" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 4</v>
       </c>
-      <c r="D5" s="119" t="str">
+      <c r="D5" s="118" t="str">
         <f t="array" ref="D5">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E5:I5&lt;&gt;0,E5:I5,""))</f>
         <v xml:space="preserve"> - Xây dựng mới TBA 1 pha 2x37,5kVA: 1 trạm (Thọ Hòa 1C).
  - Xây dựng mới TBA 3 pha 3x37,5kVA ( Bảo Chánh 4D, Bảo Chánh 4E).
  - Xây dựng mới TBA 3 pha 250kVA Bảo Chánh 4C</v>
       </c>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="133" t="s">
+        <v>596</v>
+      </c>
+      <c r="F5" s="134" t="s">
+        <v>599</v>
+      </c>
+      <c r="G5" s="134" t="s">
         <v>600</v>
       </c>
-      <c r="F5" s="135" t="s">
-        <v>603</v>
-      </c>
-      <c r="G5" s="135" t="s">
-        <v>604</v>
-      </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
     </row>
-    <row r="6" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="118">
+    <row r="6" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="117">
         <v>5</v>
       </c>
-      <c r="C6" s="118" t="str">
+      <c r="C6" s="117" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 5</v>
       </c>
-      <c r="D6" s="119" t="str">
+      <c r="D6" s="118" t="str">
         <f t="array" ref="D6">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E6:I6&lt;&gt;0,E6:I6,""))</f>
         <v xml:space="preserve"> - Xây dựng mới TBA 1 pha 1x100kVA: 1 trạm (Đông Minh 7A).
  - Xây dựng mới TBA 3 pha 3x37,5kVA trạm Đông Minh 5C
  - Xây dựng mới TBA 3 pha 3x50kVA: trạm Đông Minh 5B</v>
       </c>
-      <c r="E6" s="134" t="s">
+      <c r="E6" s="133" t="s">
+        <v>597</v>
+      </c>
+      <c r="F6" s="134" t="s">
+        <v>598</v>
+      </c>
+      <c r="G6" s="134" t="s">
         <v>601</v>
       </c>
-      <c r="F6" s="135" t="s">
-        <v>602</v>
-      </c>
-      <c r="G6" s="135" t="s">
-        <v>605</v>
-      </c>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
     </row>
-    <row r="7" spans="2:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="118">
+    <row r="7" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+      <c r="B7" s="117">
         <v>6</v>
       </c>
-      <c r="C7" s="118" t="str">
+      <c r="C7" s="117" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 6</v>
       </c>
-      <c r="D7" s="119" t="str">
+      <c r="D7" s="118" t="str">
         <f t="array" ref="D7">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E7:I7&lt;&gt;0,E7:I7,""))</f>
         <v xml:space="preserve"> - Nâng cấp  và di dời trạm 1 pha 2x100kVA thành 250kVA: 1 trạm (Đông Minh 8).
  - Nâng cấp trạm 1 pha 1x100kVA thành 250kVA: 1 trạm (Đông Minh 8A).
  - Di dời trạm: Đông Minh 7 2x37,5kVA  về tâm phụ tải.</v>
       </c>
-      <c r="E7" s="134" t="s">
+      <c r="E7" s="133" t="s">
+        <v>586</v>
+      </c>
+      <c r="F7" s="133" t="s">
+        <v>587</v>
+      </c>
+      <c r="G7" s="133" t="s">
         <v>590</v>
       </c>
-      <c r="F7" s="134" t="s">
-        <v>591</v>
-      </c>
-      <c r="G7" s="134" t="s">
-        <v>594</v>
-      </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
     </row>
-    <row r="8" spans="2:10" ht="78" x14ac:dyDescent="0.3">
-      <c r="B8" s="118">
+    <row r="8" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="117">
         <v>7</v>
       </c>
-      <c r="C8" s="118" t="str">
+      <c r="C8" s="117" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 7</v>
       </c>
-      <c r="D8" s="119" t="str">
+      <c r="D8" s="118" t="str">
         <f t="array" ref="D8">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E8:I8&lt;&gt;0,E8:I8,""))</f>
         <v xml:space="preserve"> - Nâng cấp trạm 1 pha 2x50kVA thành 3x50kVA: 1 trạm (Hòa Bình).
  - Nâng cấp trạm 1 pha 2x75kVA thành 250kVA: 1 trạm (Bình Tiến 1). Phần máy biến áp: tận dụng máy thu hồi tại kho Điện lực Xuân Lộc.
  - Di dời trạm: Hòa Bình – 2x50kVA; Việt Kiều 141 – 2x75kVA về tâm phụ tải.</v>
       </c>
-      <c r="E8" s="134" t="s">
+      <c r="E8" s="133" t="s">
+        <v>585</v>
+      </c>
+      <c r="F8" s="133" t="s">
+        <v>588</v>
+      </c>
+      <c r="G8" s="133" t="s">
         <v>589</v>
       </c>
-      <c r="F8" s="134" t="s">
-        <v>592</v>
-      </c>
-      <c r="G8" s="134" t="s">
-        <v>593</v>
-      </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="114"/>
     </row>
-    <row r="9" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B9" s="118">
+    <row r="9" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="117">
         <v>8</v>
       </c>
-      <c r="C9" s="118" t="str">
+      <c r="C9" s="117" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 8</v>
       </c>
-      <c r="D9" s="119" t="str">
+      <c r="D9" s="118" t="str">
         <f t="array" ref="D9">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E9:I9&lt;&gt;0,E9:I9,""))</f>
         <v xml:space="preserve"> - Xây dựng mới đường dây hạ thế 1 pha cáp ABC 3x95mm2 dài  515,7 mét.
  - Xây dựng mới đường dây hạ thế 3 pha cáp ABC 4x95mm2 dài  1.490,2 mét.</v>
       </c>
-      <c r="E9" s="134" t="s">
-        <v>595</v>
-      </c>
-      <c r="F9" s="134" t="s">
-        <v>596</v>
-      </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
+      <c r="E9" s="133" t="s">
+        <v>591</v>
+      </c>
+      <c r="F9" s="133" t="s">
+        <v>592</v>
+      </c>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
     </row>
-    <row r="10" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="118">
+    <row r="10" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B10" s="117">
         <v>9</v>
       </c>
-      <c r="C10" s="118" t="str">
+      <c r="C10" s="117" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 9</v>
       </c>
-      <c r="D10" s="119" t="str">
+      <c r="D10" s="118" t="str">
         <f t="array" ref="D10">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E10:I10&lt;&gt;0,E10:I10,""))</f>
         <v xml:space="preserve"> - Nâng cấp đường dây hạ thế cáp 2AV50+A50mm2, ABC 3x50mm2 thành ABC 4x120mm2 dài  806,3 mét.</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
     </row>
-    <row r="11" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="118">
+    <row r="11" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B11" s="117">
         <v>10</v>
       </c>
-      <c r="C11" s="118" t="str">
+      <c r="C11" s="117" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 10</v>
       </c>
-      <c r="D11" s="119" t="str">
+      <c r="D11" s="118" t="str">
         <f t="array" ref="D11">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E11:I11&lt;&gt;0,E11:I11,""))</f>
         <v xml:space="preserve"> - Nâng cấp đường dây hạ thế cáp ABC 3x70mm2 thành ABC 3x70mm2 + AV70 mm2 dài  2.588,1 mét (kéo thêm dây AV70mm2).</v>
       </c>
-      <c r="E11" s="134" t="s">
-        <v>598</v>
+      <c r="E11" s="133" t="s">
+        <v>594</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="115"/>
+      <c r="I11" s="114"/>
     </row>
-    <row r="12" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="118">
+    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="117">
         <v>11</v>
       </c>
-      <c r="C12" s="118" t="str">
+      <c r="C12" s="117" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 11</v>
       </c>
-      <c r="D12" s="119" t="str">
+      <c r="D12" s="118" t="str">
         <f t="array" ref="D12">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E12:I12&lt;&gt;0,E12:I12,""))</f>
         <v xml:space="preserve"> - Xây dựng mới TBA 3 pha 250kVA: 3 trạm (Lang Minh E, Lang Minh F).</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -65742,78 +65807,78 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="118">
+    <row r="13" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="117">
         <v>12</v>
       </c>
-      <c r="C13" s="118" t="str">
+      <c r="C13" s="117" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 12</v>
       </c>
-      <c r="D13" s="119" t="str">
+      <c r="D13" s="118" t="str">
         <f t="array" ref="D13">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E13:I13&lt;&gt;0,E13:I13,""))</f>
         <v xml:space="preserve"> - Xây dựng mới TBA 3 pha 1x75kVA: 3 trạm (Việt Kiều 141A, Việt Kiều 141B, Tây Minh 1A). </v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
     </row>
-    <row r="14" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="118">
+    <row r="14" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="117">
         <v>13</v>
       </c>
-      <c r="C14" s="118" t="str">
+      <c r="C14" s="117" t="str">
         <f t="shared" ref="C14:C16" si="1">$C$1&amp;" thứ "&amp;B14</f>
         <v>Lần cắt điện thứ 13</v>
       </c>
-      <c r="D14" s="119" t="str">
+      <c r="D14" s="118" t="str">
         <f t="array" ref="D14">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E14:I14&lt;&gt;0,E14:I14,""))</f>
         <v xml:space="preserve"> - Xây dựng mới TBA 3 pha 3x50kVA: trạm Tam Hiệp 2B, Tam Hiệp 2C, Tam Hiệp 2D</v>
       </c>
-      <c r="E14" s="116" t="s">
-        <v>606</v>
+      <c r="E14" s="115" t="s">
+        <v>602</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="118">
+    <row r="15" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="117">
         <v>14</v>
       </c>
-      <c r="C15" s="118" t="str">
+      <c r="C15" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Lần cắt điện thứ 14</v>
       </c>
-      <c r="D15" s="119" t="str">
+      <c r="D15" s="118" t="str">
         <f t="array" ref="D15">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E15:I15&lt;&gt;0,E15:I15,""))</f>
         <v xml:space="preserve"> - Xây dựng mới TBA 3 pha 3x50kVA:  trạm Tam Hiệp 3B, Tam Hiệp 3C, Tam Hiệp 3D, Tam Hiệp 3E</v>
       </c>
-      <c r="E15" s="116" t="s">
-        <v>607</v>
+      <c r="E15" s="115" t="s">
+        <v>603</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="118">
+    <row r="16" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="117">
         <v>15</v>
       </c>
-      <c r="C16" s="118" t="str">
+      <c r="C16" s="117" t="str">
         <f t="shared" si="1"/>
         <v>Lần cắt điện thứ 15</v>
       </c>
-      <c r="D16" s="119" t="str">
+      <c r="D16" s="118" t="str">
         <f t="array" ref="D16">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E16:I16&lt;&gt;0,E16:I16,""))</f>
         <v xml:space="preserve"> - Xây dựng mới đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 dài 6.055,6 mét.</v>
       </c>
-      <c r="E16" s="116" t="s">
-        <v>584</v>
+      <c r="E16" s="115" t="s">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I15" xr:uid="{B2AFF2EA-2527-4B54-9555-4DA9A987AB42}"/>
+  <autoFilter ref="B1:I15"/>
   <conditionalFormatting sqref="E1:I11 E13:I1048576 E12:G12 I12">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65823,62 +65888,62 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I33" sqref="I33"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="24"/>
-    <col min="3" max="3" width="23.21875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="27"/>
-    <col min="5" max="5" width="8.88671875" style="24"/>
-    <col min="6" max="6" width="30.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" style="25" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="24"/>
+    <col min="1" max="1" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="24"/>
+    <col min="3" max="3" width="23.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="27"/>
+    <col min="5" max="5" width="8.85546875" style="24"/>
+    <col min="6" max="6" width="30.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="25" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="24"/>
     <col min="12" max="12" width="13" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" style="27" customWidth="1"/>
-    <col min="14" max="14" width="50.5546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="24"/>
+    <col min="13" max="13" width="15.42578125" style="27" customWidth="1"/>
+    <col min="14" max="14" width="50.5703125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>127</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D1" s="27">
         <f>MAX(D2:D1048576)</f>
         <v>22</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="83" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="83" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="83" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="83" t="s">
         <v>107</v>
       </c>
       <c r="J1" s="23" t="s">
@@ -65901,34 +65966,34 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="63" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+    <row r="2" spans="1:22" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
         <v>486</v>
       </c>
-      <c r="B2" s="63" t="e">
+      <c r="B2" s="62" t="e">
         <f>VLOOKUP(F2,NhanSuMoi!#REF!,1,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="C2" s="63">
+      <c r="C2" s="62">
         <v>2012</v>
       </c>
       <c r="D2" s="27">
         <v>1</v>
       </c>
-      <c r="E2" s="85">
+      <c r="E2" s="84">
         <f t="shared" ref="E2:E33" si="0">D2</f>
         <v>1</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="G2" s="87"/>
-      <c r="H2" s="85" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="84" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="85"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="25"/>
-      <c r="K2" s="63">
+      <c r="K2" s="62">
         <f>D2</f>
         <v>1</v>
       </c>
@@ -65941,7 +66006,7 @@
       <c r="N2" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="O2" s="64">
+      <c r="O2" s="63">
         <v>40360</v>
       </c>
       <c r="P2" s="24"/>
@@ -65952,11 +66017,11 @@
       <c r="U2" s="24"/>
       <c r="V2" s="24"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="B3" s="63" t="e">
+      <c r="B3" s="62" t="e">
         <f>VLOOKUP(F3,NhanSuMoi!#REF!,1,0)</f>
         <v>#REF!</v>
       </c>
@@ -65966,19 +66031,19 @@
       <c r="D3" s="27">
         <v>2</v>
       </c>
-      <c r="E3" s="85">
+      <c r="E3" s="84">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="85" t="s">
+      <c r="G3" s="86"/>
+      <c r="H3" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="85"/>
-      <c r="K3" s="63">
+      <c r="I3" s="84"/>
+      <c r="K3" s="62">
         <f t="shared" ref="K3:K52" si="1">D3</f>
         <v>2</v>
       </c>
@@ -65992,7 +66057,7 @@
         <v>41396</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
@@ -66002,21 +66067,21 @@
       <c r="D4" s="27">
         <v>3</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="84">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="85" t="s">
         <v>318</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="K4" s="63">
+      <c r="I4" s="84"/>
+      <c r="K4" s="62">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -66027,7 +66092,7 @@
         <v>34970</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
@@ -66038,21 +66103,21 @@
         <f t="shared" ref="D5:D23" si="2">D4+1</f>
         <v>4</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="84">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="85"/>
-      <c r="K5" s="63">
+      <c r="I5" s="84"/>
+      <c r="K5" s="62">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -66063,7 +66128,7 @@
         <v>29221</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>109</v>
       </c>
@@ -66074,21 +66139,21 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="84">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F6" s="86" t="s">
+      <c r="F6" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="86" t="s">
         <v>522</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="K6" s="63">
+      <c r="I6" s="84"/>
+      <c r="K6" s="62">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -66099,7 +66164,7 @@
         <v>30027</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>109</v>
       </c>
@@ -66110,21 +66175,21 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="84">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="85"/>
-      <c r="K7" s="63">
+      <c r="I7" s="84"/>
+      <c r="K7" s="62">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -66135,7 +66200,7 @@
         <v>31088</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>109</v>
       </c>
@@ -66146,21 +66211,21 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="84">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="85" t="s">
         <v>514</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="K8" s="63">
+      <c r="I8" s="84"/>
+      <c r="K8" s="62">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -66171,7 +66236,7 @@
         <v>34976</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>109</v>
       </c>
@@ -66182,21 +66247,21 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="84">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="85" t="s">
         <v>519</v>
       </c>
-      <c r="G9" s="87" t="s">
+      <c r="G9" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H9" s="85" t="s">
+      <c r="H9" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="85"/>
-      <c r="K9" s="63">
+      <c r="I9" s="84"/>
+      <c r="K9" s="62">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -66207,7 +66272,7 @@
         <v>34281</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>109</v>
       </c>
@@ -66218,21 +66283,21 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="84">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F10" s="86" t="s">
+      <c r="F10" s="85" t="s">
         <v>520</v>
       </c>
-      <c r="G10" s="87" t="s">
+      <c r="G10" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="85"/>
-      <c r="K10" s="63">
+      <c r="I10" s="84"/>
+      <c r="K10" s="62">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -66243,7 +66308,7 @@
         <v>35884</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>109</v>
       </c>
@@ -66254,21 +66319,21 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="84">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="85" t="s">
         <v>521</v>
       </c>
-      <c r="G11" s="87" t="s">
+      <c r="G11" s="86" t="s">
         <v>522</v>
       </c>
-      <c r="H11" s="85" t="s">
+      <c r="H11" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I11" s="85"/>
-      <c r="K11" s="63">
+      <c r="I11" s="84"/>
+      <c r="K11" s="62">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -66279,7 +66344,7 @@
         <v>29205</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>109</v>
       </c>
@@ -66290,21 +66355,21 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="E12" s="85">
+      <c r="E12" s="84">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="85" t="s">
         <v>524</v>
       </c>
-      <c r="G12" s="87" t="s">
+      <c r="G12" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="85"/>
-      <c r="K12" s="63">
+      <c r="I12" s="84"/>
+      <c r="K12" s="62">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -66315,7 +66380,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>109</v>
       </c>
@@ -66326,21 +66391,21 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="84">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F13" s="86" t="s">
+      <c r="F13" s="85" t="s">
         <v>525</v>
       </c>
-      <c r="G13" s="87" t="s">
+      <c r="G13" s="86" t="s">
         <v>523</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="85"/>
-      <c r="K13" s="63">
+      <c r="I13" s="84"/>
+      <c r="K13" s="62">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -66351,7 +66416,7 @@
         <v>36767</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>109</v>
       </c>
@@ -66362,21 +66427,21 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="E14" s="85">
+      <c r="E14" s="84">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="F14" s="85" t="s">
         <v>536</v>
       </c>
-      <c r="G14" s="87" t="s">
+      <c r="G14" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H14" s="85" t="s">
+      <c r="H14" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="85"/>
-      <c r="K14" s="63">
+      <c r="I14" s="84"/>
+      <c r="K14" s="62">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
@@ -66387,7 +66452,7 @@
         <v>35555</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>109</v>
       </c>
@@ -66398,21 +66463,21 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="E15" s="85">
+      <c r="E15" s="84">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="F15" s="85" t="s">
         <v>526</v>
       </c>
-      <c r="G15" s="87" t="s">
+      <c r="G15" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H15" s="85" t="s">
+      <c r="H15" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="85"/>
-      <c r="K15" s="63">
+      <c r="I15" s="84"/>
+      <c r="K15" s="62">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
@@ -66423,7 +66488,7 @@
         <v>36242</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>109</v>
       </c>
@@ -66434,21 +66499,21 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="E16" s="85">
+      <c r="E16" s="84">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F16" s="86" t="s">
+      <c r="F16" s="85" t="s">
         <v>528</v>
       </c>
-      <c r="G16" s="87" t="s">
+      <c r="G16" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H16" s="85" t="s">
+      <c r="H16" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="85"/>
-      <c r="K16" s="63">
+      <c r="I16" s="84"/>
+      <c r="K16" s="62">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -66459,7 +66524,7 @@
         <v>34041</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>109</v>
       </c>
@@ -66470,21 +66535,21 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="E17" s="85">
+      <c r="E17" s="84">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F17" s="86" t="s">
+      <c r="F17" s="85" t="s">
         <v>529</v>
       </c>
-      <c r="G17" s="87" t="s">
+      <c r="G17" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H17" s="85" t="s">
+      <c r="H17" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="85"/>
-      <c r="K17" s="63">
+      <c r="I17" s="84"/>
+      <c r="K17" s="62">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -66495,7 +66560,7 @@
         <v>34974</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>109</v>
       </c>
@@ -66506,21 +66571,21 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="E18" s="85">
+      <c r="E18" s="84">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="F18" s="86" t="s">
+      <c r="F18" s="85" t="s">
         <v>530</v>
       </c>
-      <c r="G18" s="87" t="s">
+      <c r="G18" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H18" s="85" t="s">
+      <c r="H18" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I18" s="85"/>
-      <c r="K18" s="63">
+      <c r="I18" s="84"/>
+      <c r="K18" s="62">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -66531,7 +66596,7 @@
         <v>35580</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>109</v>
       </c>
@@ -66542,21 +66607,21 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="E19" s="85">
+      <c r="E19" s="84">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="85" t="s">
         <v>531</v>
       </c>
-      <c r="G19" s="87" t="s">
+      <c r="G19" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H19" s="85" t="s">
+      <c r="H19" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I19" s="85"/>
-      <c r="K19" s="63">
+      <c r="I19" s="84"/>
+      <c r="K19" s="62">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -66567,7 +66632,7 @@
         <v>27567</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>109</v>
       </c>
@@ -66578,21 +66643,21 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="E20" s="85">
+      <c r="E20" s="84">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="F20" s="86" t="s">
+      <c r="F20" s="85" t="s">
         <v>532</v>
       </c>
-      <c r="G20" s="87" t="s">
+      <c r="G20" s="86" t="s">
         <v>522</v>
       </c>
-      <c r="H20" s="85" t="s">
+      <c r="H20" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I20" s="85"/>
-      <c r="K20" s="63">
+      <c r="I20" s="84"/>
+      <c r="K20" s="62">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
@@ -66603,7 +66668,7 @@
         <v>29696</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>109</v>
       </c>
@@ -66614,21 +66679,21 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="E21" s="85">
+      <c r="E21" s="84">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F21" s="86" t="s">
+      <c r="F21" s="85" t="s">
         <v>533</v>
       </c>
-      <c r="G21" s="87" t="s">
+      <c r="G21" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H21" s="85" t="s">
+      <c r="H21" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I21" s="85"/>
-      <c r="K21" s="63">
+      <c r="I21" s="84"/>
+      <c r="K21" s="62">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -66639,7 +66704,7 @@
         <v>31416</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>109</v>
       </c>
@@ -66650,21 +66715,21 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="E22" s="85">
+      <c r="E22" s="84">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="F22" s="86" t="s">
+      <c r="F22" s="85" t="s">
         <v>534</v>
       </c>
-      <c r="G22" s="87" t="s">
+      <c r="G22" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H22" s="85" t="s">
+      <c r="H22" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="85"/>
-      <c r="K22" s="63">
+      <c r="I22" s="84"/>
+      <c r="K22" s="62">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
@@ -66675,7 +66740,7 @@
         <v>37008</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>109</v>
       </c>
@@ -66686,21 +66751,21 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="E23" s="85">
+      <c r="E23" s="84">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="F23" s="86" t="s">
+      <c r="F23" s="85" t="s">
         <v>535</v>
       </c>
-      <c r="G23" s="87" t="s">
+      <c r="G23" s="86" t="s">
         <v>517</v>
       </c>
-      <c r="H23" s="85" t="s">
+      <c r="H23" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="85"/>
-      <c r="K23" s="63">
+      <c r="I23" s="84"/>
+      <c r="K23" s="62">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
@@ -66711,25 +66776,25 @@
         <v>33816</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E24" s="85">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E24" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="86" t="s">
+      <c r="F24" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="G24" s="87">
+      <c r="G24" s="86">
         <v>44016</v>
       </c>
-      <c r="H24" s="85" t="s">
+      <c r="H24" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I24" s="85"/>
+      <c r="I24" s="84"/>
       <c r="J24" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="K24" s="63">
+      <c r="K24" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -66764,26 +66829,26 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="63"/>
-      <c r="E25" s="85">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="62"/>
+      <c r="E25" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F25" s="86" t="s">
+      <c r="F25" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="87">
+      <c r="G25" s="86">
         <v>44016</v>
       </c>
-      <c r="H25" s="85" t="s">
+      <c r="H25" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I25" s="85"/>
+      <c r="I25" s="84"/>
       <c r="J25" s="25" t="s">
         <v>313</v>
       </c>
-      <c r="K25" s="63">
+      <c r="K25" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -66800,38 +66865,38 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E26" s="85">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E26" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="86" t="s">
+      <c r="F26" s="85" t="s">
         <v>496</v>
       </c>
-      <c r="G26" s="87"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="K26" s="63">
+      <c r="G26" s="86"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="K26" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E27" s="85">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E27" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F27" s="86" t="s">
+      <c r="F27" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="G27" s="87">
+      <c r="G27" s="86">
         <v>44015</v>
       </c>
-      <c r="H27" s="85" t="s">
+      <c r="H27" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I27" s="85"/>
-      <c r="K27" s="63">
+      <c r="I27" s="84"/>
+      <c r="K27" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -66839,126 +66904,126 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E28" s="85">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E28" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F28" s="86" t="s">
+      <c r="F28" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="87">
+      <c r="G28" s="86">
         <v>44016</v>
       </c>
-      <c r="H28" s="85" t="s">
+      <c r="H28" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="85"/>
-      <c r="K28" s="63">
+      <c r="I28" s="84"/>
+      <c r="K28" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E29" s="85">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E29" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="86" t="s">
+      <c r="F29" s="85" t="s">
         <v>493</v>
       </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="K29" s="63">
+      <c r="G29" s="86"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="K29" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E30" s="85">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E30" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="86" t="s">
+      <c r="F30" s="85" t="s">
         <v>497</v>
       </c>
-      <c r="G30" s="87"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="K30" s="63">
+      <c r="G30" s="86"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
+      <c r="K30" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E31" s="85">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="E31" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="86" t="s">
+      <c r="F31" s="85" t="s">
         <v>498</v>
       </c>
-      <c r="G31" s="87">
+      <c r="G31" s="86">
         <v>44015</v>
       </c>
-      <c r="H31" s="85" t="s">
+      <c r="H31" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I31" s="85"/>
-      <c r="K31" s="63">
+      <c r="I31" s="84"/>
+      <c r="K31" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="63"/>
-      <c r="E32" s="85">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B32" s="62"/>
+      <c r="E32" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F32" s="86" t="s">
+      <c r="F32" s="85" t="s">
         <v>317</v>
       </c>
-      <c r="G32" s="87">
+      <c r="G32" s="86">
         <v>44015</v>
       </c>
-      <c r="H32" s="85" t="s">
+      <c r="H32" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I32" s="85" t="s">
+      <c r="I32" s="84" t="s">
         <v>127</v>
       </c>
       <c r="J32" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="K32" s="63">
+      <c r="K32" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L32" s="27">
         <v>271294536</v>
       </c>
-      <c r="M32" s="65">
+      <c r="M32" s="64">
         <v>29587</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E33" s="85">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E33" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="86" t="s">
+      <c r="F33" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="G33" s="87">
+      <c r="G33" s="86">
         <v>44015</v>
       </c>
-      <c r="H33" s="85" t="s">
+      <c r="H33" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I33" s="85"/>
-      <c r="K33" s="63">
+      <c r="I33" s="84"/>
+      <c r="K33" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -66966,28 +67031,28 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B34" s="63"/>
-      <c r="E34" s="85">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="62"/>
+      <c r="E34" s="84">
         <f t="shared" ref="E34:E52" si="3">D34</f>
         <v>0</v>
       </c>
-      <c r="F34" s="86" t="s">
+      <c r="F34" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="G34" s="87">
+      <c r="G34" s="86">
         <v>44015</v>
       </c>
-      <c r="H34" s="85" t="s">
+      <c r="H34" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="85" t="s">
+      <c r="I34" s="84" t="s">
         <v>127</v>
       </c>
       <c r="J34" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="K34" s="63">
+      <c r="K34" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -66998,60 +67063,60 @@
         <v>30730</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E35" s="85">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E35" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F35" s="86" t="s">
+      <c r="F35" s="85" t="s">
         <v>494</v>
       </c>
-      <c r="G35" s="87"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="K35" s="63">
+      <c r="G35" s="86"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="K35" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E36" s="85">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E36" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F36" s="86" t="s">
+      <c r="F36" s="85" t="s">
         <v>495</v>
       </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="K36" s="63">
+      <c r="G36" s="86"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
+      <c r="K36" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B37" s="63"/>
-      <c r="E37" s="85">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="62"/>
+      <c r="E37" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F37" s="86" t="s">
+      <c r="F37" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="G37" s="87">
+      <c r="G37" s="86">
         <v>44017</v>
       </c>
-      <c r="H37" s="85" t="s">
+      <c r="H37" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I37" s="85" t="s">
+      <c r="I37" s="84" t="s">
         <v>127</v>
       </c>
       <c r="J37" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="K37" s="63">
+      <c r="K37" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -67065,26 +67130,26 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="63"/>
-      <c r="E38" s="85">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="62"/>
+      <c r="E38" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F38" s="86" t="s">
+      <c r="F38" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="G38" s="87">
+      <c r="G38" s="86">
         <v>44018</v>
       </c>
-      <c r="H38" s="85" t="s">
+      <c r="H38" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I38" s="85"/>
+      <c r="I38" s="84"/>
       <c r="J38" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="K38" s="63">
+      <c r="K38" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -67098,106 +67163,106 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E39" s="85">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E39" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F39" s="86" t="s">
+      <c r="F39" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="G39" s="87">
+      <c r="G39" s="86">
         <v>44015</v>
       </c>
-      <c r="H39" s="85" t="s">
+      <c r="H39" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I39" s="85"/>
-      <c r="K39" s="63">
+      <c r="I39" s="84"/>
+      <c r="K39" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E40" s="85">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E40" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F40" s="86" t="s">
+      <c r="F40" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="G40" s="87">
+      <c r="G40" s="86">
         <v>44015</v>
       </c>
-      <c r="H40" s="85" t="s">
+      <c r="H40" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I40" s="85"/>
-      <c r="K40" s="63">
+      <c r="I40" s="84"/>
+      <c r="K40" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E41" s="85">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E41" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F41" s="86" t="s">
+      <c r="F41" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="G41" s="87">
+      <c r="G41" s="86">
         <v>44015</v>
       </c>
-      <c r="H41" s="85" t="s">
+      <c r="H41" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I41" s="85"/>
-      <c r="K41" s="63">
+      <c r="I41" s="84"/>
+      <c r="K41" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E42" s="85">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E42" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F42" s="86" t="s">
+      <c r="F42" s="85" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="87">
+      <c r="G42" s="86">
         <v>44015</v>
       </c>
-      <c r="H42" s="85" t="s">
+      <c r="H42" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I42" s="85"/>
-      <c r="K42" s="63">
+      <c r="I42" s="84"/>
+      <c r="K42" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="63"/>
-      <c r="E43" s="85">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="62"/>
+      <c r="E43" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F43" s="86" t="s">
+      <c r="F43" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="G43" s="87">
+      <c r="G43" s="86">
         <v>44016</v>
       </c>
-      <c r="H43" s="85" t="s">
+      <c r="H43" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I43" s="85"/>
+      <c r="I43" s="84"/>
       <c r="J43" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="K43" s="63">
+      <c r="K43" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -67207,32 +67272,32 @@
       <c r="M43" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="N43" s="52" t="s">
+      <c r="N43" s="51" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B44" s="63"/>
-      <c r="E44" s="85">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="62"/>
+      <c r="E44" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F44" s="86" t="s">
+      <c r="F44" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="87">
+      <c r="G44" s="86">
         <v>44017</v>
       </c>
-      <c r="H44" s="85" t="s">
+      <c r="H44" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I44" s="85" t="s">
+      <c r="I44" s="84" t="s">
         <v>127</v>
       </c>
       <c r="J44" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="K44" s="63">
+      <c r="K44" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -67246,28 +67311,28 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B45" s="63"/>
-      <c r="E45" s="85">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="62"/>
+      <c r="E45" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F45" s="86" t="s">
+      <c r="F45" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="G45" s="87">
+      <c r="G45" s="86">
         <v>44015</v>
       </c>
-      <c r="H45" s="85" t="s">
+      <c r="H45" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I45" s="85" t="s">
+      <c r="I45" s="84" t="s">
         <v>127</v>
       </c>
       <c r="J45" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="K45" s="63">
+      <c r="K45" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -67281,28 +67346,28 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="63"/>
-      <c r="E46" s="85">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="62"/>
+      <c r="E46" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F46" s="86" t="s">
+      <c r="F46" s="85" t="s">
         <v>383</v>
       </c>
-      <c r="G46" s="87">
+      <c r="G46" s="86">
         <v>44016</v>
       </c>
-      <c r="H46" s="85" t="s">
+      <c r="H46" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I46" s="85" t="s">
+      <c r="I46" s="84" t="s">
         <v>127</v>
       </c>
       <c r="J46" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="K46" s="63">
+      <c r="K46" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -67316,26 +67381,26 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="63"/>
-      <c r="E47" s="85">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="62"/>
+      <c r="E47" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F47" s="86" t="s">
+      <c r="F47" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="G47" s="87">
+      <c r="G47" s="86">
         <v>44016</v>
       </c>
-      <c r="H47" s="85" t="s">
+      <c r="H47" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I47" s="85"/>
+      <c r="I47" s="84"/>
       <c r="J47" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="K47" s="63">
+      <c r="K47" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -67349,46 +67414,46 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E48" s="85">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E48" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F48" s="86" t="s">
+      <c r="F48" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="87">
+      <c r="G48" s="86">
         <v>44015</v>
       </c>
-      <c r="H48" s="85" t="s">
+      <c r="H48" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I48" s="85"/>
-      <c r="K48" s="63">
+      <c r="I48" s="84"/>
+      <c r="K48" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="63"/>
-      <c r="E49" s="85">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="62"/>
+      <c r="E49" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F49" s="86" t="s">
+      <c r="F49" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="G49" s="87">
+      <c r="G49" s="86">
         <v>44016</v>
       </c>
-      <c r="H49" s="85" t="s">
+      <c r="H49" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I49" s="85"/>
+      <c r="I49" s="84"/>
       <c r="J49" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="K49" s="63">
+      <c r="K49" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -67402,28 +67467,28 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="63"/>
-      <c r="E50" s="85">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="62"/>
+      <c r="E50" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F50" s="86" t="s">
+      <c r="F50" s="85" t="s">
         <v>112</v>
       </c>
-      <c r="G50" s="87">
+      <c r="G50" s="86">
         <v>44017</v>
       </c>
-      <c r="H50" s="85" t="s">
+      <c r="H50" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I50" s="85" t="s">
+      <c r="I50" s="84" t="s">
         <v>127</v>
       </c>
       <c r="J50" s="25" t="s">
         <v>312</v>
       </c>
-      <c r="K50" s="63">
+      <c r="K50" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -67437,47 +67502,47 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E51" s="85">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E51" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F51" s="86" t="s">
+      <c r="F51" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="G51" s="87">
+      <c r="G51" s="86">
         <v>44015</v>
       </c>
-      <c r="H51" s="85" t="s">
+      <c r="H51" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I51" s="85"/>
-      <c r="K51" s="63">
+      <c r="I51" s="84"/>
+      <c r="K51" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="E52" s="85">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E52" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F52" s="86" t="s">
+      <c r="F52" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="G52" s="87">
+      <c r="G52" s="86">
         <v>44015</v>
       </c>
-      <c r="H52" s="85" t="s">
+      <c r="H52" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I52" s="85"/>
-      <c r="K52" s="63">
+      <c r="I52" s="84"/>
+      <c r="K52" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="24">
         <f>VLOOKUP(C60,F:K,6,0)</f>
         <v>3</v>
@@ -67486,7 +67551,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="24">
         <f t="shared" ref="B61:B79" si="4">VLOOKUP(C61,F:K,6,0)</f>
         <v>4</v>
@@ -67495,7 +67560,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -67504,7 +67569,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="24">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -67513,7 +67578,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="24">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -67522,7 +67587,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B65" s="24">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -67531,7 +67596,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B66" s="24">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -67540,7 +67605,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B67" s="24">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -67549,7 +67614,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B68" s="24">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -67558,7 +67623,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B69" s="24">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -67567,7 +67632,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B70" s="24">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -67576,7 +67641,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B71" s="24">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -67585,7 +67650,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B72" s="24">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -67594,7 +67659,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B73" s="24">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -67603,7 +67668,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" s="24">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -67612,7 +67677,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" s="24">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -67621,7 +67686,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" s="24">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -67630,7 +67695,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" s="24">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -67639,7 +67704,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B78" s="24">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -67648,7 +67713,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B79" s="24">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -67658,19 +67723,19 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V52" xr:uid="{E9DCCB8F-CFAC-4EB2-8904-2DB3BDBDB639}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V52">
+  <autoFilter ref="A1:V52">
+    <sortState ref="A2:V52">
       <sortCondition ref="D1:D52"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F53:F1048576 F7:F50 F1:F5">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:F52">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -67678,139 +67743,139 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="68" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="67" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="50.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="64.8" x14ac:dyDescent="0.3">
-      <c r="B1" s="70" t="s">
+    <row r="1" spans="2:15" ht="66" x14ac:dyDescent="0.25">
+      <c r="B1" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="151" t="s">
+      <c r="E1" s="152" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="70" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="I1">
-        <v>144584</v>
-      </c>
-      <c r="J1" s="51">
+      <c r="I1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J1" s="135">
         <v>3500000000</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="152" t="s">
+    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="153" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="154" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="E2" s="72">
+      <c r="E2" s="71">
         <v>15088341255</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="I2" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="J2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="70" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3" s="71">
+        <v>12207349547</v>
+      </c>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="I3" t="s">
         <v>572</v>
       </c>
+      <c r="J3" s="131" t="s">
+        <v>570</v>
+      </c>
     </row>
-    <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="152"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="71" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" s="72">
-        <v>12207349547</v>
-      </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="I3" t="s">
-        <v>576</v>
-      </c>
-      <c r="J3" s="132" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="152"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="71" t="s">
+    <row r="4" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="153"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="70" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="71">
         <v>24336597873</v>
       </c>
-      <c r="F4" s="73"/>
+      <c r="F4" s="72"/>
       <c r="I4" t="s">
-        <v>577</v>
-      </c>
-      <c r="J4" s="132" t="s">
         <v>573</v>
+      </c>
+      <c r="J4" s="131" t="s">
+        <v>569</v>
       </c>
       <c r="L4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75">
+    <row r="5" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="74">
         <v>2019</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="71">
         <v>12985343471</v>
       </c>
-      <c r="F5" s="76"/>
-      <c r="G5" s="73">
+      <c r="F5" s="75"/>
+      <c r="G5" s="72">
         <f>AVERAGE(E3,E4,E5)</f>
         <v>16509763630.333334</v>
       </c>
       <c r="I5">
         <v>2007</v>
       </c>
-      <c r="J5" s="133" t="s">
-        <v>575</v>
+      <c r="J5" s="132" t="s">
+        <v>571</v>
       </c>
       <c r="L5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="E6" s="68"/>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="67"/>
       <c r="I6" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>211</v>
       </c>
@@ -67824,7 +67889,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="63" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2017</v>
       </c>
@@ -67837,29 +67902,29 @@
       <c r="E8" t="s">
         <v>391</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="I8" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="J8" s="62" t="s">
+      <c r="J8" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="K8" s="62" t="s">
+      <c r="K8" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="62" t="s">
+      <c r="L8" s="61" t="s">
         <v>326</v>
       </c>
-      <c r="M8" s="62" t="s">
+      <c r="M8" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="N8" s="62" t="s">
+      <c r="N8" s="61" t="s">
         <v>328</v>
       </c>
-      <c r="O8" s="62" t="s">
+      <c r="O8" s="61" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="75" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2018</v>
       </c>
@@ -67894,7 +67959,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2019</v>
       </c>
@@ -67916,79 +67981,79 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" xr:uid="{0A1F66AA-77F0-43F3-B66A-0EE4CF3DF47D}"/>
+    <hyperlink ref="J5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="96" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="95" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.44140625" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.42578125" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="66" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="94">
+    <row r="1" spans="1:10" s="65" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="93">
         <f>SUMIF(A2:A21,"x",F2:F21)</f>
         <v>6197513796</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="65" t="s">
         <v>374</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="65" t="s">
         <v>380</v>
       </c>
-      <c r="D1" s="95" t="s">
+      <c r="D1" s="94" t="s">
         <v>375</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>376</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>378</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>351</v>
       </c>
       <c r="C2" t="s">
         <v>352</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="95" t="s">
         <v>353</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>382</v>
       </c>
       <c r="F2">
@@ -68007,17 +68072,17 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>362</v>
       </c>
       <c r="C3" t="s">
         <v>352</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="95" t="s">
         <v>363</v>
       </c>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="66" t="s">
         <v>382</v>
       </c>
       <c r="F3">
@@ -68036,17 +68101,17 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>367</v>
       </c>
       <c r="C4" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="95" t="s">
         <v>363</v>
       </c>
-      <c r="E4" s="67" t="s">
+      <c r="E4" s="66" t="s">
         <v>382</v>
       </c>
       <c r="F4">
@@ -68065,7 +68130,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -68075,10 +68140,10 @@
       <c r="C5" t="s">
         <v>352</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="66" t="s">
         <v>382</v>
       </c>
       <c r="F5">
@@ -68097,7 +68162,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -68107,10 +68172,10 @@
       <c r="C6" t="s">
         <v>352</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="95" t="s">
         <v>358</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="66" t="s">
         <v>382</v>
       </c>
       <c r="F6">
@@ -68129,17 +68194,17 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
       <c r="B7" t="s">
         <v>537</v>
       </c>
-      <c r="D7" s="97">
+      <c r="D7" s="96">
         <v>42670</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="66" t="s">
         <v>538</v>
       </c>
       <c r="F7">
@@ -68148,7 +68213,7 @@
       <c r="G7">
         <v>1616740713</v>
       </c>
-      <c r="H7" s="80">
+      <c r="H7" s="79">
         <v>42725</v>
       </c>
       <c r="I7" t="s">
@@ -68158,52 +68223,52 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="I12">
         <v>1640251089</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="I13">
         <v>1374255938</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="I14">
         <v>3043578216</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="I15">
         <v>1133019615</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="I16">
         <v>1276052117</v>
       </c>
     </row>
-    <row r="17" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="98"/>
+    <row r="17" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="97"/>
     </row>
-    <row r="18" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="98"/>
+    <row r="18" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="97"/>
     </row>
-    <row r="19" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="98"/>
+    <row r="19" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="97"/>
     </row>
-    <row r="20" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="98"/>
+    <row r="20" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="97"/>
     </row>
-    <row r="21" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="98"/>
+    <row r="21" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="97"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J21" xr:uid="{00000000-0009-0000-0000-000004000000}">
+  <autoFilter ref="A1:J21">
     <filterColumn colId="0">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -68215,159 +68280,159 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AD2C1B-51B4-4279-AB54-43A11CA04EA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:H15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="3.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="31.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.28515625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="31.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" ht="135" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" ht="120" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" ht="135" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -68375,39 +68440,971 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:J42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" t="s">
+        <v>640</v>
+      </c>
+      <c r="G1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H1" t="s">
+        <v>642</v>
+      </c>
+      <c r="I1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>IFERROR(VLOOKUP(E2,NhanSu!F:K,6,0),0)</f>
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2">
+        <v>212143221</v>
+      </c>
+      <c r="H2" s="79">
+        <v>29696</v>
+      </c>
+      <c r="I2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>IFERROR(VLOOKUP(E3,NhanSu!F:K,6,0),0)</f>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3">
+        <v>272696072</v>
+      </c>
+      <c r="H3" s="79">
+        <v>36242</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f>IFERROR(VLOOKUP(E4,NhanSu!F:K,6,0),0)</f>
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4">
+        <v>272396568</v>
+      </c>
+      <c r="H4" s="79">
+        <v>34970</v>
+      </c>
+      <c r="I4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>IFERROR(VLOOKUP(E5,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5">
+        <v>271380486</v>
+      </c>
+      <c r="H5" s="79">
+        <v>29587</v>
+      </c>
+      <c r="I5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>IFERROR(VLOOKUP(E6,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6">
+        <v>271430448</v>
+      </c>
+      <c r="H6" s="79">
+        <v>29460</v>
+      </c>
+      <c r="I6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f>IFERROR(VLOOKUP(E7,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7">
+        <v>270983407</v>
+      </c>
+      <c r="H7" s="79">
+        <v>26037</v>
+      </c>
+      <c r="I7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f>IFERROR(VLOOKUP(E8,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" t="s">
+        <v>645</v>
+      </c>
+      <c r="G8">
+        <v>271285313</v>
+      </c>
+      <c r="H8" s="79">
+        <v>28333</v>
+      </c>
+      <c r="I8" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>IFERROR(VLOOKUP(E9,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>506</v>
+      </c>
+      <c r="F9" t="s">
+        <v>645</v>
+      </c>
+      <c r="G9">
+        <v>271485073</v>
+      </c>
+      <c r="H9" s="79">
+        <v>29601</v>
+      </c>
+      <c r="I9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>IFERROR(VLOOKUP(E10,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>493</v>
+      </c>
+      <c r="F10" t="s">
+        <v>645</v>
+      </c>
+      <c r="G10">
+        <v>271316993</v>
+      </c>
+      <c r="H10" s="79">
+        <v>29130</v>
+      </c>
+      <c r="I10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f>IFERROR(VLOOKUP(E11,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" t="s">
+        <v>645</v>
+      </c>
+      <c r="G11">
+        <v>271483902</v>
+      </c>
+      <c r="H11" s="79">
+        <v>29749</v>
+      </c>
+      <c r="I11" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f>IFERROR(VLOOKUP(E12,NhanSu!F:K,6,0),0)</f>
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>535</v>
+      </c>
+      <c r="F12">
+        <v>272282903</v>
+      </c>
+      <c r="G12" s="79">
+        <v>33816</v>
+      </c>
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f>IFERROR(VLOOKUP(E13,NhanSu!F:K,6,0),0)</f>
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>530</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13">
+        <v>272556665</v>
+      </c>
+      <c r="H13" s="79">
+        <v>35580</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f>IFERROR(VLOOKUP(E14,NhanSu!F:K,6,0),0)</f>
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>520</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14">
+        <v>272556713</v>
+      </c>
+      <c r="H14" s="79">
+        <v>35884</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>IFERROR(VLOOKUP(E15,NhanSu!F:K,6,0),0)</f>
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15">
+        <v>271728653</v>
+      </c>
+      <c r="H15" s="79">
+        <v>31088</v>
+      </c>
+      <c r="I15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f>IFERROR(VLOOKUP(E16,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>383</v>
+      </c>
+      <c r="F16" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16">
+        <v>271475064</v>
+      </c>
+      <c r="H16" s="79">
+        <v>30193</v>
+      </c>
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f>IFERROR(VLOOKUP(E17,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17">
+        <v>271772123</v>
+      </c>
+      <c r="H17" s="79">
+        <v>32228</v>
+      </c>
+      <c r="I17" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f>IFERROR(VLOOKUP(E18,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18">
+        <v>271149270</v>
+      </c>
+      <c r="H18" s="79">
+        <v>27706</v>
+      </c>
+      <c r="I18" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>IFERROR(VLOOKUP(E19,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19">
+        <v>271577771</v>
+      </c>
+      <c r="H19" s="79">
+        <v>30671</v>
+      </c>
+      <c r="I19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>IFERROR(VLOOKUP(E20,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>495</v>
+      </c>
+      <c r="F20" t="s">
+        <v>645</v>
+      </c>
+      <c r="G20">
+        <v>214523467</v>
+      </c>
+      <c r="H20" s="79">
+        <v>30596</v>
+      </c>
+      <c r="I20" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>IFERROR(VLOOKUP(E21,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>494</v>
+      </c>
+      <c r="F21" t="s">
+        <v>645</v>
+      </c>
+      <c r="G21">
+        <v>271172296</v>
+      </c>
+      <c r="H21" s="79">
+        <v>27534</v>
+      </c>
+      <c r="I21" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>IFERROR(VLOOKUP(E22,NhanSu!F:K,6,0),0)</f>
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>531</v>
+      </c>
+      <c r="F22" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22">
+        <v>271285473</v>
+      </c>
+      <c r="H22" s="79">
+        <v>27567</v>
+      </c>
+      <c r="I22" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>IFERROR(VLOOKUP(E23,NhanSu!F:K,6,0),0)</f>
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>525</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23">
+        <v>75200000515</v>
+      </c>
+      <c r="H23" s="79">
+        <v>36767</v>
+      </c>
+      <c r="I23" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f>IFERROR(VLOOKUP(E24,NhanSu!F:K,6,0),0)</f>
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>524</v>
+      </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24">
+        <v>272732396</v>
+      </c>
+      <c r="H24" s="79">
+        <v>36804</v>
+      </c>
+      <c r="I24" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f>IFERROR(VLOOKUP(E25,NhanSu!F:K,6,0),0)</f>
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>521</v>
+      </c>
+      <c r="F25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25">
+        <v>271315765</v>
+      </c>
+      <c r="H25" s="79">
+        <v>29205</v>
+      </c>
+      <c r="I25" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>IFERROR(VLOOKUP(E26,NhanSu!F:K,6,0),0)</f>
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>514</v>
+      </c>
+      <c r="F26" t="s">
+        <v>109</v>
+      </c>
+      <c r="G26">
+        <v>272556764</v>
+      </c>
+      <c r="H26" s="79">
+        <v>34976</v>
+      </c>
+      <c r="I26" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f>IFERROR(VLOOKUP(E27,NhanSu!F:K,6,0),0)</f>
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>124</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27">
+        <v>271586657</v>
+      </c>
+      <c r="H27" s="79">
+        <v>29221</v>
+      </c>
+      <c r="I27" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f>IFERROR(VLOOKUP(E28,NhanSu!F:K,6,0),0)</f>
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28">
+        <v>271449542</v>
+      </c>
+      <c r="H28" s="79">
+        <v>30027</v>
+      </c>
+      <c r="I28" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f>IFERROR(VLOOKUP(E29,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" t="s">
+        <v>109</v>
+      </c>
+      <c r="G29">
+        <v>271235673</v>
+      </c>
+      <c r="H29" s="79">
+        <v>26845</v>
+      </c>
+      <c r="I29" s="79" t="s">
+        <v>644</v>
+      </c>
+      <c r="J29" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f>IFERROR(VLOOKUP(E30,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30">
+        <v>271577813</v>
+      </c>
+      <c r="H30" s="79">
+        <v>30730</v>
+      </c>
+      <c r="I30" s="79" t="s">
+        <v>644</v>
+      </c>
+      <c r="J30" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f>IFERROR(VLOOKUP(E31,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31">
+        <v>271480301</v>
+      </c>
+      <c r="H31" s="79">
+        <v>30193</v>
+      </c>
+      <c r="I31" s="79" t="s">
+        <v>644</v>
+      </c>
+      <c r="J31" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>IFERROR(VLOOKUP(E32,NhanSu!F:K,6,0),0)</f>
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>534</v>
+      </c>
+      <c r="F32" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32">
+        <v>272960603</v>
+      </c>
+      <c r="H32" s="79">
+        <v>37008</v>
+      </c>
+      <c r="I32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f>IFERROR(VLOOKUP(E33,NhanSu!F:K,6,0),0)</f>
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>533</v>
+      </c>
+      <c r="F33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33">
+        <v>271688082</v>
+      </c>
+      <c r="H33" s="79">
+        <v>31416</v>
+      </c>
+      <c r="I33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f>IFERROR(VLOOKUP(E34,NhanSu!F:K,6,0),0)</f>
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>528</v>
+      </c>
+      <c r="F34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G34">
+        <v>272397442</v>
+      </c>
+      <c r="H34" s="79">
+        <v>34041</v>
+      </c>
+      <c r="I34" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f>IFERROR(VLOOKUP(E35,NhanSu!F:K,6,0),0)</f>
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>536</v>
+      </c>
+      <c r="F35" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35">
+        <v>272653927</v>
+      </c>
+      <c r="H35" s="79">
+        <v>35555</v>
+      </c>
+      <c r="I35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f>IFERROR(VLOOKUP(E36,NhanSu!F:K,6,0),0)</f>
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>519</v>
+      </c>
+      <c r="F36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G36">
+        <v>272352958</v>
+      </c>
+      <c r="H36" s="79">
+        <v>34281</v>
+      </c>
+      <c r="I36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f>IFERROR(VLOOKUP(E37,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>317</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37">
+        <v>271294536</v>
+      </c>
+      <c r="H37" s="79">
+        <v>29587</v>
+      </c>
+      <c r="I37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>IFERROR(VLOOKUP(E38,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>497</v>
+      </c>
+      <c r="F38" t="s">
+        <v>645</v>
+      </c>
+      <c r="G38">
+        <v>271229202</v>
+      </c>
+      <c r="H38" s="79">
+        <v>28052</v>
+      </c>
+      <c r="I38" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>IFERROR(VLOOKUP(E39,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>498</v>
+      </c>
+      <c r="F39" t="s">
+        <v>645</v>
+      </c>
+      <c r="G39">
+        <v>272526412</v>
+      </c>
+      <c r="H39" t="s">
+        <v>647</v>
+      </c>
+      <c r="I39" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f>IFERROR(VLOOKUP(E40,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>505</v>
+      </c>
+      <c r="F40" t="s">
+        <v>645</v>
+      </c>
+      <c r="G40">
+        <v>271601608</v>
+      </c>
+      <c r="H40" s="79">
+        <v>30303</v>
+      </c>
+      <c r="I40" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f>IFERROR(VLOOKUP(E41,NhanSu!F:K,6,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" t="s">
+        <v>645</v>
+      </c>
+      <c r="G41">
+        <v>271298968</v>
+      </c>
+      <c r="H41" s="79">
+        <v>28217</v>
+      </c>
+      <c r="I41" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f>IFERROR(VLOOKUP(E42,NhanSu!F:K,6,0),0)</f>
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>529</v>
+      </c>
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42">
+        <v>272423855</v>
+      </c>
+      <c r="H42" s="79">
+        <v>34974</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="20" customWidth="1"/>
     <col min="2" max="2" width="45" style="15" customWidth="1"/>
-    <col min="3" max="3" width="52.5546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="15" customWidth="1"/>
     <col min="8" max="8" width="19" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="15"/>
-    <col min="10" max="10" width="15.88671875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="15" customWidth="1"/>
-    <col min="13" max="13" width="17.88671875" style="15" customWidth="1"/>
-    <col min="14" max="14" width="14" style="78" customWidth="1"/>
-    <col min="15" max="16" width="18.5546875" style="15" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="15"/>
+    <col min="9" max="9" width="8.85546875" style="15"/>
+    <col min="10" max="10" width="15.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="15" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" style="15" customWidth="1"/>
+    <col min="14" max="14" width="14" style="77" customWidth="1"/>
+    <col min="15" max="16" width="18.5703125" style="15" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
@@ -68439,7 +69436,7 @@
         <v>13</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>163</v>
@@ -68447,7 +69444,7 @@
       <c r="M1" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="N1" s="78" t="s">
+      <c r="N1" s="77" t="s">
         <v>204</v>
       </c>
       <c r="O1" s="15" t="s">
@@ -68462,101 +69459,91 @@
       <c r="R1" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="T1" s="78"/>
+      <c r="T1" s="77"/>
     </row>
-    <row r="2" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="str">
-        <f t="shared" ref="A2:A3" si="0">VLOOKUP("Số TBMT",tbmt,4,0)</f>
-        <v>20200441452-00</v>
+        <f t="shared" ref="A2" si="0">VLOOKUP("Số TBMT",tbmt,4,0)</f>
+        <v>20200469878-00</v>
       </c>
       <c r="B2" s="19" t="str">
-        <f t="shared" ref="B2:B3" si="1">IFERROR(VLOOKUP("Tên dự án",tbmt,4,0),VLOOKUP("Tên gói thầu",tbmt,4,0))</f>
-        <v>Nâng cấp đường dây trung hạ thế, cấy trạm biến áp khu vực xã Xuân Hiệp, Xuân Thọ, Lang Minh, Suối Cát, Bảo Hòa huyện Xuân Lộc năm 2019.</v>
+        <f t="shared" ref="B2" si="1">IFERROR(VLOOKUP("Tên dự án",tbmt,4,0),VLOOKUP("Tên gói thầu",tbmt,4,0))</f>
+        <v>Gói thầu: “Vận chuyển vật tư MDĐĐ và thi công công tơ khách hàng phát triển mới năm 2020”</v>
       </c>
       <c r="C2" s="19" t="str">
-        <f t="shared" ref="C2:C3" si="2">VLOOKUP("Chủ đầu tư",tbmt,4,0)</f>
-        <v>Điện lực Xuân Lộc - Công ty TNHH một thành viên Điện lực Đồng Nai</v>
+        <f t="shared" ref="C2" si="2">VLOOKUP("Chủ đầu tư",tbmt,4,0)</f>
+        <v>Huyện Xuân Lộc - Tỉnh Đồng Nai</v>
       </c>
       <c r="D2" s="19" t="str">
-        <f t="shared" ref="D2:D3" si="3">VLOOKUP("Bên mời thầu",tbmt,4,0)</f>
+        <f t="shared" ref="D2" si="3">VLOOKUP("Bên mời thầu",tbmt,4,0)</f>
         <v>Điện lực Xuân Lộc - Công ty TNHH một thành viên Điện lực Đồng Nai</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19" t="str">
-        <f t="shared" ref="F2:F3" si="4">VLOOKUP("Số tiền đảm bảo",tbmt,4,0)</f>
+        <f t="shared" ref="F2" si="4">VLOOKUP("Số tiền đảm bảo",tbmt,4,0)</f>
         <v>26.500.000 VND</v>
       </c>
       <c r="G2" s="19"/>
-      <c r="H2" s="61">
-        <f t="shared" ref="H2:H3" si="5">VLOOKUP("Thời gian nhận HSDT từ ngày",tbmt,10,0)</f>
-        <v>43957.631944444445</v>
+      <c r="H2" s="60">
+        <f t="shared" ref="H2" si="5">VLOOKUP("Thời gian nhận HSDT từ ngày",tbmt,10,0)</f>
+        <v>43963.604166666664</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="19">
         <f>VLOOKUP("Thời gian thực hiện hợp đồng",tbmt,4,0)</f>
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="49">
         <f t="shared" ref="L2:L17" si="6">DATEVALUE(LEFT(TEXT(VLOOKUP("Số TBMT",tbmt,10,0),"dd/MM/yyyy"),10))+5</f>
-        <v>43943</v>
+        <v>43954</v>
       </c>
       <c r="M2" s="50" t="str">
         <f>" ngày "&amp;TEXT(L2,"dd")&amp;" tháng "&amp;TEXT(L2,"MM")&amp;" năm "&amp;TEXT(L2,"yyyy")</f>
-        <v xml:space="preserve"> ngày 22 tháng 04 năm 2020</v>
+        <v xml:space="preserve"> ngày 03 tháng 05 năm 2020</v>
       </c>
       <c r="N2" s="49" t="str">
         <f>TEXT(L2+365,"dd/MM/yyyy")</f>
-        <v>22/04/2021</v>
+        <v>03/05/2021</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>20200441452-00</v>
-      </c>
-      <c r="B3" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>Nâng cấp đường dây trung hạ thế, cấy trạm biến áp khu vực xã Xuân Hiệp, Xuân Thọ, Lang Minh, Suối Cát, Bảo Hòa huyện Xuân Lộc năm 2019.</v>
-      </c>
-      <c r="C3" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v>Điện lực Xuân Lộc - Công ty TNHH một thành viên Điện lực Đồng Nai</v>
-      </c>
-      <c r="D3" s="19" t="str">
-        <f t="shared" si="3"/>
-        <v>Điện lực Xuân Lộc - Công ty TNHH một thành viên Điện lực Đồng Nai</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="str">
-        <f t="shared" si="4"/>
-        <v>26.500.000 VND</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="61">
-        <f t="shared" si="5"/>
-        <v>43957.631944444445</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="19">
-        <f>VLOOKUP("Thời gian thực hiện hợp đồng",tbmt,4,0)</f>
-        <v>236</v>
-      </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="49">
-        <f t="shared" si="6"/>
-        <v>43943</v>
-      </c>
-      <c r="M3" s="50" t="str">
-        <f>" ngày "&amp;TEXT(L3,"dd")&amp;" tháng "&amp;TEXT(L3,"MM")&amp;" năm "&amp;TEXT(L3,"yyyy")</f>
-        <v xml:space="preserve"> ngày 22 tháng 04 năm 2020</v>
-      </c>
-      <c r="N3" s="49" t="str">
-        <f>TEXT(L3+365,"dd/MM/yyyy")</f>
-        <v>22/04/2021</v>
+    <row r="3" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>657</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="76">
+        <v>43963.604166666664</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18">
+        <v>12</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="136" t="s">
+        <v>660</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="N3" s="136" t="s">
+        <v>659</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>20191257175</v>
       </c>
@@ -68591,7 +69578,7 @@
       <c r="K4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="57">
+      <c r="L4" s="56">
         <f>DATEVALUE(LEFT(H4,10))-2</f>
         <v>43835</v>
       </c>
@@ -68599,11 +69586,11 @@
         <f>" ngày "&amp;TEXT(L4,"dd")&amp;" tháng "&amp;TEXT(L4,"MM")&amp;" năm "&amp;TEXT(L4,"yyyy")</f>
         <v xml:space="preserve"> ngày 05 tháng 01 năm 2020</v>
       </c>
-      <c r="N4" s="79" t="s">
+      <c r="N4" s="78" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>97</v>
       </c>
@@ -68636,7 +69623,7 @@
         <v>120 Ngày</v>
       </c>
       <c r="K5" s="18"/>
-      <c r="L5" s="57">
+      <c r="L5" s="56">
         <f t="shared" ref="L5:L6" si="8">DATEVALUE(LEFT(H5,10))-2</f>
         <v>43835</v>
       </c>
@@ -68644,12 +69631,12 @@
         <f t="shared" ref="M5:M6" si="9">" ngày "&amp;TEXT(L5,"dd")&amp;" tháng "&amp;TEXT(L5,"MM")&amp;" năm "&amp;TEXT(L5,"yyyy")</f>
         <v xml:space="preserve"> ngày 05 tháng 01 năm 2020</v>
       </c>
-      <c r="N5" s="79">
+      <c r="N5" s="78">
         <f t="shared" ref="N5:N6" si="10">L5+366</f>
         <v>44201</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>102</v>
       </c>
@@ -68680,7 +69667,7 @@
         <v>90 Ngày</v>
       </c>
       <c r="K6" s="18"/>
-      <c r="L6" s="57">
+      <c r="L6" s="56">
         <f t="shared" si="8"/>
         <v>43835</v>
       </c>
@@ -68688,12 +69675,12 @@
         <f t="shared" si="9"/>
         <v xml:space="preserve"> ngày 05 tháng 01 năm 2020</v>
       </c>
-      <c r="N6" s="79">
+      <c r="N6" s="78">
         <f t="shared" si="10"/>
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>225</v>
       </c>
@@ -68721,13 +69708,13 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="57">
+      <c r="L7" s="56">
         <v>43843</v>
       </c>
       <c r="M7" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="N7" s="79"/>
+      <c r="N7" s="78"/>
       <c r="O7" s="17" t="s">
         <v>146</v>
       </c>
@@ -68743,7 +69730,7 @@
         <v>16/04/1981</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="17" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="17" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>243</v>
       </c>
@@ -68777,15 +69764,15 @@
       <c r="K8" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="L8" s="57">
+      <c r="L8" s="56">
         <v>43869</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="N8" s="79"/>
+      <c r="N8" s="78"/>
     </row>
-    <row r="9" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>253</v>
       </c>
@@ -68813,13 +69800,13 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="57">
+      <c r="L9" s="56">
         <v>43877</v>
       </c>
       <c r="M9" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="N9" s="79">
+      <c r="N9" s="78">
         <v>44242</v>
       </c>
       <c r="O9" s="17" t="s">
@@ -68837,7 +69824,7 @@
         <v>16/04/1981</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>264</v>
       </c>
@@ -68865,17 +69852,17 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="57">
+      <c r="L10" s="56">
         <v>43908.345138888886</v>
       </c>
       <c r="M10" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="N10" s="79">
+      <c r="N10" s="78">
         <v>44273.345138888886</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>275</v>
       </c>
@@ -68888,7 +69875,7 @@
       <c r="D11" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="81" t="s">
         <v>270</v>
       </c>
       <c r="F11" s="18" t="s">
@@ -68903,17 +69890,17 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="57">
+      <c r="L11" s="56">
         <v>43914.342361111114</v>
       </c>
       <c r="M11" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="N11" s="79">
+      <c r="N11" s="78">
         <v>44279.342361111114</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>309</v>
       </c>
@@ -68935,24 +69922,24 @@
       <c r="G12" s="18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="76">
         <v>43917.375</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="57">
+      <c r="L12" s="56">
         <v>43912</v>
       </c>
       <c r="M12" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="N12" s="80">
+      <c r="N12" s="79">
         <f>L12+365</f>
         <v>44277</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>452</v>
       </c>
@@ -68974,23 +69961,23 @@
       <c r="G13" s="18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="76">
         <v>43920.4375</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="57">
+      <c r="L13" s="56">
         <v>43909.34375</v>
       </c>
       <c r="M13" s="17" t="s">
         <v>481</v>
       </c>
-      <c r="N13" s="81">
+      <c r="N13" s="80">
         <v>44274.34375</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>482</v>
       </c>
@@ -69012,23 +69999,23 @@
       <c r="G14" s="18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="76">
         <v>43920.583333333336</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="57">
+      <c r="L14" s="56">
         <v>43914.334027777775</v>
       </c>
       <c r="M14" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="N14" s="81">
+      <c r="N14" s="80">
         <v>44279.334027777775</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>487</v>
       </c>
@@ -69050,23 +70037,23 @@
       <c r="G15" s="18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="76">
         <v>43921.583333333336</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="57">
+      <c r="L15" s="56">
         <v>43914.601388888892</v>
       </c>
       <c r="M15" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="N15" s="83" t="s">
+      <c r="N15" s="82" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>490</v>
       </c>
@@ -69088,23 +70075,23 @@
       <c r="G16" s="18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="76">
         <v>43935.583333333336</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="57">
+      <c r="L16" s="56">
         <v>43926</v>
       </c>
       <c r="M16" s="17" t="s">
         <v>499</v>
       </c>
-      <c r="N16" s="57">
+      <c r="N16" s="56">
         <v>44291</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>500</v>
       </c>
@@ -69126,7 +70113,7 @@
       <c r="G17" s="18" t="e">
         <v>#N/A</v>
       </c>
-      <c r="H17" s="77">
+      <c r="H17" s="76">
         <v>43934.375</v>
       </c>
       <c r="I17" s="18"/>
@@ -69134,25 +70121,25 @@
       <c r="K17" s="18"/>
       <c r="L17" s="49">
         <f t="shared" si="6"/>
-        <v>43943</v>
+        <v>43954</v>
       </c>
       <c r="M17" s="17" t="s">
         <v>502</v>
       </c>
       <c r="N17" s="49" t="str">
         <f>TEXT(L17+365,"dd/MM/yyyy")</f>
-        <v>22/04/2021</v>
+        <v>03/05/2021</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>551</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>552</v>
@@ -69161,12 +70148,12 @@
         <v>100</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="77">
+      <c r="H18" s="76">
         <v>43956.604166666664</v>
       </c>
       <c r="I18" s="18">
@@ -69178,22 +70165,22 @@
       <c r="K18" s="18">
         <v>12</v>
       </c>
-      <c r="L18" s="57">
+      <c r="L18" s="56">
         <v>43948</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>562</v>
-      </c>
-      <c r="N18" s="57" t="s">
-        <v>563</v>
+        <v>558</v>
+      </c>
+      <c r="N18" s="56" t="s">
+        <v>559</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>258</v>
@@ -69205,12 +70192,12 @@
         <v>100</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="77">
+      <c r="H19" s="76">
         <v>43957.631944444445</v>
       </c>
       <c r="I19" s="18">
@@ -69222,55 +70209,55 @@
       <c r="K19" s="18">
         <v>12</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="56">
         <v>43943</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="N19" s="57" t="s">
-        <v>618</v>
+        <v>611</v>
+      </c>
+      <c r="N19" s="56" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A20:A1048576 A4:A10 A1">
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A19 A3">
-    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:M24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" customWidth="1"/>
     <col min="13" max="13" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D1">
         <f>COLUMN()-COLUMN($C$1)</f>
         <v>1</v>
@@ -69303,11 +70290,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M1" s="69">
+      <c r="M1" s="68">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>397</v>
       </c>
@@ -69337,7 +70324,7 @@
         <v>Tiết diện dây [mm2]: 50/8</v>
       </c>
     </row>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>398</v>
       </c>
@@ -69367,7 +70354,7 @@
         <v>Đường kính ngoài của ruột dẫn đối với dây trần hay bọc [mm] : 9,5-10</v>
       </c>
     </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>405</v>
       </c>
@@ -69397,7 +70384,7 @@
         <v>Độ dày lớp bọc cách điện XLPE 22kV : 5,5 mm</v>
       </c>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>407</v>
       </c>
@@ -69427,7 +70414,7 @@
         <v>Đường kính ngoài của dây bọc 22kV [mm]: 23,1-23,4</v>
       </c>
     </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>413</v>
       </c>
@@ -69457,7 +70444,7 @@
         <v>Lực kéo đứt [kN]: 17,1</v>
       </c>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>397</v>
       </c>
@@ -69472,7 +70459,7 @@
         <v xml:space="preserve">Tiết diện dây [mm2]: </v>
       </c>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>427</v>
       </c>
@@ -69487,7 +70474,7 @@
         <v xml:space="preserve">Số tao/đường kính mỗi tao [mm]: </v>
       </c>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>430</v>
       </c>
@@ -69502,7 +70489,7 @@
         <v xml:space="preserve">Đường kính ngoài tối đa của cáp [mm]: </v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>413</v>
       </c>
@@ -69517,31 +70504,31 @@
         <v xml:space="preserve">Lực kéo đứt [kN]: </v>
       </c>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M14" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="M15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="M16" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="M17" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>397</v>
       </c>
@@ -69568,7 +70555,7 @@
         <v>Tiết diện dây [mm2]: 50/8</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>398</v>
       </c>
@@ -69595,7 +70582,7 @@
         <v>Đường kính ngoài của ruột dẫn đối với dây trần hay bọc [mm] : 9,5-10</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>472</v>
       </c>
@@ -69604,7 +70591,7 @@
         <v xml:space="preserve">Độ dày lớp bọc 22kV : </v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>473</v>
       </c>
@@ -69634,7 +70621,7 @@
         <v>+ Cách điện XLPE: 5,5 mm</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>474</v>
       </c>
@@ -69664,7 +70651,7 @@
         <v>+ Vỏ ngoài HDPE: 1,2 mm</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>407</v>
       </c>
@@ -69691,7 +70678,7 @@
         <v>Đường kính ngoài của dây bọc 22kV [mm]: 23,1-23,4</v>
       </c>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>413</v>
       </c>
@@ -69726,470 +70713,470 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="122"/>
-    <col min="4" max="4" width="26" style="123" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="122"/>
-    <col min="6" max="6" width="27" style="122" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="122" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.109375" style="122" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="122"/>
+    <col min="1" max="3" width="8.85546875" style="121"/>
+    <col min="4" max="4" width="26" style="122" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="121"/>
+    <col min="6" max="6" width="27" style="121" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="121" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="121" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="121"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="120" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:10" s="119" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="119" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="121" t="s">
+      <c r="D1" s="120" t="s">
         <v>438</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="119" t="s">
         <v>435</v>
       </c>
-      <c r="G1" s="120" t="s">
+      <c r="G1" s="119" t="s">
         <v>436</v>
       </c>
-      <c r="H1" s="120" t="s">
+      <c r="H1" s="119" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D2" s="123" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="122" t="s">
         <v>458</v>
       </c>
-      <c r="F2" s="122" t="s">
+      <c r="F2" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="128" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D3" s="123" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3" s="122" t="s">
         <v>458</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="121" t="s">
         <v>440</v>
       </c>
-      <c r="H3" s="129" t="s">
+      <c r="H3" s="128" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="123" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" s="122" t="s">
         <v>458</v>
       </c>
-      <c r="F4" s="122" t="s">
+      <c r="F4" s="121" t="s">
         <v>442</v>
       </c>
-      <c r="H4" s="129" t="s">
+      <c r="H4" s="128" t="s">
         <v>443</v>
       </c>
-      <c r="J4" s="124"/>
+      <c r="J4" s="123"/>
     </row>
-    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="123" t="s">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="122" t="s">
         <v>457</v>
       </c>
-      <c r="E5" s="125"/>
-      <c r="F5" s="126" t="s">
+      <c r="E5" s="124"/>
+      <c r="F5" s="125" t="s">
         <v>445</v>
       </c>
-      <c r="H5" s="126" t="s">
+      <c r="H5" s="125" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="123" t="s">
+    <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="122" t="s">
         <v>457</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="126" t="s">
+      <c r="E6" s="124"/>
+      <c r="F6" s="125" t="s">
         <v>446</v>
       </c>
-      <c r="H6" s="126" t="s">
+      <c r="H6" s="125" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="123" t="s">
+    <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="122" t="s">
         <v>457</v>
       </c>
-      <c r="E7" s="125"/>
-      <c r="F7" s="126" t="s">
+      <c r="E7" s="124"/>
+      <c r="F7" s="125" t="s">
         <v>447</v>
       </c>
-      <c r="H7" s="127" t="s">
+      <c r="H7" s="126" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="123" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="122" t="s">
         <v>337</v>
       </c>
-      <c r="F8" s="122" t="s">
+      <c r="F8" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="122" t="s">
+      <c r="H8" s="121" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D9" s="123" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="122" t="s">
         <v>337</v>
       </c>
-      <c r="F9" s="122" t="s">
+      <c r="F9" s="121" t="s">
         <v>440</v>
       </c>
-      <c r="H9" s="122" t="s">
+      <c r="H9" s="121" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D10" s="123" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="122" t="s">
         <v>337</v>
       </c>
-      <c r="F10" s="122" t="s">
+      <c r="F10" s="121" t="s">
         <v>442</v>
       </c>
-      <c r="H10" s="122" t="s">
+      <c r="H10" s="121" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="128" t="s">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="127" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="125" t="s">
         <v>445</v>
       </c>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="121" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="128" t="s">
+    <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="127" t="s">
         <v>461</v>
       </c>
-      <c r="F12" s="126" t="s">
+      <c r="F12" s="125" t="s">
         <v>446</v>
       </c>
-      <c r="H12" s="122" t="s">
+      <c r="H12" s="121" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="128" t="s">
+    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="127" t="s">
         <v>461</v>
       </c>
-      <c r="F13" s="126" t="s">
+      <c r="F13" s="125" t="s">
         <v>447</v>
       </c>
-      <c r="H13" s="122" t="s">
+      <c r="H13" s="121" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D14" s="123" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="122" t="s">
         <v>462</v>
       </c>
-      <c r="F14" s="122" t="s">
+      <c r="F14" s="121" t="s">
         <v>445</v>
       </c>
-      <c r="H14" s="129" t="s">
+      <c r="H14" s="128" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D15" s="123" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="122" t="s">
         <v>462</v>
       </c>
-      <c r="F15" s="122" t="s">
+      <c r="F15" s="121" t="s">
         <v>446</v>
       </c>
-      <c r="H15" s="129" t="s">
+      <c r="H15" s="128" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D16" s="123" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="122" t="s">
         <v>462</v>
       </c>
-      <c r="F16" s="122" t="s">
+      <c r="F16" s="121" t="s">
         <v>447</v>
       </c>
-      <c r="H16" s="130" t="s">
+      <c r="H16" s="129" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17" s="123" t="s">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D17" s="122" t="s">
         <v>464</v>
       </c>
-      <c r="F17" s="122" t="s">
+      <c r="F17" s="121" t="s">
         <v>445</v>
       </c>
-      <c r="H17" s="129" t="s">
+      <c r="H17" s="128" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D18" s="123" t="s">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D18" s="122" t="s">
         <v>464</v>
       </c>
-      <c r="F18" s="122" t="s">
+      <c r="F18" s="121" t="s">
         <v>446</v>
       </c>
-      <c r="H18" s="129" t="s">
+      <c r="H18" s="128" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D19" s="123" t="s">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D19" s="122" t="s">
         <v>464</v>
       </c>
-      <c r="F19" s="122" t="s">
+      <c r="F19" s="121" t="s">
         <v>447</v>
       </c>
-      <c r="H19" s="130" t="s">
+      <c r="H19" s="129" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D20" s="123" t="s">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="122" t="s">
         <v>465</v>
       </c>
-      <c r="F20" s="122" t="s">
+      <c r="F20" s="121" t="s">
         <v>445</v>
       </c>
-      <c r="H20" s="129" t="s">
+      <c r="H20" s="128" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D21" s="123" t="s">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="122" t="s">
         <v>465</v>
       </c>
-      <c r="F21" s="122" t="s">
+      <c r="F21" s="121" t="s">
         <v>446</v>
       </c>
-      <c r="H21" s="129" t="s">
+      <c r="H21" s="128" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D22" s="123" t="s">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="122" t="s">
         <v>465</v>
       </c>
-      <c r="F22" s="122" t="s">
+      <c r="F22" s="121" t="s">
         <v>447</v>
       </c>
-      <c r="H22" s="130" t="s">
+      <c r="H22" s="129" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D23" s="123" t="s">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="122" t="s">
         <v>466</v>
       </c>
-      <c r="F23" s="122" t="s">
+      <c r="F23" s="121" t="s">
         <v>470</v>
       </c>
-      <c r="H23" s="122" t="s">
+      <c r="H23" s="121" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="123" t="s">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="122" t="s">
         <v>469</v>
       </c>
-      <c r="F24" s="122" t="s">
+      <c r="F24" s="121" t="s">
         <v>445</v>
       </c>
-      <c r="H24" s="122" t="s">
+      <c r="H24" s="121" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="123" t="s">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="122" t="s">
         <v>469</v>
       </c>
-      <c r="F25" s="122" t="s">
+      <c r="F25" s="121" t="s">
         <v>446</v>
       </c>
-      <c r="H25" s="122" t="s">
+      <c r="H25" s="121" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="123" t="s">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="122" t="s">
         <v>469</v>
       </c>
-      <c r="F26" s="122" t="s">
+      <c r="F26" s="121" t="s">
         <v>447</v>
       </c>
-      <c r="H26" s="122" t="s">
+      <c r="H26" s="121" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D27" s="123" t="s">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="122" t="s">
         <v>477</v>
       </c>
-      <c r="F27" s="122" t="s">
+      <c r="F27" s="121" t="s">
         <v>445</v>
       </c>
-      <c r="H27" s="129" t="s">
+      <c r="H27" s="128" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D28" s="123" t="s">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="122" t="s">
         <v>477</v>
       </c>
-      <c r="F28" s="122" t="s">
+      <c r="F28" s="121" t="s">
         <v>446</v>
       </c>
-      <c r="H28" s="129" t="s">
+      <c r="H28" s="128" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D29" s="123" t="s">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="122" t="s">
         <v>477</v>
       </c>
-      <c r="F29" s="122" t="s">
+      <c r="F29" s="121" t="s">
         <v>447</v>
       </c>
-      <c r="H29" s="130" t="s">
+      <c r="H29" s="129" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D30" s="131" t="s">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="130" t="s">
         <v>478</v>
       </c>
-      <c r="F30" s="122" t="s">
+      <c r="F30" s="121" t="s">
         <v>445</v>
       </c>
-      <c r="H30" s="129" t="s">
+      <c r="H30" s="128" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D31" s="131" t="s">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="130" t="s">
         <v>478</v>
       </c>
-      <c r="F31" s="122" t="s">
+      <c r="F31" s="121" t="s">
         <v>446</v>
       </c>
-      <c r="H31" s="129" t="s">
+      <c r="H31" s="128" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D32" s="131" t="s">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D32" s="130" t="s">
         <v>478</v>
       </c>
-      <c r="F32" s="122" t="s">
+      <c r="F32" s="121" t="s">
         <v>447</v>
       </c>
-      <c r="H32" s="130" t="s">
+      <c r="H32" s="129" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D33" s="123" t="s">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D33" s="122" t="s">
         <v>267</v>
       </c>
-      <c r="F33" s="122" t="s">
+      <c r="F33" s="121" t="s">
         <v>445</v>
       </c>
-      <c r="H33" s="122" t="s">
+      <c r="H33" s="121" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D34" s="123" t="s">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="122" t="s">
         <v>267</v>
       </c>
-      <c r="F34" s="122" t="s">
+      <c r="F34" s="121" t="s">
         <v>446</v>
       </c>
-      <c r="H34" s="122" t="s">
+      <c r="H34" s="121" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D35" s="123" t="s">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="122" t="s">
         <v>267</v>
       </c>
-      <c r="F35" s="122" t="s">
+      <c r="F35" s="121" t="s">
         <v>442</v>
       </c>
-      <c r="H35" s="122" t="s">
+      <c r="H35" s="121" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D36" s="123" t="s">
-        <v>569</v>
-      </c>
-      <c r="F36" s="122" t="s">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="122" t="s">
+        <v>565</v>
+      </c>
+      <c r="F36" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="122" t="s">
+      <c r="H36" s="121" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D37" s="123" t="s">
-        <v>569</v>
-      </c>
-      <c r="F37" s="122" t="s">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D37" s="122" t="s">
+        <v>565</v>
+      </c>
+      <c r="F37" s="121" t="s">
         <v>440</v>
       </c>
-      <c r="H37" s="122" t="s">
-        <v>570</v>
+      <c r="H37" s="121" t="s">
+        <v>566</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D38" s="123" t="s">
-        <v>569</v>
-      </c>
-      <c r="F38" s="122" t="s">
+    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D38" s="122" t="s">
+        <v>565</v>
+      </c>
+      <c r="F38" s="121" t="s">
         <v>442</v>
       </c>
-      <c r="H38" s="122" t="s">
-        <v>569</v>
+      <c r="H38" s="121" t="s">
+        <v>565</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J4" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:J4"/>
   <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="H16" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="H19" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="H22" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="H29" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="H32" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="H7" r:id="rId1"/>
+    <hyperlink ref="H16" r:id="rId2"/>
+    <hyperlink ref="H19" r:id="rId3"/>
+    <hyperlink ref="H22" r:id="rId4"/>
+    <hyperlink ref="H29" r:id="rId5"/>
+    <hyperlink ref="H32" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -70197,51 +71184,51 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="39.33203125" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="9" width="8.6640625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.7109375" style="20" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" s="53" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="54" t="s">
+    <row r="1" spans="3:11" s="52" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="53" t="s">
+      <c r="I1" s="52" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="45">
         <f>SUM($G$1:G2)</f>
         <v>1</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="55" t="s">
         <v>231</v>
       </c>
       <c r="E2" s="47" t="s">
@@ -70260,12 +71247,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="45">
         <f>SUM($G$1:G3)</f>
         <v>2</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>232</v>
       </c>
       <c r="E3" s="47" t="s">
@@ -70284,12 +71271,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="45">
         <f>SUM($G$1:G4)</f>
         <v>3</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>233</v>
       </c>
       <c r="E4" s="47" t="s">
@@ -70311,7 +71298,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="45">
         <f>SUM($G$1:G5)</f>
         <v>4</v>
@@ -70335,7 +71322,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="45">
         <f>SUM($G$1:G6)</f>
         <v>5</v>
@@ -70362,7 +71349,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="45">
         <f>SUM($G$1:G7)</f>
         <v>6</v>
@@ -70386,7 +71373,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="45">
         <f>SUM($G$1:G8)</f>
         <v>7</v>
@@ -70410,7 +71397,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="45">
         <f>SUM($G$1:G9)</f>
         <v>8</v>
@@ -70437,7 +71424,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="45">
         <f>SUM($G$1:G10)</f>
         <v>9</v>
@@ -70464,7 +71451,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="45">
         <f>SUM($G$1:G11)</f>
         <v>10</v>
@@ -70491,7 +71478,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="45">
         <f>SUM($G$1:G12)</f>
         <v>11</v>
@@ -70515,7 +71502,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="45">
         <f>SUM($G$1:G13)</f>
         <v>12</v>
@@ -70539,7 +71526,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="45">
         <f>SUM($G$1:G14)</f>
         <v>13</v>
@@ -70547,10 +71534,10 @@
       <c r="D14" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="57" t="s">
         <v>92</v>
       </c>
       <c r="G14" s="20">
@@ -70563,7 +71550,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="45">
         <f>SUM($G$1:G15)</f>
         <v>14</v>
@@ -70587,7 +71574,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="16" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="45">
         <f>SUM($G$1:G16)</f>
         <v>15</v>
@@ -70611,7 +71598,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="3:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="45">
         <f>SUM($G$1:G17)</f>
         <v>16</v>
@@ -70619,10 +71606,10 @@
       <c r="D17" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="57" t="s">
         <v>92</v>
       </c>
       <c r="G17" s="20">
@@ -70635,7 +71622,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C18" s="45">
         <f>SUM($G$1:G18)</f>
         <v>17</v>
@@ -70659,7 +71646,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="45">
         <f>SUM($G$1:G19)</f>
         <v>18</v>
@@ -70683,7 +71670,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="45">
         <f>SUM($G$1:G20)</f>
         <v>19</v>
@@ -70707,7 +71694,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="45">
         <f>SUM($G$1:G21)</f>
         <v>20</v>
@@ -70731,7 +71718,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="45">
         <f>SUM($G$1:G22)</f>
         <v>21</v>
@@ -70758,7 +71745,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="23" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="45">
         <f>SUM($G$1:G23)</f>
         <v>22</v>
@@ -70782,7 +71769,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="45">
         <f>SUM($G$1:G24)</f>
         <v>23</v>
@@ -70806,7 +71793,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="45">
         <f>SUM($G$1:G25)</f>
         <v>24</v>
@@ -70830,7 +71817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="45">
         <f>SUM($G$1:G26)</f>
         <v>25</v>
@@ -70854,7 +71841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="45">
         <f>SUM($G$1:G27)</f>
         <v>26</v>
@@ -70878,7 +71865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="45">
         <f>SUM($G$1:G28)</f>
         <v>27</v>
@@ -70902,7 +71889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="45">
         <f>SUM($G$1:G29)</f>
         <v>28</v>
@@ -70923,7 +71910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="45">
         <f>SUM($G$1:G30)</f>
         <v>29</v>
@@ -70947,7 +71934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="45">
         <f>SUM($G$1:G31)</f>
         <v>30</v>
@@ -70971,12 +71958,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="45">
         <f>SUM($G$1:G32)</f>
         <v>31</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="55" t="s">
         <v>234</v>
       </c>
       <c r="E32" s="47" t="s">
@@ -70995,7 +71982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="45">
         <f>SUM($G$1:G33)</f>
         <v>32</v>
@@ -71016,7 +72003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="45">
         <f>SUM($G$1:G34)</f>
         <v>33</v>
@@ -71037,7 +72024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="45">
         <f>SUM($G$1:G35)</f>
         <v>34</v>
@@ -71058,7 +72045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="45">
         <f>SUM($G$1:G36)</f>
         <v>35</v>
@@ -71082,7 +72069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="45">
         <f>SUM($G$1:G37)</f>
         <v>36</v>
@@ -71103,7 +72090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="45">
         <f>SUM($G$1:G38)</f>
         <v>37</v>
@@ -71125,27 +72112,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:I38" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="C1:I38"/>
   <conditionalFormatting sqref="D11:D1048576 D1:D2 D7 D9">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -71153,30 +72140,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="7"/>
-    <col min="4" max="4" width="56.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="7"/>
-    <col min="6" max="6" width="40.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.85546875" style="7"/>
+    <col min="4" max="4" width="56.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="7"/>
+    <col min="6" max="6" width="40.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="7"/>
+    <col min="9" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D2" s="8" t="s">
         <v>58</v>
       </c>
@@ -71187,7 +72174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D3" s="9" t="s">
         <v>59</v>
       </c>
@@ -71198,7 +72185,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D4" s="9" t="s">
         <v>60</v>
       </c>
@@ -71209,12 +72196,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D5" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D6" s="9" t="s">
         <v>62</v>
       </c>
@@ -71225,7 +72212,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D7" s="9" t="s">
         <v>63</v>
       </c>
@@ -71239,7 +72226,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
@@ -71250,7 +72237,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D9" s="9" t="s">
         <v>65</v>
       </c>
@@ -71264,7 +72251,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D10" s="9" t="s">
         <v>66</v>
       </c>
@@ -71278,7 +72265,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D11" s="9" t="s">
         <v>67</v>
       </c>
@@ -71292,7 +72279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D12" s="9" t="s">
         <v>68</v>
       </c>
@@ -71306,7 +72293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D13" s="9" t="s">
         <v>69</v>
       </c>
@@ -71320,7 +72307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D14" s="9" t="s">
         <v>70</v>
       </c>
@@ -71334,7 +72321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D15" s="9" t="s">
         <v>71</v>
       </c>
@@ -71348,7 +72335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D16" s="9" t="s">
         <v>72</v>
       </c>
@@ -71362,7 +72349,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="9" t="s">
         <v>73</v>
       </c>
@@ -71376,7 +72363,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" s="11" t="s">
         <v>58</v>
       </c>
@@ -71390,7 +72377,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" s="11" t="s">
         <v>75</v>
       </c>
@@ -71404,7 +72391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" s="11"/>
       <c r="F20" s="3" t="s">
         <v>35</v>
@@ -71416,7 +72403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D21" s="11" t="s">
         <v>77</v>
       </c>
@@ -71430,7 +72417,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D22" s="11" t="s">
         <v>78</v>
       </c>
@@ -71444,7 +72431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D23" s="11" t="s">
         <v>79</v>
       </c>
@@ -71458,7 +72445,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D24" s="11" t="s">
         <v>80</v>
       </c>
@@ -71472,7 +72459,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D25" s="11" t="s">
         <v>81</v>
       </c>
@@ -71486,7 +72473,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D26" s="11" t="s">
         <v>76</v>
       </c>
@@ -71500,7 +72487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D27" s="11" t="s">
         <v>82</v>
       </c>
@@ -71514,7 +72501,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28" s="11" t="s">
         <v>83</v>
       </c>
@@ -71528,7 +72515,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F29" s="4" t="s">
         <v>48</v>
       </c>
@@ -71539,7 +72526,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F30" s="4" t="s">
         <v>49</v>
       </c>
@@ -71550,7 +72537,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F31" s="3" t="s">
         <v>50</v>
       </c>
@@ -71561,7 +72548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F32" s="3" t="s">
         <v>52</v>
       </c>
@@ -71572,7 +72559,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F33" s="3" t="s">
         <v>55</v>
       </c>
@@ -71583,7 +72570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F34" s="3" t="s">
         <v>56</v>
       </c>
@@ -71600,7 +72587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M47"/>
   <sheetViews>
@@ -71609,61 +72596,61 @@
       <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="92"/>
+    <col min="2" max="2" width="8.85546875" style="91"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="40" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="88" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13" s="87" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="90" t="s">
         <v>516</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="87" t="s">
         <v>515</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="87" t="s">
         <v>503</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="88" t="s">
         <v>508</v>
       </c>
-      <c r="F1" s="90" t="s">
+      <c r="F1" s="89" t="s">
         <v>509</v>
       </c>
-      <c r="G1" s="90" t="s">
+      <c r="G1" s="89" t="s">
         <v>510</v>
       </c>
-      <c r="H1" s="90" t="s">
+      <c r="H1" s="89" t="s">
         <v>511</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="I1" s="89" t="s">
         <v>512</v>
       </c>
-      <c r="J1" s="90" t="s">
+      <c r="J1" s="89" t="s">
         <v>513</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="L1" s="90" t="s">
+      <c r="L1" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="90" t="s">
+      <c r="M1" s="89" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>108</v>
       </c>
@@ -71673,7 +72660,7 @@
       <c r="F2" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="80">
+      <c r="G2" s="79">
         <v>28956</v>
       </c>
       <c r="J2">
@@ -71681,7 +72668,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>383</v>
       </c>
@@ -71691,7 +72678,7 @@
       <c r="F3" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="80" t="s">
+      <c r="G3" s="79" t="s">
         <v>145</v>
       </c>
       <c r="J3">
@@ -71699,11 +72686,11 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="92" t="s">
         <v>517</v>
       </c>
       <c r="C4">
@@ -71718,7 +72705,7 @@
       <c r="F4" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="80">
+      <c r="G4" s="79">
         <v>34970</v>
       </c>
       <c r="J4">
@@ -71726,7 +72713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>317</v>
       </c>
@@ -71736,7 +72723,7 @@
       <c r="F5" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="80">
+      <c r="G5" s="79">
         <v>29587</v>
       </c>
       <c r="J5">
@@ -71744,11 +72731,11 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>127</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="92" t="s">
         <v>517</v>
       </c>
       <c r="C6">
@@ -71763,7 +72750,7 @@
       <c r="F6" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="80">
+      <c r="G6" s="79">
         <v>29221</v>
       </c>
       <c r="J6">
@@ -71771,11 +72758,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="91" t="s">
         <v>522</v>
       </c>
       <c r="C7">
@@ -71790,7 +72777,7 @@
       <c r="F7" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="80">
+      <c r="G7" s="79">
         <v>30027</v>
       </c>
       <c r="J7">
@@ -71798,7 +72785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>314</v>
       </c>
@@ -71808,7 +72795,7 @@
       <c r="F8" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="80">
+      <c r="G8" s="79">
         <v>30730</v>
       </c>
       <c r="J8">
@@ -71816,33 +72803,33 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>504</v>
       </c>
       <c r="F9" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="80"/>
+      <c r="G9" s="79"/>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>322</v>
       </c>
       <c r="F10" t="s">
         <v>518</v>
       </c>
-      <c r="G10" s="80"/>
+      <c r="G10" s="79"/>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>116</v>
       </c>
@@ -71852,7 +72839,7 @@
       <c r="F11" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="80" t="s">
+      <c r="G11" s="79" t="s">
         <v>143</v>
       </c>
       <c r="J11">
@@ -71860,7 +72847,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>115</v>
       </c>
@@ -71870,7 +72857,7 @@
       <c r="F12" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="G12" s="79" t="s">
         <v>142</v>
       </c>
       <c r="J12">
@@ -71878,7 +72865,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>114</v>
       </c>
@@ -71888,7 +72875,7 @@
       <c r="F13" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="79" t="s">
         <v>141</v>
       </c>
       <c r="J13">
@@ -71896,7 +72883,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>113</v>
       </c>
@@ -71906,7 +72893,7 @@
       <c r="F14" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="80" t="s">
+      <c r="G14" s="79" t="s">
         <v>140</v>
       </c>
       <c r="J14">
@@ -71914,7 +72901,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>112</v>
       </c>
@@ -71924,7 +72911,7 @@
       <c r="F15" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="80">
+      <c r="G15" s="79">
         <v>26845</v>
       </c>
       <c r="J15">
@@ -71932,7 +72919,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>111</v>
       </c>
@@ -71942,7 +72929,7 @@
       <c r="F16" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="80" t="s">
+      <c r="G16" s="79" t="s">
         <v>139</v>
       </c>
       <c r="J16">
@@ -71950,7 +72937,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>110</v>
       </c>
@@ -71960,7 +72947,7 @@
       <c r="F17" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="79" t="s">
         <v>138</v>
       </c>
       <c r="J17">
@@ -71968,7 +72955,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>108</v>
       </c>
@@ -71978,7 +72965,7 @@
       <c r="F18" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="80">
+      <c r="G18" s="79">
         <v>28956</v>
       </c>
       <c r="J18">
@@ -71986,14 +72973,14 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>495</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="80">
+      <c r="G19" s="79">
         <v>0</v>
       </c>
       <c r="J19">
@@ -72001,14 +72988,14 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>497</v>
       </c>
       <c r="F20" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="80">
+      <c r="G20" s="79">
         <v>0</v>
       </c>
       <c r="J20">
@@ -72016,14 +73003,14 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>498</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="80">
+      <c r="G21" s="79">
         <v>0</v>
       </c>
       <c r="J21">
@@ -72031,7 +73018,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>136</v>
       </c>
@@ -72041,7 +73028,7 @@
       <c r="F22" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="80">
+      <c r="G22" s="79">
         <v>28333</v>
       </c>
       <c r="J22">
@@ -72049,14 +73036,14 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>505</v>
       </c>
       <c r="F23" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="80">
+      <c r="G23" s="79">
         <v>0</v>
       </c>
       <c r="J23">
@@ -72064,7 +73051,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>129</v>
       </c>
@@ -72074,7 +73061,7 @@
       <c r="F24" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="80">
+      <c r="G24" s="79">
         <v>28235</v>
       </c>
       <c r="J24">
@@ -72082,27 +73069,27 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>506</v>
       </c>
       <c r="F25" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="80"/>
+      <c r="G25" s="79"/>
       <c r="J25">
         <f t="shared" ca="1" si="0"/>
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>493</v>
       </c>
       <c r="F26" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="80">
+      <c r="G26" s="79">
         <v>0</v>
       </c>
       <c r="J26">
@@ -72110,14 +73097,14 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>152</v>
       </c>
       <c r="F27" t="s">
         <v>109</v>
       </c>
-      <c r="G27" s="80">
+      <c r="G27" s="79">
         <v>0</v>
       </c>
       <c r="J27">
@@ -72125,14 +73112,14 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>494</v>
       </c>
       <c r="F28" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="80">
+      <c r="G28" s="79">
         <v>0</v>
       </c>
       <c r="J28">
@@ -72140,14 +73127,14 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>148</v>
       </c>
       <c r="F29" t="s">
         <v>507</v>
       </c>
-      <c r="G29" s="80">
+      <c r="G29" s="79">
         <v>29692</v>
       </c>
       <c r="J29">
@@ -72155,7 +73142,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>146</v>
       </c>
@@ -72165,7 +73152,7 @@
       <c r="F30" t="s">
         <v>149</v>
       </c>
-      <c r="G30" s="80">
+      <c r="G30" s="79">
         <v>27425</v>
       </c>
       <c r="J30">
@@ -72173,11 +73160,11 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="92" t="s">
         <v>517</v>
       </c>
       <c r="C31">
@@ -72192,7 +73179,7 @@
       <c r="F31" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="80">
+      <c r="G31" s="79">
         <v>31088</v>
       </c>
       <c r="H31" t="s">
@@ -72206,11 +73193,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>127</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="92" t="s">
         <v>517</v>
       </c>
       <c r="C32">
@@ -72225,7 +73212,7 @@
       <c r="F32" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="80">
+      <c r="G32" s="79">
         <v>34976</v>
       </c>
       <c r="H32" t="s">
@@ -72239,11 +73226,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="92" t="s">
         <v>517</v>
       </c>
       <c r="C33">
@@ -72258,7 +73245,7 @@
       <c r="F33" t="s">
         <v>109</v>
       </c>
-      <c r="G33" s="80">
+      <c r="G33" s="79">
         <v>34281</v>
       </c>
       <c r="H33" t="s">
@@ -72272,11 +73259,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="92" t="s">
         <v>517</v>
       </c>
       <c r="C34">
@@ -72291,7 +73278,7 @@
       <c r="F34" t="s">
         <v>109</v>
       </c>
-      <c r="G34" s="80">
+      <c r="G34" s="79">
         <v>35884</v>
       </c>
       <c r="H34" t="s">
@@ -72305,11 +73292,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="92" t="s">
         <v>522</v>
       </c>
       <c r="C35">
@@ -72324,7 +73311,7 @@
       <c r="F35" t="s">
         <v>109</v>
       </c>
-      <c r="G35" s="80">
+      <c r="G35" s="79">
         <v>29205</v>
       </c>
       <c r="H35" t="s">
@@ -72338,11 +73325,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="91" t="s">
         <v>517</v>
       </c>
       <c r="C36">
@@ -72357,7 +73344,7 @@
       <c r="F36" t="s">
         <v>109</v>
       </c>
-      <c r="G36" s="80">
+      <c r="G36" s="79">
         <v>36804</v>
       </c>
       <c r="H36" t="s">
@@ -72371,11 +73358,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>127</v>
       </c>
-      <c r="B37" s="92" t="s">
+      <c r="B37" s="91" t="s">
         <v>523</v>
       </c>
       <c r="C37">
@@ -72390,7 +73377,7 @@
       <c r="F37" t="s">
         <v>109</v>
       </c>
-      <c r="G37" s="80">
+      <c r="G37" s="79">
         <v>36767</v>
       </c>
       <c r="H37" t="s">
@@ -72404,11 +73391,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>127</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="91" t="s">
         <v>517</v>
       </c>
       <c r="C38">
@@ -72423,7 +73410,7 @@
       <c r="F38" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="80">
+      <c r="G38" s="79">
         <v>35555</v>
       </c>
       <c r="H38" t="s">
@@ -72437,11 +73424,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>127</v>
       </c>
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="91" t="s">
         <v>517</v>
       </c>
       <c r="C39">
@@ -72456,7 +73443,7 @@
       <c r="F39" t="s">
         <v>109</v>
       </c>
-      <c r="G39" s="80">
+      <c r="G39" s="79">
         <v>36242</v>
       </c>
       <c r="H39" t="s">
@@ -72470,11 +73457,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>127</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="91" t="s">
         <v>517</v>
       </c>
       <c r="C40">
@@ -72489,7 +73476,7 @@
       <c r="F40" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="80">
+      <c r="G40" s="79">
         <v>34041</v>
       </c>
       <c r="H40" t="s">
@@ -72503,11 +73490,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="91" t="s">
         <v>517</v>
       </c>
       <c r="C41">
@@ -72522,7 +73509,7 @@
       <c r="F41" t="s">
         <v>109</v>
       </c>
-      <c r="G41" s="80">
+      <c r="G41" s="79">
         <v>34974</v>
       </c>
       <c r="H41" t="s">
@@ -72536,11 +73523,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="91" t="s">
         <v>517</v>
       </c>
       <c r="C42">
@@ -72555,7 +73542,7 @@
       <c r="F42" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="80">
+      <c r="G42" s="79">
         <v>35580</v>
       </c>
       <c r="H42" t="s">
@@ -72569,11 +73556,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>127</v>
       </c>
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="91" t="s">
         <v>517</v>
       </c>
       <c r="C43">
@@ -72588,7 +73575,7 @@
       <c r="F43" t="s">
         <v>109</v>
       </c>
-      <c r="G43" s="80">
+      <c r="G43" s="79">
         <v>27567</v>
       </c>
       <c r="H43" t="s">
@@ -72602,11 +73589,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>127</v>
       </c>
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="91" t="s">
         <v>522</v>
       </c>
       <c r="C44">
@@ -72621,7 +73608,7 @@
       <c r="F44" t="s">
         <v>109</v>
       </c>
-      <c r="G44" s="80">
+      <c r="G44" s="79">
         <v>29696</v>
       </c>
       <c r="H44" t="s">
@@ -72635,11 +73622,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="91" t="s">
         <v>517</v>
       </c>
       <c r="C45">
@@ -72654,7 +73641,7 @@
       <c r="F45" t="s">
         <v>109</v>
       </c>
-      <c r="G45" s="80">
+      <c r="G45" s="79">
         <v>31416</v>
       </c>
       <c r="H45" t="s">
@@ -72668,11 +73655,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="91" t="s">
         <v>517</v>
       </c>
       <c r="C46">
@@ -72687,7 +73674,7 @@
       <c r="F46" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="80">
+      <c r="G46" s="79">
         <v>37008</v>
       </c>
       <c r="H46" t="s">
@@ -72701,11 +73688,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>127</v>
       </c>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="91" t="s">
         <v>517</v>
       </c>
       <c r="C47">
@@ -72720,7 +73707,7 @@
       <c r="F47" t="s">
         <v>109</v>
       </c>
-      <c r="G47" s="80">
+      <c r="G47" s="79">
         <v>33816</v>
       </c>
       <c r="H47" t="s">
@@ -72735,7 +73722,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M47" xr:uid="{00000000-0009-0000-0000-00000A000000}">
+  <autoFilter ref="A1:M47">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -72748,28 +73735,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q8"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="32"/>
-    <col min="4" max="4" width="39.33203125" style="32" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="32"/>
-    <col min="7" max="10" width="8.109375" style="32" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" style="32" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" style="32" customWidth="1"/>
-    <col min="13" max="16" width="10.88671875" style="32" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" style="32" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="32"/>
+    <col min="1" max="3" width="8.85546875" style="32"/>
+    <col min="4" max="4" width="39.28515625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="32"/>
+    <col min="7" max="10" width="8.140625" style="32" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="32" customWidth="1"/>
+    <col min="13" max="16" width="10.85546875" style="32" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="32" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" s="41" customFormat="1" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:17" s="41" customFormat="1" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="42" t="s">
         <v>153</v>
       </c>
@@ -72820,8 +73807,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="111">
+    <row r="2" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="110">
         <v>1</v>
       </c>
       <c r="D2" s="30" t="s">
@@ -72843,35 +73830,35 @@
       <c r="J2" s="32">
         <v>2</v>
       </c>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113" t="str">
+      <c r="L2" s="111"/>
+      <c r="M2" s="112" t="str">
         <f>"Ngày "&amp;CHAR(10)&amp;L1+1&amp;" - "&amp;M1</f>
         <v>Ngày 
 1 - 20</v>
       </c>
-      <c r="N2" s="113" t="str">
+      <c r="N2" s="112" t="str">
         <f t="shared" ref="N2:Q2" si="1">"Ngày "&amp;CHAR(10)&amp;M1+1&amp;" - "&amp;N1</f>
         <v>Ngày 
 21 - 40</v>
       </c>
-      <c r="O2" s="113" t="str">
+      <c r="O2" s="112" t="str">
         <f t="shared" si="1"/>
         <v>Ngày 
 41 - 60</v>
       </c>
-      <c r="P2" s="113" t="str">
+      <c r="P2" s="112" t="str">
         <f t="shared" si="1"/>
         <v>Ngày 
 61 - 75</v>
       </c>
-      <c r="Q2" s="113" t="str">
+      <c r="Q2" s="112" t="str">
         <f t="shared" si="1"/>
         <v>Ngày 
 76 - 90</v>
       </c>
     </row>
-    <row r="3" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="111">
+    <row r="3" spans="3:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="110">
         <v>2</v>
       </c>
       <c r="D3" s="30" t="s">
@@ -72897,8 +73884,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="111">
+    <row r="4" spans="3:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="110">
         <v>3</v>
       </c>
       <c r="D4" s="30" t="s">
@@ -72939,8 +73926,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="111">
+    <row r="5" spans="3:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="110">
         <v>4</v>
       </c>
       <c r="D5" s="30" t="s">
@@ -72984,8 +73971,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="111">
+    <row r="6" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="110">
         <v>5</v>
       </c>
       <c r="D6" s="30" t="s">
@@ -73029,8 +74016,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="118.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="111">
+    <row r="7" spans="3:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="110">
         <v>6</v>
       </c>
       <c r="D7" s="44" t="s">
@@ -73053,8 +74040,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="111">
+    <row r="8" spans="3:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="110">
         <v>7</v>
       </c>
       <c r="D8" s="30" t="s">
@@ -73084,37 +74071,37 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F18" sqref="F18:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="44.33203125" customWidth="1"/>
-    <col min="6" max="10" width="8.88671875" style="40"/>
+    <col min="5" max="5" width="44.28515625" customWidth="1"/>
+    <col min="6" max="10" width="8.85546875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="136" t="s">
+    <row r="1" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="140" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="142" t="s">
+      <c r="F1" s="143" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="145"/>
     </row>
-    <row r="2" spans="4:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D2" s="137"/>
-      <c r="E2" s="140"/>
+    <row r="2" spans="4:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D2" s="138"/>
+      <c r="E2" s="141"/>
       <c r="F2" s="34" t="s">
         <v>163</v>
       </c>
@@ -73131,9 +74118,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="138"/>
-      <c r="E3" s="141"/>
+    <row r="3" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="139"/>
+      <c r="E3" s="142"/>
       <c r="F3" s="36" t="s">
         <v>168</v>
       </c>
@@ -73150,33 +74137,33 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="33">
         <v>1</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="39"/>
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
     </row>
-    <row r="5" spans="4:10" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="33">
         <v>2</v>
       </c>
       <c r="E5" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="F5" s="99"/>
-      <c r="G5" s="100"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="39"/>
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
     </row>
-    <row r="6" spans="4:10" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="33">
         <v>3</v>
       </c>
@@ -73189,7 +74176,7 @@
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="33">
         <v>4</v>
       </c>
@@ -73202,7 +74189,7 @@
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
     </row>
-    <row r="8" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="33">
         <v>5</v>
       </c>
@@ -73215,7 +74202,7 @@
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
     </row>
-    <row r="9" spans="4:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="33">
         <v>6</v>
       </c>
@@ -73228,7 +74215,7 @@
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
     </row>
-    <row r="10" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="33">
         <v>7</v>
       </c>
@@ -73241,153 +74228,153 @@
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
     </row>
-    <row r="17" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="145" t="s">
+    <row r="17" spans="4:11" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="145" t="s">
+      <c r="E18" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="148" t="s">
+      <c r="F18" s="149" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="149"/>
-      <c r="H18" s="149"/>
-      <c r="I18" s="149"/>
-      <c r="J18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="151"/>
       <c r="K18">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="4:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="102" t="s">
+    <row r="19" spans="4:11" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="G19" s="101" t="s">
+      <c r="G19" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="H19" s="101" t="s">
+      <c r="H19" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="I19" s="101" t="s">
+      <c r="I19" s="100" t="s">
         <v>163</v>
       </c>
-      <c r="J19" s="101" t="s">
+      <c r="J19" s="100" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="110" t="s">
+    <row r="20" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="109" t="s">
         <v>548</v>
       </c>
-      <c r="G20" s="103" t="s">
+      <c r="G20" s="102" t="s">
         <v>549</v>
       </c>
-      <c r="H20" s="103" t="s">
+      <c r="H20" s="102" t="s">
         <v>550</v>
       </c>
-      <c r="I20" s="103" t="s">
+      <c r="I20" s="102" t="s">
         <v>540</v>
       </c>
-      <c r="J20" s="103" t="s">
+      <c r="J20" s="102" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D21" s="104" t="s">
+    <row r="21" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="103" t="s">
         <v>541</v>
       </c>
-      <c r="E21" s="105" t="s">
+      <c r="E21" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="F21" s="106"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
     </row>
-    <row r="22" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D22" s="104" t="s">
+    <row r="22" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="103" t="s">
         <v>542</v>
       </c>
-      <c r="E22" s="105" t="s">
+      <c r="E22" s="104" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="106"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
     </row>
-    <row r="23" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D23" s="104" t="s">
+    <row r="23" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="103" t="s">
         <v>543</v>
       </c>
-      <c r="E23" s="105" t="s">
+      <c r="E23" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="106"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
     </row>
-    <row r="24" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="104" t="s">
+    <row r="24" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="103" t="s">
         <v>544</v>
       </c>
-      <c r="E24" s="105" t="s">
+      <c r="E24" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="107"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
     </row>
-    <row r="25" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="104" t="s">
+    <row r="25" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="103" t="s">
         <v>545</v>
       </c>
-      <c r="E25" s="105" t="s">
+      <c r="E25" s="104" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
     </row>
-    <row r="26" spans="4:11" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="104" t="s">
+    <row r="26" spans="4:11" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="103" t="s">
         <v>546</v>
       </c>
-      <c r="E26" s="108" t="s">
+      <c r="E26" s="107" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
     </row>
-    <row r="27" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="104" t="s">
+    <row r="27" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="103" t="s">
         <v>547</v>
       </c>
-      <c r="E27" s="105" t="s">
+      <c r="E27" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="109"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/TongHopDuThau.xlsx
+++ b/TongHopDuThau.xlsx
@@ -32,7 +32,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DanhMucBCap!$C$1:$I$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">HopDongTuongTu!$A$1:$J$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">NhanSu!$A$1:$V$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">NhanSu!$A$1:$V$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">NhanSuMoi!$A$1:$M$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NhaSX-CungCap'!$A$1:$J$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">PhanBoCatDien!$B$1:$I$15</definedName>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="663">
   <si>
     <t>CongTrinh</t>
   </si>
@@ -2231,6 +2231,12 @@
   <si>
     <t>03/05/2020</t>
   </si>
+  <si>
+    <t>Cán bộ kỹ thuật</t>
+  </si>
+  <si>
+    <t>Cử nhân kinh tế</t>
+  </si>
 </sst>
 </file>
 
@@ -3036,7 +3042,27 @@
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3265,7 +3291,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD6E85A7-B40A-4887-B87C-EAEE490EF58D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6E85A7-B40A-4887-B87C-EAEE490EF58D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3321,7 +3347,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F78336F6-B8EE-492C-BE90-B91532F08161}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78336F6-B8EE-492C-BE90-B91532F08161}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3377,7 +3403,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17EE33B0-9F33-4BD9-BAC8-E82B191C6EE7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EE33B0-9F33-4BD9-BAC8-E82B191C6EE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3433,7 +3459,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD2BFFC3-2B5E-451D-9351-8DEC5173377D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2BFFC3-2B5E-451D-9351-8DEC5173377D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3489,7 +3515,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C873A17-B2AA-4D01-A597-03FFBAFD241E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C873A17-B2AA-4D01-A597-03FFBAFD241E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3545,7 +3571,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A664728-7B38-4FF3-85B9-E928518432AA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A664728-7B38-4FF3-85B9-E928518432AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -64111,7 +64137,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -65878,7 +65904,7 @@
   </sheetData>
   <autoFilter ref="B1:I15"/>
   <conditionalFormatting sqref="E1:I11 E13:I1048576 E12:G12 I12">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65889,19 +65915,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I33" sqref="I33"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" style="24"/>
-    <col min="3" max="3" width="23.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13" style="24" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="27"/>
     <col min="5" max="5" width="8.85546875" style="24"/>
     <col min="6" max="6" width="30.140625" style="24" bestFit="1" customWidth="1"/>
@@ -65911,7 +65938,7 @@
     <col min="10" max="10" width="12.85546875" style="25" customWidth="1"/>
     <col min="11" max="11" width="8.85546875" style="24"/>
     <col min="12" max="12" width="13" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="27" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="27" customWidth="1"/>
     <col min="14" max="14" width="50.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.28515625" style="24" customWidth="1"/>
     <col min="16" max="16384" width="8.85546875" style="24"/>
@@ -65966,13 +65993,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="62" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="62" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>486</v>
-      </c>
-      <c r="B2" s="62" t="e">
-        <f>VLOOKUP(F2,NhanSuMoi!#REF!,1,0)</f>
-        <v>#REF!</v>
       </c>
       <c r="C2" s="62">
         <v>2012</v>
@@ -66017,14 +66040,11 @@
       <c r="U2" s="24"/>
       <c r="V2" s="24"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="B3" s="62" t="e">
-        <f>VLOOKUP(F3,NhanSuMoi!#REF!,1,0)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B3" s="62"/>
       <c r="C3" s="24">
         <v>2012</v>
       </c>
@@ -66057,7 +66077,7 @@
         <v>41396</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
@@ -66096,6 +66116,9 @@
       <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
+      <c r="B5" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="C5" s="24">
         <v>2019</v>
       </c>
@@ -66128,7 +66151,7 @@
         <v>29221</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>109</v>
       </c>
@@ -66164,7 +66187,7 @@
         <v>30027</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>109</v>
       </c>
@@ -66200,7 +66223,7 @@
         <v>31088</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>109</v>
       </c>
@@ -66236,7 +66259,7 @@
         <v>34976</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>109</v>
       </c>
@@ -66272,7 +66295,7 @@
         <v>34281</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>109</v>
       </c>
@@ -66308,7 +66331,7 @@
         <v>35884</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>109</v>
       </c>
@@ -66344,7 +66367,7 @@
         <v>29205</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>109</v>
       </c>
@@ -66380,7 +66403,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>109</v>
       </c>
@@ -66416,7 +66439,7 @@
         <v>36767</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>109</v>
       </c>
@@ -66452,7 +66475,7 @@
         <v>35555</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>109</v>
       </c>
@@ -66488,7 +66511,7 @@
         <v>36242</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>109</v>
       </c>
@@ -66524,7 +66547,7 @@
         <v>34041</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>109</v>
       </c>
@@ -66560,7 +66583,7 @@
         <v>34974</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>109</v>
       </c>
@@ -66596,7 +66619,7 @@
         <v>35580</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>109</v>
       </c>
@@ -66632,7 +66655,7 @@
         <v>27567</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>109</v>
       </c>
@@ -66668,7 +66691,7 @@
         <v>29696</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>109</v>
       </c>
@@ -66704,7 +66727,7 @@
         <v>31416</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>109</v>
       </c>
@@ -66740,7 +66763,7 @@
         <v>37008</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>109</v>
       </c>
@@ -66776,7 +66799,7 @@
         <v>33816</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="E24" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66829,7 +66852,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="62"/>
       <c r="E25" s="84">
         <f t="shared" si="0"/>
@@ -66865,7 +66888,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="E26" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66881,7 +66904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="E27" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66904,7 +66927,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="E28" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66924,7 +66947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="E29" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66940,7 +66963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="E30" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66956,7 +66979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="E31" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -66976,7 +66999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="62"/>
       <c r="E32" s="84">
         <f t="shared" si="0"/>
@@ -67008,7 +67031,13 @@
         <v>29587</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="E33" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67017,7 +67046,7 @@
         <v>151</v>
       </c>
       <c r="G33" s="86">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="H33" s="84" t="s">
         <v>109</v>
@@ -67027,12 +67056,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="M33" s="28">
+        <v>30303</v>
+      </c>
       <c r="O33" s="26">
         <v>43103</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="62"/>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="62" t="s">
+        <v>127</v>
+      </c>
       <c r="E34" s="84">
         <f t="shared" ref="E34:E52" si="3">D34</f>
         <v>0</v>
@@ -67041,7 +67078,7 @@
         <v>314</v>
       </c>
       <c r="G34" s="86">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="H34" s="84" t="s">
         <v>109</v>
@@ -67063,7 +67100,13 @@
         <v>30730</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="E35" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67071,15 +67114,26 @@
       <c r="F35" s="85" t="s">
         <v>494</v>
       </c>
-      <c r="G35" s="86"/>
+      <c r="G35" s="86">
+        <v>44014</v>
+      </c>
       <c r="H35" s="84"/>
       <c r="I35" s="84"/>
       <c r="K35" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="M35" s="28">
+        <v>27534</v>
+      </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="E36" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67087,15 +67141,20 @@
       <c r="F36" s="85" t="s">
         <v>495</v>
       </c>
-      <c r="G36" s="86"/>
+      <c r="G36" s="86">
+        <v>44014</v>
+      </c>
       <c r="H36" s="84"/>
       <c r="I36" s="84"/>
       <c r="K36" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="M36" s="28">
+        <v>30596</v>
+      </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="62"/>
       <c r="E37" s="84">
         <f t="shared" si="3"/>
@@ -67105,7 +67164,7 @@
         <v>115</v>
       </c>
       <c r="G37" s="86">
-        <v>44017</v>
+        <v>44014</v>
       </c>
       <c r="H37" s="84" t="s">
         <v>109</v>
@@ -67130,7 +67189,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="62"/>
       <c r="E38" s="84">
         <f t="shared" si="3"/>
@@ -67140,7 +67199,7 @@
         <v>110</v>
       </c>
       <c r="G38" s="86">
-        <v>44018</v>
+        <v>44014</v>
       </c>
       <c r="H38" s="84" t="s">
         <v>109</v>
@@ -67163,7 +67222,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="E39" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67172,7 +67231,7 @@
         <v>122</v>
       </c>
       <c r="G39" s="86">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="H39" s="84" t="s">
         <v>109</v>
@@ -67183,7 +67242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="E40" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67192,7 +67251,7 @@
         <v>120</v>
       </c>
       <c r="G40" s="86">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="H40" s="84" t="s">
         <v>109</v>
@@ -67203,7 +67262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="E41" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67212,7 +67271,7 @@
         <v>121</v>
       </c>
       <c r="G41" s="86">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="H41" s="84" t="s">
         <v>109</v>
@@ -67223,7 +67282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="E42" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67232,7 +67291,7 @@
         <v>123</v>
       </c>
       <c r="G42" s="86">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="H42" s="84" t="s">
         <v>109</v>
@@ -67243,7 +67302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="62"/>
       <c r="E43" s="84">
         <f t="shared" si="3"/>
@@ -67253,7 +67312,7 @@
         <v>116</v>
       </c>
       <c r="G43" s="86">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="H43" s="84" t="s">
         <v>109</v>
@@ -67276,7 +67335,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="62"/>
       <c r="E44" s="84">
         <f t="shared" si="3"/>
@@ -67286,7 +67345,7 @@
         <v>114</v>
       </c>
       <c r="G44" s="86">
-        <v>44017</v>
+        <v>44014</v>
       </c>
       <c r="H44" s="84" t="s">
         <v>109</v>
@@ -67311,7 +67370,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="62"/>
       <c r="E45" s="84">
         <f t="shared" si="3"/>
@@ -67321,7 +67380,7 @@
         <v>108</v>
       </c>
       <c r="G45" s="86">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="H45" s="84" t="s">
         <v>109</v>
@@ -67346,7 +67405,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="62"/>
       <c r="E46" s="84">
         <f t="shared" si="3"/>
@@ -67356,7 +67415,7 @@
         <v>383</v>
       </c>
       <c r="G46" s="86">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="H46" s="84" t="s">
         <v>109</v>
@@ -67381,7 +67440,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="62"/>
       <c r="E47" s="84">
         <f t="shared" si="3"/>
@@ -67391,7 +67450,7 @@
         <v>113</v>
       </c>
       <c r="G47" s="86">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="H47" s="84" t="s">
         <v>109</v>
@@ -67414,7 +67473,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="E48" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67423,7 +67482,7 @@
         <v>125</v>
       </c>
       <c r="G48" s="86">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="H48" s="84" t="s">
         <v>109</v>
@@ -67434,7 +67493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="62"/>
       <c r="E49" s="84">
         <f t="shared" si="3"/>
@@ -67444,7 +67503,7 @@
         <v>111</v>
       </c>
       <c r="G49" s="86">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="H49" s="84" t="s">
         <v>109</v>
@@ -67467,7 +67526,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="62"/>
       <c r="E50" s="84">
         <f t="shared" si="3"/>
@@ -67477,7 +67536,7 @@
         <v>112</v>
       </c>
       <c r="G50" s="86">
-        <v>44017</v>
+        <v>44014</v>
       </c>
       <c r="H50" s="84" t="s">
         <v>109</v>
@@ -67502,7 +67561,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="E51" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67511,7 +67570,7 @@
         <v>119</v>
       </c>
       <c r="G51" s="86">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="H51" s="84" t="s">
         <v>109</v>
@@ -67522,7 +67581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="E52" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67531,7 +67590,7 @@
         <v>126</v>
       </c>
       <c r="G52" s="86">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="H52" s="84" t="s">
         <v>109</v>
@@ -67542,7 +67601,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>662</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E53" s="84"/>
+      <c r="F53" s="85" t="s">
+        <v>322</v>
+      </c>
+      <c r="G53" s="86"/>
+      <c r="H53" s="84" t="s">
+        <v>661</v>
+      </c>
+      <c r="I53" s="84"/>
+      <c r="K53" s="62"/>
+      <c r="M53" s="28">
+        <v>29541</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B60" s="24">
         <f>VLOOKUP(C60,F:K,6,0)</f>
         <v>3</v>
@@ -67551,7 +67631,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B61" s="24">
         <f t="shared" ref="B61:B79" si="4">VLOOKUP(C61,F:K,6,0)</f>
         <v>4</v>
@@ -67560,7 +67640,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B62" s="24">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -67569,7 +67649,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B63" s="24">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -67578,7 +67658,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B64" s="24">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -67723,18 +67803,26 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V52">
+  <autoFilter ref="A1:V53">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A2:V52">
       <sortCondition ref="D1:D52"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F53:F1048576 F7:F50 F1:F5">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  <conditionalFormatting sqref="F54:F1048576 F7:F50 F1:F5">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:F52">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -69363,7 +69451,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -70221,23 +70309,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A20:A1048576 A4:A10 A1">
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="16" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A19 A3">
-    <cfRule type="duplicateValues" dxfId="13" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -72114,25 +72202,25 @@
   </sheetData>
   <autoFilter ref="C1:I38"/>
   <conditionalFormatting sqref="D11:D1048576 D1:D2 D7 D9">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TongHopDuThau.xlsx
+++ b/TongHopDuThau.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="768" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="768" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="TBMT" sheetId="2" r:id="rId1"/>
@@ -23,11 +23,12 @@
     <sheet name="HopDongTuongTu" sheetId="11" r:id="rId14"/>
     <sheet name="MayThiCong" sheetId="22" r:id="rId15"/>
     <sheet name="CongNhan" sheetId="23" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="24" r:id="rId17"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DanhMucBCap!$C$1:$I$38</definedName>
@@ -37,6 +38,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NhaSX-CungCap'!$A$1:$J$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">PhanBoCatDien!$B$1:$I$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">QuyMoCongTrinh!$A$1:$G$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Sheet1!$C$1:$F$177</definedName>
     <definedName name="DGVC">[1]VCTC!$A$11:$J$33</definedName>
     <definedName name="DONGIA">[1]DG!$A$6:$H$613</definedName>
     <definedName name="dongia1">[2]DG!$A$5:$I$1360</definedName>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="837">
   <si>
     <t>CongTrinh</t>
   </si>
@@ -2073,15 +2075,9 @@
     <t>Nâng cấp đường dây trung hạ thế, cấy trạm biến áp khu vực xã Xuân Hiệp, Xuân Thọ, Lang Minh, Suối Cát, Bảo Hòa huyện Xuân Lộc năm 2019.</t>
   </si>
   <si>
-    <t>Hai tỷ sáu trăm mười bốn triệu năm trăm hai mươi nghìn một trăm bảy mươi tám đồng chẵn</t>
-  </si>
-  <si>
     <t>26.500.000 VND</t>
   </si>
   <si>
-    <t>Hai mươi sáu triệu năm trăm nghìn đồng chẵn</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ngày 22 tháng 04 năm 2020</t>
   </si>
   <si>
@@ -2196,30 +2192,9 @@
     <t>20200469878-00</t>
   </si>
   <si>
-    <t>Hoạt động chi thường xuyên</t>
-  </si>
-  <si>
     <t>Gói thầu: “Vận chuyển vật tư MDĐĐ và thi công công tơ khách hàng phát triển mới năm 2020”</t>
   </si>
   <si>
-    <t>Tên dự toán mua sắm</t>
-  </si>
-  <si>
-    <t>Dự án: Khách hàng dự kiến vận chuyển, gắn mới công tơ năm 2020 của Điện lực Xuân Lộc</t>
-  </si>
-  <si>
-    <t>Vốn sản xuất linh doanh năm 2020 của Công ty TNHH MTV Điện lực Đồng Nai</t>
-  </si>
-  <si>
-    <t>Chào hàng cạnh tranh rút gọn</t>
-  </si>
-  <si>
-    <t>525,769,158 VND</t>
-  </si>
-  <si>
-    <t>Năm trăm hai mươi năm triệu bảy trăm sáu mươi chín nghìn một trăm năm mươi tám đồng chẵn</t>
-  </si>
-  <si>
     <t>Huyện Xuân Lộc - Tỉnh Đồng Nai</t>
   </si>
   <si>
@@ -2236,6 +2211,555 @@
   </si>
   <si>
     <t>Cử nhân kinh tế</t>
+  </si>
+  <si>
+    <t>20200401924-00</t>
+  </si>
+  <si>
+    <t>Điện lực Cẩm Mỹ - Công Ty TNHH Một Thành Viên Điện Lực Đồng Nai</t>
+  </si>
+  <si>
+    <t>Điện lực Cẩm Mỹ - Công ty TNHH MTV Điện lực Đồng Nai địa chỉ Trung tâm hành chính huyện Cẩm Mỹ, ấp Suối Cả, xã Long Giao, huyện Cẩm Mỹ, tỉnh Đồng Nai. Điện thoại: 02513.878.429</t>
+  </si>
+  <si>
+    <t>Dự án đầu tư</t>
+  </si>
+  <si>
+    <t>Gói thầu số 2: Thi công xây lắp</t>
+  </si>
+  <si>
+    <t>Tên dự án</t>
+  </si>
+  <si>
+    <t>Nâng cấp và phát triển lưới điện trung thế nông thôn phục vụ sản xuất nông nghiệp tập trung huyện Cẩm Mỹ năm 2019-2020</t>
+  </si>
+  <si>
+    <t>Vốn vay ưu đãi của tỉnh Đồng Nai và vốn khấu hao cơ bản của Công ty TNHH MTV Điện lực Đồng Nai</t>
+  </si>
+  <si>
+    <t>Đấu thầu rộng rãi</t>
+  </si>
+  <si>
+    <t>319,192,345 VND</t>
+  </si>
+  <si>
+    <t>Ba trăm mười chín triệu một trăm chín mươi hai nghìn ba trăm bốn mươi năm đồng chẵn</t>
+  </si>
+  <si>
+    <t>4.000.000 VND</t>
+  </si>
+  <si>
+    <t>Bốn triệu đồng chẵn</t>
+  </si>
+  <si>
+    <t>Loại tiền chuyển đổi</t>
+  </si>
+  <si>
+    <t>Vietnamese Dong</t>
+  </si>
+  <si>
+    <t>Tại ngân hàng</t>
+  </si>
+  <si>
+    <t>Vietcombank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ngày 04 tháng 05 năm 2020</t>
+  </si>
+  <si>
+    <t>04/05/2021</t>
+  </si>
+  <si>
+    <t>04/05/2020</t>
+  </si>
+  <si>
+    <t>Hạng mục</t>
+  </si>
+  <si>
+    <t>Khối lượng</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Phần móng và tiếp địa</t>
+  </si>
+  <si>
+    <t>Móng M12</t>
+  </si>
+  <si>
+    <t>Móng</t>
+  </si>
+  <si>
+    <t>Mỗi móng gồm:</t>
+  </si>
+  <si>
+    <t>Đào, đắp đất móng M12</t>
+  </si>
+  <si>
+    <t>móng</t>
+  </si>
+  <si>
+    <t>0,251</t>
+  </si>
+  <si>
+    <t>Đắp đất hố móng (K=0,85)</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>Móng bê tông trụ đôi 12m</t>
+  </si>
+  <si>
+    <t>Bê tông mác M200 đá 1x2</t>
+  </si>
+  <si>
+    <t>Xi măng</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>384,4</t>
+  </si>
+  <si>
+    <t>Cát vàng</t>
+  </si>
+  <si>
+    <t>0,653</t>
+  </si>
+  <si>
+    <t>Đá 1x2</t>
+  </si>
+  <si>
+    <t>Boulon 16x550VRS + 2 long đền vuông D18-50x50x3/Zn</t>
+  </si>
+  <si>
+    <t>bộ</t>
+  </si>
+  <si>
+    <t>Boulon 16x650VRS + 2 long đền vuông D18-50x50x3/Zn</t>
+  </si>
+  <si>
+    <t>Boulon 16x750VRS + 2 long đền vuông D18-50x50x3/Zn</t>
+  </si>
+  <si>
+    <t>Bộ ván khuôn móng bê tông trụ đôi 12m</t>
+  </si>
+  <si>
+    <t>Đinh: 15kg/100m2 ván khuôn</t>
+  </si>
+  <si>
+    <t>0,670</t>
+  </si>
+  <si>
+    <t>Gỗ chống: 0,335 m3/100m2 ván khuôn</t>
+  </si>
+  <si>
+    <t>0,0150</t>
+  </si>
+  <si>
+    <t>Gỗ đà nẹp: 0,21 m3/100m2 ván khuôn</t>
+  </si>
+  <si>
+    <t>0,0094</t>
+  </si>
+  <si>
+    <t>Gỗ ván (cả nẹp): 0,792 m3/100m2 ván khuôn</t>
+  </si>
+  <si>
+    <t>0,0355</t>
+  </si>
+  <si>
+    <t>Lắp ván khuôn móng bê tông trụ đôi 12m</t>
+  </si>
+  <si>
+    <t>Đào, đắp đất móng bê tông trụ đôi 12m</t>
+  </si>
+  <si>
+    <t>0,429</t>
+  </si>
+  <si>
+    <t>Đổ bê tông mác M200 đá 1x2</t>
+  </si>
+  <si>
+    <t>Tiếp địa lặp lại (trụ 12m)</t>
+  </si>
+  <si>
+    <t>Bộ</t>
+  </si>
+  <si>
+    <t>Mỗi bộ gồm:</t>
+  </si>
+  <si>
+    <t>Cáp đồng trần M25mm2 (13,0m/bộ)</t>
+  </si>
+  <si>
+    <t>Cọc tiếp đất φ16 - 2,4m (mạ đồng 16µm)</t>
+  </si>
+  <si>
+    <t>cọc</t>
+  </si>
+  <si>
+    <t>Kẹp cọc tiếp địa</t>
+  </si>
+  <si>
+    <t>Kẹp ép WR cỡ dây 50mm2</t>
+  </si>
+  <si>
+    <t>cái</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ốc xiết cáp cỡ 38mm2 </t>
+  </si>
+  <si>
+    <t>Đào, đắp đất móng tiếp địa lặp lại trụ 12m</t>
+  </si>
+  <si>
+    <t>0,350</t>
+  </si>
+  <si>
+    <t>Đắp đất rãnh tiếp địa (K=0,85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kéo dây tiếp địa </t>
+  </si>
+  <si>
+    <t>Đóng cọc tiếp địa đất cấp 3</t>
+  </si>
+  <si>
+    <t>Tiếp địa LA trụ 12m (3 pha)</t>
+  </si>
+  <si>
+    <t>Đào, đắp đất móng tiếp địa lặp LA 3 pha trụ 12m</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Phần trụ</t>
+  </si>
+  <si>
+    <t>tấn</t>
+  </si>
+  <si>
+    <t>Trụ bê tông ly tâm 12m trồng thủ công+cơ giới</t>
+  </si>
+  <si>
+    <t>Trụ</t>
+  </si>
+  <si>
+    <t>Trụ BTLT 12m F540 dự ứng lực</t>
+  </si>
+  <si>
+    <t>trụ</t>
+  </si>
+  <si>
+    <t>Dựng trụ BTLT 12m thủ công + cơ giới</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Phần xà, néo</t>
+  </si>
+  <si>
+    <t>Bộ xà Composite bắt LA, FCO 3 pha</t>
+  </si>
+  <si>
+    <t>Đà hộp composite 110x80x5-2400</t>
+  </si>
+  <si>
+    <t>Thanh chống Composite dẹp 10x40x920</t>
+  </si>
+  <si>
+    <t>Bass LI bắt FCO, LA</t>
+  </si>
+  <si>
+    <t>Boulon 16x350+ 2 long đền vuông D18-50x50x3/Zn</t>
+  </si>
+  <si>
+    <t>Boulon 16x300+ 2 long đền vuông D18-50x50x3/Zn</t>
+  </si>
+  <si>
+    <t>Boulon 14x150+ 2 long đền vuông D16-50x50x3/Zn</t>
+  </si>
+  <si>
+    <t>Lắp đà composite 2400mm đơn</t>
+  </si>
+  <si>
+    <t>Bộ xà Composite bắt LA, FCO 3 pha (Trụ ghép)</t>
+  </si>
+  <si>
+    <t>Boulon 16x450VRS + 4 long đền vuông D18-50x50x3/Zn</t>
+  </si>
+  <si>
+    <t>Bộ xà lệch đơn L75x75x8 dài 2,1m</t>
+  </si>
+  <si>
+    <t>Đà sắt L75x75x8-2100 - 3 ốp (Lệch 100%)</t>
+  </si>
+  <si>
+    <t>Thanh chống L50x50x5-1990</t>
+  </si>
+  <si>
+    <t>Boulon 16x250+ 2 long đền vuông D18-50x50x3/Zn</t>
+  </si>
+  <si>
+    <t>Boulon 16x50+ 2 long đền vuông D18-50x50x3/Zn</t>
+  </si>
+  <si>
+    <t>Lắp đặt xà thép L75x75x8x2100 đơn cột đỡ</t>
+  </si>
+  <si>
+    <t>Bộ xà lệch kép L75x75x8 dài 2,1m</t>
+  </si>
+  <si>
+    <t>Boulon 16x300VRS + 4 long đền vuông D18-50x50x3/Zn</t>
+  </si>
+  <si>
+    <t>Lắp đặt xà thép L75x75x8x2100 kép cột đỡ</t>
+  </si>
+  <si>
+    <t>Bộ xà kép L75x75x8 dài 2.2m</t>
+  </si>
+  <si>
+    <t>Đà sắt L75x75x8-2200 - 4 ốp</t>
+  </si>
+  <si>
+    <t>Thanh chống L50x50x5-810</t>
+  </si>
+  <si>
+    <t>Lắp đặt xà thép L75x75x8x2200 kép cột néo</t>
+  </si>
+  <si>
+    <t>Bộ xà kép L75x75x8 dài 2.2m (hướng trụ ghép)</t>
+  </si>
+  <si>
+    <t>Boulon 16x450VRS + 2 long đền vuông D18-50x50x3/Zn</t>
+  </si>
+  <si>
+    <t>Bộ chằng xuống đơn cho trụ 12m</t>
+  </si>
+  <si>
+    <t>Boulon mắt 16x250+ long đền vuông D18-50x50x3/Zn</t>
+  </si>
+  <si>
+    <t>Sứ chằng lớn</t>
+  </si>
+  <si>
+    <t>Kẹp cáp 3 boulon B46x136</t>
+  </si>
+  <si>
+    <t>Cáp thép 5/8" (15m/bộ)</t>
+  </si>
+  <si>
+    <t>mét</t>
+  </si>
+  <si>
+    <t>15,0</t>
+  </si>
+  <si>
+    <t>Máng che dây chằng dày 0,8x2000mm</t>
+  </si>
+  <si>
+    <t>Lắp bộ dây neo DG trụ 12m</t>
+  </si>
+  <si>
+    <t>Bộ chằng lệch đơn cho trụ 12m</t>
+  </si>
+  <si>
+    <t>Cáp thép 5/8" (13m/bộ)</t>
+  </si>
+  <si>
+    <t>13,0</t>
+  </si>
+  <si>
+    <t>Bộ chống chằng hẹp φ60/50x1500+2BL12x40+BL16x250/80</t>
+  </si>
+  <si>
+    <t>Lắp bộ dây neo AG trụ 12m</t>
+  </si>
+  <si>
+    <t>Bộ móng neo xòe cho chằng xuống (TT)</t>
+  </si>
+  <si>
+    <t>Ty neo φ22x2400</t>
+  </si>
+  <si>
+    <t>Neo xòe 8 hướng (dày 3,2mm) + đĩa sen</t>
+  </si>
+  <si>
+    <t>Đào, đắp đất móng neo xuống trụ 12m</t>
+  </si>
+  <si>
+    <t>0,451</t>
+  </si>
+  <si>
+    <t>Bộ móng neo xòe cho chằng lệch (TT)</t>
+  </si>
+  <si>
+    <t>Đào, đắp đất móng neo lệch trụ 12m</t>
+  </si>
+  <si>
+    <t>Bộ Uclevis đỡ dây trung hòa (trụ đơn)</t>
+  </si>
+  <si>
+    <t>Uclevis - 3mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sứ ống chỉ </t>
+  </si>
+  <si>
+    <t>Bộ Uclevis đỡ dây trung hòa trụ ghép</t>
+  </si>
+  <si>
+    <t>Bộ khóa néo dây trung hòa vào trụ (cáp trần 50)</t>
+  </si>
+  <si>
+    <t>Khóa néo dây cỡ dây 50 (kẹp dừng dây 3U-3mm)</t>
+  </si>
+  <si>
+    <t>Boulon mắt 16x300+ long đền vuông D18-50x50x3/Zn</t>
+  </si>
+  <si>
+    <t>Bộ cách điện đứng+ty sứ : SĐU</t>
+  </si>
+  <si>
+    <t>Sứ đứng 24KV, đường rò 540mm</t>
+  </si>
+  <si>
+    <t>Chân sứ đứng 24kV</t>
+  </si>
+  <si>
+    <t>Bộ sứ treo Polymer 25kV lắp vào xà (cáp bọc 50)</t>
+  </si>
+  <si>
+    <t>chuỗi</t>
+  </si>
+  <si>
+    <t>Móc treo chữ U D16-100</t>
+  </si>
+  <si>
+    <t>Giáp níu dừng dây bọc 50 + Yếm móng U + Mắt nối yếm</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Phần dây, sứ và phụ kiện</t>
+  </si>
+  <si>
+    <t>Phần đường dây trung thế</t>
+  </si>
+  <si>
+    <t>Tbộ</t>
+  </si>
+  <si>
+    <t>Cáp nhôm lõi thép AC-50/8</t>
+  </si>
+  <si>
+    <t>119,0</t>
+  </si>
+  <si>
+    <t>Cáp 24KV ACX 50mm2</t>
+  </si>
+  <si>
+    <t>3.791,0</t>
+  </si>
+  <si>
+    <t>Cáp 24KV C/XLPE/PVC 25mm2</t>
+  </si>
+  <si>
+    <t>13,5</t>
+  </si>
+  <si>
+    <t>Kẹp ép WR cỡ dây 70mm2</t>
+  </si>
+  <si>
+    <t>Kẹp quai 4/0 (quai đồng 8mm)</t>
+  </si>
+  <si>
+    <t>Chụp cách điện kẹp quai</t>
+  </si>
+  <si>
+    <t>Kẹp hotline 2/0</t>
+  </si>
+  <si>
+    <t>Ống nối dây AC cỡ 50mm2 (Không lõi thép)</t>
+  </si>
+  <si>
+    <t>9,0</t>
+  </si>
+  <si>
+    <t>Dây phi kim buộc cổ sứ (trụ thẳng)</t>
+  </si>
+  <si>
+    <t>sợi</t>
+  </si>
+  <si>
+    <t>67,0</t>
+  </si>
+  <si>
+    <t>Dây phi kim buộc cổ sứ (trụ góc)</t>
+  </si>
+  <si>
+    <t>72,0</t>
+  </si>
+  <si>
+    <t>Ống bọc cách điện D30/15</t>
+  </si>
+  <si>
+    <t>Cáp nhôm A-70 (Buộc cổ sứ)</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>Dây chảy 8K</t>
+  </si>
+  <si>
+    <t>Sợi</t>
+  </si>
+  <si>
+    <t>Chụp đầu FCO (Trên + Dưới)</t>
+  </si>
+  <si>
+    <t>Bảng chỉ danh thiết bị</t>
+  </si>
+  <si>
+    <t>Kéo dây nhôm lõi thép cỡ dây 50mm2 (&lt;10m)</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>0,598</t>
+  </si>
+  <si>
+    <t>Kéo dây nhôm lõi thép bọc XLPE cỡ dây 50mm2 (≥10m)</t>
+  </si>
+  <si>
+    <t>Phần thiết bị đường dây trung thế 3 pha</t>
+  </si>
+  <si>
+    <t>FCO 27kV - 100A</t>
+  </si>
+  <si>
+    <t>LA 18kV 10kA</t>
+  </si>
+  <si>
+    <t>Nâng cấp 640,7 mét đường dây trung thế từ 1 pha 2AC50mm2 lên 3 pha 3ACX50+AC50mm2</t>
+  </si>
+  <si>
+    <t>Nâng cấp 01 TBA từ 1 pha 2x75kVA lên 3 pha 3x75kVA</t>
+  </si>
+  <si>
+    <t>Xây dựng mới 598 mét đường dây trung thế 3 pha 3ACX50+AC50mm2</t>
+  </si>
+  <si>
+    <t>Xây dựng mới mới 01 TBA 3 pha 3x50kVA</t>
   </si>
 </sst>
 </file>
@@ -2623,7 +3147,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2979,6 +3503,7 @@
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3291,7 +3816,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6E85A7-B40A-4887-B87C-EAEE490EF58D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD6E85A7-B40A-4887-B87C-EAEE490EF58D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3347,7 +3872,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78336F6-B8EE-492C-BE90-B91532F08161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F78336F6-B8EE-492C-BE90-B91532F08161}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3403,7 +3928,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EE33B0-9F33-4BD9-BAC8-E82B191C6EE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17EE33B0-9F33-4BD9-BAC8-E82B191C6EE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3459,7 +3984,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2BFFC3-2B5E-451D-9351-8DEC5173377D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD2BFFC3-2B5E-451D-9351-8DEC5173377D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3515,7 +4040,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C873A17-B2AA-4D01-A597-03FFBAFD241E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C873A17-B2AA-4D01-A597-03FFBAFD241E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3571,7 +4096,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A664728-7B38-4FF3-85B9-E928518432AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A664728-7B38-4FF3-85B9-E928518432AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -64137,7 +64662,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -64147,8 +64672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64228,7 +64753,7 @@
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
@@ -64238,7 +64763,7 @@
       </c>
       <c r="I4" s="48"/>
       <c r="J4" s="59">
-        <v>43949.581944444442</v>
+        <v>43950.622916666667</v>
       </c>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -64302,7 +64827,7 @@
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>258</v>
+        <v>655</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -64324,7 +64849,7 @@
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
@@ -64346,7 +64871,7 @@
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
@@ -64368,7 +64893,7 @@
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
@@ -64383,14 +64908,14 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Tên dự toán mua sắm</v>
+        <v>Tên dự án</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
@@ -64412,7 +64937,7 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -64456,7 +64981,7 @@
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="48">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
@@ -64520,7 +65045,7 @@
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
@@ -64604,7 +65129,7 @@
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="59">
-        <v>43949.581944444442</v>
+        <v>43950.622916666667</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
@@ -64614,7 +65139,7 @@
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="59">
-        <v>43963.604166666664</v>
+        <v>43965.583333333336</v>
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="48"/>
@@ -64712,7 +65237,7 @@
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="59">
-        <v>43963.604166666664</v>
+        <v>43965.583333333336</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
@@ -64756,7 +65281,7 @@
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
@@ -64778,7 +65303,7 @@
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
@@ -64811,9 +65336,11 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B31" s="48"/>
+        <v>Bảo đảm dự thầu</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>554</v>
+      </c>
       <c r="C31" s="48"/>
       <c r="D31" s="48"/>
       <c r="E31" s="48"/>
@@ -64829,11 +65356,15 @@
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B32" s="48"/>
+        <v>Hình thức đảm bảo</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>555</v>
+      </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
+      <c r="D32" s="48" t="s">
+        <v>224</v>
+      </c>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
       <c r="G32" s="48"/>
@@ -64844,85 +65375,85 @@
       <c r="L32" s="48"/>
       <c r="M32" s="48"/>
     </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Số tiền bằng chữ</v>
+        <v>Số tiền đảm bảo</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>608</v>
+        <v>665</v>
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B34" s="1"/>
+        <v>Số tiền bằng chữ</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>666</v>
+      </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Bảo đảm dự thầu</v>
+        <v>Loại tiền chuyển đổi</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>554</v>
+        <v>667</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>668</v>
+      </c>
       <c r="E35" s="1"/>
+      <c r="H35" t="s">
+        <v>669</v>
+      </c>
+      <c r="J35" t="s">
+        <v>670</v>
+      </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Hình thức đảm bảo</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>555</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Số tiền đảm bảo</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>308</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1" t="s">
-        <v>609</v>
-      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="str">
         <f t="shared" si="0"/>
-        <v>Số tiền bằng chữ</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>307</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
-        <v>610</v>
-      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65545,8 +66076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65583,7 +66114,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B2" s="117">
         <v>1</v>
       </c>
@@ -65592,21 +66123,21 @@
         <v>Lần cắt điện thứ 1</v>
       </c>
       <c r="D2" s="118" t="str">
-        <f t="array" ref="D2">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E2:I2&lt;&gt;0,E2:I2,""))</f>
-        <v xml:space="preserve"> - Xây dựng mới đường dây trung thế 3 pha cáp 3ACX95mm2+AC70mm2 dài  526,2 mét.
- - Xây dựng mới đường dây trung thế 3 pha ngầm cáp CXV/SE/ DSTA-3x70mm2 + CV35mm2 dài 40 mét.</v>
+        <f>" - "&amp;E2&amp;CHAR(10)&amp;" - "&amp;F2</f>
+        <v xml:space="preserve"> - Nâng cấp 640,7 mét đường dây trung thế từ 1 pha 2AC50mm2 lên 3 pha 3ACX50+AC50mm2
+ - Nâng cấp 01 TBA từ 1 pha 2x75kVA lên 3 pha 3x75kVA</v>
       </c>
       <c r="E2" s="133" t="s">
-        <v>581</v>
+        <v>833</v>
       </c>
       <c r="F2" s="133" t="s">
-        <v>582</v>
+        <v>834</v>
       </c>
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
       <c r="I2" s="114"/>
     </row>
-    <row r="3" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B3" s="117">
         <v>2</v>
       </c>
@@ -65615,18 +66146,21 @@
         <v>Lần cắt điện thứ 2</v>
       </c>
       <c r="D3" s="118" t="str">
-        <f t="array" ref="D3">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E3:I3&lt;&gt;0,E3:I3,""))</f>
-        <v xml:space="preserve"> - Nâng cấp đường dây trung thế từ 1 pha lên 3 pha cáp từ 2AC50mm2 thành 3ACX50mm2+AC50mm2 dài 2.580,2 mét.</v>
+        <f>" - "&amp;E3&amp;CHAR(10)&amp;" - "&amp;F3</f>
+        <v xml:space="preserve"> - Xây dựng mới 598 mét đường dây trung thế 3 pha 3ACX50+AC50mm2
+ - Xây dựng mới mới 01 TBA 3 pha 3x50kVA</v>
       </c>
       <c r="E3" s="114" t="s">
-        <v>583</v>
-      </c>
-      <c r="F3" s="114"/>
+        <v>835</v>
+      </c>
+      <c r="F3" s="114" t="s">
+        <v>836</v>
+      </c>
       <c r="G3" s="114"/>
       <c r="H3" s="114"/>
       <c r="I3" s="114"/>
     </row>
-    <row r="4" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="117">
         <v>3</v>
       </c>
@@ -65634,19 +66168,17 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 3</v>
       </c>
-      <c r="D4" s="118" t="str">
-        <f t="array" ref="D4">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E4:I4&lt;&gt;0,E4:I4,""))</f>
-        <v xml:space="preserve"> - Nâng cấp đường dây trung thế từ 1 pha lên 3 pha cáp từ 2AC50mm2 thành 3ACX50mm2+AC50mm2 dài 1.935,9 mét. </v>
-      </c>
-      <c r="E4" s="114" t="s">
-        <v>584</v>
-      </c>
+      <c r="D4" s="118" t="e">
+        <f t="array" aca="1" ref="D4" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E4:I4&lt;&gt;0,E4:I4,""))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" s="114"/>
       <c r="F4" s="114"/>
       <c r="G4" s="114"/>
       <c r="H4" s="114"/>
       <c r="I4" s="114"/>
     </row>
-    <row r="5" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="117">
         <v>4</v>
       </c>
@@ -65654,25 +66186,17 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 4</v>
       </c>
-      <c r="D5" s="118" t="str">
-        <f t="array" ref="D5">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E5:I5&lt;&gt;0,E5:I5,""))</f>
-        <v xml:space="preserve"> - Xây dựng mới TBA 1 pha 2x37,5kVA: 1 trạm (Thọ Hòa 1C).
- - Xây dựng mới TBA 3 pha 3x37,5kVA ( Bảo Chánh 4D, Bảo Chánh 4E).
- - Xây dựng mới TBA 3 pha 250kVA Bảo Chánh 4C</v>
-      </c>
-      <c r="E5" s="133" t="s">
-        <v>596</v>
-      </c>
-      <c r="F5" s="134" t="s">
-        <v>599</v>
-      </c>
-      <c r="G5" s="134" t="s">
-        <v>600</v>
-      </c>
+      <c r="D5" s="118" t="e">
+        <f t="array" aca="1" ref="D5" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E5:I5&lt;&gt;0,E5:I5,""))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" s="133"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
       <c r="H5" s="114"/>
       <c r="I5" s="114"/>
     </row>
-    <row r="6" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="117">
         <v>5</v>
       </c>
@@ -65680,25 +66204,17 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 5</v>
       </c>
-      <c r="D6" s="118" t="str">
-        <f t="array" ref="D6">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E6:I6&lt;&gt;0,E6:I6,""))</f>
-        <v xml:space="preserve"> - Xây dựng mới TBA 1 pha 1x100kVA: 1 trạm (Đông Minh 7A).
- - Xây dựng mới TBA 3 pha 3x37,5kVA trạm Đông Minh 5C
- - Xây dựng mới TBA 3 pha 3x50kVA: trạm Đông Minh 5B</v>
-      </c>
-      <c r="E6" s="133" t="s">
-        <v>597</v>
-      </c>
-      <c r="F6" s="134" t="s">
-        <v>598</v>
-      </c>
-      <c r="G6" s="134" t="s">
-        <v>601</v>
-      </c>
+      <c r="D6" s="118" t="e">
+        <f t="array" aca="1" ref="D6" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E6:I6&lt;&gt;0,E6:I6,""))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E6" s="133"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
       <c r="H6" s="114"/>
       <c r="I6" s="114"/>
     </row>
-    <row r="7" spans="2:10" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="117">
         <v>6</v>
       </c>
@@ -65706,25 +66222,17 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 6</v>
       </c>
-      <c r="D7" s="118" t="str">
-        <f t="array" ref="D7">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E7:I7&lt;&gt;0,E7:I7,""))</f>
-        <v xml:space="preserve"> - Nâng cấp  và di dời trạm 1 pha 2x100kVA thành 250kVA: 1 trạm (Đông Minh 8).
- - Nâng cấp trạm 1 pha 1x100kVA thành 250kVA: 1 trạm (Đông Minh 8A).
- - Di dời trạm: Đông Minh 7 2x37,5kVA  về tâm phụ tải.</v>
-      </c>
-      <c r="E7" s="133" t="s">
-        <v>586</v>
-      </c>
-      <c r="F7" s="133" t="s">
-        <v>587</v>
-      </c>
-      <c r="G7" s="133" t="s">
-        <v>590</v>
-      </c>
+      <c r="D7" s="118" t="e">
+        <f t="array" aca="1" ref="D7" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E7:I7&lt;&gt;0,E7:I7,""))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
       <c r="H7" s="114"/>
       <c r="I7" s="114"/>
     </row>
-    <row r="8" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="117">
         <v>7</v>
       </c>
@@ -65732,25 +66240,17 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 7</v>
       </c>
-      <c r="D8" s="118" t="str">
-        <f t="array" ref="D8">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E8:I8&lt;&gt;0,E8:I8,""))</f>
-        <v xml:space="preserve"> - Nâng cấp trạm 1 pha 2x50kVA thành 3x50kVA: 1 trạm (Hòa Bình).
- - Nâng cấp trạm 1 pha 2x75kVA thành 250kVA: 1 trạm (Bình Tiến 1). Phần máy biến áp: tận dụng máy thu hồi tại kho Điện lực Xuân Lộc.
- - Di dời trạm: Hòa Bình – 2x50kVA; Việt Kiều 141 – 2x75kVA về tâm phụ tải.</v>
-      </c>
-      <c r="E8" s="133" t="s">
-        <v>585</v>
-      </c>
-      <c r="F8" s="133" t="s">
-        <v>588</v>
-      </c>
-      <c r="G8" s="133" t="s">
-        <v>589</v>
-      </c>
+      <c r="D8" s="118" t="e">
+        <f t="array" aca="1" ref="D8" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E8:I8&lt;&gt;0,E8:I8,""))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
       <c r="H8" s="114"/>
       <c r="I8" s="114"/>
     </row>
-    <row r="9" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="117">
         <v>8</v>
       </c>
@@ -65758,21 +66258,16 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 8</v>
       </c>
-      <c r="D9" s="118" t="str">
-        <f t="array" ref="D9">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E9:I9&lt;&gt;0,E9:I9,""))</f>
-        <v xml:space="preserve"> - Xây dựng mới đường dây hạ thế 1 pha cáp ABC 3x95mm2 dài  515,7 mét.
- - Xây dựng mới đường dây hạ thế 3 pha cáp ABC 4x95mm2 dài  1.490,2 mét.</v>
-      </c>
-      <c r="E9" s="133" t="s">
-        <v>591</v>
-      </c>
-      <c r="F9" s="133" t="s">
-        <v>592</v>
-      </c>
+      <c r="D9" s="118" t="e">
+        <f t="array" aca="1" ref="D9" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E9:I9&lt;&gt;0,E9:I9,""))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
     </row>
-    <row r="10" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="117">
         <v>9</v>
       </c>
@@ -65780,19 +66275,17 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 9</v>
       </c>
-      <c r="D10" s="118" t="str">
-        <f t="array" ref="D10">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E10:I10&lt;&gt;0,E10:I10,""))</f>
-        <v xml:space="preserve"> - Nâng cấp đường dây hạ thế cáp 2AV50+A50mm2, ABC 3x50mm2 thành ABC 4x120mm2 dài  806,3 mét.</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>593</v>
-      </c>
+      <c r="D10" s="118" t="e">
+        <f t="array" aca="1" ref="D10" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E10:I10&lt;&gt;0,E10:I10,""))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="114"/>
       <c r="I10" s="114"/>
     </row>
-    <row r="11" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="117">
         <v>10</v>
       </c>
@@ -65800,19 +66293,17 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 10</v>
       </c>
-      <c r="D11" s="118" t="str">
-        <f t="array" ref="D11">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E11:I11&lt;&gt;0,E11:I11,""))</f>
-        <v xml:space="preserve"> - Nâng cấp đường dây hạ thế cáp ABC 3x70mm2 thành ABC 3x70mm2 + AV70 mm2 dài  2.588,1 mét (kéo thêm dây AV70mm2).</v>
-      </c>
-      <c r="E11" s="133" t="s">
-        <v>594</v>
-      </c>
+      <c r="D11" s="118" t="e">
+        <f t="array" aca="1" ref="D11" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E11:I11&lt;&gt;0,E11:I11,""))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E11" s="133"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="114"/>
     </row>
-    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="117">
         <v>11</v>
       </c>
@@ -65820,20 +66311,18 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 11</v>
       </c>
-      <c r="D12" s="118" t="str">
-        <f t="array" ref="D12">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E12:I12&lt;&gt;0,E12:I12,""))</f>
-        <v xml:space="preserve"> - Xây dựng mới TBA 3 pha 250kVA: 3 trạm (Lang Minh E, Lang Minh F).</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>604</v>
-      </c>
+      <c r="D12" s="118" t="e">
+        <f t="array" aca="1" ref="D12" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E12:I12&lt;&gt;0,E12:I12,""))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="117">
         <v>12</v>
       </c>
@@ -65841,19 +66330,17 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 12</v>
       </c>
-      <c r="D13" s="118" t="str">
-        <f t="array" ref="D13">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E13:I13&lt;&gt;0,E13:I13,""))</f>
-        <v xml:space="preserve"> - Xây dựng mới TBA 3 pha 1x75kVA: 3 trạm (Việt Kiều 141A, Việt Kiều 141B, Tây Minh 1A). </v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>595</v>
-      </c>
+      <c r="D13" s="118" t="e">
+        <f t="array" aca="1" ref="D13" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E13:I13&lt;&gt;0,E13:I13,""))</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="114"/>
       <c r="I13" s="114"/>
     </row>
-    <row r="14" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="117">
         <v>13</v>
       </c>
@@ -65861,15 +66348,12 @@
         <f t="shared" ref="C14:C16" si="1">$C$1&amp;" thứ "&amp;B14</f>
         <v>Lần cắt điện thứ 13</v>
       </c>
-      <c r="D14" s="118" t="str">
-        <f t="array" ref="D14">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E14:I14&lt;&gt;0,E14:I14,""))</f>
-        <v xml:space="preserve"> - Xây dựng mới TBA 3 pha 3x50kVA: trạm Tam Hiệp 2B, Tam Hiệp 2C, Tam Hiệp 2D</v>
-      </c>
-      <c r="E14" s="115" t="s">
-        <v>602</v>
+      <c r="D14" s="118" t="e">
+        <f t="array" aca="1" ref="D14" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E14:I14&lt;&gt;0,E14:I14,""))</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="117">
         <v>14</v>
       </c>
@@ -65877,15 +66361,12 @@
         <f t="shared" si="1"/>
         <v>Lần cắt điện thứ 14</v>
       </c>
-      <c r="D15" s="118" t="str">
-        <f t="array" ref="D15">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E15:I15&lt;&gt;0,E15:I15,""))</f>
-        <v xml:space="preserve"> - Xây dựng mới TBA 3 pha 3x50kVA:  trạm Tam Hiệp 3B, Tam Hiệp 3C, Tam Hiệp 3D, Tam Hiệp 3E</v>
-      </c>
-      <c r="E15" s="115" t="s">
-        <v>603</v>
+      <c r="D15" s="118" t="e">
+        <f t="array" aca="1" ref="D15" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E15:I15&lt;&gt;0,E15:I15,""))</f>
+        <v>#NAME?</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="117">
         <v>15</v>
       </c>
@@ -65893,18 +66374,15 @@
         <f t="shared" si="1"/>
         <v>Lần cắt điện thứ 15</v>
       </c>
-      <c r="D16" s="118" t="str">
-        <f t="array" ref="D16">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E16:I16&lt;&gt;0,E16:I16,""))</f>
-        <v xml:space="preserve"> - Xây dựng mới đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 dài 6.055,6 mét.</v>
-      </c>
-      <c r="E16" s="115" t="s">
-        <v>580</v>
+      <c r="D16" s="118" t="e">
+        <f t="array" aca="1" ref="D16" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E16:I16&lt;&gt;0,E16:I16,""))</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:I15"/>
   <conditionalFormatting sqref="E1:I11 E13:I1048576 E12:G12 I12">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65918,10 +66396,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I33" sqref="I33"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -65946,7 +66424,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>127</v>
@@ -67603,7 +68081,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>127</v>
@@ -67614,7 +68092,7 @@
       </c>
       <c r="G53" s="86"/>
       <c r="H53" s="84" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="I53" s="84"/>
       <c r="K53" s="62"/>
@@ -67814,13 +68292,13 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="F54:F1048576 F7:F50 F1:F5">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:F52">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
@@ -67859,25 +68337,25 @@
       <c r="D1" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="153" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="152"/>
+      <c r="F1" s="153"/>
       <c r="G1" s="69" t="s">
         <v>213</v>
       </c>
       <c r="I1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="J1" s="135">
         <v>3500000000</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="153" t="s">
+      <c r="B2" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="154" t="s">
+      <c r="C2" s="155" t="s">
         <v>215</v>
       </c>
       <c r="D2" s="70" t="s">
@@ -67896,8 +68374,8 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="155"/>
       <c r="D3" s="70" t="s">
         <v>208</v>
       </c>
@@ -67914,8 +68392,8 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="153"/>
-      <c r="C4" s="154"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
       <c r="D4" s="70" t="s">
         <v>209</v>
       </c>
@@ -68098,7 +68576,7 @@
     <col min="10" max="10" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="65" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="65" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="93">
         <f>SUMIF(A2:A21,"x",F2:F21)</f>
         <v>6197513796</v>
@@ -68390,10 +68868,10 @@
         <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
@@ -68401,10 +68879,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -68412,10 +68890,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
@@ -68423,10 +68901,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
@@ -68434,10 +68912,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
@@ -68445,10 +68923,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
@@ -68456,10 +68934,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
@@ -68467,21 +68945,21 @@
         <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="135" x14ac:dyDescent="0.25">
@@ -68489,13 +68967,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>628</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="120" x14ac:dyDescent="0.25">
@@ -68503,13 +68981,13 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="135" x14ac:dyDescent="0.25">
@@ -68517,10 +68995,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
   </sheetData>
@@ -68549,16 +69027,16 @@
         <v>503</v>
       </c>
       <c r="F1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" t="s">
+        <v>639</v>
+      </c>
+      <c r="H1" t="s">
         <v>640</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>641</v>
-      </c>
-      <c r="H1" t="s">
-        <v>642</v>
-      </c>
-      <c r="I1" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="2" spans="4:9" x14ac:dyDescent="0.25">
@@ -68663,7 +69141,7 @@
         <v>29460</v>
       </c>
       <c r="I6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.25">
@@ -68684,7 +69162,7 @@
         <v>26037</v>
       </c>
       <c r="I7" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.25">
@@ -68696,7 +69174,7 @@
         <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G8">
         <v>271285313</v>
@@ -68705,7 +69183,7 @@
         <v>28333</v>
       </c>
       <c r="I8" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.25">
@@ -68717,7 +69195,7 @@
         <v>506</v>
       </c>
       <c r="F9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G9">
         <v>271485073</v>
@@ -68726,7 +69204,7 @@
         <v>29601</v>
       </c>
       <c r="I9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.25">
@@ -68738,7 +69216,7 @@
         <v>493</v>
       </c>
       <c r="F10" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G10">
         <v>271316993</v>
@@ -68747,7 +69225,7 @@
         <v>29130</v>
       </c>
       <c r="I10" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
@@ -68759,7 +69237,7 @@
         <v>152</v>
       </c>
       <c r="F11" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G11">
         <v>271483902</v>
@@ -68768,7 +69246,7 @@
         <v>29749</v>
       </c>
       <c r="I11" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.25">
@@ -68891,7 +69369,7 @@
         <v>32228</v>
       </c>
       <c r="I17" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
@@ -68912,7 +69390,7 @@
         <v>27706</v>
       </c>
       <c r="I18" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
@@ -68933,7 +69411,7 @@
         <v>30671</v>
       </c>
       <c r="I19" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.25">
@@ -68945,7 +69423,7 @@
         <v>495</v>
       </c>
       <c r="F20" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G20">
         <v>214523467</v>
@@ -68954,7 +69432,7 @@
         <v>30596</v>
       </c>
       <c r="I20" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
@@ -68966,7 +69444,7 @@
         <v>494</v>
       </c>
       <c r="F21" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G21">
         <v>271172296</v>
@@ -68975,7 +69453,7 @@
         <v>27534</v>
       </c>
       <c r="I21" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.25">
@@ -69164,10 +69642,10 @@
         <v>26845</v>
       </c>
       <c r="I29" s="79" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J29" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.25">
@@ -69188,10 +69666,10 @@
         <v>30730</v>
       </c>
       <c r="I30" s="79" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J30" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
@@ -69212,10 +69690,10 @@
         <v>30193</v>
       </c>
       <c r="I31" s="79" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="J31" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.25">
@@ -69353,7 +69831,7 @@
         <v>497</v>
       </c>
       <c r="F38" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G38">
         <v>271229202</v>
@@ -69362,7 +69840,7 @@
         <v>28052</v>
       </c>
       <c r="I38" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
@@ -69374,16 +69852,16 @@
         <v>498</v>
       </c>
       <c r="F39" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G39">
         <v>272526412</v>
       </c>
       <c r="H39" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I39" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
@@ -69395,7 +69873,7 @@
         <v>505</v>
       </c>
       <c r="F40" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G40">
         <v>271601608</v>
@@ -69404,7 +69882,7 @@
         <v>30303</v>
       </c>
       <c r="I40" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
@@ -69416,7 +69894,7 @@
         <v>129</v>
       </c>
       <c r="F41" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="G41">
         <v>271298968</v>
@@ -69425,7 +69903,7 @@
         <v>28217</v>
       </c>
       <c r="I41" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
@@ -69451,7 +69929,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -69460,14 +69938,1856 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="C1:F177"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E3" t="s">
+        <v>679</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>681</v>
+      </c>
+      <c r="E5" t="s">
+        <v>682</v>
+      </c>
+      <c r="F5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>684</v>
+      </c>
+      <c r="E6" t="s">
+        <v>685</v>
+      </c>
+      <c r="F6" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E7" t="s">
+        <v>679</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>687</v>
+      </c>
+      <c r="E9" t="s">
+        <v>685</v>
+      </c>
+      <c r="F9" s="137">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>688</v>
+      </c>
+      <c r="E10" t="s">
+        <v>689</v>
+      </c>
+      <c r="F10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>691</v>
+      </c>
+      <c r="E11" t="s">
+        <v>685</v>
+      </c>
+      <c r="F11" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>693</v>
+      </c>
+      <c r="E12" t="s">
+        <v>685</v>
+      </c>
+      <c r="F12" s="137">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>694</v>
+      </c>
+      <c r="E13" t="s">
+        <v>695</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>696</v>
+      </c>
+      <c r="E14" t="s">
+        <v>695</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>697</v>
+      </c>
+      <c r="E15" t="s">
+        <v>695</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>698</v>
+      </c>
+      <c r="E16" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>699</v>
+      </c>
+      <c r="E17" t="s">
+        <v>689</v>
+      </c>
+      <c r="F17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>701</v>
+      </c>
+      <c r="E18" t="s">
+        <v>685</v>
+      </c>
+      <c r="F18" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>703</v>
+      </c>
+      <c r="E19" t="s">
+        <v>685</v>
+      </c>
+      <c r="F19" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>705</v>
+      </c>
+      <c r="E20" t="s">
+        <v>685</v>
+      </c>
+      <c r="F20" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>707</v>
+      </c>
+      <c r="E21" t="s">
+        <v>695</v>
+      </c>
+      <c r="F21" s="137">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>708</v>
+      </c>
+      <c r="E22" t="s">
+        <v>682</v>
+      </c>
+      <c r="F22" s="137">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>684</v>
+      </c>
+      <c r="E23" t="s">
+        <v>685</v>
+      </c>
+      <c r="F23" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>710</v>
+      </c>
+      <c r="E24" t="s">
+        <v>685</v>
+      </c>
+      <c r="F24" s="137">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>711</v>
+      </c>
+      <c r="E25" t="s">
+        <v>712</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>714</v>
+      </c>
+      <c r="E27" t="s">
+        <v>689</v>
+      </c>
+      <c r="F27" s="137">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>715</v>
+      </c>
+      <c r="E28" t="s">
+        <v>716</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>717</v>
+      </c>
+      <c r="E29" t="s">
+        <v>695</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>718</v>
+      </c>
+      <c r="E30" t="s">
+        <v>719</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>720</v>
+      </c>
+      <c r="E31" t="s">
+        <v>719</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>721</v>
+      </c>
+      <c r="E32" t="s">
+        <v>695</v>
+      </c>
+      <c r="F32" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>723</v>
+      </c>
+      <c r="E33" t="s">
+        <v>685</v>
+      </c>
+      <c r="F33" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>724</v>
+      </c>
+      <c r="E34" t="s">
+        <v>689</v>
+      </c>
+      <c r="F34" s="137">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>725</v>
+      </c>
+      <c r="E35" t="s">
+        <v>716</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>726</v>
+      </c>
+      <c r="E36" t="s">
+        <v>712</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>689</v>
+      </c>
+      <c r="F38" s="137">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>715</v>
+      </c>
+      <c r="E39" t="s">
+        <v>716</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>717</v>
+      </c>
+      <c r="E40" t="s">
+        <v>695</v>
+      </c>
+      <c r="F40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>720</v>
+      </c>
+      <c r="E41" t="s">
+        <v>719</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>727</v>
+      </c>
+      <c r="E42" t="s">
+        <v>695</v>
+      </c>
+      <c r="F42" s="137">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>723</v>
+      </c>
+      <c r="E43" t="s">
+        <v>685</v>
+      </c>
+      <c r="F43" s="137">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>724</v>
+      </c>
+      <c r="E44" t="s">
+        <v>689</v>
+      </c>
+      <c r="F44" s="137">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>725</v>
+      </c>
+      <c r="E45" t="s">
+        <v>716</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>728</v>
+      </c>
+      <c r="D46" t="s">
+        <v>729</v>
+      </c>
+      <c r="E46" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>731</v>
+      </c>
+      <c r="E47" t="s">
+        <v>732</v>
+      </c>
+      <c r="F47">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>733</v>
+      </c>
+      <c r="E49" t="s">
+        <v>734</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>735</v>
+      </c>
+      <c r="E50" t="s">
+        <v>734</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>736</v>
+      </c>
+      <c r="D51" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>738</v>
+      </c>
+      <c r="E52" t="s">
+        <v>712</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>739</v>
+      </c>
+      <c r="E54" t="s">
+        <v>719</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>740</v>
+      </c>
+      <c r="E55" t="s">
+        <v>719</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>741</v>
+      </c>
+      <c r="E56" t="s">
+        <v>712</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>742</v>
+      </c>
+      <c r="E57" t="s">
+        <v>695</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>743</v>
+      </c>
+      <c r="E58" t="s">
+        <v>695</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>744</v>
+      </c>
+      <c r="E59" t="s">
+        <v>695</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>745</v>
+      </c>
+      <c r="E60" t="s">
+        <v>695</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>746</v>
+      </c>
+      <c r="E61" t="s">
+        <v>712</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>739</v>
+      </c>
+      <c r="E63" t="s">
+        <v>719</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>740</v>
+      </c>
+      <c r="E64" t="s">
+        <v>719</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>741</v>
+      </c>
+      <c r="E65" t="s">
+        <v>712</v>
+      </c>
+      <c r="F65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>747</v>
+      </c>
+      <c r="E66" t="s">
+        <v>695</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>744</v>
+      </c>
+      <c r="E67" t="s">
+        <v>695</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>745</v>
+      </c>
+      <c r="E68" t="s">
+        <v>695</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>748</v>
+      </c>
+      <c r="E69" t="s">
+        <v>712</v>
+      </c>
+      <c r="F69">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>749</v>
+      </c>
+      <c r="E71" t="s">
+        <v>719</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>750</v>
+      </c>
+      <c r="E72" t="s">
+        <v>719</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>751</v>
+      </c>
+      <c r="E73" t="s">
+        <v>695</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>752</v>
+      </c>
+      <c r="E74" t="s">
+        <v>695</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>753</v>
+      </c>
+      <c r="E75" t="s">
+        <v>695</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>754</v>
+      </c>
+      <c r="E76" t="s">
+        <v>712</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>749</v>
+      </c>
+      <c r="E78" t="s">
+        <v>719</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>750</v>
+      </c>
+      <c r="E79" t="s">
+        <v>719</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>755</v>
+      </c>
+      <c r="E80" t="s">
+        <v>695</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>743</v>
+      </c>
+      <c r="E81" t="s">
+        <v>695</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>751</v>
+      </c>
+      <c r="E82" t="s">
+        <v>695</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>756</v>
+      </c>
+      <c r="E83" t="s">
+        <v>695</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>757</v>
+      </c>
+      <c r="E84" t="s">
+        <v>712</v>
+      </c>
+      <c r="F84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>758</v>
+      </c>
+      <c r="E86" t="s">
+        <v>719</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E87" t="s">
+        <v>719</v>
+      </c>
+      <c r="F87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>743</v>
+      </c>
+      <c r="E88" t="s">
+        <v>695</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>755</v>
+      </c>
+      <c r="E89" t="s">
+        <v>695</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>752</v>
+      </c>
+      <c r="E90" t="s">
+        <v>695</v>
+      </c>
+      <c r="F90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>760</v>
+      </c>
+      <c r="E91" t="s">
+        <v>695</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>761</v>
+      </c>
+      <c r="E92" t="s">
+        <v>712</v>
+      </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>758</v>
+      </c>
+      <c r="E94" t="s">
+        <v>719</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>759</v>
+      </c>
+      <c r="E95" t="s">
+        <v>719</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>762</v>
+      </c>
+      <c r="E96" t="s">
+        <v>695</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>747</v>
+      </c>
+      <c r="E97" t="s">
+        <v>695</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>752</v>
+      </c>
+      <c r="E98" t="s">
+        <v>695</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>760</v>
+      </c>
+      <c r="E99" t="s">
+        <v>695</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>763</v>
+      </c>
+      <c r="E100" t="s">
+        <v>712</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>764</v>
+      </c>
+      <c r="E102" t="s">
+        <v>695</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>765</v>
+      </c>
+      <c r="E103" t="s">
+        <v>719</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>766</v>
+      </c>
+      <c r="E104" t="s">
+        <v>719</v>
+      </c>
+      <c r="F104">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>767</v>
+      </c>
+      <c r="E105" t="s">
+        <v>768</v>
+      </c>
+      <c r="F105" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>56</v>
+      </c>
+      <c r="E106" t="s">
+        <v>719</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>770</v>
+      </c>
+      <c r="E107" t="s">
+        <v>719</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>771</v>
+      </c>
+      <c r="E108" t="s">
+        <v>695</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>772</v>
+      </c>
+      <c r="E109" t="s">
+        <v>712</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>764</v>
+      </c>
+      <c r="E111" t="s">
+        <v>695</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>765</v>
+      </c>
+      <c r="E112" t="s">
+        <v>719</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>766</v>
+      </c>
+      <c r="E113" t="s">
+        <v>719</v>
+      </c>
+      <c r="F113">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>773</v>
+      </c>
+      <c r="E114" t="s">
+        <v>768</v>
+      </c>
+      <c r="F114" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>775</v>
+      </c>
+      <c r="E115" t="s">
+        <v>695</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>56</v>
+      </c>
+      <c r="E116" t="s">
+        <v>719</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>770</v>
+      </c>
+      <c r="E117" t="s">
+        <v>719</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>776</v>
+      </c>
+      <c r="E118" t="s">
+        <v>695</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>777</v>
+      </c>
+      <c r="E119" t="s">
+        <v>712</v>
+      </c>
+      <c r="F119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>778</v>
+      </c>
+      <c r="E121" t="s">
+        <v>719</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>779</v>
+      </c>
+      <c r="E122" t="s">
+        <v>719</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>780</v>
+      </c>
+      <c r="E123" t="s">
+        <v>682</v>
+      </c>
+      <c r="F123" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>684</v>
+      </c>
+      <c r="E124" t="s">
+        <v>685</v>
+      </c>
+      <c r="F124" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>782</v>
+      </c>
+      <c r="E125" t="s">
+        <v>712</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>778</v>
+      </c>
+      <c r="E127" t="s">
+        <v>719</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>779</v>
+      </c>
+      <c r="E128" t="s">
+        <v>719</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>783</v>
+      </c>
+      <c r="E129" t="s">
+        <v>695</v>
+      </c>
+      <c r="F129" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>684</v>
+      </c>
+      <c r="E130" t="s">
+        <v>685</v>
+      </c>
+      <c r="F130" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>784</v>
+      </c>
+      <c r="E131" t="s">
+        <v>695</v>
+      </c>
+      <c r="F131">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>785</v>
+      </c>
+      <c r="E133" t="s">
+        <v>695</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>786</v>
+      </c>
+      <c r="E134" t="s">
+        <v>719</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>751</v>
+      </c>
+      <c r="E135" t="s">
+        <v>695</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>787</v>
+      </c>
+      <c r="E136" t="s">
+        <v>695</v>
+      </c>
+      <c r="F136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>785</v>
+      </c>
+      <c r="E138" t="s">
+        <v>695</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>786</v>
+      </c>
+      <c r="E139" t="s">
+        <v>719</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>694</v>
+      </c>
+      <c r="E140" t="s">
+        <v>695</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>788</v>
+      </c>
+      <c r="E141" t="s">
+        <v>695</v>
+      </c>
+      <c r="F141">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>789</v>
+      </c>
+      <c r="E143" t="s">
+        <v>719</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>790</v>
+      </c>
+      <c r="E144" t="s">
+        <v>695</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>791</v>
+      </c>
+      <c r="E145" t="s">
+        <v>695</v>
+      </c>
+      <c r="F145">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="146" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="147" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>792</v>
+      </c>
+      <c r="E147" t="s">
+        <v>719</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>793</v>
+      </c>
+      <c r="E148" t="s">
+        <v>719</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>794</v>
+      </c>
+      <c r="E149" t="s">
+        <v>695</v>
+      </c>
+      <c r="F149">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="150" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="151" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>96</v>
+      </c>
+      <c r="E151" t="s">
+        <v>795</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>796</v>
+      </c>
+      <c r="E152" t="s">
+        <v>719</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>797</v>
+      </c>
+      <c r="E153" t="s">
+        <v>695</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>798</v>
+      </c>
+      <c r="D154" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="155" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>800</v>
+      </c>
+      <c r="E155" t="s">
+        <v>801</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>802</v>
+      </c>
+      <c r="E156" t="s">
+        <v>689</v>
+      </c>
+      <c r="F156" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="157" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>804</v>
+      </c>
+      <c r="E157" t="s">
+        <v>768</v>
+      </c>
+      <c r="F157" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="158" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>806</v>
+      </c>
+      <c r="E158" t="s">
+        <v>768</v>
+      </c>
+      <c r="F158" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="159" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>718</v>
+      </c>
+      <c r="E159" t="s">
+        <v>719</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>808</v>
+      </c>
+      <c r="E160" t="s">
+        <v>719</v>
+      </c>
+      <c r="F160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>809</v>
+      </c>
+      <c r="E161" t="s">
+        <v>719</v>
+      </c>
+      <c r="F161">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>810</v>
+      </c>
+      <c r="E162" t="s">
+        <v>719</v>
+      </c>
+      <c r="F162">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>811</v>
+      </c>
+      <c r="E163" t="s">
+        <v>719</v>
+      </c>
+      <c r="F163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>812</v>
+      </c>
+      <c r="E164" t="s">
+        <v>719</v>
+      </c>
+      <c r="F164" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>814</v>
+      </c>
+      <c r="E165" t="s">
+        <v>815</v>
+      </c>
+      <c r="F165" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>817</v>
+      </c>
+      <c r="E166" t="s">
+        <v>815</v>
+      </c>
+      <c r="F166" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="167" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>819</v>
+      </c>
+      <c r="E167" t="s">
+        <v>768</v>
+      </c>
+      <c r="F167" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="168" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>820</v>
+      </c>
+      <c r="E168" t="s">
+        <v>689</v>
+      </c>
+      <c r="F168" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="169" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>822</v>
+      </c>
+      <c r="E169" t="s">
+        <v>823</v>
+      </c>
+      <c r="F169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>824</v>
+      </c>
+      <c r="E170" t="s">
+        <v>695</v>
+      </c>
+      <c r="F170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>825</v>
+      </c>
+      <c r="E171" t="s">
+        <v>695</v>
+      </c>
+      <c r="F171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>741</v>
+      </c>
+      <c r="E172" t="s">
+        <v>712</v>
+      </c>
+      <c r="F172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>826</v>
+      </c>
+      <c r="E173" t="s">
+        <v>827</v>
+      </c>
+      <c r="F173" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="174" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>829</v>
+      </c>
+      <c r="E174" t="s">
+        <v>827</v>
+      </c>
+      <c r="F174" s="137">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="175" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="176" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>831</v>
+      </c>
+      <c r="E176" t="s">
+        <v>719</v>
+      </c>
+      <c r="F176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>832</v>
+      </c>
+      <c r="E177" t="s">
+        <v>719</v>
+      </c>
+      <c r="F177">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:F177">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Giáp níu dừng dây bọc 50 + Yếm móng U + Mắt nối yếm"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -69524,7 +71844,7 @@
         <v>13</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>163</v>
@@ -69549,187 +71869,185 @@
       </c>
       <c r="T1" s="77"/>
     </row>
-    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="str">
         <f t="shared" ref="A2" si="0">VLOOKUP("Số TBMT",tbmt,4,0)</f>
-        <v>20200469878-00</v>
+        <v>20200401924-00</v>
       </c>
       <c r="B2" s="19" t="str">
         <f t="shared" ref="B2" si="1">IFERROR(VLOOKUP("Tên dự án",tbmt,4,0),VLOOKUP("Tên gói thầu",tbmt,4,0))</f>
-        <v>Gói thầu: “Vận chuyển vật tư MDĐĐ và thi công công tơ khách hàng phát triển mới năm 2020”</v>
+        <v>Nâng cấp và phát triển lưới điện trung thế nông thôn phục vụ sản xuất nông nghiệp tập trung huyện Cẩm Mỹ năm 2019-2020</v>
       </c>
       <c r="C2" s="19" t="str">
         <f t="shared" ref="C2" si="2">VLOOKUP("Chủ đầu tư",tbmt,4,0)</f>
-        <v>Huyện Xuân Lộc - Tỉnh Đồng Nai</v>
+        <v>Điện lực Cẩm Mỹ - Công ty TNHH MTV Điện lực Đồng Nai địa chỉ Trung tâm hành chính huyện Cẩm Mỹ, ấp Suối Cả, xã Long Giao, huyện Cẩm Mỹ, tỉnh Đồng Nai. Điện thoại: 02513.878.429</v>
       </c>
       <c r="D2" s="19" t="str">
         <f t="shared" ref="D2" si="3">VLOOKUP("Bên mời thầu",tbmt,4,0)</f>
-        <v>Điện lực Xuân Lộc - Công ty TNHH một thành viên Điện lực Đồng Nai</v>
+        <v>Điện lực Cẩm Mỹ - Công Ty TNHH Một Thành Viên Điện Lực Đồng Nai</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19" t="str">
         <f t="shared" ref="F2" si="4">VLOOKUP("Số tiền đảm bảo",tbmt,4,0)</f>
-        <v>26.500.000 VND</v>
+        <v>4.000.000 VND</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="60">
         <f t="shared" ref="H2" si="5">VLOOKUP("Thời gian nhận HSDT từ ngày",tbmt,10,0)</f>
-        <v>43963.604166666664</v>
+        <v>43965.583333333336</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="19">
         <f>VLOOKUP("Thời gian thực hiện hợp đồng",tbmt,4,0)</f>
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="49">
-        <f t="shared" ref="L2:L17" si="6">DATEVALUE(LEFT(TEXT(VLOOKUP("Số TBMT",tbmt,10,0),"dd/MM/yyyy"),10))+5</f>
-        <v>43954</v>
+        <f t="shared" ref="L2:L18" si="6">DATEVALUE(LEFT(TEXT(VLOOKUP("Số TBMT",tbmt,10,0),"dd/MM/yyyy"),10))+5</f>
+        <v>43955</v>
       </c>
       <c r="M2" s="50" t="str">
         <f>" ngày "&amp;TEXT(L2,"dd")&amp;" tháng "&amp;TEXT(L2,"MM")&amp;" năm "&amp;TEXT(L2,"yyyy")</f>
-        <v xml:space="preserve"> ngày 03 tháng 05 năm 2020</v>
+        <v xml:space="preserve"> ngày 04 tháng 05 năm 2020</v>
       </c>
       <c r="N2" s="49" t="str">
         <f>TEXT(L2+365,"dd/MM/yyyy")</f>
-        <v>03/05/2021</v>
+        <v>04/05/2021</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="E3" s="18">
+        <v>60</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="G3" s="18">
+        <v>90</v>
+      </c>
+      <c r="H3" s="76">
+        <v>43965.583333333336</v>
+      </c>
+      <c r="I3" s="18">
+        <v>2</v>
+      </c>
+      <c r="J3" s="18">
+        <v>60</v>
+      </c>
+      <c r="K3" s="18">
+        <v>12</v>
+      </c>
+      <c r="L3" s="136" t="s">
+        <v>673</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="N3" s="136" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>646</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="D4" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="76">
+        <v>43963.604166666664</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18">
+        <v>12</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="136" t="s">
+        <v>651</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="N4" s="136" t="s">
         <v>650</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>657</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
-        <v>609</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="76">
-        <v>43963.604166666664</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18">
-        <v>12</v>
-      </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="136" t="s">
-        <v>660</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="N3" s="136" t="s">
-        <v>659</v>
-      </c>
     </row>
-    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>20191257175</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="16" t="str">
-        <f>E4</f>
-        <v>120 ngày</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="56">
-        <f>DATEVALUE(LEFT(H4,10))-2</f>
-        <v>43835</v>
-      </c>
-      <c r="M4" s="17" t="str">
-        <f>" ngày "&amp;TEXT(L4,"dd")&amp;" tháng "&amp;TEXT(L4,"MM")&amp;" năm "&amp;TEXT(L4,"yyyy")</f>
-        <v xml:space="preserve"> ngày 05 tháng 01 năm 2020</v>
-      </c>
-      <c r="N4" s="78" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="E5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>206</v>
+      <c r="I5" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="J5" s="16" t="str">
-        <f t="shared" ref="J5:J6" si="7">E5</f>
-        <v>120 Ngày</v>
-      </c>
-      <c r="K5" s="18"/>
+        <f>E5</f>
+        <v>120 ngày</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="L5" s="56">
-        <f t="shared" ref="L5:L6" si="8">DATEVALUE(LEFT(H5,10))-2</f>
+        <f>DATEVALUE(LEFT(H5,10))-2</f>
         <v>43835</v>
       </c>
       <c r="M5" s="17" t="str">
-        <f t="shared" ref="M5:M6" si="9">" ngày "&amp;TEXT(L5,"dd")&amp;" tháng "&amp;TEXT(L5,"MM")&amp;" năm "&amp;TEXT(L5,"yyyy")</f>
+        <f>" ngày "&amp;TEXT(L5,"dd")&amp;" tháng "&amp;TEXT(L5,"MM")&amp;" năm "&amp;TEXT(L5,"yyyy")</f>
         <v xml:space="preserve"> ngày 05 tháng 01 năm 2020</v>
       </c>
-      <c r="N5" s="78">
-        <f t="shared" ref="N5:N6" si="10">L5+366</f>
-        <v>44201</v>
+      <c r="N5" s="78" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>15</v>
@@ -69738,42 +72056,44 @@
         <v>8</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I6" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>206</v>
+      </c>
       <c r="J6" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>90 Ngày</v>
+        <f t="shared" ref="J6:J7" si="7">E6</f>
+        <v>120 Ngày</v>
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="56">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="L6:L7" si="8">DATEVALUE(LEFT(H6,10))-2</f>
         <v>43835</v>
       </c>
       <c r="M6" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="M6:M7" si="9">" ngày "&amp;TEXT(L6,"dd")&amp;" tháng "&amp;TEXT(L6,"MM")&amp;" năm "&amp;TEXT(L6,"yyyy")</f>
         <v xml:space="preserve"> ngày 05 tháng 01 năm 2020</v>
       </c>
       <c r="N6" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="N6:N7" si="10">L6+366</f>
         <v>44201</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>15</v>
@@ -69782,218 +72102,224 @@
         <v>8</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="J7" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>90 Ngày</v>
+      </c>
       <c r="K7" s="18"/>
       <c r="L7" s="56">
-        <v>43843</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="N7" s="78"/>
-      <c r="O7" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="P7" s="17" t="str">
-        <f>TEXT(VLOOKUP(O7,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
-        <v>31/01/1975</v>
-      </c>
-      <c r="Q7" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="R7" s="17" t="str">
-        <f>TEXT(VLOOKUP(Q7,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
-        <v>16/04/1981</v>
+        <f t="shared" si="8"/>
+        <v>43835</v>
+      </c>
+      <c r="M7" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> ngày 05 tháng 01 năm 2020</v>
+      </c>
+      <c r="N7" s="78">
+        <f t="shared" si="10"/>
+        <v>44201</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="17" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>239</v>
+        <v>15</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="56">
+        <v>43843</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="N8" s="78"/>
+      <c r="O8" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="P8" s="17" t="str">
+        <f>TEXT(VLOOKUP(O8,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
+        <v>31/01/1975</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="R8" s="17" t="str">
+        <f>TEXT(VLOOKUP(Q8,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
+        <v>16/04/1981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="17" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H9" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I9" s="18">
         <v>1</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J9" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K9" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="L8" s="56">
+      <c r="L9" s="56">
         <v>43869</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M9" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="N8" s="78"/>
-    </row>
-    <row r="9" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="56">
-        <v>43877</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="N9" s="78">
-        <v>44242</v>
-      </c>
-      <c r="O9" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="P9" s="17" t="str">
-        <f>TEXT(VLOOKUP(O9,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
-        <v>31/01/1975</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="R9" s="17" t="str">
-        <f>TEXT(VLOOKUP(Q9,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
-        <v>16/04/1981</v>
-      </c>
+      <c r="N9" s="78"/>
     </row>
     <row r="10" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>258</v>
+        <v>15</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>252</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="56">
-        <v>43908.345138888886</v>
+        <v>43877</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="N10" s="78">
-        <v>44273.345138888886</v>
+        <v>44242</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="P10" s="17" t="str">
+        <f>TEXT(VLOOKUP(O10,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
+        <v>31/01/1975</v>
+      </c>
+      <c r="Q10" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="R10" s="17" t="str">
+        <f>TEXT(VLOOKUP(Q10,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
+        <v>16/04/1981</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E11" s="81" t="s">
-        <v>270</v>
+        <v>258</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="56">
-        <v>43914.342361111114</v>
+        <v>43908.345138888886</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="N11" s="78">
-        <v>44279.342361111114</v>
+        <v>44273.345138888886</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>274</v>
@@ -70001,44 +72327,43 @@
       <c r="D12" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="E12" s="18">
-        <v>150</v>
-      </c>
-      <c r="F12" s="18">
-        <v>0</v>
-      </c>
-      <c r="G12" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="76">
-        <v>43917.375</v>
+      <c r="E12" s="81" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="56">
-        <v>43912</v>
+        <v>43914.342361111114</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="N12" s="79">
-        <f>L12+365</f>
-        <v>44277</v>
+        <v>276</v>
+      </c>
+      <c r="N12" s="78">
+        <v>44279.342361111114</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>452</v>
+        <v>309</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>454</v>
+        <v>288</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>274</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>453</v>
+        <v>273</v>
       </c>
       <c r="E13" s="18">
         <v>150</v>
@@ -70050,33 +72375,34 @@
         <v>#N/A</v>
       </c>
       <c r="H13" s="76">
-        <v>43920.4375</v>
+        <v>43917.375</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="56">
-        <v>43909.34375</v>
+        <v>43912</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="N13" s="80">
-        <v>44274.34375</v>
+        <v>310</v>
+      </c>
+      <c r="N13" s="79">
+        <f>L13+365</f>
+        <v>44277</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>274</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>273</v>
+        <v>453</v>
       </c>
       <c r="E14" s="18">
         <v>150</v>
@@ -70088,112 +72414,112 @@
         <v>#N/A</v>
       </c>
       <c r="H14" s="76">
-        <v>43920.583333333336</v>
+        <v>43920.4375</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="56">
-        <v>43914.334027777775</v>
+        <v>43909.34375</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>276</v>
+        <v>481</v>
       </c>
       <c r="N14" s="80">
-        <v>44279.334027777775</v>
+        <v>44274.34375</v>
       </c>
     </row>
     <row r="15" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>274</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>453</v>
+        <v>273</v>
       </c>
       <c r="E15" s="18">
-        <v>12</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>484</v>
+        <v>150</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
       </c>
       <c r="G15" s="18" t="e">
         <v>#N/A</v>
       </c>
       <c r="H15" s="76">
-        <v>43921.583333333336</v>
+        <v>43920.583333333336</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="56">
-        <v>43914.601388888892</v>
+        <v>43914.334027777775</v>
       </c>
       <c r="M15" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="N15" s="82" t="s">
-        <v>489</v>
+      <c r="N15" s="80">
+        <v>44279.334027777775</v>
       </c>
     </row>
     <row r="16" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>491</v>
+        <v>274</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>258</v>
+        <v>453</v>
       </c>
       <c r="E16" s="18">
-        <v>260</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>484</v>
       </c>
       <c r="G16" s="18" t="e">
         <v>#N/A</v>
       </c>
       <c r="H16" s="76">
-        <v>43935.583333333336</v>
+        <v>43921.583333333336</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="56">
-        <v>43926</v>
+        <v>43914.601388888892</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="N16" s="56">
-        <v>44291</v>
+        <v>276</v>
+      </c>
+      <c r="N16" s="82" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>273</v>
+        <v>491</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E17" s="18">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="F17" s="18">
         <v>0</v>
@@ -70202,94 +72528,88 @@
         <v>#N/A</v>
       </c>
       <c r="H17" s="76">
-        <v>43934.375</v>
+        <v>43935.583333333336</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="49">
-        <f t="shared" si="6"/>
-        <v>43954</v>
+      <c r="L17" s="56">
+        <v>43926</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>502</v>
-      </c>
-      <c r="N17" s="49" t="str">
-        <f>TEXT(L17+365,"dd/MM/yyyy")</f>
-        <v>03/05/2021</v>
+        <v>499</v>
+      </c>
+      <c r="N17" s="56">
+        <v>44291</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>551</v>
+        <v>500</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>553</v>
+        <v>501</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>557</v>
+        <v>273</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>552</v>
+        <v>273</v>
       </c>
       <c r="E18" s="18">
-        <v>100</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H18" s="76">
-        <v>43956.604166666664</v>
-      </c>
-      <c r="I18" s="18">
-        <v>12</v>
-      </c>
-      <c r="J18" s="18">
-        <v>236</v>
-      </c>
-      <c r="K18" s="18">
-        <v>12</v>
-      </c>
-      <c r="L18" s="56">
-        <v>43948</v>
+        <v>43934.375</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="49">
+        <f t="shared" si="6"/>
+        <v>43955</v>
       </c>
       <c r="M18" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="N18" s="56" t="s">
-        <v>559</v>
+        <v>502</v>
+      </c>
+      <c r="N18" s="49" t="str">
+        <f>TEXT(L18+365,"dd/MM/yyyy")</f>
+        <v>04/05/2021</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>605</v>
+        <v>551</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>607</v>
+        <v>553</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>258</v>
+        <v>557</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>258</v>
+        <v>552</v>
       </c>
       <c r="E19" s="18">
         <v>100</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>609</v>
+        <v>556</v>
       </c>
       <c r="G19" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="76">
-        <v>43957.631944444445</v>
+        <v>43956.604166666664</v>
       </c>
       <c r="I19" s="18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J19" s="18">
         <v>236</v>
@@ -70298,34 +72618,81 @@
         <v>12</v>
       </c>
       <c r="L19" s="56">
+        <v>43948</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="N19" s="56" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="18">
+        <v>100</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="76">
+        <v>43957.631944444445</v>
+      </c>
+      <c r="I20" s="18">
+        <v>15</v>
+      </c>
+      <c r="J20" s="18">
+        <v>236</v>
+      </c>
+      <c r="K20" s="18">
+        <v>12</v>
+      </c>
+      <c r="L20" s="56">
         <v>43943</v>
       </c>
-      <c r="M19" s="17" t="s">
-        <v>611</v>
-      </c>
-      <c r="N19" s="56" t="s">
-        <v>612</v>
+      <c r="M20" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="N20" s="56" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A20:A1048576 A4:A10 A1">
-    <cfRule type="duplicateValues" dxfId="20" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+  <conditionalFormatting sqref="A21:A1048576 A5:A11 A1">
+    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A19 A3">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
+  <conditionalFormatting sqref="A14:A20 A4">
+    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -70336,7 +72703,7 @@
   <dimension ref="D1:M24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="M18" sqref="M18:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70804,8 +73171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -71276,7 +73643,7 @@
   <dimension ref="C1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72202,25 +74569,25 @@
   </sheetData>
   <autoFilter ref="C1:I38"/>
   <conditionalFormatting sqref="D11:D1048576 D1:D2 D7 D9">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -73826,8 +76193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -73853,10 +76220,10 @@
       </c>
       <c r="E1" s="43" t="str">
         <f>"Thời gian thi công "&amp;INDEX($G:$J,ROW(),$F$1)&amp;" ngày"</f>
-        <v>Thời gian thi công 100 ngày</v>
+        <v>Thời gian thi công 60 ngày</v>
       </c>
       <c r="F1" s="41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G1" s="29">
         <f>SUM(G2:G10)</f>
@@ -73876,23 +76243,23 @@
       </c>
       <c r="M1" s="41">
         <f>VLOOKUP("x",$K:$Q,COLUMN()-COLUMN($K$1)+1,0)</f>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N1" s="41">
         <f t="shared" ref="N1:Q1" si="0">VLOOKUP("x",$K:$Q,COLUMN()-COLUMN($K$1)+1,0)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="O1" s="41">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="P1" s="41">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="41">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -73922,27 +76289,27 @@
       <c r="M2" s="112" t="str">
         <f>"Ngày "&amp;CHAR(10)&amp;L1+1&amp;" - "&amp;M1</f>
         <v>Ngày 
-1 - 20</v>
+1 - 10</v>
       </c>
       <c r="N2" s="112" t="str">
         <f t="shared" ref="N2:Q2" si="1">"Ngày "&amp;CHAR(10)&amp;M1+1&amp;" - "&amp;N1</f>
         <v>Ngày 
-21 - 40</v>
+11 - 20</v>
       </c>
       <c r="O2" s="112" t="str">
         <f t="shared" si="1"/>
         <v>Ngày 
-41 - 60</v>
+21 - 30</v>
       </c>
       <c r="P2" s="112" t="str">
         <f t="shared" si="1"/>
         <v>Ngày 
-61 - 75</v>
+31 - 50</v>
       </c>
       <c r="Q2" s="112" t="str">
         <f t="shared" si="1"/>
         <v>Ngày 
-76 - 90</v>
+51 - 60</v>
       </c>
     </row>
     <row r="3" spans="3:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -73954,7 +76321,7 @@
       </c>
       <c r="E3" s="39" t="str">
         <f t="shared" ref="E3:E8" si="2">TEXT(INDEX($G:$J,ROW(),$F$1),"00")&amp;" ngày"</f>
-        <v>20 ngày</v>
+        <v>10 ngày</v>
       </c>
       <c r="G3" s="32">
         <v>20</v>
@@ -74023,7 +76390,7 @@
       </c>
       <c r="E5" s="39" t="str">
         <f t="shared" si="2"/>
-        <v>20 ngày</v>
+        <v>10 ngày</v>
       </c>
       <c r="G5" s="32">
         <v>30</v>
@@ -74036,9 +76403,6 @@
       </c>
       <c r="J5" s="32">
         <v>10</v>
-      </c>
-      <c r="K5" s="32" t="s">
-        <v>127</v>
       </c>
       <c r="L5" s="32">
         <v>90</v>
@@ -74068,7 +76432,7 @@
       </c>
       <c r="E6" s="39" t="str">
         <f t="shared" si="2"/>
-        <v>18 ngày</v>
+        <v>10 ngày</v>
       </c>
       <c r="G6" s="32">
         <v>28</v>
@@ -74113,7 +76477,7 @@
       </c>
       <c r="E7" s="39" t="str">
         <f t="shared" si="2"/>
-        <v>30 ngày</v>
+        <v>20 ngày</v>
       </c>
       <c r="G7" s="32">
         <v>23</v>
@@ -74137,7 +76501,7 @@
       </c>
       <c r="E8" s="39" t="str">
         <f t="shared" si="2"/>
-        <v>07 ngày</v>
+        <v>05 ngày</v>
       </c>
       <c r="G8" s="32">
         <v>14</v>
@@ -74162,7 +76526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18:J18"/>
     </sheetView>
   </sheetViews>
@@ -74173,23 +76537,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="138" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="140" t="s">
+      <c r="E1" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="143" t="s">
+      <c r="F1" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="146"/>
     </row>
     <row r="2" spans="4:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D2" s="138"/>
-      <c r="E2" s="141"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="142"/>
       <c r="F2" s="34" t="s">
         <v>163</v>
       </c>
@@ -74207,8 +76571,8 @@
       </c>
     </row>
     <row r="3" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="139"/>
-      <c r="E3" s="142"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="143"/>
       <c r="F3" s="36" t="s">
         <v>168</v>
       </c>
@@ -74318,26 +76682,26 @@
     </row>
     <row r="17" spans="4:11" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="146" t="s">
+      <c r="D18" s="147" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="146" t="s">
+      <c r="E18" s="147" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="149" t="s">
+      <c r="F18" s="150" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
       <c r="K18">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="4:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
       <c r="F19" s="101" t="s">
         <v>163</v>
       </c>
@@ -74355,8 +76719,8 @@
       </c>
     </row>
     <row r="20" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="148"/>
-      <c r="E20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
       <c r="F20" s="109" t="s">
         <v>548</v>
       </c>

--- a/TongHopDuThau.xlsx
+++ b/TongHopDuThau.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB525C30-1106-4D9D-8D87-EE51D9E0E5BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="768" activeTab="10"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TBMT" sheetId="2" r:id="rId1"/>
@@ -45,7 +46,7 @@
     <definedName name="tbmt">TBMT!$A:$J</definedName>
     <definedName name="TT">[3]DG!$A$5:$I$1419</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="837">
   <si>
     <t>CongTrinh</t>
   </si>
@@ -2765,7 +2766,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm"/>
@@ -3561,11 +3562,11 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
@@ -3816,7 +3817,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD6E85A7-B40A-4887-B87C-EAEE490EF58D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6E85A7-B40A-4887-B87C-EAEE490EF58D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3872,7 +3873,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F78336F6-B8EE-492C-BE90-B91532F08161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78336F6-B8EE-492C-BE90-B91532F08161}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3928,7 +3929,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17EE33B0-9F33-4BD9-BAC8-E82B191C6EE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EE33B0-9F33-4BD9-BAC8-E82B191C6EE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3984,7 +3985,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD2BFFC3-2B5E-451D-9351-8DEC5173377D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2BFFC3-2B5E-451D-9351-8DEC5173377D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4040,7 +4041,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C873A17-B2AA-4D01-A597-03FFBAFD241E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C873A17-B2AA-4D01-A597-03FFBAFD241E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4096,7 +4097,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A664728-7B38-4FF3-85B9-E928518432AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A664728-7B38-4FF3-85B9-E928518432AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -64662,30 +64663,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="1" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="str">
         <f>LEFT(D1,11)</f>
         <v/>
@@ -64705,7 +64706,7 @@
       <c r="L1" s="48"/>
       <c r="M1" s="48"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="str">
         <f>TRIM(B2)</f>
         <v/>
@@ -64723,7 +64724,7 @@
       <c r="L2" s="48"/>
       <c r="M2" s="48"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="str">
         <f t="shared" ref="A3:A39" si="0">TRIM(B3)</f>
         <v>Thông tin chung</v>
@@ -64743,7 +64744,7 @@
       <c r="L3" s="48"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Số TBMT</v>
@@ -64769,7 +64770,7 @@
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="str">
         <f>TRIM(B5)</f>
         <v>Hình thức thông báo</v>
@@ -64791,7 +64792,7 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Loại thông báo</v>
@@ -64817,7 +64818,7 @@
       <c r="L6" s="48"/>
       <c r="M6" s="48"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Bên mời thầu</v>
@@ -64839,7 +64840,7 @@
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Chủ đầu tư</v>
@@ -64861,7 +64862,7 @@
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Phân loại</v>
@@ -64883,7 +64884,7 @@
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Tên gói thầu</v>
@@ -64905,7 +64906,7 @@
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Tên dự án</v>
@@ -64927,7 +64928,7 @@
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Nguồn vốn</v>
@@ -64949,7 +64950,7 @@
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Phương thức</v>
@@ -64971,7 +64972,7 @@
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Thời gian thực hiện hợp đồng</v>
@@ -64993,7 +64994,7 @@
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Nội dung chính gói thầu</v>
@@ -65013,7 +65014,7 @@
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Loại hợp đồng</v>
@@ -65035,7 +65036,7 @@
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Hình thức đấu thầu</v>
@@ -65059,7 +65060,7 @@
       <c r="L17" s="48"/>
       <c r="M17" s="48"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65077,7 +65078,7 @@
       <c r="L18" s="48"/>
       <c r="M18" s="48"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Tham dự thầu</v>
@@ -65097,7 +65098,7 @@
       <c r="L19" s="48"/>
       <c r="M19" s="48"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Hình thức nhận HSDT</v>
@@ -65119,7 +65120,7 @@
       <c r="L20" s="48"/>
       <c r="M20" s="48"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Thời gian nhận HSDT từ ngày</v>
@@ -65145,7 +65146,7 @@
       <c r="L21" s="48"/>
       <c r="M21" s="48"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Mua HSMT</v>
@@ -65167,7 +65168,7 @@
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Địa điểm nhận HSDT</v>
@@ -65189,7 +65190,7 @@
       <c r="L23" s="48"/>
       <c r="M23" s="48"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65207,7 +65208,7 @@
       <c r="L24" s="48"/>
       <c r="M24" s="48"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Mở thầu</v>
@@ -65227,7 +65228,7 @@
       <c r="L25" s="48"/>
       <c r="M25" s="48"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Thời điểm mở thầu</v>
@@ -65249,7 +65250,7 @@
       <c r="L26" s="48"/>
       <c r="M26" s="48"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Địa điểm mở thầu</v>
@@ -65271,7 +65272,7 @@
       <c r="L27" s="48"/>
       <c r="M27" s="48"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Giá gói thầu</v>
@@ -65293,7 +65294,7 @@
       <c r="L28" s="48"/>
       <c r="M28" s="48"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền bằng chữ</v>
@@ -65315,7 +65316,7 @@
       <c r="L29" s="48"/>
       <c r="M29" s="48"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65333,7 +65334,7 @@
       <c r="L30" s="48"/>
       <c r="M30" s="48"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Bảo đảm dự thầu</v>
@@ -65353,7 +65354,7 @@
       <c r="L31" s="48"/>
       <c r="M31" s="48"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Hình thức đảm bảo</v>
@@ -65375,7 +65376,7 @@
       <c r="L32" s="48"/>
       <c r="M32" s="48"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền đảm bảo</v>
@@ -65389,7 +65390,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền bằng chữ</v>
@@ -65403,7 +65404,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="str">
         <f t="shared" si="0"/>
         <v>Loại tiền chuyển đổi</v>
@@ -65423,7 +65424,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65433,7 +65434,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65443,7 +65444,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65453,7 +65454,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65470,7 +65471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -65478,16 +65479,16 @@
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.140625" style="133" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="79.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="78.109375" style="133" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="79.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="str">
         <f>"Nội dung công tác "&amp;MAX(B:B)</f>
         <v>Nội dung công tác 15</v>
@@ -65505,7 +65506,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="133" t="s">
         <v>581</v>
       </c>
@@ -65523,7 +65524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="133" t="s">
         <v>582</v>
       </c>
@@ -65541,7 +65542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="133" t="s">
         <v>583</v>
       </c>
@@ -65559,7 +65560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="133" t="s">
         <v>584</v>
       </c>
@@ -65577,7 +65578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="133" t="s">
         <v>596</v>
       </c>
@@ -65596,7 +65597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="134" t="s">
         <v>599</v>
       </c>
@@ -65615,7 +65616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="134" t="s">
         <v>600</v>
       </c>
@@ -65634,7 +65635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="133" t="s">
         <v>597</v>
       </c>
@@ -65653,7 +65654,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="134" t="s">
         <v>598</v>
       </c>
@@ -65672,7 +65673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="134" t="s">
         <v>601</v>
       </c>
@@ -65691,7 +65692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="133" t="s">
         <v>586</v>
       </c>
@@ -65706,7 +65707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="133" t="s">
         <v>587</v>
       </c>
@@ -65721,7 +65722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="133" t="s">
         <v>590</v>
       </c>
@@ -65736,7 +65737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="133" t="s">
         <v>585</v>
       </c>
@@ -65751,7 +65752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="133" t="s">
         <v>588</v>
       </c>
@@ -65766,7 +65767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="133" t="s">
         <v>589</v>
       </c>
@@ -65781,7 +65782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="133" t="s">
         <v>591</v>
       </c>
@@ -65796,7 +65797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="133" t="s">
         <v>592</v>
       </c>
@@ -65811,7 +65812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="133" t="s">
         <v>593</v>
       </c>
@@ -65826,7 +65827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="133" t="s">
         <v>594</v>
       </c>
@@ -65841,7 +65842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="133" t="s">
         <v>604</v>
       </c>
@@ -65860,7 +65861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="133" t="s">
         <v>595</v>
       </c>
@@ -65879,7 +65880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="134" t="s">
         <v>602</v>
       </c>
@@ -65898,7 +65899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="134" t="s">
         <v>603</v>
       </c>
@@ -65917,7 +65918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="133" t="s">
         <v>580</v>
       </c>
@@ -65935,7 +65936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="133" t="s">
         <v>575</v>
       </c>
@@ -65947,7 +65948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="133" t="s">
         <v>576</v>
       </c>
@@ -65959,7 +65960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="133" t="s">
         <v>577</v>
       </c>
@@ -65971,7 +65972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -65980,7 +65981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -65989,7 +65990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -65998,7 +65999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -66007,7 +66008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -66016,7 +66017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -66025,7 +66026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -66034,7 +66035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -66043,7 +66044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -66052,7 +66053,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -66062,8 +66063,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G39">
-    <sortState ref="A2:G39">
+  <autoFilter ref="A1:G39" xr:uid="{00000000-0009-0000-0000-000009000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G39">
       <sortCondition ref="B1:B39"/>
     </sortState>
   </autoFilter>
@@ -66073,22 +66074,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" style="48" customWidth="1"/>
-    <col min="5" max="9" width="32.42578125" style="115" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" style="48" customWidth="1"/>
+    <col min="5" max="9" width="32.44140625" style="115" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="52" customFormat="1" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" s="52" customFormat="1" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="116" t="s">
         <v>103</v>
       </c>
@@ -66114,7 +66115,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B2" s="117">
         <v>1</v>
       </c>
@@ -66137,7 +66138,7 @@
       <c r="H2" s="114"/>
       <c r="I2" s="114"/>
     </row>
-    <row r="3" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B3" s="117">
         <v>2</v>
       </c>
@@ -66160,7 +66161,7 @@
       <c r="H3" s="114"/>
       <c r="I3" s="114"/>
     </row>
-    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="117">
         <v>3</v>
       </c>
@@ -66168,9 +66169,9 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 3</v>
       </c>
-      <c r="D4" s="118" t="e">
-        <f t="array" aca="1" ref="D4" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E4:I4&lt;&gt;0,E4:I4,""))</f>
-        <v>#NAME?</v>
+      <c r="D4" s="118" t="str">
+        <f t="array" ref="D4">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E4:I4&lt;&gt;0,E4:I4,""))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="E4" s="114"/>
       <c r="F4" s="114"/>
@@ -66178,7 +66179,7 @@
       <c r="H4" s="114"/>
       <c r="I4" s="114"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="117">
         <v>4</v>
       </c>
@@ -66186,9 +66187,9 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 4</v>
       </c>
-      <c r="D5" s="118" t="e">
-        <f t="array" aca="1" ref="D5" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E5:I5&lt;&gt;0,E5:I5,""))</f>
-        <v>#NAME?</v>
+      <c r="D5" s="118" t="str">
+        <f t="array" ref="D5">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E5:I5&lt;&gt;0,E5:I5,""))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="E5" s="133"/>
       <c r="F5" s="134"/>
@@ -66196,7 +66197,7 @@
       <c r="H5" s="114"/>
       <c r="I5" s="114"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="117">
         <v>5</v>
       </c>
@@ -66204,9 +66205,9 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 5</v>
       </c>
-      <c r="D6" s="118" t="e">
-        <f t="array" aca="1" ref="D6" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E6:I6&lt;&gt;0,E6:I6,""))</f>
-        <v>#NAME?</v>
+      <c r="D6" s="118" t="str">
+        <f t="array" ref="D6">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E6:I6&lt;&gt;0,E6:I6,""))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="E6" s="133"/>
       <c r="F6" s="134"/>
@@ -66214,7 +66215,7 @@
       <c r="H6" s="114"/>
       <c r="I6" s="114"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="117">
         <v>6</v>
       </c>
@@ -66222,9 +66223,9 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 6</v>
       </c>
-      <c r="D7" s="118" t="e">
-        <f t="array" aca="1" ref="D7" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E7:I7&lt;&gt;0,E7:I7,""))</f>
-        <v>#NAME?</v>
+      <c r="D7" s="118" t="str">
+        <f t="array" ref="D7">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E7:I7&lt;&gt;0,E7:I7,""))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="E7" s="133"/>
       <c r="F7" s="133"/>
@@ -66232,7 +66233,7 @@
       <c r="H7" s="114"/>
       <c r="I7" s="114"/>
     </row>
-    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="117">
         <v>7</v>
       </c>
@@ -66240,9 +66241,9 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 7</v>
       </c>
-      <c r="D8" s="118" t="e">
-        <f t="array" aca="1" ref="D8" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E8:I8&lt;&gt;0,E8:I8,""))</f>
-        <v>#NAME?</v>
+      <c r="D8" s="118" t="str">
+        <f t="array" ref="D8">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E8:I8&lt;&gt;0,E8:I8,""))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="E8" s="133"/>
       <c r="F8" s="133"/>
@@ -66250,7 +66251,7 @@
       <c r="H8" s="114"/>
       <c r="I8" s="114"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="117">
         <v>8</v>
       </c>
@@ -66258,16 +66259,16 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 8</v>
       </c>
-      <c r="D9" s="118" t="e">
-        <f t="array" aca="1" ref="D9" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E9:I9&lt;&gt;0,E9:I9,""))</f>
-        <v>#NAME?</v>
+      <c r="D9" s="118" t="str">
+        <f t="array" ref="D9">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E9:I9&lt;&gt;0,E9:I9,""))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="E9" s="133"/>
       <c r="F9" s="133"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
     </row>
-    <row r="10" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="117">
         <v>9</v>
       </c>
@@ -66275,9 +66276,9 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 9</v>
       </c>
-      <c r="D10" s="118" t="e">
-        <f t="array" aca="1" ref="D10" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E10:I10&lt;&gt;0,E10:I10,""))</f>
-        <v>#NAME?</v>
+      <c r="D10" s="118" t="str">
+        <f t="array" ref="D10">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E10:I10&lt;&gt;0,E10:I10,""))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -66285,7 +66286,7 @@
       <c r="H10" s="114"/>
       <c r="I10" s="114"/>
     </row>
-    <row r="11" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="117">
         <v>10</v>
       </c>
@@ -66293,9 +66294,9 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 10</v>
       </c>
-      <c r="D11" s="118" t="e">
-        <f t="array" aca="1" ref="D11" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E11:I11&lt;&gt;0,E11:I11,""))</f>
-        <v>#NAME?</v>
+      <c r="D11" s="118" t="str">
+        <f t="array" ref="D11">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E11:I11&lt;&gt;0,E11:I11,""))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="E11" s="133"/>
       <c r="F11" s="1"/>
@@ -66303,7 +66304,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="114"/>
     </row>
-    <row r="12" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="117">
         <v>11</v>
       </c>
@@ -66311,9 +66312,9 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 11</v>
       </c>
-      <c r="D12" s="118" t="e">
-        <f t="array" aca="1" ref="D12" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E12:I12&lt;&gt;0,E12:I12,""))</f>
-        <v>#NAME?</v>
+      <c r="D12" s="118" t="str">
+        <f t="array" ref="D12">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E12:I12&lt;&gt;0,E12:I12,""))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -66322,7 +66323,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="117">
         <v>12</v>
       </c>
@@ -66330,9 +66331,9 @@
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 12</v>
       </c>
-      <c r="D13" s="118" t="e">
-        <f t="array" aca="1" ref="D13" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E13:I13&lt;&gt;0,E13:I13,""))</f>
-        <v>#NAME?</v>
+      <c r="D13" s="118" t="str">
+        <f t="array" ref="D13">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E13:I13&lt;&gt;0,E13:I13,""))</f>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -66340,7 +66341,7 @@
       <c r="H13" s="114"/>
       <c r="I13" s="114"/>
     </row>
-    <row r="14" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="117">
         <v>13</v>
       </c>
@@ -66348,12 +66349,12 @@
         <f t="shared" ref="C14:C16" si="1">$C$1&amp;" thứ "&amp;B14</f>
         <v>Lần cắt điện thứ 13</v>
       </c>
-      <c r="D14" s="118" t="e">
-        <f t="array" aca="1" ref="D14" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E14:I14&lt;&gt;0,E14:I14,""))</f>
-        <v>#NAME?</v>
+      <c r="D14" s="118" t="str">
+        <f t="array" ref="D14">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E14:I14&lt;&gt;0,E14:I14,""))</f>
+        <v xml:space="preserve"> - </v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="117">
         <v>14</v>
       </c>
@@ -66361,12 +66362,12 @@
         <f t="shared" si="1"/>
         <v>Lần cắt điện thứ 14</v>
       </c>
-      <c r="D15" s="118" t="e">
-        <f t="array" aca="1" ref="D15" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E15:I15&lt;&gt;0,E15:I15,""))</f>
-        <v>#NAME?</v>
+      <c r="D15" s="118" t="str">
+        <f t="array" ref="D15">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E15:I15&lt;&gt;0,E15:I15,""))</f>
+        <v xml:space="preserve"> - </v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="117">
         <v>15</v>
       </c>
@@ -66374,13 +66375,13 @@
         <f t="shared" si="1"/>
         <v>Lần cắt điện thứ 15</v>
       </c>
-      <c r="D16" s="118" t="e">
-        <f t="array" aca="1" ref="D16" ca="1">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E16:I16&lt;&gt;0,E16:I16,""))</f>
-        <v>#NAME?</v>
+      <c r="D16" s="118" t="str">
+        <f t="array" ref="D16">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E16:I16&lt;&gt;0,E16:I16,""))</f>
+        <v xml:space="preserve"> - </v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I15"/>
+  <autoFilter ref="B1:I15" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <conditionalFormatting sqref="E1:I11 E13:I1048576 E12:G12 I12">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
@@ -66392,7 +66393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V79"/>
   <sheetViews>
@@ -66402,27 +66403,27 @@
       <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="24"/>
+    <col min="1" max="1" width="16.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="24"/>
     <col min="3" max="3" width="13" style="24" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="27"/>
-    <col min="5" max="5" width="8.85546875" style="24"/>
-    <col min="6" max="6" width="30.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="25" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="24"/>
+    <col min="4" max="4" width="8.88671875" style="27"/>
+    <col min="5" max="5" width="8.88671875" style="24"/>
+    <col min="6" max="6" width="30.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="25" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="24"/>
     <col min="12" max="12" width="13" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="27" customWidth="1"/>
-    <col min="14" max="14" width="50.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="24"/>
+    <col min="13" max="13" width="16.109375" style="27" customWidth="1"/>
+    <col min="14" max="14" width="50.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>636</v>
       </c>
@@ -66471,7 +66472,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="62" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="62" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
         <v>486</v>
       </c>
@@ -66518,7 +66519,7 @@
       <c r="U2" s="24"/>
       <c r="V2" s="24"/>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>486</v>
       </c>
@@ -66555,7 +66556,7 @@
         <v>41396</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
@@ -66590,7 +66591,7 @@
         <v>34970</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
@@ -66629,7 +66630,7 @@
         <v>29221</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>109</v>
       </c>
@@ -66665,7 +66666,7 @@
         <v>30027</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>109</v>
       </c>
@@ -66701,7 +66702,7 @@
         <v>31088</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>109</v>
       </c>
@@ -66737,7 +66738,7 @@
         <v>34976</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>109</v>
       </c>
@@ -66773,7 +66774,7 @@
         <v>34281</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>109</v>
       </c>
@@ -66809,7 +66810,7 @@
         <v>35884</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>109</v>
       </c>
@@ -66845,7 +66846,7 @@
         <v>29205</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>109</v>
       </c>
@@ -66881,7 +66882,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>109</v>
       </c>
@@ -66917,7 +66918,7 @@
         <v>36767</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>109</v>
       </c>
@@ -66953,7 +66954,7 @@
         <v>35555</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>109</v>
       </c>
@@ -66989,7 +66990,7 @@
         <v>36242</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>109</v>
       </c>
@@ -67025,7 +67026,7 @@
         <v>34041</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>109</v>
       </c>
@@ -67061,7 +67062,7 @@
         <v>34974</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>109</v>
       </c>
@@ -67097,7 +67098,7 @@
         <v>35580</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>109</v>
       </c>
@@ -67133,7 +67134,7 @@
         <v>27567</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>109</v>
       </c>
@@ -67169,7 +67170,7 @@
         <v>29696</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>109</v>
       </c>
@@ -67205,7 +67206,7 @@
         <v>31416</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>109</v>
       </c>
@@ -67241,7 +67242,7 @@
         <v>37008</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>109</v>
       </c>
@@ -67277,7 +67278,7 @@
         <v>33816</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="E24" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67330,7 +67331,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="B25" s="62"/>
       <c r="E25" s="84">
         <f t="shared" si="0"/>
@@ -67366,7 +67367,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="E26" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67382,7 +67383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="E27" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67405,7 +67406,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="E28" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67425,7 +67426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="E29" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67441,7 +67442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="E30" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67457,7 +67458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="E31" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67477,7 +67478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="B32" s="62"/>
       <c r="E32" s="84">
         <f t="shared" si="0"/>
@@ -67509,7 +67510,7 @@
         <v>29587</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>109</v>
       </c>
@@ -67541,7 +67542,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>109</v>
       </c>
@@ -67578,7 +67579,7 @@
         <v>30730</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
         <v>109</v>
       </c>
@@ -67605,7 +67606,7 @@
         <v>27534</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>109</v>
       </c>
@@ -67632,7 +67633,7 @@
         <v>30596</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="62"/>
       <c r="E37" s="84">
         <f t="shared" si="3"/>
@@ -67667,7 +67668,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B38" s="62"/>
       <c r="E38" s="84">
         <f t="shared" si="3"/>
@@ -67700,7 +67701,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="E39" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67720,7 +67721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="E40" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67740,7 +67741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="E41" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67760,7 +67761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="E42" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67780,7 +67781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B43" s="62"/>
       <c r="E43" s="84">
         <f t="shared" si="3"/>
@@ -67813,7 +67814,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B44" s="62"/>
       <c r="E44" s="84">
         <f t="shared" si="3"/>
@@ -67848,7 +67849,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="62"/>
       <c r="E45" s="84">
         <f t="shared" si="3"/>
@@ -67883,7 +67884,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B46" s="62"/>
       <c r="E46" s="84">
         <f t="shared" si="3"/>
@@ -67918,7 +67919,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B47" s="62"/>
       <c r="E47" s="84">
         <f t="shared" si="3"/>
@@ -67951,7 +67952,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="E48" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67971,7 +67972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B49" s="62"/>
       <c r="E49" s="84">
         <f t="shared" si="3"/>
@@ -68004,7 +68005,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="B50" s="62"/>
       <c r="E50" s="84">
         <f t="shared" si="3"/>
@@ -68039,7 +68040,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="E51" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -68059,7 +68060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="E52" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -68079,7 +68080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>653</v>
       </c>
@@ -68100,7 +68101,7 @@
         <v>29541</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B60" s="24">
         <f>VLOOKUP(C60,F:K,6,0)</f>
         <v>3</v>
@@ -68109,7 +68110,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B61" s="24">
         <f t="shared" ref="B61:B79" si="4">VLOOKUP(C61,F:K,6,0)</f>
         <v>4</v>
@@ -68118,7 +68119,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B62" s="24">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -68127,7 +68128,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B63" s="24">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -68136,7 +68137,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B64" s="24">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -68145,7 +68146,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="24">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -68154,7 +68155,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="24">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -68163,7 +68164,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="24">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -68172,7 +68173,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="24">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -68181,7 +68182,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="24">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -68190,7 +68191,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="24">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -68199,7 +68200,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="24">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -68208,7 +68209,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="24">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -68217,7 +68218,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="24">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -68226,7 +68227,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="24">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -68235,7 +68236,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="24">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -68244,7 +68245,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="24">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -68253,7 +68254,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="24">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -68262,7 +68263,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="24">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -68271,7 +68272,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="24">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -68281,13 +68282,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V53">
+  <autoFilter ref="A1:V53" xr:uid="{00000000-0009-0000-0000-00000B000000}">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A2:V52">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V52">
       <sortCondition ref="D1:D52"/>
     </sortState>
   </autoFilter>
@@ -68309,25 +68310,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="67" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="66" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="64.8" x14ac:dyDescent="0.3">
       <c r="B1" s="69" t="s">
         <v>169</v>
       </c>
@@ -68351,7 +68352,7 @@
         <v>3500000000</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="154" t="s">
         <v>214</v>
       </c>
@@ -68373,7 +68374,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="154"/>
       <c r="C3" s="155"/>
       <c r="D3" s="70" t="s">
@@ -68391,7 +68392,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="154"/>
       <c r="C4" s="155"/>
       <c r="D4" s="70" t="s">
@@ -68411,7 +68412,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
       <c r="D5" s="74">
@@ -68435,13 +68436,13 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E6" s="67"/>
       <c r="I6" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>211</v>
       </c>
@@ -68455,7 +68456,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2017</v>
       </c>
@@ -68490,7 +68491,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="72" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2018</v>
       </c>
@@ -68525,7 +68526,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2019</v>
       </c>
@@ -68547,39 +68548,38 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1"/>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="95" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="65" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="65" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="93">
         <f>SUMIF(A2:A21,"x",F2:F21)</f>
-        <v>6197513796</v>
+        <v>1740168722</v>
       </c>
       <c r="B1" s="65" t="s">
         <v>374</v>
@@ -68609,7 +68609,10 @@
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
       <c r="B2" t="s">
         <v>351</v>
       </c>
@@ -68638,7 +68641,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>362</v>
       </c>
@@ -68667,7 +68670,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>367</v>
       </c>
@@ -68696,10 +68699,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>127</v>
-      </c>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>370</v>
       </c>
@@ -68728,10 +68728,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>357</v>
       </c>
@@ -68760,10 +68757,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>127</v>
-      </c>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>537</v>
       </c>
@@ -68789,81 +68783,71 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I12">
         <v>1640251089</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I13">
         <v>1374255938</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I14">
         <v>3043578216</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I15">
         <v>1133019615</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I16">
         <v>1276052117</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" s="97"/>
     </row>
-    <row r="18" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="97"/>
     </row>
-    <row r="19" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" s="97"/>
     </row>
-    <row r="20" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20" s="97"/>
     </row>
-    <row r="21" spans="4:4" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" s="97"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J21">
-    <filterColumn colId="0">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J21" xr:uid="{00000000-0009-0000-0000-00000D000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="C1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="31.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="31.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>153</v>
       </c>
@@ -68874,7 +68858,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>1</v>
       </c>
@@ -68885,7 +68869,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>2</v>
       </c>
@@ -68896,7 +68880,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>3</v>
       </c>
@@ -68907,7 +68891,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>4</v>
       </c>
@@ -68918,7 +68902,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>5</v>
       </c>
@@ -68929,7 +68913,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>6</v>
       </c>
@@ -68940,7 +68924,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>153</v>
       </c>
@@ -68954,7 +68938,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>626</v>
       </c>
@@ -68962,7 +68946,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>1</v>
       </c>
@@ -68976,7 +68960,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>2</v>
       </c>
@@ -68990,7 +68974,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>3</v>
       </c>
@@ -69007,19 +68991,19 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="D1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>181</v>
       </c>
@@ -69039,7 +69023,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="2" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D2">
         <f>IFERROR(VLOOKUP(E2,NhanSu!F:K,6,0),0)</f>
         <v>19</v>
@@ -69060,7 +69044,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D3">
         <f>IFERROR(VLOOKUP(E3,NhanSu!F:K,6,0),0)</f>
         <v>14</v>
@@ -69081,7 +69065,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D4">
         <f>IFERROR(VLOOKUP(E4,NhanSu!F:K,6,0),0)</f>
         <v>3</v>
@@ -69102,7 +69086,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5">
         <f>IFERROR(VLOOKUP(E5,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69123,7 +69107,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6">
         <f>IFERROR(VLOOKUP(E6,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69144,7 +69128,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7">
         <f>IFERROR(VLOOKUP(E7,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69165,7 +69149,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8">
         <f>IFERROR(VLOOKUP(E8,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69186,7 +69170,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9">
         <f>IFERROR(VLOOKUP(E9,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69207,7 +69191,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10">
         <f>IFERROR(VLOOKUP(E10,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69228,7 +69212,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11">
         <f>IFERROR(VLOOKUP(E11,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69249,7 +69233,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12">
         <f>IFERROR(VLOOKUP(E12,NhanSu!F:K,6,0),0)</f>
         <v>22</v>
@@ -69267,7 +69251,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13">
         <f>IFERROR(VLOOKUP(E13,NhanSu!F:K,6,0),0)</f>
         <v>17</v>
@@ -69288,7 +69272,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14">
         <f>IFERROR(VLOOKUP(E14,NhanSu!F:K,6,0),0)</f>
         <v>9</v>
@@ -69309,7 +69293,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15">
         <f>IFERROR(VLOOKUP(E15,NhanSu!F:K,6,0),0)</f>
         <v>6</v>
@@ -69330,7 +69314,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16">
         <f>IFERROR(VLOOKUP(E16,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69351,7 +69335,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D17">
         <f>IFERROR(VLOOKUP(E17,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69372,7 +69356,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D18">
         <f>IFERROR(VLOOKUP(E18,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69393,7 +69377,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D19">
         <f>IFERROR(VLOOKUP(E19,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69414,7 +69398,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D20">
         <f>IFERROR(VLOOKUP(E20,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69435,7 +69419,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D21">
         <f>IFERROR(VLOOKUP(E21,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69456,7 +69440,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D22">
         <f>IFERROR(VLOOKUP(E22,NhanSu!F:K,6,0),0)</f>
         <v>18</v>
@@ -69480,7 +69464,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D23">
         <f>IFERROR(VLOOKUP(E23,NhanSu!F:K,6,0),0)</f>
         <v>12</v>
@@ -69504,7 +69488,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D24">
         <f>IFERROR(VLOOKUP(E24,NhanSu!F:K,6,0),0)</f>
         <v>11</v>
@@ -69528,7 +69512,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D25">
         <f>IFERROR(VLOOKUP(E25,NhanSu!F:K,6,0),0)</f>
         <v>10</v>
@@ -69552,7 +69536,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D26">
         <f>IFERROR(VLOOKUP(E26,NhanSu!F:K,6,0),0)</f>
         <v>7</v>
@@ -69576,7 +69560,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D27">
         <f>IFERROR(VLOOKUP(E27,NhanSu!F:K,6,0),0)</f>
         <v>4</v>
@@ -69600,7 +69584,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D28">
         <f>IFERROR(VLOOKUP(E28,NhanSu!F:K,6,0),0)</f>
         <v>5</v>
@@ -69624,7 +69608,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D29">
         <f>IFERROR(VLOOKUP(E29,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69648,7 +69632,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D30">
         <f>IFERROR(VLOOKUP(E30,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69672,7 +69656,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D31">
         <f>IFERROR(VLOOKUP(E31,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69696,7 +69680,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D32">
         <f>IFERROR(VLOOKUP(E32,NhanSu!F:K,6,0),0)</f>
         <v>21</v>
@@ -69717,7 +69701,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33">
         <f>IFERROR(VLOOKUP(E33,NhanSu!F:K,6,0),0)</f>
         <v>20</v>
@@ -69738,7 +69722,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34">
         <f>IFERROR(VLOOKUP(E34,NhanSu!F:K,6,0),0)</f>
         <v>15</v>
@@ -69759,7 +69743,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35">
         <f>IFERROR(VLOOKUP(E35,NhanSu!F:K,6,0),0)</f>
         <v>13</v>
@@ -69780,7 +69764,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36">
         <f>IFERROR(VLOOKUP(E36,NhanSu!F:K,6,0),0)</f>
         <v>8</v>
@@ -69801,7 +69785,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37">
         <f>IFERROR(VLOOKUP(E37,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69822,7 +69806,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38">
         <f>IFERROR(VLOOKUP(E38,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69843,7 +69827,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39">
         <f>IFERROR(VLOOKUP(E39,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69864,7 +69848,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40">
         <f>IFERROR(VLOOKUP(E40,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69885,7 +69869,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41">
         <f>IFERROR(VLOOKUP(E41,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69906,7 +69890,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42">
         <f>IFERROR(VLOOKUP(E42,NhanSu!F:K,6,0),0)</f>
         <v>16</v>
@@ -69939,7 +69923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="C1:F177"/>
   <sheetViews>
@@ -69947,12 +69931,12 @@
       <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>169</v>
       </c>
@@ -69966,7 +69950,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="2" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>676</v>
       </c>
@@ -69974,7 +69958,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="3" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>678</v>
       </c>
@@ -69985,12 +69969,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="5" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>681</v>
       </c>
@@ -70001,7 +69985,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="6" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>684</v>
       </c>
@@ -70012,7 +69996,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="7" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>686</v>
       </c>
@@ -70023,12 +70007,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="9" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>687</v>
       </c>
@@ -70039,7 +70023,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="10" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>688</v>
       </c>
@@ -70050,7 +70034,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="11" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>691</v>
       </c>
@@ -70061,7 +70045,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="12" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>693</v>
       </c>
@@ -70072,7 +70056,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="13" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>694</v>
       </c>
@@ -70083,7 +70067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>696</v>
       </c>
@@ -70094,7 +70078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>697</v>
       </c>
@@ -70105,7 +70089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>698</v>
       </c>
@@ -70113,7 +70097,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="17" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>699</v>
       </c>
@@ -70124,7 +70108,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="18" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>701</v>
       </c>
@@ -70135,7 +70119,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="19" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>703</v>
       </c>
@@ -70146,7 +70130,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="20" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>705</v>
       </c>
@@ -70157,7 +70141,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="21" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>707</v>
       </c>
@@ -70168,7 +70152,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="22" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>708</v>
       </c>
@@ -70179,7 +70163,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="23" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>684</v>
       </c>
@@ -70190,7 +70174,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="24" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>710</v>
       </c>
@@ -70201,7 +70185,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="25" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>711</v>
       </c>
@@ -70212,12 +70196,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="27" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>714</v>
       </c>
@@ -70228,7 +70212,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="28" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>715</v>
       </c>
@@ -70239,7 +70223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>717</v>
       </c>
@@ -70250,7 +70234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>718</v>
       </c>
@@ -70261,7 +70245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>720</v>
       </c>
@@ -70272,7 +70256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>721</v>
       </c>
@@ -70283,7 +70267,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="33" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>723</v>
       </c>
@@ -70294,7 +70278,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="34" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>724</v>
       </c>
@@ -70305,7 +70289,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="35" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>725</v>
       </c>
@@ -70316,7 +70300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>726</v>
       </c>
@@ -70327,12 +70311,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="38" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>31</v>
       </c>
@@ -70343,7 +70327,7 @@
         <v>6720</v>
       </c>
     </row>
-    <row r="39" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>715</v>
       </c>
@@ -70354,7 +70338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>717</v>
       </c>
@@ -70365,7 +70349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>720</v>
       </c>
@@ -70376,7 +70360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>727</v>
       </c>
@@ -70387,7 +70371,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="43" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>723</v>
       </c>
@@ -70398,7 +70382,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="44" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>724</v>
       </c>
@@ -70409,7 +70393,7 @@
         <v>6720</v>
       </c>
     </row>
-    <row r="45" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>725</v>
       </c>
@@ -70420,7 +70404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>728</v>
       </c>
@@ -70431,7 +70415,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="47" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>731</v>
       </c>
@@ -70442,12 +70426,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="49" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>733</v>
       </c>
@@ -70458,7 +70442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>735</v>
       </c>
@@ -70469,7 +70453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>736</v>
       </c>
@@ -70477,7 +70461,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="52" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>738</v>
       </c>
@@ -70488,12 +70472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="54" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>739</v>
       </c>
@@ -70504,7 +70488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>740</v>
       </c>
@@ -70515,7 +70499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>741</v>
       </c>
@@ -70526,7 +70510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>742</v>
       </c>
@@ -70537,7 +70521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>743</v>
       </c>
@@ -70548,7 +70532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>744</v>
       </c>
@@ -70559,7 +70543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>745</v>
       </c>
@@ -70570,7 +70554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>746</v>
       </c>
@@ -70581,12 +70565,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="63" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>739</v>
       </c>
@@ -70597,7 +70581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>740</v>
       </c>
@@ -70608,7 +70592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>741</v>
       </c>
@@ -70619,7 +70603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>747</v>
       </c>
@@ -70630,7 +70614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>744</v>
       </c>
@@ -70641,7 +70625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>745</v>
       </c>
@@ -70652,7 +70636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>748</v>
       </c>
@@ -70663,12 +70647,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="71" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>749</v>
       </c>
@@ -70679,7 +70663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>750</v>
       </c>
@@ -70690,7 +70674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>751</v>
       </c>
@@ -70701,7 +70685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>752</v>
       </c>
@@ -70712,7 +70696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>753</v>
       </c>
@@ -70723,7 +70707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>754</v>
       </c>
@@ -70734,12 +70718,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="78" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>749</v>
       </c>
@@ -70750,7 +70734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>750</v>
       </c>
@@ -70761,7 +70745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>755</v>
       </c>
@@ -70772,7 +70756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>743</v>
       </c>
@@ -70783,7 +70767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>751</v>
       </c>
@@ -70794,7 +70778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>756</v>
       </c>
@@ -70805,7 +70789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>757</v>
       </c>
@@ -70816,12 +70800,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="86" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>758</v>
       </c>
@@ -70832,7 +70816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>759</v>
       </c>
@@ -70843,7 +70827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>743</v>
       </c>
@@ -70854,7 +70838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>755</v>
       </c>
@@ -70865,7 +70849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>752</v>
       </c>
@@ -70876,7 +70860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>760</v>
       </c>
@@ -70887,7 +70871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>761</v>
       </c>
@@ -70898,12 +70882,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="94" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>758</v>
       </c>
@@ -70914,7 +70898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>759</v>
       </c>
@@ -70925,7 +70909,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>762</v>
       </c>
@@ -70936,7 +70920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>747</v>
       </c>
@@ -70947,7 +70931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>752</v>
       </c>
@@ -70958,7 +70942,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>760</v>
       </c>
@@ -70969,7 +70953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
         <v>763</v>
       </c>
@@ -70980,12 +70964,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="102" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>764</v>
       </c>
@@ -70996,7 +70980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>765</v>
       </c>
@@ -71007,7 +70991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>766</v>
       </c>
@@ -71018,7 +71002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>767</v>
       </c>
@@ -71029,7 +71013,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="106" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
         <v>56</v>
       </c>
@@ -71040,7 +71024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
         <v>770</v>
       </c>
@@ -71051,7 +71035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
         <v>771</v>
       </c>
@@ -71062,7 +71046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>772</v>
       </c>
@@ -71073,12 +71057,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="111" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
         <v>764</v>
       </c>
@@ -71089,7 +71073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
         <v>765</v>
       </c>
@@ -71100,7 +71084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
         <v>766</v>
       </c>
@@ -71111,7 +71095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
         <v>773</v>
       </c>
@@ -71122,7 +71106,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="115" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
         <v>775</v>
       </c>
@@ -71133,7 +71117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
         <v>56</v>
       </c>
@@ -71144,7 +71128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
         <v>770</v>
       </c>
@@ -71155,7 +71139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
         <v>776</v>
       </c>
@@ -71166,7 +71150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
         <v>777</v>
       </c>
@@ -71177,12 +71161,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="121" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
         <v>778</v>
       </c>
@@ -71193,7 +71177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
         <v>779</v>
       </c>
@@ -71204,7 +71188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
         <v>780</v>
       </c>
@@ -71215,7 +71199,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="124" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
         <v>684</v>
       </c>
@@ -71226,7 +71210,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="125" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
         <v>782</v>
       </c>
@@ -71237,12 +71221,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="127" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
         <v>778</v>
       </c>
@@ -71253,7 +71237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
         <v>779</v>
       </c>
@@ -71264,7 +71248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
         <v>783</v>
       </c>
@@ -71275,7 +71259,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="130" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
         <v>684</v>
       </c>
@@ -71286,7 +71270,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="131" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
         <v>784</v>
       </c>
@@ -71297,12 +71281,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="133" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
         <v>785</v>
       </c>
@@ -71313,7 +71297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
         <v>786</v>
       </c>
@@ -71324,7 +71308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
         <v>751</v>
       </c>
@@ -71335,7 +71319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
         <v>787</v>
       </c>
@@ -71346,12 +71330,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="138" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
         <v>785</v>
       </c>
@@ -71362,7 +71346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>786</v>
       </c>
@@ -71373,7 +71357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>694</v>
       </c>
@@ -71384,7 +71368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
         <v>788</v>
       </c>
@@ -71395,12 +71379,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="143" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
         <v>789</v>
       </c>
@@ -71411,7 +71395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D144" t="s">
         <v>790</v>
       </c>
@@ -71422,7 +71406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
         <v>791</v>
       </c>
@@ -71433,12 +71417,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="146" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="147" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
         <v>792</v>
       </c>
@@ -71449,7 +71433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
         <v>793</v>
       </c>
@@ -71460,7 +71444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
         <v>794</v>
       </c>
@@ -71471,12 +71455,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="151" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
         <v>96</v>
       </c>
@@ -71487,7 +71471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
         <v>796</v>
       </c>
@@ -71498,7 +71482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D153" t="s">
         <v>797</v>
       </c>
@@ -71509,7 +71493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>798</v>
       </c>
@@ -71517,7 +71501,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="155" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C155">
         <v>1</v>
       </c>
@@ -71531,7 +71515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
         <v>802</v>
       </c>
@@ -71542,7 +71526,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="157" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
         <v>804</v>
       </c>
@@ -71553,7 +71537,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="158" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
         <v>806</v>
       </c>
@@ -71564,7 +71548,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="159" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>718</v>
       </c>
@@ -71575,7 +71559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="3:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
         <v>808</v>
       </c>
@@ -71586,7 +71570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
         <v>809</v>
       </c>
@@ -71597,7 +71581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
         <v>810</v>
       </c>
@@ -71608,7 +71592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
         <v>811</v>
       </c>
@@ -71619,7 +71603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
         <v>812</v>
       </c>
@@ -71630,7 +71614,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="165" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>814</v>
       </c>
@@ -71641,7 +71625,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="166" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>817</v>
       </c>
@@ -71652,7 +71636,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="167" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>819</v>
       </c>
@@ -71663,7 +71647,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="168" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>820</v>
       </c>
@@ -71674,7 +71658,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="169" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D169" t="s">
         <v>822</v>
       </c>
@@ -71685,7 +71669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D170" t="s">
         <v>824</v>
       </c>
@@ -71696,7 +71680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D171" t="s">
         <v>825</v>
       </c>
@@ -71707,7 +71691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D172" t="s">
         <v>741</v>
       </c>
@@ -71718,7 +71702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>826</v>
       </c>
@@ -71729,7 +71713,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="174" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>829</v>
       </c>
@@ -71740,12 +71724,12 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="175" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D175" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="176" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D176" t="s">
         <v>831</v>
       </c>
@@ -71756,7 +71740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="4:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D177" t="s">
         <v>832</v>
       </c>
@@ -71768,7 +71752,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F177">
+  <autoFilter ref="C1:F177" xr:uid="{00000000-0009-0000-0000-000010000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Giáp níu dừng dây bọc 50 + Yếm móng U + Mắt nối yếm"/>
@@ -71781,7 +71765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -71790,29 +71774,29 @@
       <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="45" style="15" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="52.5546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="15" customWidth="1"/>
     <col min="8" max="8" width="19" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="15"/>
-    <col min="10" max="10" width="15.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="15"/>
+    <col min="10" max="10" width="15.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" style="15" customWidth="1"/>
     <col min="14" max="14" width="14" style="77" customWidth="1"/>
-    <col min="15" max="16" width="18.5703125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="15"/>
+    <col min="15" max="16" width="18.5546875" style="15" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
@@ -71869,7 +71853,7 @@
       </c>
       <c r="T1" s="77"/>
     </row>
-    <row r="2" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="str">
         <f t="shared" ref="A2" si="0">VLOOKUP("Số TBMT",tbmt,4,0)</f>
         <v>20200401924-00</v>
@@ -71915,7 +71899,7 @@
         <v>04/05/2021</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>654</v>
       </c>
@@ -71959,7 +71943,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>646</v>
       </c>
@@ -71995,7 +71979,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>20191257175</v>
       </c>
@@ -72042,7 +72026,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>97</v>
       </c>
@@ -72088,7 +72072,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>102</v>
       </c>
@@ -72132,7 +72116,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>225</v>
       </c>
@@ -72182,7 +72166,7 @@
         <v>16/04/1981</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="17" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="17" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>243</v>
       </c>
@@ -72224,7 +72208,7 @@
       </c>
       <c r="N9" s="78"/>
     </row>
-    <row r="10" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>253</v>
       </c>
@@ -72276,7 +72260,7 @@
         <v>16/04/1981</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>264</v>
       </c>
@@ -72314,7 +72298,7 @@
         <v>44273.345138888886</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>275</v>
       </c>
@@ -72352,7 +72336,7 @@
         <v>44279.342361111114</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>309</v>
       </c>
@@ -72391,7 +72375,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>452</v>
       </c>
@@ -72429,7 +72413,7 @@
         <v>44274.34375</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>482</v>
       </c>
@@ -72467,7 +72451,7 @@
         <v>44279.334027777775</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>487</v>
       </c>
@@ -72505,7 +72489,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>490</v>
       </c>
@@ -72543,7 +72527,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>500</v>
       </c>
@@ -72583,7 +72567,7 @@
         <v>04/05/2021</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>551</v>
       </c>
@@ -72627,7 +72611,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>605</v>
       </c>
@@ -72699,20 +72683,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D1:M24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
     <col min="13" max="13" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D1">
         <f>COLUMN()-COLUMN($C$1)</f>
         <v>1</v>
@@ -72749,7 +72733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>397</v>
       </c>
@@ -72779,7 +72763,7 @@
         <v>Tiết diện dây [mm2]: 50/8</v>
       </c>
     </row>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>398</v>
       </c>
@@ -72809,7 +72793,7 @@
         <v>Đường kính ngoài của ruột dẫn đối với dây trần hay bọc [mm] : 9,5-10</v>
       </c>
     </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>405</v>
       </c>
@@ -72839,7 +72823,7 @@
         <v>Độ dày lớp bọc cách điện XLPE 22kV : 5,5 mm</v>
       </c>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>407</v>
       </c>
@@ -72869,7 +72853,7 @@
         <v>Đường kính ngoài của dây bọc 22kV [mm]: 23,1-23,4</v>
       </c>
     </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>413</v>
       </c>
@@ -72899,7 +72883,7 @@
         <v>Lực kéo đứt [kN]: 17,1</v>
       </c>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>397</v>
       </c>
@@ -72914,7 +72898,7 @@
         <v xml:space="preserve">Tiết diện dây [mm2]: </v>
       </c>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>427</v>
       </c>
@@ -72929,7 +72913,7 @@
         <v xml:space="preserve">Số tao/đường kính mỗi tao [mm]: </v>
       </c>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>430</v>
       </c>
@@ -72944,7 +72928,7 @@
         <v xml:space="preserve">Đường kính ngoài tối đa của cáp [mm]: </v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>413</v>
       </c>
@@ -72959,31 +72943,31 @@
         <v xml:space="preserve">Lực kéo đứt [kN]: </v>
       </c>
     </row>
-    <row r="14" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.3">
       <c r="M14" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="15" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.3">
       <c r="M15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.3">
       <c r="M16" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
       <c r="M17" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>397</v>
       </c>
@@ -73010,7 +72994,7 @@
         <v>Tiết diện dây [mm2]: 50/8</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>398</v>
       </c>
@@ -73037,7 +73021,7 @@
         <v>Đường kính ngoài của ruột dẫn đối với dây trần hay bọc [mm] : 9,5-10</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>472</v>
       </c>
@@ -73046,7 +73030,7 @@
         <v xml:space="preserve">Độ dày lớp bọc 22kV : </v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>473</v>
       </c>
@@ -73076,7 +73060,7 @@
         <v>+ Cách điện XLPE: 5,5 mm</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>474</v>
       </c>
@@ -73106,7 +73090,7 @@
         <v>+ Vỏ ngoài HDPE: 1,2 mm</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>407</v>
       </c>
@@ -73133,7 +73117,7 @@
         <v>Đường kính ngoài của dây bọc 22kV [mm]: 23,1-23,4</v>
       </c>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>413</v>
       </c>
@@ -73168,25 +73152,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="121"/>
+    <col min="1" max="3" width="8.88671875" style="121"/>
     <col min="4" max="4" width="26" style="122" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="121"/>
+    <col min="5" max="5" width="8.88671875" style="121"/>
     <col min="6" max="6" width="27" style="121" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="121" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="121" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="121"/>
+    <col min="7" max="7" width="7.109375" style="121" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" style="121" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="121"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="119" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="119" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
         <v>127</v>
       </c>
@@ -73212,7 +73196,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D2" s="122" t="s">
         <v>458</v>
       </c>
@@ -73223,7 +73207,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3" s="122" t="s">
         <v>458</v>
       </c>
@@ -73234,7 +73218,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D4" s="122" t="s">
         <v>458</v>
       </c>
@@ -73246,7 +73230,7 @@
       </c>
       <c r="J4" s="123"/>
     </row>
-    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="122" t="s">
         <v>457</v>
       </c>
@@ -73258,7 +73242,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="122" t="s">
         <v>457</v>
       </c>
@@ -73270,7 +73254,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="122" t="s">
         <v>457</v>
       </c>
@@ -73282,7 +73266,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D8" s="122" t="s">
         <v>337</v>
       </c>
@@ -73293,7 +73277,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D9" s="122" t="s">
         <v>337</v>
       </c>
@@ -73304,7 +73288,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D10" s="122" t="s">
         <v>337</v>
       </c>
@@ -73315,7 +73299,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="127" t="s">
         <v>461</v>
       </c>
@@ -73326,7 +73310,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="127" t="s">
         <v>461</v>
       </c>
@@ -73337,7 +73321,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="127" t="s">
         <v>461</v>
       </c>
@@ -73348,7 +73332,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="122" t="s">
         <v>462</v>
       </c>
@@ -73359,7 +73343,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D15" s="122" t="s">
         <v>462</v>
       </c>
@@ -73370,7 +73354,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D16" s="122" t="s">
         <v>462</v>
       </c>
@@ -73381,7 +73365,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" s="122" t="s">
         <v>464</v>
       </c>
@@ -73392,7 +73376,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" s="122" t="s">
         <v>464</v>
       </c>
@@ -73403,7 +73387,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" s="122" t="s">
         <v>464</v>
       </c>
@@ -73414,7 +73398,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" s="122" t="s">
         <v>465</v>
       </c>
@@ -73425,7 +73409,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" s="122" t="s">
         <v>465</v>
       </c>
@@ -73436,7 +73420,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D22" s="122" t="s">
         <v>465</v>
       </c>
@@ -73447,7 +73431,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D23" s="122" t="s">
         <v>466</v>
       </c>
@@ -73458,7 +73442,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D24" s="122" t="s">
         <v>469</v>
       </c>
@@ -73469,7 +73453,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D25" s="122" t="s">
         <v>469</v>
       </c>
@@ -73480,7 +73464,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D26" s="122" t="s">
         <v>469</v>
       </c>
@@ -73491,7 +73475,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D27" s="122" t="s">
         <v>477</v>
       </c>
@@ -73502,7 +73486,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D28" s="122" t="s">
         <v>477</v>
       </c>
@@ -73513,7 +73497,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D29" s="122" t="s">
         <v>477</v>
       </c>
@@ -73524,7 +73508,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D30" s="130" t="s">
         <v>478</v>
       </c>
@@ -73535,7 +73519,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D31" s="130" t="s">
         <v>478</v>
       </c>
@@ -73546,7 +73530,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D32" s="130" t="s">
         <v>478</v>
       </c>
@@ -73557,7 +73541,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D33" s="122" t="s">
         <v>267</v>
       </c>
@@ -73568,7 +73552,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D34" s="122" t="s">
         <v>267</v>
       </c>
@@ -73579,7 +73563,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D35" s="122" t="s">
         <v>267</v>
       </c>
@@ -73590,7 +73574,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D36" s="122" t="s">
         <v>565</v>
       </c>
@@ -73601,7 +73585,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D37" s="122" t="s">
         <v>565</v>
       </c>
@@ -73612,7 +73596,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D38" s="122" t="s">
         <v>565</v>
       </c>
@@ -73624,14 +73608,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J4"/>
+  <autoFilter ref="A1:J4" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1"/>
-    <hyperlink ref="H16" r:id="rId2"/>
-    <hyperlink ref="H19" r:id="rId3"/>
-    <hyperlink ref="H22" r:id="rId4"/>
-    <hyperlink ref="H29" r:id="rId5"/>
-    <hyperlink ref="H32" r:id="rId6"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H16" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="H19" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="H22" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="H29" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="H32" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -73639,23 +73623,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="9" width="8.7109375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.6640625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" s="52" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:11" s="52" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="53" t="s">
         <v>169</v>
       </c>
@@ -73678,7 +73662,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="45">
         <f>SUM($G$1:G2)</f>
         <v>1</v>
@@ -73702,7 +73686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="45">
         <f>SUM($G$1:G3)</f>
         <v>2</v>
@@ -73726,7 +73710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="45">
         <f>SUM($G$1:G4)</f>
         <v>3</v>
@@ -73753,7 +73737,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="45">
         <f>SUM($G$1:G5)</f>
         <v>4</v>
@@ -73777,7 +73761,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="6" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="45">
         <f>SUM($G$1:G6)</f>
         <v>5</v>
@@ -73804,7 +73788,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="45">
         <f>SUM($G$1:G7)</f>
         <v>6</v>
@@ -73828,7 +73812,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="45">
         <f>SUM($G$1:G8)</f>
         <v>7</v>
@@ -73852,7 +73836,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="45">
         <f>SUM($G$1:G9)</f>
         <v>8</v>
@@ -73879,7 +73863,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="10" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="45">
         <f>SUM($G$1:G10)</f>
         <v>9</v>
@@ -73906,7 +73890,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="11" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="45">
         <f>SUM($G$1:G11)</f>
         <v>10</v>
@@ -73933,7 +73917,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="12" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="45">
         <f>SUM($G$1:G12)</f>
         <v>11</v>
@@ -73957,7 +73941,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="45">
         <f>SUM($G$1:G13)</f>
         <v>12</v>
@@ -73981,7 +73965,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="45">
         <f>SUM($G$1:G14)</f>
         <v>13</v>
@@ -74005,7 +73989,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="45">
         <f>SUM($G$1:G15)</f>
         <v>14</v>
@@ -74029,7 +74013,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="16" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="45">
         <f>SUM($G$1:G16)</f>
         <v>15</v>
@@ -74053,7 +74037,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="17" spans="3:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="45">
         <f>SUM($G$1:G17)</f>
         <v>16</v>
@@ -74077,7 +74061,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="45">
         <f>SUM($G$1:G18)</f>
         <v>17</v>
@@ -74101,7 +74085,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="19" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="45">
         <f>SUM($G$1:G19)</f>
         <v>18</v>
@@ -74125,7 +74109,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="45">
         <f>SUM($G$1:G20)</f>
         <v>19</v>
@@ -74149,7 +74133,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="45">
         <f>SUM($G$1:G21)</f>
         <v>20</v>
@@ -74173,7 +74157,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="45">
         <f>SUM($G$1:G22)</f>
         <v>21</v>
@@ -74200,7 +74184,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="23" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="45">
         <f>SUM($G$1:G23)</f>
         <v>22</v>
@@ -74224,7 +74208,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="24" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="45">
         <f>SUM($G$1:G24)</f>
         <v>23</v>
@@ -74248,7 +74232,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="45">
         <f>SUM($G$1:G25)</f>
         <v>24</v>
@@ -74272,7 +74256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="45">
         <f>SUM($G$1:G26)</f>
         <v>25</v>
@@ -74296,7 +74280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="45">
         <f>SUM($G$1:G27)</f>
         <v>26</v>
@@ -74320,7 +74304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="45">
         <f>SUM($G$1:G28)</f>
         <v>27</v>
@@ -74344,7 +74328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="45">
         <f>SUM($G$1:G29)</f>
         <v>28</v>
@@ -74365,7 +74349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="45">
         <f>SUM($G$1:G30)</f>
         <v>29</v>
@@ -74389,7 +74373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="45">
         <f>SUM($G$1:G31)</f>
         <v>30</v>
@@ -74413,7 +74397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="45">
         <f>SUM($G$1:G32)</f>
         <v>31</v>
@@ -74437,7 +74421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="45">
         <f>SUM($G$1:G33)</f>
         <v>32</v>
@@ -74458,7 +74442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="45">
         <f>SUM($G$1:G34)</f>
         <v>33</v>
@@ -74479,7 +74463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="45">
         <f>SUM($G$1:G35)</f>
         <v>34</v>
@@ -74500,7 +74484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="45">
         <f>SUM($G$1:G36)</f>
         <v>35</v>
@@ -74524,7 +74508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="45">
         <f>SUM($G$1:G37)</f>
         <v>36</v>
@@ -74545,7 +74529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="45">
         <f>SUM($G$1:G38)</f>
         <v>37</v>
@@ -74567,7 +74551,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:I38"/>
+  <autoFilter ref="C1:I38" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <conditionalFormatting sqref="D11:D1048576 D1:D2 D7 D9">
     <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
@@ -74595,30 +74579,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="7"/>
-    <col min="4" max="4" width="56.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="7"/>
-    <col min="6" max="6" width="40.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="56.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="7"/>
+    <col min="6" max="6" width="40.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="7"/>
+    <col min="9" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D2" s="8" t="s">
         <v>58</v>
       </c>
@@ -74629,7 +74613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D3" s="9" t="s">
         <v>59</v>
       </c>
@@ -74640,7 +74624,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D4" s="9" t="s">
         <v>60</v>
       </c>
@@ -74651,12 +74635,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D5" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D6" s="9" t="s">
         <v>62</v>
       </c>
@@ -74667,7 +74651,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D7" s="9" t="s">
         <v>63</v>
       </c>
@@ -74681,7 +74665,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
@@ -74692,7 +74676,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
         <v>65</v>
       </c>
@@ -74706,7 +74690,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D10" s="9" t="s">
         <v>66</v>
       </c>
@@ -74720,7 +74704,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D11" s="9" t="s">
         <v>67</v>
       </c>
@@ -74734,7 +74718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D12" s="9" t="s">
         <v>68</v>
       </c>
@@ -74748,7 +74732,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D13" s="9" t="s">
         <v>69</v>
       </c>
@@ -74762,7 +74746,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D14" s="9" t="s">
         <v>70</v>
       </c>
@@ -74776,7 +74760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D15" s="9" t="s">
         <v>71</v>
       </c>
@@ -74790,7 +74774,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D16" s="9" t="s">
         <v>72</v>
       </c>
@@ -74804,7 +74788,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" s="9" t="s">
         <v>73</v>
       </c>
@@ -74818,7 +74802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" s="11" t="s">
         <v>58</v>
       </c>
@@ -74832,7 +74816,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" s="11" t="s">
         <v>75</v>
       </c>
@@ -74846,7 +74830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" s="11"/>
       <c r="F20" s="3" t="s">
         <v>35</v>
@@ -74858,7 +74842,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" s="11" t="s">
         <v>77</v>
       </c>
@@ -74872,7 +74856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D22" s="11" t="s">
         <v>78</v>
       </c>
@@ -74886,7 +74870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D23" s="11" t="s">
         <v>79</v>
       </c>
@@ -74900,7 +74884,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D24" s="11" t="s">
         <v>80</v>
       </c>
@@ -74914,7 +74898,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D25" s="11" t="s">
         <v>81</v>
       </c>
@@ -74928,7 +74912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D26" s="11" t="s">
         <v>76</v>
       </c>
@@ -74942,7 +74926,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D27" s="11" t="s">
         <v>82</v>
       </c>
@@ -74956,7 +74940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D28" s="11" t="s">
         <v>83</v>
       </c>
@@ -74970,7 +74954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F29" s="4" t="s">
         <v>48</v>
       </c>
@@ -74981,7 +74965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F30" s="4" t="s">
         <v>49</v>
       </c>
@@ -74992,7 +74976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F31" s="3" t="s">
         <v>50</v>
       </c>
@@ -75003,7 +74987,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F32" s="3" t="s">
         <v>52</v>
       </c>
@@ -75014,7 +74998,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F33" s="3" t="s">
         <v>55</v>
       </c>
@@ -75025,7 +75009,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F34" s="3" t="s">
         <v>56</v>
       </c>
@@ -75042,7 +75026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M47"/>
   <sheetViews>
@@ -75051,20 +75035,20 @@
       <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="91"/>
+    <col min="2" max="2" width="8.88671875" style="91"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="87" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="87" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="87" t="s">
         <v>127</v>
       </c>
@@ -75105,7 +75089,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>108</v>
       </c>
@@ -75123,7 +75107,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>383</v>
       </c>
@@ -75141,7 +75125,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -75168,7 +75152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>317</v>
       </c>
@@ -75186,7 +75170,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -75213,7 +75197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>127</v>
       </c>
@@ -75240,7 +75224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>314</v>
       </c>
@@ -75258,7 +75242,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>504</v>
       </c>
@@ -75271,7 +75255,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>322</v>
       </c>
@@ -75284,7 +75268,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>116</v>
       </c>
@@ -75302,7 +75286,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>115</v>
       </c>
@@ -75320,7 +75304,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>114</v>
       </c>
@@ -75338,7 +75322,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>113</v>
       </c>
@@ -75356,7 +75340,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>112</v>
       </c>
@@ -75374,7 +75358,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>111</v>
       </c>
@@ -75392,7 +75376,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>110</v>
       </c>
@@ -75410,7 +75394,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>108</v>
       </c>
@@ -75428,7 +75412,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>495</v>
       </c>
@@ -75443,7 +75427,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>497</v>
       </c>
@@ -75458,7 +75442,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>498</v>
       </c>
@@ -75473,7 +75457,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>136</v>
       </c>
@@ -75491,7 +75475,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>505</v>
       </c>
@@ -75506,7 +75490,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>129</v>
       </c>
@@ -75524,7 +75508,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>506</v>
       </c>
@@ -75537,7 +75521,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>493</v>
       </c>
@@ -75552,7 +75536,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>152</v>
       </c>
@@ -75567,7 +75551,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>494</v>
       </c>
@@ -75582,7 +75566,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>148</v>
       </c>
@@ -75597,7 +75581,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>146</v>
       </c>
@@ -75615,7 +75599,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>127</v>
       </c>
@@ -75648,7 +75632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -75681,7 +75665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>127</v>
       </c>
@@ -75714,7 +75698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -75747,7 +75731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>127</v>
       </c>
@@ -75780,7 +75764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -75813,7 +75797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>127</v>
       </c>
@@ -75846,7 +75830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>127</v>
       </c>
@@ -75879,7 +75863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -75912,7 +75896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>127</v>
       </c>
@@ -75945,7 +75929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -75978,7 +75962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -76011,7 +75995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>127</v>
       </c>
@@ -76044,7 +76028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -76077,7 +76061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>127</v>
       </c>
@@ -76110,7 +76094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -76143,7 +76127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>127</v>
       </c>
@@ -76177,7 +76161,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M47">
+  <autoFilter ref="A1:M47" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -76190,28 +76174,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="C1:Q8"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="32"/>
-    <col min="4" max="4" width="39.28515625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="32"/>
-    <col min="7" max="10" width="8.140625" style="32" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="32" customWidth="1"/>
-    <col min="13" max="16" width="10.85546875" style="32" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="32" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="32"/>
+    <col min="1" max="3" width="8.88671875" style="32"/>
+    <col min="4" max="4" width="39.33203125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="32"/>
+    <col min="7" max="10" width="8.109375" style="32" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="32" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" style="32" customWidth="1"/>
+    <col min="13" max="16" width="10.88671875" style="32" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="32" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" s="41" customFormat="1" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:17" s="41" customFormat="1" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="42" t="s">
         <v>153</v>
       </c>
@@ -76262,7 +76246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="110">
         <v>1</v>
       </c>
@@ -76312,7 +76296,7 @@
 51 - 60</v>
       </c>
     </row>
-    <row r="3" spans="3:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="110">
         <v>2</v>
       </c>
@@ -76339,7 +76323,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="3:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="110">
         <v>3</v>
       </c>
@@ -76381,7 +76365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="110">
         <v>4</v>
       </c>
@@ -76423,7 +76407,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="110">
         <v>5</v>
       </c>
@@ -76468,7 +76452,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:17" ht="118.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="110">
         <v>6</v>
       </c>
@@ -76492,7 +76476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="110">
         <v>7</v>
       </c>
@@ -76523,20 +76507,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="D1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="44.28515625" customWidth="1"/>
-    <col min="6" max="10" width="8.85546875" style="40"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="6" max="10" width="8.88671875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="138" t="s">
         <v>153</v>
       </c>
@@ -76551,7 +76535,7 @@
       <c r="I1" s="145"/>
       <c r="J1" s="146"/>
     </row>
-    <row r="2" spans="4:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="D2" s="139"/>
       <c r="E2" s="142"/>
       <c r="F2" s="34" t="s">
@@ -76570,7 +76554,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="140"/>
       <c r="E3" s="143"/>
       <c r="F3" s="36" t="s">
@@ -76589,7 +76573,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="33">
         <v>1</v>
       </c>
@@ -76602,7 +76586,7 @@
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
     </row>
-    <row r="5" spans="4:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:10" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="33">
         <v>2</v>
       </c>
@@ -76615,7 +76599,7 @@
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
     </row>
-    <row r="6" spans="4:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:10" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="33">
         <v>3</v>
       </c>
@@ -76628,7 +76612,7 @@
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="33">
         <v>4</v>
       </c>
@@ -76641,7 +76625,7 @@
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
     </row>
-    <row r="8" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="33">
         <v>5</v>
       </c>
@@ -76654,7 +76638,7 @@
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
     </row>
-    <row r="9" spans="4:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="33">
         <v>6</v>
       </c>
@@ -76667,7 +76651,7 @@
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
     </row>
-    <row r="10" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="33">
         <v>7</v>
       </c>
@@ -76680,8 +76664,8 @@
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
     </row>
-    <row r="17" spans="4:11" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="147" t="s">
         <v>153</v>
       </c>
@@ -76699,7 +76683,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="4:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:11" ht="16.8" x14ac:dyDescent="0.3">
       <c r="D19" s="148"/>
       <c r="E19" s="148"/>
       <c r="F19" s="101" t="s">
@@ -76718,7 +76702,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D20" s="149"/>
       <c r="E20" s="149"/>
       <c r="F20" s="109" t="s">
@@ -76737,7 +76721,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="103" t="s">
         <v>541</v>
       </c>
@@ -76750,7 +76734,7 @@
       <c r="I21" s="106"/>
       <c r="J21" s="106"/>
     </row>
-    <row r="22" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="103" t="s">
         <v>542</v>
       </c>
@@ -76763,7 +76747,7 @@
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
     </row>
-    <row r="23" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D23" s="103" t="s">
         <v>543</v>
       </c>
@@ -76776,7 +76760,7 @@
       <c r="I23" s="106"/>
       <c r="J23" s="106"/>
     </row>
-    <row r="24" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="103" t="s">
         <v>544</v>
       </c>
@@ -76789,7 +76773,7 @@
       <c r="I24" s="106"/>
       <c r="J24" s="106"/>
     </row>
-    <row r="25" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D25" s="103" t="s">
         <v>545</v>
       </c>
@@ -76802,7 +76786,7 @@
       <c r="I25" s="106"/>
       <c r="J25" s="106"/>
     </row>
-    <row r="26" spans="4:11" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:11" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="103" t="s">
         <v>546</v>
       </c>
@@ -76815,7 +76799,7 @@
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
     </row>
-    <row r="27" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D27" s="103" t="s">
         <v>547</v>
       </c>

--- a/TongHopDuThau.xlsx
+++ b/TongHopDuThau.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB525C30-1106-4D9D-8D87-EE51D9E0E5BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAF1A88-E19D-4E7C-8B4C-D03D97C1F31F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TBMT" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="848">
   <si>
     <t>CongTrinh</t>
   </si>
@@ -2220,39 +2220,21 @@
     <t>Điện lực Cẩm Mỹ - Công Ty TNHH Một Thành Viên Điện Lực Đồng Nai</t>
   </si>
   <si>
-    <t>Điện lực Cẩm Mỹ - Công ty TNHH MTV Điện lực Đồng Nai địa chỉ Trung tâm hành chính huyện Cẩm Mỹ, ấp Suối Cả, xã Long Giao, huyện Cẩm Mỹ, tỉnh Đồng Nai. Điện thoại: 02513.878.429</t>
-  </si>
-  <si>
     <t>Dự án đầu tư</t>
   </si>
   <si>
-    <t>Gói thầu số 2: Thi công xây lắp</t>
-  </si>
-  <si>
     <t>Tên dự án</t>
   </si>
   <si>
     <t>Nâng cấp và phát triển lưới điện trung thế nông thôn phục vụ sản xuất nông nghiệp tập trung huyện Cẩm Mỹ năm 2019-2020</t>
   </si>
   <si>
-    <t>Vốn vay ưu đãi của tỉnh Đồng Nai và vốn khấu hao cơ bản của Công ty TNHH MTV Điện lực Đồng Nai</t>
-  </si>
-  <si>
     <t>Đấu thầu rộng rãi</t>
   </si>
   <si>
-    <t>319,192,345 VND</t>
-  </si>
-  <si>
-    <t>Ba trăm mười chín triệu một trăm chín mươi hai nghìn ba trăm bốn mươi năm đồng chẵn</t>
-  </si>
-  <si>
     <t>4.000.000 VND</t>
   </si>
   <si>
-    <t>Bốn triệu đồng chẵn</t>
-  </si>
-  <si>
     <t>Loại tiền chuyển đổi</t>
   </si>
   <si>
@@ -2761,6 +2743,57 @@
   </si>
   <si>
     <t>Xây dựng mới mới 01 TBA 3 pha 3x50kVA</t>
+  </si>
+  <si>
+    <t>20200502532-00</t>
+  </si>
+  <si>
+    <t>Điện lực Xuân Lộc – Công ty TNHH MTV Điện lực Đồng Nai. Số 94, đường Hùng Vương – Thị trấn Gia Ray, huyện Xuân Lộc, tỉnh Đồng Nai. Điện thoại: 0251.218292 fax: 0251.3740.009.</t>
+  </si>
+  <si>
+    <t>Gói thầu số 2: Thi công xây lắp Công trình: “Nâng cấp, xây dựng mới đường dây trung, hạ thế và kết hợp cấy TBA chống quá tải, giảm bán kính cấp điện khu vực Xuân Tâm, Xuân Hưng, Xuân Hòa huyện Xuân Lộc năm 2019”.</t>
+  </si>
+  <si>
+    <t>Nâng cấp, xây dựng mới đường dây trung, hạ thế và kết hợp cấy TBA chống quá tải, giảm bán kính cấp điện khu vực Xuân Tâm, Xuân Hưng, Xuân Hòa huyện Xuân Lộc năm 2019</t>
+  </si>
+  <si>
+    <t>Vốn vay thương mại và vốn khấu hao cơ bản</t>
+  </si>
+  <si>
+    <t>2,107,916,474 VND</t>
+  </si>
+  <si>
+    <t>Hai tỷ một trăm lẻ bảy triệu chín trăm mười sáu nghìn bốn trăm bảy mươi bốn đồng chẵn</t>
+  </si>
+  <si>
+    <t>Hai mươi hai triệu đồng chẵn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ngày 09 tháng 05 năm 2020</t>
+  </si>
+  <si>
+    <t>09/05/2021</t>
+  </si>
+  <si>
+    <t>09/05/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã hiệu </t>
+  </si>
+  <si>
+    <t>Ống co nhiệt</t>
+  </si>
+  <si>
+    <t>OCN</t>
+  </si>
+  <si>
+    <t>băng keo trung thế</t>
+  </si>
+  <si>
+    <t>Quân Phạm</t>
+  </si>
+  <si>
+    <t>BK</t>
   </si>
 </sst>
 </file>
@@ -2930,10 +2963,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="13"/>
       <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -3466,32 +3500,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3505,6 +3513,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3559,6 +3571,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3568,7 +3604,17 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -64674,20 +64720,21 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="126" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="str">
+    <row r="1" spans="1:13" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="126" t="str">
         <f>LEFT(D1,11)</f>
         <v/>
       </c>
@@ -64707,7 +64754,7 @@
       <c r="M1" s="48"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="str">
+      <c r="A2" s="127" t="str">
         <f>TRIM(B2)</f>
         <v/>
       </c>
@@ -64725,7 +64772,7 @@
       <c r="M2" s="48"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="str">
+      <c r="A3" s="127" t="str">
         <f t="shared" ref="A3:A39" si="0">TRIM(B3)</f>
         <v>Thông tin chung</v>
       </c>
@@ -64745,7 +64792,7 @@
       <c r="M3" s="48"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="str">
+      <c r="A4" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Số TBMT</v>
       </c>
@@ -64754,7 +64801,7 @@
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>654</v>
+        <v>831</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
@@ -64764,14 +64811,14 @@
       </c>
       <c r="I4" s="48"/>
       <c r="J4" s="59">
-        <v>43950.622916666667</v>
+        <v>43955.679166666669</v>
       </c>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="str">
+      <c r="A5" s="127" t="str">
         <f>TRIM(B5)</f>
         <v>Hình thức thông báo</v>
       </c>
@@ -64793,7 +64840,7 @@
       <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="str">
+      <c r="A6" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Loại thông báo</v>
       </c>
@@ -64819,7 +64866,7 @@
       <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="str">
+      <c r="A7" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Bên mời thầu</v>
       </c>
@@ -64828,7 +64875,7 @@
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>655</v>
+        <v>258</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -64841,7 +64888,7 @@
       <c r="M7" s="48"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="str">
+      <c r="A8" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Chủ đầu tư</v>
       </c>
@@ -64850,7 +64897,7 @@
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>656</v>
+        <v>832</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
@@ -64863,7 +64910,7 @@
       <c r="M8" s="48"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="str">
+      <c r="A9" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Phân loại</v>
       </c>
@@ -64872,7 +64919,7 @@
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
@@ -64885,7 +64932,7 @@
       <c r="M9" s="48"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="str">
+      <c r="A10" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Tên gói thầu</v>
       </c>
@@ -64894,7 +64941,7 @@
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>658</v>
+        <v>833</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
@@ -64907,16 +64954,16 @@
       <c r="M10" s="48"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="str">
+      <c r="A11" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Tên dự án</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>660</v>
+        <v>834</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
@@ -64929,7 +64976,7 @@
       <c r="M11" s="48"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="str">
+      <c r="A12" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Nguồn vốn</v>
       </c>
@@ -64938,7 +64985,7 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>661</v>
+        <v>835</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -64951,7 +64998,7 @@
       <c r="M12" s="48"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="str">
+      <c r="A13" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Phương thức</v>
       </c>
@@ -64973,7 +65020,7 @@
       <c r="M13" s="48"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="str">
+      <c r="A14" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Thời gian thực hiện hợp đồng</v>
       </c>
@@ -64982,7 +65029,7 @@
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="48">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
@@ -64995,7 +65042,7 @@
       <c r="M14" s="48"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="str">
+      <c r="A15" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Nội dung chính gói thầu</v>
       </c>
@@ -65015,7 +65062,7 @@
       <c r="M15" s="48"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="str">
+      <c r="A16" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Loại hợp đồng</v>
       </c>
@@ -65037,7 +65084,7 @@
       <c r="M16" s="48"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="32" t="str">
+      <c r="A17" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Hình thức đấu thầu</v>
       </c>
@@ -65046,7 +65093,7 @@
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
@@ -65061,7 +65108,7 @@
       <c r="M17" s="48"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="32" t="str">
+      <c r="A18" s="127" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -65079,7 +65126,7 @@
       <c r="M18" s="48"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="32" t="str">
+      <c r="A19" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Tham dự thầu</v>
       </c>
@@ -65099,7 +65146,7 @@
       <c r="M19" s="48"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="32" t="str">
+      <c r="A20" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Hình thức nhận HSDT</v>
       </c>
@@ -65121,7 +65168,7 @@
       <c r="M20" s="48"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="str">
+      <c r="A21" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Thời gian nhận HSDT từ ngày</v>
       </c>
@@ -65130,7 +65177,7 @@
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="59">
-        <v>43950.622916666667</v>
+        <v>43955.679166666669</v>
       </c>
       <c r="E21" s="48"/>
       <c r="F21" s="48"/>
@@ -65140,14 +65187,14 @@
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="59">
-        <v>43965.583333333336</v>
+        <v>43966.583333333336</v>
       </c>
       <c r="K21" s="48"/>
       <c r="L21" s="48"/>
       <c r="M21" s="48"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="str">
+      <c r="A22" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Mua HSMT</v>
       </c>
@@ -65169,7 +65216,7 @@
       <c r="M22" s="48"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="str">
+      <c r="A23" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Địa điểm nhận HSDT</v>
       </c>
@@ -65191,7 +65238,7 @@
       <c r="M23" s="48"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="str">
+      <c r="A24" s="127" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -65209,7 +65256,7 @@
       <c r="M24" s="48"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="str">
+      <c r="A25" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Mở thầu</v>
       </c>
@@ -65229,7 +65276,7 @@
       <c r="M25" s="48"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="32" t="str">
+      <c r="A26" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Thời điểm mở thầu</v>
       </c>
@@ -65238,7 +65285,7 @@
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="59">
-        <v>43965.583333333336</v>
+        <v>43966.583333333336</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="48"/>
@@ -65251,7 +65298,7 @@
       <c r="M26" s="48"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="32" t="str">
+      <c r="A27" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Địa điểm mở thầu</v>
       </c>
@@ -65273,7 +65320,7 @@
       <c r="M27" s="48"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="str">
+      <c r="A28" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Giá gói thầu</v>
       </c>
@@ -65282,7 +65329,7 @@
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
-        <v>663</v>
+        <v>836</v>
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
@@ -65295,7 +65342,7 @@
       <c r="M28" s="48"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="str">
+      <c r="A29" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền bằng chữ</v>
       </c>
@@ -65304,7 +65351,7 @@
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
-        <v>664</v>
+        <v>837</v>
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
@@ -65317,7 +65364,7 @@
       <c r="M29" s="48"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="str">
+      <c r="A30" s="127" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -65335,7 +65382,7 @@
       <c r="M30" s="48"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="32" t="str">
+      <c r="A31" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Bảo đảm dự thầu</v>
       </c>
@@ -65355,7 +65402,7 @@
       <c r="M31" s="48"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="str">
+      <c r="A32" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Hình thức đảm bảo</v>
       </c>
@@ -65377,7 +65424,7 @@
       <c r="M32" s="48"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="32" t="str">
+      <c r="A33" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền đảm bảo</v>
       </c>
@@ -65386,12 +65433,12 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>665</v>
+        <v>484</v>
       </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="str">
+      <c r="A34" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền bằng chữ</v>
       </c>
@@ -65400,32 +65447,32 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>666</v>
+        <v>838</v>
       </c>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="str">
+      <c r="A35" s="127" t="str">
         <f t="shared" si="0"/>
         <v>Loại tiền chuyển đổi</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="E35" s="1"/>
       <c r="H35" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="J35" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="str">
+      <c r="A36" s="127" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -65435,7 +65482,7 @@
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="str">
+      <c r="A37" s="127" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -65445,7 +65492,7 @@
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="str">
+      <c r="A38" s="127" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -65455,7 +65502,7 @@
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="32" t="str">
+      <c r="A39" s="127" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -65481,7 +65528,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.109375" style="133" customWidth="1"/>
+    <col min="1" max="1" width="78.109375" style="121" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="79.33203125" bestFit="1" customWidth="1"/>
@@ -65507,7 +65554,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="121" t="s">
         <v>581</v>
       </c>
       <c r="B2" s="1">
@@ -65525,7 +65572,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="121" t="s">
         <v>582</v>
       </c>
       <c r="B3" s="1">
@@ -65543,7 +65590,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="121" t="s">
         <v>583</v>
       </c>
       <c r="B4" s="1">
@@ -65561,7 +65608,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="121" t="s">
         <v>584</v>
       </c>
       <c r="B5" s="1">
@@ -65579,7 +65626,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="121" t="s">
         <v>596</v>
       </c>
       <c r="B6">
@@ -65598,7 +65645,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="134" t="s">
+      <c r="A7" s="122" t="s">
         <v>599</v>
       </c>
       <c r="B7">
@@ -65617,7 +65664,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="134" t="s">
+      <c r="A8" s="122" t="s">
         <v>600</v>
       </c>
       <c r="B8">
@@ -65636,7 +65683,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="121" t="s">
         <v>597</v>
       </c>
       <c r="B9">
@@ -65655,7 +65702,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="122" t="s">
         <v>598</v>
       </c>
       <c r="B10">
@@ -65674,7 +65721,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="122" t="s">
         <v>601</v>
       </c>
       <c r="B11">
@@ -65693,7 +65740,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="121" t="s">
         <v>586</v>
       </c>
       <c r="B12">
@@ -65708,7 +65755,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="133" t="s">
+      <c r="A13" s="121" t="s">
         <v>587</v>
       </c>
       <c r="B13">
@@ -65723,7 +65770,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="133" t="s">
+      <c r="A14" s="121" t="s">
         <v>590</v>
       </c>
       <c r="B14">
@@ -65738,7 +65785,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="133" t="s">
+      <c r="A15" s="121" t="s">
         <v>585</v>
       </c>
       <c r="B15">
@@ -65753,7 +65800,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="121" t="s">
         <v>588</v>
       </c>
       <c r="B16">
@@ -65768,7 +65815,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="121" t="s">
         <v>589</v>
       </c>
       <c r="B17">
@@ -65783,7 +65830,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="133" t="s">
+      <c r="A18" s="121" t="s">
         <v>591</v>
       </c>
       <c r="B18">
@@ -65798,7 +65845,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="133" t="s">
+      <c r="A19" s="121" t="s">
         <v>592</v>
       </c>
       <c r="B19">
@@ -65813,7 +65860,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="133" t="s">
+      <c r="A20" s="121" t="s">
         <v>593</v>
       </c>
       <c r="B20">
@@ -65828,7 +65875,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="133" t="s">
+      <c r="A21" s="121" t="s">
         <v>594</v>
       </c>
       <c r="B21">
@@ -65843,7 +65890,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="133" t="s">
+      <c r="A22" s="121" t="s">
         <v>604</v>
       </c>
       <c r="B22">
@@ -65862,7 +65909,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="133" t="s">
+      <c r="A23" s="121" t="s">
         <v>595</v>
       </c>
       <c r="B23" s="1">
@@ -65881,7 +65928,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="134" t="s">
+      <c r="A24" s="122" t="s">
         <v>602</v>
       </c>
       <c r="B24">
@@ -65900,7 +65947,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="134" t="s">
+      <c r="A25" s="122" t="s">
         <v>603</v>
       </c>
       <c r="B25">
@@ -65919,7 +65966,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="133" t="s">
+      <c r="A26" s="121" t="s">
         <v>580</v>
       </c>
       <c r="B26" s="1">
@@ -65937,7 +65984,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="133" t="s">
+      <c r="A27" s="121" t="s">
         <v>575</v>
       </c>
       <c r="B27" s="1"/>
@@ -65949,7 +65996,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="133" t="s">
+      <c r="A28" s="121" t="s">
         <v>576</v>
       </c>
       <c r="C28" s="1">
@@ -65961,7 +66008,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="133" t="s">
+      <c r="A29" s="121" t="s">
         <v>577</v>
       </c>
       <c r="C29" s="1">
@@ -66128,11 +66175,11 @@
         <v xml:space="preserve"> - Nâng cấp 640,7 mét đường dây trung thế từ 1 pha 2AC50mm2 lên 3 pha 3ACX50+AC50mm2
  - Nâng cấp 01 TBA từ 1 pha 2x75kVA lên 3 pha 3x75kVA</v>
       </c>
-      <c r="E2" s="133" t="s">
-        <v>833</v>
-      </c>
-      <c r="F2" s="133" t="s">
-        <v>834</v>
+      <c r="E2" s="121" t="s">
+        <v>827</v>
+      </c>
+      <c r="F2" s="121" t="s">
+        <v>828</v>
       </c>
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
@@ -66152,10 +66199,10 @@
  - Xây dựng mới mới 01 TBA 3 pha 3x50kVA</v>
       </c>
       <c r="E3" s="114" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="F3" s="114" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="G3" s="114"/>
       <c r="H3" s="114"/>
@@ -66191,9 +66238,9 @@
         <f t="array" ref="D5">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E5:I5&lt;&gt;0,E5:I5,""))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
       <c r="H5" s="114"/>
       <c r="I5" s="114"/>
     </row>
@@ -66209,9 +66256,9 @@
         <f t="array" ref="D6">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E6:I6&lt;&gt;0,E6:I6,""))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="E6" s="133"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
       <c r="H6" s="114"/>
       <c r="I6" s="114"/>
     </row>
@@ -66227,9 +66274,9 @@
         <f t="array" ref="D7">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E7:I7&lt;&gt;0,E7:I7,""))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
       <c r="H7" s="114"/>
       <c r="I7" s="114"/>
     </row>
@@ -66245,9 +66292,9 @@
         <f t="array" ref="D8">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E8:I8&lt;&gt;0,E8:I8,""))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
       <c r="H8" s="114"/>
       <c r="I8" s="114"/>
     </row>
@@ -66263,8 +66310,8 @@
         <f t="array" ref="D9">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E9:I9&lt;&gt;0,E9:I9,""))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
     </row>
@@ -66298,7 +66345,7 @@
         <f t="array" ref="D11">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E11:I11&lt;&gt;0,E11:I11,""))</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="E11" s="133"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -68313,7 +68360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -68338,25 +68385,25 @@
       <c r="D1" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="153" t="s">
+      <c r="E1" s="143" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="153"/>
+      <c r="F1" s="143"/>
       <c r="G1" s="69" t="s">
         <v>213</v>
       </c>
       <c r="I1" t="s">
         <v>637</v>
       </c>
-      <c r="J1" s="135">
+      <c r="J1" s="123">
         <v>3500000000</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="144" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="145" t="s">
         <v>215</v>
       </c>
       <c r="D2" s="70" t="s">
@@ -68375,8 +68422,8 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="145"/>
       <c r="D3" s="70" t="s">
         <v>208</v>
       </c>
@@ -68388,13 +68435,13 @@
       <c r="I3" t="s">
         <v>572</v>
       </c>
-      <c r="J3" s="131" t="s">
+      <c r="J3" s="119" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="154"/>
-      <c r="C4" s="155"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
       <c r="D4" s="70" t="s">
         <v>209</v>
       </c>
@@ -68405,7 +68452,7 @@
       <c r="I4" t="s">
         <v>573</v>
       </c>
-      <c r="J4" s="131" t="s">
+      <c r="J4" s="119" t="s">
         <v>569</v>
       </c>
       <c r="L4" t="s">
@@ -68429,7 +68476,7 @@
       <c r="I5">
         <v>2007</v>
       </c>
-      <c r="J5" s="132" t="s">
+      <c r="J5" s="120" t="s">
         <v>571</v>
       </c>
       <c r="L5" t="s">
@@ -69941,29 +69988,29 @@
         <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="E1" t="s">
         <v>436</v>
       </c>
       <c r="F1" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="D2" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E3" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -69971,37 +70018,37 @@
     </row>
     <row r="4" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="5" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="E5" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F5" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E6" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F6" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="E7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -70009,59 +70056,59 @@
     </row>
     <row r="8" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="E9" t="s">
-        <v>685</v>
-      </c>
-      <c r="F9" s="137">
+        <v>679</v>
+      </c>
+      <c r="F9" s="125">
         <v>1368</v>
       </c>
     </row>
     <row r="10" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="E10" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F10" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E11" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F11" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="E12" t="s">
-        <v>685</v>
-      </c>
-      <c r="F12" s="137">
+        <v>679</v>
+      </c>
+      <c r="F12" s="125">
         <v>1207</v>
       </c>
     </row>
     <row r="13" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E13" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -70069,10 +70116,10 @@
     </row>
     <row r="14" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="E14" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -70080,10 +70127,10 @@
     </row>
     <row r="15" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="E15" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -70091,106 +70138,106 @@
     </row>
     <row r="16" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="E16" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="17" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="E17" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F17" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E18" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F18" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="E19" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F19" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="20" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E20" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F20" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="E21" t="s">
-        <v>695</v>
-      </c>
-      <c r="F21" s="137">
+        <v>689</v>
+      </c>
+      <c r="F21" s="125">
         <v>4480</v>
       </c>
     </row>
     <row r="22" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="E22" t="s">
-        <v>682</v>
-      </c>
-      <c r="F22" s="137">
+        <v>676</v>
+      </c>
+      <c r="F22" s="125">
         <v>2220</v>
       </c>
     </row>
     <row r="23" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E23" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F23" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="E24" t="s">
-        <v>685</v>
-      </c>
-      <c r="F24" s="137">
+        <v>679</v>
+      </c>
+      <c r="F24" s="125">
         <v>1368</v>
       </c>
     </row>
     <row r="25" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="E25" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -70198,26 +70245,26 @@
     </row>
     <row r="26" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="27" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="E27" t="s">
-        <v>689</v>
-      </c>
-      <c r="F27" s="137">
+        <v>683</v>
+      </c>
+      <c r="F27" s="125">
         <v>2912</v>
       </c>
     </row>
     <row r="28" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="E28" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -70225,10 +70272,10 @@
     </row>
     <row r="29" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E29" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -70236,10 +70283,10 @@
     </row>
     <row r="30" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E30" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -70247,10 +70294,10 @@
     </row>
     <row r="31" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="E31" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -70258,43 +70305,43 @@
     </row>
     <row r="32" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E32" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F32" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="33" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E33" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F33" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="34" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E34" t="s">
-        <v>689</v>
-      </c>
-      <c r="F34" s="137">
+        <v>683</v>
+      </c>
+      <c r="F34" s="125">
         <v>2912</v>
       </c>
     </row>
     <row r="35" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E35" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -70302,10 +70349,10 @@
     </row>
     <row r="36" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="E36" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -70313,7 +70360,7 @@
     </row>
     <row r="37" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="38" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
@@ -70321,18 +70368,18 @@
         <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>689</v>
-      </c>
-      <c r="F38" s="137">
+        <v>683</v>
+      </c>
+      <c r="F38" s="125">
         <v>6720</v>
       </c>
     </row>
     <row r="39" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="E39" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -70340,10 +70387,10 @@
     </row>
     <row r="40" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E40" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -70351,10 +70398,10 @@
     </row>
     <row r="41" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="E41" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -70362,43 +70409,43 @@
     </row>
     <row r="42" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="E42" t="s">
-        <v>695</v>
-      </c>
-      <c r="F42" s="137">
+        <v>689</v>
+      </c>
+      <c r="F42" s="125">
         <v>1550</v>
       </c>
     </row>
     <row r="43" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="E43" t="s">
-        <v>685</v>
-      </c>
-      <c r="F43" s="137">
+        <v>679</v>
+      </c>
+      <c r="F43" s="125">
         <v>1550</v>
       </c>
     </row>
     <row r="44" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="E44" t="s">
-        <v>689</v>
-      </c>
-      <c r="F44" s="137">
+        <v>683</v>
+      </c>
+      <c r="F44" s="125">
         <v>6720</v>
       </c>
     </row>
     <row r="45" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="E45" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -70406,21 +70453,21 @@
     </row>
     <row r="46" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="D46" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="E46" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="47" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="E47" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="F47">
         <v>42</v>
@@ -70428,15 +70475,15 @@
     </row>
     <row r="48" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="49" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="E49" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -70444,10 +70491,10 @@
     </row>
     <row r="50" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="E50" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -70455,18 +70502,18 @@
     </row>
     <row r="51" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="D51" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="52" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="E52" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -70474,15 +70521,15 @@
     </row>
     <row r="53" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E54" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -70490,10 +70537,10 @@
     </row>
     <row r="55" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E55" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -70501,10 +70548,10 @@
     </row>
     <row r="56" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E56" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -70512,10 +70559,10 @@
     </row>
     <row r="57" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E57" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -70523,10 +70570,10 @@
     </row>
     <row r="58" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E58" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -70534,10 +70581,10 @@
     </row>
     <row r="59" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E59" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -70545,10 +70592,10 @@
     </row>
     <row r="60" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E60" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -70556,10 +70603,10 @@
     </row>
     <row r="61" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="E61" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -70567,15 +70614,15 @@
     </row>
     <row r="62" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="63" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="E63" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -70583,10 +70630,10 @@
     </row>
     <row r="64" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E64" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -70594,10 +70641,10 @@
     </row>
     <row r="65" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E65" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -70605,10 +70652,10 @@
     </row>
     <row r="66" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E66" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -70616,10 +70663,10 @@
     </row>
     <row r="67" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="E67" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -70627,10 +70674,10 @@
     </row>
     <row r="68" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E68" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -70638,10 +70685,10 @@
     </row>
     <row r="69" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E69" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F69">
         <v>21</v>
@@ -70649,15 +70696,15 @@
     </row>
     <row r="70" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="71" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E71" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -70665,10 +70712,10 @@
     </row>
     <row r="72" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E72" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -70676,10 +70723,10 @@
     </row>
     <row r="73" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E73" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -70687,10 +70734,10 @@
     </row>
     <row r="74" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E74" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -70698,10 +70745,10 @@
     </row>
     <row r="75" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="E75" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -70709,10 +70756,10 @@
     </row>
     <row r="76" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E76" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F76">
         <v>8</v>
@@ -70720,15 +70767,15 @@
     </row>
     <row r="77" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="78" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="E78" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -70736,10 +70783,10 @@
     </row>
     <row r="79" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="E79" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -70747,10 +70794,10 @@
     </row>
     <row r="80" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E80" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F80">
         <v>3</v>
@@ -70758,10 +70805,10 @@
     </row>
     <row r="81" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E81" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -70769,10 +70816,10 @@
     </row>
     <row r="82" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E82" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -70780,10 +70827,10 @@
     </row>
     <row r="83" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E83" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -70791,10 +70838,10 @@
     </row>
     <row r="84" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="E84" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F84">
         <v>7</v>
@@ -70802,15 +70849,15 @@
     </row>
     <row r="85" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="86" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E86" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -70818,10 +70865,10 @@
     </row>
     <row r="87" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E87" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F87">
         <v>4</v>
@@ -70829,10 +70876,10 @@
     </row>
     <row r="88" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="E88" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -70840,10 +70887,10 @@
     </row>
     <row r="89" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E89" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -70851,10 +70898,10 @@
     </row>
     <row r="90" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E90" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F90">
         <v>4</v>
@@ -70862,10 +70909,10 @@
     </row>
     <row r="91" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E91" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -70873,10 +70920,10 @@
     </row>
     <row r="92" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="E92" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -70884,15 +70931,15 @@
     </row>
     <row r="93" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="94" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E94" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -70900,10 +70947,10 @@
     </row>
     <row r="95" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E95" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F95">
         <v>4</v>
@@ -70911,10 +70958,10 @@
     </row>
     <row r="96" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="E96" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -70922,10 +70969,10 @@
     </row>
     <row r="97" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E97" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F97">
         <v>4</v>
@@ -70933,10 +70980,10 @@
     </row>
     <row r="98" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="E98" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F98">
         <v>4</v>
@@ -70944,10 +70991,10 @@
     </row>
     <row r="99" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E99" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -70955,10 +71002,10 @@
     </row>
     <row r="100" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="E100" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F100">
         <v>10</v>
@@ -70966,15 +71013,15 @@
     </row>
     <row r="101" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="102" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E102" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -70982,10 +71029,10 @@
     </row>
     <row r="103" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E103" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -70993,10 +71040,10 @@
     </row>
     <row r="104" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E104" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F104">
         <v>8</v>
@@ -71004,13 +71051,13 @@
     </row>
     <row r="105" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="E105" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="F105" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="106" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
@@ -71018,7 +71065,7 @@
         <v>56</v>
       </c>
       <c r="E106" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -71026,10 +71073,10 @@
     </row>
     <row r="107" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E107" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -71037,10 +71084,10 @@
     </row>
     <row r="108" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="E108" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -71048,10 +71095,10 @@
     </row>
     <row r="109" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="E109" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F109">
         <v>2</v>
@@ -71059,15 +71106,15 @@
     </row>
     <row r="110" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="111" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E111" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -71075,10 +71122,10 @@
     </row>
     <row r="112" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="E112" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -71086,10 +71133,10 @@
     </row>
     <row r="113" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E113" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F113">
         <v>8</v>
@@ -71097,21 +71144,21 @@
     </row>
     <row r="114" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E114" t="s">
+        <v>762</v>
+      </c>
+      <c r="F114" t="s">
         <v>768</v>
-      </c>
-      <c r="F114" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="115" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E115" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -71122,7 +71169,7 @@
         <v>56</v>
       </c>
       <c r="E116" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -71130,10 +71177,10 @@
     </row>
     <row r="117" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="E117" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -71141,10 +71188,10 @@
     </row>
     <row r="118" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E118" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -71152,10 +71199,10 @@
     </row>
     <row r="119" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E119" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F119">
         <v>10</v>
@@ -71163,15 +71210,15 @@
     </row>
     <row r="120" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="121" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="E121" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -71179,10 +71226,10 @@
     </row>
     <row r="122" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="E122" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -71190,32 +71237,32 @@
     </row>
     <row r="123" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="E123" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="F123" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="124" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E124" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F124" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="125" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E125" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -71223,15 +71270,15 @@
     </row>
     <row r="126" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="127" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="E127" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -71239,10 +71286,10 @@
     </row>
     <row r="128" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="E128" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -71250,32 +71297,32 @@
     </row>
     <row r="129" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="E129" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F129" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="130" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="E130" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F130" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="131" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E131" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F131">
         <v>26</v>
@@ -71283,15 +71330,15 @@
     </row>
     <row r="132" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="133" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="E133" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -71299,10 +71346,10 @@
     </row>
     <row r="134" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E134" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -71310,10 +71357,10 @@
     </row>
     <row r="135" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E135" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -71321,10 +71368,10 @@
     </row>
     <row r="136" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="E136" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F136">
         <v>5</v>
@@ -71332,15 +71379,15 @@
     </row>
     <row r="137" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="138" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="E138" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -71348,10 +71395,10 @@
     </row>
     <row r="139" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="E139" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -71359,10 +71406,10 @@
     </row>
     <row r="140" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="E140" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -71370,10 +71417,10 @@
     </row>
     <row r="141" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E141" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F141">
         <v>14</v>
@@ -71381,15 +71428,15 @@
     </row>
     <row r="142" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="143" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="E143" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -71397,10 +71444,10 @@
     </row>
     <row r="144" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D144" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="E144" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -71408,10 +71455,10 @@
     </row>
     <row r="145" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E145" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F145">
         <v>136</v>
@@ -71419,15 +71466,15 @@
     </row>
     <row r="146" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="147" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="E147" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -71435,10 +71482,10 @@
     </row>
     <row r="148" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E148" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -71446,10 +71493,10 @@
     </row>
     <row r="149" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E149" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F149">
         <v>42</v>
@@ -71457,7 +71504,7 @@
     </row>
     <row r="150" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="151" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
@@ -71465,7 +71512,7 @@
         <v>96</v>
       </c>
       <c r="E151" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -71473,10 +71520,10 @@
     </row>
     <row r="152" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="E152" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F152">
         <v>2</v>
@@ -71484,10 +71531,10 @@
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D153" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="E153" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -71495,10 +71542,10 @@
     </row>
     <row r="154" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="D154" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="155" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
@@ -71506,10 +71553,10 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="E155" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -71517,43 +71564,43 @@
     </row>
     <row r="156" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="E156" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F156" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="157" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="E157" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="F157" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="158" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="E158" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="F158" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="159" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="E159" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F159">
         <v>2</v>
@@ -71561,10 +71608,10 @@
     </row>
     <row r="160" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="E160" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F160">
         <v>2</v>
@@ -71572,10 +71619,10 @@
     </row>
     <row r="161" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="E161" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F161">
         <v>15</v>
@@ -71583,10 +71630,10 @@
     </row>
     <row r="162" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="E162" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F162">
         <v>15</v>
@@ -71594,10 +71641,10 @@
     </row>
     <row r="163" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="E163" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F163">
         <v>8</v>
@@ -71605,65 +71652,65 @@
     </row>
     <row r="164" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="E164" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F164" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="165" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="E165" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F165" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="166" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="E166" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F166" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="167" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="E167" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="F167" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="168" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="E168" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="F168" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="169" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D169" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="E169" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="F169">
         <v>5</v>
@@ -71671,10 +71718,10 @@
     </row>
     <row r="170" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D170" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="E170" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F170">
         <v>5</v>
@@ -71682,10 +71729,10 @@
     </row>
     <row r="171" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D171" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="E171" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -71693,10 +71740,10 @@
     </row>
     <row r="172" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D172" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E172" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -71704,37 +71751,37 @@
     </row>
     <row r="173" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E173" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="F173" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="174" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E174" t="s">
-        <v>827</v>
-      </c>
-      <c r="F174" s="137">
+        <v>821</v>
+      </c>
+      <c r="F174" s="125">
         <v>3717</v>
       </c>
     </row>
     <row r="175" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D175" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="176" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D176" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="E176" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F176">
         <v>5</v>
@@ -71742,10 +71789,10 @@
     </row>
     <row r="177" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D177" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="E177" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="F177">
         <v>6</v>
@@ -71766,12 +71813,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -71856,228 +71903,228 @@
     <row r="2" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="str">
         <f t="shared" ref="A2" si="0">VLOOKUP("Số TBMT",tbmt,4,0)</f>
-        <v>20200401924-00</v>
+        <v>20200502532-00</v>
       </c>
       <c r="B2" s="19" t="str">
         <f t="shared" ref="B2" si="1">IFERROR(VLOOKUP("Tên dự án",tbmt,4,0),VLOOKUP("Tên gói thầu",tbmt,4,0))</f>
-        <v>Nâng cấp và phát triển lưới điện trung thế nông thôn phục vụ sản xuất nông nghiệp tập trung huyện Cẩm Mỹ năm 2019-2020</v>
+        <v>Nâng cấp, xây dựng mới đường dây trung, hạ thế và kết hợp cấy TBA chống quá tải, giảm bán kính cấp điện khu vực Xuân Tâm, Xuân Hưng, Xuân Hòa huyện Xuân Lộc năm 2019</v>
       </c>
       <c r="C2" s="19" t="str">
         <f t="shared" ref="C2" si="2">VLOOKUP("Chủ đầu tư",tbmt,4,0)</f>
-        <v>Điện lực Cẩm Mỹ - Công ty TNHH MTV Điện lực Đồng Nai địa chỉ Trung tâm hành chính huyện Cẩm Mỹ, ấp Suối Cả, xã Long Giao, huyện Cẩm Mỹ, tỉnh Đồng Nai. Điện thoại: 02513.878.429</v>
+        <v>Điện lực Xuân Lộc – Công ty TNHH MTV Điện lực Đồng Nai. Số 94, đường Hùng Vương – Thị trấn Gia Ray, huyện Xuân Lộc, tỉnh Đồng Nai. Điện thoại: 0251.218292 fax: 0251.3740.009.</v>
       </c>
       <c r="D2" s="19" t="str">
         <f t="shared" ref="D2" si="3">VLOOKUP("Bên mời thầu",tbmt,4,0)</f>
-        <v>Điện lực Cẩm Mỹ - Công Ty TNHH Một Thành Viên Điện Lực Đồng Nai</v>
+        <v>Điện lực Xuân Lộc - Công ty TNHH một thành viên Điện lực Đồng Nai</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19" t="str">
         <f t="shared" ref="F2" si="4">VLOOKUP("Số tiền đảm bảo",tbmt,4,0)</f>
-        <v>4.000.000 VND</v>
+        <v>22.000.000 VND</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="60">
         <f t="shared" ref="H2" si="5">VLOOKUP("Thời gian nhận HSDT từ ngày",tbmt,10,0)</f>
-        <v>43965.583333333336</v>
+        <v>43966.583333333336</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="19">
         <f>VLOOKUP("Thời gian thực hiện hợp đồng",tbmt,4,0)</f>
-        <v>60</v>
-      </c>
-      <c r="K2" s="16"/>
+        <v>225</v>
+      </c>
+      <c r="K2" s="16">
+        <v>12</v>
+      </c>
       <c r="L2" s="49">
-        <f t="shared" ref="L2:L18" si="6">DATEVALUE(LEFT(TEXT(VLOOKUP("Số TBMT",tbmt,10,0),"dd/MM/yyyy"),10))+5</f>
-        <v>43955</v>
+        <f t="shared" ref="L2:L19" si="6">DATEVALUE(LEFT(TEXT(VLOOKUP("Số TBMT",tbmt,10,0),"dd/MM/yyyy"),10))+5</f>
+        <v>43960</v>
       </c>
       <c r="M2" s="50" t="str">
         <f>" ngày "&amp;TEXT(L2,"dd")&amp;" tháng "&amp;TEXT(L2,"MM")&amp;" năm "&amp;TEXT(L2,"yyyy")</f>
-        <v xml:space="preserve"> ngày 04 tháng 05 năm 2020</v>
+        <v xml:space="preserve"> ngày 09 tháng 05 năm 2020</v>
       </c>
       <c r="N2" s="49" t="str">
         <f>TEXT(L2+365,"dd/MM/yyyy")</f>
-        <v>04/05/2021</v>
+        <v>09/05/2021</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>654</v>
+        <v>831</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>660</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>15</v>
+        <v>834</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>648</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>655</v>
+        <v>258</v>
       </c>
       <c r="E3" s="18">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>665</v>
+        <v>484</v>
       </c>
       <c r="G3" s="18">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="H3" s="76">
-        <v>43965.583333333336</v>
+        <v>43966.583333333336</v>
       </c>
       <c r="I3" s="18">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J3" s="18">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="K3" s="18">
         <v>12</v>
       </c>
-      <c r="L3" s="136" t="s">
-        <v>673</v>
+      <c r="L3" s="124" t="s">
+        <v>841</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>671</v>
-      </c>
-      <c r="N3" s="136" t="s">
-        <v>672</v>
+        <v>839</v>
+      </c>
+      <c r="N3" s="124" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
+        <v>654</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="E4" s="18">
+        <v>60</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>660</v>
+      </c>
+      <c r="G4" s="18">
+        <v>90</v>
+      </c>
+      <c r="H4" s="76">
+        <v>43965.583333333336</v>
+      </c>
+      <c r="I4" s="18">
+        <v>2</v>
+      </c>
+      <c r="J4" s="18">
+        <v>60</v>
+      </c>
+      <c r="K4" s="18">
+        <v>12</v>
+      </c>
+      <c r="L4" s="124" t="s">
+        <v>667</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="N4" s="124" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>646</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B5" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="76">
+      <c r="G5" s="18"/>
+      <c r="H5" s="76">
         <v>43963.604166666664</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18">
+      <c r="I5" s="18"/>
+      <c r="J5" s="18">
         <v>12</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="136" t="s">
+      <c r="K5" s="18"/>
+      <c r="L5" s="124" t="s">
         <v>651</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M5" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="N4" s="136" t="s">
+      <c r="N5" s="124" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+    <row r="6" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
         <v>20191257175</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="16" t="str">
-        <f>E5</f>
-        <v>120 ngày</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="56">
-        <f>DATEVALUE(LEFT(H5,10))-2</f>
-        <v>43835</v>
-      </c>
-      <c r="M5" s="17" t="str">
-        <f>" ngày "&amp;TEXT(L5,"dd")&amp;" tháng "&amp;TEXT(L5,"MM")&amp;" năm "&amp;TEXT(L5,"yyyy")</f>
-        <v xml:space="preserve"> ngày 05 tháng 01 năm 2020</v>
-      </c>
-      <c r="N5" s="78" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="E6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>206</v>
+      <c r="I6" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="16" t="str">
-        <f t="shared" ref="J6:J7" si="7">E6</f>
-        <v>120 Ngày</v>
-      </c>
-      <c r="K6" s="18"/>
+        <f>E6</f>
+        <v>120 ngày</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="L6" s="56">
-        <f t="shared" ref="L6:L7" si="8">DATEVALUE(LEFT(H6,10))-2</f>
+        <f>DATEVALUE(LEFT(H6,10))-2</f>
         <v>43835</v>
       </c>
       <c r="M6" s="17" t="str">
-        <f t="shared" ref="M6:M7" si="9">" ngày "&amp;TEXT(L6,"dd")&amp;" tháng "&amp;TEXT(L6,"MM")&amp;" năm "&amp;TEXT(L6,"yyyy")</f>
+        <f>" ngày "&amp;TEXT(L6,"dd")&amp;" tháng "&amp;TEXT(L6,"MM")&amp;" năm "&amp;TEXT(L6,"yyyy")</f>
         <v xml:space="preserve"> ngày 05 tháng 01 năm 2020</v>
       </c>
-      <c r="N6" s="78">
-        <f t="shared" ref="N6:N7" si="10">L6+366</f>
-        <v>44201</v>
+      <c r="N6" s="78" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>15</v>
@@ -72086,42 +72133,44 @@
         <v>8</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="I7" s="18"/>
+        <v>10</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>206</v>
+      </c>
       <c r="J7" s="16" t="str">
-        <f t="shared" si="7"/>
-        <v>90 Ngày</v>
+        <f t="shared" ref="J7:J8" si="7">E7</f>
+        <v>120 Ngày</v>
       </c>
       <c r="K7" s="18"/>
       <c r="L7" s="56">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="L7:L8" si="8">DATEVALUE(LEFT(H7,10))-2</f>
         <v>43835</v>
       </c>
       <c r="M7" s="17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="M7:M8" si="9">" ngày "&amp;TEXT(L7,"dd")&amp;" tháng "&amp;TEXT(L7,"MM")&amp;" năm "&amp;TEXT(L7,"yyyy")</f>
         <v xml:space="preserve"> ngày 05 tháng 01 năm 2020</v>
       </c>
       <c r="N7" s="78">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="N7:N8" si="10">L7+366</f>
         <v>44201</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>216</v>
+        <v>98</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>15</v>
@@ -72130,218 +72179,224 @@
         <v>8</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>223</v>
+        <v>101</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="J8" s="16" t="str">
+        <f t="shared" si="7"/>
+        <v>90 Ngày</v>
+      </c>
       <c r="K8" s="18"/>
       <c r="L8" s="56">
-        <v>43843</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="N8" s="78"/>
-      <c r="O8" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="P8" s="17" t="str">
-        <f>TEXT(VLOOKUP(O8,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
-        <v>31/01/1975</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="R8" s="17" t="str">
-        <f>TEXT(VLOOKUP(Q8,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
-        <v>16/04/1981</v>
+        <f t="shared" si="8"/>
+        <v>43835</v>
+      </c>
+      <c r="M8" s="17" t="str">
+        <f t="shared" si="9"/>
+        <v xml:space="preserve"> ngày 05 tháng 01 năm 2020</v>
+      </c>
+      <c r="N8" s="78">
+        <f t="shared" si="10"/>
+        <v>44201</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="17" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>239</v>
+        <v>15</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="56">
+        <v>43843</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="N9" s="78"/>
+      <c r="O9" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="P9" s="17" t="str">
+        <f>TEXT(VLOOKUP(O9,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
+        <v>31/01/1975</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="R9" s="17" t="str">
+        <f>TEXT(VLOOKUP(Q9,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
+        <v>16/04/1981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="17" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G10" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I10" s="18">
         <v>1</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J10" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K10" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L10" s="56">
         <v>43869</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M10" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="N9" s="78"/>
-    </row>
-    <row r="10" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="56">
-        <v>43877</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="N10" s="78">
-        <v>44242</v>
-      </c>
-      <c r="O10" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="P10" s="17" t="str">
-        <f>TEXT(VLOOKUP(O10,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
-        <v>31/01/1975</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="R10" s="17" t="str">
-        <f>TEXT(VLOOKUP(Q10,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
-        <v>16/04/1981</v>
-      </c>
+      <c r="N10" s="78"/>
     </row>
     <row r="11" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>258</v>
+        <v>15</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F11" s="18" t="s">
         <v>252</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="56">
-        <v>43908.345138888886</v>
+        <v>43877</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="N11" s="78">
-        <v>44273.345138888886</v>
+        <v>44242</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="P11" s="17" t="str">
+        <f>TEXT(VLOOKUP(O11,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
+        <v>31/01/1975</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="R11" s="17" t="str">
+        <f>TEXT(VLOOKUP(Q11,NhanSu!F:M,8,0),"dd/MM/yyyy")</f>
+        <v>16/04/1981</v>
       </c>
     </row>
     <row r="12" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="E12" s="81" t="s">
-        <v>270</v>
+        <v>258</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="56">
-        <v>43914.342361111114</v>
+        <v>43908.345138888886</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="N12" s="78">
-        <v>44279.342361111114</v>
+        <v>44273.345138888886</v>
       </c>
     </row>
     <row r="13" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>274</v>
@@ -72349,44 +72404,43 @@
       <c r="D13" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="E13" s="18">
-        <v>150</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0</v>
-      </c>
-      <c r="G13" s="18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="H13" s="76">
-        <v>43917.375</v>
+      <c r="E13" s="81" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="56">
-        <v>43912</v>
+        <v>43914.342361111114</v>
       </c>
       <c r="M13" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="N13" s="79">
-        <f>L13+365</f>
-        <v>44277</v>
+        <v>276</v>
+      </c>
+      <c r="N13" s="78">
+        <v>44279.342361111114</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>452</v>
+        <v>309</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>454</v>
+        <v>288</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>274</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>453</v>
+        <v>273</v>
       </c>
       <c r="E14" s="18">
         <v>150</v>
@@ -72398,33 +72452,34 @@
         <v>#N/A</v>
       </c>
       <c r="H14" s="76">
-        <v>43920.4375</v>
+        <v>43917.375</v>
       </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="56">
-        <v>43909.34375</v>
+        <v>43912</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>481</v>
-      </c>
-      <c r="N14" s="80">
-        <v>44274.34375</v>
+        <v>310</v>
+      </c>
+      <c r="N14" s="79">
+        <f>L14+365</f>
+        <v>44277</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>274</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>273</v>
+        <v>453</v>
       </c>
       <c r="E15" s="18">
         <v>150</v>
@@ -72436,112 +72491,112 @@
         <v>#N/A</v>
       </c>
       <c r="H15" s="76">
-        <v>43920.583333333336</v>
+        <v>43920.4375</v>
       </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="56">
-        <v>43914.334027777775</v>
+        <v>43909.34375</v>
       </c>
       <c r="M15" s="17" t="s">
-        <v>276</v>
+        <v>481</v>
       </c>
       <c r="N15" s="80">
-        <v>44279.334027777775</v>
+        <v>44274.34375</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>274</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>453</v>
+        <v>273</v>
       </c>
       <c r="E16" s="18">
-        <v>12</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>484</v>
+        <v>150</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
       </c>
       <c r="G16" s="18" t="e">
         <v>#N/A</v>
       </c>
       <c r="H16" s="76">
-        <v>43921.583333333336</v>
+        <v>43920.583333333336</v>
       </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="56">
-        <v>43914.601388888892</v>
+        <v>43914.334027777775</v>
       </c>
       <c r="M16" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="N16" s="82" t="s">
-        <v>489</v>
+      <c r="N16" s="80">
+        <v>44279.334027777775</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>491</v>
+        <v>274</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>258</v>
+        <v>453</v>
       </c>
       <c r="E17" s="18">
-        <v>260</v>
-      </c>
-      <c r="F17" s="18">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>484</v>
       </c>
       <c r="G17" s="18" t="e">
         <v>#N/A</v>
       </c>
       <c r="H17" s="76">
-        <v>43935.583333333336</v>
+        <v>43921.583333333336</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="56">
-        <v>43926</v>
+        <v>43914.601388888892</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="N17" s="56">
-        <v>44291</v>
+        <v>276</v>
+      </c>
+      <c r="N17" s="82" t="s">
+        <v>489</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>273</v>
+        <v>491</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E18" s="18">
-        <v>12</v>
+        <v>260</v>
       </c>
       <c r="F18" s="18">
         <v>0</v>
@@ -72550,94 +72605,88 @@
         <v>#N/A</v>
       </c>
       <c r="H18" s="76">
-        <v>43934.375</v>
+        <v>43935.583333333336</v>
       </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="49">
+      <c r="L18" s="56">
+        <v>43926</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="N18" s="56">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>500</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="18">
+        <v>12</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H19" s="76">
+        <v>43934.375</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="49">
         <f t="shared" si="6"/>
-        <v>43955</v>
-      </c>
-      <c r="M18" s="17" t="s">
+        <v>43960</v>
+      </c>
+      <c r="M19" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="N18" s="49" t="str">
-        <f>TEXT(L18+365,"dd/MM/yyyy")</f>
-        <v>04/05/2021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
-        <v>551</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="E19" s="18">
-        <v>100</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="76">
-        <v>43956.604166666664</v>
-      </c>
-      <c r="I19" s="18">
-        <v>12</v>
-      </c>
-      <c r="J19" s="18">
-        <v>236</v>
-      </c>
-      <c r="K19" s="18">
-        <v>12</v>
-      </c>
-      <c r="L19" s="56">
-        <v>43948</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="N19" s="56" t="s">
-        <v>559</v>
+      <c r="N19" s="49" t="str">
+        <f>TEXT(L19+365,"dd/MM/yyyy")</f>
+        <v>09/05/2021</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>605</v>
+        <v>551</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>607</v>
+        <v>553</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>258</v>
+        <v>557</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>258</v>
+        <v>552</v>
       </c>
       <c r="E20" s="18">
         <v>100</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>608</v>
+        <v>556</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="76">
-        <v>43957.631944444445</v>
+        <v>43956.604166666664</v>
       </c>
       <c r="I20" s="18">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J20" s="18">
         <v>236</v>
@@ -72646,36 +72695,83 @@
         <v>12</v>
       </c>
       <c r="L20" s="56">
+        <v>43948</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="N20" s="56" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>607</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="18">
+        <v>100</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="76">
+        <v>43957.631944444445</v>
+      </c>
+      <c r="I21" s="18">
+        <v>15</v>
+      </c>
+      <c r="J21" s="18">
+        <v>236</v>
+      </c>
+      <c r="K21" s="18">
+        <v>12</v>
+      </c>
+      <c r="L21" s="56">
         <v>43943</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="M21" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="N20" s="56" t="s">
+      <c r="N21" s="56" t="s">
         <v>610</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A21:A1048576 A5:A11 A1">
+  <conditionalFormatting sqref="A22:A1048576 A6:A12 A1">
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
     <cfRule type="duplicateValues" dxfId="20" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
+  <conditionalFormatting sqref="A14">
     <cfRule type="duplicateValues" dxfId="19" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="18" priority="7"/>
+  <conditionalFormatting sqref="A1:XFD1">
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+  <conditionalFormatting sqref="A15:A21 A5">
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A14:A20 A4">
-    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
     <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -73153,458 +73249,530 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="121"/>
-    <col min="4" max="4" width="26" style="122" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="121"/>
-    <col min="6" max="6" width="27" style="121" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="121" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.109375" style="121" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="121"/>
+    <col min="1" max="3" width="8.88671875" style="62"/>
+    <col min="4" max="4" width="26" style="148" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="62"/>
+    <col min="6" max="6" width="27" style="62" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="62" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" style="62" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="119" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+    <row r="1" spans="1:10" s="146" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="147" t="s">
         <v>438</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="E1" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="146" t="s">
         <v>435</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="G1" s="146" t="s">
         <v>436</v>
       </c>
-      <c r="H1" s="119" t="s">
+      <c r="H1" s="146" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D2" s="122" t="s">
+      <c r="D2" s="148" t="s">
         <v>458</v>
       </c>
-      <c r="F2" s="121" t="s">
+      <c r="F2" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="128" t="s">
+      <c r="H2" s="149" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D3" s="122" t="s">
+      <c r="D3" s="148" t="s">
         <v>458</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="H3" s="128" t="s">
+      <c r="H3" s="149" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="148" t="s">
         <v>458</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F4" s="62" t="s">
         <v>442</v>
       </c>
-      <c r="H4" s="128" t="s">
+      <c r="H4" s="149" t="s">
         <v>443</v>
       </c>
-      <c r="J4" s="123"/>
+      <c r="J4" s="150"/>
     </row>
-    <row r="5" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="122" t="s">
+    <row r="5" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="148" t="s">
         <v>457</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="125" t="s">
+      <c r="E5" s="151"/>
+      <c r="F5" s="152" t="s">
         <v>445</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="152" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="122" t="s">
+    <row r="6" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="148" t="s">
         <v>457</v>
       </c>
-      <c r="E6" s="124"/>
-      <c r="F6" s="125" t="s">
+      <c r="E6" s="151"/>
+      <c r="F6" s="152" t="s">
         <v>446</v>
       </c>
-      <c r="H6" s="125" t="s">
+      <c r="H6" s="152" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="122" t="s">
+    <row r="7" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="148" t="s">
         <v>457</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="125" t="s">
+      <c r="E7" s="151"/>
+      <c r="F7" s="152" t="s">
         <v>447</v>
       </c>
-      <c r="H7" s="126" t="s">
+      <c r="H7" s="153" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="122" t="s">
+      <c r="D8" s="148" t="s">
         <v>337</v>
       </c>
-      <c r="F8" s="121" t="s">
+      <c r="F8" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="121" t="s">
+      <c r="H8" s="62" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D9" s="122" t="s">
+      <c r="D9" s="148" t="s">
         <v>337</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="F9" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="H9" s="121" t="s">
+      <c r="H9" s="62" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="148" t="s">
         <v>337</v>
       </c>
-      <c r="F10" s="121" t="s">
+      <c r="F10" s="62" t="s">
         <v>442</v>
       </c>
-      <c r="H10" s="121" t="s">
+      <c r="H10" s="62" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="127" t="s">
+    <row r="11" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="154" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="152" t="s">
         <v>445</v>
       </c>
-      <c r="H11" s="121" t="s">
+      <c r="H11" s="62" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="127" t="s">
+    <row r="12" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="154" t="s">
         <v>461</v>
       </c>
-      <c r="F12" s="125" t="s">
+      <c r="F12" s="152" t="s">
         <v>446</v>
       </c>
-      <c r="H12" s="121" t="s">
+      <c r="H12" s="62" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="127" t="s">
+    <row r="13" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="154" t="s">
         <v>461</v>
       </c>
-      <c r="F13" s="125" t="s">
+      <c r="F13" s="152" t="s">
         <v>447</v>
       </c>
-      <c r="H13" s="121" t="s">
+      <c r="H13" s="62" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D14" s="122" t="s">
+      <c r="D14" s="148" t="s">
         <v>462</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="H14" s="128" t="s">
+      <c r="H14" s="149" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="148" t="s">
         <v>462</v>
       </c>
-      <c r="F15" s="121" t="s">
+      <c r="F15" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="H15" s="128" t="s">
+      <c r="H15" s="149" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="148" t="s">
         <v>462</v>
       </c>
-      <c r="F16" s="121" t="s">
+      <c r="F16" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="H16" s="129" t="s">
+      <c r="H16" s="155" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="148" t="s">
         <v>464</v>
       </c>
-      <c r="F17" s="121" t="s">
+      <c r="F17" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="H17" s="128" t="s">
+      <c r="H17" s="149" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D18" s="122" t="s">
+      <c r="D18" s="148" t="s">
         <v>464</v>
       </c>
-      <c r="F18" s="121" t="s">
+      <c r="F18" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="H18" s="128" t="s">
+      <c r="H18" s="149" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="148" t="s">
         <v>464</v>
       </c>
-      <c r="F19" s="121" t="s">
+      <c r="F19" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="H19" s="129" t="s">
+      <c r="H19" s="155" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D20" s="122" t="s">
+      <c r="D20" s="148" t="s">
         <v>465</v>
       </c>
-      <c r="F20" s="121" t="s">
+      <c r="F20" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="H20" s="128" t="s">
+      <c r="H20" s="149" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="148" t="s">
         <v>465</v>
       </c>
-      <c r="F21" s="121" t="s">
+      <c r="F21" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="H21" s="128" t="s">
+      <c r="H21" s="149" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D22" s="122" t="s">
+      <c r="D22" s="148" t="s">
         <v>465</v>
       </c>
-      <c r="F22" s="121" t="s">
+      <c r="F22" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="H22" s="129" t="s">
+      <c r="H22" s="155" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="148" t="s">
         <v>466</v>
       </c>
-      <c r="F23" s="121" t="s">
+      <c r="F23" s="62" t="s">
         <v>470</v>
       </c>
-      <c r="H23" s="121" t="s">
+      <c r="H23" s="62" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="122" t="s">
+      <c r="D24" s="148" t="s">
         <v>469</v>
       </c>
-      <c r="F24" s="121" t="s">
+      <c r="F24" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="H24" s="121" t="s">
+      <c r="H24" s="62" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="122" t="s">
+      <c r="D25" s="148" t="s">
         <v>469</v>
       </c>
-      <c r="F25" s="121" t="s">
+      <c r="F25" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="H25" s="121" t="s">
+      <c r="H25" s="62" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="148" t="s">
         <v>469</v>
       </c>
-      <c r="F26" s="121" t="s">
+      <c r="F26" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="H26" s="121" t="s">
+      <c r="H26" s="62" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D27" s="122" t="s">
+      <c r="D27" s="148" t="s">
         <v>477</v>
       </c>
-      <c r="F27" s="121" t="s">
+      <c r="F27" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="H27" s="128" t="s">
+      <c r="H27" s="149" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D28" s="122" t="s">
+      <c r="D28" s="148" t="s">
         <v>477</v>
       </c>
-      <c r="F28" s="121" t="s">
+      <c r="F28" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="H28" s="128" t="s">
+      <c r="H28" s="149" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D29" s="122" t="s">
+      <c r="D29" s="148" t="s">
         <v>477</v>
       </c>
-      <c r="F29" s="121" t="s">
+      <c r="F29" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="H29" s="129" t="s">
+      <c r="H29" s="155" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D30" s="130" t="s">
+      <c r="D30" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="F30" s="121" t="s">
+      <c r="F30" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="H30" s="128" t="s">
+      <c r="H30" s="149" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D31" s="130" t="s">
+      <c r="D31" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="F31" s="121" t="s">
+      <c r="F31" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="H31" s="128" t="s">
+      <c r="H31" s="149" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D32" s="130" t="s">
+      <c r="D32" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="F32" s="121" t="s">
+      <c r="F32" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="H32" s="129" t="s">
+      <c r="H32" s="155" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D33" s="122" t="s">
+      <c r="D33" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="F33" s="121" t="s">
+      <c r="F33" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="H33" s="121" t="s">
+      <c r="H33" s="62" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D34" s="122" t="s">
+      <c r="D34" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="F34" s="121" t="s">
+      <c r="F34" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="H34" s="121" t="s">
+      <c r="H34" s="62" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D35" s="122" t="s">
+      <c r="D35" s="148" t="s">
         <v>267</v>
       </c>
-      <c r="F35" s="121" t="s">
+      <c r="F35" s="62" t="s">
         <v>442</v>
       </c>
-      <c r="H35" s="121" t="s">
+      <c r="H35" s="62" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D36" s="122" t="s">
+      <c r="D36" s="148" t="s">
         <v>565</v>
       </c>
-      <c r="F36" s="121" t="s">
+      <c r="F36" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="121" t="s">
+      <c r="H36" s="62" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D37" s="122" t="s">
+      <c r="D37" s="148" t="s">
         <v>565</v>
       </c>
-      <c r="F37" s="121" t="s">
+      <c r="F37" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="H37" s="121" t="s">
+      <c r="H37" s="62" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D38" s="122" t="s">
+      <c r="D38" s="148" t="s">
         <v>565</v>
       </c>
-      <c r="F38" s="121" t="s">
+      <c r="F38" s="62" t="s">
         <v>442</v>
       </c>
-      <c r="H38" s="121" t="s">
+      <c r="H38" s="62" t="s">
         <v>565</v>
+      </c>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D39" s="148" t="s">
+        <v>843</v>
+      </c>
+      <c r="F39" s="149" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D40" s="148" t="s">
+        <v>843</v>
+      </c>
+      <c r="F40" s="149" t="s">
+        <v>440</v>
+      </c>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D41" s="148" t="s">
+        <v>843</v>
+      </c>
+      <c r="F41" s="149" t="s">
+        <v>842</v>
+      </c>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D42" s="148" t="s">
+        <v>845</v>
+      </c>
+      <c r="F42" s="149" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D43" s="148" t="s">
+        <v>845</v>
+      </c>
+      <c r="F43" s="149" t="s">
+        <v>440</v>
+      </c>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D44" s="148" t="s">
+        <v>845</v>
+      </c>
+      <c r="F44" s="149" t="s">
+        <v>842</v>
+      </c>
+      <c r="G44" s="149"/>
+      <c r="H44" s="149" t="s">
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -76521,23 +76689,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="141" t="s">
+      <c r="E1" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="134" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="146"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="4:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D2" s="139"/>
-      <c r="E2" s="142"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="132"/>
       <c r="F2" s="34" t="s">
         <v>163</v>
       </c>
@@ -76555,8 +76723,8 @@
       </c>
     </row>
     <row r="3" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="140"/>
-      <c r="E3" s="143"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="133"/>
       <c r="F3" s="36" t="s">
         <v>168</v>
       </c>
@@ -76666,26 +76834,26 @@
     </row>
     <row r="17" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="147" t="s">
+      <c r="D18" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="147" t="s">
+      <c r="E18" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="150" t="s">
+      <c r="F18" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="142"/>
       <c r="K18">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="4:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
       <c r="F19" s="101" t="s">
         <v>163</v>
       </c>
@@ -76703,8 +76871,8 @@
       </c>
     </row>
     <row r="20" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
       <c r="F20" s="109" t="s">
         <v>548</v>
       </c>

--- a/TongHopDuThau.xlsx
+++ b/TongHopDuThau.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAF1A88-E19D-4E7C-8B4C-D03D97C1F31F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B077EA-8C23-4D0B-A4FB-FEFBF1A3BDF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TBMT" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">NhanSuMoi!$A$1:$M$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NhaSX-CungCap'!$A$1:$J$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">PhanBoCatDien!$B$1:$I$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">QuyMoCongTrinh!$A$1:$G$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">QuyMoCongTrinh!$A$1:$G$35</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Sheet1!$C$1:$F$177</definedName>
     <definedName name="DGVC">[1]VCTC!$A$11:$J$33</definedName>
     <definedName name="DONGIA">[1]DG!$A$6:$H$613</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="874">
   <si>
     <t>CongTrinh</t>
   </si>
@@ -1977,96 +1977,12 @@
     <t>Sẵn sàng huy động</t>
   </si>
   <si>
-    <t>2.1 Đường dây trung thế:</t>
-  </si>
-  <si>
-    <t>2.2 Trạm biến áp:</t>
-  </si>
-  <si>
-    <t>2.3 Đường dây hạ thế:</t>
-  </si>
-  <si>
     <t>Đếm</t>
   </si>
   <si>
     <t>Max</t>
   </si>
   <si>
-    <t>Xây dựng mới đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 dài 6.055,6 mét.</t>
-  </si>
-  <si>
-    <t>Xây dựng mới đường dây trung thế 3 pha cáp 3ACX95mm2+AC70mm2 dài  526,2 mét.</t>
-  </si>
-  <si>
-    <t>Xây dựng mới đường dây trung thế 3 pha ngầm cáp CXV/SE/ DSTA-3x70mm2 + CV35mm2 dài 40 mét.</t>
-  </si>
-  <si>
-    <t>Nâng cấp đường dây trung thế từ 1 pha lên 3 pha cáp từ 2AC50mm2 thành 3ACX50mm2+AC50mm2 dài 2.580,2 mét.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nâng cấp đường dây trung thế từ 1 pha lên 3 pha cáp từ 2AC50mm2 thành 3ACX50mm2+AC50mm2 dài 1.935,9 mét. </t>
-  </si>
-  <si>
-    <t>Nâng cấp trạm 1 pha 2x50kVA thành 3x50kVA: 1 trạm (Hòa Bình).</t>
-  </si>
-  <si>
-    <t>Nâng cấp  và di dời trạm 1 pha 2x100kVA thành 250kVA: 1 trạm (Đông Minh 8).</t>
-  </si>
-  <si>
-    <t>Nâng cấp trạm 1 pha 1x100kVA thành 250kVA: 1 trạm (Đông Minh 8A).</t>
-  </si>
-  <si>
-    <t>Nâng cấp trạm 1 pha 2x75kVA thành 250kVA: 1 trạm (Bình Tiến 1). Phần máy biến áp: tận dụng máy thu hồi tại kho Điện lực Xuân Lộc.</t>
-  </si>
-  <si>
-    <t>Di dời trạm: Hòa Bình – 2x50kVA; Việt Kiều 141 – 2x75kVA về tâm phụ tải.</t>
-  </si>
-  <si>
-    <t>Di dời trạm: Đông Minh 7 2x37,5kVA  về tâm phụ tải.</t>
-  </si>
-  <si>
-    <t>Xây dựng mới đường dây hạ thế 1 pha cáp ABC 3x95mm2 dài  515,7 mét.</t>
-  </si>
-  <si>
-    <t>Xây dựng mới đường dây hạ thế 3 pha cáp ABC 4x95mm2 dài  1.490,2 mét.</t>
-  </si>
-  <si>
-    <t>Nâng cấp đường dây hạ thế cáp 2AV50+A50mm2, ABC 3x50mm2 thành ABC 4x120mm2 dài  806,3 mét.</t>
-  </si>
-  <si>
-    <t>Nâng cấp đường dây hạ thế cáp ABC 3x70mm2 thành ABC 3x70mm2 + AV70 mm2 dài  2.588,1 mét (kéo thêm dây AV70mm2).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xây dựng mới TBA 3 pha 1x75kVA: 3 trạm (Việt Kiều 141A, Việt Kiều 141B, Tây Minh 1A). </t>
-  </si>
-  <si>
-    <t>Xây dựng mới TBA 1 pha 2x37,5kVA: 1 trạm (Thọ Hòa 1C).</t>
-  </si>
-  <si>
-    <t>Xây dựng mới TBA 1 pha 1x100kVA: 1 trạm (Đông Minh 7A).</t>
-  </si>
-  <si>
-    <t>Xây dựng mới TBA 3 pha 3x37,5kVA trạm Đông Minh 5C</t>
-  </si>
-  <si>
-    <t>Xây dựng mới TBA 3 pha 3x37,5kVA ( Bảo Chánh 4D, Bảo Chánh 4E).</t>
-  </si>
-  <si>
-    <t>Xây dựng mới TBA 3 pha 250kVA Bảo Chánh 4C</t>
-  </si>
-  <si>
-    <t>Xây dựng mới TBA 3 pha 3x50kVA: trạm Đông Minh 5B</t>
-  </si>
-  <si>
-    <t>Xây dựng mới TBA 3 pha 3x50kVA: trạm Tam Hiệp 2B, Tam Hiệp 2C, Tam Hiệp 2D</t>
-  </si>
-  <si>
-    <t>Xây dựng mới TBA 3 pha 3x50kVA:  trạm Tam Hiệp 3B, Tam Hiệp 3C, Tam Hiệp 3D, Tam Hiệp 3E</t>
-  </si>
-  <si>
-    <t>Xây dựng mới TBA 3 pha 250kVA: 3 trạm (Lang Minh E, Lang Minh F).</t>
-  </si>
-  <si>
     <t>20200441452-00</t>
   </si>
   <si>
@@ -2733,18 +2649,6 @@
     <t>LA 18kV 10kA</t>
   </si>
   <si>
-    <t>Nâng cấp 640,7 mét đường dây trung thế từ 1 pha 2AC50mm2 lên 3 pha 3ACX50+AC50mm2</t>
-  </si>
-  <si>
-    <t>Nâng cấp 01 TBA từ 1 pha 2x75kVA lên 3 pha 3x75kVA</t>
-  </si>
-  <si>
-    <t>Xây dựng mới 598 mét đường dây trung thế 3 pha 3ACX50+AC50mm2</t>
-  </si>
-  <si>
-    <t>Xây dựng mới mới 01 TBA 3 pha 3x50kVA</t>
-  </si>
-  <si>
     <t>20200502532-00</t>
   </si>
   <si>
@@ -2794,6 +2698,180 @@
   </si>
   <si>
     <t>BK</t>
+  </si>
+  <si>
+    <t>b.      Phần Trạm biến áp:</t>
+  </si>
+  <si>
+    <t>·       Phần Trạm biến áp xây dựng mới: 15 trạm cụ thể như sau:</t>
+  </si>
+  <si>
+    <t>·       Phần Trạm biến áp nâng cấp: 07 Trạm</t>
+  </si>
+  <si>
+    <t>Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Hưng 2B (tách lưới TBA Xuân Hưng 2) dài: 441m;</t>
+  </si>
+  <si>
+    <t>Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Suối Lớn B (tách lưới TBA Suối LớnA) dài: 500m;</t>
+  </si>
+  <si>
+    <t>Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân  Tâm 4F (tách lưới TBA Xuân Tâm 4) dài: 150m;</t>
+  </si>
+  <si>
+    <t>Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 4G (tách lưới TBA Xuân Tâm 4) dài: 201,7m;</t>
+  </si>
+  <si>
+    <t>Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 4D (tách lưới TBA Xuân Tâm 4B) dài: 177,2m;</t>
+  </si>
+  <si>
+    <t>Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 4E (tách lưới TBA Xuân Tâm 4B) dài: 231,5m;</t>
+  </si>
+  <si>
+    <t>Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 5D (tách lưới TBA Xuân Tâm 5A) dài: 38,3m;</t>
+  </si>
+  <si>
+    <t>Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 5E (tách lưới TBA Xuân Tâm 5) dài: 280m;</t>
+  </si>
+  <si>
+    <t>Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 6B (tách lưới TBA Xuân Tâm 6A) dài: 38,4m;</t>
+  </si>
+  <si>
+    <t>Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 6C (tách lưới TBA Xuân Tâm 6) dài: 209 m;</t>
+  </si>
+  <si>
+    <t>Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 7B (tách lưới TBA Xuân Tâm 7) dài: 38,4m;</t>
+  </si>
+  <si>
+    <t>Nâng cấp đường dây trung thế từ 1 pha lên 3 pha nhánh Cọ Dầu 1, Cọ Dầu 1A  từ cáp AC70+AC50mm2 lên thành 3ACX70mm2+AC50mm2 dài: 223m (sử dụng lại dây trung hòa hiện hữu)  và từ cáp ACX50+AC50mm2 lên thành 3ACX50mm2+AC50mm2 dài: 534 mm (sử dụng lại 1 dây pha và dây trung hòa).</t>
+  </si>
+  <si>
+    <t>Nâng cấp đường dây trung thế từ 1 pha lên 3 pha nhánh Cọ Dầu 2 từ cáp AC70+AC50mm2 lên thành 3ACX70mm2+AC50mm2 dài: 479,2m (sử dụng lại dây trung hòa hiện hữu)</t>
+  </si>
+  <si>
+    <t>Nâng cấp đường dây trung thế từ 1 pha lên 3 pha nhánh Cọ Dầu 3A từ cáp ACX50+AC50mm2 lên thành 3ACX50mm2+AC50mm2 dài: 525mm (sử dụng lại 1 dây pha và dây trung hòa)</t>
+  </si>
+  <si>
+    <t>Xây dựng mới đường dây hạ thế 1 pha sau TBA Xuân Hòa 7A cáp ABC 3x95mm2 dài 341,9m.</t>
+  </si>
+  <si>
+    <t>Xây dựng mới đường dây hạ thế 3 pha sau TBA Cọ dầu 1A, cáp ABC 4x95mm2 dài 440m.</t>
+  </si>
+  <si>
+    <t>Xây dựng mới đường dây hạ thế 3 pha sau TBA Cọ dầu 1, cáp ABC 4x95mm2 dài 191m</t>
+  </si>
+  <si>
+    <t>Xây dựng mới đường dây hạ thế 3 pha sau TBA Cọ dầu 2A cáp ABC 4x95mm2 dài 140m.</t>
+  </si>
+  <si>
+    <t>Xây dựng mới đường dây hạ thế 3 pha sau TBA Cọ dầu 2 cáp ABC 4x95mm2 dài 317m.</t>
+  </si>
+  <si>
+    <t>Xây dựng mới đường dây hạ thế 3 pha sau TBA Xuân Tâm 4F cáp ABC 4x95mm2 dài 180m (sử dụng trụ hiện hữu) để đấu nối với nhánh rẽ hạ thế bên hông giáo xứ Hiệp Lực tách lưới cho TBA Xuân Tâm 4.</t>
+  </si>
+  <si>
+    <t>Xây dựng mới đường dây hạ thế 3 pha sau TBA Xuân Tâm 6A cáp ABC 4x95mm2 dài 290,3m để chống lệch pha, giảm TTĐN. Thu hồi đường dây hạ thế 1 pha 2AV70+A50 sử dụng trụ vuông hoàn trả cho cho khách hàng.</t>
+  </si>
+  <si>
+    <t>Nâng cấp dây dẫn hạ thế hiện hữu sau TBA Cọ Dầu 1 từ 1P cáp ABC3x120mm2 thành cáp 3P cáp ABC 3x120mm2 hiện hữu + A95 dài 997,5m, từ 1P cáp ABC3x95mm2 thành cáp 3P cáp ABC 3x95mm2 hiện hữu + A70 dài 364m,  từ 1P cáp ABC3x70mm2 thành cáp 3P cáp ABC 3x70mm2 hiện hữu + A50 dài 555,5m và từ 1P cáp ABC3x50mm2 thành cáp 3P cáp ABC 3x50mm2 hiện hữu + A50 dài 530m.</t>
+  </si>
+  <si>
+    <t>Nâng cấp dây dẫn hạ thế hiện hữu sau TBA Cọ Dầu 1A từ 1P cáp ABC3x120mm2 thành cáp 3P cáp ABC 3x120mm2 hiện hữu + A95 dài 264,1m, từ 1P cáp ABC3x50mm2 thành cáp 3P cáp ABC 3x50mm2 hiện hữu + A50 dài 180,3m.</t>
+  </si>
+  <si>
+    <t>Nâng cấp dây dẫn hạ thế hiện hữu sau TBA Cọ Dầu 2 từ 1P cáp 2AV95+A70 mm2 thành ABC4x120mm2 dài 705,5m và từ cáp ABC3x70mm2 thành cáp 3P cáp ABC 4x120mm2 dài 277,8m</t>
+  </si>
+  <si>
+    <t>Nâng cấp dây dẫn hạ thế hiện hữu sau TBA Cọ Dầu 2A từ 1P cáp 2AV95+A70 mm2 thành ABC4x120mm2 dài 492,7m.</t>
+  </si>
+  <si>
+    <t>Nâng cấp dây dẫn hạ thế hiện hữu sau TBA Cọ Dầu 3 từ 1P cápABC3x50mm2 thành cáp 3P cáp ABC 3x50mm2 +A50 dài 1.033 m.</t>
+  </si>
+  <si>
+    <t>Nâng cấp dây dẫn hạ thế hiện hữu sau TBA Cọ Dầu 3A từ 1P cáp ABC3x50mm2 thành cáp 3P cáp ABC 3x50mm2 +A50 dài 412,5 m.</t>
+  </si>
+  <si>
+    <t>Nâng cấp dây dẫn hạ thế hiện hữu sau TBA Tà Lú 1 từ 1P cáp 2AV95+A70mm2 thành 3P cáp ABC 4x120mm2  dài 432,7 mét;   từ 1P cáp 2AV95+A70mm2 thành 3P cáp ABC 4x95mm2 dài 792,8 mét; từ 1P cáp 2AV50+A50mm2 thành 3P cáp ABC 4x95mm2 dài 336,6 mét, từ 1P cáp ABC 3x50 mm2 thành 3P cáp ABC 4x95mm2 dài 175,8m và từ 1P cáp ABC 3x70 mm2 thành 3P cáp ABC 4x95mm2 dài 204,7m.</t>
+  </si>
+  <si>
+    <t>TBA 1 pha 100kVA: 02 trạm (Ấp 4 Xuân Hưng B, Ấp 4 Xuân Hưng C).</t>
+  </si>
+  <si>
+    <t>TBA 3 pha 250kVA: 10 trạm (Xuân Hưng 2B, Suối Lớn B,  Xuân Tâm 4D, Xuân Tâm 4E, Xuân Tâm 4F, Xuân Tâm 4G, Xuân Tâm 5D, Xuân Tâm 6B, Xuân Tâm 6C, Xuân Tâm 7B).</t>
+  </si>
+  <si>
+    <t>TBA 3 pha 3x50kVA: 03 trạm (Xuân Tâm 2B, , Xuân Tâm 5E, Cọ Dầu 1B).</t>
+  </si>
+  <si>
+    <t>Nâng cấp TBA từ 1 pha 100kVA lên 3P250kVA: 04 Trạm (Cọ Dầu 1A, Cọ Dầu 2, Cọ Dầu 2A, Cọ Dầu 3A).</t>
+  </si>
+  <si>
+    <t>Nâng cấp TBA từ 1 pha 2x100kVA lên 3P 250kVA: 02 Trạm (Cọ Dầu 1, Tà Lú 1)</t>
+  </si>
+  <si>
+    <t>Nâng cấp TBA từ 1 pha 2x100kVA lên 3P 320kVA: 01 Trạm (Cọ Dầu 3).</t>
+  </si>
+  <si>
+    <t>Nội dung công tác 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đấu nối đường dây xây dựng mới </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đấu nối đường dây </t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Hưng 2B (tách lưới TBA Xuân Hưng 2) dài: 441m;</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Suối Lớn B (tách lưới TBA Suối LớnA) dài: 500m;</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân  Tâm 4F (tách lưới TBA Xuân Tâm 4) dài: 150m;</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 4G (tách lưới TBA Xuân Tâm 4) dài: 201,7m;</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 4D (tách lưới TBA Xuân Tâm 4B) dài: 177,2m;</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 4E (tách lưới TBA Xuân Tâm 4B) dài: 231,5m;</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 5D (tách lưới TBA Xuân Tâm 5A) dài: 38,3m;</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 5E (tách lưới TBA Xuân Tâm 5) dài: 280m;</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 6B (tách lưới TBA Xuân Tâm 6A) dài: 38,4m;</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 6C (tách lưới TBA Xuân Tâm 6) dài: 209 m;</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 7B (tách lưới TBA Xuân Tâm 7) dài: 38,4m;</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây Xây dựng mới đường dây hạ thế 1 pha sau TBA Xuân Hòa 7A cáp ABC 3x95mm2 dài 341,9m.</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây Xây dựng mới đường dây hạ thế 3 pha sau TBA Cọ dầu 1A, cáp ABC 4x95mm2 dài 440m.</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây Xây dựng mới đường dây hạ thế 3 pha sau TBA Cọ dầu 1, cáp ABC 4x95mm2 dài 191m</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây Xây dựng mới đường dây hạ thế 3 pha sau TBA Cọ dầu 2A cáp ABC 4x95mm2 dài 140m.</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây Xây dựng mới đường dây hạ thế 3 pha sau TBA Cọ dầu 2 cáp ABC 4x95mm2 dài 317m.</t>
+  </si>
+  <si>
+    <t>Xử lý các tồn tại, thu hồi trụ.</t>
+  </si>
+  <si>
+    <t>Chờ cắt điện thi công, cắt điện thi công tháo gỡ thu hồi vật tư phụ kiện đường dây trung hạ thế; nhổ trụ, tháo thùng trạm, cáp xuất lộ xuống, lộ lên, tháo ống bảo vệ cáp xuất; lắp đặt phụ kiện đường dây trung hạ thế; kéo rãi căng dây trung hạ thế và đấu nối hoàn chỉnh</t>
   </si>
 </sst>
 </file>
@@ -3182,7 +3260,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3517,6 +3595,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3571,30 +3673,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -64801,7 +64885,7 @@
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
@@ -64827,7 +64911,7 @@
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
@@ -64897,7 +64981,7 @@
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>832</v>
+        <v>800</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
@@ -64919,7 +65003,7 @@
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
@@ -64941,7 +65025,7 @@
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>833</v>
+        <v>801</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
@@ -64959,11 +65043,11 @@
         <v>Tên dự án</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>834</v>
+        <v>802</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
@@ -64985,7 +65069,7 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>835</v>
+        <v>803</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -65093,7 +65177,7 @@
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
@@ -65329,7 +65413,7 @@
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
-        <v>836</v>
+        <v>804</v>
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
@@ -65351,7 +65435,7 @@
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
-        <v>837</v>
+        <v>805</v>
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
@@ -65447,7 +65531,7 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>838</v>
+        <v>806</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -65457,18 +65541,18 @@
         <v>Loại tiền chuyển đổi</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>661</v>
+        <v>633</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>662</v>
+        <v>634</v>
       </c>
       <c r="E35" s="1"/>
       <c r="H35" t="s">
-        <v>663</v>
+        <v>635</v>
       </c>
       <c r="J35" t="s">
-        <v>664</v>
+        <v>636</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -65519,32 +65603,32 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="78.109375" style="121" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="157" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="86.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="str">
-        <f>"Nội dung công tác "&amp;MAX(B:B)</f>
-        <v>Nội dung công tác 15</v>
+      <c r="A1" s="20" t="s">
+        <v>853</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>579</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>578</v>
+        <v>576</v>
+      </c>
+      <c r="C1" s="156" t="s">
+        <v>575</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>560</v>
@@ -65553,566 +65637,523 @@
         <v>561</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
-        <v>581</v>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>856</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <f t="shared" ref="C2:C26" si="0">COUNTIF(B:B,B2)</f>
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>477</v>
-      </c>
-      <c r="G2">
-        <v>3</v>
+      <c r="C2" s="157">
+        <f>COUNTIF(B:B,B2)</f>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>854</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="121" t="s">
-        <v>582</v>
+      <c r="A3" s="1" t="s">
+        <v>857</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>478</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
+      <c r="C3" s="157">
+        <f>COUNTIF(B:B,B3)</f>
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>854</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="121" t="s">
-        <v>583</v>
+      <c r="A4" s="1" t="s">
+        <v>858</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>476</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
+      <c r="C4" s="157">
+        <f>COUNTIF(B:B,B4)</f>
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="121" t="s">
-        <v>584</v>
+      <c r="A5" s="1" t="s">
+        <v>859</v>
       </c>
       <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="157">
+        <f>COUNTIF(B:B,B5)</f>
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>854</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="157">
+        <f>COUNTIF(B:B,B6)</f>
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>854</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="157">
+        <f>COUNTIF(B:B,B7)</f>
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>854</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="157">
+        <f>COUNTIF(B:B,B8)</f>
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>854</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="157">
+        <f>COUNTIF(B:B,B9)</f>
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>854</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="157">
+        <f>COUNTIF(B:B,B10)</f>
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>854</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="157">
+        <f>COUNTIF(B:B,B11)</f>
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>854</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="157">
+        <f>COUNTIF(B:B,B12)</f>
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>854</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
+      <c r="C13" s="157">
+        <f>COUNTIF(B:B,B13)</f>
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>477</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
+      <c r="E13" s="1" t="s">
+        <v>830</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="121" t="s">
-        <v>596</v>
-      </c>
-      <c r="B6">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" ref="E6:E11" si="1">"Xây dựng mới "&amp;A6</f>
-        <v>Xây dựng mới Xây dựng mới TBA 1 pha 2x37,5kVA: 1 trạm (Thọ Hòa 1C).</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
+      <c r="C14" s="157">
+        <f>COUNTIF(B:B,B14)</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>831</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="122" t="s">
-        <v>599</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>Xây dựng mới Xây dựng mới TBA 3 pha 3x37,5kVA ( Bảo Chánh 4D, Bảo Chánh 4E).</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="122" t="s">
-        <v>600</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>Xây dựng mới Xây dựng mới TBA 3 pha 250kVA Bảo Chánh 4C</v>
-      </c>
-      <c r="G8">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="157">
+        <f>COUNTIF(B:B,B15)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="121" t="s">
-        <v>597</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>Xây dựng mới Xây dựng mới TBA 1 pha 1x100kVA: 1 trạm (Đông Minh 7A).</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="122" t="s">
-        <v>598</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>Xây dựng mới Xây dựng mới TBA 3 pha 3x37,5kVA trạm Đông Minh 5C</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="122" t="s">
-        <v>601</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>Xây dựng mới Xây dựng mới TBA 3 pha 3x50kVA: trạm Đông Minh 5B</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="121" t="s">
-        <v>586</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="121" t="s">
-        <v>587</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="121" t="s">
-        <v>590</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="121" t="s">
-        <v>585</v>
-      </c>
-      <c r="B15">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
+      <c r="E15" s="1" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="121" t="s">
-        <v>588</v>
+      <c r="A16" s="1" t="s">
+        <v>867</v>
       </c>
       <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="157">
+        <f>COUNTIF(B:B,B16)</f>
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>855</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" s="157">
+        <f>COUNTIF(B:B,B17)</f>
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>855</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18" s="157">
+        <f>COUNTIF(B:B,B18)</f>
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>855</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" s="157">
+        <f>COUNTIF(B:B,B19)</f>
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>855</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" s="157">
+        <f>COUNTIF(B:B,B20)</f>
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>855</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
+      <c r="C21" s="157">
+        <f>COUNTIF(B:B,B21)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>838</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="121" t="s">
-        <v>589</v>
-      </c>
-      <c r="B17">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22" s="157">
+        <f>COUNTIF(B:B,B22)</f>
+        <v>1</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>839</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="121" t="s">
-        <v>591</v>
-      </c>
-      <c r="B18">
-        <v>8</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
+    <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B23" s="1">
+        <v>9</v>
+      </c>
+      <c r="C23" s="157">
+        <f>COUNTIF(B:B,B23)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>840</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="121" t="s">
-        <v>592</v>
-      </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" s="157">
+        <f>COUNTIF(B:B,B24)</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>841</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="121" t="s">
-        <v>593</v>
-      </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
+    <row r="25" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B25">
+        <v>11</v>
+      </c>
+      <c r="C25" s="157">
+        <f>COUNTIF(B:B,B25)</f>
         <v>1</v>
       </c>
-      <c r="G20">
-        <v>2</v>
+      <c r="E25" s="1" t="s">
+        <v>842</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="121" t="s">
-        <v>594</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
+    <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C26" s="157">
+        <f>COUNTIF(B:B,B26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>843</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="121" t="s">
-        <v>604</v>
-      </c>
-      <c r="B22">
-        <v>11</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E22" t="str">
-        <f>"Xây dựng mới "&amp;A22</f>
-        <v>Xây dựng mới Xây dựng mới TBA 3 pha 250kVA: 3 trạm (Lang Minh E, Lang Minh F).</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
+    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C27" s="157">
+        <f>COUNTIF(B:B,B27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>844</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="121" t="s">
-        <v>595</v>
-      </c>
-      <c r="B23" s="1">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E23" t="str">
-        <f>"Xây dựng mới "&amp;A23</f>
-        <v xml:space="preserve">Xây dựng mới Xây dựng mới TBA 3 pha 1x75kVA: 3 trạm (Việt Kiều 141A, Việt Kiều 141B, Tây Minh 1A). </v>
-      </c>
-      <c r="G23">
-        <v>4</v>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C28" s="157">
+        <f>COUNTIF(B:B,B28)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="122" t="s">
-        <v>602</v>
-      </c>
-      <c r="B24">
-        <v>13</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E24" t="str">
-        <f>"Xây dựng mới "&amp;A24</f>
-        <v>Xây dựng mới Xây dựng mới TBA 3 pha 3x50kVA: trạm Tam Hiệp 2B, Tam Hiệp 2C, Tam Hiệp 2D</v>
-      </c>
-      <c r="G24">
-        <v>4</v>
+    <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C29" s="157">
+        <f>COUNTIF(B:B,B29)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>846</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="122" t="s">
-        <v>603</v>
-      </c>
-      <c r="B25">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E25" t="str">
-        <f>"Xây dựng mới "&amp;A25</f>
-        <v>Xây dựng mới Xây dựng mới TBA 3 pha 3x50kVA:  trạm Tam Hiệp 3B, Tam Hiệp 3C, Tam Hiệp 3D, Tam Hiệp 3E</v>
-      </c>
-      <c r="G25">
-        <v>4</v>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="157">
+        <f>COUNTIF(B:B,B30)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>816</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="121" t="s">
-        <v>580</v>
-      </c>
-      <c r="B26" s="1">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>477</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C31" s="157">
+        <f>COUNTIF(B:B,B31)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>817</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="121" t="s">
-        <v>575</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="F27">
-        <v>477</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C32" s="157">
+        <f>COUNTIF(B:B,B32)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>847</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="121" t="s">
-        <v>576</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" ref="C28:C39" si="2">COUNTIF(B:B,B28)</f>
+    <row r="33" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C33" s="157">
+        <f>COUNTIF(B:B,B33)</f>
         <v>0</v>
       </c>
-      <c r="G28">
-        <v>3</v>
+      <c r="E33" s="1" t="s">
+        <v>848</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="121" t="s">
-        <v>577</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="2"/>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="157">
+        <f>COUNTIF(B:B,B34)</f>
         <v>0</v>
       </c>
-      <c r="G29">
-        <v>3</v>
+      <c r="E34" s="1" t="s">
+        <v>849</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C30" s="1">
-        <f t="shared" si="2"/>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C35" s="157">
+        <f>COUNTIF(B:B,B35)</f>
         <v>0</v>
       </c>
-      <c r="G30">
-        <v>2</v>
+      <c r="E35" s="1" t="s">
+        <v>818</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C31" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="1" t="s">
+        <v>850</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>5</v>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="1" t="s">
+        <v>851</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C33" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C34" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C35" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C36" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C39" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>7</v>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="1" t="s">
+        <v>852</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G39" xr:uid="{00000000-0009-0000-0000-000009000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G39">
-      <sortCondition ref="B1:B39"/>
+  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0000-000009000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
+      <sortCondition ref="B1:B35"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -66124,8 +66165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66162,7 +66203,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="280.8" x14ac:dyDescent="0.3">
       <c r="B2" s="117">
         <v>1</v>
       </c>
@@ -66171,21 +66212,34 @@
         <v>Lần cắt điện thứ 1</v>
       </c>
       <c r="D2" s="118" t="str">
-        <f>" - "&amp;E2&amp;CHAR(10)&amp;" - "&amp;F2</f>
-        <v xml:space="preserve"> - Nâng cấp 640,7 mét đường dây trung thế từ 1 pha 2AC50mm2 lên 3 pha 3ACX50+AC50mm2
- - Nâng cấp 01 TBA từ 1 pha 2x75kVA lên 3 pha 3x75kVA</v>
-      </c>
-      <c r="E2" s="121" t="s">
-        <v>827</v>
-      </c>
-      <c r="F2" s="121" t="s">
-        <v>828</v>
-      </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
+        <f t="array" ref="D2">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E2:J2,"")</f>
+        <v xml:space="preserve"> - Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Hưng 2B (tách lưới TBA Xuân Hưng 2) dài: 441m;
+ - Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Suối Lớn B (tách lưới TBA Suối LớnA) dài: 500m;
+ - Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân  Tâm 4F (tách lưới TBA Xuân Tâm 4) dài: 150m;
+ - Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 4G (tách lưới TBA Xuân Tâm 4) dài: 201,7m;
+ - Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 4D (tách lưới TBA Xuân Tâm 4B) dài: 177,2m;
+ - Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 4E (tách lưới TBA Xuân Tâm 4B) dài: 231,5m;</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>861</v>
+      </c>
     </row>
-    <row r="3" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="234" x14ac:dyDescent="0.3">
       <c r="B3" s="117">
         <v>2</v>
       </c>
@@ -66194,21 +66248,30 @@
         <v>Lần cắt điện thứ 2</v>
       </c>
       <c r="D3" s="118" t="str">
-        <f>" - "&amp;E3&amp;CHAR(10)&amp;" - "&amp;F3</f>
-        <v xml:space="preserve"> - Xây dựng mới 598 mét đường dây trung thế 3 pha 3ACX50+AC50mm2
- - Xây dựng mới mới 01 TBA 3 pha 3x50kVA</v>
-      </c>
-      <c r="E3" s="114" t="s">
-        <v>829</v>
-      </c>
-      <c r="F3" s="114" t="s">
-        <v>830</v>
-      </c>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
+        <f t="array" ref="D3">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E3:J3,"")</f>
+        <v xml:space="preserve"> - Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 5D (tách lưới TBA Xuân Tâm 5A) dài: 38,3m;
+ - Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 5E (tách lưới TBA Xuân Tâm 5) dài: 280m;
+ - Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 6B (tách lưới TBA Xuân Tâm 6A) dài: 38,4m;
+ - Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 6C (tách lưới TBA Xuân Tâm 6) dài: 209 m;
+ - Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 7B (tách lưới TBA Xuân Tâm 7) dài: 38,4m;</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>866</v>
+      </c>
     </row>
-    <row r="4" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B4" s="117">
         <v>3</v>
       </c>
@@ -66217,16 +66280,18 @@
         <v>Lần cắt điện thứ 3</v>
       </c>
       <c r="D4" s="118" t="str">
-        <f t="array" ref="D4">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E4:I4&lt;&gt;0,E4:I4,""))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E4" s="114"/>
+        <f t="array" ref="D4">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E4:J4,"")</f>
+        <v xml:space="preserve"> - Nâng cấp đường dây trung thế từ 1 pha lên 3 pha nhánh Cọ Dầu 1, Cọ Dầu 1A  từ cáp AC70+AC50mm2 lên thành 3ACX70mm2+AC50mm2 dài: 223m (sử dụng lại dây trung hòa hiện hữu)  và từ cáp ACX50+AC50mm2 lên thành 3ACX50mm2+AC50mm2 dài: 534 mm (sử dụng lại 1 dây pha và dây trung hòa).</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>830</v>
+      </c>
       <c r="F4" s="114"/>
       <c r="G4" s="114"/>
       <c r="H4" s="114"/>
       <c r="I4" s="114"/>
     </row>
-    <row r="5" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B5" s="117">
         <v>4</v>
       </c>
@@ -66235,16 +66300,18 @@
         <v>Lần cắt điện thứ 4</v>
       </c>
       <c r="D5" s="118" t="str">
-        <f t="array" ref="D5">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E5:I5&lt;&gt;0,E5:I5,""))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E5" s="121"/>
+        <f t="array" ref="D5">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E5:J5,"")</f>
+        <v xml:space="preserve"> - Nâng cấp đường dây trung thế từ 1 pha lên 3 pha nhánh Cọ Dầu 2 từ cáp AC70+AC50mm2 lên thành 3ACX70mm2+AC50mm2 dài: 479,2m (sử dụng lại dây trung hòa hiện hữu)</v>
+      </c>
+      <c r="E5" s="121" t="s">
+        <v>831</v>
+      </c>
       <c r="F5" s="122"/>
       <c r="G5" s="122"/>
       <c r="H5" s="114"/>
       <c r="I5" s="114"/>
     </row>
-    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B6" s="117">
         <v>5</v>
       </c>
@@ -66253,16 +66320,18 @@
         <v>Lần cắt điện thứ 5</v>
       </c>
       <c r="D6" s="118" t="str">
-        <f t="array" ref="D6">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E6:I6&lt;&gt;0,E6:I6,""))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E6" s="121"/>
+        <f t="array" ref="D6">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E6:J6,"")</f>
+        <v xml:space="preserve"> - Nâng cấp đường dây trung thế từ 1 pha lên 3 pha nhánh Cọ Dầu 3A từ cáp ACX50+AC50mm2 lên thành 3ACX50mm2+AC50mm2 dài: 525mm (sử dụng lại 1 dây pha và dây trung hòa)</v>
+      </c>
+      <c r="E6" s="121" t="s">
+        <v>832</v>
+      </c>
       <c r="F6" s="122"/>
       <c r="G6" s="122"/>
       <c r="H6" s="114"/>
       <c r="I6" s="114"/>
     </row>
-    <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="156" x14ac:dyDescent="0.3">
       <c r="B7" s="117">
         <v>6</v>
       </c>
@@ -66271,16 +66340,30 @@
         <v>Lần cắt điện thứ 6</v>
       </c>
       <c r="D7" s="118" t="str">
-        <f t="array" ref="D7">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E7:I7&lt;&gt;0,E7:I7,""))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
+        <f t="array" ref="D7">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E7:J7,"")</f>
+        <v xml:space="preserve"> - Đấu nối đường dây Xây dựng mới đường dây hạ thế 1 pha sau TBA Xuân Hòa 7A cáp ABC 3x95mm2 dài 341,9m.
+ - Đấu nối đường dây Xây dựng mới đường dây hạ thế 3 pha sau TBA Cọ dầu 1A, cáp ABC 4x95mm2 dài 440m.
+ - Đấu nối đường dây Xây dựng mới đường dây hạ thế 3 pha sau TBA Cọ dầu 1, cáp ABC 4x95mm2 dài 191m
+ - Đấu nối đường dây Xây dựng mới đường dây hạ thế 3 pha sau TBA Cọ dầu 2A cáp ABC 4x95mm2 dài 140m.
+ - Đấu nối đường dây Xây dựng mới đường dây hạ thế 3 pha sau TBA Cọ dầu 2 cáp ABC 4x95mm2 dài 317m.</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>871</v>
+      </c>
     </row>
-    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B8" s="117">
         <v>7</v>
       </c>
@@ -66289,16 +66372,18 @@
         <v>Lần cắt điện thứ 7</v>
       </c>
       <c r="D8" s="118" t="str">
-        <f t="array" ref="D8">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E8:I8&lt;&gt;0,E8:I8,""))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E8" s="121"/>
+        <f t="array" ref="D8">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E8:J8,"")</f>
+        <v xml:space="preserve"> - Xây dựng mới đường dây hạ thế 3 pha sau TBA Xuân Tâm 4F cáp ABC 4x95mm2 dài 180m (sử dụng trụ hiện hữu) để đấu nối với nhánh rẽ hạ thế bên hông giáo xứ Hiệp Lực tách lưới cho TBA Xuân Tâm 4.</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>838</v>
+      </c>
       <c r="F8" s="121"/>
       <c r="G8" s="121"/>
       <c r="H8" s="114"/>
       <c r="I8" s="114"/>
     </row>
-    <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B9" s="117">
         <v>8</v>
       </c>
@@ -66307,15 +66392,17 @@
         <v>Lần cắt điện thứ 8</v>
       </c>
       <c r="D9" s="118" t="str">
-        <f t="array" ref="D9">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E9:I9&lt;&gt;0,E9:I9,""))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E9" s="121"/>
+        <f t="array" ref="D9">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E9:J9,"")</f>
+        <v xml:space="preserve"> - Xây dựng mới đường dây hạ thế 3 pha sau TBA Xuân Tâm 6A cáp ABC 4x95mm2 dài 290,3m để chống lệch pha, giảm TTĐN. Thu hồi đường dây hạ thế 1 pha 2AV70+A50 sử dụng trụ vuông hoàn trả cho cho khách hàng.</v>
+      </c>
+      <c r="E9" s="121" t="s">
+        <v>839</v>
+      </c>
       <c r="F9" s="121"/>
       <c r="H9" s="114"/>
       <c r="I9" s="114"/>
     </row>
-    <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B10" s="117">
         <v>9</v>
       </c>
@@ -66324,16 +66411,18 @@
         <v>Lần cắt điện thứ 9</v>
       </c>
       <c r="D10" s="118" t="str">
-        <f t="array" ref="D10">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E10:I10&lt;&gt;0,E10:I10,""))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E10" s="1"/>
+        <f t="array" ref="D10">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E10:J10,"")</f>
+        <v xml:space="preserve"> - Nâng cấp dây dẫn hạ thế hiện hữu sau TBA Cọ Dầu 1 từ 1P cáp ABC3x120mm2 thành cáp 3P cáp ABC 3x120mm2 hiện hữu + A95 dài 997,5m, từ 1P cáp ABC3x95mm2 thành cáp 3P cáp ABC 3x95mm2 hiện hữu + A70 dài 364m,  từ 1P cáp ABC3x70mm2 thành cáp 3P cáp ABC 3x70mm2 hiện hữu + A50 dài 555,5m và từ 1P cáp ABC3x50mm2 thành cáp 3P cáp ABC 3x50mm2 hiện hữu + A50 dài 530m.</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>840</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="114"/>
       <c r="I10" s="114"/>
     </row>
-    <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B11" s="117">
         <v>10</v>
       </c>
@@ -66342,16 +66431,18 @@
         <v>Lần cắt điện thứ 10</v>
       </c>
       <c r="D11" s="118" t="str">
-        <f t="array" ref="D11">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E11:I11&lt;&gt;0,E11:I11,""))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E11" s="121"/>
+        <f t="array" ref="D11">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E11:J11,"")</f>
+        <v xml:space="preserve"> - Nâng cấp dây dẫn hạ thế hiện hữu sau TBA Cọ Dầu 1A từ 1P cáp ABC3x120mm2 thành cáp 3P cáp ABC 3x120mm2 hiện hữu + A95 dài 264,1m, từ 1P cáp ABC3x50mm2 thành cáp 3P cáp ABC 3x50mm2 hiện hữu + A50 dài 180,3m.</v>
+      </c>
+      <c r="E11" s="121" t="s">
+        <v>841</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="114"/>
     </row>
-    <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B12" s="117">
         <v>11</v>
       </c>
@@ -66360,10 +66451,12 @@
         <v>Lần cắt điện thứ 11</v>
       </c>
       <c r="D12" s="118" t="str">
-        <f t="array" ref="D12">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E12:I12&lt;&gt;0,E12:I12,""))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E12" s="1"/>
+        <f t="array" ref="D12">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E12:J12,"")</f>
+        <v xml:space="preserve"> - Nâng cấp dây dẫn hạ thế hiện hữu sau TBA Cọ Dầu 2 từ 1P cáp 2AV95+A70 mm2 thành ABC4x120mm2 dài 705,5m và từ cáp ABC3x70mm2 thành cáp 3P cáp ABC 4x120mm2 dài 277,8m</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>842</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -66379,10 +66472,12 @@
         <v>Lần cắt điện thứ 12</v>
       </c>
       <c r="D13" s="118" t="str">
-        <f t="array" ref="D13">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E13:I13&lt;&gt;0,E13:I13,""))</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E13" s="1"/>
+        <f t="array" ref="D13">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E13:J13,"")</f>
+        <v xml:space="preserve"> - Xử lý các tồn tại, thu hồi trụ.</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>872</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="114"/>
@@ -66397,7 +66492,7 @@
         <v>Lần cắt điện thứ 13</v>
       </c>
       <c r="D14" s="118" t="str">
-        <f t="array" ref="D14">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E14:I14&lt;&gt;0,E14:I14,""))</f>
+        <f t="array" ref="D14">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E14:J14,"")</f>
         <v xml:space="preserve"> - </v>
       </c>
     </row>
@@ -66410,7 +66505,7 @@
         <v>Lần cắt điện thứ 14</v>
       </c>
       <c r="D15" s="118" t="str">
-        <f t="array" ref="D15">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E15:I15&lt;&gt;0,E15:I15,""))</f>
+        <f t="array" ref="D15">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E15:J15,"")</f>
         <v xml:space="preserve"> - </v>
       </c>
     </row>
@@ -66423,7 +66518,7 @@
         <v>Lần cắt điện thứ 15</v>
       </c>
       <c r="D16" s="118" t="str">
-        <f t="array" ref="D16">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,IF(E16:I16&lt;&gt;0,E16:I16,""))</f>
+        <f t="array" ref="D16">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E16:J16,"")</f>
         <v xml:space="preserve"> - </v>
       </c>
     </row>
@@ -66441,13 +66536,12 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I33" sqref="I33"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -66470,9 +66564,9 @@
     <col min="16" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>636</v>
+        <v>608</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>127</v>
@@ -66519,7 +66613,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="62" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
         <v>486</v>
       </c>
@@ -66566,7 +66660,7 @@
       <c r="U2" s="24"/>
       <c r="V2" s="24"/>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>486</v>
       </c>
@@ -66603,7 +66697,7 @@
         <v>41396</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>109</v>
       </c>
@@ -66642,9 +66736,6 @@
       <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="24" t="s">
-        <v>127</v>
-      </c>
       <c r="C5" s="24">
         <v>2019</v>
       </c>
@@ -66677,7 +66768,7 @@
         <v>29221</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>109</v>
       </c>
@@ -66713,7 +66804,7 @@
         <v>30027</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>109</v>
       </c>
@@ -66749,7 +66840,7 @@
         <v>31088</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>109</v>
       </c>
@@ -66785,7 +66876,7 @@
         <v>34976</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>109</v>
       </c>
@@ -66821,7 +66912,7 @@
         <v>34281</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>109</v>
       </c>
@@ -66857,7 +66948,7 @@
         <v>35884</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>109</v>
       </c>
@@ -66893,7 +66984,7 @@
         <v>29205</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>109</v>
       </c>
@@ -66929,7 +67020,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>109</v>
       </c>
@@ -66965,7 +67056,7 @@
         <v>36767</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>109</v>
       </c>
@@ -67001,7 +67092,7 @@
         <v>35555</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>109</v>
       </c>
@@ -67037,7 +67128,7 @@
         <v>36242</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>109</v>
       </c>
@@ -67073,7 +67164,7 @@
         <v>34041</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>109</v>
       </c>
@@ -67109,7 +67200,7 @@
         <v>34974</v>
       </c>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>109</v>
       </c>
@@ -67145,7 +67236,7 @@
         <v>35580</v>
       </c>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>109</v>
       </c>
@@ -67181,7 +67272,7 @@
         <v>27567</v>
       </c>
     </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>109</v>
       </c>
@@ -67217,7 +67308,7 @@
         <v>29696</v>
       </c>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>109</v>
       </c>
@@ -67253,7 +67344,7 @@
         <v>31416</v>
       </c>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>109</v>
       </c>
@@ -67289,7 +67380,7 @@
         <v>37008</v>
       </c>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>109</v>
       </c>
@@ -67325,7 +67416,7 @@
         <v>33816</v>
       </c>
     </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E24" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67378,7 +67469,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25" s="62"/>
       <c r="E25" s="84">
         <f t="shared" si="0"/>
@@ -67414,7 +67505,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E26" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67430,7 +67521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E27" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67453,7 +67544,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E28" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67473,7 +67564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E29" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67489,7 +67580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E30" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67505,7 +67596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="E31" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -67525,7 +67616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B32" s="62"/>
       <c r="E32" s="84">
         <f t="shared" si="0"/>
@@ -67680,7 +67771,7 @@
         <v>30596</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B37" s="62"/>
       <c r="E37" s="84">
         <f t="shared" si="3"/>
@@ -67715,7 +67806,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B38" s="62"/>
       <c r="E38" s="84">
         <f t="shared" si="3"/>
@@ -67748,7 +67839,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E39" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67768,7 +67859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E40" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67788,7 +67879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E41" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67808,7 +67899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E42" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -67828,7 +67919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B43" s="62"/>
       <c r="E43" s="84">
         <f t="shared" si="3"/>
@@ -67861,7 +67952,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B44" s="62"/>
       <c r="E44" s="84">
         <f t="shared" si="3"/>
@@ -67896,7 +67987,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B45" s="62"/>
       <c r="E45" s="84">
         <f t="shared" si="3"/>
@@ -67931,7 +68022,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B46" s="62"/>
       <c r="E46" s="84">
         <f t="shared" si="3"/>
@@ -67966,7 +68057,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B47" s="62"/>
       <c r="E47" s="84">
         <f t="shared" si="3"/>
@@ -67999,7 +68090,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E48" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -68019,7 +68110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B49" s="62"/>
       <c r="E49" s="84">
         <f t="shared" si="3"/>
@@ -68052,7 +68143,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B50" s="62"/>
       <c r="E50" s="84">
         <f t="shared" si="3"/>
@@ -68087,7 +68178,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E51" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -68107,7 +68198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E52" s="84">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -68129,7 +68220,7 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
-        <v>653</v>
+        <v>625</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>127</v>
@@ -68140,7 +68231,7 @@
       </c>
       <c r="G53" s="86"/>
       <c r="H53" s="84" t="s">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="I53" s="84"/>
       <c r="K53" s="62"/>
@@ -68329,16 +68420,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V53" xr:uid="{00000000-0009-0000-0000-00000B000000}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V52">
-      <sortCondition ref="D1:D52"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:V53" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <conditionalFormatting sqref="F54:F1048576 F7:F50 F1:F5">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
@@ -68385,25 +68467,25 @@
       <c r="D1" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="153" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="143"/>
+      <c r="F1" s="153"/>
       <c r="G1" s="69" t="s">
         <v>213</v>
       </c>
       <c r="I1" t="s">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="J1" s="123">
         <v>3500000000</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="155" t="s">
         <v>215</v>
       </c>
       <c r="D2" s="70" t="s">
@@ -68422,8 +68504,8 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="144"/>
-      <c r="C3" s="145"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="155"/>
       <c r="D3" s="70" t="s">
         <v>208</v>
       </c>
@@ -68440,8 +68522,8 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="144"/>
-      <c r="C4" s="145"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
       <c r="D4" s="70" t="s">
         <v>209</v>
       </c>
@@ -68899,10 +68981,10 @@
         <v>153</v>
       </c>
       <c r="D1" t="s">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
@@ -68910,10 +68992,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>614</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
@@ -68921,10 +69003,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>615</v>
+        <v>587</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
@@ -68932,10 +69014,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>618</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
@@ -68943,10 +69025,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>619</v>
+        <v>591</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>620</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
@@ -68954,10 +69036,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>621</v>
+        <v>593</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>622</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
@@ -68965,10 +69047,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>623</v>
+        <v>595</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>622</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
@@ -68976,21 +69058,21 @@
         <v>153</v>
       </c>
       <c r="D11" t="s">
-        <v>624</v>
+        <v>596</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
-        <v>626</v>
+        <v>598</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>626</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -68998,13 +69080,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>628</v>
+        <v>600</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>630</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -69012,13 +69094,13 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>631</v>
+        <v>603</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>632</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
@@ -69026,10 +69108,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>634</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -69058,16 +69140,16 @@
         <v>503</v>
       </c>
       <c r="F1" t="s">
-        <v>638</v>
+        <v>610</v>
       </c>
       <c r="G1" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="H1" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="I1" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2" spans="4:9" x14ac:dyDescent="0.3">
@@ -69172,7 +69254,7 @@
         <v>29460</v>
       </c>
       <c r="I6" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
@@ -69193,7 +69275,7 @@
         <v>26037</v>
       </c>
       <c r="I7" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
@@ -69205,7 +69287,7 @@
         <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="G8">
         <v>271285313</v>
@@ -69214,7 +69296,7 @@
         <v>28333</v>
       </c>
       <c r="I8" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
@@ -69226,7 +69308,7 @@
         <v>506</v>
       </c>
       <c r="F9" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="G9">
         <v>271485073</v>
@@ -69235,7 +69317,7 @@
         <v>29601</v>
       </c>
       <c r="I9" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
@@ -69247,7 +69329,7 @@
         <v>493</v>
       </c>
       <c r="F10" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="G10">
         <v>271316993</v>
@@ -69256,7 +69338,7 @@
         <v>29130</v>
       </c>
       <c r="I10" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
@@ -69268,7 +69350,7 @@
         <v>152</v>
       </c>
       <c r="F11" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="G11">
         <v>271483902</v>
@@ -69277,7 +69359,7 @@
         <v>29749</v>
       </c>
       <c r="I11" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
@@ -69400,7 +69482,7 @@
         <v>32228</v>
       </c>
       <c r="I17" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.3">
@@ -69421,7 +69503,7 @@
         <v>27706</v>
       </c>
       <c r="I18" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.3">
@@ -69442,7 +69524,7 @@
         <v>30671</v>
       </c>
       <c r="I19" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.3">
@@ -69454,7 +69536,7 @@
         <v>495</v>
       </c>
       <c r="F20" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="G20">
         <v>214523467</v>
@@ -69463,7 +69545,7 @@
         <v>30596</v>
       </c>
       <c r="I20" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.3">
@@ -69475,7 +69557,7 @@
         <v>494</v>
       </c>
       <c r="F21" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="G21">
         <v>271172296</v>
@@ -69484,7 +69566,7 @@
         <v>27534</v>
       </c>
       <c r="I21" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.3">
@@ -69673,10 +69755,10 @@
         <v>26845</v>
       </c>
       <c r="I29" s="79" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="J29" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.3">
@@ -69697,10 +69779,10 @@
         <v>30730</v>
       </c>
       <c r="I30" s="79" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="J30" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.3">
@@ -69721,10 +69803,10 @@
         <v>30193</v>
       </c>
       <c r="I31" s="79" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="J31" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.3">
@@ -69862,7 +69944,7 @@
         <v>497</v>
       </c>
       <c r="F38" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="G38">
         <v>271229202</v>
@@ -69871,7 +69953,7 @@
         <v>28052</v>
       </c>
       <c r="I38" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
@@ -69883,16 +69965,16 @@
         <v>498</v>
       </c>
       <c r="F39" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="G39">
         <v>272526412</v>
       </c>
       <c r="H39" t="s">
-        <v>645</v>
+        <v>617</v>
       </c>
       <c r="I39" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
@@ -69904,7 +69986,7 @@
         <v>505</v>
       </c>
       <c r="F40" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="G40">
         <v>271601608</v>
@@ -69913,7 +69995,7 @@
         <v>30303</v>
       </c>
       <c r="I40" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.3">
@@ -69925,7 +70007,7 @@
         <v>129</v>
       </c>
       <c r="F41" t="s">
-        <v>643</v>
+        <v>615</v>
       </c>
       <c r="G41">
         <v>271298968</v>
@@ -69934,7 +70016,7 @@
         <v>28217</v>
       </c>
       <c r="I41" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">
@@ -69988,29 +70070,29 @@
         <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>668</v>
+        <v>640</v>
       </c>
       <c r="E1" t="s">
         <v>436</v>
       </c>
       <c r="F1" t="s">
-        <v>669</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
       <c r="D2" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
     </row>
     <row r="3" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="E3" t="s">
-        <v>673</v>
+        <v>645</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -70018,37 +70100,37 @@
     </row>
     <row r="4" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>675</v>
+        <v>647</v>
       </c>
       <c r="E5" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="F5" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
     </row>
     <row r="6" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="E6" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="F6" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
     </row>
     <row r="7" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>680</v>
+        <v>652</v>
       </c>
       <c r="E7" t="s">
-        <v>673</v>
+        <v>645</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -70056,15 +70138,15 @@
     </row>
     <row r="8" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>681</v>
+        <v>653</v>
       </c>
       <c r="E9" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="F9" s="125">
         <v>1368</v>
@@ -70072,32 +70154,32 @@
     </row>
     <row r="10" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
       <c r="E10" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="F10" t="s">
-        <v>684</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
       <c r="E11" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="F11" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
       <c r="E12" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="F12" s="125">
         <v>1207</v>
@@ -70105,10 +70187,10 @@
     </row>
     <row r="13" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="E13" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -70116,10 +70198,10 @@
     </row>
     <row r="14" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="E14" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -70127,10 +70209,10 @@
     </row>
     <row r="15" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
       <c r="E15" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -70138,62 +70220,62 @@
     </row>
     <row r="16" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
       <c r="E16" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
     </row>
     <row r="17" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="E17" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="F17" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
       <c r="E18" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="F18" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
       <c r="E19" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="F19" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
     </row>
     <row r="20" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="E20" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="F20" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
     </row>
     <row r="21" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="E21" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F21" s="125">
         <v>4480</v>
@@ -70201,10 +70283,10 @@
     </row>
     <row r="22" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
       <c r="E22" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="F22" s="125">
         <v>2220</v>
@@ -70212,21 +70294,21 @@
     </row>
     <row r="23" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="E23" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="F23" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
     </row>
     <row r="24" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
       <c r="E24" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="F24" s="125">
         <v>1368</v>
@@ -70234,10 +70316,10 @@
     </row>
     <row r="25" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="E25" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -70245,15 +70327,15 @@
     </row>
     <row r="26" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="E27" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="F27" s="125">
         <v>2912</v>
@@ -70261,10 +70343,10 @@
     </row>
     <row r="28" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
       <c r="E28" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -70272,10 +70354,10 @@
     </row>
     <row r="29" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="E29" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -70283,10 +70365,10 @@
     </row>
     <row r="30" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="E30" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -70294,10 +70376,10 @@
     </row>
     <row r="31" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="E31" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -70305,32 +70387,32 @@
     </row>
     <row r="32" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="E32" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F32" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="E33" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="F33" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="E34" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="F34" s="125">
         <v>2912</v>
@@ -70338,10 +70420,10 @@
     </row>
     <row r="35" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="E35" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -70349,10 +70431,10 @@
     </row>
     <row r="36" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="E36" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -70360,7 +70442,7 @@
     </row>
     <row r="37" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="38" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
@@ -70368,7 +70450,7 @@
         <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="F38" s="125">
         <v>6720</v>
@@ -70376,10 +70458,10 @@
     </row>
     <row r="39" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
       <c r="E39" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -70387,10 +70469,10 @@
     </row>
     <row r="40" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
       <c r="E40" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -70398,10 +70480,10 @@
     </row>
     <row r="41" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="E41" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -70409,10 +70491,10 @@
     </row>
     <row r="42" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
       <c r="E42" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F42" s="125">
         <v>1550</v>
@@ -70420,10 +70502,10 @@
     </row>
     <row r="43" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="E43" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="F43" s="125">
         <v>1550</v>
@@ -70431,10 +70513,10 @@
     </row>
     <row r="44" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="E44" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="F44" s="125">
         <v>6720</v>
@@ -70442,10 +70524,10 @@
     </row>
     <row r="45" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="E45" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -70453,21 +70535,21 @@
     </row>
     <row r="46" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="D46" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="E46" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
     </row>
     <row r="47" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
       <c r="E47" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="F47">
         <v>42</v>
@@ -70475,15 +70557,15 @@
     </row>
     <row r="48" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="49" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
       <c r="E49" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -70491,10 +70573,10 @@
     </row>
     <row r="50" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="E50" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -70502,18 +70584,18 @@
     </row>
     <row r="51" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
       <c r="D51" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
     </row>
     <row r="52" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
       <c r="E52" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -70521,15 +70603,15 @@
     </row>
     <row r="53" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="54" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="E54" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -70537,10 +70619,10 @@
     </row>
     <row r="55" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="E55" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -70548,10 +70630,10 @@
     </row>
     <row r="56" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="E56" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -70559,10 +70641,10 @@
     </row>
     <row r="57" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="E57" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -70570,10 +70652,10 @@
     </row>
     <row r="58" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="E58" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -70581,10 +70663,10 @@
     </row>
     <row r="59" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
       <c r="E59" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -70592,10 +70674,10 @@
     </row>
     <row r="60" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="E60" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -70603,10 +70685,10 @@
     </row>
     <row r="61" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
       <c r="E61" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -70614,15 +70696,15 @@
     </row>
     <row r="62" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="63" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="E63" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -70630,10 +70712,10 @@
     </row>
     <row r="64" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="E64" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -70641,10 +70723,10 @@
     </row>
     <row r="65" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="E65" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -70652,10 +70734,10 @@
     </row>
     <row r="66" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="E66" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -70663,10 +70745,10 @@
     </row>
     <row r="67" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
       <c r="E67" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -70674,10 +70756,10 @@
     </row>
     <row r="68" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="E68" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -70685,10 +70767,10 @@
     </row>
     <row r="69" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="E69" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F69">
         <v>21</v>
@@ -70696,15 +70778,15 @@
     </row>
     <row r="70" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="71" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="E71" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -70712,10 +70794,10 @@
     </row>
     <row r="72" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="E72" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -70723,10 +70805,10 @@
     </row>
     <row r="73" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="E73" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -70734,10 +70816,10 @@
     </row>
     <row r="74" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="E74" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -70745,10 +70827,10 @@
     </row>
     <row r="75" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="E75" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -70756,10 +70838,10 @@
     </row>
     <row r="76" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="E76" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F76">
         <v>8</v>
@@ -70767,15 +70849,15 @@
     </row>
     <row r="77" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="78" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="E78" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -70783,10 +70865,10 @@
     </row>
     <row r="79" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="E79" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -70794,10 +70876,10 @@
     </row>
     <row r="80" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="E80" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F80">
         <v>3</v>
@@ -70805,10 +70887,10 @@
     </row>
     <row r="81" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="E81" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -70816,10 +70898,10 @@
     </row>
     <row r="82" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="E82" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -70827,10 +70909,10 @@
     </row>
     <row r="83" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="E83" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -70838,10 +70920,10 @@
     </row>
     <row r="84" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
       <c r="E84" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F84">
         <v>7</v>
@@ -70849,15 +70931,15 @@
     </row>
     <row r="85" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="86" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
       <c r="E86" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -70865,10 +70947,10 @@
     </row>
     <row r="87" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="E87" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F87">
         <v>4</v>
@@ -70876,10 +70958,10 @@
     </row>
     <row r="88" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="E88" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -70887,10 +70969,10 @@
     </row>
     <row r="89" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="E89" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -70898,10 +70980,10 @@
     </row>
     <row r="90" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="E90" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F90">
         <v>4</v>
@@ -70909,10 +70991,10 @@
     </row>
     <row r="91" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
       <c r="E91" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -70920,10 +71002,10 @@
     </row>
     <row r="92" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="E92" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -70931,15 +71013,15 @@
     </row>
     <row r="93" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="94" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
       <c r="E94" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -70947,10 +71029,10 @@
     </row>
     <row r="95" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="E95" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F95">
         <v>4</v>
@@ -70958,10 +71040,10 @@
     </row>
     <row r="96" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="E96" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -70969,10 +71051,10 @@
     </row>
     <row r="97" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="E97" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F97">
         <v>4</v>
@@ -70980,10 +71062,10 @@
     </row>
     <row r="98" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="E98" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F98">
         <v>4</v>
@@ -70991,10 +71073,10 @@
     </row>
     <row r="99" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
       <c r="E99" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -71002,10 +71084,10 @@
     </row>
     <row r="100" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="E100" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F100">
         <v>10</v>
@@ -71013,15 +71095,15 @@
     </row>
     <row r="101" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="102" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="E102" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -71029,10 +71111,10 @@
     </row>
     <row r="103" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="E103" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -71040,10 +71122,10 @@
     </row>
     <row r="104" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="E104" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F104">
         <v>8</v>
@@ -71051,13 +71133,13 @@
     </row>
     <row r="105" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="E105" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="F105" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
     </row>
     <row r="106" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
@@ -71065,7 +71147,7 @@
         <v>56</v>
       </c>
       <c r="E106" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -71073,10 +71155,10 @@
     </row>
     <row r="107" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="E107" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -71084,10 +71166,10 @@
     </row>
     <row r="108" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="E108" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -71095,10 +71177,10 @@
     </row>
     <row r="109" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="E109" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F109">
         <v>2</v>
@@ -71106,15 +71188,15 @@
     </row>
     <row r="110" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="111" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="E111" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -71122,10 +71204,10 @@
     </row>
     <row r="112" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="E112" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -71133,10 +71215,10 @@
     </row>
     <row r="113" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="E113" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F113">
         <v>8</v>
@@ -71144,21 +71226,21 @@
     </row>
     <row r="114" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="E114" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="F114" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
     </row>
     <row r="115" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
-        <v>769</v>
+        <v>741</v>
       </c>
       <c r="E115" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -71169,7 +71251,7 @@
         <v>56</v>
       </c>
       <c r="E116" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -71177,10 +71259,10 @@
     </row>
     <row r="117" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="E117" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -71188,10 +71270,10 @@
     </row>
     <row r="118" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
-        <v>770</v>
+        <v>742</v>
       </c>
       <c r="E118" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -71199,10 +71281,10 @@
     </row>
     <row r="119" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
       <c r="E119" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F119">
         <v>10</v>
@@ -71210,15 +71292,15 @@
     </row>
     <row r="120" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="121" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
-        <v>772</v>
+        <v>744</v>
       </c>
       <c r="E121" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -71226,10 +71308,10 @@
     </row>
     <row r="122" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
-        <v>773</v>
+        <v>745</v>
       </c>
       <c r="E122" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -71237,32 +71319,32 @@
     </row>
     <row r="123" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
       <c r="E123" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="F123" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
     </row>
     <row r="124" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="E124" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="F124" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
     </row>
     <row r="125" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
       <c r="E125" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -71270,15 +71352,15 @@
     </row>
     <row r="126" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="127" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
-        <v>772</v>
+        <v>744</v>
       </c>
       <c r="E127" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -71286,10 +71368,10 @@
     </row>
     <row r="128" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
-        <v>773</v>
+        <v>745</v>
       </c>
       <c r="E128" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -71297,32 +71379,32 @@
     </row>
     <row r="129" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="E129" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F129" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
     </row>
     <row r="130" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
       <c r="E130" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="F130" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
     </row>
     <row r="131" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="E131" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F131">
         <v>26</v>
@@ -71330,15 +71412,15 @@
     </row>
     <row r="132" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="133" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="E133" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -71346,10 +71428,10 @@
     </row>
     <row r="134" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="E134" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -71357,10 +71439,10 @@
     </row>
     <row r="135" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="E135" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -71368,10 +71450,10 @@
     </row>
     <row r="136" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="E136" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F136">
         <v>5</v>
@@ -71379,15 +71461,15 @@
     </row>
     <row r="137" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="138" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="E138" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -71395,10 +71477,10 @@
     </row>
     <row r="139" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
       <c r="E139" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -71406,10 +71488,10 @@
     </row>
     <row r="140" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="E140" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -71417,10 +71499,10 @@
     </row>
     <row r="141" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="E141" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F141">
         <v>14</v>
@@ -71428,15 +71510,15 @@
     </row>
     <row r="142" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="143" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
       <c r="E143" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -71444,10 +71526,10 @@
     </row>
     <row r="144" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D144" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="E144" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -71455,10 +71537,10 @@
     </row>
     <row r="145" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="E145" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F145">
         <v>136</v>
@@ -71466,15 +71548,15 @@
     </row>
     <row r="146" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="147" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="E147" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -71482,10 +71564,10 @@
     </row>
     <row r="148" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
       <c r="E148" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -71493,10 +71575,10 @@
     </row>
     <row r="149" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="E149" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F149">
         <v>42</v>
@@ -71504,7 +71586,7 @@
     </row>
     <row r="150" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="151" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
@@ -71512,7 +71594,7 @@
         <v>96</v>
       </c>
       <c r="E151" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -71520,10 +71602,10 @@
     </row>
     <row r="152" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
       <c r="E152" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F152">
         <v>2</v>
@@ -71531,10 +71613,10 @@
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D153" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="E153" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -71542,10 +71624,10 @@
     </row>
     <row r="154" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
-        <v>792</v>
+        <v>764</v>
       </c>
       <c r="D154" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
     </row>
     <row r="155" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
@@ -71553,10 +71635,10 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
       <c r="E155" t="s">
-        <v>795</v>
+        <v>767</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -71564,43 +71646,43 @@
     </row>
     <row r="156" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
-        <v>796</v>
+        <v>768</v>
       </c>
       <c r="E156" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="F156" t="s">
-        <v>797</v>
+        <v>769</v>
       </c>
     </row>
     <row r="157" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
-        <v>798</v>
+        <v>770</v>
       </c>
       <c r="E157" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="F157" t="s">
-        <v>799</v>
+        <v>771</v>
       </c>
     </row>
     <row r="158" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
-        <v>800</v>
+        <v>772</v>
       </c>
       <c r="E158" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="F158" t="s">
-        <v>801</v>
+        <v>773</v>
       </c>
     </row>
     <row r="159" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="E159" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F159">
         <v>2</v>
@@ -71608,10 +71690,10 @@
     </row>
     <row r="160" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
-        <v>802</v>
+        <v>774</v>
       </c>
       <c r="E160" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F160">
         <v>2</v>
@@ -71619,10 +71701,10 @@
     </row>
     <row r="161" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
-        <v>803</v>
+        <v>775</v>
       </c>
       <c r="E161" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F161">
         <v>15</v>
@@ -71630,10 +71712,10 @@
     </row>
     <row r="162" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
-        <v>804</v>
+        <v>776</v>
       </c>
       <c r="E162" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F162">
         <v>15</v>
@@ -71641,10 +71723,10 @@
     </row>
     <row r="163" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
-        <v>805</v>
+        <v>777</v>
       </c>
       <c r="E163" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F163">
         <v>8</v>
@@ -71652,65 +71734,65 @@
     </row>
     <row r="164" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
-        <v>806</v>
+        <v>778</v>
       </c>
       <c r="E164" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F164" t="s">
-        <v>807</v>
+        <v>779</v>
       </c>
     </row>
     <row r="165" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
-        <v>808</v>
+        <v>780</v>
       </c>
       <c r="E165" t="s">
-        <v>809</v>
+        <v>781</v>
       </c>
       <c r="F165" t="s">
-        <v>810</v>
+        <v>782</v>
       </c>
     </row>
     <row r="166" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
-        <v>811</v>
+        <v>783</v>
       </c>
       <c r="E166" t="s">
-        <v>809</v>
+        <v>781</v>
       </c>
       <c r="F166" t="s">
-        <v>812</v>
+        <v>784</v>
       </c>
     </row>
     <row r="167" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
-        <v>813</v>
+        <v>785</v>
       </c>
       <c r="E167" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="F167" t="s">
-        <v>807</v>
+        <v>779</v>
       </c>
     </row>
     <row r="168" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
-        <v>814</v>
+        <v>786</v>
       </c>
       <c r="E168" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="F168" t="s">
-        <v>815</v>
+        <v>787</v>
       </c>
     </row>
     <row r="169" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D169" t="s">
-        <v>816</v>
+        <v>788</v>
       </c>
       <c r="E169" t="s">
-        <v>817</v>
+        <v>789</v>
       </c>
       <c r="F169">
         <v>5</v>
@@ -71718,10 +71800,10 @@
     </row>
     <row r="170" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D170" t="s">
-        <v>818</v>
+        <v>790</v>
       </c>
       <c r="E170" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F170">
         <v>5</v>
@@ -71729,10 +71811,10 @@
     </row>
     <row r="171" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D171" t="s">
-        <v>819</v>
+        <v>791</v>
       </c>
       <c r="E171" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -71740,10 +71822,10 @@
     </row>
     <row r="172" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D172" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="E172" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -71751,21 +71833,21 @@
     </row>
     <row r="173" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
-        <v>820</v>
+        <v>792</v>
       </c>
       <c r="E173" t="s">
-        <v>821</v>
+        <v>793</v>
       </c>
       <c r="F173" t="s">
-        <v>822</v>
+        <v>794</v>
       </c>
     </row>
     <row r="174" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
-        <v>823</v>
+        <v>795</v>
       </c>
       <c r="E174" t="s">
-        <v>821</v>
+        <v>793</v>
       </c>
       <c r="F174" s="125">
         <v>3717</v>
@@ -71773,15 +71855,15 @@
     </row>
     <row r="175" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D175" t="s">
-        <v>824</v>
+        <v>796</v>
       </c>
     </row>
     <row r="176" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D176" t="s">
-        <v>825</v>
+        <v>797</v>
       </c>
       <c r="E176" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F176">
         <v>5</v>
@@ -71789,10 +71871,10 @@
     </row>
     <row r="177" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D177" t="s">
-        <v>826</v>
+        <v>798</v>
       </c>
       <c r="E177" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
       <c r="F177">
         <v>6</v>
@@ -71875,7 +71957,7 @@
         <v>13</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>635</v>
+        <v>607</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>163</v>
@@ -71950,13 +72032,13 @@
     </row>
     <row r="3" spans="1:20" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>831</v>
+        <v>799</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>834</v>
+        <v>802</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>258</v>
@@ -71983,33 +72065,33 @@
         <v>12</v>
       </c>
       <c r="L3" s="124" t="s">
-        <v>841</v>
+        <v>809</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="N3" s="124" t="s">
-        <v>840</v>
+        <v>808</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="E4" s="18">
         <v>60</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>660</v>
+        <v>632</v>
       </c>
       <c r="G4" s="18">
         <v>90</v>
@@ -72027,31 +72109,31 @@
         <v>12</v>
       </c>
       <c r="L4" s="124" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>665</v>
+        <v>637</v>
       </c>
       <c r="N4" s="124" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
-        <v>646</v>
+        <v>618</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>647</v>
+        <v>619</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>258</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="18" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="76">
@@ -72063,13 +72145,13 @@
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="124" t="s">
-        <v>651</v>
+        <v>623</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="N5" s="124" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
@@ -72706,10 +72788,10 @@
     </row>
     <row r="21" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>258</v>
@@ -72721,7 +72803,7 @@
         <v>100</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>14</v>
@@ -72742,10 +72824,10 @@
         <v>43943</v>
       </c>
       <c r="M21" s="17" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="N21" s="56" t="s">
-        <v>610</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -73251,14 +73333,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="8.88671875" style="62"/>
-    <col min="4" max="4" width="26" style="148" customWidth="1"/>
+    <col min="4" max="4" width="26" style="130" customWidth="1"/>
     <col min="5" max="5" width="8.88671875" style="62"/>
     <col min="6" max="6" width="27" style="62" customWidth="1"/>
     <col min="7" max="7" width="7.109375" style="62" hidden="1" customWidth="1"/>
@@ -73266,104 +73348,104 @@
     <col min="9" max="16384" width="8.88671875" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="146" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="146" t="s">
+    <row r="1" spans="1:10" s="128" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="128" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="147" t="s">
+      <c r="D1" s="129" t="s">
         <v>438</v>
       </c>
-      <c r="E1" s="146" t="s">
+      <c r="E1" s="128" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="128" t="s">
         <v>435</v>
       </c>
-      <c r="G1" s="146" t="s">
+      <c r="G1" s="128" t="s">
         <v>436</v>
       </c>
-      <c r="H1" s="146" t="s">
+      <c r="H1" s="128" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D2" s="148" t="s">
+      <c r="D2" s="130" t="s">
         <v>458</v>
       </c>
       <c r="F2" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="149" t="s">
+      <c r="H2" s="131" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D3" s="148" t="s">
+      <c r="D3" s="130" t="s">
         <v>458</v>
       </c>
       <c r="F3" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="H3" s="149" t="s">
+      <c r="H3" s="131" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="130" t="s">
         <v>458</v>
       </c>
       <c r="F4" s="62" t="s">
         <v>442</v>
       </c>
-      <c r="H4" s="149" t="s">
+      <c r="H4" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="J4" s="150"/>
+      <c r="J4" s="132"/>
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="148" t="s">
+      <c r="D5" s="130" t="s">
         <v>457</v>
       </c>
-      <c r="E5" s="151"/>
-      <c r="F5" s="152" t="s">
+      <c r="E5" s="133"/>
+      <c r="F5" s="134" t="s">
         <v>445</v>
       </c>
-      <c r="H5" s="152" t="s">
+      <c r="H5" s="134" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="148" t="s">
+      <c r="D6" s="130" t="s">
         <v>457</v>
       </c>
-      <c r="E6" s="151"/>
-      <c r="F6" s="152" t="s">
+      <c r="E6" s="133"/>
+      <c r="F6" s="134" t="s">
         <v>446</v>
       </c>
-      <c r="H6" s="152" t="s">
+      <c r="H6" s="134" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D7" s="148" t="s">
+      <c r="D7" s="130" t="s">
         <v>457</v>
       </c>
-      <c r="E7" s="151"/>
-      <c r="F7" s="152" t="s">
+      <c r="E7" s="133"/>
+      <c r="F7" s="134" t="s">
         <v>447</v>
       </c>
-      <c r="H7" s="153" t="s">
+      <c r="H7" s="135" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="148" t="s">
+      <c r="D8" s="130" t="s">
         <v>337</v>
       </c>
       <c r="F8" s="62" t="s">
@@ -73374,7 +73456,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D9" s="148" t="s">
+      <c r="D9" s="130" t="s">
         <v>337</v>
       </c>
       <c r="F9" s="62" t="s">
@@ -73385,7 +73467,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D10" s="148" t="s">
+      <c r="D10" s="130" t="s">
         <v>337</v>
       </c>
       <c r="F10" s="62" t="s">
@@ -73396,10 +73478,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="154" t="s">
+      <c r="D11" s="136" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="152" t="s">
+      <c r="F11" s="134" t="s">
         <v>445</v>
       </c>
       <c r="H11" s="62" t="s">
@@ -73407,10 +73489,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D12" s="154" t="s">
+      <c r="D12" s="136" t="s">
         <v>461</v>
       </c>
-      <c r="F12" s="152" t="s">
+      <c r="F12" s="134" t="s">
         <v>446</v>
       </c>
       <c r="H12" s="62" t="s">
@@ -73418,10 +73500,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="154" t="s">
+      <c r="D13" s="136" t="s">
         <v>461</v>
       </c>
-      <c r="F13" s="152" t="s">
+      <c r="F13" s="134" t="s">
         <v>447</v>
       </c>
       <c r="H13" s="62" t="s">
@@ -73429,106 +73511,106 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D14" s="148" t="s">
+      <c r="D14" s="130" t="s">
         <v>462</v>
       </c>
       <c r="F14" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="H14" s="149" t="s">
+      <c r="H14" s="131" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D15" s="148" t="s">
+      <c r="D15" s="130" t="s">
         <v>462</v>
       </c>
       <c r="F15" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="H15" s="149" t="s">
+      <c r="H15" s="131" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D16" s="148" t="s">
+      <c r="D16" s="130" t="s">
         <v>462</v>
       </c>
       <c r="F16" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="H16" s="155" t="s">
+      <c r="H16" s="137" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17" s="148" t="s">
+      <c r="D17" s="130" t="s">
         <v>464</v>
       </c>
       <c r="F17" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="H17" s="149" t="s">
+      <c r="H17" s="131" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="130" t="s">
         <v>464</v>
       </c>
       <c r="F18" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="H18" s="149" t="s">
+      <c r="H18" s="131" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D19" s="148" t="s">
+      <c r="D19" s="130" t="s">
         <v>464</v>
       </c>
       <c r="F19" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="H19" s="155" t="s">
+      <c r="H19" s="137" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D20" s="148" t="s">
+      <c r="D20" s="130" t="s">
         <v>465</v>
       </c>
       <c r="F20" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="H20" s="149" t="s">
+      <c r="H20" s="131" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="130" t="s">
         <v>465</v>
       </c>
       <c r="F21" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="H21" s="149" t="s">
+      <c r="H21" s="131" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D22" s="148" t="s">
+      <c r="D22" s="130" t="s">
         <v>465</v>
       </c>
       <c r="F22" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="H22" s="155" t="s">
+      <c r="H22" s="137" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D23" s="148" t="s">
+      <c r="D23" s="130" t="s">
         <v>466</v>
       </c>
       <c r="F23" s="62" t="s">
@@ -73539,7 +73621,7 @@
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D24" s="148" t="s">
+      <c r="D24" s="130" t="s">
         <v>469</v>
       </c>
       <c r="F24" s="62" t="s">
@@ -73550,7 +73632,7 @@
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D25" s="148" t="s">
+      <c r="D25" s="130" t="s">
         <v>469</v>
       </c>
       <c r="F25" s="62" t="s">
@@ -73561,7 +73643,7 @@
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D26" s="148" t="s">
+      <c r="D26" s="130" t="s">
         <v>469</v>
       </c>
       <c r="F26" s="62" t="s">
@@ -73572,35 +73654,35 @@
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D27" s="148" t="s">
+      <c r="D27" s="130" t="s">
         <v>477</v>
       </c>
       <c r="F27" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="H27" s="149" t="s">
+      <c r="H27" s="131" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D28" s="148" t="s">
+      <c r="D28" s="130" t="s">
         <v>477</v>
       </c>
       <c r="F28" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="H28" s="149" t="s">
+      <c r="H28" s="131" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D29" s="148" t="s">
+      <c r="D29" s="130" t="s">
         <v>477</v>
       </c>
       <c r="F29" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="H29" s="155" t="s">
+      <c r="H29" s="137" t="s">
         <v>448</v>
       </c>
     </row>
@@ -73611,7 +73693,7 @@
       <c r="F30" s="62" t="s">
         <v>445</v>
       </c>
-      <c r="H30" s="149" t="s">
+      <c r="H30" s="131" t="s">
         <v>439</v>
       </c>
     </row>
@@ -73622,7 +73704,7 @@
       <c r="F31" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="H31" s="149" t="s">
+      <c r="H31" s="131" t="s">
         <v>463</v>
       </c>
     </row>
@@ -73633,12 +73715,12 @@
       <c r="F32" s="62" t="s">
         <v>447</v>
       </c>
-      <c r="H32" s="155" t="s">
+      <c r="H32" s="137" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D33" s="148" t="s">
+      <c r="D33" s="130" t="s">
         <v>267</v>
       </c>
       <c r="F33" s="62" t="s">
@@ -73649,7 +73731,7 @@
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D34" s="148" t="s">
+      <c r="D34" s="130" t="s">
         <v>267</v>
       </c>
       <c r="F34" s="62" t="s">
@@ -73660,7 +73742,7 @@
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D35" s="148" t="s">
+      <c r="D35" s="130" t="s">
         <v>267</v>
       </c>
       <c r="F35" s="62" t="s">
@@ -73671,7 +73753,7 @@
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D36" s="148" t="s">
+      <c r="D36" s="130" t="s">
         <v>565</v>
       </c>
       <c r="F36" s="62" t="s">
@@ -73682,7 +73764,7 @@
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D37" s="148" t="s">
+      <c r="D37" s="130" t="s">
         <v>565</v>
       </c>
       <c r="F37" s="62" t="s">
@@ -73693,7 +73775,7 @@
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D38" s="148" t="s">
+      <c r="D38" s="130" t="s">
         <v>565</v>
       </c>
       <c r="F38" s="62" t="s">
@@ -73704,75 +73786,75 @@
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D39" s="148" t="s">
-        <v>843</v>
-      </c>
-      <c r="F39" s="149" t="s">
+      <c r="D39" s="130" t="s">
+        <v>811</v>
+      </c>
+      <c r="F39" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149" t="s">
+      <c r="G39" s="131"/>
+      <c r="H39" s="131" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D40" s="148" t="s">
-        <v>843</v>
-      </c>
-      <c r="F40" s="149" t="s">
+      <c r="D40" s="130" t="s">
+        <v>811</v>
+      </c>
+      <c r="F40" s="131" t="s">
         <v>440</v>
       </c>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149" t="s">
+      <c r="G40" s="131"/>
+      <c r="H40" s="131" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D41" s="148" t="s">
-        <v>843</v>
-      </c>
-      <c r="F41" s="149" t="s">
-        <v>842</v>
-      </c>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149" t="s">
-        <v>844</v>
+      <c r="D41" s="130" t="s">
+        <v>811</v>
+      </c>
+      <c r="F41" s="131" t="s">
+        <v>810</v>
+      </c>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D42" s="148" t="s">
-        <v>845</v>
-      </c>
-      <c r="F42" s="149" t="s">
+      <c r="D42" s="130" t="s">
+        <v>813</v>
+      </c>
+      <c r="F42" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149" t="s">
-        <v>846</v>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D43" s="148" t="s">
-        <v>845</v>
-      </c>
-      <c r="F43" s="149" t="s">
+      <c r="D43" s="130" t="s">
+        <v>813</v>
+      </c>
+      <c r="F43" s="131" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149" t="s">
+      <c r="G43" s="131"/>
+      <c r="H43" s="131" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D44" s="148" t="s">
-        <v>845</v>
-      </c>
-      <c r="F44" s="149" t="s">
-        <v>842</v>
-      </c>
-      <c r="G44" s="149"/>
-      <c r="H44" s="149" t="s">
-        <v>847</v>
+      <c r="D44" s="130" t="s">
+        <v>813</v>
+      </c>
+      <c r="F44" s="131" t="s">
+        <v>810</v>
+      </c>
+      <c r="G44" s="131"/>
+      <c r="H44" s="131" t="s">
+        <v>815</v>
       </c>
     </row>
   </sheetData>
@@ -76343,10 +76425,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="C1:Q8"/>
+  <dimension ref="C1:Q7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:Q2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -76372,46 +76454,46 @@
       </c>
       <c r="E1" s="43" t="str">
         <f>"Thời gian thi công "&amp;INDEX($G:$J,ROW(),$F$1)&amp;" ngày"</f>
-        <v>Thời gian thi công 60 ngày</v>
+        <v>Thời gian thi công 100 ngày</v>
       </c>
       <c r="F1" s="41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1" s="29">
-        <f>SUM(G2:G10)</f>
-        <v>120</v>
+        <f>SUM(G2:G9)</f>
+        <v>92</v>
       </c>
       <c r="H1" s="29">
-        <f>SUM(H2:H10)</f>
+        <f>SUM(H2:H9)</f>
         <v>100</v>
       </c>
       <c r="I1" s="29">
-        <f>SUM(I2:I10)</f>
-        <v>90</v>
+        <f>SUM(I2:I9)</f>
+        <v>70</v>
       </c>
       <c r="J1" s="29">
-        <f>SUM(J2:J10)</f>
-        <v>60</v>
+        <f>SUM(J2:J9)</f>
+        <v>50</v>
       </c>
       <c r="M1" s="41">
         <f>VLOOKUP("x",$K:$Q,COLUMN()-COLUMN($K$1)+1,0)</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N1" s="41">
-        <f t="shared" ref="N1:Q1" si="0">VLOOKUP("x",$K:$Q,COLUMN()-COLUMN($K$1)+1,0)</f>
-        <v>20</v>
+        <f>VLOOKUP("x",$K:$Q,COLUMN()-COLUMN($K$1)+1,0)</f>
+        <v>40</v>
       </c>
       <c r="O1" s="41">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>VLOOKUP("x",$K:$Q,COLUMN()-COLUMN($K$1)+1,0)</f>
+        <v>60</v>
       </c>
       <c r="P1" s="41">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>VLOOKUP("x",$K:$Q,COLUMN()-COLUMN($K$1)+1,0)</f>
+        <v>80</v>
       </c>
       <c r="Q1" s="41">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>VLOOKUP("x",$K:$Q,COLUMN()-COLUMN($K$1)+1,0)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -76441,27 +76523,27 @@
       <c r="M2" s="112" t="str">
         <f>"Ngày "&amp;CHAR(10)&amp;L1+1&amp;" - "&amp;M1</f>
         <v>Ngày 
-1 - 10</v>
+1 - 20</v>
       </c>
       <c r="N2" s="112" t="str">
-        <f t="shared" ref="N2:Q2" si="1">"Ngày "&amp;CHAR(10)&amp;M1+1&amp;" - "&amp;N1</f>
+        <f t="shared" ref="N2:Q2" si="0">"Ngày "&amp;CHAR(10)&amp;M1+1&amp;" - "&amp;N1</f>
         <v>Ngày 
-11 - 20</v>
+21 - 40</v>
       </c>
       <c r="O2" s="112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Ngày 
-21 - 30</v>
+41 - 60</v>
       </c>
       <c r="P2" s="112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Ngày 
-31 - 50</v>
+61 - 80</v>
       </c>
       <c r="Q2" s="112" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Ngày 
-51 - 60</v>
+81 - 100</v>
       </c>
     </row>
     <row r="3" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
@@ -76472,8 +76554,8 @@
         <v>157</v>
       </c>
       <c r="E3" s="39" t="str">
-        <f t="shared" ref="E3:E8" si="2">TEXT(INDEX($G:$J,ROW(),$F$1),"00")&amp;" ngày"</f>
-        <v>10 ngày</v>
+        <f>TEXT(INDEX($G:$J,ROW(),$F$1),"00")&amp;" ngày"</f>
+        <v>20 ngày</v>
       </c>
       <c r="G3" s="32">
         <v>20</v>
@@ -76499,7 +76581,7 @@
         <v>158</v>
       </c>
       <c r="E4" s="39" t="str">
-        <f t="shared" si="2"/>
+        <f>TEXT(INDEX($G:$J,ROW(),$F$1),"00")&amp;" ngày"</f>
         <v>03 ngày</v>
       </c>
       <c r="G4" s="32">
@@ -76513,6 +76595,9 @@
       </c>
       <c r="J4" s="32">
         <v>3</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>127</v>
       </c>
       <c r="L4" s="32">
         <v>100</v>
@@ -76541,8 +76626,8 @@
         <v>159</v>
       </c>
       <c r="E5" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v>10 ngày</v>
+        <f>TEXT(INDEX($G:$J,ROW(),$F$1),"00")&amp;" ngày"</f>
+        <v>20 ngày</v>
       </c>
       <c r="G5" s="32">
         <v>30</v>
@@ -76575,31 +76660,28 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:17" ht="135" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="110">
-        <v>5</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>160</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>873</v>
       </c>
       <c r="E6" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v>10 ngày</v>
+        <f>TEXT(INDEX($G:$J,ROW(),$F$1),"00")&amp;" ngày"</f>
+        <v>48 ngày</v>
       </c>
       <c r="G6" s="32">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H6" s="32">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="I6" s="32">
+        <v>30</v>
+      </c>
+      <c r="J6" s="32">
         <v>20</v>
-      </c>
-      <c r="J6" s="32">
-        <v>10</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>127</v>
       </c>
       <c r="L6" s="32">
         <v>60</v>
@@ -76620,51 +76702,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="118.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="110">
-        <v>6</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>161</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="E7" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v>20 ngày</v>
+        <f>TEXT(INDEX($G:$J,ROW(),$F$1),"00")&amp;" ngày"</f>
+        <v>07 ngày</v>
       </c>
       <c r="G7" s="32">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H7" s="32">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="I7" s="32">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J7" s="32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="110">
-        <v>7</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="39" t="str">
-        <f t="shared" si="2"/>
-        <v>05 ngày</v>
-      </c>
-      <c r="G8" s="32">
-        <v>14</v>
-      </c>
-      <c r="H8" s="32">
-        <v>7</v>
-      </c>
-      <c r="I8" s="32">
-        <v>5</v>
-      </c>
-      <c r="J8" s="32">
         <v>5</v>
       </c>
     </row>
@@ -76689,23 +76747,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="138" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="131" t="s">
+      <c r="E1" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="134" t="s">
+      <c r="F1" s="144" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="136"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="146"/>
     </row>
     <row r="2" spans="4:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D2" s="129"/>
-      <c r="E2" s="132"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="142"/>
       <c r="F2" s="34" t="s">
         <v>163</v>
       </c>
@@ -76723,8 +76781,8 @@
       </c>
     </row>
     <row r="3" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="130"/>
-      <c r="E3" s="133"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="143"/>
       <c r="F3" s="36" t="s">
         <v>168</v>
       </c>
@@ -76834,26 +76892,26 @@
     </row>
     <row r="17" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="137" t="s">
+      <c r="D18" s="147" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="137" t="s">
+      <c r="E18" s="147" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="140" t="s">
+      <c r="F18" s="150" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="142"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
       <c r="K18">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="4:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="148"/>
       <c r="F19" s="101" t="s">
         <v>163</v>
       </c>
@@ -76871,8 +76929,8 @@
       </c>
     </row>
     <row r="20" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="139"/>
-      <c r="E20" s="139"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
       <c r="F20" s="109" t="s">
         <v>548</v>
       </c>

--- a/TongHopDuThau.xlsx
+++ b/TongHopDuThau.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B077EA-8C23-4D0B-A4FB-FEFBF1A3BDF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D1A5E9-09AE-406C-B867-D33856E3EE33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1947" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="874">
   <si>
     <t>CongTrinh</t>
   </si>
@@ -3619,6 +3619,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3672,12 +3678,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -65614,7 +65614,7 @@
   <cols>
     <col min="1" max="1" width="78.109375" style="121" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="157" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="139" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" customWidth="1"/>
     <col min="5" max="5" width="86.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -65627,7 +65627,7 @@
       <c r="B1" s="29" t="s">
         <v>576</v>
       </c>
-      <c r="C1" s="156" t="s">
+      <c r="C1" s="138" t="s">
         <v>575</v>
       </c>
       <c r="F1" s="29" t="s">
@@ -65644,8 +65644,8 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="157">
-        <f>COUNTIF(B:B,B2)</f>
+      <c r="C2" s="139">
+        <f t="shared" ref="C2:C35" si="0">COUNTIF(B:B,B2)</f>
         <v>6</v>
       </c>
       <c r="D2" t="s">
@@ -65662,8 +65662,8 @@
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="157">
-        <f>COUNTIF(B:B,B3)</f>
+      <c r="C3" s="139">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D3" t="s">
@@ -65680,8 +65680,8 @@
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="157">
-        <f>COUNTIF(B:B,B4)</f>
+      <c r="C4" s="139">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D4" t="s">
@@ -65698,8 +65698,8 @@
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="157">
-        <f>COUNTIF(B:B,B5)</f>
+      <c r="C5" s="139">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D5" t="s">
@@ -65716,8 +65716,8 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="157">
-        <f>COUNTIF(B:B,B6)</f>
+      <c r="C6" s="139">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D6" t="s">
@@ -65734,8 +65734,8 @@
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="157">
-        <f>COUNTIF(B:B,B7)</f>
+      <c r="C7" s="139">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D7" t="s">
@@ -65752,8 +65752,8 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="157">
-        <f>COUNTIF(B:B,B8)</f>
+      <c r="C8" s="139">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D8" t="s">
@@ -65770,8 +65770,8 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="157">
-        <f>COUNTIF(B:B,B9)</f>
+      <c r="C9" s="139">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
@@ -65788,8 +65788,8 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="157">
-        <f>COUNTIF(B:B,B10)</f>
+      <c r="C10" s="139">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D10" t="s">
@@ -65806,8 +65806,8 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="157">
-        <f>COUNTIF(B:B,B11)</f>
+      <c r="C11" s="139">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D11" t="s">
@@ -65824,8 +65824,8 @@
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="157">
-        <f>COUNTIF(B:B,B12)</f>
+      <c r="C12" s="139">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D12" t="s">
@@ -65842,8 +65842,8 @@
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="157">
-        <f>COUNTIF(B:B,B13)</f>
+      <c r="C13" s="139">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -65857,8 +65857,8 @@
       <c r="B14">
         <v>4</v>
       </c>
-      <c r="C14" s="157">
-        <f>COUNTIF(B:B,B14)</f>
+      <c r="C14" s="139">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -65872,8 +65872,8 @@
       <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" s="157">
-        <f>COUNTIF(B:B,B15)</f>
+      <c r="C15" s="139">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -65887,8 +65887,8 @@
       <c r="B16">
         <v>6</v>
       </c>
-      <c r="C16" s="157">
-        <f>COUNTIF(B:B,B16)</f>
+      <c r="C16" s="139">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D16" t="s">
@@ -65905,8 +65905,8 @@
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="C17" s="157">
-        <f>COUNTIF(B:B,B17)</f>
+      <c r="C17" s="139">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D17" t="s">
@@ -65923,8 +65923,8 @@
       <c r="B18">
         <v>6</v>
       </c>
-      <c r="C18" s="157">
-        <f>COUNTIF(B:B,B18)</f>
+      <c r="C18" s="139">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D18" t="s">
@@ -65941,8 +65941,8 @@
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="157">
-        <f>COUNTIF(B:B,B19)</f>
+      <c r="C19" s="139">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D19" t="s">
@@ -65959,8 +65959,8 @@
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="157">
-        <f>COUNTIF(B:B,B20)</f>
+      <c r="C20" s="139">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D20" t="s">
@@ -65977,8 +65977,8 @@
       <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="157">
-        <f>COUNTIF(B:B,B21)</f>
+      <c r="C21" s="139">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -65992,8 +65992,8 @@
       <c r="B22">
         <v>8</v>
       </c>
-      <c r="C22" s="157">
-        <f>COUNTIF(B:B,B22)</f>
+      <c r="C22" s="139">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -66007,8 +66007,8 @@
       <c r="B23" s="1">
         <v>9</v>
       </c>
-      <c r="C23" s="157">
-        <f>COUNTIF(B:B,B23)</f>
+      <c r="C23" s="139">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -66022,8 +66022,8 @@
       <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24" s="157">
-        <f>COUNTIF(B:B,B24)</f>
+      <c r="C24" s="139">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -66037,8 +66037,8 @@
       <c r="B25">
         <v>11</v>
       </c>
-      <c r="C25" s="157">
-        <f>COUNTIF(B:B,B25)</f>
+      <c r="C25" s="139">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -66046,8 +66046,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C26" s="157">
-        <f>COUNTIF(B:B,B26)</f>
+      <c r="C26" s="139">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -66055,8 +66055,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C27" s="157">
-        <f>COUNTIF(B:B,B27)</f>
+      <c r="C27" s="139">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -66064,8 +66064,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C28" s="157">
-        <f>COUNTIF(B:B,B28)</f>
+      <c r="C28" s="139">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -66073,8 +66073,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="C29" s="157">
-        <f>COUNTIF(B:B,B29)</f>
+      <c r="C29" s="139">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -66082,8 +66082,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="157">
-        <f>COUNTIF(B:B,B30)</f>
+      <c r="C30" s="139">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
@@ -66091,8 +66091,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C31" s="157">
-        <f>COUNTIF(B:B,B31)</f>
+      <c r="C31" s="139">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -66100,8 +66100,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="157">
-        <f>COUNTIF(B:B,B32)</f>
+      <c r="C32" s="139">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
@@ -66109,8 +66109,8 @@
       </c>
     </row>
     <row r="33" spans="3:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C33" s="157">
-        <f>COUNTIF(B:B,B33)</f>
+      <c r="C33" s="139">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
@@ -66118,8 +66118,8 @@
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="157">
-        <f>COUNTIF(B:B,B34)</f>
+      <c r="C34" s="139">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
@@ -66127,8 +66127,8 @@
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="157">
-        <f>COUNTIF(B:B,B35)</f>
+      <c r="C35" s="139">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
@@ -66536,12 +66536,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I33" sqref="I33"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -66569,7 +66570,7 @@
         <v>608</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C1" s="24" t="s">
         <v>564</v>
@@ -66613,142 +66614,165 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="62" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
-        <v>486</v>
-      </c>
-      <c r="C2" s="62">
-        <v>2012</v>
-      </c>
-      <c r="D2" s="27">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:22" s="62" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="84">
-        <f t="shared" ref="E2:E33" si="0">D2</f>
-        <v>1</v>
+        <f>D2</f>
+        <v>0</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="86"/>
+        <v>136</v>
+      </c>
+      <c r="G2" s="86">
+        <v>44016</v>
+      </c>
       <c r="H2" s="84" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="I2" s="84"/>
-      <c r="J2" s="25"/>
+      <c r="J2" s="25" t="s">
+        <v>313</v>
+      </c>
       <c r="K2" s="62">
         <f>D2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="27">
-        <v>271871229</v>
+        <v>271285313</v>
       </c>
       <c r="M2" s="28">
-        <v>27425</v>
+        <v>28333</v>
       </c>
       <c r="N2" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="O2" s="63">
-        <v>40360</v>
-      </c>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q2" s="48" t="s">
+        <v>320</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>321</v>
+      </c>
+      <c r="S2" s="48">
+        <v>2</v>
+      </c>
+      <c r="T2" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="U2" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="V2" s="48" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="62" t="s">
         <v>486</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="24">
+      <c r="B3" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="62">
         <v>2012</v>
       </c>
       <c r="D3" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="84">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>D3</f>
+        <v>1</v>
       </c>
       <c r="F3" s="85" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G3" s="86"/>
       <c r="H3" s="84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I3" s="84"/>
       <c r="K3" s="62">
-        <f t="shared" ref="K3:K52" si="1">D3</f>
-        <v>2</v>
+        <f>D3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="27">
+        <v>271871229</v>
       </c>
       <c r="M3" s="28">
-        <v>29692</v>
+        <v>27425</v>
       </c>
       <c r="N3" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="O3" s="26">
-        <v>41396</v>
+      <c r="O3" s="63">
+        <v>40360</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
-        <v>109</v>
+        <v>486</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="C4" s="24">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="D4" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="84">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>D4</f>
+        <v>2</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>318</v>
-      </c>
-      <c r="G4" s="86" t="s">
-        <v>517</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="G4" s="86"/>
       <c r="H4" s="84" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="I4" s="84"/>
       <c r="K4" s="62">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L4" s="27">
-        <v>272396568</v>
+        <f>D4</f>
+        <v>2</v>
       </c>
       <c r="M4" s="28">
-        <v>34970</v>
+        <v>29692</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="O4" s="26">
+        <v>41396</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
+      <c r="B5" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="C5" s="24">
         <v>2019</v>
       </c>
       <c r="D5" s="27">
-        <f t="shared" ref="D5:D23" si="2">D4+1</f>
-        <v>4</v>
+        <f>COUNTIF($B$1:B5,"x")</f>
+        <v>3</v>
       </c>
       <c r="E5" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>D5</f>
+        <v>3</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>124</v>
+        <v>530</v>
       </c>
       <c r="G5" s="86" t="s">
         <v>517</v>
@@ -66758,105 +66782,115 @@
       </c>
       <c r="I5" s="84"/>
       <c r="K5" s="62">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>D5</f>
+        <v>3</v>
       </c>
       <c r="L5" s="27">
-        <v>271586657</v>
+        <v>272556665</v>
       </c>
       <c r="M5" s="28">
-        <v>29221</v>
+        <v>35580</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="24">
-        <v>2019</v>
-      </c>
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="62"/>
       <c r="D6" s="27">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f>COUNTIF($B$1:B6,"x")</f>
+        <v>3</v>
       </c>
       <c r="E6" s="84">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>D6</f>
+        <v>3</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="G6" s="86" t="s">
-        <v>522</v>
+        <v>115</v>
+      </c>
+      <c r="G6" s="86">
+        <v>44014</v>
       </c>
       <c r="H6" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I6" s="84"/>
+      <c r="I6" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>312</v>
+      </c>
       <c r="K6" s="62">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L6" s="27">
-        <v>271449542</v>
-      </c>
-      <c r="M6" s="28">
-        <v>30027</v>
+        <f>D6</f>
+        <v>3</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="24">
-        <v>2019</v>
-      </c>
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="62"/>
       <c r="D7" s="27">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f>COUNTIF($B$1:B7,"x")</f>
+        <v>3</v>
       </c>
       <c r="E7" s="84">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>D7</f>
+        <v>3</v>
       </c>
       <c r="F7" s="85" t="s">
-        <v>118</v>
-      </c>
-      <c r="G7" s="86" t="s">
-        <v>517</v>
+        <v>129</v>
+      </c>
+      <c r="G7" s="86">
+        <v>44016</v>
       </c>
       <c r="H7" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I7" s="84"/>
+      <c r="J7" s="25" t="s">
+        <v>313</v>
+      </c>
       <c r="K7" s="62">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>D7</f>
+        <v>3</v>
       </c>
       <c r="L7" s="27">
-        <v>271728653</v>
+        <v>271298968</v>
       </c>
       <c r="M7" s="28">
-        <v>31088</v>
+        <v>28235</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="O7" s="26">
+        <v>43103</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>109</v>
       </c>
+      <c r="B8" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="C8" s="24">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D8" s="27">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f>COUNTIF($B$1:B8,"x")</f>
+        <v>4</v>
       </c>
       <c r="E8" s="84">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>D8</f>
+        <v>4</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>514</v>
+        <v>318</v>
       </c>
       <c r="G8" s="86" t="s">
         <v>517</v>
@@ -66866,105 +66900,93 @@
       </c>
       <c r="I8" s="84"/>
       <c r="K8" s="62">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f>D8</f>
+        <v>4</v>
       </c>
       <c r="L8" s="27">
-        <v>272556764</v>
+        <v>272396568</v>
       </c>
       <c r="M8" s="28">
-        <v>34976</v>
+        <v>34970</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C9" s="24">
-        <v>2019</v>
-      </c>
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="D9" s="27">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f>COUNTIF($B$1:B9,"x")</f>
+        <v>4</v>
       </c>
       <c r="E9" s="84">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>D9</f>
+        <v>4</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>519</v>
-      </c>
-      <c r="G9" s="86" t="s">
-        <v>517</v>
-      </c>
-      <c r="H9" s="84" t="s">
-        <v>109</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="G9" s="86"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="84"/>
       <c r="K9" s="62">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L9" s="27">
-        <v>272352958</v>
-      </c>
-      <c r="M9" s="28">
-        <v>34281</v>
+        <f>D9</f>
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="24">
-        <v>2019</v>
-      </c>
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="62"/>
       <c r="D10" s="27">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f>COUNTIF($B$1:B10,"x")</f>
+        <v>4</v>
       </c>
       <c r="E10" s="84">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>D10</f>
+        <v>4</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>520</v>
-      </c>
-      <c r="G10" s="86" t="s">
-        <v>517</v>
+        <v>110</v>
+      </c>
+      <c r="G10" s="86">
+        <v>44014</v>
       </c>
       <c r="H10" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I10" s="84"/>
+      <c r="J10" s="25" t="s">
+        <v>312</v>
+      </c>
       <c r="K10" s="62">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="L10" s="27">
-        <v>272556713</v>
-      </c>
-      <c r="M10" s="28">
-        <v>35884</v>
+        <f>D10</f>
+        <v>4</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>109</v>
       </c>
+      <c r="B11" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="C11" s="24">
         <v>2019</v>
       </c>
       <c r="D11" s="27">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f>COUNTIF($B$1:B11,"x")</f>
+        <v>5</v>
       </c>
       <c r="E11" s="84">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>D11</f>
+        <v>5</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>521</v>
+        <v>316</v>
       </c>
       <c r="G11" s="86" t="s">
         <v>522</v>
@@ -66974,105 +66996,84 @@
       </c>
       <c r="I11" s="84"/>
       <c r="K11" s="62">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>D11</f>
+        <v>5</v>
       </c>
       <c r="L11" s="27">
-        <v>271315765</v>
+        <v>271449542</v>
       </c>
       <c r="M11" s="28">
-        <v>29205</v>
+        <v>30027</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="24">
-        <v>2019</v>
-      </c>
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="D12" s="27">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f>COUNTIF($B$1:B12,"x")</f>
+        <v>5</v>
       </c>
       <c r="E12" s="84">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>D12</f>
+        <v>5</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>524</v>
-      </c>
-      <c r="G12" s="86" t="s">
-        <v>517</v>
+        <v>122</v>
+      </c>
+      <c r="G12" s="86">
+        <v>44014</v>
       </c>
       <c r="H12" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I12" s="84"/>
       <c r="K12" s="62">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="L12" s="27">
-        <v>272732396</v>
-      </c>
-      <c r="M12" s="28">
-        <v>36804</v>
+        <f>D12</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="24">
-        <v>2019</v>
-      </c>
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="D13" s="27">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f>COUNTIF($B$1:B13,"x")</f>
+        <v>5</v>
       </c>
       <c r="E13" s="84">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>D13</f>
+        <v>5</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>525</v>
-      </c>
-      <c r="G13" s="86" t="s">
-        <v>523</v>
+        <v>120</v>
+      </c>
+      <c r="G13" s="86">
+        <v>44014</v>
       </c>
       <c r="H13" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I13" s="84"/>
       <c r="K13" s="62">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L13" s="27">
-        <v>75200000515</v>
-      </c>
-      <c r="M13" s="28">
-        <v>36767</v>
+        <f>D13</f>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>109</v>
       </c>
+      <c r="B14" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="C14" s="24">
         <v>2019</v>
       </c>
       <c r="D14" s="27">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f>COUNTIF($B$1:B14,"x")</f>
+        <v>6</v>
       </c>
       <c r="E14" s="84">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>D14</f>
+        <v>6</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G14" s="86" t="s">
         <v>517</v>
@@ -67082,33 +67083,36 @@
       </c>
       <c r="I14" s="84"/>
       <c r="K14" s="62">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f>D14</f>
+        <v>6</v>
       </c>
       <c r="L14" s="27">
-        <v>272653927</v>
+        <v>271688082</v>
       </c>
       <c r="M14" s="28">
-        <v>35555</v>
+        <v>31416</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>109</v>
       </c>
+      <c r="B15" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="C15" s="24">
         <v>2019</v>
       </c>
       <c r="D15" s="27">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f>COUNTIF($B$1:B15,"x")</f>
+        <v>7</v>
       </c>
       <c r="E15" s="84">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>D15</f>
+        <v>7</v>
       </c>
       <c r="F15" s="85" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G15" s="86" t="s">
         <v>517</v>
@@ -67118,249 +67122,228 @@
       </c>
       <c r="I15" s="84"/>
       <c r="K15" s="62">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f>D15</f>
+        <v>7</v>
       </c>
       <c r="L15" s="27">
-        <v>272696072</v>
+        <v>271285473</v>
       </c>
       <c r="M15" s="28">
-        <v>36242</v>
+        <v>27567</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>109</v>
       </c>
+      <c r="B16" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="C16" s="24">
         <v>2019</v>
       </c>
       <c r="D16" s="27">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f>COUNTIF($B$1:B16,"x")</f>
+        <v>8</v>
       </c>
       <c r="E16" s="84">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>D16</f>
+        <v>8</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G16" s="86" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="H16" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I16" s="84"/>
       <c r="K16" s="62">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f>D16</f>
+        <v>8</v>
       </c>
       <c r="L16" s="27">
-        <v>272397442</v>
+        <v>271315765</v>
       </c>
       <c r="M16" s="28">
-        <v>34041</v>
+        <v>29205</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>109</v>
       </c>
+      <c r="B17" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="C17" s="24">
         <v>2019</v>
       </c>
       <c r="D17" s="27">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f>COUNTIF($B$1:B17,"x")</f>
+        <v>9</v>
       </c>
       <c r="E17" s="84">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>D17</f>
+        <v>9</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="G17" s="86" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="H17" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I17" s="84"/>
       <c r="K17" s="62">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>D17</f>
+        <v>9</v>
       </c>
       <c r="L17" s="27">
-        <v>272423855</v>
+        <v>212143221</v>
       </c>
       <c r="M17" s="28">
-        <v>34974</v>
+        <v>29696</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="24">
-        <v>2019</v>
-      </c>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" s="27">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f>COUNTIF($B$1:B18,"x")</f>
+        <v>9</v>
       </c>
       <c r="E18" s="84">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>D18</f>
+        <v>9</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>530</v>
-      </c>
-      <c r="G18" s="86" t="s">
-        <v>517</v>
+        <v>121</v>
+      </c>
+      <c r="G18" s="86">
+        <v>44014</v>
       </c>
       <c r="H18" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I18" s="84"/>
       <c r="K18" s="62">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="L18" s="27">
-        <v>272556665</v>
-      </c>
-      <c r="M18" s="28">
-        <v>35580</v>
+        <f>D18</f>
+        <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="24">
-        <v>2019</v>
-      </c>
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" s="27">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f>COUNTIF($B$1:B19,"x")</f>
+        <v>9</v>
       </c>
       <c r="E19" s="84">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>D19</f>
+        <v>9</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>531</v>
-      </c>
-      <c r="G19" s="86" t="s">
-        <v>517</v>
+        <v>123</v>
+      </c>
+      <c r="G19" s="86">
+        <v>44014</v>
       </c>
       <c r="H19" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I19" s="84"/>
       <c r="K19" s="62">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="L19" s="27">
-        <v>271285473</v>
-      </c>
-      <c r="M19" s="28">
-        <v>27567</v>
+        <f>D19</f>
+        <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="24">
-        <v>2019</v>
-      </c>
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" s="27">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f>COUNTIF($B$1:B20,"x")</f>
+        <v>9</v>
       </c>
       <c r="E20" s="84">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>D20</f>
+        <v>9</v>
       </c>
       <c r="F20" s="85" t="s">
-        <v>532</v>
-      </c>
-      <c r="G20" s="86" t="s">
-        <v>522</v>
+        <v>152</v>
+      </c>
+      <c r="G20" s="86">
+        <v>44015</v>
       </c>
       <c r="H20" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I20" s="84"/>
       <c r="K20" s="62">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="L20" s="27">
-        <v>212143221</v>
-      </c>
-      <c r="M20" s="28">
-        <v>29696</v>
+        <f>D20</f>
+        <v>9</v>
+      </c>
+      <c r="O20" s="26">
+        <v>43103</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
         <v>109</v>
       </c>
+      <c r="B21" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="C21" s="24">
         <v>2019</v>
       </c>
       <c r="D21" s="27">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>COUNTIF($B$1:B21,"x")</f>
+        <v>10</v>
       </c>
       <c r="E21" s="84">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>D21</f>
+        <v>10</v>
       </c>
       <c r="F21" s="85" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="G21" s="86" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H21" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I21" s="84"/>
       <c r="K21" s="62">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>D21</f>
+        <v>10</v>
       </c>
       <c r="L21" s="27">
-        <v>271688082</v>
+        <v>75200000515</v>
       </c>
       <c r="M21" s="28">
-        <v>31416</v>
+        <v>36767</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>109</v>
       </c>
+      <c r="B22" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="C22" s="24">
         <v>2019</v>
       </c>
       <c r="D22" s="27">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f>COUNTIF($B$1:B22,"x")</f>
+        <v>11</v>
       </c>
       <c r="E22" s="84">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>D22</f>
+        <v>11</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>534</v>
+        <v>118</v>
       </c>
       <c r="G22" s="86" t="s">
         <v>517</v>
@@ -67370,236 +67353,281 @@
       </c>
       <c r="I22" s="84"/>
       <c r="K22" s="62">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <f>D22</f>
+        <v>11</v>
       </c>
       <c r="L22" s="27">
-        <v>272960603</v>
+        <v>271728653</v>
       </c>
       <c r="M22" s="28">
-        <v>37008</v>
+        <v>31088</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="24">
-        <v>2019</v>
-      </c>
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="D23" s="27">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f>COUNTIF($B$1:B23,"x")</f>
+        <v>11</v>
       </c>
       <c r="E23" s="84">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>D23</f>
+        <v>11</v>
       </c>
       <c r="F23" s="85" t="s">
-        <v>535</v>
-      </c>
-      <c r="G23" s="86" t="s">
-        <v>517</v>
+        <v>117</v>
+      </c>
+      <c r="G23" s="86">
+        <v>44016</v>
       </c>
       <c r="H23" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I23" s="84"/>
       <c r="K23" s="62">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="L23" s="27">
-        <v>272282903</v>
-      </c>
-      <c r="M23" s="28">
-        <v>33816</v>
+        <f>D23</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="24">
+        <v>2019</v>
+      </c>
+      <c r="D24" s="27">
+        <f>COUNTIF($B$1:B24,"x")</f>
+        <v>12</v>
+      </c>
       <c r="E24" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D24</f>
+        <v>12</v>
       </c>
       <c r="F24" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="G24" s="86">
-        <v>44016</v>
+        <v>526</v>
+      </c>
+      <c r="G24" s="86" t="s">
+        <v>517</v>
       </c>
       <c r="H24" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I24" s="84"/>
-      <c r="J24" s="25" t="s">
-        <v>313</v>
-      </c>
       <c r="K24" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D24</f>
+        <v>12</v>
       </c>
       <c r="L24" s="27">
-        <v>271285313</v>
+        <v>272696072</v>
       </c>
       <c r="M24" s="28">
-        <v>28333</v>
-      </c>
-      <c r="N24" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="P24" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q24" s="48" t="s">
-        <v>320</v>
-      </c>
-      <c r="R24" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="S24" s="48">
-        <v>2</v>
-      </c>
-      <c r="T24" s="48" t="s">
-        <v>322</v>
-      </c>
-      <c r="U24" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="V24" s="48" t="s">
-        <v>329</v>
+        <v>36242</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B25" s="62"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="24">
+        <v>2019</v>
+      </c>
+      <c r="D25" s="27">
+        <f>COUNTIF($B$1:B25,"x")</f>
+        <v>13</v>
+      </c>
       <c r="E25" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D25</f>
+        <v>13</v>
       </c>
       <c r="F25" s="85" t="s">
-        <v>129</v>
-      </c>
-      <c r="G25" s="86">
-        <v>44016</v>
+        <v>536</v>
+      </c>
+      <c r="G25" s="86" t="s">
+        <v>517</v>
       </c>
       <c r="H25" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I25" s="84"/>
-      <c r="J25" s="25" t="s">
-        <v>313</v>
-      </c>
       <c r="K25" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D25</f>
+        <v>13</v>
       </c>
       <c r="L25" s="27">
-        <v>271298968</v>
+        <v>272653927</v>
       </c>
       <c r="M25" s="28">
-        <v>28235</v>
-      </c>
-      <c r="N25" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="O25" s="26">
-        <v>43103</v>
+        <v>35555</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="62"/>
+      <c r="D26" s="27">
+        <f>COUNTIF($B$1:B26,"x")</f>
+        <v>13</v>
+      </c>
       <c r="E26" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D26</f>
+        <v>13</v>
       </c>
       <c r="F26" s="85" t="s">
-        <v>496</v>
-      </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="84"/>
+        <v>116</v>
+      </c>
+      <c r="G26" s="86">
+        <v>44014</v>
+      </c>
+      <c r="H26" s="84" t="s">
+        <v>109</v>
+      </c>
       <c r="I26" s="84"/>
+      <c r="J26" s="25" t="s">
+        <v>312</v>
+      </c>
       <c r="K26" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D26</f>
+        <v>13</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="N26" s="51" t="s">
+        <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="27">
+        <f>COUNTIF($B$1:B27,"x")</f>
+        <v>13</v>
+      </c>
       <c r="E27" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D27</f>
+        <v>13</v>
       </c>
       <c r="F27" s="85" t="s">
-        <v>152</v>
-      </c>
-      <c r="G27" s="86">
-        <v>44015</v>
-      </c>
-      <c r="H27" s="84" t="s">
-        <v>109</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="G27" s="86"/>
+      <c r="H27" s="84"/>
       <c r="I27" s="84"/>
       <c r="K27" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="26">
-        <v>43103</v>
+        <f>D27</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="62"/>
+      <c r="D28" s="27">
+        <f>COUNTIF($B$1:B28,"x")</f>
+        <v>13</v>
+      </c>
       <c r="E28" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D28</f>
+        <v>13</v>
       </c>
       <c r="F28" s="85" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G28" s="86">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="H28" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="84"/>
+      <c r="I28" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>312</v>
+      </c>
       <c r="K28" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D28</f>
+        <v>13</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="N28" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="27">
+        <f>COUNTIF($B$1:B29,"x")</f>
+        <v>13</v>
+      </c>
       <c r="E29" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D29</f>
+        <v>13</v>
       </c>
       <c r="F29" s="85" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G29" s="86"/>
       <c r="H29" s="84"/>
       <c r="I29" s="84"/>
       <c r="K29" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D29</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="24">
+        <v>2019</v>
+      </c>
+      <c r="D30" s="27">
+        <f>COUNTIF($B$1:B30,"x")</f>
+        <v>14</v>
+      </c>
       <c r="E30" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D30</f>
+        <v>14</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>497</v>
-      </c>
-      <c r="G30" s="86"/>
-      <c r="H30" s="84"/>
+        <v>535</v>
+      </c>
+      <c r="G30" s="86" t="s">
+        <v>517</v>
+      </c>
+      <c r="H30" s="84" t="s">
+        <v>109</v>
+      </c>
       <c r="I30" s="84"/>
       <c r="K30" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D30</f>
+        <v>14</v>
+      </c>
+      <c r="L30" s="27">
+        <v>272282903</v>
+      </c>
+      <c r="M30" s="28">
+        <v>33816</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="27">
+        <f>COUNTIF($B$1:B31,"x")</f>
+        <v>14</v>
+      </c>
       <c r="E31" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D31</f>
+        <v>14</v>
       </c>
       <c r="F31" s="85" t="s">
         <v>498</v>
@@ -67612,173 +67640,214 @@
       </c>
       <c r="I31" s="84"/>
       <c r="K31" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D31</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="62"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="24">
+        <v>2019</v>
+      </c>
+      <c r="D32" s="27">
+        <f>COUNTIF($B$1:B32,"x")</f>
+        <v>15</v>
+      </c>
       <c r="E32" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D32</f>
+        <v>15</v>
       </c>
       <c r="F32" s="85" t="s">
-        <v>317</v>
-      </c>
-      <c r="G32" s="86">
-        <v>44015</v>
+        <v>519</v>
+      </c>
+      <c r="G32" s="86" t="s">
+        <v>517</v>
       </c>
       <c r="H32" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I32" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="J32" s="25" t="s">
-        <v>315</v>
-      </c>
+      <c r="I32" s="84"/>
       <c r="K32" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D32</f>
+        <v>15</v>
       </c>
       <c r="L32" s="27">
-        <v>271294536</v>
-      </c>
-      <c r="M32" s="64">
-        <v>29587</v>
+        <v>272352958</v>
+      </c>
+      <c r="M32" s="28">
+        <v>34281</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>127</v>
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="62"/>
+      <c r="D33" s="27">
+        <f>COUNTIF($B$1:B33,"x")</f>
+        <v>15</v>
       </c>
       <c r="E33" s="84">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D33</f>
+        <v>15</v>
       </c>
       <c r="F33" s="85" t="s">
-        <v>151</v>
+        <v>317</v>
       </c>
       <c r="G33" s="86">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="H33" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I33" s="84"/>
+      <c r="I33" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="J33" s="25" t="s">
+        <v>315</v>
+      </c>
       <c r="K33" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="28">
-        <v>30303</v>
-      </c>
-      <c r="O33" s="26">
-        <v>43103</v>
+        <f>D33</f>
+        <v>15</v>
+      </c>
+      <c r="L33" s="27">
+        <v>271294536</v>
+      </c>
+      <c r="M33" s="64">
+        <v>29587</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B34" s="62" t="s">
+      <c r="B34" s="24" t="s">
         <v>127</v>
       </c>
+      <c r="C34" s="24">
+        <v>2019</v>
+      </c>
+      <c r="D34" s="27">
+        <f>COUNTIF($B$1:B34,"x")</f>
+        <v>16</v>
+      </c>
       <c r="E34" s="84">
-        <f t="shared" ref="E34:E52" si="3">D34</f>
-        <v>0</v>
+        <f>D34</f>
+        <v>16</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>314</v>
-      </c>
-      <c r="G34" s="86">
-        <v>44014</v>
+        <v>514</v>
+      </c>
+      <c r="G34" s="86" t="s">
+        <v>517</v>
       </c>
       <c r="H34" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I34" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="J34" s="25" t="s">
-        <v>315</v>
-      </c>
+      <c r="I34" s="84"/>
       <c r="K34" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D34</f>
+        <v>16</v>
       </c>
       <c r="L34" s="27">
-        <v>271380486</v>
+        <v>272556764</v>
       </c>
       <c r="M34" s="28">
-        <v>30730</v>
+        <v>34976</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>127</v>
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="62"/>
+      <c r="D35" s="27">
+        <f>COUNTIF($B$1:B35,"x")</f>
+        <v>16</v>
       </c>
       <c r="E35" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D35</f>
+        <v>16</v>
       </c>
       <c r="F35" s="85" t="s">
-        <v>494</v>
+        <v>108</v>
       </c>
       <c r="G35" s="86">
         <v>44014</v>
       </c>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
+      <c r="H35" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="I35" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>312</v>
+      </c>
       <c r="K35" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D35</f>
+        <v>16</v>
+      </c>
+      <c r="L35" s="27" t="s">
+        <v>384</v>
       </c>
       <c r="M35" s="28">
-        <v>27534</v>
+        <v>28956</v>
+      </c>
+      <c r="N35" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>127</v>
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="62"/>
+      <c r="D36" s="27">
+        <f>COUNTIF($B$1:B36,"x")</f>
+        <v>16</v>
       </c>
       <c r="E36" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D36</f>
+        <v>16</v>
       </c>
       <c r="F36" s="85" t="s">
-        <v>495</v>
+        <v>383</v>
       </c>
       <c r="G36" s="86">
         <v>44014</v>
       </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
+      <c r="H36" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="J36" s="25" t="s">
+        <v>312</v>
+      </c>
       <c r="K36" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="28">
-        <v>30596</v>
+        <f>D36</f>
+        <v>16</v>
+      </c>
+      <c r="L36" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="M36" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="N36" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="62"/>
+      <c r="D37" s="27">
+        <f>COUNTIF($B$1:B37,"x")</f>
+        <v>16</v>
+      </c>
       <c r="E37" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D37</f>
+        <v>16</v>
       </c>
       <c r="F37" s="85" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" s="86">
         <v>44014</v>
@@ -67786,86 +67855,113 @@
       <c r="H37" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I37" s="84" t="s">
-        <v>127</v>
-      </c>
+      <c r="I37" s="84"/>
       <c r="J37" s="25" t="s">
         <v>312</v>
       </c>
       <c r="K37" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D37</f>
+        <v>16</v>
       </c>
       <c r="L37" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M37" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N37" s="27" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B38" s="62"/>
+      <c r="A38" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="24">
+        <v>2019</v>
+      </c>
+      <c r="D38" s="27">
+        <f>COUNTIF($B$1:B38,"x")</f>
+        <v>17</v>
+      </c>
       <c r="E38" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D38</f>
+        <v>17</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>110</v>
-      </c>
-      <c r="G38" s="86">
-        <v>44014</v>
+        <v>124</v>
+      </c>
+      <c r="G38" s="86" t="s">
+        <v>517</v>
       </c>
       <c r="H38" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I38" s="84"/>
-      <c r="J38" s="25" t="s">
-        <v>312</v>
-      </c>
       <c r="K38" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="M38" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="N38" s="27" t="s">
-        <v>228</v>
+        <f>D38</f>
+        <v>17</v>
+      </c>
+      <c r="L38" s="27">
+        <v>271586657</v>
+      </c>
+      <c r="M38" s="28">
+        <v>29221</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" s="24">
+        <v>2019</v>
+      </c>
+      <c r="D39" s="27">
+        <f>COUNTIF($B$1:B39,"x")</f>
+        <v>18</v>
+      </c>
       <c r="E39" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D39</f>
+        <v>18</v>
       </c>
       <c r="F39" s="85" t="s">
-        <v>122</v>
-      </c>
-      <c r="G39" s="86">
-        <v>44014</v>
+        <v>524</v>
+      </c>
+      <c r="G39" s="86" t="s">
+        <v>517</v>
       </c>
       <c r="H39" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I39" s="84"/>
       <c r="K39" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D39</f>
+        <v>18</v>
+      </c>
+      <c r="L39" s="27">
+        <v>272732396</v>
+      </c>
+      <c r="M39" s="28">
+        <v>36804</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="27">
+        <f>COUNTIF($B$1:B40,"x")</f>
+        <v>18</v>
+      </c>
       <c r="E40" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D40</f>
+        <v>18</v>
       </c>
       <c r="F40" s="85" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G40" s="86">
         <v>44014</v>
@@ -67875,17 +67971,24 @@
       </c>
       <c r="I40" s="84"/>
       <c r="K40" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D40</f>
+        <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="27">
+        <f>COUNTIF($B$1:B41,"x")</f>
+        <v>18</v>
+      </c>
       <c r="E41" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D41</f>
+        <v>18</v>
       </c>
       <c r="F41" s="85" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="G41" s="86">
         <v>44014</v>
@@ -67895,17 +67998,28 @@
       </c>
       <c r="I41" s="84"/>
       <c r="K41" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D41</f>
+        <v>18</v>
+      </c>
+      <c r="M41" s="28">
+        <v>30303</v>
+      </c>
+      <c r="O41" s="26">
+        <v>43103</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="62"/>
+      <c r="D42" s="27">
+        <f>COUNTIF($B$1:B42,"x")</f>
+        <v>18</v>
+      </c>
       <c r="E42" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D42</f>
+        <v>18</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G42" s="86">
         <v>44014</v>
@@ -67914,52 +68028,77 @@
         <v>109</v>
       </c>
       <c r="I42" s="84"/>
+      <c r="J42" s="25" t="s">
+        <v>312</v>
+      </c>
       <c r="K42" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D42</f>
+        <v>18</v>
+      </c>
+      <c r="L42" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M42" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="N42" s="27" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B43" s="62"/>
+      <c r="A43" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="24">
+        <v>2019</v>
+      </c>
+      <c r="D43" s="27">
+        <f>COUNTIF($B$1:B43,"x")</f>
+        <v>19</v>
+      </c>
       <c r="E43" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D43</f>
+        <v>19</v>
       </c>
       <c r="F43" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="G43" s="86">
-        <v>44014</v>
+        <v>529</v>
+      </c>
+      <c r="G43" s="86" t="s">
+        <v>517</v>
       </c>
       <c r="H43" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I43" s="84"/>
-      <c r="J43" s="25" t="s">
-        <v>312</v>
-      </c>
       <c r="K43" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="M43" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="N43" s="51" t="s">
-        <v>229</v>
+        <f>D43</f>
+        <v>19</v>
+      </c>
+      <c r="L43" s="27">
+        <v>272423855</v>
+      </c>
+      <c r="M43" s="28">
+        <v>34974</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="24" t="s">
+        <v>109</v>
+      </c>
       <c r="B44" s="62"/>
+      <c r="D44" s="27">
+        <f>COUNTIF($B$1:B44,"x")</f>
+        <v>19</v>
+      </c>
       <c r="E44" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D44</f>
+        <v>19</v>
       </c>
       <c r="F44" s="85" t="s">
-        <v>114</v>
+        <v>314</v>
       </c>
       <c r="G44" s="86">
         <v>44014</v>
@@ -67971,30 +68110,31 @@
         <v>127</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K44" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="M44" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="N44" s="27" t="s">
-        <v>228</v>
+        <f>D44</f>
+        <v>19</v>
+      </c>
+      <c r="L44" s="27">
+        <v>271380486</v>
+      </c>
+      <c r="M44" s="28">
+        <v>30730</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B45" s="62"/>
+      <c r="D45" s="27">
+        <f>COUNTIF($B$1:B45,"x")</f>
+        <v>19</v>
+      </c>
       <c r="E45" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D45</f>
+        <v>19</v>
       </c>
       <c r="F45" s="85" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G45" s="86">
         <v>44014</v>
@@ -68009,27 +68149,30 @@
         <v>312</v>
       </c>
       <c r="K45" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="27" t="s">
-        <v>384</v>
+        <f>D45</f>
+        <v>19</v>
+      </c>
+      <c r="L45" s="27">
+        <v>271235673</v>
       </c>
       <c r="M45" s="28">
-        <v>28956</v>
+        <v>26845</v>
       </c>
       <c r="N45" s="27" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="62"/>
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="27">
+        <f>COUNTIF($B$1:B46,"x")</f>
+        <v>19</v>
+      </c>
       <c r="E46" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D46</f>
+        <v>19</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>383</v>
+        <v>119</v>
       </c>
       <c r="G46" s="86">
         <v>44014</v>
@@ -68037,34 +68180,23 @@
       <c r="H46" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="I46" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>312</v>
-      </c>
+      <c r="I46" s="84"/>
       <c r="K46" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="M46" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="N46" s="27" t="s">
-        <v>228</v>
+        <f>D46</f>
+        <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="62"/>
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="27">
+        <f>COUNTIF($B$1:B47,"x")</f>
+        <v>19</v>
+      </c>
       <c r="E47" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D47</f>
+        <v>19</v>
       </c>
       <c r="F47" s="85" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="G47" s="86">
         <v>44014</v>
@@ -68073,354 +68205,314 @@
         <v>109</v>
       </c>
       <c r="I47" s="84"/>
-      <c r="J47" s="25" t="s">
-        <v>312</v>
-      </c>
       <c r="K47" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="M47" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="N47" s="27" t="s">
-        <v>228</v>
+        <f>D47</f>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48" s="24">
+        <v>2019</v>
+      </c>
+      <c r="D48" s="27">
+        <f>COUNTIF($B$1:B48,"x")</f>
+        <v>20</v>
+      </c>
       <c r="E48" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D48</f>
+        <v>20</v>
       </c>
       <c r="F48" s="85" t="s">
-        <v>125</v>
-      </c>
-      <c r="G48" s="86">
-        <v>44014</v>
+        <v>520</v>
+      </c>
+      <c r="G48" s="86" t="s">
+        <v>517</v>
       </c>
       <c r="H48" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I48" s="84"/>
       <c r="K48" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D48</f>
+        <v>20</v>
+      </c>
+      <c r="L48" s="27">
+        <v>272556713</v>
+      </c>
+      <c r="M48" s="28">
+        <v>35884</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="62"/>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="24">
+        <v>2019</v>
+      </c>
+      <c r="D49" s="27">
+        <f>COUNTIF($B$1:B49,"x")</f>
+        <v>21</v>
+      </c>
       <c r="E49" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D49</f>
+        <v>21</v>
       </c>
       <c r="F49" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="G49" s="86">
-        <v>44014</v>
+        <v>534</v>
+      </c>
+      <c r="G49" s="86" t="s">
+        <v>517</v>
       </c>
       <c r="H49" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I49" s="84"/>
-      <c r="J49" s="25" t="s">
-        <v>312</v>
-      </c>
       <c r="K49" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="M49" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>228</v>
+        <f>D49</f>
+        <v>21</v>
+      </c>
+      <c r="L49" s="27">
+        <v>272960603</v>
+      </c>
+      <c r="M49" s="28">
+        <v>37008</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="62"/>
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="27">
+        <f>COUNTIF($B$1:B50,"x")</f>
+        <v>21</v>
+      </c>
       <c r="E50" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D50</f>
+        <v>21</v>
       </c>
       <c r="F50" s="85" t="s">
-        <v>112</v>
+        <v>494</v>
       </c>
       <c r="G50" s="86">
         <v>44014</v>
       </c>
-      <c r="H50" s="84" t="s">
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
+      <c r="K50" s="62">
+        <f>D50</f>
+        <v>21</v>
+      </c>
+      <c r="M50" s="28">
+        <v>27534</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="D51" s="27">
+        <f>COUNTIF($B$1:B51,"x")</f>
+        <v>21</v>
+      </c>
+      <c r="E51" s="84"/>
+      <c r="F51" s="85" t="s">
+        <v>322</v>
+      </c>
+      <c r="G51" s="86"/>
+      <c r="H51" s="84" t="s">
+        <v>624</v>
+      </c>
+      <c r="I51" s="84"/>
+      <c r="K51" s="62"/>
+      <c r="M51" s="28">
+        <v>29541</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="I50" s="84" t="s">
+      <c r="B52" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="J50" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="K50" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="27">
-        <v>271235673</v>
-      </c>
-      <c r="M50" s="28">
-        <v>26845</v>
-      </c>
-      <c r="N50" s="27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E51" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F51" s="85" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" s="86">
-        <v>44014</v>
-      </c>
-      <c r="H51" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="I51" s="84"/>
-      <c r="K51" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C52" s="24">
+        <v>2019</v>
+      </c>
+      <c r="D52" s="27">
+        <f>COUNTIF($B$1:B52,"x")</f>
+        <v>22</v>
+      </c>
       <c r="E52" s="84">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>D52</f>
+        <v>22</v>
       </c>
       <c r="F52" s="85" t="s">
-        <v>126</v>
-      </c>
-      <c r="G52" s="86">
-        <v>44014</v>
+        <v>528</v>
+      </c>
+      <c r="G52" s="86" t="s">
+        <v>517</v>
       </c>
       <c r="H52" s="84" t="s">
         <v>109</v>
       </c>
       <c r="I52" s="84"/>
       <c r="K52" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>D52</f>
+        <v>22</v>
+      </c>
+      <c r="L52" s="27">
+        <v>272397442</v>
+      </c>
+      <c r="M52" s="28">
+        <v>34041</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
-        <v>625</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="84"/>
+        <v>109</v>
+      </c>
+      <c r="D53" s="27">
+        <f>COUNTIF($B$1:B53,"x")</f>
+        <v>22</v>
+      </c>
+      <c r="E53" s="84">
+        <f>D53</f>
+        <v>22</v>
+      </c>
       <c r="F53" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="G53" s="86"/>
-      <c r="H53" s="84" t="s">
-        <v>624</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="G53" s="86">
+        <v>44014</v>
+      </c>
+      <c r="H53" s="84"/>
       <c r="I53" s="84"/>
-      <c r="K53" s="62"/>
+      <c r="K53" s="62">
+        <f>D53</f>
+        <v>22</v>
+      </c>
       <c r="M53" s="28">
-        <v>29541</v>
+        <v>30596</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="24">
-        <f>VLOOKUP(C60,F:K,6,0)</f>
-        <v>3</v>
-      </c>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C60" s="24" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B61" s="24">
-        <f t="shared" ref="B61:B79" si="4">VLOOKUP(C61,F:K,6,0)</f>
-        <v>4</v>
-      </c>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C61" s="24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B62" s="24">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C62" s="24" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B63" s="24">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C63" s="24" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B64" s="24">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C64" s="24" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="24">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C65" s="24" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="24">
-        <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C66" s="24" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B67" s="24">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C67" s="24" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B68" s="24">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C68" s="24" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="24">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C69" s="24" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="24">
-        <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C70" s="24" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="24">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C71" s="24" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B72" s="24">
-        <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C72" s="24" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="24">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C73" s="24" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B74" s="24">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C74" s="24" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="24">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C75" s="24" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="24">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C76" s="24" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="24">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C77" s="24" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="24">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C78" s="24" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="24">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C79" s="24" t="s">
         <v>519</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V53" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <autoFilter ref="A1:V53" xr:uid="{00000000-0009-0000-0000-00000B000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="F54:F1048576 F7:F50 F1:F5">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
@@ -68443,7 +68535,7 @@
   <dimension ref="B1:O10"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68467,10 +68559,10 @@
       <c r="D1" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="153" t="s">
+      <c r="E1" s="155" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="153"/>
+      <c r="F1" s="155"/>
       <c r="G1" s="69" t="s">
         <v>213</v>
       </c>
@@ -68482,10 +68574,10 @@
       </c>
     </row>
     <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="156" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="155" t="s">
+      <c r="C2" s="157" t="s">
         <v>215</v>
       </c>
       <c r="D2" s="70" t="s">
@@ -68504,8 +68596,8 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="157"/>
       <c r="D3" s="70" t="s">
         <v>208</v>
       </c>
@@ -68522,8 +68614,8 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="154"/>
-      <c r="C4" s="155"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="157"/>
       <c r="D4" s="70" t="s">
         <v>209</v>
       </c>
@@ -68688,7 +68780,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -69155,7 +69247,7 @@
     <row r="2" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D2">
         <f>IFERROR(VLOOKUP(E2,NhanSu!F:K,6,0),0)</f>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>532</v>
@@ -69176,7 +69268,7 @@
     <row r="3" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D3">
         <f>IFERROR(VLOOKUP(E3,NhanSu!F:K,6,0),0)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>526</v>
@@ -69197,7 +69289,7 @@
     <row r="4" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D4">
         <f>IFERROR(VLOOKUP(E4,NhanSu!F:K,6,0),0)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
         <v>318</v>
@@ -69218,7 +69310,7 @@
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5">
         <f>IFERROR(VLOOKUP(E5,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
         <v>314</v>
@@ -69239,7 +69331,7 @@
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6">
         <f>IFERROR(VLOOKUP(E6,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
         <v>114</v>
@@ -69260,7 +69352,7 @@
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7">
         <f>IFERROR(VLOOKUP(E7,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>110</v>
@@ -69323,7 +69415,7 @@
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10">
         <f>IFERROR(VLOOKUP(E10,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>493</v>
@@ -69344,7 +69436,7 @@
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11">
         <f>IFERROR(VLOOKUP(E11,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>152</v>
@@ -69365,7 +69457,7 @@
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12">
         <f>IFERROR(VLOOKUP(E12,NhanSu!F:K,6,0),0)</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
         <v>535</v>
@@ -69383,7 +69475,7 @@
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13">
         <f>IFERROR(VLOOKUP(E13,NhanSu!F:K,6,0),0)</f>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>530</v>
@@ -69404,7 +69496,7 @@
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14">
         <f>IFERROR(VLOOKUP(E14,NhanSu!F:K,6,0),0)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
         <v>520</v>
@@ -69425,7 +69517,7 @@
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15">
         <f>IFERROR(VLOOKUP(E15,NhanSu!F:K,6,0),0)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
         <v>118</v>
@@ -69446,7 +69538,7 @@
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16">
         <f>IFERROR(VLOOKUP(E16,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>383</v>
@@ -69467,7 +69559,7 @@
     <row r="17" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D17">
         <f>IFERROR(VLOOKUP(E17,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>116</v>
@@ -69488,7 +69580,7 @@
     <row r="18" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D18">
         <f>IFERROR(VLOOKUP(E18,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
         <v>115</v>
@@ -69509,7 +69601,7 @@
     <row r="19" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D19">
         <f>IFERROR(VLOOKUP(E19,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
         <v>113</v>
@@ -69530,7 +69622,7 @@
     <row r="20" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D20">
         <f>IFERROR(VLOOKUP(E20,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E20" t="s">
         <v>495</v>
@@ -69551,7 +69643,7 @@
     <row r="21" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D21">
         <f>IFERROR(VLOOKUP(E21,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
         <v>494</v>
@@ -69572,7 +69664,7 @@
     <row r="22" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D22">
         <f>IFERROR(VLOOKUP(E22,NhanSu!F:K,6,0),0)</f>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E22" t="s">
         <v>531</v>
@@ -69596,7 +69688,7 @@
     <row r="23" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D23">
         <f>IFERROR(VLOOKUP(E23,NhanSu!F:K,6,0),0)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
         <v>525</v>
@@ -69620,7 +69712,7 @@
     <row r="24" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D24">
         <f>IFERROR(VLOOKUP(E24,NhanSu!F:K,6,0),0)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
         <v>524</v>
@@ -69644,7 +69736,7 @@
     <row r="25" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D25">
         <f>IFERROR(VLOOKUP(E25,NhanSu!F:K,6,0),0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
         <v>521</v>
@@ -69668,7 +69760,7 @@
     <row r="26" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D26">
         <f>IFERROR(VLOOKUP(E26,NhanSu!F:K,6,0),0)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
         <v>514</v>
@@ -69692,7 +69784,7 @@
     <row r="27" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D27">
         <f>IFERROR(VLOOKUP(E27,NhanSu!F:K,6,0),0)</f>
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
         <v>124</v>
@@ -69740,7 +69832,7 @@
     <row r="29" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D29">
         <f>IFERROR(VLOOKUP(E29,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
         <v>112</v>
@@ -69764,7 +69856,7 @@
     <row r="30" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D30">
         <f>IFERROR(VLOOKUP(E30,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
         <v>111</v>
@@ -69788,7 +69880,7 @@
     <row r="31" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D31">
         <f>IFERROR(VLOOKUP(E31,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
         <v>108</v>
@@ -69833,7 +69925,7 @@
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33">
         <f>IFERROR(VLOOKUP(E33,NhanSu!F:K,6,0),0)</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E33" t="s">
         <v>533</v>
@@ -69854,7 +69946,7 @@
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34">
         <f>IFERROR(VLOOKUP(E34,NhanSu!F:K,6,0),0)</f>
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
         <v>528</v>
@@ -69896,7 +69988,7 @@
     <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36">
         <f>IFERROR(VLOOKUP(E36,NhanSu!F:K,6,0),0)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
         <v>519</v>
@@ -69917,7 +70009,7 @@
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37">
         <f>IFERROR(VLOOKUP(E37,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
         <v>317</v>
@@ -69938,7 +70030,7 @@
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38">
         <f>IFERROR(VLOOKUP(E38,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
         <v>497</v>
@@ -69959,7 +70051,7 @@
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39">
         <f>IFERROR(VLOOKUP(E39,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
         <v>498</v>
@@ -69980,7 +70072,7 @@
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40">
         <f>IFERROR(VLOOKUP(E40,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E40" t="s">
         <v>505</v>
@@ -70001,7 +70093,7 @@
     <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41">
         <f>IFERROR(VLOOKUP(E41,NhanSu!F:K,6,0),0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
         <v>129</v>
@@ -70022,7 +70114,7 @@
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42">
         <f>IFERROR(VLOOKUP(E42,NhanSu!F:K,6,0),0)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
         <v>529</v>
@@ -76504,7 +76596,7 @@
         <v>156</v>
       </c>
       <c r="E2" s="39" t="str">
-        <f>TEXT(INDEX($G:$J,ROW(),$F$1),"00")&amp;" ngày"</f>
+        <f t="shared" ref="E2:E7" si="0">TEXT(INDEX($G:$J,ROW(),$F$1),"00")&amp;" ngày"</f>
         <v>02 ngày</v>
       </c>
       <c r="G2" s="32">
@@ -76526,22 +76618,22 @@
 1 - 20</v>
       </c>
       <c r="N2" s="112" t="str">
-        <f t="shared" ref="N2:Q2" si="0">"Ngày "&amp;CHAR(10)&amp;M1+1&amp;" - "&amp;N1</f>
+        <f t="shared" ref="N2:Q2" si="1">"Ngày "&amp;CHAR(10)&amp;M1+1&amp;" - "&amp;N1</f>
         <v>Ngày 
 21 - 40</v>
       </c>
       <c r="O2" s="112" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ngày 
 41 - 60</v>
       </c>
       <c r="P2" s="112" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ngày 
 61 - 80</v>
       </c>
       <c r="Q2" s="112" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Ngày 
 81 - 100</v>
       </c>
@@ -76554,7 +76646,7 @@
         <v>157</v>
       </c>
       <c r="E3" s="39" t="str">
-        <f>TEXT(INDEX($G:$J,ROW(),$F$1),"00")&amp;" ngày"</f>
+        <f t="shared" si="0"/>
         <v>20 ngày</v>
       </c>
       <c r="G3" s="32">
@@ -76581,7 +76673,7 @@
         <v>158</v>
       </c>
       <c r="E4" s="39" t="str">
-        <f>TEXT(INDEX($G:$J,ROW(),$F$1),"00")&amp;" ngày"</f>
+        <f t="shared" si="0"/>
         <v>03 ngày</v>
       </c>
       <c r="G4" s="32">
@@ -76626,7 +76718,7 @@
         <v>159</v>
       </c>
       <c r="E5" s="39" t="str">
-        <f>TEXT(INDEX($G:$J,ROW(),$F$1),"00")&amp;" ngày"</f>
+        <f t="shared" si="0"/>
         <v>20 ngày</v>
       </c>
       <c r="G5" s="32">
@@ -76668,7 +76760,7 @@
         <v>873</v>
       </c>
       <c r="E6" s="39" t="str">
-        <f>TEXT(INDEX($G:$J,ROW(),$F$1),"00")&amp;" ngày"</f>
+        <f t="shared" si="0"/>
         <v>48 ngày</v>
       </c>
       <c r="G6" s="32">
@@ -76710,7 +76802,7 @@
         <v>162</v>
       </c>
       <c r="E7" s="39" t="str">
-        <f>TEXT(INDEX($G:$J,ROW(),$F$1),"00")&amp;" ngày"</f>
+        <f t="shared" si="0"/>
         <v>07 ngày</v>
       </c>
       <c r="G7" s="32">
@@ -76747,23 +76839,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="141" t="s">
+      <c r="E1" s="143" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="146" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="146"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="148"/>
     </row>
     <row r="2" spans="4:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D2" s="139"/>
-      <c r="E2" s="142"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="144"/>
       <c r="F2" s="34" t="s">
         <v>163</v>
       </c>
@@ -76781,8 +76873,8 @@
       </c>
     </row>
     <row r="3" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="140"/>
-      <c r="E3" s="143"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="145"/>
       <c r="F3" s="36" t="s">
         <v>168</v>
       </c>
@@ -76892,26 +76984,26 @@
     </row>
     <row r="17" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="147" t="s">
+      <c r="D18" s="149" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="147" t="s">
+      <c r="E18" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="150" t="s">
+      <c r="F18" s="152" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="154"/>
       <c r="K18">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="4:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D19" s="148"/>
-      <c r="E19" s="148"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="150"/>
       <c r="F19" s="101" t="s">
         <v>163</v>
       </c>
@@ -76929,8 +77021,8 @@
       </c>
     </row>
     <row r="20" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
       <c r="F20" s="109" t="s">
         <v>548</v>
       </c>

--- a/TongHopDuThau.xlsx
+++ b/TongHopDuThau.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="768" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" tabRatio="768" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TBMT" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="885">
   <si>
     <t>CongTrinh</t>
   </si>
@@ -1544,9 +1544,6 @@
     <t>Song Hào/ Hòa Đồng</t>
   </si>
   <si>
-    <t>SH.36.KQ</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ngày 19 tháng 03 năm 2020</t>
   </si>
   <si>
@@ -2880,6 +2877,33 @@
   </si>
   <si>
     <t>Bốn triệu chín trăm năm mươi nghìn đồng chẵn</t>
+  </si>
+  <si>
+    <t>SH.36</t>
+  </si>
+  <si>
+    <t>OCD</t>
+  </si>
+  <si>
+    <t>Hotline</t>
+  </si>
+  <si>
+    <t>Ống bọc cách điện trung thế</t>
+  </si>
+  <si>
+    <t>KẸP QUAI</t>
+  </si>
+  <si>
+    <t>La Ngà / Việt Nam</t>
+  </si>
+  <si>
+    <t>Sóc Lu / Việt Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đá dăm 1x2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Công Thanh / Việt Nam </t>
   </si>
 </sst>
 </file>
@@ -3053,7 +3077,7 @@
     </font>
     <font>
       <u/>
-      <sz val="13"/>
+      <sz val="12"/>
       <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -3268,7 +3292,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3603,30 +3627,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3687,6 +3687,32 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3696,17 +3722,7 @@
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="4"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3975,7 +3991,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6E85A7-B40A-4887-B87C-EAEE490EF58D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD6E85A7-B40A-4887-B87C-EAEE490EF58D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4031,7 +4047,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78336F6-B8EE-492C-BE90-B91532F08161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F78336F6-B8EE-492C-BE90-B91532F08161}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4087,7 +4103,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EE33B0-9F33-4BD9-BAC8-E82B191C6EE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17EE33B0-9F33-4BD9-BAC8-E82B191C6EE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4143,7 +4159,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2BFFC3-2B5E-451D-9351-8DEC5173377D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD2BFFC3-2B5E-451D-9351-8DEC5173377D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4199,7 +4215,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C873A17-B2AA-4D01-A597-03FFBAFD241E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C873A17-B2AA-4D01-A597-03FFBAFD241E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4255,7 +4271,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A664728-7B38-4FF3-85B9-E928518432AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A664728-7B38-4FF3-85B9-E928518432AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -64821,7 +64837,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -64913,7 +64929,7 @@
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
@@ -64939,7 +64955,7 @@
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
@@ -64987,7 +65003,7 @@
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -65009,7 +65025,7 @@
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
@@ -65031,7 +65047,7 @@
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
@@ -65053,7 +65069,7 @@
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
@@ -65071,11 +65087,11 @@
         <v>Tên dự án</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
@@ -65097,7 +65113,7 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -65205,7 +65221,7 @@
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
@@ -65441,7 +65457,7 @@
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
@@ -65463,7 +65479,7 @@
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
@@ -65499,7 +65515,7 @@
         <v>Bảo đảm dự thầu</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="48"/>
@@ -65519,7 +65535,7 @@
         <v>Hình thức đảm bảo</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C32" s="48"/>
       <c r="D32" s="48" t="s">
@@ -65545,7 +65561,7 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -65559,7 +65575,7 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -65569,18 +65585,18 @@
         <v>Loại tiền chuyển đổi</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E35" s="1"/>
       <c r="H35" t="s">
+        <v>633</v>
+      </c>
+      <c r="J35" t="s">
         <v>634</v>
-      </c>
-      <c r="J35" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -65642,7 +65658,7 @@
   <cols>
     <col min="1" max="1" width="78.140625" style="121" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="139" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="129" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="86.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
@@ -65650,532 +65666,532 @@
   <sheetData>
     <row r="1" spans="1:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="C1" s="138" t="s">
         <v>575</v>
       </c>
+      <c r="C1" s="128" t="s">
+        <v>574</v>
+      </c>
       <c r="F1" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>560</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="139">
+      <c r="C2" s="129">
         <f t="shared" ref="C2:C35" si="0">COUNTIF(B:B,B2)</f>
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="139">
+      <c r="C3" s="129">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="139">
+      <c r="C4" s="129">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="139">
+      <c r="C5" s="129">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="139">
+      <c r="C6" s="129">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="139">
+      <c r="C7" s="129">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="139">
+      <c r="C8" s="129">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="139">
+      <c r="C9" s="129">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="139">
+      <c r="C10" s="129">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="139">
+      <c r="C11" s="129">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" s="139">
+      <c r="C12" s="129">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" s="139">
+      <c r="C13" s="129">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
-      <c r="C14" s="139">
+      <c r="C14" s="129">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
-      <c r="C15" s="139">
+      <c r="C15" s="129">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
-      <c r="C16" s="139">
+      <c r="C16" s="129">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
-      <c r="C17" s="139">
+      <c r="C17" s="129">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
-      <c r="C18" s="139">
+      <c r="C18" s="129">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="139">
+      <c r="C19" s="129">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
-      <c r="C20" s="139">
+      <c r="C20" s="129">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B21">
         <v>7</v>
       </c>
-      <c r="C21" s="139">
+      <c r="C21" s="129">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B22">
         <v>8</v>
       </c>
-      <c r="C22" s="139">
+      <c r="C22" s="129">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B23" s="1">
         <v>9</v>
       </c>
-      <c r="C23" s="139">
+      <c r="C23" s="129">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
-      <c r="C24" s="139">
+      <c r="C24" s="129">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B25">
         <v>11</v>
       </c>
-      <c r="C25" s="139">
+      <c r="C25" s="129">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="139">
+      <c r="C26" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="139">
+      <c r="C27" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="139">
+      <c r="C28" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C29" s="139">
+      <c r="C29" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="139">
+      <c r="C30" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="139">
+      <c r="C31" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="139">
+      <c r="C32" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="33" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="139">
+      <c r="C33" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="139">
+      <c r="C34" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="139">
+      <c r="C35" s="129">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E36" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E37" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E38" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -66210,10 +66226,10 @@
         <v>103</v>
       </c>
       <c r="C1" s="116" t="s">
+        <v>561</v>
+      </c>
+      <c r="D1" s="116" t="s">
         <v>562</v>
-      </c>
-      <c r="D1" s="116" t="s">
-        <v>563</v>
       </c>
       <c r="E1" s="113" t="s">
         <v>127</v>
@@ -66249,22 +66265,22 @@
  - Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 4E (tách lưới TBA Xuân Tâm 4B) dài: 231,5m;</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="236.25" x14ac:dyDescent="0.25">
@@ -66284,19 +66300,19 @@
  - Đấu nối đường dây xây dựng mới Tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 cấp điện TBA Xuân Tâm 7B (tách lưới TBA Xuân Tâm 7) dài: 38,4m;</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="150" x14ac:dyDescent="0.25">
@@ -66312,7 +66328,7 @@
         <v xml:space="preserve"> - Nâng cấp đường dây trung thế từ 1 pha lên 3 pha nhánh Cọ Dầu 1, Cọ Dầu 1A  từ cáp AC70+AC50mm2 lên thành 3ACX70mm2+AC50mm2 dài: 223m (sử dụng lại dây trung hòa hiện hữu)  và từ cáp ACX50+AC50mm2 lên thành 3ACX50mm2+AC50mm2 dài: 534 mm (sử dụng lại 1 dây pha và dây trung hòa).</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F4" s="114"/>
       <c r="G4" s="114"/>
@@ -66332,7 +66348,7 @@
         <v xml:space="preserve"> - Nâng cấp đường dây trung thế từ 1 pha lên 3 pha nhánh Cọ Dầu 2 từ cáp AC70+AC50mm2 lên thành 3ACX70mm2+AC50mm2 dài: 479,2m (sử dụng lại dây trung hòa hiện hữu)</v>
       </c>
       <c r="E5" s="121" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F5" s="122"/>
       <c r="G5" s="122"/>
@@ -66352,7 +66368,7 @@
         <v xml:space="preserve"> - Nâng cấp đường dây trung thế từ 1 pha lên 3 pha nhánh Cọ Dầu 3A từ cáp ACX50+AC50mm2 lên thành 3ACX50mm2+AC50mm2 dài: 525mm (sử dụng lại 1 dây pha và dây trung hòa)</v>
       </c>
       <c r="E6" s="121" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F6" s="122"/>
       <c r="G6" s="122"/>
@@ -66376,19 +66392,19 @@
  - Đấu nối đường dây Xây dựng mới đường dây hạ thế 3 pha sau TBA Cọ dầu 2 cáp ABC 4x95mm2 dài 317m.</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="90" x14ac:dyDescent="0.25">
@@ -66404,7 +66420,7 @@
         <v xml:space="preserve"> - Xây dựng mới đường dây hạ thế 3 pha sau TBA Xuân Tâm 4F cáp ABC 4x95mm2 dài 180m (sử dụng trụ hiện hữu) để đấu nối với nhánh rẽ hạ thế bên hông giáo xứ Hiệp Lực tách lưới cho TBA Xuân Tâm 4.</v>
       </c>
       <c r="E8" s="121" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F8" s="121"/>
       <c r="G8" s="121"/>
@@ -66424,7 +66440,7 @@
         <v xml:space="preserve"> - Xây dựng mới đường dây hạ thế 3 pha sau TBA Xuân Tâm 6A cáp ABC 4x95mm2 dài 290,3m để chống lệch pha, giảm TTĐN. Thu hồi đường dây hạ thế 1 pha 2AV70+A50 sử dụng trụ vuông hoàn trả cho cho khách hàng.</v>
       </c>
       <c r="E9" s="121" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F9" s="121"/>
       <c r="H9" s="114"/>
@@ -66443,7 +66459,7 @@
         <v xml:space="preserve"> - Nâng cấp dây dẫn hạ thế hiện hữu sau TBA Cọ Dầu 1 từ 1P cáp ABC3x120mm2 thành cáp 3P cáp ABC 3x120mm2 hiện hữu + A95 dài 997,5m, từ 1P cáp ABC3x95mm2 thành cáp 3P cáp ABC 3x95mm2 hiện hữu + A70 dài 364m,  từ 1P cáp ABC3x70mm2 thành cáp 3P cáp ABC 3x70mm2 hiện hữu + A50 dài 555,5m và từ 1P cáp ABC3x50mm2 thành cáp 3P cáp ABC 3x50mm2 hiện hữu + A50 dài 530m.</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -66463,7 +66479,7 @@
         <v xml:space="preserve"> - Nâng cấp dây dẫn hạ thế hiện hữu sau TBA Cọ Dầu 1A từ 1P cáp ABC3x120mm2 thành cáp 3P cáp ABC 3x120mm2 hiện hữu + A95 dài 264,1m, từ 1P cáp ABC3x50mm2 thành cáp 3P cáp ABC 3x50mm2 hiện hữu + A50 dài 180,3m.</v>
       </c>
       <c r="E11" s="121" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -66483,7 +66499,7 @@
         <v xml:space="preserve"> - Nâng cấp dây dẫn hạ thế hiện hữu sau TBA Cọ Dầu 2 từ 1P cáp 2AV95+A70 mm2 thành ABC4x120mm2 dài 705,5m và từ cáp ABC3x70mm2 thành cáp 3P cáp ABC 4x120mm2 dài 277,8m</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -66504,7 +66520,7 @@
         <v xml:space="preserve"> - Xử lý các tồn tại, thu hồi trụ.</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -66553,7 +66569,7 @@
   </sheetData>
   <autoFilter ref="B1:I15"/>
   <conditionalFormatting sqref="E1:I11 E13:I1048576 E12:G12 I12">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -66595,13 +66611,13 @@
   <sheetData>
     <row r="1" spans="1:22" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>181</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D1" s="27">
         <f>MAX(D2:D1048576)</f>
@@ -66702,7 +66718,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>127</v>
@@ -66744,7 +66760,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>127</v>
@@ -66800,10 +66816,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G5" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H5" s="84" t="s">
         <v>109</v>
@@ -66921,7 +66937,7 @@
         <v>318</v>
       </c>
       <c r="G8" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H8" s="84" t="s">
         <v>109</v>
@@ -66948,7 +66964,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G9" s="86"/>
       <c r="H9" s="84"/>
@@ -67017,7 +67033,7 @@
         <v>316</v>
       </c>
       <c r="G11" s="86" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H11" s="84" t="s">
         <v>109</v>
@@ -67101,10 +67117,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G14" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H14" s="84" t="s">
         <v>109</v>
@@ -67140,10 +67156,10 @@
         <v>7</v>
       </c>
       <c r="F15" s="85" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G15" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H15" s="84" t="s">
         <v>109</v>
@@ -67179,10 +67195,10 @@
         <v>8</v>
       </c>
       <c r="F16" s="85" t="s">
+        <v>520</v>
+      </c>
+      <c r="G16" s="86" t="s">
         <v>521</v>
-      </c>
-      <c r="G16" s="86" t="s">
-        <v>522</v>
       </c>
       <c r="H16" s="84" t="s">
         <v>109</v>
@@ -67218,10 +67234,10 @@
         <v>9</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G17" s="86" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H17" s="84" t="s">
         <v>109</v>
@@ -67332,10 +67348,10 @@
         <v>10</v>
       </c>
       <c r="F21" s="85" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G21" s="86" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H21" s="84" t="s">
         <v>109</v>
@@ -67374,7 +67390,7 @@
         <v>118</v>
       </c>
       <c r="G22" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H22" s="84" t="s">
         <v>109</v>
@@ -67434,10 +67450,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="85" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G24" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H24" s="84" t="s">
         <v>109</v>
@@ -67473,10 +67489,10 @@
         <v>13</v>
       </c>
       <c r="F25" s="85" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G25" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H25" s="84" t="s">
         <v>109</v>
@@ -67540,7 +67556,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="85" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G27" s="86"/>
       <c r="H27" s="84"/>
@@ -67599,7 +67615,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="85" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G29" s="86"/>
       <c r="H29" s="84"/>
@@ -67628,10 +67644,10 @@
         <v>14</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G30" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H30" s="84" t="s">
         <v>109</v>
@@ -67658,7 +67674,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="85" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G31" s="86">
         <v>44015</v>
@@ -67691,10 +67707,10 @@
         <v>15</v>
       </c>
       <c r="F32" s="85" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G32" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H32" s="84" t="s">
         <v>109</v>
@@ -67766,10 +67782,10 @@
         <v>16</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G34" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H34" s="84" t="s">
         <v>109</v>
@@ -67923,7 +67939,7 @@
         <v>124</v>
       </c>
       <c r="G38" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H38" s="84" t="s">
         <v>109</v>
@@ -67959,10 +67975,10 @@
         <v>18</v>
       </c>
       <c r="F39" s="85" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G39" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H39" s="84" t="s">
         <v>109</v>
@@ -68092,10 +68108,10 @@
         <v>19</v>
       </c>
       <c r="F43" s="85" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G43" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H43" s="84" t="s">
         <v>109</v>
@@ -68257,10 +68273,10 @@
         <v>20</v>
       </c>
       <c r="F48" s="85" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G48" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H48" s="84" t="s">
         <v>109</v>
@@ -68296,10 +68312,10 @@
         <v>21</v>
       </c>
       <c r="F49" s="85" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G49" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H49" s="84" t="s">
         <v>109</v>
@@ -68329,7 +68345,7 @@
         <v>21</v>
       </c>
       <c r="F50" s="85" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G50" s="86">
         <v>44014</v>
@@ -68346,7 +68362,7 @@
     </row>
     <row r="51" spans="1:13" ht="16.899999999999999" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D51" s="27">
         <f>COUNTIF($B$1:B51,"x")</f>
@@ -68358,7 +68374,7 @@
       </c>
       <c r="G51" s="86"/>
       <c r="H51" s="84" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I51" s="84"/>
       <c r="K51" s="62"/>
@@ -68385,10 +68401,10 @@
         <v>22</v>
       </c>
       <c r="F52" s="85" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G52" s="86" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H52" s="84" t="s">
         <v>109</v>
@@ -68418,7 +68434,7 @@
         <v>22</v>
       </c>
       <c r="F53" s="85" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G53" s="86">
         <v>44014</v>
@@ -68450,22 +68466,22 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C63" s="24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C64" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65" s="24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
@@ -68475,62 +68491,62 @@
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68" s="24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69" s="24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73" s="24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74" s="24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75" s="24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76" s="24" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78" s="24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -68542,16 +68558,16 @@
     </filterColumn>
   </autoFilter>
   <conditionalFormatting sqref="F54:F1048576 F7:F50 F1:F5">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:F52">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -68587,25 +68603,25 @@
       <c r="D1" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="155" t="s">
+      <c r="E1" s="145" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="155"/>
+      <c r="F1" s="145"/>
       <c r="G1" s="69" t="s">
         <v>213</v>
       </c>
       <c r="I1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J1" s="123">
         <v>3500000000</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="146" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="157" t="s">
+      <c r="C2" s="147" t="s">
         <v>215</v>
       </c>
       <c r="D2" s="70" t="s">
@@ -68617,15 +68633,15 @@
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
       <c r="I2" t="s">
+        <v>566</v>
+      </c>
+      <c r="J2" t="s">
         <v>567</v>
-      </c>
-      <c r="J2" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
       <c r="D3" s="70" t="s">
         <v>208</v>
       </c>
@@ -68635,15 +68651,15 @@
       <c r="F3" s="72"/>
       <c r="G3" s="72"/>
       <c r="I3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J3" s="119" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
+      <c r="B4" s="146"/>
+      <c r="C4" s="147"/>
       <c r="D4" s="70" t="s">
         <v>209</v>
       </c>
@@ -68652,10 +68668,10 @@
       </c>
       <c r="F4" s="72"/>
       <c r="I4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J4" s="119" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L4" t="s">
         <v>228</v>
@@ -68679,10 +68695,10 @@
         <v>2007</v>
       </c>
       <c r="J5" s="120" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
@@ -69008,13 +69024,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D7" s="96">
         <v>42670</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F7">
         <v>1617638971</v>
@@ -69026,7 +69042,7 @@
         <v>42725</v>
       </c>
       <c r="I7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="J7" t="s">
         <v>361</v>
@@ -69101,10 +69117,10 @@
         <v>153</v>
       </c>
       <c r="D1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
@@ -69112,10 +69128,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.25">
@@ -69123,10 +69139,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
@@ -69134,10 +69150,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>588</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
@@ -69145,10 +69161,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>590</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.25">
@@ -69156,10 +69172,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>591</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
@@ -69167,10 +69183,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
@@ -69178,21 +69194,21 @@
         <v>153</v>
       </c>
       <c r="D11" t="s">
+        <v>594</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>596</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="E12" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="135" x14ac:dyDescent="0.25">
@@ -69200,13 +69216,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>598</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="120" x14ac:dyDescent="0.25">
@@ -69214,13 +69230,13 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
+        <v>601</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>602</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="135" x14ac:dyDescent="0.25">
@@ -69228,10 +69244,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
+        <v>603</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>604</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -69257,19 +69273,19 @@
         <v>181</v>
       </c>
       <c r="E1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G1" t="s">
         <v>609</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>610</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>611</v>
-      </c>
-      <c r="I1" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="2" spans="4:9" x14ac:dyDescent="0.25">
@@ -69278,7 +69294,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F2" t="s">
         <v>109</v>
@@ -69299,7 +69315,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F3" t="s">
         <v>109</v>
@@ -69374,7 +69390,7 @@
         <v>29460</v>
       </c>
       <c r="I6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.25">
@@ -69395,7 +69411,7 @@
         <v>26037</v>
       </c>
       <c r="I7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.25">
@@ -69407,7 +69423,7 @@
         <v>136</v>
       </c>
       <c r="F8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G8">
         <v>271285313</v>
@@ -69416,7 +69432,7 @@
         <v>28333</v>
       </c>
       <c r="I8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.25">
@@ -69425,10 +69441,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G9">
         <v>271485073</v>
@@ -69437,7 +69453,7 @@
         <v>29601</v>
       </c>
       <c r="I9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.25">
@@ -69446,10 +69462,10 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G10">
         <v>271316993</v>
@@ -69458,7 +69474,7 @@
         <v>29130</v>
       </c>
       <c r="I10" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
@@ -69470,7 +69486,7 @@
         <v>152</v>
       </c>
       <c r="F11" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G11">
         <v>271483902</v>
@@ -69479,7 +69495,7 @@
         <v>29749</v>
       </c>
       <c r="I11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.25">
@@ -69488,7 +69504,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F12">
         <v>272282903</v>
@@ -69506,7 +69522,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F13" t="s">
         <v>109</v>
@@ -69527,7 +69543,7 @@
         <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F14" t="s">
         <v>109</v>
@@ -69602,7 +69618,7 @@
         <v>32228</v>
       </c>
       <c r="I17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
@@ -69623,7 +69639,7 @@
         <v>27706</v>
       </c>
       <c r="I18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.25">
@@ -69644,7 +69660,7 @@
         <v>30671</v>
       </c>
       <c r="I19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.25">
@@ -69653,10 +69669,10 @@
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G20">
         <v>214523467</v>
@@ -69665,7 +69681,7 @@
         <v>30596</v>
       </c>
       <c r="I20" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.25">
@@ -69674,10 +69690,10 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F21" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G21">
         <v>271172296</v>
@@ -69686,7 +69702,7 @@
         <v>27534</v>
       </c>
       <c r="I21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.25">
@@ -69695,7 +69711,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F22" t="s">
         <v>109</v>
@@ -69719,7 +69735,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F23" t="s">
         <v>109</v>
@@ -69743,7 +69759,7 @@
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F24" t="s">
         <v>109</v>
@@ -69767,7 +69783,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F25" t="s">
         <v>109</v>
@@ -69791,7 +69807,7 @@
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F26" t="s">
         <v>109</v>
@@ -69875,10 +69891,10 @@
         <v>26845</v>
       </c>
       <c r="I29" s="79" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J29" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.25">
@@ -69899,10 +69915,10 @@
         <v>30730</v>
       </c>
       <c r="I30" s="79" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J30" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.25">
@@ -69923,10 +69939,10 @@
         <v>30193</v>
       </c>
       <c r="I31" s="79" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.25">
@@ -69935,7 +69951,7 @@
         <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F32" t="s">
         <v>109</v>
@@ -69956,7 +69972,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F33" t="s">
         <v>109</v>
@@ -69977,7 +69993,7 @@
         <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F34" t="s">
         <v>109</v>
@@ -69998,7 +70014,7 @@
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F35" t="s">
         <v>109</v>
@@ -70019,7 +70035,7 @@
         <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F36" t="s">
         <v>109</v>
@@ -70061,10 +70077,10 @@
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G38">
         <v>271229202</v>
@@ -70073,7 +70089,7 @@
         <v>28052</v>
       </c>
       <c r="I38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
@@ -70082,19 +70098,19 @@
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F39" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G39">
         <v>272526412</v>
       </c>
       <c r="H39" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I39" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
@@ -70103,10 +70119,10 @@
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F40" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G40">
         <v>271601608</v>
@@ -70115,7 +70131,7 @@
         <v>30303</v>
       </c>
       <c r="I40" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
@@ -70127,7 +70143,7 @@
         <v>129</v>
       </c>
       <c r="F41" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G41">
         <v>271298968</v>
@@ -70136,7 +70152,7 @@
         <v>28217</v>
       </c>
       <c r="I41" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
@@ -70145,7 +70161,7 @@
         <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F42" t="s">
         <v>109</v>
@@ -70162,7 +70178,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -70190,29 +70206,29 @@
         <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E1" t="s">
         <v>436</v>
       </c>
       <c r="F1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D2" t="s">
         <v>641</v>
-      </c>
-      <c r="D2" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="3" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
+        <v>642</v>
+      </c>
+      <c r="E3" t="s">
         <v>643</v>
-      </c>
-      <c r="E3" t="s">
-        <v>644</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -70220,37 +70236,37 @@
     </row>
     <row r="4" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E5" t="s">
         <v>646</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>647</v>
-      </c>
-      <c r="F5" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
+        <v>648</v>
+      </c>
+      <c r="E6" t="s">
         <v>649</v>
       </c>
-      <c r="E6" t="s">
-        <v>650</v>
-      </c>
       <c r="F6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="7" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E7" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -70258,15 +70274,15 @@
     </row>
     <row r="8" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F9" s="125">
         <v>1368</v>
@@ -70274,32 +70290,32 @@
     </row>
     <row r="10" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
+        <v>652</v>
+      </c>
+      <c r="E10" t="s">
         <v>653</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>654</v>
-      </c>
-      <c r="F10" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
+        <v>655</v>
+      </c>
+      <c r="E11" t="s">
+        <v>649</v>
+      </c>
+      <c r="F11" t="s">
         <v>656</v>
-      </c>
-      <c r="E11" t="s">
-        <v>650</v>
-      </c>
-      <c r="F11" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F12" s="125">
         <v>1207</v>
@@ -70307,10 +70323,10 @@
     </row>
     <row r="13" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E13" t="s">
         <v>659</v>
-      </c>
-      <c r="E13" t="s">
-        <v>660</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -70318,10 +70334,10 @@
     </row>
     <row r="14" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E14" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -70329,10 +70345,10 @@
     </row>
     <row r="15" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -70340,62 +70356,62 @@
     </row>
     <row r="16" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E16" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
+        <v>663</v>
+      </c>
+      <c r="E17" t="s">
+        <v>653</v>
+      </c>
+      <c r="F17" t="s">
         <v>664</v>
-      </c>
-      <c r="E17" t="s">
-        <v>654</v>
-      </c>
-      <c r="F17" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="18" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
+        <v>665</v>
+      </c>
+      <c r="E18" t="s">
+        <v>649</v>
+      </c>
+      <c r="F18" t="s">
         <v>666</v>
-      </c>
-      <c r="E18" t="s">
-        <v>650</v>
-      </c>
-      <c r="F18" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="19" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
+        <v>667</v>
+      </c>
+      <c r="E19" t="s">
+        <v>649</v>
+      </c>
+      <c r="F19" t="s">
         <v>668</v>
-      </c>
-      <c r="E19" t="s">
-        <v>650</v>
-      </c>
-      <c r="F19" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="20" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
+        <v>669</v>
+      </c>
+      <c r="E20" t="s">
+        <v>649</v>
+      </c>
+      <c r="F20" t="s">
         <v>670</v>
-      </c>
-      <c r="E20" t="s">
-        <v>650</v>
-      </c>
-      <c r="F20" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="21" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F21" s="125">
         <v>4480</v>
@@ -70403,10 +70419,10 @@
     </row>
     <row r="22" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E22" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F22" s="125">
         <v>2220</v>
@@ -70414,21 +70430,21 @@
     </row>
     <row r="23" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
+        <v>648</v>
+      </c>
+      <c r="E23" t="s">
         <v>649</v>
       </c>
-      <c r="E23" t="s">
-        <v>650</v>
-      </c>
       <c r="F23" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="24" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F24" s="125">
         <v>1368</v>
@@ -70436,10 +70452,10 @@
     </row>
     <row r="25" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
+        <v>675</v>
+      </c>
+      <c r="E25" t="s">
         <v>676</v>
-      </c>
-      <c r="E25" t="s">
-        <v>677</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -70447,15 +70463,15 @@
     </row>
     <row r="26" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E27" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F27" s="125">
         <v>2912</v>
@@ -70463,10 +70479,10 @@
     </row>
     <row r="28" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
+        <v>679</v>
+      </c>
+      <c r="E28" t="s">
         <v>680</v>
-      </c>
-      <c r="E28" t="s">
-        <v>681</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -70474,10 +70490,10 @@
     </row>
     <row r="29" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E29" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -70485,10 +70501,10 @@
     </row>
     <row r="30" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
+        <v>682</v>
+      </c>
+      <c r="E30" t="s">
         <v>683</v>
-      </c>
-      <c r="E30" t="s">
-        <v>684</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -70496,10 +70512,10 @@
     </row>
     <row r="31" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E31" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -70507,32 +70523,32 @@
     </row>
     <row r="32" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
+        <v>685</v>
+      </c>
+      <c r="E32" t="s">
+        <v>659</v>
+      </c>
+      <c r="F32" t="s">
         <v>686</v>
-      </c>
-      <c r="E32" t="s">
-        <v>660</v>
-      </c>
-      <c r="F32" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E33" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F33" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="34" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E34" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F34" s="125">
         <v>2912</v>
@@ -70540,10 +70556,10 @@
     </row>
     <row r="35" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E35" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -70551,10 +70567,10 @@
     </row>
     <row r="36" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E36" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -70562,7 +70578,7 @@
     </row>
     <row r="37" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
@@ -70570,7 +70586,7 @@
         <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F38" s="125">
         <v>6720</v>
@@ -70578,10 +70594,10 @@
     </row>
     <row r="39" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
+        <v>679</v>
+      </c>
+      <c r="E39" t="s">
         <v>680</v>
-      </c>
-      <c r="E39" t="s">
-        <v>681</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -70589,10 +70605,10 @@
     </row>
     <row r="40" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E40" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -70600,10 +70616,10 @@
     </row>
     <row r="41" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E41" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -70611,10 +70627,10 @@
     </row>
     <row r="42" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E42" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F42" s="125">
         <v>1550</v>
@@ -70622,10 +70638,10 @@
     </row>
     <row r="43" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E43" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F43" s="125">
         <v>1550</v>
@@ -70633,10 +70649,10 @@
     </row>
     <row r="44" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E44" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F44" s="125">
         <v>6720</v>
@@ -70644,10 +70660,10 @@
     </row>
     <row r="45" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E45" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -70655,21 +70671,21 @@
     </row>
     <row r="46" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
+        <v>692</v>
+      </c>
+      <c r="D46" t="s">
         <v>693</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>694</v>
-      </c>
-      <c r="E46" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
+        <v>695</v>
+      </c>
+      <c r="E47" t="s">
         <v>696</v>
-      </c>
-      <c r="E47" t="s">
-        <v>697</v>
       </c>
       <c r="F47">
         <v>42</v>
@@ -70677,15 +70693,15 @@
     </row>
     <row r="48" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="49" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
+        <v>697</v>
+      </c>
+      <c r="E49" t="s">
         <v>698</v>
-      </c>
-      <c r="E49" t="s">
-        <v>699</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -70693,10 +70709,10 @@
     </row>
     <row r="50" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E50" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -70704,18 +70720,18 @@
     </row>
     <row r="51" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
+        <v>700</v>
+      </c>
+      <c r="D51" t="s">
         <v>701</v>
-      </c>
-      <c r="D51" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="52" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E52" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -70723,15 +70739,15 @@
     </row>
     <row r="53" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="54" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E54" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -70739,10 +70755,10 @@
     </row>
     <row r="55" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E55" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -70750,10 +70766,10 @@
     </row>
     <row r="56" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E56" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -70761,10 +70777,10 @@
     </row>
     <row r="57" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E57" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -70772,10 +70788,10 @@
     </row>
     <row r="58" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E58" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -70783,10 +70799,10 @@
     </row>
     <row r="59" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E59" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -70794,10 +70810,10 @@
     </row>
     <row r="60" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E60" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -70805,10 +70821,10 @@
     </row>
     <row r="61" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E61" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -70816,15 +70832,15 @@
     </row>
     <row r="62" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="63" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E63" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -70832,10 +70848,10 @@
     </row>
     <row r="64" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E64" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -70843,10 +70859,10 @@
     </row>
     <row r="65" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E65" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F65">
         <v>3</v>
@@ -70854,10 +70870,10 @@
     </row>
     <row r="66" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E66" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -70865,10 +70881,10 @@
     </row>
     <row r="67" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E67" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -70876,10 +70892,10 @@
     </row>
     <row r="68" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E68" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -70887,10 +70903,10 @@
     </row>
     <row r="69" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E69" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F69">
         <v>21</v>
@@ -70898,15 +70914,15 @@
     </row>
     <row r="70" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="71" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E71" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -70914,10 +70930,10 @@
     </row>
     <row r="72" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E72" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -70925,10 +70941,10 @@
     </row>
     <row r="73" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E73" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -70936,10 +70952,10 @@
     </row>
     <row r="74" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E74" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -70947,10 +70963,10 @@
     </row>
     <row r="75" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E75" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -70958,10 +70974,10 @@
     </row>
     <row r="76" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E76" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F76">
         <v>8</v>
@@ -70969,15 +70985,15 @@
     </row>
     <row r="77" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="78" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E78" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -70985,10 +71001,10 @@
     </row>
     <row r="79" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E79" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -70996,10 +71012,10 @@
     </row>
     <row r="80" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E80" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F80">
         <v>3</v>
@@ -71007,10 +71023,10 @@
     </row>
     <row r="81" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E81" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -71018,10 +71034,10 @@
     </row>
     <row r="82" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E82" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -71029,10 +71045,10 @@
     </row>
     <row r="83" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E83" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -71040,10 +71056,10 @@
     </row>
     <row r="84" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E84" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F84">
         <v>7</v>
@@ -71051,15 +71067,15 @@
     </row>
     <row r="85" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="86" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E86" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -71067,10 +71083,10 @@
     </row>
     <row r="87" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E87" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F87">
         <v>4</v>
@@ -71078,10 +71094,10 @@
     </row>
     <row r="88" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E88" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -71089,10 +71105,10 @@
     </row>
     <row r="89" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E89" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -71100,10 +71116,10 @@
     </row>
     <row r="90" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E90" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F90">
         <v>4</v>
@@ -71111,10 +71127,10 @@
     </row>
     <row r="91" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E91" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -71122,10 +71138,10 @@
     </row>
     <row r="92" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E92" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -71133,15 +71149,15 @@
     </row>
     <row r="93" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="94" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E94" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -71149,10 +71165,10 @@
     </row>
     <row r="95" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E95" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F95">
         <v>4</v>
@@ -71160,10 +71176,10 @@
     </row>
     <row r="96" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E96" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -71171,10 +71187,10 @@
     </row>
     <row r="97" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E97" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F97">
         <v>4</v>
@@ -71182,10 +71198,10 @@
     </row>
     <row r="98" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E98" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F98">
         <v>4</v>
@@ -71193,10 +71209,10 @@
     </row>
     <row r="99" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E99" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -71204,10 +71220,10 @@
     </row>
     <row r="100" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E100" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F100">
         <v>10</v>
@@ -71215,15 +71231,15 @@
     </row>
     <row r="101" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="102" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E102" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -71231,10 +71247,10 @@
     </row>
     <row r="103" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E103" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -71242,10 +71258,10 @@
     </row>
     <row r="104" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E104" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F104">
         <v>8</v>
@@ -71253,13 +71269,13 @@
     </row>
     <row r="105" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
+        <v>731</v>
+      </c>
+      <c r="E105" t="s">
         <v>732</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>733</v>
-      </c>
-      <c r="F105" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="106" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
@@ -71267,7 +71283,7 @@
         <v>56</v>
       </c>
       <c r="E106" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -71275,10 +71291,10 @@
     </row>
     <row r="107" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E107" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -71286,10 +71302,10 @@
     </row>
     <row r="108" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E108" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -71297,10 +71313,10 @@
     </row>
     <row r="109" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E109" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F109">
         <v>2</v>
@@ -71308,15 +71324,15 @@
     </row>
     <row r="110" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="111" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E111" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -71324,10 +71340,10 @@
     </row>
     <row r="112" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E112" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -71335,10 +71351,10 @@
     </row>
     <row r="113" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E113" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F113">
         <v>8</v>
@@ -71346,21 +71362,21 @@
     </row>
     <row r="114" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
+        <v>737</v>
+      </c>
+      <c r="E114" t="s">
+        <v>732</v>
+      </c>
+      <c r="F114" t="s">
         <v>738</v>
-      </c>
-      <c r="E114" t="s">
-        <v>733</v>
-      </c>
-      <c r="F114" t="s">
-        <v>739</v>
       </c>
     </row>
     <row r="115" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E115" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -71371,7 +71387,7 @@
         <v>56</v>
       </c>
       <c r="E116" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -71379,10 +71395,10 @@
     </row>
     <row r="117" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E117" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -71390,10 +71406,10 @@
     </row>
     <row r="118" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E118" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -71401,10 +71417,10 @@
     </row>
     <row r="119" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E119" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F119">
         <v>10</v>
@@ -71412,15 +71428,15 @@
     </row>
     <row r="120" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="121" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E121" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -71428,10 +71444,10 @@
     </row>
     <row r="122" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E122" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -71439,32 +71455,32 @@
     </row>
     <row r="123" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
+        <v>744</v>
+      </c>
+      <c r="E123" t="s">
+        <v>646</v>
+      </c>
+      <c r="F123" t="s">
         <v>745</v>
-      </c>
-      <c r="E123" t="s">
-        <v>647</v>
-      </c>
-      <c r="F123" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="124" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
+        <v>648</v>
+      </c>
+      <c r="E124" t="s">
         <v>649</v>
       </c>
-      <c r="E124" t="s">
-        <v>650</v>
-      </c>
       <c r="F124" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="125" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E125" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -71472,15 +71488,15 @@
     </row>
     <row r="126" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="127" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E127" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -71488,10 +71504,10 @@
     </row>
     <row r="128" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E128" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -71499,32 +71515,32 @@
     </row>
     <row r="129" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E129" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F129" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="130" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
+        <v>648</v>
+      </c>
+      <c r="E130" t="s">
         <v>649</v>
       </c>
-      <c r="E130" t="s">
-        <v>650</v>
-      </c>
       <c r="F130" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="131" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E131" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F131">
         <v>26</v>
@@ -71532,15 +71548,15 @@
     </row>
     <row r="132" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="133" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E133" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -71548,10 +71564,10 @@
     </row>
     <row r="134" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E134" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -71559,10 +71575,10 @@
     </row>
     <row r="135" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E135" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -71570,10 +71586,10 @@
     </row>
     <row r="136" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E136" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F136">
         <v>5</v>
@@ -71581,15 +71597,15 @@
     </row>
     <row r="137" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="138" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E138" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -71597,10 +71613,10 @@
     </row>
     <row r="139" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E139" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -71608,10 +71624,10 @@
     </row>
     <row r="140" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
+        <v>658</v>
+      </c>
+      <c r="E140" t="s">
         <v>659</v>
-      </c>
-      <c r="E140" t="s">
-        <v>660</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -71619,10 +71635,10 @@
     </row>
     <row r="141" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E141" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F141">
         <v>14</v>
@@ -71630,15 +71646,15 @@
     </row>
     <row r="142" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="143" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E143" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -71646,10 +71662,10 @@
     </row>
     <row r="144" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D144" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E144" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -71657,10 +71673,10 @@
     </row>
     <row r="145" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E145" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F145">
         <v>136</v>
@@ -71668,15 +71684,15 @@
     </row>
     <row r="146" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="147" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E147" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -71684,10 +71700,10 @@
     </row>
     <row r="148" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E148" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -71695,10 +71711,10 @@
     </row>
     <row r="149" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E149" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F149">
         <v>42</v>
@@ -71706,7 +71722,7 @@
     </row>
     <row r="150" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="151" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
@@ -71714,7 +71730,7 @@
         <v>96</v>
       </c>
       <c r="E151" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -71722,10 +71738,10 @@
     </row>
     <row r="152" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E152" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F152">
         <v>2</v>
@@ -71733,10 +71749,10 @@
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E153" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -71744,10 +71760,10 @@
     </row>
     <row r="154" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
+        <v>762</v>
+      </c>
+      <c r="D154" t="s">
         <v>763</v>
-      </c>
-      <c r="D154" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="155" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
@@ -71755,10 +71771,10 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
+        <v>764</v>
+      </c>
+      <c r="E155" t="s">
         <v>765</v>
-      </c>
-      <c r="E155" t="s">
-        <v>766</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -71766,43 +71782,43 @@
     </row>
     <row r="156" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
+        <v>766</v>
+      </c>
+      <c r="E156" t="s">
+        <v>653</v>
+      </c>
+      <c r="F156" t="s">
         <v>767</v>
-      </c>
-      <c r="E156" t="s">
-        <v>654</v>
-      </c>
-      <c r="F156" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="157" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
+        <v>768</v>
+      </c>
+      <c r="E157" t="s">
+        <v>732</v>
+      </c>
+      <c r="F157" t="s">
         <v>769</v>
-      </c>
-      <c r="E157" t="s">
-        <v>733</v>
-      </c>
-      <c r="F157" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="158" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
+        <v>770</v>
+      </c>
+      <c r="E158" t="s">
+        <v>732</v>
+      </c>
+      <c r="F158" t="s">
         <v>771</v>
-      </c>
-      <c r="E158" t="s">
-        <v>733</v>
-      </c>
-      <c r="F158" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="159" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
+        <v>682</v>
+      </c>
+      <c r="E159" t="s">
         <v>683</v>
-      </c>
-      <c r="E159" t="s">
-        <v>684</v>
       </c>
       <c r="F159">
         <v>2</v>
@@ -71810,10 +71826,10 @@
     </row>
     <row r="160" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E160" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F160">
         <v>2</v>
@@ -71821,10 +71837,10 @@
     </row>
     <row r="161" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E161" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F161">
         <v>15</v>
@@ -71832,10 +71848,10 @@
     </row>
     <row r="162" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E162" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F162">
         <v>15</v>
@@ -71843,10 +71859,10 @@
     </row>
     <row r="163" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E163" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F163">
         <v>8</v>
@@ -71854,65 +71870,65 @@
     </row>
     <row r="164" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
+        <v>776</v>
+      </c>
+      <c r="E164" t="s">
+        <v>683</v>
+      </c>
+      <c r="F164" t="s">
         <v>777</v>
-      </c>
-      <c r="E164" t="s">
-        <v>684</v>
-      </c>
-      <c r="F164" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="165" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
+        <v>778</v>
+      </c>
+      <c r="E165" t="s">
         <v>779</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>780</v>
-      </c>
-      <c r="F165" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="166" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
+        <v>781</v>
+      </c>
+      <c r="E166" t="s">
+        <v>779</v>
+      </c>
+      <c r="F166" t="s">
         <v>782</v>
-      </c>
-      <c r="E166" t="s">
-        <v>780</v>
-      </c>
-      <c r="F166" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="167" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E167" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F167" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="168" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
+        <v>784</v>
+      </c>
+      <c r="E168" t="s">
+        <v>653</v>
+      </c>
+      <c r="F168" t="s">
         <v>785</v>
-      </c>
-      <c r="E168" t="s">
-        <v>654</v>
-      </c>
-      <c r="F168" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="169" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D169" t="s">
+        <v>786</v>
+      </c>
+      <c r="E169" t="s">
         <v>787</v>
-      </c>
-      <c r="E169" t="s">
-        <v>788</v>
       </c>
       <c r="F169">
         <v>5</v>
@@ -71920,10 +71936,10 @@
     </row>
     <row r="170" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D170" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E170" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F170">
         <v>5</v>
@@ -71931,10 +71947,10 @@
     </row>
     <row r="171" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D171" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E171" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -71942,10 +71958,10 @@
     </row>
     <row r="172" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D172" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E172" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -71953,21 +71969,21 @@
     </row>
     <row r="173" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
+        <v>790</v>
+      </c>
+      <c r="E173" t="s">
         <v>791</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>792</v>
-      </c>
-      <c r="F173" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="174" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E174" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F174" s="125">
         <v>3717</v>
@@ -71975,15 +71991,15 @@
     </row>
     <row r="175" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D175" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="176" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D176" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E176" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F176">
         <v>5</v>
@@ -71991,10 +72007,10 @@
     </row>
     <row r="177" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D177" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E177" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F177">
         <v>6</v>
@@ -72017,10 +72033,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72077,7 +72093,7 @@
         <v>13</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L1" s="15" t="s">
         <v>163</v>
@@ -72102,7 +72118,7 @@
       </c>
       <c r="T1" s="77"/>
     </row>
-    <row r="2" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="str">
         <f t="shared" ref="A2:A3" si="0">VLOOKUP("Số TBMT",tbmt,4,0)</f>
         <v>20200518387-01</v>
@@ -72150,7 +72166,7 @@
         <v>16/05/2021</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="str">
         <f t="shared" si="0"/>
         <v>20200518387-01</v>
@@ -72167,17 +72183,23 @@
         <f t="shared" si="3"/>
         <v>Điện lực Xuân Lộc</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="18">
+        <v>60</v>
+      </c>
       <c r="F3" s="19" t="str">
         <f t="shared" si="4"/>
         <v>4.950.000 VND</v>
       </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="18">
+        <v>120</v>
+      </c>
       <c r="H3" s="60">
         <f t="shared" si="5"/>
         <v>43973.625</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="16">
+        <v>5</v>
+      </c>
       <c r="J3" s="19">
         <f>VLOOKUP("Thời gian thực hiện hợp đồng",tbmt,4,0)</f>
         <v>220</v>
@@ -72200,13 +72222,13 @@
     </row>
     <row r="4" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
+        <v>797</v>
+      </c>
+      <c r="B4" s="18" t="s">
         <v>798</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>799</v>
-      </c>
       <c r="C4" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>258</v>
@@ -72215,7 +72237,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G4" s="18">
         <v>120</v>
@@ -72233,33 +72255,33 @@
         <v>12</v>
       </c>
       <c r="L4" s="124" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M4" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="N4" s="124" t="s">
         <v>800</v>
-      </c>
-      <c r="N4" s="124" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E5" s="18">
         <v>60</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G5" s="18">
         <v>90</v>
@@ -72277,31 +72299,31 @@
         <v>12</v>
       </c>
       <c r="L5" s="124" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M5" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="N5" s="124" t="s">
         <v>636</v>
-      </c>
-      <c r="N5" s="124" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>617</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>618</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>619</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>258</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G6" s="18"/>
       <c r="H6" s="76">
@@ -72313,13 +72335,13 @@
       </c>
       <c r="K6" s="18"/>
       <c r="L6" s="124" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M6" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="N6" s="124" t="s">
         <v>620</v>
-      </c>
-      <c r="N6" s="124" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="45" x14ac:dyDescent="0.25">
@@ -72366,7 +72388,7 @@
         <v xml:space="preserve"> ngày 05 tháng 01 năm 2020</v>
       </c>
       <c r="N7" s="78" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -72750,7 +72772,7 @@
         <v>43909.34375</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N16" s="80">
         <v>44274.34375</v>
@@ -72758,10 +72780,10 @@
     </row>
     <row r="17" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
+        <v>481</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>482</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>483</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>274</v>
@@ -72796,10 +72818,10 @@
     </row>
     <row r="18" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>487</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>488</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>274</v>
@@ -72811,7 +72833,7 @@
         <v>12</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G18" s="18" t="e">
         <v>#N/A</v>
@@ -72829,18 +72851,18 @@
         <v>276</v>
       </c>
       <c r="N18" s="82" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>490</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>492</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>491</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>258</v>
@@ -72864,7 +72886,7 @@
         <v>43926</v>
       </c>
       <c r="M19" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N19" s="56">
         <v>44291</v>
@@ -72872,10 +72894,10 @@
     </row>
     <row r="20" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>500</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>501</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>273</v>
@@ -72903,7 +72925,7 @@
         <v>43967</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N20" s="49" t="str">
         <f>TEXT(L20+365,"dd/MM/yyyy")</f>
@@ -72912,22 +72934,22 @@
     </row>
     <row r="21" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>556</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>551</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>552</v>
       </c>
       <c r="E21" s="18">
         <v>100</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>14</v>
@@ -72948,18 +72970,18 @@
         <v>43948</v>
       </c>
       <c r="M21" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="N21" s="56" t="s">
         <v>558</v>
-      </c>
-      <c r="N21" s="56" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>577</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>578</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>258</v>
@@ -72971,7 +72993,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>14</v>
@@ -72992,40 +73014,40 @@
         <v>43943</v>
       </c>
       <c r="M22" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="N22" s="56" t="s">
         <v>580</v>
-      </c>
-      <c r="N22" s="56" t="s">
-        <v>581</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A23:A1048576 A7:A13 A1">
-    <cfRule type="duplicateValues" dxfId="23" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="22" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:XFD1">
-    <cfRule type="duplicateValues" dxfId="20" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:A22 A6">
-    <cfRule type="duplicateValues" dxfId="18" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="17" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="16" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -73502,530 +73524,680 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="62"/>
-    <col min="4" max="4" width="26" style="130" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="62"/>
-    <col min="6" max="6" width="27" style="62" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="62" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="62" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="62"/>
+    <col min="1" max="3" width="8.85546875" style="150"/>
+    <col min="4" max="4" width="33.85546875" style="151" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="150"/>
+    <col min="6" max="6" width="27" style="150" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="150" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="150" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="150"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="128" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="128" t="s">
+    <row r="1" spans="1:10" s="148" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="148" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="149" t="s">
         <v>438</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="148" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="128" t="s">
+      <c r="F1" s="148" t="s">
         <v>435</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="148" t="s">
         <v>436</v>
       </c>
-      <c r="H1" s="128" t="s">
+      <c r="H1" s="148" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="130" t="s">
+      <c r="D2" s="151" t="s">
         <v>458</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="152" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="151" t="s">
         <v>458</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="150" t="s">
         <v>440</v>
       </c>
-      <c r="H3" s="131" t="s">
+      <c r="H3" s="152" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="151" t="s">
         <v>458</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="150" t="s">
         <v>442</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="152" t="s">
         <v>443</v>
       </c>
-      <c r="J4" s="132"/>
+      <c r="J4" s="153"/>
     </row>
-    <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="130" t="s">
+    <row r="5" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="134" t="s">
+      <c r="E5" s="154"/>
+      <c r="F5" s="155" t="s">
         <v>445</v>
       </c>
-      <c r="H5" s="134" t="s">
+      <c r="H5" s="155" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="130" t="s">
+    <row r="6" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="E6" s="133"/>
-      <c r="F6" s="134" t="s">
+      <c r="E6" s="154"/>
+      <c r="F6" s="155" t="s">
         <v>446</v>
       </c>
-      <c r="H6" s="134" t="s">
+      <c r="H6" s="155" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="130" t="s">
+    <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="E7" s="133"/>
-      <c r="F7" s="134" t="s">
+      <c r="E7" s="154"/>
+      <c r="F7" s="155" t="s">
         <v>447</v>
       </c>
-      <c r="H7" s="135" t="s">
+      <c r="H7" s="156" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="130" t="s">
+      <c r="D8" s="151" t="s">
         <v>337</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="150" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="130" t="s">
+      <c r="D9" s="151" t="s">
         <v>337</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="150" t="s">
         <v>440</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="150" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="130" t="s">
+      <c r="D10" s="151" t="s">
         <v>337</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="150" t="s">
         <v>442</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="150" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="136" t="s">
+    <row r="11" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="157" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="134" t="s">
+      <c r="F11" s="155" t="s">
         <v>445</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="150" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="136" t="s">
+    <row r="12" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="157" t="s">
         <v>461</v>
       </c>
-      <c r="F12" s="134" t="s">
+      <c r="F12" s="155" t="s">
         <v>446</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="150" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="136" t="s">
+    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="157" t="s">
         <v>461</v>
       </c>
-      <c r="F13" s="134" t="s">
+      <c r="F13" s="155" t="s">
         <v>447</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="150" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="130" t="s">
+      <c r="D14" s="151" t="s">
         <v>462</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="150" t="s">
         <v>445</v>
       </c>
-      <c r="H14" s="131" t="s">
+      <c r="H14" s="152" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="130" t="s">
+      <c r="D15" s="151" t="s">
         <v>462</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="150" t="s">
         <v>446</v>
       </c>
-      <c r="H15" s="131" t="s">
+      <c r="H15" s="152" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D16" s="130" t="s">
+      <c r="D16" s="151" t="s">
         <v>462</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="150" t="s">
         <v>447</v>
       </c>
-      <c r="H16" s="137" t="s">
+      <c r="H16" s="158" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="130" t="s">
+      <c r="D17" s="151" t="s">
         <v>464</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="150" t="s">
         <v>445</v>
       </c>
-      <c r="H17" s="131" t="s">
+      <c r="H17" s="152" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="130" t="s">
+      <c r="D18" s="151" t="s">
         <v>464</v>
       </c>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="150" t="s">
         <v>446</v>
       </c>
-      <c r="H18" s="131" t="s">
+      <c r="H18" s="152" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="130" t="s">
+      <c r="D19" s="151" t="s">
         <v>464</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="150" t="s">
         <v>447</v>
       </c>
-      <c r="H19" s="137" t="s">
+      <c r="H19" s="158" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="130" t="s">
+      <c r="D20" s="151" t="s">
         <v>465</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="150" t="s">
         <v>445</v>
       </c>
-      <c r="H20" s="131" t="s">
+      <c r="H20" s="152" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="21" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="130" t="s">
+      <c r="D21" s="151" t="s">
         <v>465</v>
       </c>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="150" t="s">
         <v>446</v>
       </c>
-      <c r="H21" s="131" t="s">
+      <c r="H21" s="152" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="22" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="130" t="s">
+      <c r="D22" s="151" t="s">
         <v>465</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="150" t="s">
         <v>447</v>
       </c>
-      <c r="H22" s="137" t="s">
+      <c r="H22" s="158" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="23" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="130" t="s">
+      <c r="D23" s="151" t="s">
         <v>466</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="150" t="s">
         <v>470</v>
       </c>
-      <c r="H23" s="62" t="s">
+      <c r="H23" s="150" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="24" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="130" t="s">
+      <c r="D24" s="151" t="s">
         <v>469</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="150" t="s">
         <v>445</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="H24" s="150" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="25" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="130" t="s">
+      <c r="D25" s="151" t="s">
         <v>469</v>
       </c>
-      <c r="F25" s="62" t="s">
+      <c r="F25" s="150" t="s">
         <v>446</v>
       </c>
-      <c r="H25" s="62" t="s">
+      <c r="H25" s="150" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="26" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="151" t="s">
         <v>469</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="150" t="s">
         <v>447</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="150" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="27" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="130" t="s">
+      <c r="D27" s="151" t="s">
         <v>477</v>
       </c>
-      <c r="F27" s="62" t="s">
+      <c r="F27" s="150" t="s">
         <v>445</v>
       </c>
-      <c r="H27" s="131" t="s">
+      <c r="H27" s="152" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="28" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="130" t="s">
+      <c r="D28" s="151" t="s">
         <v>477</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="150" t="s">
         <v>446</v>
       </c>
-      <c r="H28" s="131" t="s">
+      <c r="H28" s="152" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="29" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D29" s="130" t="s">
+      <c r="D29" s="151" t="s">
         <v>477</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="150" t="s">
         <v>447</v>
       </c>
-      <c r="H29" s="137" t="s">
+      <c r="H29" s="158" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="30" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="159" t="s">
         <v>478</v>
       </c>
-      <c r="F30" s="62" t="s">
+      <c r="F30" s="150" t="s">
         <v>445</v>
       </c>
-      <c r="H30" s="131" t="s">
+      <c r="H30" s="152" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="31" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="159" t="s">
         <v>478</v>
       </c>
-      <c r="F31" s="62" t="s">
+      <c r="F31" s="150" t="s">
         <v>446</v>
       </c>
-      <c r="H31" s="131" t="s">
+      <c r="H31" s="152" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="32" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="159" t="s">
         <v>478</v>
       </c>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="150" t="s">
         <v>447</v>
       </c>
-      <c r="H32" s="137" t="s">
+      <c r="H32" s="158" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="33" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D33" s="130" t="s">
+      <c r="D33" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="F33" s="62" t="s">
+      <c r="F33" s="150" t="s">
         <v>445</v>
       </c>
-      <c r="H33" s="62" t="s">
+      <c r="H33" s="150" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="34" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D34" s="130" t="s">
+      <c r="D34" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="F34" s="62" t="s">
+      <c r="F34" s="150" t="s">
         <v>446</v>
       </c>
-      <c r="H34" s="62" t="s">
+      <c r="H34" s="150" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D35" s="130" t="s">
+      <c r="D35" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="F35" s="62" t="s">
+      <c r="F35" s="150" t="s">
         <v>442</v>
       </c>
-      <c r="H35" s="62" t="s">
-        <v>480</v>
+      <c r="H35" s="150" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="36" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D36" s="130" t="s">
-        <v>565</v>
-      </c>
-      <c r="F36" s="62" t="s">
+      <c r="D36" s="151" t="s">
+        <v>564</v>
+      </c>
+      <c r="F36" s="150" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="62" t="s">
+      <c r="H36" s="150" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D37" s="130" t="s">
+      <c r="D37" s="151" t="s">
+        <v>564</v>
+      </c>
+      <c r="F37" s="150" t="s">
+        <v>440</v>
+      </c>
+      <c r="H37" s="150" t="s">
         <v>565</v>
-      </c>
-      <c r="F37" s="62" t="s">
-        <v>440</v>
-      </c>
-      <c r="H37" s="62" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D38" s="130" t="s">
-        <v>565</v>
-      </c>
-      <c r="F38" s="62" t="s">
+      <c r="D38" s="151" t="s">
+        <v>564</v>
+      </c>
+      <c r="F38" s="150" t="s">
         <v>442</v>
       </c>
-      <c r="H38" s="62" t="s">
-        <v>565</v>
+      <c r="H38" s="150" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="130" t="s">
-        <v>804</v>
-      </c>
-      <c r="F39" s="131" t="s">
+      <c r="D39" s="151" t="s">
+        <v>803</v>
+      </c>
+      <c r="F39" s="152" t="s">
         <v>74</v>
       </c>
-      <c r="G39" s="131"/>
-      <c r="H39" s="131" t="s">
+      <c r="G39" s="152"/>
+      <c r="H39" s="152" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="130" t="s">
-        <v>804</v>
-      </c>
-      <c r="F40" s="131" t="s">
+      <c r="D40" s="151" t="s">
+        <v>803</v>
+      </c>
+      <c r="F40" s="152" t="s">
         <v>440</v>
       </c>
-      <c r="G40" s="131"/>
-      <c r="H40" s="131" t="s">
+      <c r="G40" s="152"/>
+      <c r="H40" s="152" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="41" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D41" s="130" t="s">
+      <c r="D41" s="151" t="s">
+        <v>803</v>
+      </c>
+      <c r="F41" s="152" t="s">
+        <v>802</v>
+      </c>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152" t="s">
         <v>804</v>
-      </c>
-      <c r="F41" s="131" t="s">
-        <v>803</v>
-      </c>
-      <c r="G41" s="131"/>
-      <c r="H41" s="131" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="42" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="130" t="s">
+      <c r="D42" s="151" t="s">
+        <v>805</v>
+      </c>
+      <c r="F42" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152" t="s">
         <v>806</v>
-      </c>
-      <c r="F42" s="131" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="131"/>
-      <c r="H42" s="131" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="43" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D43" s="130" t="s">
-        <v>806</v>
-      </c>
-      <c r="F43" s="131" t="s">
+      <c r="D43" s="151" t="s">
+        <v>805</v>
+      </c>
+      <c r="F43" s="152" t="s">
         <v>440</v>
       </c>
-      <c r="G43" s="131"/>
-      <c r="H43" s="131" t="s">
+      <c r="G43" s="152"/>
+      <c r="H43" s="152" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="44" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D44" s="130" t="s">
-        <v>806</v>
-      </c>
-      <c r="F44" s="131" t="s">
-        <v>803</v>
-      </c>
-      <c r="G44" s="131"/>
-      <c r="H44" s="131" t="s">
-        <v>808</v>
+      <c r="D44" s="151" t="s">
+        <v>805</v>
+      </c>
+      <c r="F44" s="152" t="s">
+        <v>802</v>
+      </c>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="151" t="s">
+        <v>879</v>
+      </c>
+      <c r="F45" s="150" t="s">
+        <v>445</v>
+      </c>
+      <c r="H45" s="150" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="151" t="s">
+        <v>879</v>
+      </c>
+      <c r="F46" s="150" t="s">
+        <v>446</v>
+      </c>
+      <c r="H46" s="150" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="151" t="s">
+        <v>879</v>
+      </c>
+      <c r="F47" s="150" t="s">
+        <v>442</v>
+      </c>
+      <c r="H47" s="150" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="48" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D48" s="151" t="s">
+        <v>878</v>
+      </c>
+      <c r="F48" s="150" t="s">
+        <v>445</v>
+      </c>
+      <c r="H48" s="152" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D49" s="151" t="s">
+        <v>878</v>
+      </c>
+      <c r="F49" s="150" t="s">
+        <v>446</v>
+      </c>
+      <c r="H49" s="152" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D50" s="151" t="s">
+        <v>878</v>
+      </c>
+      <c r="F50" s="150" t="s">
+        <v>442</v>
+      </c>
+      <c r="H50" s="152"/>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D51" s="151" t="s">
+        <v>878</v>
+      </c>
+      <c r="F51" s="150" t="s">
+        <v>447</v>
+      </c>
+      <c r="H51" s="158" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D52" s="151" t="s">
+        <v>880</v>
+      </c>
+      <c r="F52" s="150" t="s">
+        <v>445</v>
+      </c>
+      <c r="H52" s="152" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D53" s="151" t="s">
+        <v>880</v>
+      </c>
+      <c r="F53" s="150" t="s">
+        <v>446</v>
+      </c>
+      <c r="H53" s="152" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D54" s="151" t="s">
+        <v>880</v>
+      </c>
+      <c r="F54" s="150" t="s">
+        <v>442</v>
+      </c>
+      <c r="H54" s="158"/>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D55" s="151" t="s">
+        <v>880</v>
+      </c>
+      <c r="F55" s="150" t="s">
+        <v>447</v>
+      </c>
+      <c r="H55" s="158" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="151" t="s">
+        <v>655</v>
+      </c>
+      <c r="F56" s="150" t="s">
+        <v>446</v>
+      </c>
+      <c r="H56" s="150" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D57" s="151" t="s">
+        <v>883</v>
+      </c>
+      <c r="F57" s="150" t="s">
+        <v>446</v>
+      </c>
+      <c r="H57" s="150" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="151" t="s">
+        <v>652</v>
+      </c>
+      <c r="F58" s="150" t="s">
+        <v>446</v>
+      </c>
+      <c r="H58" s="150" t="s">
+        <v>884</v>
       </c>
     </row>
   </sheetData>
@@ -74037,9 +74209,13 @@
     <hyperlink ref="H22" r:id="rId4"/>
     <hyperlink ref="H29" r:id="rId5"/>
     <hyperlink ref="H32" r:id="rId6"/>
+    <hyperlink ref="H48" r:id="rId7" display="http://lienminhphat.com/"/>
+    <hyperlink ref="H51" r:id="rId8"/>
+    <hyperlink ref="H52" r:id="rId9" display="http://lienminhphat.com/"/>
+    <hyperlink ref="H55" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -74974,25 +75150,25 @@
   </sheetData>
   <autoFilter ref="C1:I38"/>
   <conditionalFormatting sqref="D11:D1048576 D1:D2 D7 D9">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -75474,31 +75650,31 @@
         <v>127</v>
       </c>
       <c r="B1" s="90" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C1" s="87" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D1" s="87" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E1" s="88" t="s">
+        <v>507</v>
+      </c>
+      <c r="F1" s="89" t="s">
         <v>508</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="G1" s="89" t="s">
         <v>509</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="H1" s="89" t="s">
         <v>510</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="I1" s="89" t="s">
         <v>511</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="J1" s="89" t="s">
         <v>512</v>
-      </c>
-      <c r="J1" s="89" t="s">
-        <v>513</v>
       </c>
       <c r="K1" s="89" t="s">
         <v>127</v>
@@ -75551,7 +75727,7 @@
         <v>127</v>
       </c>
       <c r="B4" s="92" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C4">
         <v>2016</v>
@@ -75596,7 +75772,7 @@
         <v>127</v>
       </c>
       <c r="B6" s="92" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C6">
         <v>2019</v>
@@ -75623,7 +75799,7 @@
         <v>127</v>
       </c>
       <c r="B7" s="91" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C7">
         <v>2019</v>
@@ -75665,7 +75841,7 @@
     </row>
     <row r="9" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F9" t="s">
         <v>109</v>
@@ -75681,7 +75857,7 @@
         <v>322</v>
       </c>
       <c r="F10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G10" s="79"/>
       <c r="J10">
@@ -75835,7 +76011,7 @@
     </row>
     <row r="19" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F19" t="s">
         <v>109</v>
@@ -75850,7 +76026,7 @@
     </row>
     <row r="20" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F20" t="s">
         <v>109</v>
@@ -75865,7 +76041,7 @@
     </row>
     <row r="21" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>
@@ -75898,7 +76074,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F23" t="s">
         <v>109</v>
@@ -75931,7 +76107,7 @@
     </row>
     <row r="25" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F25" t="s">
         <v>109</v>
@@ -75944,7 +76120,7 @@
     </row>
     <row r="26" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F26" t="s">
         <v>109</v>
@@ -75974,7 +76150,7 @@
     </row>
     <row r="28" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F28" t="s">
         <v>109</v>
@@ -75992,7 +76168,7 @@
         <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G29" s="79">
         <v>29692</v>
@@ -76025,7 +76201,7 @@
         <v>127</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C31">
         <v>2019</v>
@@ -76046,7 +76222,7 @@
         <v>109</v>
       </c>
       <c r="I31" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J31">
         <f t="shared" ref="J31:J47" ca="1" si="1">YEAR(TODAY())-C31</f>
@@ -76058,13 +76234,13 @@
         <v>127</v>
       </c>
       <c r="B32" s="92" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C32">
         <v>2019</v>
       </c>
       <c r="D32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E32" s="40">
         <v>272556764</v>
@@ -76079,7 +76255,7 @@
         <v>109</v>
       </c>
       <c r="I32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="1"/>
@@ -76091,13 +76267,13 @@
         <v>127</v>
       </c>
       <c r="B33" s="92" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C33">
         <v>2019</v>
       </c>
       <c r="D33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E33" s="40">
         <v>272352958</v>
@@ -76112,7 +76288,7 @@
         <v>109</v>
       </c>
       <c r="I33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="1"/>
@@ -76124,13 +76300,13 @@
         <v>127</v>
       </c>
       <c r="B34" s="92" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C34">
         <v>2019</v>
       </c>
       <c r="D34" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E34" s="40">
         <v>272556713</v>
@@ -76145,7 +76321,7 @@
         <v>109</v>
       </c>
       <c r="I34" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="1"/>
@@ -76157,13 +76333,13 @@
         <v>127</v>
       </c>
       <c r="B35" s="92" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C35">
         <v>2019</v>
       </c>
       <c r="D35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E35" s="40">
         <v>271315765</v>
@@ -76178,7 +76354,7 @@
         <v>109</v>
       </c>
       <c r="I35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="1"/>
@@ -76190,13 +76366,13 @@
         <v>127</v>
       </c>
       <c r="B36" s="91" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C36">
         <v>2019</v>
       </c>
       <c r="D36" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E36" s="40">
         <v>272732396</v>
@@ -76211,7 +76387,7 @@
         <v>109</v>
       </c>
       <c r="I36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="1"/>
@@ -76223,13 +76399,13 @@
         <v>127</v>
       </c>
       <c r="B37" s="91" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C37">
         <v>2019</v>
       </c>
       <c r="D37" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E37" s="40">
         <v>75200000515</v>
@@ -76244,7 +76420,7 @@
         <v>109</v>
       </c>
       <c r="I37" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="1"/>
@@ -76256,13 +76432,13 @@
         <v>127</v>
       </c>
       <c r="B38" s="91" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C38">
         <v>2019</v>
       </c>
       <c r="D38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E38" s="40">
         <v>272653927</v>
@@ -76277,7 +76453,7 @@
         <v>109</v>
       </c>
       <c r="I38" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="1"/>
@@ -76289,13 +76465,13 @@
         <v>127</v>
       </c>
       <c r="B39" s="91" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C39">
         <v>2019</v>
       </c>
       <c r="D39" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E39" s="40">
         <v>272696072</v>
@@ -76310,7 +76486,7 @@
         <v>109</v>
       </c>
       <c r="I39" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="1"/>
@@ -76322,13 +76498,13 @@
         <v>127</v>
       </c>
       <c r="B40" s="91" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C40">
         <v>2019</v>
       </c>
       <c r="D40" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E40" s="40">
         <v>272397442</v>
@@ -76343,7 +76519,7 @@
         <v>109</v>
       </c>
       <c r="I40" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="1"/>
@@ -76355,13 +76531,13 @@
         <v>127</v>
       </c>
       <c r="B41" s="91" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C41">
         <v>2019</v>
       </c>
       <c r="D41" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E41" s="40">
         <v>272423855</v>
@@ -76376,7 +76552,7 @@
         <v>109</v>
       </c>
       <c r="I41" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="1"/>
@@ -76388,13 +76564,13 @@
         <v>127</v>
       </c>
       <c r="B42" s="91" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C42">
         <v>2019</v>
       </c>
       <c r="D42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E42" s="40">
         <v>272556665</v>
@@ -76409,7 +76585,7 @@
         <v>109</v>
       </c>
       <c r="I42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="1"/>
@@ -76421,13 +76597,13 @@
         <v>127</v>
       </c>
       <c r="B43" s="91" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C43">
         <v>2019</v>
       </c>
       <c r="D43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E43" s="40">
         <v>271285473</v>
@@ -76442,7 +76618,7 @@
         <v>109</v>
       </c>
       <c r="I43" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="1"/>
@@ -76454,13 +76630,13 @@
         <v>127</v>
       </c>
       <c r="B44" s="91" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C44">
         <v>2019</v>
       </c>
       <c r="D44" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E44" s="40">
         <v>212143221</v>
@@ -76475,7 +76651,7 @@
         <v>109</v>
       </c>
       <c r="I44" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="1"/>
@@ -76487,13 +76663,13 @@
         <v>127</v>
       </c>
       <c r="B45" s="91" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C45">
         <v>2019</v>
       </c>
       <c r="D45" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E45" s="40">
         <v>271688082</v>
@@ -76508,7 +76684,7 @@
         <v>109</v>
       </c>
       <c r="I45" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="1"/>
@@ -76520,13 +76696,13 @@
         <v>127</v>
       </c>
       <c r="B46" s="91" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C46">
         <v>2019</v>
       </c>
       <c r="D46" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E46" s="40">
         <v>272960603</v>
@@ -76541,7 +76717,7 @@
         <v>109</v>
       </c>
       <c r="I46" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="1"/>
@@ -76553,13 +76729,13 @@
         <v>127</v>
       </c>
       <c r="B47" s="91" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C47">
         <v>2019</v>
       </c>
       <c r="D47" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E47" s="40">
         <v>272282903</v>
@@ -76574,7 +76750,7 @@
         <v>109</v>
       </c>
       <c r="I47" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="1"/>
@@ -76836,7 +77012,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E6" s="39" t="str">
         <f t="shared" si="0"/>
@@ -76918,23 +77094,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="130" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="143" t="s">
+      <c r="E1" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="148"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="138"/>
     </row>
     <row r="2" spans="4:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D2" s="141"/>
-      <c r="E2" s="144"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="34" t="s">
         <v>163</v>
       </c>
@@ -76952,8 +77128,8 @@
       </c>
     </row>
     <row r="3" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="142"/>
-      <c r="E3" s="145"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="135"/>
       <c r="F3" s="36" t="s">
         <v>168</v>
       </c>
@@ -77063,26 +77239,26 @@
     </row>
     <row r="17" spans="4:11" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="149" t="s">
+      <c r="D18" s="139" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="149" t="s">
+      <c r="E18" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="152" t="s">
+      <c r="F18" s="142" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="154"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="144"/>
       <c r="K18">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="4:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="150"/>
-      <c r="E19" s="150"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
       <c r="F19" s="101" t="s">
         <v>163</v>
       </c>
@@ -77100,19 +77276,19 @@
       </c>
     </row>
     <row r="20" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
       <c r="F20" s="109" t="s">
+        <v>547</v>
+      </c>
+      <c r="G20" s="102" t="s">
         <v>548</v>
       </c>
-      <c r="G20" s="102" t="s">
+      <c r="H20" s="102" t="s">
         <v>549</v>
       </c>
-      <c r="H20" s="102" t="s">
-        <v>550</v>
-      </c>
       <c r="I20" s="102" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="J20" s="102" t="s">
         <v>167</v>
@@ -77120,7 +77296,7 @@
     </row>
     <row r="21" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="103" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E21" s="104" t="s">
         <v>156</v>
@@ -77133,7 +77309,7 @@
     </row>
     <row r="22" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="103" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E22" s="104" t="s">
         <v>157</v>
@@ -77146,7 +77322,7 @@
     </row>
     <row r="23" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="103" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E23" s="104" t="s">
         <v>158</v>
@@ -77159,7 +77335,7 @@
     </row>
     <row r="24" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D24" s="103" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E24" s="104" t="s">
         <v>159</v>
@@ -77172,7 +77348,7 @@
     </row>
     <row r="25" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D25" s="103" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E25" s="104" t="s">
         <v>160</v>
@@ -77185,7 +77361,7 @@
     </row>
     <row r="26" spans="4:11" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D26" s="103" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E26" s="107" t="s">
         <v>161</v>
@@ -77198,7 +77374,7 @@
     </row>
     <row r="27" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="103" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E27" s="104" t="s">
         <v>162</v>

--- a/TongHopDuThau.xlsx
+++ b/TongHopDuThau.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A7B5C44-23A9-45FE-B84D-E7848F869163}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81FC9D6-4BF3-41C3-833B-381D5BC01E9D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TBMT" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="877">
   <si>
     <t>CongTrinh</t>
   </si>
@@ -2652,9 +2652,6 @@
     <t>băng keo trung thế</t>
   </si>
   <si>
-    <t>Quân Phạm</t>
-  </si>
-  <si>
     <t>BK</t>
   </si>
   <si>
@@ -2799,42 +2796,6 @@
     <t>18/05/2021</t>
   </si>
   <si>
-    <t>+ Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực xã Xuân Tâm (nhánh rẽ Quân Đoàn 4 ) dài: 487m;</t>
-  </si>
-  <si>
-    <t>+ Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực tổ 8 ấp 1, 2,3 xã Xuân Tâm  (hẻm tại trụ 205 Xuân Tâm 6)  dài: 222.7m</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực tổ 8 ấp 1, 2,3 xã Xuân Tâm (hẻm tại trụ 209 Xuân Tâm 6) dài: 244.8m.</t>
-  </si>
-  <si>
-    <t>+ Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực xã Xuân Tâm  (hẻm tại trụ 223 Xuân Tâm 7A) dài: 219m.</t>
-  </si>
-  <si>
-    <t>+ Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực xã Xuân Tâm  (hẻm tại trụ 223 Xuân Tâm 7A ) dài: 35.5m.</t>
-  </si>
-  <si>
-    <t>Thu hồi vật tư còn lại, xử lý tồn tại</t>
-  </si>
-  <si>
-    <t>Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực xã Xuân Tâm (nhánh rẽ Quân Đoàn 4 ) dài: 487m;</t>
-  </si>
-  <si>
-    <t>Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực tổ 8 ấp 1, 2,3 xã Xuân Tâm  (hẻm tại trụ 205 Xuân Tâm 6)  dài: 222.7m</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực tổ 8 ấp 1, 2,3 xã Xuân Tâm (hẻm tại trụ 209 Xuân Tâm 6) dài: 244.8m.</t>
-  </si>
-  <si>
-    <t>Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực xã Xuân Tâm  (hẻm tại trụ 223 Xuân Tâm 7A) dài: 219m.</t>
-  </si>
-  <si>
-    <t>Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực xã Xuân Tâm  (hẻm tại trụ 223 Xuân Tâm 7A ) dài: 35.5m.</t>
-  </si>
-  <si>
-    <t>Xây dựng mới trạm biến áp và đấu nối</t>
-  </si>
-  <si>
     <t>20200515746-00</t>
   </si>
   <si>
@@ -2881,6 +2842,45 @@
   </si>
   <si>
     <t>16/05/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bộ nối thẳng cáp ngầm 3 pha </t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>a.       Phần cáp ngầm</t>
+  </si>
+  <si>
+    <t>Kéo thêm 01 lộ cáp ngầm C/XLPE/DSTA/PVC 24kV–3x300mm2 -CXV150 mm2trong mương cáp đã có ống chờ lắp đặt sẵn vào năm 2019 tổng chiều dài theo kết quả khảo sát là: 907,3 mét (lộ cáp ngầm hiện hữu C/XLPE/DSTA/PVC 24kV–3x300mm2-CV150 mm2HH giữ nguyên).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b.      Phần nâng cấp trung thế  </t>
+  </si>
+  <si>
+    <t>- Kéo thêm 01 mạch đường dây trung thế 3ACXh-24kV- 240mm2 trên đường dây trung thế hiện hữu 3 mạch (cáp 3ACX240-AC150+6ACX240-AC120mm2 HH giữ nguyên) dài: 636 mét.</t>
+  </si>
+  <si>
+    <t>Kéo thêm 1 mạch đường dây trung thế 3ACXh-24kV- 240mm2 trên đường dây trung thế 01 mạch hiện hữu (cáp 3ACX240 + AC120mm2 HH giữ nguyên) dài: 7.222 mét.</t>
+  </si>
+  <si>
+    <t>Xây dựng mới đường dây chống sét cáp TK - 50 mm2 trên đường dây trung thế hiện hữu: từ trụ 039 (tuyến 476, 478, 479) đến trụ 026 (Tuyến 479) : 1.189 mét.</t>
+  </si>
+  <si>
+    <t>c.       Phần XDM trung thế 3 pha -1 mạch:</t>
+  </si>
+  <si>
+    <t>Xây dựng mới đường dây trung thế 3 pha-01 mạch 3ACXh-24kV- 240mm2+ AC185mm2: 2.918,4 mét.</t>
+  </si>
+  <si>
+    <t>Kéo thêm 01 mạch đường dây trung thế 3ACXh-24kV- 240mm2 trên đường dây trung thế hiện hữu 3 mạch (cáp 3ACX240-AC150+6ACX240-AC120mm2 HH giữ nguyên) dài: 636 mét.</t>
+  </si>
+  <si>
+    <t>Đấu nối đường dây xây dựng mới vào lưới điện hiện hữu.</t>
+  </si>
+  <si>
+    <t>Xử lý tồn tại toàn công trình</t>
   </si>
 </sst>
 </file>
@@ -3635,6 +3635,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3689,30 +3713,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3722,17 +3722,7 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -65022,7 +65012,7 @@
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
@@ -65048,7 +65038,7 @@
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
@@ -65118,7 +65108,7 @@
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
@@ -65140,7 +65130,7 @@
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
@@ -65162,7 +65152,7 @@
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
@@ -65180,11 +65170,11 @@
         <v>Tên dự án</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
@@ -65206,7 +65196,7 @@
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -65314,7 +65304,7 @@
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
@@ -65550,7 +65540,7 @@
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
@@ -65572,7 +65562,7 @@
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
@@ -65608,7 +65598,7 @@
         <v>Bảo đảm dự thầu</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="48"/>
@@ -65628,11 +65618,11 @@
         <v>Hình thức đảm bảo</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="C32" s="48"/>
       <c r="D32" s="48" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
@@ -65654,7 +65644,7 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -65668,7 +65658,7 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -65744,7 +65734,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -65759,7 +65749,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>572</v>
@@ -65776,7 +65766,7 @@
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -65786,12 +65776,12 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>849</v>
+        <v>866</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -65801,12 +65791,12 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>850</v>
+        <v>867</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -65816,12 +65806,12 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>851</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -65831,12 +65821,12 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>852</v>
+        <v>869</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -65846,12 +65836,12 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>853</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -65860,10 +65850,13 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -65872,10 +65865,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -65884,10 +65880,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -65899,7 +65898,7 @@
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -65911,7 +65910,7 @@
     </row>
     <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -65923,7 +65922,7 @@
     </row>
     <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -65935,7 +65934,7 @@
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -65947,7 +65946,7 @@
     </row>
     <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -65959,7 +65958,7 @@
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -65969,12 +65968,12 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -65984,12 +65983,12 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -65999,12 +65998,12 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -66014,12 +66013,12 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -66029,12 +66028,12 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -66046,7 +66045,7 @@
     </row>
     <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -66058,7 +66057,7 @@
     </row>
     <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B23" s="1">
         <v>9</v>
@@ -66070,7 +66069,7 @@
     </row>
     <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -66082,7 +66081,7 @@
     </row>
     <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B25">
         <v>11</v>
@@ -66168,7 +66167,7 @@
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66183,194 +66182,185 @@
       <c r="B1" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="145" t="s">
         <v>558</v>
       </c>
       <c r="D1" s="114" t="s">
         <v>559</v>
       </c>
-      <c r="E1" s="157" t="s">
+      <c r="E1" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="F1" s="157" t="s">
+      <c r="F1" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="157" t="s">
+      <c r="G1" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="157" t="s">
+      <c r="H1" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="157" t="s">
+      <c r="I1" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="157" t="s">
+      <c r="J1" s="139" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="78" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" ht="93.6" x14ac:dyDescent="0.3">
       <c r="B2" s="115">
         <v>1</v>
       </c>
-      <c r="C2" s="164" t="str">
+      <c r="C2" s="146" t="str">
         <f>$C$1&amp;" thứ "&amp;B2</f>
         <v>Lần cắt điện thứ 1</v>
       </c>
       <c r="D2" s="116" t="str">
-        <f t="array" ref="D2">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E2:J2,"")</f>
-        <v xml:space="preserve"> - Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực xã Xuân Tâm (nhánh rẽ Quân Đoàn 4 ) dài: 487m;
- - Xây dựng mới trạm biến áp và đấu nối</v>
-      </c>
-      <c r="E2" s="158" t="s">
-        <v>855</v>
-      </c>
-      <c r="F2" s="158" t="s">
-        <v>860</v>
-      </c>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
+        <f>" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E2:J2,"")</f>
+        <v xml:space="preserve"> - Kéo thêm 01 mạch đường dây trung thế 3ACXh-24kV- 240mm2 trên đường dây trung thế hiện hữu 3 mạch (cáp 3ACX240-AC150+6ACX240-AC120mm2 HH giữ nguyên) dài: 636 mét.</v>
+      </c>
+      <c r="E2" s="140" t="s">
+        <v>874</v>
+      </c>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
     </row>
     <row r="3" spans="2:10" ht="93.6" x14ac:dyDescent="0.3">
       <c r="B3" s="115">
         <v>2</v>
       </c>
-      <c r="C3" s="164" t="str">
+      <c r="C3" s="146" t="str">
         <f t="shared" ref="C3:C13" si="0">$C$1&amp;" thứ "&amp;B3</f>
         <v>Lần cắt điện thứ 2</v>
       </c>
       <c r="D3" s="116" t="str">
         <f t="array" ref="D3">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E3:J3,"")</f>
-        <v xml:space="preserve"> - Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực tổ 8 ấp 1, 2,3 xã Xuân Tâm  (hẻm tại trụ 205 Xuân Tâm 6)  dài: 222.7m
- - Xây dựng mới trạm biến áp và đấu nối</v>
-      </c>
-      <c r="E3" s="158" t="s">
-        <v>856</v>
-      </c>
-      <c r="F3" s="158" t="s">
-        <v>860</v>
-      </c>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
+        <v xml:space="preserve"> - Kéo thêm 1 mạch đường dây trung thế 3ACXh-24kV- 240mm2 trên đường dây trung thế 01 mạch hiện hữu (cáp 3ACX240 + AC120mm2 HH giữ nguyên) dài: 7.222 mét.</v>
+      </c>
+      <c r="E3" s="140" t="s">
+        <v>870</v>
+      </c>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="2:10" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="78" x14ac:dyDescent="0.3">
       <c r="B4" s="115">
         <v>3</v>
       </c>
-      <c r="C4" s="164" t="str">
+      <c r="C4" s="146" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 3</v>
       </c>
       <c r="D4" s="116" t="str">
         <f t="array" ref="D4">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E4:J4,"")</f>
-        <v xml:space="preserve"> -  Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực tổ 8 ấp 1, 2,3 xã Xuân Tâm (hẻm tại trụ 209 Xuân Tâm 6) dài: 244.8m.
- - Xây dựng mới trạm biến áp và đấu nối</v>
-      </c>
-      <c r="E4" s="158" t="s">
-        <v>857</v>
-      </c>
-      <c r="F4" s="158" t="s">
-        <v>860</v>
-      </c>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
+        <v xml:space="preserve"> - Xây dựng mới đường dây chống sét cáp TK - 50 mm2 trên đường dây trung thế hiện hữu: từ trụ 039 (tuyến 476, 478, 479) đến trụ 026 (Tuyến 479) : 1.189 mét.</v>
+      </c>
+      <c r="E4" s="140" t="s">
+        <v>871</v>
+      </c>
+      <c r="F4" s="140"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:10" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="115">
         <v>4</v>
       </c>
-      <c r="C5" s="164" t="str">
+      <c r="C5" s="146" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 4</v>
       </c>
       <c r="D5" s="116" t="str">
         <f t="array" ref="D5">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E5:J5,"")</f>
-        <v xml:space="preserve"> - Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực xã Xuân Tâm  (hẻm tại trụ 223 Xuân Tâm 7A) dài: 219m.
- - Xây dựng mới tuyến đường dây trung thế 3 pha cáp 3ACX50mm2+AC50mm2 khu vực xã Xuân Tâm  (hẻm tại trụ 223 Xuân Tâm 7A ) dài: 35.5m.
- - Xây dựng mới trạm biến áp và đấu nối</v>
-      </c>
-      <c r="E5" s="160" t="s">
-        <v>858</v>
-      </c>
-      <c r="F5" s="160" t="s">
-        <v>859</v>
-      </c>
-      <c r="G5" s="158" t="s">
-        <v>860</v>
-      </c>
-      <c r="H5" s="159"/>
-      <c r="I5" s="159"/>
+        <v xml:space="preserve"> - Xây dựng mới đường dây trung thế 3 pha-01 mạch 3ACXh-24kV- 240mm2+ AC185mm2:  1560mét.</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>"Xây dựng mới đường dây trung thế 3 pha-01 mạch 3ACXh-24kV- 240mm2+ AC185mm2:  "&amp;G13&amp;"mét."</f>
+        <v>Xây dựng mới đường dây trung thế 3 pha-01 mạch 3ACXh-24kV- 240mm2+ AC185mm2:  1560mét.</v>
+      </c>
+      <c r="F5" s="142"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="115">
         <v>5</v>
       </c>
-      <c r="C6" s="164" t="str">
+      <c r="C6" s="146" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 5</v>
       </c>
       <c r="D6" s="116" t="str">
         <f t="array" ref="D6">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E6:J6,"")</f>
-        <v xml:space="preserve"> - Thu hồi vật tư còn lại, xử lý tồn tại</v>
-      </c>
-      <c r="E6" s="160" t="s">
-        <v>854</v>
-      </c>
-      <c r="F6" s="161"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
+        <v xml:space="preserve"> - Xây dựng mới đường dây trung thế 3 pha-01 mạch 3ACXh-24kV- 240mm2+ AC185mm2:  1358.4mét.</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" ref="E6:E7" si="1">"Xây dựng mới đường dây trung thế 3 pha-01 mạch 3ACXh-24kV- 240mm2+ AC185mm2:  "&amp;G14&amp;"mét."</f>
+        <v>Xây dựng mới đường dây trung thế 3 pha-01 mạch 3ACXh-24kV- 240mm2+ AC185mm2:  1358.4mét.</v>
+      </c>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B7" s="115">
         <v>6</v>
       </c>
-      <c r="C7" s="164" t="str">
+      <c r="C7" s="146" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 6</v>
       </c>
       <c r="D7" s="116" t="str">
         <f t="array" ref="D7">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E7:J7,"")</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
+        <v xml:space="preserve"> - Đấu nối đường dây xây dựng mới vào lưới điện hiện hữu.</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="115">
         <v>7</v>
       </c>
-      <c r="C8" s="164" t="str">
+      <c r="C8" s="146" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 7</v>
       </c>
       <c r="D8" s="116" t="str">
         <f t="array" ref="D8">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E8:J8,"")</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
+        <v xml:space="preserve"> - Xử lý tồn tại toàn công trình</v>
+      </c>
+      <c r="E8" s="142" t="s">
+        <v>876</v>
+      </c>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B9" s="115">
         <v>8</v>
       </c>
-      <c r="C9" s="164" t="str">
+      <c r="C9" s="146" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 8</v>
       </c>
@@ -66378,18 +66368,18 @@
         <f t="array" ref="D9">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E9:J9,"")</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="159"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
       <c r="J9" s="7"/>
     </row>
     <row r="10" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B10" s="115">
         <v>9</v>
       </c>
-      <c r="C10" s="164" t="str">
+      <c r="C10" s="146" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 9</v>
       </c>
@@ -66397,18 +66387,18 @@
         <f t="array" ref="D10">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E10:J10,"")</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="159"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
       <c r="J10" s="7"/>
     </row>
     <row r="11" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B11" s="115">
         <v>10</v>
       </c>
-      <c r="C11" s="164" t="str">
+      <c r="C11" s="146" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 10</v>
       </c>
@@ -66416,117 +66406,128 @@
         <f t="array" ref="D11">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E11:J11,"")</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="E11" s="160"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="159"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="141"/>
       <c r="J11" s="7"/>
     </row>
     <row r="12" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B12" s="115">
         <v>11</v>
       </c>
-      <c r="C12" s="164" t="str">
+      <c r="C12" s="146" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 11</v>
       </c>
       <c r="D12" s="116" t="str">
         <f t="array" ref="D12">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E12:J12,"")</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
+        <v xml:space="preserve"> - 2918.4
+ - 0</v>
+      </c>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140">
+        <v>2918.4</v>
+      </c>
+      <c r="H12" s="140">
+        <f>G12-SUM(G13:G15)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="140"/>
+      <c r="J12" s="140"/>
     </row>
     <row r="13" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B13" s="115">
         <v>12</v>
       </c>
-      <c r="C13" s="164" t="str">
+      <c r="C13" s="146" t="str">
         <f t="shared" si="0"/>
         <v>Lần cắt điện thứ 12</v>
       </c>
       <c r="D13" s="116" t="str">
         <f t="array" ref="D13">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E13:J13,"")</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E13" s="158"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
+        <v xml:space="preserve"> - 1560</v>
+      </c>
+      <c r="E13" s="140"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140">
+        <v>1560</v>
+      </c>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B14" s="115">
         <v>13</v>
       </c>
-      <c r="C14" s="164" t="str">
-        <f t="shared" ref="C14:C16" si="1">$C$1&amp;" thứ "&amp;B14</f>
+      <c r="C14" s="146" t="str">
+        <f t="shared" ref="C14:C16" si="2">$C$1&amp;" thứ "&amp;B14</f>
         <v>Lần cắt điện thứ 13</v>
       </c>
       <c r="D14" s="116" t="str">
         <f t="array" ref="D14">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E14:J14,"")</f>
-        <v xml:space="preserve"> - </v>
-      </c>
-      <c r="E14" s="162"/>
-      <c r="F14" s="162"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
+        <v xml:space="preserve"> - 1358.4</v>
+      </c>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144">
+        <f>G12-G13</f>
+        <v>1358.4</v>
+      </c>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B15" s="115">
         <v>14</v>
       </c>
-      <c r="C15" s="164" t="str">
-        <f t="shared" si="1"/>
+      <c r="C15" s="146" t="str">
+        <f t="shared" si="2"/>
         <v>Lần cắt điện thứ 14</v>
       </c>
       <c r="D15" s="116" t="str">
         <f t="array" ref="D15">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E15:J15,"")</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B16" s="115">
         <v>15</v>
       </c>
-      <c r="C16" s="164" t="str">
-        <f t="shared" si="1"/>
+      <c r="C16" s="146" t="str">
+        <f t="shared" si="2"/>
         <v>Lần cắt điện thứ 15</v>
       </c>
       <c r="D16" s="116" t="str">
         <f t="array" ref="D16">" - "&amp;_xlfn.TEXTJOIN(CHAR(10)&amp;" - ",TRUE,E16:J16,"")</f>
         <v xml:space="preserve"> - </v>
       </c>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
       <c r="J16" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:J16" xr:uid="{4C6017B0-3A51-4957-A864-3200E36C6AE0}"/>
   <conditionalFormatting sqref="E13:I1048576 E12:G12 I12 E2:I11">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576 E1:I1">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -66537,13 +66538,12 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I33" sqref="I33"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:I52"/>
+      <selection pane="bottomLeft" activeCell="R46" sqref="R46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -66615,7 +66615,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="62" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="62" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -66793,7 +66793,7 @@
         <v>35580</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B6" s="62"/>
       <c r="D6" s="27">
         <f>COUNTIF($B$1:B6,"x")</f>
@@ -66832,7 +66832,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B7" s="62"/>
       <c r="D7" s="27">
         <f>COUNTIF($B$1:B7,"x")</f>
@@ -66911,7 +66911,7 @@
         <v>34970</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D9" s="27">
         <f>COUNTIF($B$1:B9,"x")</f>
         <v>4</v>
@@ -66931,7 +66931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B10" s="62"/>
       <c r="D10" s="27">
         <f>COUNTIF($B$1:B10,"x")</f>
@@ -67007,7 +67007,7 @@
         <v>30027</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D12" s="27">
         <f>COUNTIF($B$1:B12,"x")</f>
         <v>5</v>
@@ -67031,7 +67031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D13" s="27">
         <f>COUNTIF($B$1:B13,"x")</f>
         <v>5</v>
@@ -67211,7 +67211,7 @@
         <v>29696</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D18" s="27">
         <f>COUNTIF($B$1:B18,"x")</f>
         <v>9</v>
@@ -67235,7 +67235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D19" s="27">
         <f>COUNTIF($B$1:B19,"x")</f>
         <v>9</v>
@@ -67259,7 +67259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D20" s="27">
         <f>COUNTIF($B$1:B20,"x")</f>
         <v>9</v>
@@ -67364,7 +67364,7 @@
         <v>31088</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D23" s="27">
         <f>COUNTIF($B$1:B23,"x")</f>
         <v>11</v>
@@ -67466,7 +67466,7 @@
         <v>35555</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B26" s="62"/>
       <c r="D26" s="27">
         <f>COUNTIF($B$1:B26,"x")</f>
@@ -67503,7 +67503,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D27" s="27">
         <f>COUNTIF($B$1:B27,"x")</f>
         <v>13</v>
@@ -67523,7 +67523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B28" s="62"/>
       <c r="D28" s="27">
         <f>COUNTIF($B$1:B28,"x")</f>
@@ -67562,7 +67562,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D29" s="27">
         <f>COUNTIF($B$1:B29,"x")</f>
         <v>13</v>
@@ -67621,7 +67621,7 @@
         <v>33816</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D31" s="27">
         <f>COUNTIF($B$1:B31,"x")</f>
         <v>14</v>
@@ -67684,7 +67684,7 @@
         <v>34281</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B33" s="62"/>
       <c r="D33" s="27">
         <f>COUNTIF($B$1:B33,"x")</f>
@@ -67759,7 +67759,7 @@
         <v>34976</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B35" s="62"/>
       <c r="D35" s="27">
         <f>COUNTIF($B$1:B35,"x")</f>
@@ -67798,7 +67798,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B36" s="62"/>
       <c r="D36" s="27">
         <f>COUNTIF($B$1:B36,"x")</f>
@@ -67837,7 +67837,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B37" s="62"/>
       <c r="D37" s="27">
         <f>COUNTIF($B$1:B37,"x")</f>
@@ -67952,7 +67952,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D40" s="27">
         <f>COUNTIF($B$1:B40,"x")</f>
         <v>18</v>
@@ -67976,7 +67976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>109</v>
       </c>
@@ -68009,7 +68009,7 @@
         <v>43103</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B42" s="62"/>
       <c r="D42" s="27">
         <f>COUNTIF($B$1:B42,"x")</f>
@@ -68085,7 +68085,7 @@
         <v>34974</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
         <v>109</v>
       </c>
@@ -68124,7 +68124,7 @@
         <v>30730</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B45" s="62"/>
       <c r="D45" s="27">
         <f>COUNTIF($B$1:B45,"x")</f>
@@ -68163,7 +68163,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D46" s="27">
         <f>COUNTIF($B$1:B46,"x")</f>
         <v>19</v>
@@ -68187,7 +68187,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D47" s="27">
         <f>COUNTIF($B$1:B47,"x")</f>
         <v>19</v>
@@ -68289,7 +68289,7 @@
         <v>37008</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
         <v>109</v>
       </c>
@@ -68317,7 +68317,7 @@
         <v>27534</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="24" t="s">
         <v>620</v>
       </c>
@@ -68378,7 +68378,7 @@
         <v>34041</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>109</v>
       </c>
@@ -68406,6 +68406,30 @@
         <v>30596</v>
       </c>
     </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="24" t="s">
+        <v>484</v>
+      </c>
+      <c r="C54" s="24">
+        <v>2016</v>
+      </c>
+      <c r="E54" s="84">
+        <f>D54</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="L54" s="27">
+        <v>272236579</v>
+      </c>
+      <c r="M54" s="28">
+        <v>33442</v>
+      </c>
+    </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C60" s="24" t="s">
         <v>317</v>
@@ -68507,24 +68531,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V53" xr:uid="{00000000-0009-0000-0000-00000B000000}">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V53" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
   <conditionalFormatting sqref="F54:F1048576 F7:F50 F1:F5">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:F52">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -68535,8 +68553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68560,10 +68578,10 @@
       <c r="D1" s="69" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="154" t="s">
+      <c r="E1" s="162" t="s">
         <v>212</v>
       </c>
-      <c r="F1" s="154"/>
+      <c r="F1" s="162"/>
       <c r="G1" s="69" t="s">
         <v>213</v>
       </c>
@@ -68575,10 +68593,10 @@
       </c>
     </row>
     <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="155" t="s">
+      <c r="B2" s="163" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="156" t="s">
+      <c r="C2" s="164" t="s">
         <v>215</v>
       </c>
       <c r="D2" s="70" t="s">
@@ -68597,8 +68615,8 @@
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="164"/>
       <c r="D3" s="70" t="s">
         <v>208</v>
       </c>
@@ -68615,8 +68633,8 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="155"/>
-      <c r="C4" s="156"/>
+      <c r="B4" s="163"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="70" t="s">
         <v>209</v>
       </c>
@@ -70135,7 +70153,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -71990,10 +72008,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -72077,29 +72095,29 @@
     </row>
     <row r="2" spans="1:20" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="str">
-        <f t="shared" ref="A2:A3" si="0">VLOOKUP("Số TBMT",tbmt,4,0)</f>
+        <f t="shared" ref="A2" si="0">VLOOKUP("Số TBMT",tbmt,4,0)</f>
         <v>20200515746-00</v>
       </c>
       <c r="B2" s="19" t="str">
-        <f t="shared" ref="B2:B3" si="1">IFERROR(VLOOKUP("Tên dự án",tbmt,4,0),VLOOKUP("Tên gói thầu",tbmt,4,0))</f>
+        <f t="shared" ref="B2" si="1">IFERROR(VLOOKUP("Tên dự án",tbmt,4,0),VLOOKUP("Tên gói thầu",tbmt,4,0))</f>
         <v>công trình: Xây dựng mới lộ ra tuyến 481 máy T1 TBA 110kV Xuân Trường và tuyến đường dây 22kV</v>
       </c>
       <c r="C2" s="19" t="str">
-        <f t="shared" ref="C2:C3" si="2">VLOOKUP("Chủ đầu tư",tbmt,4,0)</f>
+        <f t="shared" ref="C2" si="2">VLOOKUP("Chủ đầu tư",tbmt,4,0)</f>
         <v>Điện lực Xuân Lộc –Số 94, đường Hùng Vương – Thị trấn Gia Ray, huyện Xuân Lộc, tỉnh Đồng Nai.</v>
       </c>
       <c r="D2" s="19" t="str">
-        <f t="shared" ref="D2:D3" si="3">VLOOKUP("Bên mời thầu",tbmt,4,0)</f>
+        <f t="shared" ref="D2" si="3">VLOOKUP("Bên mời thầu",tbmt,4,0)</f>
         <v>Điện lực Xuân Lộc</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19" t="str">
-        <f t="shared" ref="F2:F3" si="4">VLOOKUP("Số tiền đảm bảo",tbmt,4,0)</f>
+        <f t="shared" ref="F2" si="4">VLOOKUP("Số tiền đảm bảo",tbmt,4,0)</f>
         <v>18.600.000 VND</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="60">
-        <f t="shared" ref="H2:H3" si="5">VLOOKUP("Thời gian nhận HSDT từ ngày",tbmt,10,0)</f>
+        <f t="shared" ref="H2" si="5">VLOOKUP("Thời gian nhận HSDT từ ngày",tbmt,10,0)</f>
         <v>43973.583333333336</v>
       </c>
       <c r="I2" s="16"/>
@@ -72125,10 +72143,10 @@
     </row>
     <row r="3" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>615</v>
@@ -72140,7 +72158,7 @@
         <v>100</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="G3" s="18"/>
       <c r="H3" s="76">
@@ -72156,21 +72174,21 @@
         <v>12</v>
       </c>
       <c r="L3" s="121" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="M3" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="N3" s="121" t="s">
         <v>844</v>
-      </c>
-      <c r="N3" s="121" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>615</v>
@@ -72194,21 +72212,21 @@
         <v>12</v>
       </c>
       <c r="L4" s="121" t="s">
+        <v>846</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="N4" s="121" t="s">
         <v>847</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="N4" s="121" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>829</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>830</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>615</v>
@@ -72220,7 +72238,7 @@
         <v>60</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G5" s="18">
         <v>120</v>
@@ -72241,10 +72259,10 @@
         <v>43967</v>
       </c>
       <c r="M5" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="N5" s="56" t="s">
         <v>844</v>
-      </c>
-      <c r="N5" s="56" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -73080,7 +73098,7 @@
     <cfRule type="duplicateValues" dxfId="15" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -73557,10 +73575,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42:H44"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -73975,7 +73993,7 @@
         <v>441</v>
       </c>
       <c r="H35" s="129" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="36" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -74056,7 +74074,7 @@
       </c>
       <c r="G42" s="131"/>
       <c r="H42" s="131" t="s">
-        <v>800</v>
+        <v>865</v>
       </c>
     </row>
     <row r="43" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -74080,12 +74098,12 @@
       </c>
       <c r="G44" s="131"/>
       <c r="H44" s="131" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="130" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F45" s="129" t="s">
         <v>444</v>
@@ -74096,7 +74114,7 @@
     </row>
     <row r="46" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="130" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F46" s="129" t="s">
         <v>445</v>
@@ -74107,18 +74125,18 @@
     </row>
     <row r="47" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="130" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F47" s="129" t="s">
         <v>441</v>
       </c>
       <c r="H47" s="129" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="48" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="130" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F48" s="129" t="s">
         <v>444</v>
@@ -74129,7 +74147,7 @@
     </row>
     <row r="49" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="130" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F49" s="129" t="s">
         <v>445</v>
@@ -74140,7 +74158,7 @@
     </row>
     <row r="50" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="130" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F50" s="129" t="s">
         <v>441</v>
@@ -74149,7 +74167,7 @@
     </row>
     <row r="51" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" s="130" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F51" s="129" t="s">
         <v>446</v>
@@ -74160,7 +74178,7 @@
     </row>
     <row r="52" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52" s="130" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F52" s="129" t="s">
         <v>444</v>
@@ -74171,7 +74189,7 @@
     </row>
     <row r="53" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="130" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F53" s="129" t="s">
         <v>445</v>
@@ -74182,7 +74200,7 @@
     </row>
     <row r="54" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="130" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F54" s="129" t="s">
         <v>441</v>
@@ -74191,7 +74209,7 @@
     </row>
     <row r="55" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="130" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F55" s="129" t="s">
         <v>446</v>
@@ -74208,18 +74226,18 @@
         <v>445</v>
       </c>
       <c r="H56" s="129" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="57" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="130" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F57" s="129" t="s">
         <v>445</v>
       </c>
       <c r="H57" s="129" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="58" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -74230,7 +74248,29 @@
         <v>445</v>
       </c>
       <c r="H58" s="129" t="s">
-        <v>840</v>
+        <v>839</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="130" t="s">
+        <v>864</v>
+      </c>
+      <c r="F59" s="129" t="s">
+        <v>444</v>
+      </c>
+      <c r="H59" s="129" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="130" t="s">
+        <v>864</v>
+      </c>
+      <c r="F60" s="129" t="s">
+        <v>445</v>
+      </c>
+      <c r="H60" s="129" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -75184,25 +75224,25 @@
   </sheetData>
   <autoFilter ref="C1:I38" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <conditionalFormatting sqref="D11:D1048576 D1:D2 D7 D9">
-    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -76809,13 +76849,13 @@
   <dimension ref="C1:Q7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+      <selection activeCell="M2" sqref="M2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="8.88671875" style="32"/>
-    <col min="4" max="4" width="39.33203125" style="32" customWidth="1"/>
+    <col min="4" max="4" width="53.109375" style="32" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" style="32" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="32"/>
     <col min="7" max="10" width="8.109375" style="32" customWidth="1"/>
@@ -77046,7 +77086,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E6" s="39" t="str">
         <f t="shared" si="0"/>
@@ -77117,7 +77157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="D1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F18" sqref="F18:J18"/>
     </sheetView>
   </sheetViews>
@@ -77128,23 +77168,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D1" s="139" t="s">
+      <c r="D1" s="147" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="142" t="s">
+      <c r="E1" s="150" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="153" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="147"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="155"/>
     </row>
     <row r="2" spans="4:10" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D2" s="140"/>
-      <c r="E2" s="143"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="151"/>
       <c r="F2" s="34" t="s">
         <v>163</v>
       </c>
@@ -77162,8 +77202,8 @@
       </c>
     </row>
     <row r="3" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="141"/>
-      <c r="E3" s="144"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="152"/>
       <c r="F3" s="36" t="s">
         <v>168</v>
       </c>
@@ -77273,26 +77313,26 @@
     </row>
     <row r="17" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D18" s="148" t="s">
+      <c r="D18" s="156" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="148" t="s">
+      <c r="E18" s="156" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="151" t="s">
+      <c r="F18" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="161"/>
       <c r="K18">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="4:11" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
       <c r="F19" s="101" t="s">
         <v>163</v>
       </c>
@@ -77310,8 +77350,8 @@
       </c>
     </row>
     <row r="20" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="150"/>
-      <c r="E20" s="150"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
       <c r="F20" s="109" t="s">
         <v>546</v>
       </c>

--- a/TongHopDuThau.xlsx
+++ b/TongHopDuThau.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655FD40F-4F9A-4C97-A88D-F45682E1EE6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-45" windowWidth="20730" windowHeight="11700" tabRatio="768" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TBMT" sheetId="2" r:id="rId1"/>
@@ -19,33 +20,34 @@
     <sheet name="QuyMoCongTrinh" sheetId="19" r:id="rId10"/>
     <sheet name="PhanBoCatDien" sheetId="20" r:id="rId11"/>
     <sheet name="NhanSu" sheetId="6" r:id="rId12"/>
-    <sheet name="CongTy" sheetId="12" r:id="rId13"/>
-    <sheet name="HopDongTuongTu" sheetId="11" r:id="rId14"/>
-    <sheet name="MayThiCong" sheetId="22" r:id="rId15"/>
-    <sheet name="CongNhan" sheetId="23" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="24" r:id="rId17"/>
+    <sheet name="Sheet2" sheetId="25" r:id="rId13"/>
+    <sheet name="CongTy" sheetId="12" r:id="rId14"/>
+    <sheet name="HopDongTuongTu" sheetId="11" r:id="rId15"/>
+    <sheet name="MayThiCong" sheetId="22" r:id="rId16"/>
+    <sheet name="CongNhan" sheetId="23" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="24" r:id="rId18"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
+    <externalReference r:id="rId21"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DanhMucBCap!$C$1:$I$38</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">HopDongTuongTu!$A$1:$J$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">HopDongTuongTu!$A$1:$J$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">NhanSu!$A$1:$V$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">NhanSuMoi!$A$1:$M$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'NhaSX-CungCap'!$A$1:$J$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">PhanBoCatDien!$B$1:$J$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">QuyMoCongTrinh!$A$1:$G$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Sheet1!$C$1:$F$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">Sheet1!$C$1:$F$177</definedName>
     <definedName name="DGVC">[1]VCTC!$A$11:$J$33</definedName>
     <definedName name="DONGIA">[1]DG!$A$6:$H$613</definedName>
     <definedName name="dongia1">[2]DG!$A$5:$I$1360</definedName>
     <definedName name="tbmt">TBMT!$A:$J</definedName>
     <definedName name="TT">[3]DG!$A$5:$I$1419</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="897">
   <si>
     <t>CongTrinh</t>
   </si>
@@ -2884,11 +2886,68 @@
   <si>
     <t>Trần Quốc Bảo - 0942174222</t>
   </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyMTIxNDMyMjEiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIzNS8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIyMC8wNC8xOTgxIiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA2OCIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA2NyIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNjgifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzI2OTYwNzIiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIzMC8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIyMy8wMy8xOTk5Iiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA1OCIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA1NyIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNTgifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzIzOTY1NjgiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIyMi8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIyOC8wOS8xOTk1Iiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJDhu5FjIiwid29ya2luZ1llYXIiOiIyIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjQ2MjU1NyIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDQ2MjU1NiIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxNi0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyB0csOsbmg6IFhETSAyIGzhu5kgcmEgbcOheSBUMiBUQkEgWHXDom4gVHLGsOG7nW5nIHbDoCB0dXnhur9uIMSRxrDhu51uZyBkw6J5IHRydW5nIHRo4bq/IDIya1Ygc29uZyBzb25nIHR1eeG6v24gNDc1LzQ3Ny4gQ2jhu6cgxJHhuqd1IHTGsDogxJBp4buHbiBs4buxYyBYdcOibiBM4buZYyAtIEMudHkgVE5ISCBNVFYgxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI0NjI1NTcifSx7InN0YXJ0RGF0ZSI6IjIwMTctMDItMTYgMDA6MDA6MDAuMCIsImVuZERhdGUiOiIyMDE5LTA3LTMxIDAwOjAwOjAwLjAiLCJleHBlcmllbmNlRGV0YWlsIjoiR8OzaSB0aOG6p3Ugc+G7kSAwNyAoWMOieSBs4bqvcCkgSOG6oW5nIG3hu6VjOiBEaSBk4budaSBo4buHIHRo4buRbmcgxJFp4buHbiBDw7RuZyB0csOsbmg6IE7Dom5nIGPhuqVwLCBt4bufIHLhu5luZyDEkcaw4budbmcgdsOgbyBuw7ppIENo4bupYSBDaGFuLiBDaOG7pyDEkeG6p3UgdMawOiBVQk5EIGh1eeG7h24gWHXDom4gTOG7mWMiLCJpZE9mQ2xpZW50T2JqIjoiNDYyNTU3In1d</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzIyODI5MDMiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIzOC8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIzMS8wNy8xOTkyIiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA3NCIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA3MyIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNzQifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzI1NTY2NjUiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIzMy8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIzMC8wNS8xOTk3Iiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA2NCIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA2MyIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNjQifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzE3Mjg2NTMiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIyMi8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIxMC8wMi8xOTg1Iiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA0MiIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA0MSIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNDIifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzE2ODgwODIiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIzNi8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIwNC8wMS8xOTg2Iiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA3MCIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA2OSIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNzAifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzEyODU0NzMiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIzNC8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIyMi8wNi8xOTc1Iiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA2NiIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA2NSIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNjYifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzI2NTM5MjciLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIyOS8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIwNS8wNS8xOTk3Iiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA1NiIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA1NSIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNTYifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzI3MzIzOTYiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIyNy8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIwNS8xMC8yMDAwIiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA1MiIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA1MSIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNTIifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzI1NTY3MTMiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIyNS8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIzMC8wMy8xOTk4Iiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA0OCIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA0NyIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNDgifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzE1ODY2NTciLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIyMi8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIwMS8wMS8xOTgwIiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJDhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjQ2MjkzOCIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDQ2MjUzOCIsImlkVmVyc2lvbiI6IjAxIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyB0csOsbmg6IFhETSAyIGzhu5kgcmEgbcOheSBUMiBUQkEgWHXDom4gVHLGsOG7nW5nIHbDoCB0dXnhur9uIMSRxrDhu51uZyBkw6J5IHRydW5nIHRo4bq/IDIya1Ygc29uZyBzb25nIHR1eeG6v24gNDc1LzQ3Ny4gQ2jhu6cgxJHhuqd1IHTGsDogxJBp4buHbiBs4buxYyBYdcOibiBM4buZYyAtIEMudHkgVE5ISCBNVFYgxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI0NjI5MzgifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzE0NDk1NDIiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIyMi8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIxNy8wMy8xOTgyIiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJDhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjQ2MjUzMSIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDQ2MjUyOSIsImlkVmVyc2lvbiI6IjAxIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyB0csOsbmg6IFhETSAyIGzhu5kgcmEgbcOheSBUMiBUQkEgWHXDom4gVHLGsOG7nW5nIHbDoCB0dXnhur9uIMSRxrDhu51uZyBkw6J5IHRydW5nIHRo4bq/IDIya1Ygc29uZyBzb25nIHR1eeG6v24gNDc1LzQ3Ny4gQ2jhu6cgxJHhuqd1IHTGsDogxJBp4buHbiBs4buxYyBYdcOibiBM4buZYyAtIEMudHkgVE5ISCBNVFYgxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI0NjI1MzEifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzI5NjA2MDMiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIzNy8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIyNy8wNC8yMDAxIiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA3MiIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA3MSIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNzIifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzI0MjM4NTUiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIzMi8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIwMi8xMC8xOTk1Iiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA2MiIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA2MSIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNjIifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzIzNTI5NTgiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIyNC8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIwOC8xMS8xOTkzIiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA0NiIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA0NSIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNDYifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiI3NTIwMDAwMDUxNSIsInBob25lSW5mb3IiOiIwOTQyMTc0MjI4LyB0cmFuYmFvODBAZ21haWwuY29tLyAiLCJwb3NpdGlvbkhSIjoiQ8O0bmcgbmjDom4iLCJkYXRlT2ZCaXJ0aCI6IjI5LzA4LzIwMDAiLCJza2lsbCI6IkPDtG5nIG5ow6JuIiwiZW1wbG95ZXIiOiJUcuG6p24gVGjhu4sgTmfhu41jIFRo4buNIiwiY29udGFjdEluZm9yIjoiU+G7kSA2MEEsIE5ndXnhu4VuIFRyxrDhu51uZyBU4buZLCBQaMaw4budbmcgWHXDom4gQW4sIFRYIExvbmcgS2jDoW5oLCBU4buJbmggxJDhu5NuZyBOYWkiLCJjdXJyZW50UG9zaXRpb24iOiJHacOhbSDEkeG7kWMiLCJ3b3JraW5nWWVhciI6IjEiLCJhdXRob3IiOiJUcuG6p24gUXXhu5FjIELhuqNvIiwiZmlsZU5hbWUiOiIiLCJmaWxlUGF0aCI6IiIsImlkIjoiNTM3MDU0IiwiaWRObyI6Ik5TMDAwMDAwMDAwMDAwNTM3MDUzIiwiaWRWZXJzaW9uIjoiMDAifQ==W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNTQifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzEzMTU3NjUiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIyNi8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIxNi8xMi8xOTc5Iiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA1MCIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA0OSIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNTAifV0=</t>
+  </si>
+  <si>
+    <t>Công nhâneyJzb0NNTkQiOiIyNzIzOTc0NDIiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIzMS8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIxMy8wMy8xOTkzIiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA2MCIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA1OSIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNjAifV0=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm"/>
@@ -3279,7 +3338,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="168" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3661,6 +3720,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3715,17 +3777,24 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="26">
     <dxf>
@@ -4026,7 +4095,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0F89E8A-03A1-4553-82C9-870FBDF5B443}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F89E8A-03A1-4553-82C9-870FBDF5B443}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4079,7 +4148,7 @@
         <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DD6E85A7-B40A-4887-B87C-EAEE490EF58D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD6E85A7-B40A-4887-B87C-EAEE490EF58D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4135,7 +4204,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F78336F6-B8EE-492C-BE90-B91532F08161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78336F6-B8EE-492C-BE90-B91532F08161}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4191,7 +4260,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17EE33B0-9F33-4BD9-BAC8-E82B191C6EE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17EE33B0-9F33-4BD9-BAC8-E82B191C6EE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4247,7 +4316,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AD2BFFC3-2B5E-451D-9351-8DEC5173377D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD2BFFC3-2B5E-451D-9351-8DEC5173377D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4303,7 +4372,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C873A17-B2AA-4D01-A597-03FFBAFD241E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C873A17-B2AA-4D01-A597-03FFBAFD241E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4359,7 +4428,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A664728-7B38-4FF3-85B9-E928518432AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A664728-7B38-4FF3-85B9-E928518432AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -64925,31 +64994,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="123" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="123" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="123" t="str">
         <f>LEFT(D1,11)</f>
         <v/>
@@ -64969,7 +65038,7 @@
       <c r="L1" s="48"/>
       <c r="M1" s="48"/>
     </row>
-    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="124" t="str">
         <f>TRIM(B2)</f>
         <v/>
@@ -64987,7 +65056,7 @@
       <c r="L2" s="48"/>
       <c r="M2" s="48"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="124" t="str">
         <f t="shared" ref="A3:A39" si="0">TRIM(B3)</f>
         <v>Thông tin chung</v>
@@ -65007,7 +65076,7 @@
       <c r="L3" s="48"/>
       <c r="M3" s="48"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Số TBMT</v>
@@ -65033,7 +65102,7 @@
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="124" t="str">
         <f>TRIM(B5)</f>
         <v>Hình thức thông báo</v>
@@ -65055,7 +65124,7 @@
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Loại thông báo</v>
@@ -65081,7 +65150,7 @@
       <c r="L6" s="48"/>
       <c r="M6" s="48"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Bên mời thầu</v>
@@ -65103,7 +65172,7 @@
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Chủ đầu tư</v>
@@ -65125,7 +65194,7 @@
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Phân loại</v>
@@ -65147,7 +65216,7 @@
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Tên gói thầu</v>
@@ -65169,7 +65238,7 @@
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Tên dự án</v>
@@ -65191,7 +65260,7 @@
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Nguồn vốn</v>
@@ -65213,7 +65282,7 @@
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Phương thức</v>
@@ -65235,7 +65304,7 @@
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Thời gian thực hiện hợp đồng</v>
@@ -65257,7 +65326,7 @@
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Nội dung chính gói thầu</v>
@@ -65277,7 +65346,7 @@
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Loại hợp đồng</v>
@@ -65299,7 +65368,7 @@
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Hình thức đấu thầu</v>
@@ -65323,7 +65392,7 @@
       <c r="L17" s="48"/>
       <c r="M17" s="48"/>
     </row>
-    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="124" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65341,7 +65410,7 @@
       <c r="L18" s="48"/>
       <c r="M18" s="48"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Tham dự thầu</v>
@@ -65361,7 +65430,7 @@
       <c r="L19" s="48"/>
       <c r="M19" s="48"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Hình thức nhận HSDT</v>
@@ -65383,7 +65452,7 @@
       <c r="L20" s="48"/>
       <c r="M20" s="48"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Thời gian nhận HSDT từ ngày</v>
@@ -65409,7 +65478,7 @@
       <c r="L21" s="48"/>
       <c r="M21" s="48"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Mua HSMT</v>
@@ -65431,7 +65500,7 @@
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Địa điểm nhận HSDT</v>
@@ -65453,7 +65522,7 @@
       <c r="L23" s="48"/>
       <c r="M23" s="48"/>
     </row>
-    <row r="24" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="124" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65471,7 +65540,7 @@
       <c r="L24" s="48"/>
       <c r="M24" s="48"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Mở thầu</v>
@@ -65491,7 +65560,7 @@
       <c r="L25" s="48"/>
       <c r="M25" s="48"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Thời điểm mở thầu</v>
@@ -65513,7 +65582,7 @@
       <c r="L26" s="48"/>
       <c r="M26" s="48"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Địa điểm mở thầu</v>
@@ -65535,7 +65604,7 @@
       <c r="L27" s="48"/>
       <c r="M27" s="48"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Giá gói thầu</v>
@@ -65557,7 +65626,7 @@
       <c r="L28" s="48"/>
       <c r="M28" s="48"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền bằng chữ</v>
@@ -65579,7 +65648,7 @@
       <c r="L29" s="48"/>
       <c r="M29" s="48"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="124" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65597,7 +65666,7 @@
       <c r="L30" s="48"/>
       <c r="M30" s="48"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Bảo đảm dự thầu</v>
@@ -65617,7 +65686,7 @@
       <c r="L31" s="48"/>
       <c r="M31" s="48"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Hình thức đảm bảo</v>
@@ -65639,7 +65708,7 @@
       <c r="L32" s="48"/>
       <c r="M32" s="48"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền đảm bảo</v>
@@ -65653,7 +65722,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Số tiền bằng chữ</v>
@@ -65667,7 +65736,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="124" t="str">
         <f t="shared" si="0"/>
         <v>Loại tiền chuyển đổi</v>
@@ -65687,7 +65756,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="124" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65697,7 +65766,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="124" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65707,7 +65776,7 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="124" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65717,7 +65786,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="124" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -65734,7 +65803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -65742,17 +65811,17 @@
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="78.140625" style="119" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="126" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="86.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="78.109375" style="119" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="126" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="86.5546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>808</v>
       </c>
@@ -65769,7 +65838,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>810</v>
       </c>
@@ -65784,7 +65853,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>811</v>
       </c>
@@ -65799,7 +65868,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>812</v>
       </c>
@@ -65814,7 +65883,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>813</v>
       </c>
@@ -65829,7 +65898,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>814</v>
       </c>
@@ -65844,7 +65913,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>815</v>
       </c>
@@ -65859,7 +65928,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>816</v>
       </c>
@@ -65874,7 +65943,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>817</v>
       </c>
@@ -65889,7 +65958,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>818</v>
       </c>
@@ -65901,7 +65970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>819</v>
       </c>
@@ -65913,7 +65982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>820</v>
       </c>
@@ -65925,7 +65994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>800</v>
       </c>
@@ -65937,7 +66006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>801</v>
       </c>
@@ -65949,7 +66018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>802</v>
       </c>
@@ -65961,7 +66030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>821</v>
       </c>
@@ -65976,7 +66045,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>822</v>
       </c>
@@ -65991,7 +66060,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>823</v>
       </c>
@@ -66006,7 +66075,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>824</v>
       </c>
@@ -66021,7 +66090,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>825</v>
       </c>
@@ -66036,7 +66105,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>803</v>
       </c>
@@ -66048,7 +66117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>804</v>
       </c>
@@ -66060,7 +66129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>805</v>
       </c>
@@ -66072,7 +66141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>806</v>
       </c>
@@ -66084,7 +66153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>807</v>
       </c>
@@ -66096,69 +66165,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C26" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C27" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C28" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C29" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C30" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C31" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C32" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="126">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G35">
-    <sortState ref="A2:G35">
+  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0000-000009000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G35">
       <sortCondition ref="B1:B35"/>
     </sortState>
   </autoFilter>
@@ -66168,22 +66237,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" style="48" customWidth="1"/>
-    <col min="5" max="9" width="32.42578125" style="113" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" style="48" customWidth="1"/>
+    <col min="5" max="9" width="32.44140625" style="113" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="52" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" s="52" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="114" t="s">
         <v>103</v>
       </c>
@@ -66212,7 +66281,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="93.6" x14ac:dyDescent="0.3">
       <c r="B2" s="115">
         <v>1</v>
       </c>
@@ -66233,7 +66302,7 @@
       <c r="I2" s="140"/>
       <c r="J2" s="140"/>
     </row>
-    <row r="3" spans="2:10" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="93.6" x14ac:dyDescent="0.3">
       <c r="B3" s="115">
         <v>2</v>
       </c>
@@ -66254,7 +66323,7 @@
       <c r="I3" s="140"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="2:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="78" x14ac:dyDescent="0.3">
       <c r="B4" s="115">
         <v>3</v>
       </c>
@@ -66275,7 +66344,7 @@
       <c r="I4" s="141"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="115">
         <v>4</v>
       </c>
@@ -66297,7 +66366,7 @@
       <c r="I5" s="141"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="115">
         <v>5</v>
       </c>
@@ -66319,7 +66388,7 @@
       <c r="I6" s="141"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B7" s="115">
         <v>6</v>
       </c>
@@ -66340,7 +66409,7 @@
       <c r="I7" s="140"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="115">
         <v>7</v>
       </c>
@@ -66361,7 +66430,7 @@
       <c r="I8" s="141"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B9" s="115">
         <v>8</v>
       </c>
@@ -66380,7 +66449,7 @@
       <c r="I9" s="141"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B10" s="115">
         <v>9</v>
       </c>
@@ -66399,7 +66468,7 @@
       <c r="I10" s="141"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B11" s="115">
         <v>10</v>
       </c>
@@ -66418,7 +66487,7 @@
       <c r="I11" s="141"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B12" s="115">
         <v>11</v>
       </c>
@@ -66443,7 +66512,7 @@
       <c r="I12" s="140"/>
       <c r="J12" s="140"/>
     </row>
-    <row r="13" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B13" s="115">
         <v>12</v>
       </c>
@@ -66464,7 +66533,7 @@
       <c r="I13" s="141"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B14" s="115">
         <v>13</v>
       </c>
@@ -66486,7 +66555,7 @@
       <c r="I14" s="144"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B15" s="115">
         <v>14</v>
       </c>
@@ -66505,7 +66574,7 @@
       <c r="I15" s="144"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B16" s="115">
         <v>15</v>
       </c>
@@ -66525,7 +66594,7 @@
       <c r="J16" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J16"/>
+  <autoFilter ref="B1:J16" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
   <conditionalFormatting sqref="E13:I1048576 E12:G12 I12 E2:I11">
     <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
       <formula>0</formula>
@@ -66542,37 +66611,37 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="I33" sqref="I33"/>
-      <selection pane="bottomLeft" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomLeft" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="24"/>
+    <col min="1" max="1" width="16.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="24"/>
     <col min="3" max="3" width="13" style="24" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="27"/>
-    <col min="5" max="5" width="8.85546875" style="24"/>
-    <col min="6" max="6" width="30.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="24" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="25" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="24"/>
+    <col min="4" max="4" width="8.88671875" style="27"/>
+    <col min="5" max="5" width="8.88671875" style="24"/>
+    <col min="6" max="6" width="30.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="25" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="24"/>
     <col min="12" max="12" width="13" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="27" customWidth="1"/>
-    <col min="14" max="14" width="50.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.28515625" style="24" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="24"/>
+    <col min="13" max="13" width="16.109375" style="27" customWidth="1"/>
+    <col min="14" max="14" width="50.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="24" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>602</v>
       </c>
@@ -66603,7 +66672,7 @@
         <v>309</v>
       </c>
       <c r="K1" s="23">
-        <f>COUNTIF(K2:K50,"x")</f>
+        <f>COUNTIF(K2:K51,"x")</f>
         <v>0</v>
       </c>
       <c r="L1" s="23" t="s">
@@ -66619,13 +66688,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="62" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" s="62" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
       <c r="D2" s="27"/>
       <c r="E2" s="84">
-        <f t="shared" ref="E2:E33" si="0">D2</f>
+        <f t="shared" ref="E2:E34" si="0">D2</f>
         <v>0</v>
       </c>
       <c r="F2" s="85" t="s">
@@ -66642,7 +66711,7 @@
         <v>311</v>
       </c>
       <c r="K2" s="62">
-        <f t="shared" ref="K2:K33" si="1">D2</f>
+        <f t="shared" ref="K2:K34" si="1">D2</f>
         <v>0</v>
       </c>
       <c r="L2" s="27">
@@ -66677,88 +66746,87 @@
         <v>327</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
-        <v>483</v>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="62">
+      <c r="C3" s="24">
+        <v>2019</v>
+      </c>
+      <c r="D3" s="27">
+        <f>COUNTIF($B$1:B3,"x")</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="84">
+        <f>D3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="166" t="s">
+        <v>529</v>
+      </c>
+      <c r="G3" s="168" t="s">
+        <v>519</v>
+      </c>
+      <c r="H3" s="169" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="169"/>
+      <c r="J3" s="25">
+        <v>1</v>
+      </c>
+      <c r="K3" s="62">
+        <v>1</v>
+      </c>
+      <c r="L3" s="27">
+        <v>212143221</v>
+      </c>
+      <c r="M3" s="28">
+        <v>29696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
+        <v>483</v>
+      </c>
+      <c r="C4" s="62">
         <v>2012</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D4" s="27">
         <v>1</v>
       </c>
-      <c r="E3" s="84">
-        <f t="shared" si="0"/>
+      <c r="E4" s="84">
+        <f>D4</f>
         <v>1</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F4" s="85" t="s">
         <v>145</v>
-      </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" s="84"/>
-      <c r="K3" s="62">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L3" s="27">
-        <v>271871229</v>
-      </c>
-      <c r="M3" s="28">
-        <v>27425</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="O3" s="63">
-        <v>40360</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="24">
-        <v>2012</v>
-      </c>
-      <c r="D4" s="27">
-        <v>2</v>
-      </c>
-      <c r="E4" s="84">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F4" s="85" t="s">
-        <v>147</v>
       </c>
       <c r="G4" s="86"/>
       <c r="H4" s="84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I4" s="84"/>
       <c r="K4" s="62">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>D4</f>
+        <v>1</v>
+      </c>
+      <c r="L4" s="27">
+        <v>271871229</v>
       </c>
       <c r="M4" s="28">
-        <v>29692</v>
+        <v>27425</v>
       </c>
       <c r="N4" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="O4" s="26">
-        <v>41396</v>
+      <c r="O4" s="63">
+        <v>40360</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
         <v>108</v>
       </c>
@@ -66770,14 +66838,14 @@
       </c>
       <c r="D5" s="27">
         <f>COUNTIF($B$1:B5,"x")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="84">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>D5</f>
+        <v>2</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G5" s="86" t="s">
         <v>514</v>
@@ -66786,264 +66854,287 @@
         <v>108</v>
       </c>
       <c r="I5" s="84"/>
+      <c r="J5" s="25">
+        <v>2</v>
+      </c>
       <c r="K5" s="62">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" s="27">
-        <v>272556665</v>
+        <v>272696072</v>
       </c>
       <c r="M5" s="28">
-        <v>35580</v>
+        <v>36242</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="62"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="24">
+        <v>2016</v>
+      </c>
       <c r="D6" s="27">
         <f>COUNTIF($B$1:B6,"x")</f>
         <v>3</v>
       </c>
       <c r="E6" s="84">
-        <f t="shared" si="0"/>
+        <f>D6</f>
         <v>3</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="86">
-        <v>44014</v>
+        <v>316</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>514</v>
       </c>
       <c r="H6" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I6" s="84"/>
-      <c r="J6" s="25" t="s">
-        <v>310</v>
+      <c r="J6" s="25">
+        <v>3</v>
       </c>
       <c r="K6" s="62">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L6" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="N6" s="27" t="s">
-        <v>226</v>
+      <c r="L6" s="27">
+        <v>272396568</v>
+      </c>
+      <c r="M6" s="28">
+        <v>34970</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="B7" s="62"/>
       <c r="D7" s="27">
         <f>COUNTIF($B$1:B7,"x")</f>
         <v>3</v>
       </c>
       <c r="E7" s="84">
-        <f t="shared" si="0"/>
+        <f>D7</f>
         <v>3</v>
       </c>
       <c r="F7" s="85" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="G7" s="86">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="H7" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I7" s="84"/>
       <c r="J7" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K7" s="62">
-        <f t="shared" si="1"/>
+        <f>D7</f>
         <v>3</v>
       </c>
-      <c r="L7" s="27">
-        <v>271298968</v>
-      </c>
-      <c r="M7" s="28">
-        <v>28235</v>
+      <c r="L7" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="N7" s="27" t="s">
         <v>226</v>
       </c>
-      <c r="O7" s="26">
-        <v>43103</v>
-      </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="24">
-        <v>2016</v>
-      </c>
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="62"/>
       <c r="D8" s="27">
         <f>COUNTIF($B$1:B8,"x")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" s="84">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>D8</f>
+        <v>3</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" s="86" t="s">
-        <v>514</v>
+        <v>128</v>
+      </c>
+      <c r="G8" s="86">
+        <v>44016</v>
       </c>
       <c r="H8" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I8" s="84"/>
+      <c r="J8" s="25" t="s">
+        <v>311</v>
+      </c>
       <c r="K8" s="62">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>D8</f>
+        <v>3</v>
       </c>
       <c r="L8" s="27">
-        <v>272396568</v>
+        <v>271298968</v>
       </c>
       <c r="M8" s="28">
-        <v>34970</v>
+        <v>28235</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O8" s="26">
+        <v>43103</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="24">
+        <v>2019</v>
+      </c>
       <c r="D9" s="27">
         <f>COUNTIF($B$1:B9,"x")</f>
         <v>4</v>
       </c>
       <c r="E9" s="84">
-        <f t="shared" si="0"/>
+        <f>D9</f>
         <v>4</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>493</v>
-      </c>
-      <c r="G9" s="86"/>
-      <c r="H9" s="84"/>
+        <v>532</v>
+      </c>
+      <c r="G9" s="86" t="s">
+        <v>514</v>
+      </c>
+      <c r="H9" s="84" t="s">
+        <v>108</v>
+      </c>
       <c r="I9" s="84"/>
+      <c r="J9" s="25">
+        <v>4</v>
+      </c>
       <c r="K9" s="62">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="L9" s="27">
+        <v>272282903</v>
+      </c>
+      <c r="M9" s="28">
+        <v>33816</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="62"/>
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="D10" s="27">
         <f>COUNTIF($B$1:B10,"x")</f>
         <v>4</v>
       </c>
       <c r="E10" s="84">
-        <f t="shared" si="0"/>
+        <f>D10</f>
         <v>4</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="86">
-        <v>44014</v>
-      </c>
-      <c r="H10" s="84" t="s">
-        <v>108</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="G10" s="86"/>
+      <c r="H10" s="84"/>
       <c r="I10" s="84"/>
-      <c r="J10" s="25" t="s">
-        <v>310</v>
-      </c>
       <c r="K10" s="62">
-        <f t="shared" si="1"/>
+        <f>D10</f>
         <v>4</v>
       </c>
-      <c r="L10" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="N10" s="27" t="s">
-        <v>226</v>
-      </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="24">
-        <v>2019</v>
-      </c>
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="62"/>
       <c r="D11" s="27">
         <f>COUNTIF($B$1:B11,"x")</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="84">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>D11</f>
+        <v>4</v>
       </c>
       <c r="F11" s="85" t="s">
-        <v>314</v>
-      </c>
-      <c r="G11" s="86" t="s">
-        <v>519</v>
+        <v>109</v>
+      </c>
+      <c r="G11" s="86">
+        <v>44014</v>
       </c>
       <c r="H11" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I11" s="84"/>
+      <c r="J11" s="25" t="s">
+        <v>310</v>
+      </c>
       <c r="K11" s="62">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L11" s="27">
-        <v>271449542</v>
-      </c>
-      <c r="M11" s="28">
-        <v>30027</v>
+        <f>D11</f>
+        <v>4</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="24">
+        <v>2019</v>
+      </c>
       <c r="D12" s="27">
         <f>COUNTIF($B$1:B12,"x")</f>
         <v>5</v>
       </c>
       <c r="E12" s="84">
-        <f t="shared" si="0"/>
+        <f>D12</f>
         <v>5</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="86">
-        <v>44014</v>
+        <v>527</v>
+      </c>
+      <c r="G12" s="86" t="s">
+        <v>514</v>
       </c>
       <c r="H12" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I12" s="84"/>
+      <c r="J12" s="25">
+        <v>5</v>
+      </c>
       <c r="K12" s="62">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="L12" s="27">
+        <v>272556665</v>
+      </c>
+      <c r="M12" s="28">
+        <v>35580</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="D13" s="27">
         <f>COUNTIF($B$1:B13,"x")</f>
         <v>5</v>
       </c>
       <c r="E13" s="84">
-        <f t="shared" si="0"/>
+        <f>D13</f>
         <v>5</v>
       </c>
       <c r="F13" s="85" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G13" s="86">
         <v>44014</v>
@@ -67053,50 +67144,35 @@
       </c>
       <c r="I13" s="84"/>
       <c r="K13" s="62">
-        <f t="shared" si="1"/>
+        <f>D13</f>
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="24">
-        <v>2019</v>
-      </c>
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="D14" s="27">
         <f>COUNTIF($B$1:B14,"x")</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="84">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>D14</f>
+        <v>5</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>530</v>
-      </c>
-      <c r="G14" s="86" t="s">
-        <v>514</v>
+        <v>119</v>
+      </c>
+      <c r="G14" s="86">
+        <v>44014</v>
       </c>
       <c r="H14" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I14" s="84"/>
       <c r="K14" s="62">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L14" s="27">
-        <v>271688082</v>
-      </c>
-      <c r="M14" s="28">
-        <v>31416</v>
+        <f>D14</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>108</v>
       </c>
@@ -67108,11 +67184,11 @@
       </c>
       <c r="D15" s="27">
         <f>COUNTIF($B$1:B15,"x")</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="84">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>D15</f>
+        <v>6</v>
       </c>
       <c r="F15" s="85" t="s">
         <v>528</v>
@@ -67124,9 +67200,11 @@
         <v>108</v>
       </c>
       <c r="I15" s="84"/>
+      <c r="J15" s="25">
+        <v>6</v>
+      </c>
       <c r="K15" s="62">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L15" s="27">
         <v>271285473</v>
@@ -67135,7 +67213,7 @@
         <v>27567</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>108</v>
       </c>
@@ -67147,34 +67225,36 @@
       </c>
       <c r="D16" s="27">
         <f>COUNTIF($B$1:B16,"x")</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="84">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>D16</f>
+        <v>7</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G16" s="86" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="H16" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I16" s="84"/>
+      <c r="J16" s="25">
+        <v>7</v>
+      </c>
       <c r="K16" s="62">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L16" s="27">
-        <v>271315765</v>
+        <v>75200000515</v>
       </c>
       <c r="M16" s="28">
-        <v>29205</v>
+        <v>36767</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
         <v>108</v>
       </c>
@@ -67186,68 +67266,87 @@
       </c>
       <c r="D17" s="27">
         <f>COUNTIF($B$1:B17,"x")</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17" s="84">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>D17</f>
+        <v>8</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="G17" s="86" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H17" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I17" s="84"/>
+      <c r="J17" s="25">
+        <v>8</v>
+      </c>
       <c r="K17" s="62">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L17" s="27">
-        <v>212143221</v>
+        <v>272732396</v>
       </c>
       <c r="M17" s="28">
-        <v>29696</v>
+        <v>36804</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="24">
+        <v>2019</v>
+      </c>
       <c r="D18" s="27">
         <f>COUNTIF($B$1:B18,"x")</f>
         <v>9</v>
       </c>
       <c r="E18" s="84">
-        <f t="shared" si="0"/>
+        <f>D18</f>
         <v>9</v>
       </c>
       <c r="F18" s="85" t="s">
-        <v>120</v>
-      </c>
-      <c r="G18" s="86">
-        <v>44014</v>
+        <v>518</v>
+      </c>
+      <c r="G18" s="86" t="s">
+        <v>519</v>
       </c>
       <c r="H18" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I18" s="84"/>
+      <c r="J18" s="25">
+        <v>9</v>
+      </c>
       <c r="K18" s="62">
-        <f t="shared" si="1"/>
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="L18" s="27">
+        <v>271315765</v>
+      </c>
+      <c r="M18" s="28">
+        <v>29205</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" s="27">
         <f>COUNTIF($B$1:B19,"x")</f>
         <v>9</v>
       </c>
       <c r="E19" s="84">
-        <f t="shared" si="0"/>
+        <f>D19</f>
         <v>9</v>
       </c>
       <c r="F19" s="85" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G19" s="86">
         <v>44014</v>
@@ -67257,77 +67356,62 @@
       </c>
       <c r="I19" s="84"/>
       <c r="K19" s="62">
-        <f t="shared" si="1"/>
+        <f>D19</f>
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" s="27">
         <f>COUNTIF($B$1:B20,"x")</f>
         <v>9</v>
       </c>
       <c r="E20" s="84">
-        <f t="shared" si="0"/>
+        <f>D20</f>
         <v>9</v>
       </c>
       <c r="F20" s="85" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="G20" s="86">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="H20" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I20" s="84"/>
       <c r="K20" s="62">
-        <f t="shared" si="1"/>
+        <f>D20</f>
         <v>9</v>
       </c>
-      <c r="O20" s="26">
-        <v>43103</v>
-      </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="24">
-        <v>2019</v>
-      </c>
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" s="27">
         <f>COUNTIF($B$1:B21,"x")</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="84">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>D21</f>
+        <v>9</v>
       </c>
       <c r="F21" s="85" t="s">
-        <v>522</v>
-      </c>
-      <c r="G21" s="86" t="s">
-        <v>520</v>
+        <v>151</v>
+      </c>
+      <c r="G21" s="86">
+        <v>44015</v>
       </c>
       <c r="H21" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I21" s="84"/>
       <c r="K21" s="62">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L21" s="27">
-        <v>75200000515</v>
-      </c>
-      <c r="M21" s="28">
-        <v>36767</v>
+        <f>D21</f>
+        <v>9</v>
+      </c>
+      <c r="O21" s="26">
+        <v>43103</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>108</v>
       </c>
@@ -67339,14 +67423,14 @@
       </c>
       <c r="D22" s="27">
         <f>COUNTIF($B$1:B22,"x")</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="84">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <f>D22</f>
+        <v>10</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>117</v>
+        <v>517</v>
       </c>
       <c r="G22" s="86" t="s">
         <v>514</v>
@@ -67355,81 +67439,85 @@
         <v>108</v>
       </c>
       <c r="I22" s="84"/>
+      <c r="J22" s="25">
+        <v>10</v>
+      </c>
       <c r="K22" s="62">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="L22" s="27">
-        <v>271728653</v>
+        <v>272556713</v>
       </c>
       <c r="M22" s="28">
-        <v>31088</v>
+        <v>35884</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="24">
+        <v>2019</v>
+      </c>
       <c r="D23" s="27">
         <f>COUNTIF($B$1:B23,"x")</f>
         <v>11</v>
       </c>
       <c r="E23" s="84">
-        <f t="shared" si="0"/>
+        <f>D23</f>
         <v>11</v>
       </c>
       <c r="F23" s="85" t="s">
-        <v>116</v>
-      </c>
-      <c r="G23" s="86">
-        <v>44016</v>
+        <v>117</v>
+      </c>
+      <c r="G23" s="86" t="s">
+        <v>514</v>
       </c>
       <c r="H23" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I23" s="84"/>
+      <c r="J23" s="25">
+        <v>11</v>
+      </c>
       <c r="K23" s="62">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="L23" s="27">
+        <v>271728653</v>
+      </c>
+      <c r="M23" s="28">
+        <v>31088</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="24">
-        <v>2019</v>
-      </c>
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="D24" s="27">
         <f>COUNTIF($B$1:B24,"x")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24" s="84">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>D24</f>
+        <v>11</v>
       </c>
       <c r="F24" s="85" t="s">
-        <v>523</v>
-      </c>
-      <c r="G24" s="86" t="s">
-        <v>514</v>
+        <v>116</v>
+      </c>
+      <c r="G24" s="86">
+        <v>44016</v>
       </c>
       <c r="H24" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I24" s="84"/>
       <c r="K24" s="62">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L24" s="27">
-        <v>272696072</v>
-      </c>
-      <c r="M24" s="28">
-        <v>36242</v>
+        <f>D24</f>
+        <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>108</v>
       </c>
@@ -67441,14 +67529,14 @@
       </c>
       <c r="D25" s="27">
         <f>COUNTIF($B$1:B25,"x")</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="84">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <f>D25</f>
+        <v>12</v>
       </c>
       <c r="F25" s="85" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="G25" s="86" t="s">
         <v>514</v>
@@ -67457,355 +67545,367 @@
         <v>108</v>
       </c>
       <c r="I25" s="84"/>
+      <c r="J25" s="25">
+        <v>12</v>
+      </c>
       <c r="K25" s="62">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="L25" s="27">
-        <v>272653927</v>
+        <v>272960603</v>
       </c>
       <c r="M25" s="28">
-        <v>35555</v>
+        <v>37008</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="62"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="24">
+        <v>2019</v>
+      </c>
       <c r="D26" s="27">
         <f>COUNTIF($B$1:B26,"x")</f>
         <v>13</v>
       </c>
       <c r="E26" s="84">
-        <f t="shared" si="0"/>
+        <f>D26</f>
         <v>13</v>
       </c>
       <c r="F26" s="85" t="s">
-        <v>115</v>
-      </c>
-      <c r="G26" s="86">
-        <v>44014</v>
+        <v>530</v>
+      </c>
+      <c r="G26" s="86" t="s">
+        <v>514</v>
       </c>
       <c r="H26" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I26" s="84"/>
-      <c r="J26" s="25" t="s">
-        <v>310</v>
+      <c r="J26" s="25">
+        <v>13</v>
       </c>
       <c r="K26" s="62">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="L26" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="M26" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="N26" s="51" t="s">
-        <v>227</v>
+        <v>2</v>
+      </c>
+      <c r="L26" s="27">
+        <v>271688082</v>
+      </c>
+      <c r="M26" s="28">
+        <v>31416</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="62"/>
       <c r="D27" s="27">
         <f>COUNTIF($B$1:B27,"x")</f>
         <v>13</v>
       </c>
       <c r="E27" s="84">
-        <f t="shared" si="0"/>
+        <f>D27</f>
         <v>13</v>
       </c>
       <c r="F27" s="85" t="s">
-        <v>490</v>
-      </c>
-      <c r="G27" s="86"/>
-      <c r="H27" s="84"/>
+        <v>115</v>
+      </c>
+      <c r="G27" s="86">
+        <v>44014</v>
+      </c>
+      <c r="H27" s="84" t="s">
+        <v>108</v>
+      </c>
       <c r="I27" s="84"/>
+      <c r="J27" s="25" t="s">
+        <v>310</v>
+      </c>
       <c r="K27" s="62">
-        <f t="shared" si="1"/>
+        <f>D27</f>
         <v>13</v>
       </c>
+      <c r="L27" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="N27" s="51" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="62"/>
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="D28" s="27">
         <f>COUNTIF($B$1:B28,"x")</f>
         <v>13</v>
       </c>
       <c r="E28" s="84">
-        <f t="shared" si="0"/>
+        <f>D28</f>
         <v>13</v>
       </c>
       <c r="F28" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="G28" s="86">
-        <v>44014</v>
-      </c>
-      <c r="H28" s="84" t="s">
-        <v>108</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="G28" s="86"/>
+      <c r="H28" s="84"/>
       <c r="I28" s="84"/>
-      <c r="J28" s="25" t="s">
-        <v>310</v>
-      </c>
       <c r="K28" s="62">
-        <f t="shared" si="1"/>
+        <f>D28</f>
         <v>13</v>
       </c>
-      <c r="L28" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="M28" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="N28" s="27" t="s">
-        <v>226</v>
-      </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="62"/>
       <c r="D29" s="27">
         <f>COUNTIF($B$1:B29,"x")</f>
         <v>13</v>
       </c>
       <c r="E29" s="84">
-        <f t="shared" si="0"/>
+        <f>D29</f>
         <v>13</v>
       </c>
       <c r="F29" s="85" t="s">
-        <v>494</v>
-      </c>
-      <c r="G29" s="86"/>
-      <c r="H29" s="84"/>
+        <v>113</v>
+      </c>
+      <c r="G29" s="86">
+        <v>44014</v>
+      </c>
+      <c r="H29" s="84" t="s">
+        <v>108</v>
+      </c>
       <c r="I29" s="84"/>
+      <c r="J29" s="25" t="s">
+        <v>310</v>
+      </c>
       <c r="K29" s="62">
-        <f t="shared" si="1"/>
+        <f>D29</f>
         <v>13</v>
       </c>
+      <c r="L29" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="M29" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="N29" s="27" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="24">
-        <v>2019</v>
-      </c>
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="D30" s="27">
         <f>COUNTIF($B$1:B30,"x")</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="84">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f>D30</f>
+        <v>13</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>532</v>
-      </c>
-      <c r="G30" s="86" t="s">
-        <v>514</v>
-      </c>
-      <c r="H30" s="84" t="s">
-        <v>108</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="G30" s="86"/>
+      <c r="H30" s="84"/>
       <c r="I30" s="84"/>
       <c r="K30" s="62">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L30" s="27">
-        <v>272282903</v>
-      </c>
-      <c r="M30" s="28">
-        <v>33816</v>
+        <f>D30</f>
+        <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="24">
+        <v>2019</v>
+      </c>
       <c r="D31" s="27">
         <f>COUNTIF($B$1:B31,"x")</f>
         <v>14</v>
       </c>
       <c r="E31" s="84">
-        <f t="shared" si="0"/>
+        <f>D31</f>
         <v>14</v>
       </c>
       <c r="F31" s="85" t="s">
-        <v>495</v>
-      </c>
-      <c r="G31" s="86">
-        <v>44015</v>
+        <v>525</v>
+      </c>
+      <c r="G31" s="86" t="s">
+        <v>514</v>
       </c>
       <c r="H31" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I31" s="84"/>
+      <c r="J31" s="25">
+        <v>14</v>
+      </c>
       <c r="K31" s="62">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="L31" s="27">
+        <v>272397442</v>
+      </c>
+      <c r="M31" s="28">
+        <v>34041</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="24">
-        <v>2019</v>
-      </c>
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="D32" s="27">
         <f>COUNTIF($B$1:B32,"x")</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="84">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f>D32</f>
+        <v>14</v>
       </c>
       <c r="F32" s="85" t="s">
-        <v>516</v>
-      </c>
-      <c r="G32" s="86" t="s">
-        <v>514</v>
+        <v>495</v>
+      </c>
+      <c r="G32" s="86">
+        <v>44015</v>
       </c>
       <c r="H32" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I32" s="84"/>
       <c r="K32" s="62">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="L32" s="27">
-        <v>272352958</v>
-      </c>
-      <c r="M32" s="28">
-        <v>34281</v>
+        <f>D32</f>
+        <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="62"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="24">
+        <v>2019</v>
+      </c>
       <c r="D33" s="27">
         <f>COUNTIF($B$1:B33,"x")</f>
         <v>15</v>
       </c>
       <c r="E33" s="84">
-        <f t="shared" si="0"/>
+        <f>D33</f>
         <v>15</v>
       </c>
       <c r="F33" s="85" t="s">
-        <v>315</v>
-      </c>
-      <c r="G33" s="86">
-        <v>44015</v>
+        <v>533</v>
+      </c>
+      <c r="G33" s="86" t="s">
+        <v>514</v>
       </c>
       <c r="H33" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I33" s="84"/>
-      <c r="J33" s="25" t="s">
-        <v>313</v>
+      <c r="J33" s="25">
+        <v>15</v>
       </c>
       <c r="K33" s="62">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="L33" s="27">
-        <v>271294536</v>
-      </c>
-      <c r="M33" s="64">
-        <v>29587</v>
+        <v>272653927</v>
+      </c>
+      <c r="M33" s="28">
+        <v>35555</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C34" s="24">
-        <v>2019</v>
-      </c>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="62"/>
       <c r="D34" s="27">
         <f>COUNTIF($B$1:B34,"x")</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="84">
-        <f t="shared" ref="E34:E50" si="2">D34</f>
-        <v>16</v>
+        <f>D34</f>
+        <v>15</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>511</v>
-      </c>
-      <c r="G34" s="86" t="s">
-        <v>514</v>
+        <v>315</v>
+      </c>
+      <c r="G34" s="86">
+        <v>44015</v>
       </c>
       <c r="H34" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I34" s="84"/>
+      <c r="J34" s="25" t="s">
+        <v>313</v>
+      </c>
       <c r="K34" s="62">
-        <f t="shared" ref="K34:K50" si="3">D34</f>
-        <v>16</v>
+        <f>D34</f>
+        <v>15</v>
       </c>
       <c r="L34" s="27">
-        <v>272556764</v>
-      </c>
-      <c r="M34" s="28">
-        <v>34976</v>
+        <v>271294536</v>
+      </c>
+      <c r="M34" s="64">
+        <v>29587</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="62"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="24">
+        <v>2019</v>
+      </c>
       <c r="D35" s="27">
         <f>COUNTIF($B$1:B35,"x")</f>
         <v>16</v>
       </c>
       <c r="E35" s="84">
-        <f t="shared" si="2"/>
+        <f>D35</f>
         <v>16</v>
       </c>
       <c r="F35" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="86">
-        <v>44014</v>
+        <v>511</v>
+      </c>
+      <c r="G35" s="86" t="s">
+        <v>514</v>
       </c>
       <c r="H35" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I35" s="84"/>
-      <c r="J35" s="25" t="s">
-        <v>310</v>
+      <c r="J35" s="25">
+        <v>16</v>
       </c>
       <c r="K35" s="62">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="L35" s="27" t="s">
-        <v>382</v>
+        <v>5</v>
+      </c>
+      <c r="L35" s="27">
+        <v>272556764</v>
       </c>
       <c r="M35" s="28">
-        <v>28956</v>
-      </c>
-      <c r="N35" s="27" t="s">
-        <v>226</v>
+        <v>34976</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B36" s="62"/>
       <c r="D36" s="27">
         <f>COUNTIF($B$1:B36,"x")</f>
         <v>16</v>
       </c>
       <c r="E36" s="84">
-        <f t="shared" si="2"/>
+        <f>D36</f>
         <v>16</v>
       </c>
       <c r="F36" s="85" t="s">
-        <v>381</v>
+        <v>107</v>
       </c>
       <c r="G36" s="86">
         <v>44014</v>
@@ -67818,31 +67918,31 @@
         <v>310</v>
       </c>
       <c r="K36" s="62">
-        <f t="shared" si="3"/>
+        <f>D36</f>
         <v>16</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="M36" s="28" t="s">
-        <v>144</v>
+        <v>382</v>
+      </c>
+      <c r="M36" s="28">
+        <v>28956</v>
       </c>
       <c r="N36" s="27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="B37" s="62"/>
       <c r="D37" s="27">
         <f>COUNTIF($B$1:B37,"x")</f>
         <v>16</v>
       </c>
       <c r="E37" s="84">
-        <f t="shared" si="2"/>
+        <f>D37</f>
         <v>16</v>
       </c>
       <c r="F37" s="85" t="s">
-        <v>112</v>
+        <v>381</v>
       </c>
       <c r="G37" s="86">
         <v>44014</v>
@@ -67855,61 +67955,57 @@
         <v>310</v>
       </c>
       <c r="K37" s="62">
-        <f t="shared" si="3"/>
+        <f>D37</f>
         <v>16</v>
       </c>
       <c r="L37" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="M37" s="27" t="s">
-        <v>139</v>
+        <v>143</v>
+      </c>
+      <c r="M37" s="28" t="s">
+        <v>144</v>
       </c>
       <c r="N37" s="27" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" s="24">
-        <v>2019</v>
-      </c>
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="62"/>
       <c r="D38" s="27">
         <f>COUNTIF($B$1:B38,"x")</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" s="84">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f>D38</f>
+        <v>16</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>123</v>
-      </c>
-      <c r="G38" s="86" t="s">
-        <v>514</v>
+        <v>112</v>
+      </c>
+      <c r="G38" s="86">
+        <v>44014</v>
       </c>
       <c r="H38" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="I38" s="84" t="s">
-        <v>126</v>
+      <c r="I38" s="84"/>
+      <c r="J38" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="K38" s="62">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="L38" s="27">
-        <v>271586657</v>
-      </c>
-      <c r="M38" s="28">
-        <v>29221</v>
+        <f>D38</f>
+        <v>16</v>
+      </c>
+      <c r="L38" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="N38" s="27" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>108</v>
       </c>
@@ -67921,14 +68017,14 @@
       </c>
       <c r="D39" s="27">
         <f>COUNTIF($B$1:B39,"x")</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="84">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f>D39</f>
+        <v>17</v>
       </c>
       <c r="F39" s="85" t="s">
-        <v>521</v>
+        <v>123</v>
       </c>
       <c r="G39" s="86" t="s">
         <v>514</v>
@@ -67937,55 +68033,71 @@
         <v>108</v>
       </c>
       <c r="I39" s="84"/>
+      <c r="J39" s="25">
+        <v>17</v>
+      </c>
       <c r="K39" s="62">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L39" s="27">
-        <v>272732396</v>
+        <v>271586657</v>
       </c>
       <c r="M39" s="28">
-        <v>36804</v>
+        <v>29221</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="24">
+        <v>2019</v>
+      </c>
       <c r="D40" s="27">
         <f>COUNTIF($B$1:B40,"x")</f>
         <v>18</v>
       </c>
       <c r="E40" s="84">
-        <f t="shared" si="2"/>
+        <f>D40</f>
         <v>18</v>
       </c>
       <c r="F40" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" s="86">
-        <v>44014</v>
+        <v>314</v>
+      </c>
+      <c r="G40" s="86" t="s">
+        <v>519</v>
       </c>
       <c r="H40" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I40" s="84"/>
+      <c r="J40" s="25">
+        <v>18</v>
+      </c>
       <c r="K40" s="62">
-        <f t="shared" si="3"/>
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="L40" s="27">
+        <v>271449542</v>
+      </c>
+      <c r="M40" s="28">
+        <v>30027</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>108</v>
-      </c>
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="D41" s="27">
         <f>COUNTIF($B$1:B41,"x")</f>
         <v>18</v>
       </c>
       <c r="E41" s="84">
-        <f t="shared" si="2"/>
+        <f>D41</f>
         <v>18</v>
       </c>
       <c r="F41" s="85" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="G41" s="86">
         <v>44014</v>
@@ -67993,32 +68105,26 @@
       <c r="H41" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="I41" s="84" t="s">
-        <v>126</v>
-      </c>
+      <c r="I41" s="84"/>
       <c r="K41" s="62">
-        <f t="shared" si="3"/>
+        <f>D41</f>
         <v>18</v>
       </c>
-      <c r="M41" s="28">
-        <v>30303</v>
-      </c>
-      <c r="O41" s="26">
-        <v>43103</v>
-      </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="62"/>
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="D42" s="27">
         <f>COUNTIF($B$1:B42,"x")</f>
         <v>18</v>
       </c>
       <c r="E42" s="84">
-        <f t="shared" si="2"/>
+        <f>D42</f>
         <v>18</v>
       </c>
       <c r="F42" s="85" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="G42" s="86">
         <v>44014</v>
@@ -68026,114 +68132,113 @@
       <c r="H42" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="I42" s="84"/>
-      <c r="J42" s="25" t="s">
-        <v>310</v>
+      <c r="I42" s="84" t="s">
+        <v>126</v>
       </c>
       <c r="K42" s="62">
-        <f t="shared" si="3"/>
+        <f>D42</f>
         <v>18</v>
       </c>
-      <c r="L42" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="M42" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="N42" s="27" t="s">
-        <v>226</v>
+      <c r="M42" s="28">
+        <v>30303</v>
+      </c>
+      <c r="O42" s="26">
+        <v>43103</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="24">
-        <v>2019</v>
-      </c>
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="62"/>
       <c r="D43" s="27">
         <f>COUNTIF($B$1:B43,"x")</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E43" s="84">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f>D43</f>
+        <v>18</v>
       </c>
       <c r="F43" s="85" t="s">
-        <v>526</v>
-      </c>
-      <c r="G43" s="86" t="s">
-        <v>514</v>
+        <v>110</v>
+      </c>
+      <c r="G43" s="86">
+        <v>44014</v>
       </c>
       <c r="H43" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I43" s="84"/>
+      <c r="J43" s="25" t="s">
+        <v>310</v>
+      </c>
       <c r="K43" s="62">
-        <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="L43" s="27">
-        <v>272423855</v>
-      </c>
-      <c r="M43" s="28">
-        <v>34974</v>
+        <f>D43</f>
+        <v>18</v>
+      </c>
+      <c r="L43" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="M43" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="N43" s="27" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="62"/>
+      <c r="B44" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="24">
+        <v>2019</v>
+      </c>
       <c r="D44" s="27">
         <f>COUNTIF($B$1:B44,"x")</f>
         <v>19</v>
       </c>
       <c r="E44" s="84">
-        <f t="shared" si="2"/>
+        <f>D44</f>
         <v>19</v>
       </c>
       <c r="F44" s="85" t="s">
-        <v>312</v>
-      </c>
-      <c r="G44" s="86">
-        <v>44014</v>
+        <v>526</v>
+      </c>
+      <c r="G44" s="86" t="s">
+        <v>514</v>
       </c>
       <c r="H44" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="I44" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>313</v>
+      <c r="I44" s="84"/>
+      <c r="J44" s="25">
+        <v>19</v>
       </c>
       <c r="K44" s="62">
-        <f t="shared" si="3"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="L44" s="27">
-        <v>271380486</v>
+        <v>272423855</v>
       </c>
       <c r="M44" s="28">
-        <v>30730</v>
+        <v>34974</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
+        <v>108</v>
+      </c>
       <c r="B45" s="62"/>
       <c r="D45" s="27">
         <f>COUNTIF($B$1:B45,"x")</f>
         <v>19</v>
       </c>
       <c r="E45" s="84">
-        <f t="shared" si="2"/>
+        <f>D45</f>
         <v>19</v>
       </c>
       <c r="F45" s="85" t="s">
-        <v>111</v>
+        <v>312</v>
       </c>
       <c r="G45" s="86">
         <v>44014</v>
@@ -68141,35 +68246,35 @@
       <c r="H45" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="I45" s="84"/>
+      <c r="I45" s="84" t="s">
+        <v>126</v>
+      </c>
       <c r="J45" s="25" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K45" s="62">
-        <f t="shared" si="3"/>
+        <f>D45</f>
         <v>19</v>
       </c>
       <c r="L45" s="27">
-        <v>271235673</v>
+        <v>271380486</v>
       </c>
       <c r="M45" s="28">
-        <v>26845</v>
-      </c>
-      <c r="N45" s="27" t="s">
-        <v>226</v>
+        <v>30730</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="62"/>
       <c r="D46" s="27">
         <f>COUNTIF($B$1:B46,"x")</f>
         <v>19</v>
       </c>
       <c r="E46" s="84">
-        <f t="shared" si="2"/>
+        <f>D46</f>
         <v>19</v>
       </c>
       <c r="F46" s="85" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G46" s="86">
         <v>44014</v>
@@ -68178,22 +68283,34 @@
         <v>108</v>
       </c>
       <c r="I46" s="84"/>
+      <c r="J46" s="25" t="s">
+        <v>310</v>
+      </c>
       <c r="K46" s="62">
-        <f t="shared" si="3"/>
+        <f>D46</f>
         <v>19</v>
       </c>
+      <c r="L46" s="27">
+        <v>271235673</v>
+      </c>
+      <c r="M46" s="28">
+        <v>26845</v>
+      </c>
+      <c r="N46" s="27" t="s">
+        <v>226</v>
+      </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="D47" s="27">
         <f>COUNTIF($B$1:B47,"x")</f>
         <v>19</v>
       </c>
       <c r="E47" s="84">
-        <f t="shared" si="2"/>
+        <f>D47</f>
         <v>19</v>
       </c>
       <c r="F47" s="85" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G47" s="86">
         <v>44014</v>
@@ -68203,50 +68320,35 @@
       </c>
       <c r="I47" s="84"/>
       <c r="K47" s="62">
-        <f t="shared" si="3"/>
+        <f>D47</f>
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="24">
-        <v>2019</v>
-      </c>
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="D48" s="27">
         <f>COUNTIF($B$1:B48,"x")</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E48" s="84">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>D48</f>
+        <v>19</v>
       </c>
       <c r="F48" s="85" t="s">
-        <v>517</v>
-      </c>
-      <c r="G48" s="86" t="s">
-        <v>514</v>
+        <v>125</v>
+      </c>
+      <c r="G48" s="86">
+        <v>44014</v>
       </c>
       <c r="H48" s="84" t="s">
         <v>108</v>
       </c>
       <c r="I48" s="84"/>
       <c r="K48" s="62">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="L48" s="27">
-        <v>272556713</v>
-      </c>
-      <c r="M48" s="28">
-        <v>35884</v>
+        <f>D48</f>
+        <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
         <v>108</v>
       </c>
@@ -68258,14 +68360,14 @@
       </c>
       <c r="D49" s="27">
         <f>COUNTIF($B$1:B49,"x")</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="84">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f>D49</f>
+        <v>20</v>
       </c>
       <c r="F49" s="85" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="G49" s="86" t="s">
         <v>514</v>
@@ -68274,281 +68376,288 @@
         <v>108</v>
       </c>
       <c r="I49" s="84"/>
+      <c r="J49" s="25">
+        <v>20</v>
+      </c>
       <c r="K49" s="62">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="L49" s="27">
-        <v>272960603</v>
+        <v>272352958</v>
       </c>
       <c r="M49" s="28">
-        <v>37008</v>
+        <v>34281</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="24">
+        <v>2016</v>
+      </c>
+      <c r="E50" s="84">
+        <f>D50</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="167" t="s">
+        <v>501</v>
+      </c>
+      <c r="G50" s="167"/>
+      <c r="H50" s="167" t="s">
+        <v>148</v>
+      </c>
+      <c r="I50" s="167"/>
+      <c r="L50" s="27">
+        <v>272236579</v>
+      </c>
+      <c r="M50" s="28">
+        <v>33442</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24" t="s">
         <v>108</v>
-      </c>
-      <c r="D50" s="27">
-        <f>COUNTIF($B$1:B50,"x")</f>
-        <v>21</v>
-      </c>
-      <c r="E50" s="84">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="F50" s="85" t="s">
-        <v>491</v>
-      </c>
-      <c r="G50" s="86">
-        <v>44014</v>
-      </c>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="K50" s="62">
-        <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="M50" s="28">
-        <v>27534</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>619</v>
       </c>
       <c r="D51" s="27">
         <f>COUNTIF($B$1:B51,"x")</f>
         <v>21</v>
       </c>
-      <c r="E51" s="84"/>
+      <c r="E51" s="84">
+        <f>D51</f>
+        <v>21</v>
+      </c>
       <c r="F51" s="85" t="s">
-        <v>320</v>
-      </c>
-      <c r="G51" s="86"/>
-      <c r="H51" s="84" t="s">
-        <v>618</v>
-      </c>
-      <c r="I51" s="84"/>
-      <c r="K51" s="62"/>
+        <v>491</v>
+      </c>
+      <c r="G51" s="86">
+        <v>44014</v>
+      </c>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="K51" s="62">
+        <f>D51</f>
+        <v>21</v>
+      </c>
       <c r="M51" s="28">
-        <v>29541</v>
+        <v>27534</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="24">
-        <v>2019</v>
+        <v>619</v>
       </c>
       <c r="D52" s="27">
         <f>COUNTIF($B$1:B52,"x")</f>
-        <v>22</v>
-      </c>
-      <c r="E52" s="84">
-        <f>D52</f>
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="E52" s="84"/>
       <c r="F52" s="85" t="s">
-        <v>525</v>
-      </c>
-      <c r="G52" s="86" t="s">
-        <v>514</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="G52" s="86"/>
       <c r="H52" s="84" t="s">
-        <v>108</v>
+        <v>618</v>
       </c>
       <c r="I52" s="84"/>
-      <c r="K52" s="62">
-        <f>D52</f>
-        <v>22</v>
-      </c>
-      <c r="L52" s="27">
-        <v>272397442</v>
-      </c>
+      <c r="K52" s="62"/>
       <c r="M52" s="28">
-        <v>34041</v>
+        <v>29541</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
-        <v>108</v>
+        <v>483</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="24">
+        <v>2012</v>
       </c>
       <c r="D53" s="27">
-        <f>COUNTIF($B$1:B53,"x")</f>
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E53" s="84">
         <f>D53</f>
+        <v>2</v>
+      </c>
+      <c r="F53" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="86"/>
+      <c r="H53" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" s="84"/>
+      <c r="K53" s="62"/>
+      <c r="M53" s="28">
+        <v>29692</v>
+      </c>
+      <c r="N53" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O53" s="26">
+        <v>41396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="27">
+        <f>COUNTIF($B$1:B54,"x")</f>
         <v>22</v>
-      </c>
-      <c r="F53" s="85" t="s">
-        <v>492</v>
-      </c>
-      <c r="G53" s="86">
-        <v>44014</v>
-      </c>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84" t="s">
-        <v>126</v>
-      </c>
-      <c r="K53" s="62">
-        <f>D53</f>
-        <v>22</v>
-      </c>
-      <c r="M53" s="28">
-        <v>30596</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="C54" s="24">
-        <v>2016</v>
       </c>
       <c r="E54" s="84">
         <f>D54</f>
-        <v>0</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>501</v>
-      </c>
-      <c r="H54" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="L54" s="27">
-        <v>272236579</v>
+        <v>22</v>
+      </c>
+      <c r="F54" s="85" t="s">
+        <v>492</v>
+      </c>
+      <c r="G54" s="86">
+        <v>44014</v>
+      </c>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="K54" s="62">
+        <f>D54</f>
+        <v>22</v>
       </c>
       <c r="M54" s="28">
-        <v>33442</v>
+        <v>30596</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C60" s="24" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C61" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C62" s="24" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C63" s="24" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C64" s="24" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C65" s="24" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C66" s="24" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C67" s="24" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C68" s="24" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C69" s="24" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C70" s="24" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C71" s="24" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C72" s="24" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C73" s="24" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C74" s="24" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C75" s="24" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C76" s="24" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C77" s="24" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C78" s="24" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C79" s="24" t="s">
         <v>516</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V54">
-    <filterColumn colId="8">
+  <autoFilter ref="A1:V54" xr:uid="{00000000-0009-0000-0000-00000B000000}">
+    <filterColumn colId="1">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V53">
+      <sortCondition ref="J1:J54"/>
+    </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="F54:F1048576 F7:F50 F1:F5">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  <conditionalFormatting sqref="F52:F53">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51:F52">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F53">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="F55:F1048576 F8:F51 F1:F6">
+    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -68556,25 +68665,264 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6175EE4F-DB19-4E60-8A5D-D69850D700D9}">
+  <dimension ref="E2:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>523</v>
+      </c>
+      <c r="G3" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>532</v>
+      </c>
+      <c r="G5" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>527</v>
+      </c>
+      <c r="G6" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>530</v>
+      </c>
+      <c r="G8" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>528</v>
+      </c>
+      <c r="G9" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>533</v>
+      </c>
+      <c r="G10" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="11" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>521</v>
+      </c>
+      <c r="G11" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="12" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>517</v>
+      </c>
+      <c r="G12" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>314</v>
+      </c>
+      <c r="G14" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>531</v>
+      </c>
+      <c r="G15" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="16" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>526</v>
+      </c>
+      <c r="G16" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>516</v>
+      </c>
+      <c r="G17" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>522</v>
+      </c>
+      <c r="G18" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>518</v>
+      </c>
+      <c r="G19" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>21</v>
+      </c>
+      <c r="F20" t="s">
+        <v>525</v>
+      </c>
+      <c r="G20" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>511</v>
+      </c>
+      <c r="G21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:O10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="67" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="67" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="50.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="66" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="64.8" x14ac:dyDescent="0.3">
       <c r="B1" s="69" t="s">
         <v>168</v>
       </c>
@@ -68584,10 +68932,10 @@
       <c r="D1" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="162" t="s">
+      <c r="E1" s="163" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="162"/>
+      <c r="F1" s="163"/>
       <c r="G1" s="69" t="s">
         <v>212</v>
       </c>
@@ -68598,11 +68946,11 @@
         <v>3500000000</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="163" t="s">
+    <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="164" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="164" t="s">
+      <c r="C2" s="165" t="s">
         <v>214</v>
       </c>
       <c r="D2" s="70" t="s">
@@ -68620,9 +68968,9 @@
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
+    <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="164"/>
+      <c r="C3" s="165"/>
       <c r="D3" s="70" t="s">
         <v>207</v>
       </c>
@@ -68638,9 +68986,9 @@
         <v>565</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="163"/>
-      <c r="C4" s="164"/>
+    <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="164"/>
+      <c r="C4" s="165"/>
       <c r="D4" s="70" t="s">
         <v>208</v>
       </c>
@@ -68658,7 +69006,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="73"/>
       <c r="C5" s="73"/>
       <c r="D5" s="74">
@@ -68682,13 +69030,13 @@
         <v>569</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E6" s="67"/>
       <c r="I6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>210</v>
       </c>
@@ -68702,7 +69050,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2017</v>
       </c>
@@ -68737,7 +69085,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="72" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2018</v>
       </c>
@@ -68759,7 +69107,7 @@
       <c r="K9" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="L9" s="165" t="s">
+      <c r="L9" s="147" t="s">
         <v>876</v>
       </c>
       <c r="M9" s="1" t="s">
@@ -68772,7 +69120,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>2019</v>
       </c>
@@ -68794,36 +69142,37 @@
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1"/>
-    <hyperlink ref="L9" r:id="rId2"/>
+    <hyperlink ref="J5" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="L9" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="95" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="45.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="65" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="65" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="93">
         <f>SUMIF(A2:A21,"x",F2:F21)</f>
         <v>1740168722</v>
@@ -68856,7 +69205,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -68888,7 +69237,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>360</v>
       </c>
@@ -68917,7 +69266,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>365</v>
       </c>
@@ -68946,7 +69295,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>368</v>
       </c>
@@ -68975,7 +69324,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>355</v>
       </c>
@@ -69004,7 +69353,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>534</v>
       </c>
@@ -69030,71 +69379,82 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="I12">
         <v>1640251089</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="I13">
         <v>1374255938</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="I14">
         <v>3043578216</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="I15">
         <v>1133019615</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="I16">
         <v>1276052117</v>
       </c>
     </row>
-    <row r="17" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="D17" s="97"/>
     </row>
-    <row r="18" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" s="97"/>
     </row>
-    <row r="19" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" s="97"/>
     </row>
-    <row r="20" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" s="97"/>
     </row>
-    <row r="21" spans="4:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" s="97"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J21"/>
+  <autoFilter ref="A1:J21" xr:uid="{00000000-0009-0000-0000-00000D000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="22/2018-HĐ-ĐLXL. Gói thầu số 02: Thi công xây lắp"/>
+        <filter val="ĐN2516723. Gói thầu số 02: Thi công xây lắp"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="C1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="61.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="31.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="61.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="31.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>152</v>
       </c>
@@ -69105,7 +69465,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C2">
         <v>1</v>
       </c>
@@ -69116,7 +69476,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>2</v>
       </c>
@@ -69127,7 +69487,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>3</v>
       </c>
@@ -69138,7 +69498,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>4</v>
       </c>
@@ -69149,7 +69509,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>5</v>
       </c>
@@ -69160,7 +69520,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C7">
         <v>6</v>
       </c>
@@ -69171,7 +69531,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>152</v>
       </c>
@@ -69185,7 +69545,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>592</v>
       </c>
@@ -69193,7 +69553,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>1</v>
       </c>
@@ -69207,7 +69567,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>2</v>
       </c>
@@ -69221,7 +69581,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>3</v>
       </c>
@@ -69237,20 +69597,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="D1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>180</v>
       </c>
@@ -69270,10 +69630,10 @@
         <v>607</v>
       </c>
     </row>
-    <row r="2" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D2">
         <f>IFERROR(VLOOKUP(E2,NhanSu!F:K,6,0),0)</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>529</v>
@@ -69291,10 +69651,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D3">
         <f>IFERROR(VLOOKUP(E3,NhanSu!F:K,6,0),0)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>523</v>
@@ -69312,10 +69672,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D4">
         <f>IFERROR(VLOOKUP(E4,NhanSu!F:K,6,0),0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>316</v>
@@ -69333,7 +69693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5">
         <f>IFERROR(VLOOKUP(E5,NhanSu!F:K,6,0),0)</f>
         <v>19</v>
@@ -69354,7 +69714,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6">
         <f>IFERROR(VLOOKUP(E6,NhanSu!F:K,6,0),0)</f>
         <v>13</v>
@@ -69375,7 +69735,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D7">
         <f>IFERROR(VLOOKUP(E7,NhanSu!F:K,6,0),0)</f>
         <v>4</v>
@@ -69396,7 +69756,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D8">
         <f>IFERROR(VLOOKUP(E8,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69417,7 +69777,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D9">
         <f>IFERROR(VLOOKUP(E9,NhanSu!F:K,6,0),0)</f>
         <v>0</v>
@@ -69438,7 +69798,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10">
         <f>IFERROR(VLOOKUP(E10,NhanSu!F:K,6,0),0)</f>
         <v>13</v>
@@ -69459,7 +69819,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D11">
         <f>IFERROR(VLOOKUP(E11,NhanSu!F:K,6,0),0)</f>
         <v>9</v>
@@ -69480,10 +69840,10 @@
         <v>610</v>
       </c>
     </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D12">
         <f>IFERROR(VLOOKUP(E12,NhanSu!F:K,6,0),0)</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>532</v>
@@ -69498,10 +69858,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D13">
         <f>IFERROR(VLOOKUP(E13,NhanSu!F:K,6,0),0)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>527</v>
@@ -69519,10 +69879,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14">
         <f>IFERROR(VLOOKUP(E14,NhanSu!F:K,6,0),0)</f>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>517</v>
@@ -69540,10 +69900,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D15">
         <f>IFERROR(VLOOKUP(E15,NhanSu!F:K,6,0),0)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
         <v>117</v>
@@ -69561,7 +69921,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D16">
         <f>IFERROR(VLOOKUP(E16,NhanSu!F:K,6,0),0)</f>
         <v>16</v>
@@ -69582,7 +69942,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D17">
         <f>IFERROR(VLOOKUP(E17,NhanSu!F:K,6,0),0)</f>
         <v>13</v>
@@ -69603,7 +69963,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D18">
         <f>IFERROR(VLOOKUP(E18,NhanSu!F:K,6,0),0)</f>
         <v>3</v>
@@ -69624,7 +69984,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D19">
         <f>IFERROR(VLOOKUP(E19,NhanSu!F:K,6,0),0)</f>
         <v>16</v>
@@ -69645,7 +70005,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D20">
         <f>IFERROR(VLOOKUP(E20,NhanSu!F:K,6,0),0)</f>
         <v>22</v>
@@ -69666,7 +70026,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D21">
         <f>IFERROR(VLOOKUP(E21,NhanSu!F:K,6,0),0)</f>
         <v>21</v>
@@ -69687,10 +70047,10 @@
         <v>610</v>
       </c>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D22">
         <f>IFERROR(VLOOKUP(E22,NhanSu!F:K,6,0),0)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
         <v>528</v>
@@ -69711,10 +70071,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D23">
         <f>IFERROR(VLOOKUP(E23,NhanSu!F:K,6,0),0)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
         <v>522</v>
@@ -69735,10 +70095,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D24">
         <f>IFERROR(VLOOKUP(E24,NhanSu!F:K,6,0),0)</f>
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
         <v>521</v>
@@ -69759,10 +70119,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D25">
         <f>IFERROR(VLOOKUP(E25,NhanSu!F:K,6,0),0)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
         <v>518</v>
@@ -69783,10 +70143,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D26">
         <f>IFERROR(VLOOKUP(E26,NhanSu!F:K,6,0),0)</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
         <v>511</v>
@@ -69807,10 +70167,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D27">
         <f>IFERROR(VLOOKUP(E27,NhanSu!F:K,6,0),0)</f>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
         <v>123</v>
@@ -69831,10 +70191,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D28">
         <f>IFERROR(VLOOKUP(E28,NhanSu!F:K,6,0),0)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>314</v>
@@ -69855,7 +70215,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D29">
         <f>IFERROR(VLOOKUP(E29,NhanSu!F:K,6,0),0)</f>
         <v>19</v>
@@ -69879,7 +70239,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D30">
         <f>IFERROR(VLOOKUP(E30,NhanSu!F:K,6,0),0)</f>
         <v>18</v>
@@ -69903,7 +70263,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D31">
         <f>IFERROR(VLOOKUP(E31,NhanSu!F:K,6,0),0)</f>
         <v>16</v>
@@ -69927,10 +70287,10 @@
         <v>608</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D32">
         <f>IFERROR(VLOOKUP(E32,NhanSu!F:K,6,0),0)</f>
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>531</v>
@@ -69948,10 +70308,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33">
         <f>IFERROR(VLOOKUP(E33,NhanSu!F:K,6,0),0)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
         <v>530</v>
@@ -69969,10 +70329,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D34">
         <f>IFERROR(VLOOKUP(E34,NhanSu!F:K,6,0),0)</f>
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E34" t="s">
         <v>525</v>
@@ -69990,10 +70350,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D35">
         <f>IFERROR(VLOOKUP(E35,NhanSu!F:K,6,0),0)</f>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E35" t="s">
         <v>533</v>
@@ -70011,10 +70371,10 @@
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D36">
         <f>IFERROR(VLOOKUP(E36,NhanSu!F:K,6,0),0)</f>
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
         <v>516</v>
@@ -70032,7 +70392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37">
         <f>IFERROR(VLOOKUP(E37,NhanSu!F:K,6,0),0)</f>
         <v>15</v>
@@ -70053,7 +70413,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38">
         <f>IFERROR(VLOOKUP(E38,NhanSu!F:K,6,0),0)</f>
         <v>13</v>
@@ -70074,7 +70434,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39">
         <f>IFERROR(VLOOKUP(E39,NhanSu!F:K,6,0),0)</f>
         <v>14</v>
@@ -70095,7 +70455,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40">
         <f>IFERROR(VLOOKUP(E40,NhanSu!F:K,6,0),0)</f>
         <v>18</v>
@@ -70116,7 +70476,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41">
         <f>IFERROR(VLOOKUP(E41,NhanSu!F:K,6,0),0)</f>
         <v>3</v>
@@ -70137,10 +70497,10 @@
         <v>610</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42">
         <f>IFERROR(VLOOKUP(E42,NhanSu!F:K,6,0),0)</f>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>526</v>
@@ -70169,8 +70529,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="C1:F177"/>
   <sheetViews>
@@ -70178,12 +70538,12 @@
       <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>168</v>
       </c>
@@ -70197,7 +70557,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="2" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>633</v>
       </c>
@@ -70205,7 +70565,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="3" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>635</v>
       </c>
@@ -70216,12 +70576,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>638</v>
       </c>
@@ -70232,7 +70592,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>641</v>
       </c>
@@ -70243,7 +70603,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>643</v>
       </c>
@@ -70254,12 +70614,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="9" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>644</v>
       </c>
@@ -70270,7 +70630,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="10" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>645</v>
       </c>
@@ -70281,7 +70641,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>648</v>
       </c>
@@ -70292,7 +70652,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>650</v>
       </c>
@@ -70303,7 +70663,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>651</v>
       </c>
@@ -70314,7 +70674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>653</v>
       </c>
@@ -70325,7 +70685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>654</v>
       </c>
@@ -70336,7 +70696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>655</v>
       </c>
@@ -70344,7 +70704,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="17" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>656</v>
       </c>
@@ -70355,7 +70715,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="18" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>658</v>
       </c>
@@ -70366,7 +70726,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="19" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>660</v>
       </c>
@@ -70377,7 +70737,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="20" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>662</v>
       </c>
@@ -70388,7 +70748,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="21" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>664</v>
       </c>
@@ -70399,7 +70759,7 @@
         <v>4480</v>
       </c>
     </row>
-    <row r="22" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>665</v>
       </c>
@@ -70410,7 +70770,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="23" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>641</v>
       </c>
@@ -70421,7 +70781,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="24" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>667</v>
       </c>
@@ -70432,7 +70792,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="25" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>668</v>
       </c>
@@ -70443,12 +70803,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="27" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>671</v>
       </c>
@@ -70459,7 +70819,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="28" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>672</v>
       </c>
@@ -70470,7 +70830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>674</v>
       </c>
@@ -70481,7 +70841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>675</v>
       </c>
@@ -70492,7 +70852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>677</v>
       </c>
@@ -70503,7 +70863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>678</v>
       </c>
@@ -70514,7 +70874,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>680</v>
       </c>
@@ -70525,7 +70885,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>681</v>
       </c>
@@ -70536,7 +70896,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="35" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>682</v>
       </c>
@@ -70547,7 +70907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>683</v>
       </c>
@@ -70558,12 +70918,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>31</v>
       </c>
@@ -70574,7 +70934,7 @@
         <v>6720</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>672</v>
       </c>
@@ -70585,7 +70945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>674</v>
       </c>
@@ -70596,7 +70956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>677</v>
       </c>
@@ -70607,7 +70967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>684</v>
       </c>
@@ -70618,7 +70978,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>680</v>
       </c>
@@ -70629,7 +70989,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="44" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>681</v>
       </c>
@@ -70640,7 +71000,7 @@
         <v>6720</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>682</v>
       </c>
@@ -70651,7 +71011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>685</v>
       </c>
@@ -70662,7 +71022,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>688</v>
       </c>
@@ -70673,12 +71033,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="49" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>690</v>
       </c>
@@ -70689,7 +71049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>692</v>
       </c>
@@ -70700,7 +71060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>693</v>
       </c>
@@ -70708,7 +71068,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>695</v>
       </c>
@@ -70719,12 +71079,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>696</v>
       </c>
@@ -70735,7 +71095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>697</v>
       </c>
@@ -70746,7 +71106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>698</v>
       </c>
@@ -70757,7 +71117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>699</v>
       </c>
@@ -70768,7 +71128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>700</v>
       </c>
@@ -70779,7 +71139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>701</v>
       </c>
@@ -70790,7 +71150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>702</v>
       </c>
@@ -70801,7 +71161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>703</v>
       </c>
@@ -70812,12 +71172,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="63" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>696</v>
       </c>
@@ -70828,7 +71188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>697</v>
       </c>
@@ -70839,7 +71199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>698</v>
       </c>
@@ -70850,7 +71210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>704</v>
       </c>
@@ -70861,7 +71221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>701</v>
       </c>
@@ -70872,7 +71232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>702</v>
       </c>
@@ -70883,7 +71243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>705</v>
       </c>
@@ -70894,12 +71254,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="71" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>706</v>
       </c>
@@ -70910,7 +71270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>707</v>
       </c>
@@ -70921,7 +71281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>708</v>
       </c>
@@ -70932,7 +71292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>709</v>
       </c>
@@ -70943,7 +71303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>710</v>
       </c>
@@ -70954,7 +71314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>711</v>
       </c>
@@ -70965,12 +71325,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="78" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>706</v>
       </c>
@@ -70981,7 +71341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>707</v>
       </c>
@@ -70992,7 +71352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>712</v>
       </c>
@@ -71003,7 +71363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>700</v>
       </c>
@@ -71014,7 +71374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>708</v>
       </c>
@@ -71025,7 +71385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D83" t="s">
         <v>713</v>
       </c>
@@ -71036,7 +71396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>714</v>
       </c>
@@ -71047,12 +71407,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="86" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D86" t="s">
         <v>715</v>
       </c>
@@ -71063,7 +71423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>716</v>
       </c>
@@ -71074,7 +71434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>700</v>
       </c>
@@ -71085,7 +71445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>712</v>
       </c>
@@ -71096,7 +71456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>709</v>
       </c>
@@ -71107,7 +71467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>717</v>
       </c>
@@ -71118,7 +71478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>718</v>
       </c>
@@ -71129,12 +71489,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="94" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>715</v>
       </c>
@@ -71145,7 +71505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>716</v>
       </c>
@@ -71156,7 +71516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>719</v>
       </c>
@@ -71167,7 +71527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>704</v>
       </c>
@@ -71178,7 +71538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>709</v>
       </c>
@@ -71189,7 +71549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>717</v>
       </c>
@@ -71200,7 +71560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
         <v>720</v>
       </c>
@@ -71211,12 +71571,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="102" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>721</v>
       </c>
@@ -71227,7 +71587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>722</v>
       </c>
@@ -71238,7 +71598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>723</v>
       </c>
@@ -71249,7 +71609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>724</v>
       </c>
@@ -71260,7 +71620,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="106" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
         <v>56</v>
       </c>
@@ -71271,7 +71631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
         <v>727</v>
       </c>
@@ -71282,7 +71642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
         <v>728</v>
       </c>
@@ -71293,7 +71653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>729</v>
       </c>
@@ -71304,12 +71664,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="111" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
         <v>721</v>
       </c>
@@ -71320,7 +71680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
         <v>722</v>
       </c>
@@ -71331,7 +71691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
         <v>723</v>
       </c>
@@ -71342,7 +71702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
         <v>730</v>
       </c>
@@ -71353,7 +71713,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="115" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
         <v>732</v>
       </c>
@@ -71364,7 +71724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
         <v>56</v>
       </c>
@@ -71375,7 +71735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
         <v>727</v>
       </c>
@@ -71386,7 +71746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
         <v>733</v>
       </c>
@@ -71397,7 +71757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
         <v>734</v>
       </c>
@@ -71408,12 +71768,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="121" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
         <v>735</v>
       </c>
@@ -71424,7 +71784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
         <v>736</v>
       </c>
@@ -71435,7 +71795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
         <v>737</v>
       </c>
@@ -71446,7 +71806,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="124" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
         <v>641</v>
       </c>
@@ -71457,7 +71817,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="125" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
         <v>739</v>
       </c>
@@ -71468,12 +71828,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="127" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
         <v>735</v>
       </c>
@@ -71484,7 +71844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
         <v>736</v>
       </c>
@@ -71495,7 +71855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
         <v>740</v>
       </c>
@@ -71506,7 +71866,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="130" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
         <v>641</v>
       </c>
@@ -71517,7 +71877,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="131" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
         <v>741</v>
       </c>
@@ -71528,12 +71888,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="132" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="133" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
         <v>742</v>
       </c>
@@ -71544,7 +71904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
         <v>743</v>
       </c>
@@ -71555,7 +71915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
         <v>708</v>
       </c>
@@ -71566,7 +71926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
         <v>744</v>
       </c>
@@ -71577,12 +71937,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="138" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
         <v>742</v>
       </c>
@@ -71593,7 +71953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>743</v>
       </c>
@@ -71604,7 +71964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>651</v>
       </c>
@@ -71615,7 +71975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
         <v>745</v>
       </c>
@@ -71626,12 +71986,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="143" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
         <v>746</v>
       </c>
@@ -71642,7 +72002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D144" t="s">
         <v>747</v>
       </c>
@@ -71653,7 +72013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
         <v>748</v>
       </c>
@@ -71664,12 +72024,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="146" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="147" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
         <v>749</v>
       </c>
@@ -71680,7 +72040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
         <v>750</v>
       </c>
@@ -71691,7 +72051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
         <v>751</v>
       </c>
@@ -71702,12 +72062,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="151" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
         <v>96</v>
       </c>
@@ -71718,7 +72078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
         <v>753</v>
       </c>
@@ -71729,7 +72089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D153" t="s">
         <v>754</v>
       </c>
@@ -71740,7 +72100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>755</v>
       </c>
@@ -71748,7 +72108,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="155" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C155">
         <v>1</v>
       </c>
@@ -71762,7 +72122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
         <v>759</v>
       </c>
@@ -71773,7 +72133,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="157" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
         <v>761</v>
       </c>
@@ -71784,7 +72144,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="158" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
         <v>763</v>
       </c>
@@ -71795,7 +72155,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="159" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>675</v>
       </c>
@@ -71806,7 +72166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="3:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
         <v>765</v>
       </c>
@@ -71817,7 +72177,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
         <v>766</v>
       </c>
@@ -71828,7 +72188,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
         <v>767</v>
       </c>
@@ -71839,7 +72199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
         <v>768</v>
       </c>
@@ -71850,7 +72210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
         <v>769</v>
       </c>
@@ -71861,7 +72221,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="165" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>771</v>
       </c>
@@ -71872,7 +72232,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="166" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>774</v>
       </c>
@@ -71883,7 +72243,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="167" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>776</v>
       </c>
@@ -71894,7 +72254,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="168" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>777</v>
       </c>
@@ -71905,7 +72265,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="169" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D169" t="s">
         <v>779</v>
       </c>
@@ -71916,7 +72276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D170" t="s">
         <v>781</v>
       </c>
@@ -71927,7 +72287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D171" t="s">
         <v>782</v>
       </c>
@@ -71938,7 +72298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D172" t="s">
         <v>698</v>
       </c>
@@ -71949,7 +72309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>783</v>
       </c>
@@ -71960,7 +72320,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="174" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>786</v>
       </c>
@@ -71971,12 +72331,12 @@
         <v>3717</v>
       </c>
     </row>
-    <row r="175" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D175" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="176" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D176" t="s">
         <v>788</v>
       </c>
@@ -71987,7 +72347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="4:6" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D177" t="s">
         <v>789</v>
       </c>
@@ -71999,7 +72359,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:F177">
+  <autoFilter ref="C1:F177" xr:uid="{00000000-0009-0000-0000-000010000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Giáp níu dừng dây bọc 50 + Yếm móng U + Mắt nối yếm"/>
@@ -72012,7 +72372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -72021,29 +72381,29 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="20" customWidth="1"/>
     <col min="2" max="2" width="45" style="15" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="52.5546875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="15" customWidth="1"/>
     <col min="8" max="8" width="19" style="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="15"/>
-    <col min="10" max="10" width="15.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.85546875" style="15" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="15"/>
+    <col min="10" max="10" width="15.88671875" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="15" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" style="15" customWidth="1"/>
     <col min="14" max="14" width="14" style="77" customWidth="1"/>
-    <col min="15" max="16" width="18.5703125" style="15" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="15"/>
+    <col min="15" max="16" width="18.5546875" style="15" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
@@ -72148,7 +72508,7 @@
         <v>16/05/2021</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>847</v>
       </c>
@@ -72190,7 +72550,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>839</v>
       </c>
@@ -72228,7 +72588,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>827</v>
       </c>
@@ -72272,7 +72632,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>790</v>
       </c>
@@ -72316,7 +72676,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>620</v>
       </c>
@@ -72360,7 +72720,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>612</v>
       </c>
@@ -72396,7 +72756,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>20191257175</v>
       </c>
@@ -72443,7 +72803,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>97</v>
       </c>
@@ -72489,7 +72849,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>102</v>
       </c>
@@ -72533,7 +72893,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>223</v>
       </c>
@@ -72583,7 +72943,7 @@
         <v>16/04/1981</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="17" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="17" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>241</v>
       </c>
@@ -72625,7 +72985,7 @@
       </c>
       <c r="N13" s="78"/>
     </row>
-    <row r="14" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>251</v>
       </c>
@@ -72677,7 +73037,7 @@
         <v>16/04/1981</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>262</v>
       </c>
@@ -72715,7 +73075,7 @@
         <v>44273.345138888886</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>273</v>
       </c>
@@ -72753,7 +73113,7 @@
         <v>44279.342361111114</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>307</v>
       </c>
@@ -72792,7 +73152,7 @@
         <v>44277</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="17" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="17" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>450</v>
       </c>
@@ -72830,7 +73190,7 @@
         <v>44274.34375</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>479</v>
       </c>
@@ -72868,7 +73228,7 @@
         <v>44279.334027777775</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>484</v>
       </c>
@@ -72906,7 +73266,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>487</v>
       </c>
@@ -72944,7 +73304,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>497</v>
       </c>
@@ -72984,7 +73344,7 @@
         <v>16/05/2021</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>548</v>
       </c>
@@ -73028,7 +73388,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>572</v>
       </c>
@@ -73112,20 +73472,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D1:M24"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M18" sqref="M18:M24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
     <col min="13" max="13" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D1">
         <f>COLUMN()-COLUMN($C$1)</f>
         <v>1</v>
@@ -73162,7 +73522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>395</v>
       </c>
@@ -73192,7 +73552,7 @@
         <v>Tiết diện dây [mm2]: 50/8</v>
       </c>
     </row>
-    <row r="3" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>396</v>
       </c>
@@ -73222,7 +73582,7 @@
         <v>Đường kính ngoài của ruột dẫn đối với dây trần hay bọc [mm] : 9,5-10</v>
       </c>
     </row>
-    <row r="4" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>403</v>
       </c>
@@ -73252,7 +73612,7 @@
         <v>Độ dày lớp bọc cách điện XLPE 22kV : 5,5 mm</v>
       </c>
     </row>
-    <row r="5" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>405</v>
       </c>
@@ -73282,7 +73642,7 @@
         <v>Đường kính ngoài của dây bọc 22kV [mm]: 23,1-23,4</v>
       </c>
     </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>411</v>
       </c>
@@ -73312,7 +73672,7 @@
         <v>Lực kéo đứt [kN]: 17,1</v>
       </c>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>395</v>
       </c>
@@ -73327,7 +73687,7 @@
         <v xml:space="preserve">Tiết diện dây [mm2]: </v>
       </c>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>425</v>
       </c>
@@ -73342,7 +73702,7 @@
         <v xml:space="preserve">Số tao/đường kính mỗi tao [mm]: </v>
       </c>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>428</v>
       </c>
@@ -73357,7 +73717,7 @@
         <v xml:space="preserve">Đường kính ngoài tối đa của cáp [mm]: </v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>411</v>
       </c>
@@ -73372,31 +73732,31 @@
         <v xml:space="preserve">Lực kéo đứt [kN]: </v>
       </c>
     </row>
-    <row r="14" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.3">
       <c r="M14" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="15" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.3">
       <c r="M15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="16" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.3">
       <c r="M16" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="17" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
       <c r="M17" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve">: </v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>395</v>
       </c>
@@ -73423,7 +73783,7 @@
         <v>Tiết diện dây [mm2]: 50/8</v>
       </c>
     </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>396</v>
       </c>
@@ -73450,7 +73810,7 @@
         <v>Đường kính ngoài của ruột dẫn đối với dây trần hay bọc [mm] : 9,5-10</v>
       </c>
     </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>470</v>
       </c>
@@ -73459,7 +73819,7 @@
         <v xml:space="preserve">Độ dày lớp bọc 22kV : </v>
       </c>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>471</v>
       </c>
@@ -73489,7 +73849,7 @@
         <v>+ Cách điện XLPE: 5,5 mm</v>
       </c>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>472</v>
       </c>
@@ -73519,7 +73879,7 @@
         <v>+ Vỏ ngoài HDPE: 1,2 mm</v>
       </c>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>405</v>
       </c>
@@ -73546,7 +73906,7 @@
         <v>Đường kính ngoài của dây bọc 22kV [mm]: 23,1-23,4</v>
       </c>
     </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>411</v>
       </c>
@@ -73581,25 +73941,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="129"/>
-    <col min="4" max="4" width="33.85546875" style="130" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="129"/>
+    <col min="1" max="3" width="8.88671875" style="129"/>
+    <col min="4" max="4" width="33.88671875" style="130" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="129"/>
     <col min="6" max="6" width="27" style="129" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="129" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="129" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="129"/>
+    <col min="7" max="7" width="7.109375" style="129" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.109375" style="129" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="129"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="127" customFormat="1" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="127" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="127" t="s">
         <v>126</v>
       </c>
@@ -73625,7 +73985,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D2" s="130" t="s">
         <v>456</v>
       </c>
@@ -73636,7 +73996,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D3" s="130" t="s">
         <v>456</v>
       </c>
@@ -73647,7 +74007,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D4" s="130" t="s">
         <v>456</v>
       </c>
@@ -73659,7 +74019,7 @@
       </c>
       <c r="J4" s="132"/>
     </row>
-    <row r="5" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="130" t="s">
         <v>455</v>
       </c>
@@ -73671,7 +74031,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="130" t="s">
         <v>455</v>
       </c>
@@ -73683,7 +74043,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="130" t="s">
         <v>455</v>
       </c>
@@ -73695,7 +74055,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D8" s="130" t="s">
         <v>335</v>
       </c>
@@ -73706,7 +74066,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="130" t="s">
         <v>335</v>
       </c>
@@ -73717,7 +74077,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="130" t="s">
         <v>335</v>
       </c>
@@ -73728,7 +74088,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="136" t="s">
         <v>459</v>
       </c>
@@ -73739,7 +74099,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" s="136" t="s">
         <v>459</v>
       </c>
@@ -73750,7 +74110,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="25.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="136" t="s">
         <v>459</v>
       </c>
@@ -73761,7 +74121,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" s="130" t="s">
         <v>460</v>
       </c>
@@ -73772,7 +74132,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" s="130" t="s">
         <v>460</v>
       </c>
@@ -73783,7 +74143,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" s="130" t="s">
         <v>460</v>
       </c>
@@ -73794,7 +74154,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="17" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D17" s="130" t="s">
         <v>462</v>
       </c>
@@ -73805,7 +74165,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D18" s="130" t="s">
         <v>462</v>
       </c>
@@ -73816,7 +74176,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="19" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D19" s="130" t="s">
         <v>462</v>
       </c>
@@ -73827,7 +74187,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="20" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D20" s="130" t="s">
         <v>463</v>
       </c>
@@ -73838,7 +74198,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="21" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D21" s="130" t="s">
         <v>463</v>
       </c>
@@ -73849,7 +74209,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D22" s="130" t="s">
         <v>463</v>
       </c>
@@ -73860,7 +74220,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D23" s="130" t="s">
         <v>464</v>
       </c>
@@ -73871,7 +74231,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="24" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D24" s="130" t="s">
         <v>467</v>
       </c>
@@ -73882,7 +74242,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D25" s="130" t="s">
         <v>467</v>
       </c>
@@ -73893,7 +74253,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="26" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="130" t="s">
         <v>467</v>
       </c>
@@ -73904,7 +74264,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="27" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="130" t="s">
         <v>475</v>
       </c>
@@ -73915,7 +74275,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="28" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="130" t="s">
         <v>475</v>
       </c>
@@ -73926,7 +74286,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="29" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D29" s="130" t="s">
         <v>475</v>
       </c>
@@ -73937,7 +74297,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="30" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D30" s="138" t="s">
         <v>476</v>
       </c>
@@ -73948,7 +74308,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="31" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D31" s="138" t="s">
         <v>476</v>
       </c>
@@ -73959,7 +74319,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="32" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="138" t="s">
         <v>476</v>
       </c>
@@ -73970,7 +74330,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="33" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="130" t="s">
         <v>265</v>
       </c>
@@ -73981,7 +74341,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D34" s="130" t="s">
         <v>265</v>
       </c>
@@ -73992,7 +74352,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="35" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D35" s="130" t="s">
         <v>265</v>
       </c>
@@ -74003,7 +74363,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="36" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D36" s="130" t="s">
         <v>560</v>
       </c>
@@ -74014,7 +74374,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D37" s="130" t="s">
         <v>560</v>
       </c>
@@ -74025,7 +74385,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="38" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D38" s="130" t="s">
         <v>560</v>
       </c>
@@ -74036,7 +74396,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="39" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D39" s="130" t="s">
         <v>796</v>
       </c>
@@ -74048,7 +74408,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="40" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D40" s="130" t="s">
         <v>796</v>
       </c>
@@ -74060,7 +74420,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="41" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D41" s="130" t="s">
         <v>796</v>
       </c>
@@ -74072,7 +74432,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="42" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D42" s="130" t="s">
         <v>798</v>
       </c>
@@ -74084,7 +74444,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="43" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D43" s="130" t="s">
         <v>798</v>
       </c>
@@ -74096,7 +74456,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="44" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D44" s="130" t="s">
         <v>798</v>
       </c>
@@ -74108,7 +74468,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="45" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D45" s="130" t="s">
         <v>833</v>
       </c>
@@ -74119,7 +74479,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="46" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D46" s="130" t="s">
         <v>833</v>
       </c>
@@ -74130,7 +74490,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="47" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D47" s="130" t="s">
         <v>833</v>
       </c>
@@ -74141,7 +74501,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="48" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D48" s="130" t="s">
         <v>832</v>
       </c>
@@ -74152,7 +74512,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="49" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D49" s="130" t="s">
         <v>832</v>
       </c>
@@ -74163,7 +74523,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="50" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D50" s="130" t="s">
         <v>832</v>
       </c>
@@ -74172,7 +74532,7 @@
       </c>
       <c r="H50" s="131"/>
     </row>
-    <row r="51" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D51" s="130" t="s">
         <v>832</v>
       </c>
@@ -74183,7 +74543,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="52" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D52" s="130" t="s">
         <v>834</v>
       </c>
@@ -74194,7 +74554,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="53" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D53" s="130" t="s">
         <v>834</v>
       </c>
@@ -74205,7 +74565,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="54" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D54" s="130" t="s">
         <v>834</v>
       </c>
@@ -74214,7 +74574,7 @@
       </c>
       <c r="H54" s="137"/>
     </row>
-    <row r="55" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D55" s="130" t="s">
         <v>834</v>
       </c>
@@ -74225,7 +74585,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="56" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D56" s="130" t="s">
         <v>648</v>
       </c>
@@ -74236,7 +74596,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="57" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D57" s="130" t="s">
         <v>837</v>
       </c>
@@ -74247,7 +74607,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="58" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" s="130" t="s">
         <v>645</v>
       </c>
@@ -74258,7 +74618,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="59" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D59" s="130" t="s">
         <v>863</v>
       </c>
@@ -74269,7 +74629,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="60" spans="4:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D60" s="130" t="s">
         <v>863</v>
       </c>
@@ -74281,18 +74641,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J4"/>
+  <autoFilter ref="A1:J4" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <hyperlinks>
-    <hyperlink ref="H7" r:id="rId1"/>
-    <hyperlink ref="H16" r:id="rId2"/>
-    <hyperlink ref="H19" r:id="rId3"/>
-    <hyperlink ref="H22" r:id="rId4"/>
-    <hyperlink ref="H29" r:id="rId5"/>
-    <hyperlink ref="H32" r:id="rId6"/>
-    <hyperlink ref="H48" r:id="rId7" display="http://lienminhphat.com/"/>
-    <hyperlink ref="H51" r:id="rId8"/>
-    <hyperlink ref="H52" r:id="rId9" display="http://lienminhphat.com/"/>
-    <hyperlink ref="H55" r:id="rId10"/>
+    <hyperlink ref="H7" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="H16" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="H19" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="H22" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="H29" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="H32" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="H48" r:id="rId7" display="http://lienminhphat.com/" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="H51" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="H52" r:id="rId9" display="http://lienminhphat.com/" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="H55" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -74301,23 +74661,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="C1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="39.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="9" width="8.7109375" style="20" customWidth="1"/>
-    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.6640625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" s="52" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:11" s="52" customFormat="1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="53" t="s">
         <v>168</v>
       </c>
@@ -74340,7 +74700,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="45">
         <f>SUM($G$1:G2)</f>
         <v>1</v>
@@ -74364,7 +74724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="45">
         <f>SUM($G$1:G3)</f>
         <v>2</v>
@@ -74388,7 +74748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="45">
         <f>SUM($G$1:G4)</f>
         <v>3</v>
@@ -74415,7 +74775,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="45">
         <f>SUM($G$1:G5)</f>
         <v>4</v>
@@ -74439,7 +74799,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="6" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="45">
         <f>SUM($G$1:G6)</f>
         <v>5</v>
@@ -74466,7 +74826,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="45">
         <f>SUM($G$1:G7)</f>
         <v>6</v>
@@ -74490,7 +74850,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="8" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="45">
         <f>SUM($G$1:G8)</f>
         <v>7</v>
@@ -74514,7 +74874,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="9" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="45">
         <f>SUM($G$1:G9)</f>
         <v>8</v>
@@ -74541,7 +74901,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="45">
         <f>SUM($G$1:G10)</f>
         <v>9</v>
@@ -74568,7 +74928,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="11" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="45">
         <f>SUM($G$1:G11)</f>
         <v>10</v>
@@ -74595,7 +74955,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="12" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="45">
         <f>SUM($G$1:G12)</f>
         <v>11</v>
@@ -74619,7 +74979,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="13" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="45">
         <f>SUM($G$1:G13)</f>
         <v>12</v>
@@ -74643,7 +75003,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="45">
         <f>SUM($G$1:G14)</f>
         <v>13</v>
@@ -74667,7 +75027,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="45">
         <f>SUM($G$1:G15)</f>
         <v>14</v>
@@ -74691,7 +75051,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="45">
         <f>SUM($G$1:G16)</f>
         <v>15</v>
@@ -74715,7 +75075,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="3:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="45">
         <f>SUM($G$1:G17)</f>
         <v>16</v>
@@ -74739,7 +75099,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="3:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="45">
         <f>SUM($G$1:G18)</f>
         <v>17</v>
@@ -74763,7 +75123,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="45">
         <f>SUM($G$1:G19)</f>
         <v>18</v>
@@ -74787,7 +75147,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="45">
         <f>SUM($G$1:G20)</f>
         <v>19</v>
@@ -74811,7 +75171,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="45">
         <f>SUM($G$1:G21)</f>
         <v>20</v>
@@ -74835,7 +75195,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="45">
         <f>SUM($G$1:G22)</f>
         <v>21</v>
@@ -74862,7 +75222,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="45">
         <f>SUM($G$1:G23)</f>
         <v>22</v>
@@ -74886,7 +75246,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="45">
         <f>SUM($G$1:G24)</f>
         <v>23</v>
@@ -74910,7 +75270,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="45">
         <f>SUM($G$1:G25)</f>
         <v>24</v>
@@ -74934,7 +75294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="45">
         <f>SUM($G$1:G26)</f>
         <v>25</v>
@@ -74958,7 +75318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="45">
         <f>SUM($G$1:G27)</f>
         <v>26</v>
@@ -74982,7 +75342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="45">
         <f>SUM($G$1:G28)</f>
         <v>27</v>
@@ -75006,7 +75366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="45">
         <f>SUM($G$1:G29)</f>
         <v>28</v>
@@ -75027,7 +75387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="45">
         <f>SUM($G$1:G30)</f>
         <v>29</v>
@@ -75051,7 +75411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="45">
         <f>SUM($G$1:G31)</f>
         <v>30</v>
@@ -75075,7 +75435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="45">
         <f>SUM($G$1:G32)</f>
         <v>31</v>
@@ -75099,7 +75459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="45">
         <f>SUM($G$1:G33)</f>
         <v>32</v>
@@ -75120,7 +75480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="45">
         <f>SUM($G$1:G34)</f>
         <v>33</v>
@@ -75141,7 +75501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="45">
         <f>SUM($G$1:G35)</f>
         <v>34</v>
@@ -75162,7 +75522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="45">
         <f>SUM($G$1:G36)</f>
         <v>35</v>
@@ -75186,7 +75546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="45">
         <f>SUM($G$1:G37)</f>
         <v>36</v>
@@ -75207,7 +75567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="45">
         <f>SUM($G$1:G38)</f>
         <v>37</v>
@@ -75229,7 +75589,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:I38"/>
+  <autoFilter ref="C1:I38" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
   <conditionalFormatting sqref="D11:D1048576 D1:D2 D7 D9">
     <cfRule type="duplicateValues" dxfId="13" priority="7"/>
   </conditionalFormatting>
@@ -75257,30 +75617,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D1:H34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="7"/>
-    <col min="4" max="4" width="56.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="7"/>
-    <col min="6" max="6" width="40.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="8.88671875" style="7"/>
+    <col min="4" max="4" width="56.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="7"/>
+    <col min="6" max="6" width="40.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="7"/>
+    <col min="9" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D2" s="8" t="s">
         <v>58</v>
       </c>
@@ -75291,7 +75651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D3" s="9" t="s">
         <v>59</v>
       </c>
@@ -75302,7 +75662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D4" s="9" t="s">
         <v>60</v>
       </c>
@@ -75313,12 +75673,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D5" s="9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D6" s="9" t="s">
         <v>62</v>
       </c>
@@ -75329,7 +75689,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D7" s="9" t="s">
         <v>63</v>
       </c>
@@ -75343,7 +75703,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
@@ -75354,7 +75714,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D9" s="9" t="s">
         <v>65</v>
       </c>
@@ -75368,7 +75728,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D10" s="9" t="s">
         <v>66</v>
       </c>
@@ -75382,7 +75742,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D11" s="9" t="s">
         <v>67</v>
       </c>
@@ -75396,7 +75756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D12" s="9" t="s">
         <v>68</v>
       </c>
@@ -75410,7 +75770,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D13" s="9" t="s">
         <v>69</v>
       </c>
@@ -75424,7 +75784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D14" s="9" t="s">
         <v>70</v>
       </c>
@@ -75438,7 +75798,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D15" s="9" t="s">
         <v>71</v>
       </c>
@@ -75452,7 +75812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D16" s="9" t="s">
         <v>72</v>
       </c>
@@ -75466,7 +75826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D17" s="9" t="s">
         <v>73</v>
       </c>
@@ -75480,7 +75840,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D18" s="11" t="s">
         <v>58</v>
       </c>
@@ -75494,7 +75854,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D19" s="11" t="s">
         <v>75</v>
       </c>
@@ -75508,7 +75868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D20" s="11"/>
       <c r="F20" s="3" t="s">
         <v>35</v>
@@ -75520,7 +75880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D21" s="11" t="s">
         <v>77</v>
       </c>
@@ -75534,7 +75894,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D22" s="11" t="s">
         <v>78</v>
       </c>
@@ -75548,7 +75908,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D23" s="11" t="s">
         <v>79</v>
       </c>
@@ -75562,7 +75922,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D24" s="11" t="s">
         <v>80</v>
       </c>
@@ -75576,7 +75936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D25" s="11" t="s">
         <v>81</v>
       </c>
@@ -75590,7 +75950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D26" s="11" t="s">
         <v>76</v>
       </c>
@@ -75604,7 +75964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D27" s="11" t="s">
         <v>82</v>
       </c>
@@ -75618,7 +75978,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D28" s="11" t="s">
         <v>83</v>
       </c>
@@ -75632,7 +75992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F29" s="4" t="s">
         <v>48</v>
       </c>
@@ -75643,7 +76003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F30" s="4" t="s">
         <v>49</v>
       </c>
@@ -75654,7 +76014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F31" s="3" t="s">
         <v>50</v>
       </c>
@@ -75665,7 +76025,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.3">
       <c r="F32" s="3" t="s">
         <v>52</v>
       </c>
@@ -75676,7 +76036,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F33" s="3" t="s">
         <v>55</v>
       </c>
@@ -75687,7 +76047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F34" s="3" t="s">
         <v>56</v>
       </c>
@@ -75704,7 +76064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M47"/>
   <sheetViews>
@@ -75713,20 +76073,20 @@
       <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.85546875" style="91"/>
+    <col min="2" max="2" width="8.88671875" style="91"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="87" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="87" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="87" t="s">
         <v>126</v>
       </c>
@@ -75767,7 +76127,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>107</v>
       </c>
@@ -75785,7 +76145,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>381</v>
       </c>
@@ -75803,7 +76163,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>126</v>
       </c>
@@ -75830,7 +76190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>315</v>
       </c>
@@ -75848,7 +76208,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>126</v>
       </c>
@@ -75875,7 +76235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>126</v>
       </c>
@@ -75902,7 +76262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>312</v>
       </c>
@@ -75920,7 +76280,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>501</v>
       </c>
@@ -75933,7 +76293,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>320</v>
       </c>
@@ -75946,7 +76306,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>115</v>
       </c>
@@ -75964,7 +76324,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>114</v>
       </c>
@@ -75982,7 +76342,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>113</v>
       </c>
@@ -76000,7 +76360,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>112</v>
       </c>
@@ -76018,7 +76378,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>111</v>
       </c>
@@ -76036,7 +76396,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>110</v>
       </c>
@@ -76054,7 +76414,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>109</v>
       </c>
@@ -76072,7 +76432,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>107</v>
       </c>
@@ -76090,7 +76450,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>492</v>
       </c>
@@ -76105,7 +76465,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>494</v>
       </c>
@@ -76120,7 +76480,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>495</v>
       </c>
@@ -76135,7 +76495,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>135</v>
       </c>
@@ -76153,7 +76513,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>502</v>
       </c>
@@ -76168,7 +76528,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>128</v>
       </c>
@@ -76186,7 +76546,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>503</v>
       </c>
@@ -76199,7 +76559,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>490</v>
       </c>
@@ -76214,7 +76574,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>151</v>
       </c>
@@ -76229,7 +76589,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>491</v>
       </c>
@@ -76244,7 +76604,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>147</v>
       </c>
@@ -76259,7 +76619,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>145</v>
       </c>
@@ -76277,7 +76637,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>126</v>
       </c>
@@ -76310,7 +76670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>126</v>
       </c>
@@ -76343,7 +76703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -76376,7 +76736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>126</v>
       </c>
@@ -76409,7 +76769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -76442,7 +76802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>126</v>
       </c>
@@ -76475,7 +76835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>126</v>
       </c>
@@ -76508,7 +76868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>126</v>
       </c>
@@ -76541,7 +76901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>126</v>
       </c>
@@ -76574,7 +76934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -76607,7 +76967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -76640,7 +77000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -76673,7 +77033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>126</v>
       </c>
@@ -76706,7 +77066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -76739,7 +77099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -76772,7 +77132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -76805,7 +77165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>126</v>
       </c>
@@ -76839,7 +77199,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M47">
+  <autoFilter ref="A1:M47" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <filterColumn colId="1">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -76852,28 +77212,28 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="C1:Q7"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="32"/>
-    <col min="4" max="4" width="53.140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="32"/>
-    <col min="7" max="10" width="8.140625" style="32" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="32" customWidth="1"/>
-    <col min="13" max="16" width="10.85546875" style="32" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="32" customWidth="1"/>
-    <col min="18" max="16384" width="8.85546875" style="32"/>
+    <col min="1" max="3" width="8.88671875" style="32"/>
+    <col min="4" max="4" width="53.109375" style="32" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="32"/>
+    <col min="7" max="10" width="8.109375" style="32" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" style="32" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" style="32" customWidth="1"/>
+    <col min="13" max="16" width="10.88671875" style="32" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" style="32" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" s="41" customFormat="1" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:17" s="41" customFormat="1" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="42" t="s">
         <v>152</v>
       </c>
@@ -76924,7 +77284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="110">
         <v>1</v>
       </c>
@@ -76974,7 +77334,7 @@
 81 - 100</v>
       </c>
     </row>
-    <row r="3" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:17" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="110">
         <v>2</v>
       </c>
@@ -77001,7 +77361,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="3:17" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:17" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="110">
         <v>3</v>
       </c>
@@ -77046,7 +77406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:17" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="110">
         <v>4</v>
       </c>
@@ -77088,7 +77448,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="3:17" ht="99.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:17" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="110">
         <v>6</v>
       </c>
@@ -77130,7 +77490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="3:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:17" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="110">
         <v>7</v>
       </c>
@@ -77161,37 +77521,37 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="D1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F18" sqref="F18:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="44.28515625" customWidth="1"/>
-    <col min="6" max="10" width="8.85546875" style="40"/>
+    <col min="5" max="5" width="44.33203125" customWidth="1"/>
+    <col min="6" max="10" width="8.88671875" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D1" s="147" t="s">
+    <row r="1" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="148" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="150" t="s">
+      <c r="E1" s="151" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="153" t="s">
+      <c r="F1" s="154" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="156"/>
     </row>
-    <row r="2" spans="4:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D2" s="148"/>
-      <c r="E2" s="151"/>
+    <row r="2" spans="4:10" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D2" s="149"/>
+      <c r="E2" s="152"/>
       <c r="F2" s="34" t="s">
         <v>162</v>
       </c>
@@ -77208,9 +77568,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="149"/>
-      <c r="E3" s="152"/>
+    <row r="3" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="150"/>
+      <c r="E3" s="153"/>
       <c r="F3" s="36" t="s">
         <v>167</v>
       </c>
@@ -77227,7 +77587,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D4" s="33">
         <v>1</v>
       </c>
@@ -77240,7 +77600,7 @@
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
     </row>
-    <row r="5" spans="4:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:10" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D5" s="33">
         <v>2</v>
       </c>
@@ -77253,7 +77613,7 @@
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
     </row>
-    <row r="6" spans="4:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:10" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D6" s="33">
         <v>3</v>
       </c>
@@ -77266,7 +77626,7 @@
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" s="33">
         <v>4</v>
       </c>
@@ -77279,7 +77639,7 @@
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
     </row>
-    <row r="8" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="33">
         <v>5</v>
       </c>
@@ -77292,7 +77652,7 @@
       <c r="I8" s="39"/>
       <c r="J8" s="39"/>
     </row>
-    <row r="9" spans="4:10" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:10" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="33">
         <v>6</v>
       </c>
@@ -77305,7 +77665,7 @@
       <c r="I9" s="39"/>
       <c r="J9" s="39"/>
     </row>
-    <row r="10" spans="4:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:10" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D10" s="33">
         <v>7</v>
       </c>
@@ -77318,28 +77678,28 @@
       <c r="I10" s="39"/>
       <c r="J10" s="39"/>
     </row>
-    <row r="17" spans="4:11" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="156" t="s">
+    <row r="17" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="157" t="s">
         <v>152</v>
       </c>
-      <c r="E18" s="156" t="s">
+      <c r="E18" s="157" t="s">
         <v>153</v>
       </c>
-      <c r="F18" s="159" t="s">
+      <c r="F18" s="160" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="161"/>
+      <c r="G18" s="161"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="161"/>
+      <c r="J18" s="162"/>
       <c r="K18">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="4:11" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
+    <row r="19" spans="4:11" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
       <c r="F19" s="101" t="s">
         <v>162</v>
       </c>
@@ -77356,9 +77716,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="20" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="158"/>
-      <c r="E20" s="158"/>
+    <row r="20" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
       <c r="F20" s="109" t="s">
         <v>545</v>
       </c>
@@ -77375,7 +77735,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="103" t="s">
         <v>538</v>
       </c>
@@ -77388,7 +77748,7 @@
       <c r="I21" s="106"/>
       <c r="J21" s="106"/>
     </row>
-    <row r="22" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D22" s="103" t="s">
         <v>539</v>
       </c>
@@ -77401,7 +77761,7 @@
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
     </row>
-    <row r="23" spans="4:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:11" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D23" s="103" t="s">
         <v>540</v>
       </c>
@@ -77414,7 +77774,7 @@
       <c r="I23" s="106"/>
       <c r="J23" s="106"/>
     </row>
-    <row r="24" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D24" s="103" t="s">
         <v>541</v>
       </c>
@@ -77427,7 +77787,7 @@
       <c r="I24" s="106"/>
       <c r="J24" s="106"/>
     </row>
-    <row r="25" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D25" s="103" t="s">
         <v>542</v>
       </c>
@@ -77440,7 +77800,7 @@
       <c r="I25" s="106"/>
       <c r="J25" s="106"/>
     </row>
-    <row r="26" spans="4:11" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:11" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D26" s="103" t="s">
         <v>543</v>
       </c>
@@ -77453,7 +77813,7 @@
       <c r="I26" s="106"/>
       <c r="J26" s="106"/>
     </row>
-    <row r="27" spans="4:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:11" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D27" s="103" t="s">
         <v>544</v>
       </c>

--- a/TongHopDuThau.xlsx
+++ b/TongHopDuThau.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655FD40F-4F9A-4C97-A88D-F45682E1EE6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBCF76C-4899-47A3-A04D-9E9D766B2880}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" firstSheet="4" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="768" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TBMT" sheetId="2" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">DanhMucBCap!$C$1:$I$38</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2013" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="901">
   <si>
     <t>CongTrinh</t>
   </si>
@@ -904,9 +905,6 @@
     <t>Tăng tiết diện đường dây trung thế khu vực nội ô và khu vực sản xuất tiểu thủ công nghiệp TX Long Khánh - năm 2020</t>
   </si>
   <si>
-    <t>150 Ngày</t>
-  </si>
-  <si>
     <t>30/03/2020 - 09:00</t>
   </si>
   <si>
@@ -2942,6 +2940,21 @@
   </si>
   <si>
     <t>Công nhâneyJzb0NNTkQiOiIyNzIzOTc0NDIiLCJwaG9uZUluZm9yIjoiMDk0MjE3NDIzMS8gdHJhbmJhbzgwQGdtYWlsLmNvbS8gIiwicG9zaXRpb25IUiI6IkPDtG5nIG5ow6JuIiwiZGF0ZU9mQmlydGgiOiIxMy8wMy8xOTkzIiwic2tpbGwiOiJDw7RuZyBuaMOibiIsImVtcGxveWVyIjoiVHLhuqduIFRo4buLIE5n4buNYyBUaOG7jSIsImNvbnRhY3RJbmZvciI6IlPhu5EgNjBBLCBOZ3V54buFbiBUcsaw4budbmcgVOG7mSwgUGjGsOG7nW5nIFh1w6JuIEFuLCBUWCBMb25nIEtow6FuaCwgVOG7iW5oIMSQ4buTbmcgTmFpIiwiY3VycmVudFBvc2l0aW9uIjoiR2nDoW0gxJHhu5FjIiwid29ya2luZ1llYXIiOiIxIiwiYXV0aG9yIjoiVHLhuqduIFF14buRYyBC4bqjbyIsImZpbGVOYW1lIjoiIiwiZmlsZVBhdGgiOiIiLCJpZCI6IjUzNzA2MCIsImlkTm8iOiJOUzAwMDAwMDAwMDAwMDUzNzA1OSIsImlkVmVyc2lvbiI6IjAwIn0=W3sic3RhcnREYXRlIjoiMjAxOS0wMS0wMSAwMDowMDowMC4wIiwiZW5kRGF0ZSI6IjIwMTktMTItMzEgMDA6MDA6MDAuMCIsImV4cGVyaWVuY2VEZXRhaWwiOiJDw7RuZyBuaMOibiB0aGkgY8O0bmcuIEPDtG5nIHRyw6xuaDogTsOibmcgY+G6pXAgxJHGsOG7nW5nIGTDonkgdHJ1bmcgdGjhur8gdHV54bq/biA0ODAgWHXDom4gQuG6r2MgdOG7qyBSZWNsb3NlciBYdcOibiBUaOG7jSDEkeG6v24gTEJTIGtow60gQ2jhur8gQmnhur9uLiDEkGnhu4duIGzhu7FjIFh1w6JuIEzhu5ljIC0gQ8O0bmcgdHkgVE5ISCBt4buZdCB0aMOgbmggdmnDqm4gxJBp4buHbiBs4buxYyDEkOG7k25nIE5haSIsImlkT2ZDbGllbnRPYmoiOiI1MzcwNjAifV0=</t>
+  </si>
+  <si>
+    <t>12 tháng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150 ngày </t>
+  </si>
+  <si>
+    <t>90 ngày</t>
+  </si>
+  <si>
+    <t>GiaDuThau</t>
+  </si>
+  <si>
+    <t>BangChu</t>
   </si>
 </sst>
 </file>
@@ -3723,6 +3736,16 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3776,16 +3799,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -64739,6 +64752,22 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="vnd"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -65024,7 +65053,7 @@
         <v/>
       </c>
       <c r="B1" s="58" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C1" s="48"/>
       <c r="D1" s="48"/>
@@ -65062,7 +65091,7 @@
         <v>Thông tin chung</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C3" s="48"/>
       <c r="D3" s="48"/>
@@ -65082,17 +65111,17 @@
         <v>Số TBMT</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="48"/>
       <c r="G4" s="48"/>
       <c r="H4" s="48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I4" s="48"/>
       <c r="J4" s="59">
@@ -65108,11 +65137,11 @@
         <v>Hình thức thông báo</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="48"/>
       <c r="D5" s="48" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
@@ -65130,21 +65159,21 @@
         <v>Loại thông báo</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
       <c r="H6" s="48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
@@ -65156,11 +65185,11 @@
         <v>Bên mời thầu</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -65178,11 +65207,11 @@
         <v>Chủ đầu tư</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48"/>
@@ -65200,11 +65229,11 @@
         <v>Phân loại</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48"/>
@@ -65222,11 +65251,11 @@
         <v>Tên gói thầu</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48"/>
@@ -65244,11 +65273,11 @@
         <v>Tên dự án</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C11" s="48"/>
       <c r="D11" s="48" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
@@ -65266,11 +65295,11 @@
         <v>Nguồn vốn</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C12" s="48"/>
       <c r="D12" s="48" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -65288,7 +65317,7 @@
         <v>Phương thức</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C13" s="48"/>
       <c r="D13" s="48" t="s">
@@ -65310,7 +65339,7 @@
         <v>Thời gian thực hiện hợp đồng</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C14" s="48"/>
       <c r="D14" s="48">
@@ -65332,7 +65361,7 @@
         <v>Nội dung chính gói thầu</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C15" s="48"/>
       <c r="D15" s="48"/>
@@ -65352,7 +65381,7 @@
         <v>Loại hợp đồng</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C16" s="48"/>
       <c r="D16" s="48" t="s">
@@ -65374,17 +65403,17 @@
         <v>Hình thức đấu thầu</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E17" s="48"/>
       <c r="F17" s="48"/>
       <c r="G17" s="48"/>
       <c r="H17" s="48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
@@ -65416,7 +65445,7 @@
         <v>Tham dự thầu</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
@@ -65436,7 +65465,7 @@
         <v>Hình thức nhận HSDT</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48" t="s">
@@ -65458,7 +65487,7 @@
         <v>Thời gian nhận HSDT từ ngày</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="59">
@@ -65468,7 +65497,7 @@
       <c r="F21" s="48"/>
       <c r="G21" s="48"/>
       <c r="H21" s="48" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="59">
@@ -65484,7 +65513,7 @@
         <v>Mua HSMT</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22" s="48"/>
       <c r="D22" s="48" t="s">
@@ -65506,11 +65535,11 @@
         <v>Địa điểm nhận HSDT</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C23" s="48"/>
       <c r="D23" s="59" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E23" s="48"/>
       <c r="F23" s="48"/>
@@ -65546,7 +65575,7 @@
         <v>Mở thầu</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C25" s="48"/>
       <c r="D25" s="59"/>
@@ -65566,7 +65595,7 @@
         <v>Thời điểm mở thầu</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="59">
@@ -65588,7 +65617,7 @@
         <v>Địa điểm mở thầu</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48" t="s">
@@ -65610,11 +65639,11 @@
         <v>Giá gói thầu</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="E28" s="48"/>
       <c r="F28" s="48"/>
@@ -65632,11 +65661,11 @@
         <v>Số tiền bằng chữ</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E29" s="48"/>
       <c r="F29" s="48"/>
@@ -65672,7 +65701,7 @@
         <v>Bảo đảm dự thầu</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C31" s="48"/>
       <c r="D31" s="48"/>
@@ -65692,11 +65721,11 @@
         <v>Hình thức đảm bảo</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C32" s="48"/>
       <c r="D32" s="48" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
@@ -65714,11 +65743,11 @@
         <v>Số tiền đảm bảo</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -65728,11 +65757,11 @@
         <v>Số tiền bằng chữ</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E34" s="1"/>
     </row>
@@ -65742,18 +65771,18 @@
         <v>Loại tiền chuyển đổi</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E35" s="1"/>
       <c r="H35" t="s">
+        <v>625</v>
+      </c>
+      <c r="J35" t="s">
         <v>626</v>
-      </c>
-      <c r="J35" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -65823,24 +65852,24 @@
   <sheetData>
     <row r="1" spans="1:7" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F1" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>555</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -65850,12 +65879,12 @@
         <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
@@ -65865,12 +65894,12 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
@@ -65880,12 +65909,12 @@
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -65895,12 +65924,12 @@
         <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -65910,12 +65939,12 @@
         <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -65925,12 +65954,12 @@
         <v>6</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -65940,12 +65969,12 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -65955,12 +65984,12 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -65972,7 +66001,7 @@
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -65984,7 +66013,7 @@
     </row>
     <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -65996,7 +66025,7 @@
     </row>
     <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -66008,7 +66037,7 @@
     </row>
     <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -66020,7 +66049,7 @@
     </row>
     <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -66032,7 +66061,7 @@
     </row>
     <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -66042,12 +66071,12 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -66057,12 +66086,12 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -66072,12 +66101,12 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -66087,12 +66116,12 @@
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -66102,12 +66131,12 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B21">
         <v>7</v>
@@ -66119,7 +66148,7 @@
     </row>
     <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B22">
         <v>8</v>
@@ -66131,7 +66160,7 @@
     </row>
     <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B23" s="1">
         <v>9</v>
@@ -66143,7 +66172,7 @@
     </row>
     <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -66155,7 +66184,7 @@
     </row>
     <row r="25" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B25">
         <v>11</v>
@@ -66257,10 +66286,10 @@
         <v>103</v>
       </c>
       <c r="C1" s="145" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1" s="114" t="s">
         <v>557</v>
-      </c>
-      <c r="D1" s="114" t="s">
-        <v>558</v>
       </c>
       <c r="E1" s="139" t="s">
         <v>126</v>
@@ -66294,7 +66323,7 @@
         <v xml:space="preserve"> - Kéo thêm 01 mạch đường dây trung thế 3ACXh-24kV- 240mm2 trên đường dây trung thế hiện hữu 3 mạch (cáp 3ACX240-AC150+6ACX240-AC120mm2 HH giữ nguyên) dài: 636 mét.</v>
       </c>
       <c r="E2" s="140" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="F2" s="140"/>
       <c r="G2" s="140"/>
@@ -66315,7 +66344,7 @@
         <v xml:space="preserve"> - Kéo thêm 1 mạch đường dây trung thế 3ACXh-24kV- 240mm2 trên đường dây trung thế 01 mạch hiện hữu (cáp 3ACX240 + AC120mm2 HH giữ nguyên) dài: 7.222 mét.</v>
       </c>
       <c r="E3" s="140" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F3" s="140"/>
       <c r="G3" s="140"/>
@@ -66336,7 +66365,7 @@
         <v xml:space="preserve"> - Xây dựng mới đường dây chống sét cáp TK - 50 mm2 trên đường dây trung thế hiện hữu: từ trụ 039 (tuyến 476, 478, 479) đến trụ 026 (Tuyến 479) : 1.189 mét.</v>
       </c>
       <c r="E4" s="140" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F4" s="140"/>
       <c r="G4" s="141"/>
@@ -66401,7 +66430,7 @@
         <v xml:space="preserve"> - Đấu nối đường dây xây dựng mới vào lưới điện hiện hữu.</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="F7" s="140"/>
       <c r="G7" s="140"/>
@@ -66422,7 +66451,7 @@
         <v xml:space="preserve"> - Xử lý tồn tại toàn công trình</v>
       </c>
       <c r="E8" s="142" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F8" s="142"/>
       <c r="G8" s="142"/>
@@ -66643,13 +66672,13 @@
   <sheetData>
     <row r="1" spans="1:22" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>180</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D1" s="27">
         <f>MAX(D2:D1048576)</f>
@@ -66669,7 +66698,7 @@
       </c>
       <c r="I1" s="83"/>
       <c r="J1" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K1" s="23">
         <f>COUNTIF(K2:K51,"x")</f>
@@ -66694,7 +66723,7 @@
       <c r="C2" s="24"/>
       <c r="D2" s="27"/>
       <c r="E2" s="84">
-        <f t="shared" ref="E2:E34" si="0">D2</f>
+        <f t="shared" ref="E2" si="0">D2</f>
         <v>0</v>
       </c>
       <c r="F2" s="85" t="s">
@@ -66708,10 +66737,10 @@
       </c>
       <c r="I2" s="84"/>
       <c r="J2" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K2" s="62">
-        <f t="shared" ref="K2:K34" si="1">D2</f>
+        <f t="shared" ref="K2" si="1">D2</f>
         <v>0</v>
       </c>
       <c r="L2" s="27">
@@ -66725,25 +66754,25 @@
       </c>
       <c r="O2" s="24"/>
       <c r="P2" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q2" s="48" t="s">
         <v>317</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="R2" s="48" t="s">
         <v>318</v>
-      </c>
-      <c r="R2" s="48" t="s">
-        <v>319</v>
       </c>
       <c r="S2" s="48">
         <v>2</v>
       </c>
       <c r="T2" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="U2" s="48" t="s">
         <v>320</v>
       </c>
-      <c r="U2" s="48" t="s">
-        <v>321</v>
-      </c>
       <c r="V2" s="48" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -66761,19 +66790,19 @@
         <v>1</v>
       </c>
       <c r="E3" s="84">
-        <f>D3</f>
+        <f t="shared" ref="E3:E34" si="2">D3</f>
         <v>1</v>
       </c>
-      <c r="F3" s="166" t="s">
-        <v>529</v>
-      </c>
-      <c r="G3" s="168" t="s">
-        <v>519</v>
-      </c>
-      <c r="H3" s="169" t="s">
+      <c r="F3" s="148" t="s">
+        <v>528</v>
+      </c>
+      <c r="G3" s="150" t="s">
+        <v>518</v>
+      </c>
+      <c r="H3" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="169"/>
+      <c r="I3" s="151"/>
       <c r="J3" s="25">
         <v>1</v>
       </c>
@@ -66789,7 +66818,7 @@
     </row>
     <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="62" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C4" s="62">
         <v>2012</v>
@@ -66798,7 +66827,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="84">
-        <f>D4</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F4" s="85" t="s">
@@ -66841,14 +66870,14 @@
         <v>2</v>
       </c>
       <c r="E5" s="84">
-        <f>D5</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G5" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H5" s="84" t="s">
         <v>108</v>
@@ -66882,14 +66911,14 @@
         <v>3</v>
       </c>
       <c r="E6" s="84">
-        <f>D6</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F6" s="85" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G6" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H6" s="84" t="s">
         <v>108</v>
@@ -66915,7 +66944,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="84">
-        <f>D7</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F7" s="85" t="s">
@@ -66929,7 +66958,7 @@
       </c>
       <c r="I7" s="84"/>
       <c r="J7" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K7" s="62">
         <f>D7</f>
@@ -66952,7 +66981,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="84">
-        <f>D8</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F8" s="85" t="s">
@@ -66966,7 +66995,7 @@
       </c>
       <c r="I8" s="84"/>
       <c r="J8" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K8" s="62">
         <f>D8</f>
@@ -67000,14 +67029,14 @@
         <v>4</v>
       </c>
       <c r="E9" s="84">
-        <f>D9</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F9" s="85" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G9" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H9" s="84" t="s">
         <v>108</v>
@@ -67032,11 +67061,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="84">
-        <f>D10</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G10" s="86"/>
       <c r="H10" s="84"/>
@@ -67053,7 +67082,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="84">
-        <f>D11</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F11" s="85" t="s">
@@ -67067,7 +67096,7 @@
       </c>
       <c r="I11" s="84"/>
       <c r="J11" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K11" s="62">
         <f>D11</f>
@@ -67098,14 +67127,14 @@
         <v>5</v>
       </c>
       <c r="E12" s="84">
-        <f>D12</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F12" s="85" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G12" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H12" s="84" t="s">
         <v>108</v>
@@ -67130,7 +67159,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="84">
-        <f>D13</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F13" s="85" t="s">
@@ -67154,7 +67183,7 @@
         <v>5</v>
       </c>
       <c r="E14" s="84">
-        <f>D14</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F14" s="85" t="s">
@@ -67187,14 +67216,14 @@
         <v>6</v>
       </c>
       <c r="E15" s="84">
-        <f>D15</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F15" s="85" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G15" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H15" s="84" t="s">
         <v>108</v>
@@ -67228,14 +67257,14 @@
         <v>7</v>
       </c>
       <c r="E16" s="84">
-        <f>D16</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G16" s="86" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H16" s="84" t="s">
         <v>108</v>
@@ -67269,14 +67298,14 @@
         <v>8</v>
       </c>
       <c r="E17" s="84">
-        <f>D17</f>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="F17" s="85" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G17" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H17" s="84" t="s">
         <v>108</v>
@@ -67310,14 +67339,14 @@
         <v>9</v>
       </c>
       <c r="E18" s="84">
-        <f>D18</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F18" s="85" t="s">
+        <v>517</v>
+      </c>
+      <c r="G18" s="86" t="s">
         <v>518</v>
-      </c>
-      <c r="G18" s="86" t="s">
-        <v>519</v>
       </c>
       <c r="H18" s="84" t="s">
         <v>108</v>
@@ -67342,7 +67371,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="84">
-        <f>D19</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F19" s="85" t="s">
@@ -67366,7 +67395,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="84">
-        <f>D20</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F20" s="85" t="s">
@@ -67390,7 +67419,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="84">
-        <f>D21</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="F21" s="85" t="s">
@@ -67426,14 +67455,14 @@
         <v>10</v>
       </c>
       <c r="E22" s="84">
-        <f>D22</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F22" s="85" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G22" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H22" s="84" t="s">
         <v>108</v>
@@ -67467,14 +67496,14 @@
         <v>11</v>
       </c>
       <c r="E23" s="84">
-        <f>D23</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F23" s="85" t="s">
         <v>117</v>
       </c>
       <c r="G23" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H23" s="84" t="s">
         <v>108</v>
@@ -67499,7 +67528,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="84">
-        <f>D24</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F24" s="85" t="s">
@@ -67532,14 +67561,14 @@
         <v>12</v>
       </c>
       <c r="E25" s="84">
-        <f>D25</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="F25" s="85" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G25" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H25" s="84" t="s">
         <v>108</v>
@@ -67573,14 +67602,14 @@
         <v>13</v>
       </c>
       <c r="E26" s="84">
-        <f>D26</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="F26" s="85" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G26" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H26" s="84" t="s">
         <v>108</v>
@@ -67606,7 +67635,7 @@
         <v>13</v>
       </c>
       <c r="E27" s="84">
-        <f>D27</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="F27" s="85" t="s">
@@ -67620,7 +67649,7 @@
       </c>
       <c r="I27" s="84"/>
       <c r="J27" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K27" s="62">
         <f>D27</f>
@@ -67642,11 +67671,11 @@
         <v>13</v>
       </c>
       <c r="E28" s="84">
-        <f>D28</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="F28" s="85" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G28" s="86"/>
       <c r="H28" s="84"/>
@@ -67663,7 +67692,7 @@
         <v>13</v>
       </c>
       <c r="E29" s="84">
-        <f>D29</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="F29" s="85" t="s">
@@ -67677,7 +67706,7 @@
       </c>
       <c r="I29" s="84"/>
       <c r="J29" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K29" s="62">
         <f>D29</f>
@@ -67699,11 +67728,11 @@
         <v>13</v>
       </c>
       <c r="E30" s="84">
-        <f>D30</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G30" s="86"/>
       <c r="H30" s="84"/>
@@ -67728,14 +67757,14 @@
         <v>14</v>
       </c>
       <c r="E31" s="84">
-        <f>D31</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="F31" s="85" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G31" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H31" s="84" t="s">
         <v>108</v>
@@ -67760,11 +67789,11 @@
         <v>14</v>
       </c>
       <c r="E32" s="84">
-        <f>D32</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="F32" s="85" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G32" s="86">
         <v>44015</v>
@@ -67793,14 +67822,14 @@
         <v>15</v>
       </c>
       <c r="E33" s="84">
-        <f>D33</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="F33" s="85" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G33" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H33" s="84" t="s">
         <v>108</v>
@@ -67826,11 +67855,11 @@
         <v>15</v>
       </c>
       <c r="E34" s="84">
-        <f>D34</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="F34" s="85" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G34" s="86">
         <v>44015</v>
@@ -67840,7 +67869,7 @@
       </c>
       <c r="I34" s="84"/>
       <c r="J34" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K34" s="62">
         <f>D34</f>
@@ -67868,14 +67897,14 @@
         <v>16</v>
       </c>
       <c r="E35" s="84">
-        <f>D35</f>
+        <f t="shared" ref="E35:E66" si="3">D35</f>
         <v>16</v>
       </c>
       <c r="F35" s="85" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G35" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H35" s="84" t="s">
         <v>108</v>
@@ -67901,7 +67930,7 @@
         <v>16</v>
       </c>
       <c r="E36" s="84">
-        <f>D36</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F36" s="85" t="s">
@@ -67915,14 +67944,14 @@
       </c>
       <c r="I36" s="84"/>
       <c r="J36" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K36" s="62">
         <f>D36</f>
         <v>16</v>
       </c>
       <c r="L36" s="27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M36" s="28">
         <v>28956</v>
@@ -67938,11 +67967,11 @@
         <v>16</v>
       </c>
       <c r="E37" s="84">
-        <f>D37</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F37" s="85" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G37" s="86">
         <v>44014</v>
@@ -67952,7 +67981,7 @@
       </c>
       <c r="I37" s="84"/>
       <c r="J37" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K37" s="62">
         <f>D37</f>
@@ -67975,7 +68004,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="84">
-        <f>D38</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F38" s="85" t="s">
@@ -67989,7 +68018,7 @@
       </c>
       <c r="I38" s="84"/>
       <c r="J38" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K38" s="62">
         <f>D38</f>
@@ -68020,14 +68049,14 @@
         <v>17</v>
       </c>
       <c r="E39" s="84">
-        <f>D39</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="F39" s="85" t="s">
         <v>123</v>
       </c>
       <c r="G39" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H39" s="84" t="s">
         <v>108</v>
@@ -68061,14 +68090,14 @@
         <v>18</v>
       </c>
       <c r="E40" s="84">
-        <f>D40</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="F40" s="85" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G40" s="86" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H40" s="84" t="s">
         <v>108</v>
@@ -68093,7 +68122,7 @@
         <v>18</v>
       </c>
       <c r="E41" s="84">
-        <f>D41</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="F41" s="85" t="s">
@@ -68120,7 +68149,7 @@
         <v>18</v>
       </c>
       <c r="E42" s="84">
-        <f>D42</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="F42" s="85" t="s">
@@ -68153,7 +68182,7 @@
         <v>18</v>
       </c>
       <c r="E43" s="84">
-        <f>D43</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="F43" s="85" t="s">
@@ -68167,7 +68196,7 @@
       </c>
       <c r="I43" s="84"/>
       <c r="J43" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K43" s="62">
         <f>D43</f>
@@ -68198,14 +68227,14 @@
         <v>19</v>
       </c>
       <c r="E44" s="84">
-        <f>D44</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="F44" s="85" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G44" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H44" s="84" t="s">
         <v>108</v>
@@ -68234,11 +68263,11 @@
         <v>19</v>
       </c>
       <c r="E45" s="84">
-        <f>D45</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="F45" s="85" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G45" s="86">
         <v>44014</v>
@@ -68250,7 +68279,7 @@
         <v>126</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K45" s="62">
         <f>D45</f>
@@ -68270,7 +68299,7 @@
         <v>19</v>
       </c>
       <c r="E46" s="84">
-        <f>D46</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="F46" s="85" t="s">
@@ -68284,7 +68313,7 @@
       </c>
       <c r="I46" s="84"/>
       <c r="J46" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K46" s="62">
         <f>D46</f>
@@ -68306,7 +68335,7 @@
         <v>19</v>
       </c>
       <c r="E47" s="84">
-        <f>D47</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="F47" s="85" t="s">
@@ -68330,7 +68359,7 @@
         <v>19</v>
       </c>
       <c r="E48" s="84">
-        <f>D48</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="F48" s="85" t="s">
@@ -68363,14 +68392,14 @@
         <v>20</v>
       </c>
       <c r="E49" s="84">
-        <f>D49</f>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="F49" s="85" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G49" s="86" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="H49" s="84" t="s">
         <v>108</v>
@@ -68391,7 +68420,7 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>126</v>
@@ -68400,17 +68429,17 @@
         <v>2016</v>
       </c>
       <c r="E50" s="84">
-        <f>D50</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F50" s="167" t="s">
-        <v>501</v>
-      </c>
-      <c r="G50" s="167"/>
-      <c r="H50" s="167" t="s">
+      <c r="F50" s="149" t="s">
+        <v>500</v>
+      </c>
+      <c r="G50" s="149"/>
+      <c r="H50" s="149" t="s">
         <v>148</v>
       </c>
-      <c r="I50" s="167"/>
+      <c r="I50" s="149"/>
       <c r="L50" s="27">
         <v>272236579</v>
       </c>
@@ -68427,11 +68456,11 @@
         <v>21</v>
       </c>
       <c r="E51" s="84">
-        <f>D51</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="F51" s="85" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G51" s="86">
         <v>44014</v>
@@ -68450,7 +68479,7 @@
     </row>
     <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D52" s="27">
         <f>COUNTIF($B$1:B52,"x")</f>
@@ -68458,11 +68487,11 @@
       </c>
       <c r="E52" s="84"/>
       <c r="F52" s="85" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G52" s="86"/>
       <c r="H52" s="84" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I52" s="84"/>
       <c r="K52" s="62"/>
@@ -68472,7 +68501,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>126</v>
@@ -68519,7 +68548,7 @@
         <v>22</v>
       </c>
       <c r="F54" s="85" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G54" s="86">
         <v>44014</v>
@@ -68538,7 +68567,7 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C60" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -68548,27 +68577,27 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C62" s="24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C63" s="24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C64" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C65" s="24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C66" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.3">
@@ -68578,62 +68607,62 @@
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C68" s="24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C69" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C70" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C71" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C72" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C73" s="24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C74" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C75" s="24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C76" s="24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C77" s="24" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C78" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C79" s="24" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -68682,10 +68711,10 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G2" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="3" spans="5:7" x14ac:dyDescent="0.3">
@@ -68693,10 +68722,10 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="5:7" x14ac:dyDescent="0.3">
@@ -68704,10 +68733,10 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="5" spans="5:7" x14ac:dyDescent="0.3">
@@ -68715,10 +68744,10 @@
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G5" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="6" spans="5:7" x14ac:dyDescent="0.3">
@@ -68726,10 +68755,10 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="7" spans="5:7" x14ac:dyDescent="0.3">
@@ -68740,7 +68769,7 @@
         <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="8" spans="5:7" x14ac:dyDescent="0.3">
@@ -68748,10 +68777,10 @@
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="9" spans="5:7" x14ac:dyDescent="0.3">
@@ -68759,10 +68788,10 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G9" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="10" spans="5:7" x14ac:dyDescent="0.3">
@@ -68770,10 +68799,10 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G10" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="11" spans="5:7" x14ac:dyDescent="0.3">
@@ -68781,10 +68810,10 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G11" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="12" spans="5:7" x14ac:dyDescent="0.3">
@@ -68792,10 +68821,10 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G12" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="13" spans="5:7" x14ac:dyDescent="0.3">
@@ -68806,7 +68835,7 @@
         <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="14" spans="5:7" x14ac:dyDescent="0.3">
@@ -68814,10 +68843,10 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G14" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.3">
@@ -68825,10 +68854,10 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G15" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="16" spans="5:7" x14ac:dyDescent="0.3">
@@ -68836,10 +68865,10 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G16" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.3">
@@ -68847,10 +68876,10 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G17" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" spans="5:7" x14ac:dyDescent="0.3">
@@ -68858,10 +68887,10 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G18" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.3">
@@ -68869,10 +68898,10 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G19" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.3">
@@ -68880,10 +68909,10 @@
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G20" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.3">
@@ -68891,7 +68920,7 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G21" t="s">
         <v>108</v>
@@ -68907,7 +68936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -68932,25 +68961,25 @@
       <c r="D1" s="69" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="163" t="s">
+      <c r="E1" s="167" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="163"/>
+      <c r="F1" s="167"/>
       <c r="G1" s="69" t="s">
         <v>212</v>
       </c>
       <c r="I1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="J1" s="120">
         <v>3500000000</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="164" t="s">
+      <c r="B2" s="168" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="169" t="s">
         <v>214</v>
       </c>
       <c r="D2" s="70" t="s">
@@ -68962,15 +68991,15 @@
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
       <c r="I2" t="s">
+        <v>561</v>
+      </c>
+      <c r="J2" t="s">
         <v>562</v>
-      </c>
-      <c r="J2" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="164"/>
-      <c r="C3" s="165"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
       <c r="D3" s="70" t="s">
         <v>207</v>
       </c>
@@ -68980,15 +69009,15 @@
       <c r="F3" s="72"/>
       <c r="G3" s="72"/>
       <c r="I3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J3" s="117" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="164"/>
-      <c r="C4" s="165"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="169"/>
       <c r="D4" s="70" t="s">
         <v>208</v>
       </c>
@@ -68997,10 +69026,10 @@
       </c>
       <c r="F4" s="72"/>
       <c r="I4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J4" s="117" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L4" t="s">
         <v>226</v>
@@ -69024,16 +69053,16 @@
         <v>2007</v>
       </c>
       <c r="J5" s="118" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="E6" s="67"/>
       <c r="I6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.3">
@@ -69041,13 +69070,13 @@
         <v>210</v>
       </c>
       <c r="C7" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" t="s">
         <v>384</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>385</v>
-      </c>
-      <c r="E7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="62.4" x14ac:dyDescent="0.3">
@@ -69055,34 +69084,34 @@
         <v>2017</v>
       </c>
       <c r="C8" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" t="s">
         <v>387</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>388</v>
       </c>
-      <c r="E8" t="s">
-        <v>389</v>
-      </c>
       <c r="I8" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="J8" s="61" t="s">
         <v>322</v>
-      </c>
-      <c r="J8" s="61" t="s">
-        <v>323</v>
       </c>
       <c r="K8" s="61" t="s">
         <v>106</v>
       </c>
       <c r="L8" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="M8" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="M8" s="61" t="s">
+      <c r="N8" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="N8" s="61" t="s">
-        <v>326</v>
-      </c>
       <c r="O8" s="61" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="72" x14ac:dyDescent="0.3">
@@ -69090,34 +69119,34 @@
         <v>2018</v>
       </c>
       <c r="C9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" t="s">
         <v>390</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>391</v>
       </c>
-      <c r="E9" t="s">
-        <v>392</v>
-      </c>
       <c r="I9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="L9" s="147" t="s">
+        <v>875</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>877</v>
-      </c>
       <c r="N9" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.3">
@@ -69125,13 +69154,13 @@
         <v>2019</v>
       </c>
       <c r="C10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D10" t="s">
+        <v>392</v>
+      </c>
+      <c r="E10" t="s">
         <v>393</v>
-      </c>
-      <c r="E10" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -69178,31 +69207,31 @@
         <v>1740168722</v>
       </c>
       <c r="B1" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="94" t="s">
         <v>372</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1" s="94" t="s">
-        <v>373</v>
       </c>
       <c r="E1" s="65" t="s">
         <v>201</v>
       </c>
       <c r="F1" s="65" t="s">
+        <v>373</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="H1" s="65" t="s">
         <v>374</v>
       </c>
-      <c r="G1" s="65" t="s">
-        <v>379</v>
-      </c>
-      <c r="H1" s="65" t="s">
+      <c r="I1" s="65" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="J1" s="65" t="s">
         <v>376</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
@@ -69210,16 +69239,16 @@
         <v>126</v>
       </c>
       <c r="B2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" t="s">
         <v>349</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="95" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="95" t="s">
-        <v>351</v>
-      </c>
       <c r="E2" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F2">
         <v>1740168722</v>
@@ -69228,27 +69257,27 @@
         <v>1640251089</v>
       </c>
       <c r="H2" t="s">
+        <v>351</v>
+      </c>
+      <c r="I2" t="s">
         <v>352</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>353</v>
-      </c>
-      <c r="J2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="C3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D3" s="95" t="s">
-        <v>361</v>
-      </c>
       <c r="E3" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F3">
         <v>1179998336</v>
@@ -69257,27 +69286,27 @@
         <v>1133019615</v>
       </c>
       <c r="H3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I3" t="s">
         <v>362</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>363</v>
-      </c>
-      <c r="J3" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E4" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F4">
         <v>1327002420</v>
@@ -69286,27 +69315,27 @@
         <v>1276052117</v>
       </c>
       <c r="H4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I4" t="s">
+        <v>365</v>
+      </c>
+      <c r="J4" t="s">
         <v>366</v>
-      </c>
-      <c r="J4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E5" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F5">
         <v>1419238697</v>
@@ -69315,27 +69344,27 @@
         <v>1374255938</v>
       </c>
       <c r="H5" t="s">
+        <v>368</v>
+      </c>
+      <c r="I5" t="s">
         <v>369</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>370</v>
-      </c>
-      <c r="J5" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="95" t="s">
         <v>355</v>
       </c>
-      <c r="C6" t="s">
-        <v>350</v>
-      </c>
-      <c r="D6" s="95" t="s">
-        <v>356</v>
-      </c>
       <c r="E6" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F6">
         <v>3160636128</v>
@@ -69344,24 +69373,24 @@
         <v>3043578216</v>
       </c>
       <c r="H6" t="s">
+        <v>356</v>
+      </c>
+      <c r="I6" t="s">
         <v>357</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>358</v>
-      </c>
-      <c r="J6" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D7" s="96">
         <v>42670</v>
       </c>
       <c r="E7" s="66" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F7">
         <v>1617638971</v>
@@ -69373,10 +69402,10 @@
         <v>42725</v>
       </c>
       <c r="I7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
@@ -69459,10 +69488,10 @@
         <v>152</v>
       </c>
       <c r="D1" t="s">
+        <v>576</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.3">
@@ -69470,10 +69499,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>578</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.3">
@@ -69481,10 +69510,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
@@ -69492,10 +69521,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>582</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
@@ -69503,10 +69532,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
+        <v>584</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
@@ -69514,10 +69543,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>586</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
@@ -69525,10 +69554,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.3">
@@ -69536,21 +69565,21 @@
         <v>152</v>
       </c>
       <c r="D11" t="s">
+        <v>589</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>591</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="3:6" ht="129.6" x14ac:dyDescent="0.3">
@@ -69558,13 +69587,13 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>593</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="14" spans="3:6" ht="100.8" x14ac:dyDescent="0.3">
@@ -69572,13 +69601,13 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
+        <v>596</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="15" spans="3:6" ht="115.2" x14ac:dyDescent="0.3">
@@ -69586,10 +69615,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
+        <v>598</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>599</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -69615,19 +69644,19 @@
         <v>180</v>
       </c>
       <c r="E1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G1" t="s">
         <v>604</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>605</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>606</v>
-      </c>
-      <c r="I1" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="2" spans="4:9" x14ac:dyDescent="0.3">
@@ -69636,7 +69665,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F2" t="s">
         <v>108</v>
@@ -69657,7 +69686,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F3" t="s">
         <v>108</v>
@@ -69678,7 +69707,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F4" t="s">
         <v>108</v>
@@ -69699,7 +69728,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F5" t="s">
         <v>108</v>
@@ -69732,7 +69761,7 @@
         <v>29460</v>
       </c>
       <c r="I6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
@@ -69753,7 +69782,7 @@
         <v>26037</v>
       </c>
       <c r="I7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
@@ -69765,7 +69794,7 @@
         <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G8">
         <v>271285313</v>
@@ -69774,7 +69803,7 @@
         <v>28333</v>
       </c>
       <c r="I8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
@@ -69783,10 +69812,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G9">
         <v>271485073</v>
@@ -69795,7 +69824,7 @@
         <v>29601</v>
       </c>
       <c r="I9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
@@ -69804,10 +69833,10 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="F10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G10">
         <v>271316993</v>
@@ -69816,7 +69845,7 @@
         <v>29130</v>
       </c>
       <c r="I10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
@@ -69828,7 +69857,7 @@
         <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G11">
         <v>271483902</v>
@@ -69837,7 +69866,7 @@
         <v>29749</v>
       </c>
       <c r="I11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
@@ -69846,7 +69875,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F12">
         <v>272282903</v>
@@ -69864,7 +69893,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F13" t="s">
         <v>108</v>
@@ -69885,7 +69914,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F14" t="s">
         <v>108</v>
@@ -69927,7 +69956,7 @@
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F16" t="s">
         <v>108</v>
@@ -69960,7 +69989,7 @@
         <v>32228</v>
       </c>
       <c r="I17" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.3">
@@ -69981,7 +70010,7 @@
         <v>27706</v>
       </c>
       <c r="I18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="4:10" x14ac:dyDescent="0.3">
@@ -70002,7 +70031,7 @@
         <v>30671</v>
       </c>
       <c r="I19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.3">
@@ -70011,10 +70040,10 @@
         <v>22</v>
       </c>
       <c r="E20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G20">
         <v>214523467</v>
@@ -70023,7 +70052,7 @@
         <v>30596</v>
       </c>
       <c r="I20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="4:10" x14ac:dyDescent="0.3">
@@ -70032,10 +70061,10 @@
         <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G21">
         <v>271172296</v>
@@ -70044,7 +70073,7 @@
         <v>27534</v>
       </c>
       <c r="I21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.3">
@@ -70053,7 +70082,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F22" t="s">
         <v>108</v>
@@ -70077,7 +70106,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F23" t="s">
         <v>108</v>
@@ -70101,7 +70130,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -70125,7 +70154,7 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F25" t="s">
         <v>108</v>
@@ -70149,7 +70178,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="F26" t="s">
         <v>108</v>
@@ -70197,7 +70226,7 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F28" t="s">
         <v>108</v>
@@ -70233,10 +70262,10 @@
         <v>26845</v>
       </c>
       <c r="I29" s="79" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J29" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="4:10" x14ac:dyDescent="0.3">
@@ -70257,10 +70286,10 @@
         <v>30730</v>
       </c>
       <c r="I30" s="79" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J30" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="4:10" x14ac:dyDescent="0.3">
@@ -70281,10 +70310,10 @@
         <v>30193</v>
       </c>
       <c r="I31" s="79" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J31" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="4:10" x14ac:dyDescent="0.3">
@@ -70293,7 +70322,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F32" t="s">
         <v>108</v>
@@ -70314,7 +70343,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F33" t="s">
         <v>108</v>
@@ -70335,7 +70364,7 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F34" t="s">
         <v>108</v>
@@ -70356,7 +70385,7 @@
         <v>4</v>
       </c>
       <c r="E35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F35" t="s">
         <v>108</v>
@@ -70377,7 +70406,7 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F36" t="s">
         <v>108</v>
@@ -70398,7 +70427,7 @@
         <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F37" t="s">
         <v>108</v>
@@ -70419,10 +70448,10 @@
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F38" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G38">
         <v>271229202</v>
@@ -70431,7 +70460,7 @@
         <v>28052</v>
       </c>
       <c r="I38" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
@@ -70440,19 +70469,19 @@
         <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F39" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G39">
         <v>272526412</v>
       </c>
       <c r="H39" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I39" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
@@ -70461,10 +70490,10 @@
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F40" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G40">
         <v>271601608</v>
@@ -70473,7 +70502,7 @@
         <v>30303</v>
       </c>
       <c r="I40" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.3">
@@ -70485,7 +70514,7 @@
         <v>128</v>
       </c>
       <c r="F41" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G41">
         <v>271298968</v>
@@ -70494,7 +70523,7 @@
         <v>28217</v>
       </c>
       <c r="I41" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">
@@ -70503,7 +70532,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F42" t="s">
         <v>108</v>
@@ -70548,29 +70577,29 @@
         <v>168</v>
       </c>
       <c r="D1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F1" t="s">
         <v>631</v>
-      </c>
-      <c r="E1" t="s">
-        <v>434</v>
-      </c>
-      <c r="F1" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="2" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D2" t="s">
         <v>633</v>
-      </c>
-      <c r="D2" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="3" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E3" t="s">
         <v>635</v>
-      </c>
-      <c r="E3" t="s">
-        <v>636</v>
       </c>
       <c r="F3">
         <v>30</v>
@@ -70578,37 +70607,37 @@
     </row>
     <row r="4" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
+        <v>637</v>
+      </c>
+      <c r="E5" t="s">
         <v>638</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>639</v>
-      </c>
-      <c r="F5" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="6" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
+        <v>640</v>
+      </c>
+      <c r="E6" t="s">
         <v>641</v>
       </c>
-      <c r="E6" t="s">
-        <v>642</v>
-      </c>
       <c r="F6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -70616,15 +70645,15 @@
     </row>
     <row r="8" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F9" s="122">
         <v>1368</v>
@@ -70632,32 +70661,32 @@
     </row>
     <row r="10" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
+        <v>644</v>
+      </c>
+      <c r="E10" t="s">
         <v>645</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>646</v>
-      </c>
-      <c r="F10" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="11" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
+        <v>647</v>
+      </c>
+      <c r="E11" t="s">
+        <v>641</v>
+      </c>
+      <c r="F11" t="s">
         <v>648</v>
-      </c>
-      <c r="E11" t="s">
-        <v>642</v>
-      </c>
-      <c r="F11" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="12" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F12" s="122">
         <v>1207</v>
@@ -70665,10 +70694,10 @@
     </row>
     <row r="13" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
+        <v>650</v>
+      </c>
+      <c r="E13" t="s">
         <v>651</v>
-      </c>
-      <c r="E13" t="s">
-        <v>652</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -70676,10 +70705,10 @@
     </row>
     <row r="14" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -70687,10 +70716,10 @@
     </row>
     <row r="15" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E15" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -70698,62 +70727,62 @@
     </row>
     <row r="16" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E16" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
+        <v>655</v>
+      </c>
+      <c r="E17" t="s">
+        <v>645</v>
+      </c>
+      <c r="F17" t="s">
         <v>656</v>
-      </c>
-      <c r="E17" t="s">
-        <v>646</v>
-      </c>
-      <c r="F17" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="18" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
+        <v>657</v>
+      </c>
+      <c r="E18" t="s">
+        <v>641</v>
+      </c>
+      <c r="F18" t="s">
         <v>658</v>
-      </c>
-      <c r="E18" t="s">
-        <v>642</v>
-      </c>
-      <c r="F18" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="19" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
+        <v>659</v>
+      </c>
+      <c r="E19" t="s">
+        <v>641</v>
+      </c>
+      <c r="F19" t="s">
         <v>660</v>
-      </c>
-      <c r="E19" t="s">
-        <v>642</v>
-      </c>
-      <c r="F19" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="20" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
+        <v>661</v>
+      </c>
+      <c r="E20" t="s">
+        <v>641</v>
+      </c>
+      <c r="F20" t="s">
         <v>662</v>
-      </c>
-      <c r="E20" t="s">
-        <v>642</v>
-      </c>
-      <c r="F20" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="21" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F21" s="122">
         <v>4480</v>
@@ -70761,10 +70790,10 @@
     </row>
     <row r="22" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E22" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F22" s="122">
         <v>2220</v>
@@ -70772,21 +70801,21 @@
     </row>
     <row r="23" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
+        <v>640</v>
+      </c>
+      <c r="E23" t="s">
         <v>641</v>
       </c>
-      <c r="E23" t="s">
-        <v>642</v>
-      </c>
       <c r="F23" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E24" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F24" s="122">
         <v>1368</v>
@@ -70794,10 +70823,10 @@
     </row>
     <row r="25" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
+        <v>667</v>
+      </c>
+      <c r="E25" t="s">
         <v>668</v>
-      </c>
-      <c r="E25" t="s">
-        <v>669</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -70805,15 +70834,15 @@
     </row>
     <row r="26" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E27" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F27" s="122">
         <v>2912</v>
@@ -70821,10 +70850,10 @@
     </row>
     <row r="28" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
+        <v>671</v>
+      </c>
+      <c r="E28" t="s">
         <v>672</v>
-      </c>
-      <c r="E28" t="s">
-        <v>673</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -70832,10 +70861,10 @@
     </row>
     <row r="29" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E29" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -70843,10 +70872,10 @@
     </row>
     <row r="30" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
+        <v>674</v>
+      </c>
+      <c r="E30" t="s">
         <v>675</v>
-      </c>
-      <c r="E30" t="s">
-        <v>676</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -70854,10 +70883,10 @@
     </row>
     <row r="31" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E31" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -70865,32 +70894,32 @@
     </row>
     <row r="32" spans="4:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
+        <v>677</v>
+      </c>
+      <c r="E32" t="s">
+        <v>651</v>
+      </c>
+      <c r="F32" t="s">
         <v>678</v>
-      </c>
-      <c r="E32" t="s">
-        <v>652</v>
-      </c>
-      <c r="F32" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="33" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E33" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F33" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="34" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E34" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F34" s="122">
         <v>2912</v>
@@ -70898,10 +70927,10 @@
     </row>
     <row r="35" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -70909,10 +70938,10 @@
     </row>
     <row r="36" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E36" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -70920,7 +70949,7 @@
     </row>
     <row r="37" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
@@ -70928,7 +70957,7 @@
         <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F38" s="122">
         <v>6720</v>
@@ -70936,10 +70965,10 @@
     </row>
     <row r="39" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
+        <v>671</v>
+      </c>
+      <c r="E39" t="s">
         <v>672</v>
-      </c>
-      <c r="E39" t="s">
-        <v>673</v>
       </c>
       <c r="F39">
         <v>6</v>
@@ -70947,10 +70976,10 @@
     </row>
     <row r="40" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E40" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F40">
         <v>6</v>
@@ -70958,10 +70987,10 @@
     </row>
     <row r="41" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F41">
         <v>6</v>
@@ -70969,10 +70998,10 @@
     </row>
     <row r="42" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E42" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F42" s="122">
         <v>1550</v>
@@ -70980,10 +71009,10 @@
     </row>
     <row r="43" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E43" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F43" s="122">
         <v>1550</v>
@@ -70991,10 +71020,10 @@
     </row>
     <row r="44" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E44" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F44" s="122">
         <v>6720</v>
@@ -71002,10 +71031,10 @@
     </row>
     <row r="45" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E45" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F45">
         <v>6</v>
@@ -71013,21 +71042,21 @@
     </row>
     <row r="46" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
+        <v>684</v>
+      </c>
+      <c r="D46" t="s">
         <v>685</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>686</v>
-      </c>
-      <c r="E46" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="47" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
+        <v>687</v>
+      </c>
+      <c r="E47" t="s">
         <v>688</v>
-      </c>
-      <c r="E47" t="s">
-        <v>689</v>
       </c>
       <c r="F47">
         <v>42</v>
@@ -71035,15 +71064,15 @@
     </row>
     <row r="48" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="49" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
+        <v>689</v>
+      </c>
+      <c r="E49" t="s">
         <v>690</v>
-      </c>
-      <c r="E49" t="s">
-        <v>691</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -71051,10 +71080,10 @@
     </row>
     <row r="50" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E50" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -71062,18 +71091,18 @@
     </row>
     <row r="51" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
+        <v>692</v>
+      </c>
+      <c r="D51" t="s">
         <v>693</v>
-      </c>
-      <c r="D51" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="52" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E52" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -71081,15 +71110,15 @@
     </row>
     <row r="53" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="54" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E54" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -71097,10 +71126,10 @@
     </row>
     <row r="55" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E55" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F55">
         <v>2</v>
@@ -71108,10 +71137,10 @@
     </row>
     <row r="56" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E56" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -71119,10 +71148,10 @@
     </row>
     <row r="57" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E57" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -71130,10 +71159,10 @@
     </row>
     <row r="58" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E58" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -71141,10 +71170,10 @@
     </row>
     <row r="59" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E59" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -71152,10 +71181,10 @@
     </row>
     <row r="60" spans="3:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>702</v>
+        <v>701</v>